--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F92196-8AD9-458B-AA61-85BA84131D74}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC4D66-AD9A-4F62-8F64-96EE57397C90}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2621,72 +2621,6 @@
     <xf numFmtId="174" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="174" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2695,9 +2629,6 @@
     <xf numFmtId="169" fontId="25" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2727,6 +2658,75 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="32" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2736,7 +2736,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2847,541 +2847,6 @@
         <i val="0"/>
         <color rgb="FFFFFFFF"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -3619,6 +3084,114 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9601200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3CE7BB-0A37-43B3-AD67-C0D721059C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8839200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B8826-9902-44AB-906C-006075018019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8839200" cy="9525000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3952,7 +3525,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,13 +3578,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43641</v>
-      </c>
-      <c r="E1" s="291">
+        <v>43642</v>
+      </c>
+      <c r="E1" s="309">
         <v>43637</v>
       </c>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -4307,7 +3880,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C22" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.6875</v>
+        <v>17.678571428571427</v>
       </c>
       <c r="D4" s="231" t="s">
         <v>54</v>
@@ -4317,7 +3890,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -4489,7 +4062,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.875</v>
+        <v>8.8660714285714288</v>
       </c>
       <c r="D5" s="230" t="s">
         <v>62</v>
@@ -4499,7 +4072,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -4671,7 +4244,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.767857142857142</v>
+        <v>14.758928571428571</v>
       </c>
       <c r="D6" s="230" t="s">
         <v>59</v>
@@ -4681,7 +4254,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -4853,7 +4426,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.8125</v>
+        <v>17.803571428571427</v>
       </c>
       <c r="D7" s="230" t="s">
         <v>64</v>
@@ -4863,7 +4436,7 @@
       </c>
       <c r="F7" s="51">
         <f ca="1">$D$1-43620</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="37">
@@ -5033,7 +4606,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9732142857142856</v>
+        <v>3.9642857142857144</v>
       </c>
       <c r="D8" s="230" t="s">
         <v>67</v>
@@ -5043,7 +4616,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -5213,7 +4786,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4285714285714288</v>
+        <v>9.4196428571428577</v>
       </c>
       <c r="D9" s="211" t="s">
         <v>69</v>
@@ -5223,7 +4796,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="30">
@@ -5393,9 +4966,9 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4017857142857144</v>
-      </c>
-      <c r="D10" s="331" t="s">
+        <v>7.3928571428571432</v>
+      </c>
+      <c r="D10" s="308" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="50">
@@ -5403,7 +4976,7 @@
       </c>
       <c r="F10" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -5573,9 +5146,9 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1517857142857144</v>
-      </c>
-      <c r="D11" s="331" t="s">
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="D11" s="308" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="50">
@@ -5583,7 +5156,7 @@
       </c>
       <c r="F11" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="37">
@@ -5753,7 +5326,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.839285714285714</v>
+        <v>10.830357142857142</v>
       </c>
       <c r="D12" s="211" t="s">
         <v>76</v>
@@ -5763,7 +5336,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>77</v>
@@ -5935,7 +5508,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.178571428571429</v>
+        <v>14.169642857142858</v>
       </c>
       <c r="D13" s="230" t="s">
         <v>79</v>
@@ -5945,7 +5518,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -6115,7 +5688,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.491071428571427</v>
+        <v>16.482142857142858</v>
       </c>
       <c r="D14" s="230" t="s">
         <v>81</v>
@@ -6125,7 +5698,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -6295,7 +5868,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.9375</v>
+        <v>12.928571428571429</v>
       </c>
       <c r="D15" s="230" t="s">
         <v>83</v>
@@ -6305,7 +5878,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -6475,7 +6048,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.955357142857142</v>
+        <v>11.946428571428571</v>
       </c>
       <c r="D16" s="230" t="s">
         <v>85</v>
@@ -6485,7 +6058,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="37">
@@ -6655,7 +6228,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9196428571428577</v>
+        <v>8.9107142857142865</v>
       </c>
       <c r="D17" s="230" t="s">
         <v>87</v>
@@ -6665,7 +6238,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>88</v>
@@ -6837,7 +6410,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.169642857142858</v>
+        <v>15.160714285714286</v>
       </c>
       <c r="D18" s="230" t="s">
         <v>91</v>
@@ -6847,7 +6420,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -7017,7 +6590,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.330357142857142</v>
+        <v>13.321428571428571</v>
       </c>
       <c r="D19" s="230" t="s">
         <v>93</v>
@@ -7027,7 +6600,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -7197,7 +6770,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.919642857142858</v>
+        <v>17.910714285714285</v>
       </c>
       <c r="D20" s="230" t="s">
         <v>96</v>
@@ -7207,7 +6780,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -7377,7 +6950,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9642857142857144</v>
+        <v>2.9553571428571428</v>
       </c>
       <c r="D21" s="230" t="s">
         <v>98</v>
@@ -7387,7 +6960,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -7557,7 +7130,7 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.017857142857142</v>
+        <v>10.008928571428571</v>
       </c>
       <c r="D22" s="230" t="s">
         <v>100</v>
@@ -7567,7 +7140,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">$D$1-43531</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="37">
@@ -8403,13 +7976,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="310" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
       <c r="F1" s="119"/>
       <c r="G1" s="118"/>
       <c r="H1" s="119"/>
@@ -8610,13 +8183,13 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="293" t="s">
+      <c r="A4" s="311" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
       <c r="F4" s="127"/>
       <c r="G4" s="126"/>
       <c r="H4" s="127"/>
@@ -8823,13 +8396,13 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="294" t="s">
+      <c r="A7" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="294"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294"/>
-      <c r="E7" s="294"/>
+      <c r="B7" s="312"/>
+      <c r="C7" s="312"/>
+      <c r="D7" s="312"/>
+      <c r="E7" s="312"/>
       <c r="F7" s="134"/>
       <c r="G7" s="133"/>
       <c r="H7" s="134"/>
@@ -9044,12 +8617,12 @@
       </c>
       <c r="C10" s="140">
         <f ca="1">3+$A$28-$A$30</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="141"/>
       <c r="E10" s="212">
         <f t="shared" ref="E10:E25" ca="1" si="0">F10-TODAY()</f>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F10" s="229">
         <v>43858</v>
@@ -9112,12 +8685,12 @@
       </c>
       <c r="C11" s="140">
         <f ca="1">11+$A$28-$A$30</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="141"/>
       <c r="E11" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" s="229">
         <v>43850</v>
@@ -9178,12 +8751,12 @@
       </c>
       <c r="C12" s="140">
         <f ca="1">14+$A$28-$A$30</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="141"/>
       <c r="E12" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="229">
         <v>43847</v>
@@ -9246,12 +8819,12 @@
       </c>
       <c r="C13" s="140">
         <f ca="1">33+$A$28-$A$30</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F13" s="229">
         <v>43828</v>
@@ -9312,12 +8885,12 @@
       </c>
       <c r="C14" s="140">
         <f ca="1">51+$A$28-$A$30</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="141"/>
       <c r="E14" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F14" s="229">
         <v>43810</v>
@@ -9378,12 +8951,12 @@
       </c>
       <c r="C15" s="140">
         <f ca="1">70+$A$28-$A$30</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="149"/>
       <c r="E15" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F15" s="229">
         <v>43791</v>
@@ -9444,12 +9017,12 @@
       </c>
       <c r="C16" s="140">
         <f ca="1">76+$A$28-$A$30</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D16" s="149"/>
       <c r="E16" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F16" s="229">
         <v>43785</v>
@@ -9514,12 +9087,12 @@
       </c>
       <c r="C17" s="140">
         <f ca="1">96+$A$28-$A$30</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="149"/>
       <c r="E17" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F17" s="229">
         <v>43765</v>
@@ -9580,12 +9153,12 @@
       </c>
       <c r="C18" s="140">
         <f ca="1">-1+$A$28-$A$30</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" s="229">
         <v>43750</v>
@@ -9648,12 +9221,12 @@
       </c>
       <c r="C19" s="140">
         <f ca="1">22+$A$28-$A$30</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" s="141"/>
       <c r="E19" s="212">
         <f ca="1">F19-TODAY()</f>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" s="229">
         <v>43750</v>
@@ -9720,12 +9293,12 @@
       </c>
       <c r="C20" s="140">
         <f ca="1">29+$A$28-$A$30</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="141"/>
       <c r="E20" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="229">
         <v>43749</v>
@@ -9786,12 +9359,12 @@
       </c>
       <c r="C21" s="140">
         <f ca="1">40+$A$28-$A$30</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="141"/>
       <c r="E21" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="229">
         <v>43749</v>
@@ -9852,12 +9425,12 @@
       </c>
       <c r="C22" s="140">
         <f ca="1">66+$A$28-$A$30</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="141"/>
       <c r="E22" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="229">
         <v>43749</v>
@@ -9918,12 +9491,12 @@
       </c>
       <c r="C23" s="140">
         <f ca="1">67+$A$28-$A$30</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="141"/>
       <c r="E23" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="229">
         <v>43749</v>
@@ -9982,12 +9555,12 @@
       </c>
       <c r="C24" s="140">
         <f ca="1">71+$A$28-$A$30</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="149"/>
       <c r="E24" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" s="229">
         <v>43749</v>
@@ -10048,12 +9621,12 @@
       </c>
       <c r="C25" s="140">
         <f ca="1">103+$A$28-$A$30</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D25" s="149"/>
       <c r="E25" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="229">
         <v>43749</v>
@@ -10180,7 +9753,7 @@
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="159">
         <f ca="1">TODAY()</f>
-        <v>43641</v>
+        <v>43642</v>
       </c>
       <c r="B28" s="160"/>
       <c r="C28" s="156"/>
@@ -10220,7 +9793,7 @@
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="162">
         <f ca="1">A30-A28</f>
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="B29" s="146"/>
       <c r="C29" s="146"/>
@@ -10456,18 +10029,18 @@
       <c r="C2" s="167" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="295" t="s">
+      <c r="D2" s="313" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="295"/>
-      <c r="F2" s="296" t="s">
+      <c r="E2" s="313"/>
+      <c r="F2" s="314" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="296"/>
-      <c r="H2" s="297" t="s">
+      <c r="G2" s="314"/>
+      <c r="H2" s="315" t="s">
         <v>215</v>
       </c>
-      <c r="I2" s="297"/>
+      <c r="I2" s="315"/>
       <c r="K2" s="60"/>
       <c r="M2" s="168">
         <v>11</v>
@@ -13538,7 +13111,7 @@
   <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13585,7 +13158,7 @@
       <c r="D2" s="78">
         <v>43637</v>
       </c>
-      <c r="E2" s="328">
+      <c r="E2" s="305">
         <f>D2+7</f>
         <v>43644</v>
       </c>
@@ -13657,14 +13230,14 @@
       <c r="W2" s="76"/>
       <c r="X2" s="76"/>
       <c r="Y2" s="76"/>
-      <c r="Z2" s="301" t="s">
+      <c r="Z2" s="320" t="s">
         <v>276</v>
       </c>
-      <c r="AA2" s="302"/>
-      <c r="AB2" s="302"/>
-      <c r="AC2" s="302"/>
-      <c r="AD2" s="302"/>
-      <c r="AE2" s="303"/>
+      <c r="AA2" s="321"/>
+      <c r="AB2" s="321"/>
+      <c r="AC2" s="321"/>
+      <c r="AD2" s="321"/>
+      <c r="AE2" s="322"/>
       <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -13676,7 +13249,7 @@
       <c r="D3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="329" t="s">
+      <c r="E3" s="306" t="s">
         <v>104</v>
       </c>
       <c r="F3" s="81" t="s">
@@ -13731,14 +13304,14 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="304" t="s">
+      <c r="Z3" s="323" t="s">
         <v>251</v>
       </c>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="305"/>
-      <c r="AD3" s="305"/>
-      <c r="AE3" s="306"/>
+      <c r="AA3" s="324"/>
+      <c r="AB3" s="324"/>
+      <c r="AC3" s="324"/>
+      <c r="AD3" s="324"/>
+      <c r="AE3" s="325"/>
       <c r="AG3" s="7"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
@@ -13750,7 +13323,7 @@
       <c r="D4" s="83">
         <v>100</v>
       </c>
-      <c r="E4" s="330">
+      <c r="E4" s="307">
         <v>100</v>
       </c>
       <c r="F4" s="83">
@@ -13821,15 +13394,15 @@
       <c r="W4" s="61"/>
       <c r="X4" s="61"/>
       <c r="Y4" s="61"/>
-      <c r="Z4" s="307" t="s">
+      <c r="Z4" s="326" t="s">
         <v>252</v>
       </c>
-      <c r="AA4" s="308"/>
+      <c r="AA4" s="327"/>
       <c r="AB4" s="233"/>
-      <c r="AC4" s="309" t="s">
+      <c r="AC4" s="328" t="s">
         <v>253</v>
       </c>
-      <c r="AD4" s="310"/>
+      <c r="AD4" s="329"/>
       <c r="AE4" s="233"/>
       <c r="AG4" s="61"/>
     </row>
@@ -13851,67 +13424,67 @@
       </c>
       <c r="F5" s="86">
         <f t="shared" si="2"/>
-        <v>922914</v>
+        <v>925602</v>
       </c>
       <c r="G5" s="86">
         <f t="shared" si="2"/>
-        <v>848654</v>
+        <v>851342</v>
       </c>
       <c r="H5" s="86">
         <f t="shared" si="2"/>
-        <v>775294</v>
+        <v>777982</v>
       </c>
       <c r="I5" s="86">
         <f t="shared" si="2"/>
-        <v>799334</v>
+        <v>802022</v>
       </c>
       <c r="J5" s="86">
         <f t="shared" si="2"/>
-        <v>727774</v>
+        <v>730462</v>
       </c>
       <c r="K5" s="86">
         <f t="shared" si="2"/>
-        <v>753614</v>
+        <v>756302</v>
       </c>
       <c r="L5" s="86">
         <f t="shared" si="2"/>
-        <v>683854</v>
+        <v>686542</v>
       </c>
       <c r="M5" s="86">
         <f t="shared" si="2"/>
-        <v>711494</v>
+        <v>714182</v>
       </c>
       <c r="N5" s="86">
         <f t="shared" si="2"/>
-        <v>643534</v>
+        <v>646222</v>
       </c>
       <c r="O5" s="86">
         <f t="shared" si="2"/>
-        <v>672974</v>
+        <v>675662</v>
       </c>
       <c r="P5" s="86">
         <f t="shared" si="2"/>
-        <v>606814</v>
+        <v>609502</v>
       </c>
       <c r="Q5" s="86">
         <f t="shared" si="2"/>
-        <v>638054</v>
+        <v>640742</v>
       </c>
       <c r="R5" s="86">
         <f t="shared" si="2"/>
-        <v>573694</v>
+        <v>576382</v>
       </c>
       <c r="S5" s="86">
         <f t="shared" si="2"/>
-        <v>606734</v>
+        <v>609422</v>
       </c>
       <c r="T5" s="86">
         <f t="shared" si="2"/>
-        <v>640675</v>
+        <v>643363</v>
       </c>
       <c r="U5" s="86">
         <f t="shared" si="2"/>
-        <v>579015</v>
+        <v>581703</v>
       </c>
       <c r="V5" s="87"/>
       <c r="W5" s="87"/>
@@ -13926,76 +13499,77 @@
       <c r="AG5" s="87"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="317" t="s">
+      <c r="A6" s="295" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="317" t="s">
+      <c r="B6" s="295" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="89">
         <f t="shared" ref="C6:C23" si="3">SUM(D6:U6)</f>
-        <v>871950</v>
-      </c>
-      <c r="D6" s="313">
-        <v>0</v>
-      </c>
-      <c r="E6" s="313">
-        <v>140449</v>
-      </c>
-      <c r="F6" s="313">
+        <v>874638</v>
+      </c>
+      <c r="D6" s="291">
+        <v>0</v>
+      </c>
+      <c r="E6" s="291">
+        <f>140449+2688</f>
+        <v>143137</v>
+      </c>
+      <c r="F6" s="291">
         <v>3500</v>
       </c>
-      <c r="G6" s="313">
+      <c r="G6" s="291">
         <v>3500</v>
       </c>
-      <c r="H6" s="313">
+      <c r="H6" s="291">
         <v>100000</v>
       </c>
-      <c r="I6" s="313">
+      <c r="I6" s="291">
         <v>3500</v>
       </c>
-      <c r="J6" s="313">
+      <c r="J6" s="291">
         <v>100000</v>
       </c>
-      <c r="K6" s="313">
+      <c r="K6" s="291">
         <v>3500</v>
       </c>
-      <c r="L6" s="313">
+      <c r="L6" s="291">
         <v>100000</v>
       </c>
-      <c r="M6" s="313">
+      <c r="M6" s="291">
         <v>3500</v>
       </c>
-      <c r="N6" s="313">
+      <c r="N6" s="291">
         <v>100000</v>
       </c>
-      <c r="O6" s="313">
+      <c r="O6" s="291">
         <v>3500</v>
       </c>
-      <c r="P6" s="313">
+      <c r="P6" s="291">
         <v>100000</v>
       </c>
-      <c r="Q6" s="313">
+      <c r="Q6" s="291">
         <v>3500</v>
       </c>
-      <c r="R6" s="314">
+      <c r="R6" s="292">
         <v>100000</v>
       </c>
-      <c r="S6" s="314">
+      <c r="S6" s="292">
         <v>100001</v>
       </c>
-      <c r="T6" s="314">
+      <c r="T6" s="292">
         <v>3500</v>
       </c>
-      <c r="U6" s="314">
+      <c r="U6" s="292">
         <v>3500</v>
       </c>
       <c r="W6" s="88" t="s">
         <v>121</v>
       </c>
       <c r="X6" s="90">
-        <f>C6/$C$13</f>
-        <v>0.40169162411117176</v>
+        <f t="shared" ref="X6:X12" si="4">C6/$C$13</f>
+        <v>0.40243160087292484</v>
       </c>
       <c r="Z6" s="238" t="s">
         <v>254</v>
@@ -14006,7 +13580,7 @@
       </c>
       <c r="AB6" s="240">
         <f>AA6/AA34</f>
-        <v>0.12615853108603503</v>
+        <v>0.12603870628529271</v>
       </c>
       <c r="AC6" s="238" t="s">
         <v>255</v>
@@ -14017,95 +13591,95 @@
       </c>
       <c r="AE6" s="241">
         <f>AD6/$AD$34</f>
-        <v>0.10610473598489069</v>
+        <v>0.10600395818779873</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="317" t="s">
+      <c r="A7" s="295" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="317" t="s">
+      <c r="B7" s="295" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="89">
         <f t="shared" si="3"/>
         <v>390345</v>
       </c>
-      <c r="D7" s="315">
-        <v>0</v>
-      </c>
-      <c r="E7" s="315">
+      <c r="D7" s="293">
+        <v>0</v>
+      </c>
+      <c r="E7" s="293">
         <v>30345</v>
       </c>
-      <c r="F7" s="315">
+      <c r="F7" s="293">
         <v>15000</v>
       </c>
-      <c r="G7" s="315">
-        <f t="shared" ref="G7:U7" si="4">F7+1000</f>
+      <c r="G7" s="293">
+        <f t="shared" ref="G7:U7" si="5">F7+1000</f>
         <v>16000</v>
       </c>
-      <c r="H7" s="315">
-        <f t="shared" si="4"/>
+      <c r="H7" s="293">
+        <f t="shared" si="5"/>
         <v>17000</v>
       </c>
-      <c r="I7" s="315">
-        <f t="shared" si="4"/>
+      <c r="I7" s="293">
+        <f t="shared" si="5"/>
         <v>18000</v>
       </c>
-      <c r="J7" s="315">
-        <f t="shared" si="4"/>
+      <c r="J7" s="293">
+        <f t="shared" si="5"/>
         <v>19000</v>
       </c>
-      <c r="K7" s="315">
-        <f t="shared" si="4"/>
+      <c r="K7" s="293">
+        <f t="shared" si="5"/>
         <v>20000</v>
       </c>
-      <c r="L7" s="315">
-        <f t="shared" si="4"/>
+      <c r="L7" s="293">
+        <f t="shared" si="5"/>
         <v>21000</v>
       </c>
-      <c r="M7" s="315">
-        <f t="shared" si="4"/>
+      <c r="M7" s="293">
+        <f t="shared" si="5"/>
         <v>22000</v>
       </c>
-      <c r="N7" s="315">
-        <f t="shared" si="4"/>
+      <c r="N7" s="293">
+        <f t="shared" si="5"/>
         <v>23000</v>
       </c>
-      <c r="O7" s="315">
-        <f t="shared" si="4"/>
+      <c r="O7" s="293">
+        <f t="shared" si="5"/>
         <v>24000</v>
       </c>
-      <c r="P7" s="315">
-        <f t="shared" si="4"/>
+      <c r="P7" s="293">
+        <f t="shared" si="5"/>
         <v>25000</v>
       </c>
-      <c r="Q7" s="315">
-        <f t="shared" si="4"/>
+      <c r="Q7" s="293">
+        <f t="shared" si="5"/>
         <v>26000</v>
       </c>
-      <c r="R7" s="315">
-        <f t="shared" si="4"/>
+      <c r="R7" s="293">
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
-      <c r="S7" s="315">
-        <f t="shared" si="4"/>
+      <c r="S7" s="293">
+        <f t="shared" si="5"/>
         <v>28000</v>
       </c>
-      <c r="T7" s="315">
-        <f t="shared" si="4"/>
+      <c r="T7" s="293">
+        <f t="shared" si="5"/>
         <v>29000</v>
       </c>
-      <c r="U7" s="315">
-        <f t="shared" si="4"/>
+      <c r="U7" s="293">
+        <f t="shared" si="5"/>
         <v>30000</v>
       </c>
       <c r="W7" s="88" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="90">
-        <f>C7/$C$13</f>
-        <v>0.17982489479176025</v>
+        <f t="shared" si="4"/>
+        <v>0.17960249067927742</v>
       </c>
       <c r="Z7" s="242" t="s">
         <v>134</v>
@@ -14116,7 +13690,7 @@
       </c>
       <c r="AB7" s="244">
         <f>AA7/AA34</f>
-        <v>3.1124055888901266E-2</v>
+        <v>3.1094494401754293E-2</v>
       </c>
       <c r="AC7" s="245" t="s">
         <v>256</v>
@@ -14125,80 +13699,80 @@
         <v>300000</v>
       </c>
       <c r="AE7" s="247">
-        <f t="shared" ref="AE7:AE9" si="5">AD7/$AD$34</f>
-        <v>0.10610473598489069</v>
+        <f t="shared" ref="AE7:AE9" si="6">AD7/$AD$34</f>
+        <v>0.10600395818779873</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="317" t="s">
+      <c r="A8" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="317" t="s">
+      <c r="B8" s="295" t="s">
         <v>124</v>
       </c>
       <c r="C8" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D8" s="313">
-        <v>0</v>
-      </c>
-      <c r="E8" s="313">
-        <v>0</v>
-      </c>
-      <c r="F8" s="313">
-        <v>0</v>
-      </c>
-      <c r="G8" s="313">
-        <v>0</v>
-      </c>
-      <c r="H8" s="313">
-        <v>0</v>
-      </c>
-      <c r="I8" s="313">
-        <v>0</v>
-      </c>
-      <c r="J8" s="313">
-        <v>0</v>
-      </c>
-      <c r="K8" s="313">
-        <v>0</v>
-      </c>
-      <c r="L8" s="313">
-        <v>0</v>
-      </c>
-      <c r="M8" s="313">
-        <v>0</v>
-      </c>
-      <c r="N8" s="313">
-        <v>0</v>
-      </c>
-      <c r="O8" s="313">
-        <v>0</v>
-      </c>
-      <c r="P8" s="313">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="313">
-        <v>0</v>
-      </c>
-      <c r="R8" s="313">
-        <v>0</v>
-      </c>
-      <c r="S8" s="313">
-        <v>0</v>
-      </c>
-      <c r="T8" s="313">
-        <v>0</v>
-      </c>
-      <c r="U8" s="313">
+      <c r="D8" s="291">
+        <v>0</v>
+      </c>
+      <c r="E8" s="291">
+        <v>0</v>
+      </c>
+      <c r="F8" s="291">
+        <v>0</v>
+      </c>
+      <c r="G8" s="291">
+        <v>0</v>
+      </c>
+      <c r="H8" s="291">
+        <v>0</v>
+      </c>
+      <c r="I8" s="291">
+        <v>0</v>
+      </c>
+      <c r="J8" s="291">
+        <v>0</v>
+      </c>
+      <c r="K8" s="291">
+        <v>0</v>
+      </c>
+      <c r="L8" s="291">
+        <v>0</v>
+      </c>
+      <c r="M8" s="291">
+        <v>0</v>
+      </c>
+      <c r="N8" s="291">
+        <v>0</v>
+      </c>
+      <c r="O8" s="291">
+        <v>0</v>
+      </c>
+      <c r="P8" s="291">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="291">
+        <v>0</v>
+      </c>
+      <c r="R8" s="291">
+        <v>0</v>
+      </c>
+      <c r="S8" s="291">
+        <v>0</v>
+      </c>
+      <c r="T8" s="291">
+        <v>0</v>
+      </c>
+      <c r="U8" s="291">
         <v>0</v>
       </c>
       <c r="W8" s="88" t="s">
         <v>124</v>
       </c>
       <c r="X8" s="90">
-        <f>C8/$C$13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z8" s="242" t="s">
@@ -14210,7 +13784,7 @@
       </c>
       <c r="AB8" s="244">
         <f>AA8/AA34</f>
-        <v>9.5034475197133761E-2</v>
+        <v>9.4944211883538396E-2</v>
       </c>
       <c r="AC8" s="245" t="s">
         <v>257</v>
@@ -14219,78 +13793,78 @@
         <v>0</v>
       </c>
       <c r="AE8" s="247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="317"/>
-      <c r="B9" s="317" t="s">
+      <c r="A9" s="295"/>
+      <c r="B9" s="295" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D9" s="313">
-        <v>0</v>
-      </c>
-      <c r="E9" s="313">
-        <v>0</v>
-      </c>
-      <c r="F9" s="313">
-        <v>0</v>
-      </c>
-      <c r="G9" s="313">
-        <v>0</v>
-      </c>
-      <c r="H9" s="313">
-        <v>0</v>
-      </c>
-      <c r="I9" s="313">
-        <v>0</v>
-      </c>
-      <c r="J9" s="313">
-        <v>0</v>
-      </c>
-      <c r="K9" s="313">
-        <v>0</v>
-      </c>
-      <c r="L9" s="313">
-        <v>0</v>
-      </c>
-      <c r="M9" s="313">
-        <v>0</v>
-      </c>
-      <c r="N9" s="313">
-        <v>0</v>
-      </c>
-      <c r="O9" s="313">
-        <v>0</v>
-      </c>
-      <c r="P9" s="313">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="313">
-        <v>0</v>
-      </c>
-      <c r="R9" s="313">
-        <v>0</v>
-      </c>
-      <c r="S9" s="313">
-        <v>0</v>
-      </c>
-      <c r="T9" s="313">
-        <v>0</v>
-      </c>
-      <c r="U9" s="313">
+      <c r="D9" s="291">
+        <v>0</v>
+      </c>
+      <c r="E9" s="291">
+        <v>0</v>
+      </c>
+      <c r="F9" s="291">
+        <v>0</v>
+      </c>
+      <c r="G9" s="291">
+        <v>0</v>
+      </c>
+      <c r="H9" s="291">
+        <v>0</v>
+      </c>
+      <c r="I9" s="291">
+        <v>0</v>
+      </c>
+      <c r="J9" s="291">
+        <v>0</v>
+      </c>
+      <c r="K9" s="291">
+        <v>0</v>
+      </c>
+      <c r="L9" s="291">
+        <v>0</v>
+      </c>
+      <c r="M9" s="291">
+        <v>0</v>
+      </c>
+      <c r="N9" s="291">
+        <v>0</v>
+      </c>
+      <c r="O9" s="291">
+        <v>0</v>
+      </c>
+      <c r="P9" s="291">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="291">
+        <v>0</v>
+      </c>
+      <c r="R9" s="291">
+        <v>0</v>
+      </c>
+      <c r="S9" s="291">
+        <v>0</v>
+      </c>
+      <c r="T9" s="291">
+        <v>0</v>
+      </c>
+      <c r="U9" s="291">
         <v>0</v>
       </c>
       <c r="W9" s="88" t="s">
         <v>125</v>
       </c>
       <c r="X9" s="90">
-        <f>C9/$C$13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z9" s="248" t="s">
@@ -14310,80 +13884,80 @@
         <v>0</v>
       </c>
       <c r="AE9" s="247">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="317" t="s">
+      <c r="A10" s="295" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="317" t="s">
+      <c r="B10" s="295" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="89">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D10" s="315">
-        <v>0</v>
-      </c>
-      <c r="E10" s="315">
-        <v>0</v>
-      </c>
-      <c r="F10" s="315">
-        <v>0</v>
-      </c>
-      <c r="G10" s="315">
-        <v>0</v>
-      </c>
-      <c r="H10" s="315">
-        <v>0</v>
-      </c>
-      <c r="I10" s="315">
-        <v>0</v>
-      </c>
-      <c r="J10" s="315">
-        <v>0</v>
-      </c>
-      <c r="K10" s="315">
-        <v>0</v>
-      </c>
-      <c r="L10" s="315">
-        <v>0</v>
-      </c>
-      <c r="M10" s="315">
-        <v>0</v>
-      </c>
-      <c r="N10" s="315">
-        <v>0</v>
-      </c>
-      <c r="O10" s="315">
-        <v>0</v>
-      </c>
-      <c r="P10" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="315">
-        <v>0</v>
-      </c>
-      <c r="R10" s="315">
-        <v>0</v>
-      </c>
-      <c r="S10" s="313">
-        <v>0</v>
-      </c>
-      <c r="T10" s="313">
-        <v>0</v>
-      </c>
-      <c r="U10" s="313">
+      <c r="D10" s="293">
+        <v>0</v>
+      </c>
+      <c r="E10" s="293">
+        <v>0</v>
+      </c>
+      <c r="F10" s="293">
+        <v>0</v>
+      </c>
+      <c r="G10" s="293">
+        <v>0</v>
+      </c>
+      <c r="H10" s="293">
+        <v>0</v>
+      </c>
+      <c r="I10" s="293">
+        <v>0</v>
+      </c>
+      <c r="J10" s="293">
+        <v>0</v>
+      </c>
+      <c r="K10" s="293">
+        <v>0</v>
+      </c>
+      <c r="L10" s="293">
+        <v>0</v>
+      </c>
+      <c r="M10" s="293">
+        <v>0</v>
+      </c>
+      <c r="N10" s="293">
+        <v>0</v>
+      </c>
+      <c r="O10" s="293">
+        <v>0</v>
+      </c>
+      <c r="P10" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="293">
+        <v>0</v>
+      </c>
+      <c r="R10" s="293">
+        <v>0</v>
+      </c>
+      <c r="S10" s="291">
+        <v>0</v>
+      </c>
+      <c r="T10" s="291">
+        <v>0</v>
+      </c>
+      <c r="U10" s="291">
         <v>0</v>
       </c>
       <c r="W10" s="88" t="s">
         <v>126</v>
       </c>
       <c r="X10" s="90">
-        <f>C10/$C$13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z10" s="250"/>
@@ -14397,73 +13971,73 @@
       <c r="A11" s="318" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="317" t="s">
+      <c r="B11" s="295" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="89">
         <f t="shared" si="3"/>
         <v>5400</v>
       </c>
-      <c r="D11" s="315">
-        <v>0</v>
-      </c>
-      <c r="E11" s="315">
+      <c r="D11" s="293">
+        <v>0</v>
+      </c>
+      <c r="E11" s="293">
         <v>600</v>
       </c>
-      <c r="F11" s="315">
+      <c r="F11" s="293">
         <v>300</v>
       </c>
-      <c r="G11" s="315">
+      <c r="G11" s="293">
         <v>300</v>
       </c>
-      <c r="H11" s="315">
+      <c r="H11" s="293">
         <v>300</v>
       </c>
-      <c r="I11" s="315">
+      <c r="I11" s="293">
         <v>300</v>
       </c>
-      <c r="J11" s="315">
+      <c r="J11" s="293">
         <v>300</v>
       </c>
-      <c r="K11" s="315">
+      <c r="K11" s="293">
         <v>300</v>
       </c>
-      <c r="L11" s="315">
+      <c r="L11" s="293">
         <v>300</v>
       </c>
-      <c r="M11" s="315">
+      <c r="M11" s="293">
         <v>300</v>
       </c>
-      <c r="N11" s="315">
+      <c r="N11" s="293">
         <v>300</v>
       </c>
-      <c r="O11" s="315">
+      <c r="O11" s="293">
         <v>300</v>
       </c>
-      <c r="P11" s="315">
+      <c r="P11" s="293">
         <v>300</v>
       </c>
-      <c r="Q11" s="315">
+      <c r="Q11" s="293">
         <v>300</v>
       </c>
-      <c r="R11" s="315">
+      <c r="R11" s="293">
         <v>300</v>
       </c>
-      <c r="S11" s="315">
+      <c r="S11" s="293">
         <v>300</v>
       </c>
-      <c r="T11" s="315">
+      <c r="T11" s="293">
         <v>300</v>
       </c>
-      <c r="U11" s="315">
+      <c r="U11" s="293">
         <v>300</v>
       </c>
       <c r="W11" s="88" t="s">
         <v>128</v>
       </c>
       <c r="X11" s="90">
-        <f>C11/$C$13</f>
-        <v>2.4876825164290698E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.4846057965853233E-3</v>
       </c>
       <c r="Z11" s="238" t="s">
         <v>144</v>
@@ -14481,82 +14055,82 @@
       </c>
       <c r="AD11" s="239">
         <f>SUM(AD12:AD17)</f>
-        <v>574955</v>
+        <v>577643</v>
       </c>
       <c r="AE11" s="241">
-        <f t="shared" ref="AE11:AE17" si="6">AD11/$AD$34</f>
-        <v>0.20335149492730942</v>
+        <f t="shared" ref="AE11:AE17" si="7">AD11/$AD$34</f>
+        <v>0.20410814806491542</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="318"/>
-      <c r="B12" s="317" t="s">
+      <c r="B12" s="295" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="89">
         <f t="shared" si="3"/>
         <v>903000</v>
       </c>
-      <c r="D12" s="315">
-        <v>0</v>
-      </c>
-      <c r="E12" s="315">
+      <c r="D12" s="293">
+        <v>0</v>
+      </c>
+      <c r="E12" s="293">
         <v>903000</v>
       </c>
-      <c r="F12" s="315">
-        <v>0</v>
-      </c>
-      <c r="G12" s="315">
-        <v>0</v>
-      </c>
-      <c r="H12" s="315">
-        <v>0</v>
-      </c>
-      <c r="I12" s="315">
-        <v>0</v>
-      </c>
-      <c r="J12" s="315">
-        <v>0</v>
-      </c>
-      <c r="K12" s="315">
-        <v>0</v>
-      </c>
-      <c r="L12" s="315">
-        <v>0</v>
-      </c>
-      <c r="M12" s="315">
-        <v>0</v>
-      </c>
-      <c r="N12" s="315">
-        <v>0</v>
-      </c>
-      <c r="O12" s="315">
-        <v>0</v>
-      </c>
-      <c r="P12" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="315">
-        <v>0</v>
-      </c>
-      <c r="R12" s="315">
-        <v>0</v>
-      </c>
-      <c r="S12" s="315">
-        <v>0</v>
-      </c>
-      <c r="T12" s="315">
-        <v>0</v>
-      </c>
-      <c r="U12" s="315">
+      <c r="F12" s="293">
+        <v>0</v>
+      </c>
+      <c r="G12" s="293">
+        <v>0</v>
+      </c>
+      <c r="H12" s="293">
+        <v>0</v>
+      </c>
+      <c r="I12" s="293">
+        <v>0</v>
+      </c>
+      <c r="J12" s="293">
+        <v>0</v>
+      </c>
+      <c r="K12" s="293">
+        <v>0</v>
+      </c>
+      <c r="L12" s="293">
+        <v>0</v>
+      </c>
+      <c r="M12" s="293">
+        <v>0</v>
+      </c>
+      <c r="N12" s="293">
+        <v>0</v>
+      </c>
+      <c r="O12" s="293">
+        <v>0</v>
+      </c>
+      <c r="P12" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="293">
+        <v>0</v>
+      </c>
+      <c r="R12" s="293">
+        <v>0</v>
+      </c>
+      <c r="S12" s="293">
+        <v>0</v>
+      </c>
+      <c r="T12" s="293">
+        <v>0</v>
+      </c>
+      <c r="U12" s="293">
         <v>0</v>
       </c>
       <c r="W12" s="88" t="s">
         <v>129</v>
       </c>
       <c r="X12" s="90">
-        <f>C12/$C$13</f>
-        <v>0.4159957985806389</v>
+        <f t="shared" si="4"/>
+        <v>0.41548130265121241</v>
       </c>
       <c r="Z12" s="253" t="s">
         <v>260</v>
@@ -14575,96 +14149,96 @@
         <v>0</v>
       </c>
       <c r="AE12" s="247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="319" t="s">
+      <c r="A13" s="296" t="s">
         <v>130</v>
       </c>
-      <c r="B13" s="320"/>
+      <c r="B13" s="297"/>
       <c r="C13" s="91">
         <f t="shared" si="3"/>
-        <v>2170695</v>
-      </c>
-      <c r="D13" s="316">
+        <v>2173383</v>
+      </c>
+      <c r="D13" s="294">
         <f>SUM(D6:D12)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="316">
+      <c r="E13" s="294">
         <f>SUM(E6:E12)</f>
-        <v>1074394</v>
-      </c>
-      <c r="F13" s="316">
+        <v>1077082</v>
+      </c>
+      <c r="F13" s="294">
         <f>F12+F11+F10+F9+F8+F7+F6</f>
         <v>18800</v>
       </c>
-      <c r="G13" s="316">
-        <f t="shared" ref="G13:U13" si="7">SUM(G6:G12)</f>
+      <c r="G13" s="294">
+        <f t="shared" ref="G13:U13" si="8">SUM(G6:G12)</f>
         <v>19800</v>
       </c>
-      <c r="H13" s="316">
-        <f t="shared" si="7"/>
+      <c r="H13" s="294">
+        <f t="shared" si="8"/>
         <v>117300</v>
       </c>
-      <c r="I13" s="316">
-        <f t="shared" si="7"/>
+      <c r="I13" s="294">
+        <f t="shared" si="8"/>
         <v>21800</v>
       </c>
-      <c r="J13" s="316">
-        <f t="shared" si="7"/>
+      <c r="J13" s="294">
+        <f t="shared" si="8"/>
         <v>119300</v>
       </c>
-      <c r="K13" s="316">
-        <f t="shared" si="7"/>
+      <c r="K13" s="294">
+        <f t="shared" si="8"/>
         <v>23800</v>
       </c>
-      <c r="L13" s="316">
-        <f t="shared" si="7"/>
+      <c r="L13" s="294">
+        <f t="shared" si="8"/>
         <v>121300</v>
       </c>
-      <c r="M13" s="316">
-        <f t="shared" si="7"/>
+      <c r="M13" s="294">
+        <f t="shared" si="8"/>
         <v>25800</v>
       </c>
-      <c r="N13" s="316">
-        <f t="shared" si="7"/>
+      <c r="N13" s="294">
+        <f t="shared" si="8"/>
         <v>123300</v>
       </c>
-      <c r="O13" s="316">
-        <f t="shared" si="7"/>
+      <c r="O13" s="294">
+        <f t="shared" si="8"/>
         <v>27800</v>
       </c>
-      <c r="P13" s="316">
-        <f t="shared" si="7"/>
+      <c r="P13" s="294">
+        <f t="shared" si="8"/>
         <v>125300</v>
       </c>
-      <c r="Q13" s="316">
-        <f t="shared" si="7"/>
+      <c r="Q13" s="294">
+        <f t="shared" si="8"/>
         <v>29800</v>
       </c>
-      <c r="R13" s="316">
-        <f t="shared" si="7"/>
+      <c r="R13" s="294">
+        <f t="shared" si="8"/>
         <v>127300</v>
       </c>
-      <c r="S13" s="316">
-        <f t="shared" si="7"/>
+      <c r="S13" s="294">
+        <f t="shared" si="8"/>
         <v>128301</v>
       </c>
-      <c r="T13" s="316">
-        <f t="shared" si="7"/>
+      <c r="T13" s="294">
+        <f t="shared" si="8"/>
         <v>32800</v>
       </c>
-      <c r="U13" s="316">
-        <f t="shared" si="7"/>
+      <c r="U13" s="294">
+        <f t="shared" si="8"/>
         <v>33800</v>
       </c>
       <c r="V13" s="92"/>
       <c r="W13" s="92"/>
       <c r="X13" s="93">
         <f>SUM(X6:X12)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="Y13" s="92"/>
       <c r="Z13" s="253" t="s">
@@ -14684,16 +14258,16 @@
         <v>0</v>
       </c>
       <c r="AE13" s="247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG13" s="92"/>
     </row>
     <row r="14" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="321" t="s">
+      <c r="A14" s="298" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="322" t="str">
+      <c r="B14" s="299" t="str">
         <f>A14</f>
         <v>Sueldos</v>
       </c>
@@ -14701,81 +14275,81 @@
         <f t="shared" si="3"/>
         <v>150280</v>
       </c>
-      <c r="D14" s="326">
-        <v>0</v>
-      </c>
-      <c r="E14" s="326">
+      <c r="D14" s="303">
+        <v>0</v>
+      </c>
+      <c r="E14" s="303">
         <v>8040</v>
       </c>
-      <c r="F14" s="326">
-        <f t="shared" ref="F14:U14" si="8">E14+100</f>
+      <c r="F14" s="303">
+        <f t="shared" ref="F14:U14" si="9">E14+100</f>
         <v>8140</v>
       </c>
-      <c r="G14" s="326">
-        <f t="shared" si="8"/>
+      <c r="G14" s="303">
+        <f t="shared" si="9"/>
         <v>8240</v>
       </c>
-      <c r="H14" s="326">
-        <f t="shared" si="8"/>
+      <c r="H14" s="303">
+        <f t="shared" si="9"/>
         <v>8340</v>
       </c>
-      <c r="I14" s="326">
-        <f t="shared" si="8"/>
+      <c r="I14" s="303">
+        <f t="shared" si="9"/>
         <v>8440</v>
       </c>
-      <c r="J14" s="326">
-        <f t="shared" si="8"/>
+      <c r="J14" s="303">
+        <f t="shared" si="9"/>
         <v>8540</v>
       </c>
-      <c r="K14" s="326">
-        <f t="shared" si="8"/>
+      <c r="K14" s="303">
+        <f t="shared" si="9"/>
         <v>8640</v>
       </c>
-      <c r="L14" s="326">
-        <f t="shared" si="8"/>
+      <c r="L14" s="303">
+        <f t="shared" si="9"/>
         <v>8740</v>
       </c>
-      <c r="M14" s="326">
-        <f t="shared" si="8"/>
+      <c r="M14" s="303">
+        <f t="shared" si="9"/>
         <v>8840</v>
       </c>
-      <c r="N14" s="326">
-        <f t="shared" si="8"/>
+      <c r="N14" s="303">
+        <f t="shared" si="9"/>
         <v>8940</v>
       </c>
-      <c r="O14" s="326">
-        <f t="shared" si="8"/>
+      <c r="O14" s="303">
+        <f t="shared" si="9"/>
         <v>9040</v>
       </c>
-      <c r="P14" s="326">
-        <f t="shared" si="8"/>
+      <c r="P14" s="303">
+        <f t="shared" si="9"/>
         <v>9140</v>
       </c>
-      <c r="Q14" s="326">
-        <f t="shared" si="8"/>
+      <c r="Q14" s="303">
+        <f t="shared" si="9"/>
         <v>9240</v>
       </c>
-      <c r="R14" s="326">
-        <f t="shared" si="8"/>
+      <c r="R14" s="303">
+        <f t="shared" si="9"/>
         <v>9340</v>
       </c>
-      <c r="S14" s="326">
-        <f t="shared" si="8"/>
+      <c r="S14" s="303">
+        <f t="shared" si="9"/>
         <v>9440</v>
       </c>
-      <c r="T14" s="326">
-        <f t="shared" si="8"/>
+      <c r="T14" s="303">
+        <f t="shared" si="9"/>
         <v>9540</v>
       </c>
-      <c r="U14" s="326">
-        <f t="shared" si="8"/>
+      <c r="U14" s="303">
+        <f t="shared" si="9"/>
         <v>9640</v>
       </c>
-      <c r="W14" s="300">
+      <c r="W14" s="319">
         <f>C13</f>
-        <v>2170695</v>
-      </c>
-      <c r="X14" s="300"/>
+        <v>2173383</v>
+      </c>
+      <c r="X14" s="319"/>
       <c r="Z14" s="253" t="s">
         <v>263</v>
       </c>
@@ -14793,15 +14367,15 @@
         <v>0</v>
       </c>
       <c r="AE14" s="247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="321" t="s">
+      <c r="A15" s="298" t="s">
         <v>132</v>
       </c>
-      <c r="B15" s="322" t="str">
+      <c r="B15" s="299" t="str">
         <f>A15</f>
         <v xml:space="preserve">Mantenimiento </v>
       </c>
@@ -14809,73 +14383,73 @@
         <f t="shared" si="3"/>
         <v>131900</v>
       </c>
-      <c r="D15" s="326">
-        <v>0</v>
-      </c>
-      <c r="E15" s="326">
+      <c r="D15" s="303">
+        <v>0</v>
+      </c>
+      <c r="E15" s="303">
         <v>7100</v>
       </c>
-      <c r="F15" s="326">
+      <c r="F15" s="303">
         <v>7800</v>
       </c>
-      <c r="G15" s="326">
-        <f t="shared" ref="G15:U15" si="9">F15</f>
+      <c r="G15" s="303">
+        <f t="shared" ref="G15:U15" si="10">F15</f>
         <v>7800</v>
       </c>
-      <c r="H15" s="326">
-        <f t="shared" si="9"/>
+      <c r="H15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="I15" s="326">
-        <f t="shared" si="9"/>
+      <c r="I15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="J15" s="326">
-        <f t="shared" si="9"/>
+      <c r="J15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="K15" s="326">
-        <f t="shared" si="9"/>
+      <c r="K15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="L15" s="326">
-        <f t="shared" si="9"/>
+      <c r="L15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="M15" s="326">
-        <f t="shared" si="9"/>
+      <c r="M15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="N15" s="326">
-        <f t="shared" si="9"/>
+      <c r="N15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="O15" s="326">
-        <f t="shared" si="9"/>
+      <c r="O15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="P15" s="326">
-        <f t="shared" si="9"/>
+      <c r="P15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="Q15" s="326">
-        <f t="shared" si="9"/>
+      <c r="Q15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="R15" s="326">
-        <f t="shared" si="9"/>
+      <c r="R15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="S15" s="326">
-        <f t="shared" si="9"/>
+      <c r="S15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="T15" s="326">
-        <f t="shared" si="9"/>
+      <c r="T15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
-      <c r="U15" s="326">
-        <f t="shared" si="9"/>
+      <c r="U15" s="303">
+        <f t="shared" si="10"/>
         <v>7800</v>
       </c>
       <c r="Z15" s="253" t="s">
@@ -14895,73 +14469,73 @@
         <v>0</v>
       </c>
       <c r="AE15" s="247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="321" t="s">
+      <c r="A16" s="298" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="322" t="s">
+      <c r="B16" s="299" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="95">
         <f t="shared" si="3"/>
         <v>88000</v>
       </c>
-      <c r="D16" s="326">
+      <c r="D16" s="303">
         <v>88000</v>
       </c>
-      <c r="E16" s="326">
-        <v>0</v>
-      </c>
-      <c r="F16" s="326">
-        <v>0</v>
-      </c>
-      <c r="G16" s="326">
-        <v>0</v>
-      </c>
-      <c r="H16" s="326">
-        <v>0</v>
-      </c>
-      <c r="I16" s="326">
-        <v>0</v>
-      </c>
-      <c r="J16" s="326">
-        <v>0</v>
-      </c>
-      <c r="K16" s="326">
-        <v>0</v>
-      </c>
-      <c r="L16" s="326">
-        <v>0</v>
-      </c>
-      <c r="M16" s="326">
-        <v>0</v>
-      </c>
-      <c r="N16" s="326">
-        <v>0</v>
-      </c>
-      <c r="O16" s="326">
-        <v>0</v>
-      </c>
-      <c r="P16" s="326">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="326">
-        <v>0</v>
-      </c>
-      <c r="R16" s="326">
-        <v>0</v>
-      </c>
-      <c r="S16" s="326">
-        <v>0</v>
-      </c>
-      <c r="T16" s="326">
-        <v>0</v>
-      </c>
-      <c r="U16" s="326">
+      <c r="E16" s="303">
+        <v>0</v>
+      </c>
+      <c r="F16" s="303">
+        <v>0</v>
+      </c>
+      <c r="G16" s="303">
+        <v>0</v>
+      </c>
+      <c r="H16" s="303">
+        <v>0</v>
+      </c>
+      <c r="I16" s="303">
+        <v>0</v>
+      </c>
+      <c r="J16" s="303">
+        <v>0</v>
+      </c>
+      <c r="K16" s="303">
+        <v>0</v>
+      </c>
+      <c r="L16" s="303">
+        <v>0</v>
+      </c>
+      <c r="M16" s="303">
+        <v>0</v>
+      </c>
+      <c r="N16" s="303">
+        <v>0</v>
+      </c>
+      <c r="O16" s="303">
+        <v>0</v>
+      </c>
+      <c r="P16" s="303">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="303">
+        <v>0</v>
+      </c>
+      <c r="R16" s="303">
+        <v>0</v>
+      </c>
+      <c r="S16" s="303">
+        <v>0</v>
+      </c>
+      <c r="T16" s="303">
+        <v>0</v>
+      </c>
+      <c r="U16" s="303">
         <v>0</v>
       </c>
       <c r="Z16" s="257"/>
@@ -14974,15 +14548,15 @@
         <v>0</v>
       </c>
       <c r="AE16" s="247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="321" t="s">
+      <c r="A17" s="298" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="322" t="str">
+      <c r="B17" s="299" t="str">
         <f>A17</f>
         <v>Empleados</v>
       </c>
@@ -14990,73 +14564,73 @@
         <f t="shared" si="3"/>
         <v>946560</v>
       </c>
-      <c r="D17" s="326">
-        <v>0</v>
-      </c>
-      <c r="E17" s="326">
+      <c r="D17" s="303">
+        <v>0</v>
+      </c>
+      <c r="E17" s="303">
         <v>32640</v>
       </c>
-      <c r="F17" s="326">
+      <c r="F17" s="303">
         <v>57120</v>
       </c>
-      <c r="G17" s="326">
-        <f t="shared" ref="G17:U17" si="10">F17</f>
+      <c r="G17" s="303">
+        <f t="shared" ref="G17:U17" si="11">F17</f>
         <v>57120</v>
       </c>
-      <c r="H17" s="326">
-        <f t="shared" si="10"/>
+      <c r="H17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="I17" s="326">
-        <f t="shared" si="10"/>
+      <c r="I17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="J17" s="326">
-        <f t="shared" si="10"/>
+      <c r="J17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="K17" s="326">
-        <f t="shared" si="10"/>
+      <c r="K17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="L17" s="326">
-        <f t="shared" si="10"/>
+      <c r="L17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="M17" s="326">
-        <f t="shared" si="10"/>
+      <c r="M17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="N17" s="326">
-        <f t="shared" si="10"/>
+      <c r="N17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="O17" s="326">
-        <f t="shared" si="10"/>
+      <c r="O17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="P17" s="326">
-        <f t="shared" si="10"/>
+      <c r="P17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="Q17" s="326">
-        <f t="shared" si="10"/>
+      <c r="Q17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="R17" s="326">
-        <f t="shared" si="10"/>
+      <c r="R17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="S17" s="326">
-        <f t="shared" si="10"/>
+      <c r="S17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="T17" s="326">
-        <f t="shared" si="10"/>
+      <c r="T17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
-      <c r="U17" s="326">
-        <f t="shared" si="10"/>
+      <c r="U17" s="303">
+        <f t="shared" si="11"/>
         <v>57120</v>
       </c>
       <c r="Z17" s="238" t="s">
@@ -15075,18 +14649,18 @@
       </c>
       <c r="AD17" s="261">
         <f>AA27-AD27</f>
-        <v>574955</v>
+        <v>577643</v>
       </c>
       <c r="AE17" s="247">
-        <f t="shared" si="6"/>
-        <v>0.20335149492730942</v>
+        <f t="shared" si="7"/>
+        <v>0.20410814806491542</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="321" t="s">
+      <c r="A18" s="298" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="322" t="str">
+      <c r="B18" s="299" t="str">
         <f>A18</f>
         <v>Juveniles</v>
       </c>
@@ -15094,75 +14668,75 @@
         <f t="shared" si="3"/>
         <v>360000</v>
       </c>
-      <c r="D18" s="326">
+      <c r="D18" s="303">
         <v>20000</v>
       </c>
-      <c r="E18" s="326">
+      <c r="E18" s="303">
         <f>D18</f>
         <v>20000</v>
       </c>
-      <c r="F18" s="326">
+      <c r="F18" s="303">
         <f>E18</f>
         <v>20000</v>
       </c>
-      <c r="G18" s="326">
-        <f t="shared" ref="G18:U18" si="11">F18</f>
+      <c r="G18" s="303">
+        <f t="shared" ref="G18:U18" si="12">F18</f>
         <v>20000</v>
       </c>
-      <c r="H18" s="326">
-        <f t="shared" si="11"/>
+      <c r="H18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="I18" s="326">
-        <f t="shared" si="11"/>
+      <c r="I18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="J18" s="326">
-        <f t="shared" si="11"/>
+      <c r="J18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="K18" s="326">
-        <f t="shared" si="11"/>
+      <c r="K18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="L18" s="326">
-        <f t="shared" si="11"/>
+      <c r="L18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="M18" s="326">
-        <f t="shared" si="11"/>
+      <c r="M18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="N18" s="326">
-        <f t="shared" si="11"/>
+      <c r="N18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="O18" s="326">
-        <f t="shared" si="11"/>
+      <c r="O18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="P18" s="326">
-        <f t="shared" si="11"/>
+      <c r="P18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="Q18" s="326">
-        <f t="shared" si="11"/>
+      <c r="Q18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="R18" s="326">
-        <f t="shared" si="11"/>
+      <c r="R18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="S18" s="326">
-        <f t="shared" si="11"/>
+      <c r="S18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="T18" s="326">
-        <f t="shared" si="11"/>
+      <c r="T18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
-      <c r="U18" s="326">
-        <f t="shared" si="11"/>
+      <c r="U18" s="303">
+        <f t="shared" si="12"/>
         <v>20000</v>
       </c>
       <c r="Z18" s="253" t="s">
@@ -15181,85 +14755,85 @@
       <c r="AE18" s="262"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="321" t="s">
+      <c r="A19" s="298" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="322" t="s">
+      <c r="B19" s="299" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D19" s="326">
-        <v>0</v>
-      </c>
-      <c r="E19" s="326">
+      <c r="D19" s="303">
+        <v>0</v>
+      </c>
+      <c r="E19" s="303">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="326">
+      <c r="F19" s="303">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="326">
-        <f t="shared" ref="G19:U19" si="12">F19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="326">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="326">
-        <f t="shared" si="12"/>
+      <c r="G19" s="303">
+        <f t="shared" ref="G19:U19" si="13">F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="303">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="303">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z19" s="248" t="s">
@@ -15281,88 +14855,88 @@
         <v>0</v>
       </c>
       <c r="AE19" s="241">
-        <f t="shared" ref="AE19:AE21" si="13">AD19/$AD$34</f>
+        <f t="shared" ref="AE19:AE21" si="14">AD19/$AD$34</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="323" t="s">
+      <c r="A20" s="300" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="322" t="s">
+      <c r="B20" s="299" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="95">
         <f t="shared" si="3"/>
         <v>268700</v>
       </c>
-      <c r="D20" s="326">
-        <v>0</v>
-      </c>
-      <c r="E20" s="326">
+      <c r="D20" s="303">
+        <v>0</v>
+      </c>
+      <c r="E20" s="303">
         <v>268700</v>
       </c>
-      <c r="F20" s="326">
-        <v>0</v>
-      </c>
-      <c r="G20" s="326">
-        <f t="shared" ref="G20:U20" si="14">F20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="326">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="326">
-        <f t="shared" si="14"/>
+      <c r="F20" s="303">
+        <v>0</v>
+      </c>
+      <c r="G20" s="303">
+        <f t="shared" ref="G20:U20" si="15">F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="303">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="303">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z20" s="257"/>
@@ -15376,71 +14950,71 @@
         <v>0</v>
       </c>
       <c r="AE20" s="247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="323"/>
-      <c r="B21" s="322" t="s">
+      <c r="A21" s="300"/>
+      <c r="B21" s="299" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="95">
         <f t="shared" si="3"/>
         <v>7000</v>
       </c>
-      <c r="D21" s="326">
+      <c r="D21" s="303">
         <v>7000</v>
       </c>
-      <c r="E21" s="326">
-        <v>0</v>
-      </c>
-      <c r="F21" s="326">
-        <v>0</v>
-      </c>
-      <c r="G21" s="326">
-        <v>0</v>
-      </c>
-      <c r="H21" s="326">
-        <v>0</v>
-      </c>
-      <c r="I21" s="326">
-        <v>0</v>
-      </c>
-      <c r="J21" s="326">
-        <v>0</v>
-      </c>
-      <c r="K21" s="326">
-        <v>0</v>
-      </c>
-      <c r="L21" s="326">
-        <v>0</v>
-      </c>
-      <c r="M21" s="326">
-        <v>0</v>
-      </c>
-      <c r="N21" s="326">
-        <v>0</v>
-      </c>
-      <c r="O21" s="326">
-        <v>0</v>
-      </c>
-      <c r="P21" s="326">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="326">
-        <v>0</v>
-      </c>
-      <c r="R21" s="326">
-        <v>0</v>
-      </c>
-      <c r="S21" s="326">
-        <v>0</v>
-      </c>
-      <c r="T21" s="326">
-        <v>0</v>
-      </c>
-      <c r="U21" s="326">
+      <c r="E21" s="303">
+        <v>0</v>
+      </c>
+      <c r="F21" s="303">
+        <v>0</v>
+      </c>
+      <c r="G21" s="303">
+        <v>0</v>
+      </c>
+      <c r="H21" s="303">
+        <v>0</v>
+      </c>
+      <c r="I21" s="303">
+        <v>0</v>
+      </c>
+      <c r="J21" s="303">
+        <v>0</v>
+      </c>
+      <c r="K21" s="303">
+        <v>0</v>
+      </c>
+      <c r="L21" s="303">
+        <v>0</v>
+      </c>
+      <c r="M21" s="303">
+        <v>0</v>
+      </c>
+      <c r="N21" s="303">
+        <v>0</v>
+      </c>
+      <c r="O21" s="303">
+        <v>0</v>
+      </c>
+      <c r="P21" s="303">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="303">
+        <v>0</v>
+      </c>
+      <c r="R21" s="303">
+        <v>0</v>
+      </c>
+      <c r="S21" s="303">
+        <v>0</v>
+      </c>
+      <c r="T21" s="303">
+        <v>0</v>
+      </c>
+      <c r="U21" s="303">
         <v>0</v>
       </c>
       <c r="Z21" s="238" t="s">
@@ -15451,7 +15025,7 @@
       </c>
       <c r="AB21" s="240">
         <f>AA21/AA34</f>
-        <v>0.10610473598489069</v>
+        <v>0.10600395818779873</v>
       </c>
       <c r="AC21" s="248" t="s">
         <v>271</v>
@@ -15460,15 +15034,15 @@
         <v>0</v>
       </c>
       <c r="AE21" s="247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="321" t="s">
+      <c r="A22" s="298" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="322" t="str">
+      <c r="B22" s="299" t="str">
         <f>A22</f>
         <v>Intereses</v>
       </c>
@@ -15476,75 +15050,75 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D22" s="326">
-        <v>0</v>
-      </c>
-      <c r="E22" s="326">
-        <f t="shared" ref="E22:U22" si="15">D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="326">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="326">
-        <f t="shared" si="15"/>
+      <c r="D22" s="303">
+        <v>0</v>
+      </c>
+      <c r="E22" s="303">
+        <f t="shared" ref="E22:U22" si="16">D22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="303">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="303">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z22" s="238"/>
@@ -15555,84 +15129,84 @@
       <c r="AE22" s="267"/>
     </row>
     <row r="23" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="324" t="s">
+      <c r="A23" s="301" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="325"/>
+      <c r="B23" s="302"/>
       <c r="C23" s="96">
         <f t="shared" si="3"/>
         <v>1952440</v>
       </c>
-      <c r="D23" s="327">
-        <f t="shared" ref="D23:U23" si="16">SUM(D14:D22)</f>
+      <c r="D23" s="304">
+        <f t="shared" ref="D23:U23" si="17">SUM(D14:D22)</f>
         <v>115000</v>
       </c>
-      <c r="E23" s="327">
-        <f t="shared" si="16"/>
+      <c r="E23" s="304">
+        <f t="shared" si="17"/>
         <v>336480</v>
       </c>
-      <c r="F23" s="327">
-        <f t="shared" si="16"/>
+      <c r="F23" s="304">
+        <f t="shared" si="17"/>
         <v>93060</v>
       </c>
-      <c r="G23" s="327">
-        <f t="shared" si="16"/>
+      <c r="G23" s="304">
+        <f t="shared" si="17"/>
         <v>93160</v>
       </c>
-      <c r="H23" s="327">
-        <f t="shared" si="16"/>
+      <c r="H23" s="304">
+        <f t="shared" si="17"/>
         <v>93260</v>
       </c>
-      <c r="I23" s="327">
-        <f t="shared" si="16"/>
+      <c r="I23" s="304">
+        <f t="shared" si="17"/>
         <v>93360</v>
       </c>
-      <c r="J23" s="327">
-        <f t="shared" si="16"/>
+      <c r="J23" s="304">
+        <f t="shared" si="17"/>
         <v>93460</v>
       </c>
-      <c r="K23" s="327">
-        <f t="shared" si="16"/>
+      <c r="K23" s="304">
+        <f t="shared" si="17"/>
         <v>93560</v>
       </c>
-      <c r="L23" s="327">
-        <f t="shared" si="16"/>
+      <c r="L23" s="304">
+        <f t="shared" si="17"/>
         <v>93660</v>
       </c>
-      <c r="M23" s="327">
-        <f t="shared" si="16"/>
+      <c r="M23" s="304">
+        <f t="shared" si="17"/>
         <v>93760</v>
       </c>
-      <c r="N23" s="327">
-        <f t="shared" si="16"/>
+      <c r="N23" s="304">
+        <f t="shared" si="17"/>
         <v>93860</v>
       </c>
-      <c r="O23" s="327">
-        <f t="shared" si="16"/>
+      <c r="O23" s="304">
+        <f t="shared" si="17"/>
         <v>93960</v>
       </c>
-      <c r="P23" s="327">
-        <f t="shared" si="16"/>
+      <c r="P23" s="304">
+        <f t="shared" si="17"/>
         <v>94060</v>
       </c>
-      <c r="Q23" s="327">
-        <f t="shared" si="16"/>
+      <c r="Q23" s="304">
+        <f t="shared" si="17"/>
         <v>94160</v>
       </c>
-      <c r="R23" s="327">
-        <f t="shared" si="16"/>
+      <c r="R23" s="304">
+        <f t="shared" si="17"/>
         <v>94260</v>
       </c>
-      <c r="S23" s="327">
-        <f t="shared" si="16"/>
+      <c r="S23" s="304">
+        <f t="shared" si="17"/>
         <v>94360</v>
       </c>
-      <c r="T23" s="327">
-        <f t="shared" si="16"/>
+      <c r="T23" s="304">
+        <f t="shared" si="17"/>
         <v>94460</v>
       </c>
-      <c r="U23" s="327">
-        <f t="shared" si="16"/>
+      <c r="U23" s="304">
+        <f t="shared" si="17"/>
         <v>94560</v>
       </c>
       <c r="V23" s="97"/>
@@ -15656,8 +15230,8 @@
         <v>356700</v>
       </c>
       <c r="AE23" s="241">
-        <f t="shared" ref="AE23:AE25" si="17">AD23/$AD$34</f>
-        <v>0.12615853108603503</v>
+        <f t="shared" ref="AE23:AE25" si="18">AD23/$AD$34</f>
+        <v>0.12603870628529271</v>
       </c>
       <c r="AG23" s="97"/>
     </row>
@@ -15667,84 +15241,84 @@
       </c>
       <c r="B24" s="99"/>
       <c r="C24" s="86">
-        <f t="shared" ref="C24:U24" si="18">C5+C13-C23</f>
-        <v>518255</v>
+        <f t="shared" ref="C24:U24" si="19">C5+C13-C23</f>
+        <v>520943</v>
       </c>
       <c r="D24" s="86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>185000</v>
       </c>
       <c r="E24" s="86">
-        <f t="shared" si="18"/>
-        <v>922914</v>
+        <f t="shared" si="19"/>
+        <v>925602</v>
       </c>
       <c r="F24" s="86">
-        <f t="shared" si="18"/>
-        <v>848654</v>
+        <f t="shared" si="19"/>
+        <v>851342</v>
       </c>
       <c r="G24" s="86">
-        <f t="shared" si="18"/>
-        <v>775294</v>
+        <f t="shared" si="19"/>
+        <v>777982</v>
       </c>
       <c r="H24" s="86">
-        <f t="shared" si="18"/>
-        <v>799334</v>
+        <f t="shared" si="19"/>
+        <v>802022</v>
       </c>
       <c r="I24" s="86">
-        <f t="shared" si="18"/>
-        <v>727774</v>
+        <f t="shared" si="19"/>
+        <v>730462</v>
       </c>
       <c r="J24" s="86">
-        <f t="shared" si="18"/>
-        <v>753614</v>
+        <f t="shared" si="19"/>
+        <v>756302</v>
       </c>
       <c r="K24" s="86">
-        <f t="shared" si="18"/>
-        <v>683854</v>
+        <f t="shared" si="19"/>
+        <v>686542</v>
       </c>
       <c r="L24" s="86">
-        <f t="shared" si="18"/>
-        <v>711494</v>
+        <f t="shared" si="19"/>
+        <v>714182</v>
       </c>
       <c r="M24" s="86">
-        <f t="shared" si="18"/>
-        <v>643534</v>
+        <f t="shared" si="19"/>
+        <v>646222</v>
       </c>
       <c r="N24" s="86">
-        <f t="shared" si="18"/>
-        <v>672974</v>
+        <f t="shared" si="19"/>
+        <v>675662</v>
       </c>
       <c r="O24" s="86">
-        <f t="shared" si="18"/>
-        <v>606814</v>
+        <f t="shared" si="19"/>
+        <v>609502</v>
       </c>
       <c r="P24" s="86">
-        <f t="shared" si="18"/>
-        <v>638054</v>
+        <f t="shared" si="19"/>
+        <v>640742</v>
       </c>
       <c r="Q24" s="86">
-        <f t="shared" si="18"/>
-        <v>573694</v>
+        <f t="shared" si="19"/>
+        <v>576382</v>
       </c>
       <c r="R24" s="86">
-        <f t="shared" si="18"/>
-        <v>606734</v>
+        <f t="shared" si="19"/>
+        <v>609422</v>
       </c>
       <c r="S24" s="86">
-        <f t="shared" si="18"/>
-        <v>640675</v>
+        <f t="shared" si="19"/>
+        <v>643363</v>
       </c>
       <c r="T24" s="86">
-        <f t="shared" si="18"/>
-        <v>579015</v>
+        <f t="shared" si="19"/>
+        <v>581703</v>
       </c>
       <c r="U24" s="86">
-        <f t="shared" si="18"/>
-        <v>518255</v>
+        <f t="shared" si="19"/>
+        <v>520943</v>
       </c>
       <c r="V24" s="87"/>
       <c r="W24" s="94" t="str">
-        <f t="shared" ref="W24:W31" si="19">B15</f>
+        <f t="shared" ref="W24:W31" si="20">B15</f>
         <v xml:space="preserve">Mantenimiento </v>
       </c>
       <c r="X24" s="98">
@@ -15763,8 +15337,8 @@
         <v>88000</v>
       </c>
       <c r="AE24" s="247">
-        <f t="shared" si="17"/>
-        <v>3.1124055888901266E-2</v>
+        <f t="shared" si="18"/>
+        <v>3.1094494401754293E-2</v>
       </c>
       <c r="AG24" s="87"/>
     </row>
@@ -15781,72 +15355,72 @@
         <v>43651</v>
       </c>
       <c r="F25" s="101">
-        <f t="shared" ref="F25:U25" si="20">E25+7</f>
+        <f t="shared" ref="F25:U25" si="21">E25+7</f>
         <v>43658</v>
       </c>
       <c r="G25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43665</v>
       </c>
       <c r="H25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43672</v>
       </c>
       <c r="I25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43679</v>
       </c>
       <c r="J25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43686</v>
       </c>
       <c r="K25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43693</v>
       </c>
       <c r="L25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43700</v>
       </c>
       <c r="M25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43707</v>
       </c>
       <c r="N25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43714</v>
       </c>
       <c r="O25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43721</v>
       </c>
       <c r="P25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43728</v>
       </c>
       <c r="Q25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43735</v>
       </c>
       <c r="R25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43742</v>
       </c>
       <c r="S25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43749</v>
       </c>
       <c r="T25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43756</v>
       </c>
       <c r="U25" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>43763</v>
       </c>
       <c r="V25" s="76"/>
       <c r="W25" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Estadio</v>
       </c>
       <c r="X25" s="98">
@@ -15865,8 +15439,8 @@
         <v>268700</v>
       </c>
       <c r="AE25" s="247">
-        <f t="shared" si="17"/>
-        <v>9.5034475197133761E-2</v>
+        <f t="shared" si="18"/>
+        <v>9.4944211883538396E-2</v>
       </c>
       <c r="AG25" s="76"/>
     </row>
@@ -15894,11 +15468,11 @@
       <c r="U26" s="102"/>
       <c r="V26" s="61"/>
       <c r="W26" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Empleados</v>
       </c>
       <c r="X26" s="98">
-        <f t="shared" ref="X26:X31" si="21">C17/$C$23</f>
+        <f t="shared" ref="X26:X31" si="22">C17/$C$23</f>
         <v>0.48480875212554547</v>
       </c>
       <c r="Y26" s="61"/>
@@ -15940,11 +15514,11 @@
       <c r="U27" s="106"/>
       <c r="V27" s="7"/>
       <c r="W27" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Juveniles</v>
       </c>
       <c r="X27" s="98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.18438466739054721</v>
       </c>
       <c r="Y27" s="7"/>
@@ -15953,11 +15527,11 @@
       </c>
       <c r="AA27" s="239">
         <f>SUM(AA28:AA32)</f>
-        <v>2170695</v>
+        <v>2173383</v>
       </c>
       <c r="AB27" s="240">
         <f>AA27/AA34</f>
-        <v>0.76773673292907429</v>
+        <v>0.76795733552690859</v>
       </c>
       <c r="AC27" s="238" t="s">
         <v>274</v>
@@ -15967,14 +15541,14 @@
         <v>1595740</v>
       </c>
       <c r="AE27" s="241">
-        <f t="shared" ref="AE27:AE34" si="22">AD27/$AD$34</f>
-        <v>0.56438523800176488</v>
+        <f t="shared" ref="AE27:AE34" si="23">AD27/$AD$34</f>
+        <v>0.5638491874619932</v>
       </c>
       <c r="AG27" s="7"/>
     </row>
     <row r="28" spans="1:33" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
-      <c r="B28" s="298" t="s">
+      <c r="B28" s="316" t="s">
         <v>145</v>
       </c>
       <c r="C28" s="108" t="s">
@@ -16004,11 +15578,11 @@
       <c r="U28" s="106"/>
       <c r="V28" s="61"/>
       <c r="W28" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Compra</v>
       </c>
       <c r="X28" s="98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y28" s="61"/>
@@ -16021,7 +15595,7 @@
       </c>
       <c r="AB28" s="244">
         <f>AA28/AA34</f>
-        <v>1.9098852477280324E-3</v>
+        <v>1.9080712473803771E-3</v>
       </c>
       <c r="AC28" s="263" t="s">
         <v>275</v>
@@ -16031,14 +15605,14 @@
         <v>150280</v>
       </c>
       <c r="AE28" s="247">
-        <f t="shared" si="22"/>
-        <v>5.3151399079364572E-2</v>
+        <f t="shared" si="23"/>
+        <v>5.310091612154131E-2</v>
       </c>
       <c r="AG28" s="61"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
-      <c r="B29" s="298"/>
+      <c r="B29" s="316"/>
       <c r="C29" s="108" t="s">
         <v>146</v>
       </c>
@@ -16065,11 +15639,11 @@
       <c r="T29" s="106"/>
       <c r="U29" s="106"/>
       <c r="W29" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Entrenador</v>
       </c>
       <c r="X29" s="98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.13762266702177789</v>
       </c>
       <c r="Z29" s="275" t="s">
@@ -16081,7 +15655,7 @@
       </c>
       <c r="AB29" s="244">
         <f>AA29/AA34</f>
-        <v>0.31937525531452099</v>
+        <v>0.31907191414527419</v>
       </c>
       <c r="AC29" s="263" t="s">
         <v>132</v>
@@ -16091,13 +15665,13 @@
         <v>131900</v>
       </c>
       <c r="AE29" s="247">
-        <f t="shared" si="22"/>
-        <v>4.6650715588023604E-2</v>
+        <f t="shared" si="23"/>
+        <v>4.6606406949902174E-2</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
-      <c r="B30" s="298"/>
+      <c r="B30" s="316"/>
       <c r="C30" s="108" t="s">
         <v>147</v>
       </c>
@@ -16124,11 +15698,11 @@
       <c r="T30" s="106"/>
       <c r="U30" s="106"/>
       <c r="W30" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Viajes+Venta</v>
       </c>
       <c r="X30" s="98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.5852574214828626E-3</v>
       </c>
       <c r="Z30" s="275" t="s">
@@ -16136,11 +15710,11 @@
       </c>
       <c r="AA30" s="276">
         <f>C6</f>
-        <v>871950</v>
+        <v>874638</v>
       </c>
       <c r="AB30" s="244">
         <f>AA30/AA34</f>
-        <v>0.30839341514008478</v>
+        <v>0.30905029993819971</v>
       </c>
       <c r="AC30" s="263" t="s">
         <v>135</v>
@@ -16150,13 +15724,13 @@
         <v>946560</v>
       </c>
       <c r="AE30" s="247">
-        <f t="shared" si="22"/>
-        <v>0.33478166297952711</v>
+        <f t="shared" si="23"/>
+        <v>0.33446368887414257</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="74"/>
-      <c r="B31" s="298"/>
+      <c r="B31" s="316"/>
       <c r="C31" s="108" t="s">
         <v>148</v>
       </c>
@@ -16183,11 +15757,11 @@
       <c r="T31" s="106"/>
       <c r="U31" s="106"/>
       <c r="W31" s="94" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Intereses</v>
       </c>
       <c r="X31" s="98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z31" s="275" t="s">
@@ -16199,7 +15773,7 @@
       </c>
       <c r="AB31" s="244">
         <f>AA31/AA34</f>
-        <v>0.13805817722674052</v>
+        <v>0.13792705019605431</v>
       </c>
       <c r="AC31" s="263" t="s">
         <v>136</v>
@@ -16209,13 +15783,13 @@
         <v>360000</v>
       </c>
       <c r="AE31" s="247">
-        <f t="shared" si="22"/>
-        <v>0.12732568318186882</v>
+        <f t="shared" si="23"/>
+        <v>0.12720474982535848</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="74"/>
-      <c r="B32" s="298"/>
+      <c r="B32" s="316"/>
       <c r="C32" s="108" t="s">
         <v>149</v>
       </c>
@@ -16265,13 +15839,13 @@
         <v>7000</v>
       </c>
       <c r="AE32" s="247">
-        <f t="shared" si="22"/>
-        <v>2.4757771729807827E-3</v>
+        <f t="shared" si="23"/>
+        <v>2.4734256910486372E-3</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="74"/>
-      <c r="B33" s="298"/>
+      <c r="B33" s="316"/>
       <c r="C33" s="108" t="s">
         <v>151</v>
       </c>
@@ -16310,13 +15884,13 @@
         <v>0</v>
       </c>
       <c r="AE33" s="279">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="61"/>
-      <c r="B34" s="298"/>
+      <c r="B34" s="316"/>
       <c r="C34" s="108" t="s">
         <v>152</v>
       </c>
@@ -16342,17 +15916,17 @@
       <c r="S34" s="110"/>
       <c r="T34" s="110"/>
       <c r="U34" s="110"/>
-      <c r="W34" s="299">
+      <c r="W34" s="317">
         <f>C23</f>
         <v>1952440</v>
       </c>
-      <c r="X34" s="299"/>
+      <c r="X34" s="317"/>
       <c r="Z34" s="280" t="s">
         <v>229</v>
       </c>
       <c r="AA34" s="281">
         <f>AA27+AA21+AA17+AA11+AA6</f>
-        <v>2827395</v>
+        <v>2830083</v>
       </c>
       <c r="AB34" s="282">
         <f>AA34/AA34</f>
@@ -16363,16 +15937,16 @@
       </c>
       <c r="AD34" s="281">
         <f>AD27+AD19+AD11+AD6+AD23</f>
-        <v>2827395</v>
+        <v>2830083</v>
       </c>
       <c r="AE34" s="283">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="298"/>
+      <c r="B35" s="316"/>
       <c r="C35" s="108" t="s">
         <v>153</v>
       </c>
@@ -16411,63 +15985,63 @@
         <v>154</v>
       </c>
       <c r="D36" s="112">
-        <f t="shared" ref="D36:R36" si="23">D28/D29</f>
+        <f t="shared" ref="D36:R36" si="24">D28/D29</f>
         <v>2.4736842105263159</v>
       </c>
       <c r="E36" s="112">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.4505776636713734</v>
       </c>
       <c r="F36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="112" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="112"/>
@@ -16488,10 +16062,10 @@
       <c r="C37" s="61"/>
       <c r="E37" s="62"/>
       <c r="F37" s="75"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="311"/>
-      <c r="I37" s="311"/>
-      <c r="J37" s="311"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
+      <c r="J37" s="330"/>
       <c r="Z37" s="287"/>
       <c r="AA37" s="288"/>
       <c r="AB37" s="232"/>
@@ -16553,10 +16127,10 @@
       <c r="C40" s="61"/>
       <c r="D40" s="62"/>
       <c r="F40" s="75"/>
-      <c r="G40" s="312"/>
-      <c r="H40" s="312"/>
-      <c r="I40" s="312"/>
-      <c r="J40" s="312"/>
+      <c r="G40" s="331"/>
+      <c r="H40" s="331"/>
+      <c r="I40" s="331"/>
+      <c r="J40" s="331"/>
       <c r="M40" s="115"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -16577,10 +16151,10 @@
       <c r="C42" s="61"/>
       <c r="D42" s="62"/>
       <c r="F42" s="75"/>
-      <c r="G42" s="312"/>
-      <c r="H42" s="312"/>
-      <c r="I42" s="312"/>
-      <c r="J42" s="312"/>
+      <c r="G42" s="331"/>
+      <c r="H42" s="331"/>
+      <c r="I42" s="331"/>
+      <c r="J42" s="331"/>
       <c r="P42" s="115"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -16589,9 +16163,9 @@
       <c r="C43" s="61"/>
       <c r="D43" s="62"/>
       <c r="F43" s="75"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="312"/>
-      <c r="I43" s="312"/>
+      <c r="G43" s="331"/>
+      <c r="H43" s="331"/>
+      <c r="I43" s="331"/>
       <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CC4D66-AD9A-4F62-8F64-96EE57397C90}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AF98B2-211C-4715-8A59-824CD27A86DB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
     <sheet name="Juvenils" sheetId="3" r:id="rId2"/>
-    <sheet name="Ahch-To" sheetId="4" r:id="rId3"/>
-    <sheet name="EconomiaT48" sheetId="2" r:id="rId4"/>
+    <sheet name="EconomiaT48" sheetId="2" r:id="rId3"/>
+    <sheet name="Ahch-To" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -2671,6 +2671,54 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2679,54 +2727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2737,6 +2737,26 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2783,26 +2803,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3216,6 +3216,114 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C6FC24-5190-4275-B063-834F7156AF27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8839200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16452755-856A-41A0-8D87-EA7C0C929250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8839200" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3525,7 +3633,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3686,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="E1" s="309">
         <v>43637</v>
@@ -3880,7 +3988,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C22" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.678571428571427</v>
+        <v>17.669642857142858</v>
       </c>
       <c r="D4" s="231" t="s">
         <v>54</v>
@@ -3890,7 +3998,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -4062,7 +4170,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.8660714285714288</v>
+        <v>8.8571428571428577</v>
       </c>
       <c r="D5" s="230" t="s">
         <v>62</v>
@@ -4072,7 +4180,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -4244,7 +4352,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.758928571428571</v>
+        <v>14.75</v>
       </c>
       <c r="D6" s="230" t="s">
         <v>59</v>
@@ -4254,7 +4362,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -4426,7 +4534,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.803571428571427</v>
+        <v>17.794642857142858</v>
       </c>
       <c r="D7" s="230" t="s">
         <v>64</v>
@@ -4436,7 +4544,7 @@
       </c>
       <c r="F7" s="51">
         <f ca="1">$D$1-43620</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="37">
@@ -4606,7 +4714,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9642857142857144</v>
+        <v>3.9553571428571428</v>
       </c>
       <c r="D8" s="230" t="s">
         <v>67</v>
@@ -4616,7 +4724,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -4786,7 +4894,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4196428571428577</v>
+        <v>9.4107142857142865</v>
       </c>
       <c r="D9" s="211" t="s">
         <v>69</v>
@@ -4796,7 +4904,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="30">
@@ -4966,7 +5074,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3928571428571432</v>
+        <v>7.3839285714285712</v>
       </c>
       <c r="D10" s="308" t="s">
         <v>71</v>
@@ -4976,7 +5084,7 @@
       </c>
       <c r="F10" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -5146,7 +5254,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1428571428571432</v>
+        <v>5.1339285714285712</v>
       </c>
       <c r="D11" s="308" t="s">
         <v>73</v>
@@ -5156,7 +5264,7 @@
       </c>
       <c r="F11" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="37">
@@ -5326,7 +5434,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.830357142857142</v>
+        <v>10.821428571428571</v>
       </c>
       <c r="D12" s="211" t="s">
         <v>76</v>
@@ -5336,7 +5444,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>77</v>
@@ -5508,7 +5616,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.169642857142858</v>
+        <v>14.160714285714286</v>
       </c>
       <c r="D13" s="230" t="s">
         <v>79</v>
@@ -5518,7 +5626,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -5688,7 +5796,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.482142857142858</v>
+        <v>16.473214285714285</v>
       </c>
       <c r="D14" s="230" t="s">
         <v>81</v>
@@ -5698,7 +5806,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -5868,7 +5976,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.928571428571429</v>
+        <v>12.919642857142858</v>
       </c>
       <c r="D15" s="230" t="s">
         <v>83</v>
@@ -5878,7 +5986,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -6048,7 +6156,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.946428571428571</v>
+        <v>11.9375</v>
       </c>
       <c r="D16" s="230" t="s">
         <v>85</v>
@@ -6058,7 +6166,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="37">
@@ -6228,7 +6336,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9107142857142865</v>
+        <v>8.9017857142857135</v>
       </c>
       <c r="D17" s="230" t="s">
         <v>87</v>
@@ -6238,7 +6346,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>88</v>
@@ -6410,7 +6518,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.160714285714286</v>
+        <v>15.151785714285714</v>
       </c>
       <c r="D18" s="230" t="s">
         <v>91</v>
@@ -6420,7 +6528,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -6590,7 +6698,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.321428571428571</v>
+        <v>13.3125</v>
       </c>
       <c r="D19" s="230" t="s">
         <v>93</v>
@@ -6600,7 +6708,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -6770,7 +6878,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.910714285714285</v>
+        <v>17.901785714285715</v>
       </c>
       <c r="D20" s="230" t="s">
         <v>96</v>
@@ -6780,7 +6888,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -6950,7 +7058,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9553571428571428</v>
+        <v>2.9464285714285716</v>
       </c>
       <c r="D21" s="230" t="s">
         <v>98</v>
@@ -6960,7 +7068,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -7130,17 +7238,17 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.008928571428571</v>
+        <v>10</v>
       </c>
       <c r="D22" s="230" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="50">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="28">
-        <f ca="1">$D$1-43531</f>
-        <v>111</v>
+        <f ca="1">$D$1-43531-112</f>
+        <v>0</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="37">
@@ -8617,12 +8725,12 @@
       </c>
       <c r="C10" s="140">
         <f ca="1">3+$A$28-$A$30</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="141"/>
       <c r="E10" s="212">
         <f t="shared" ref="E10:E25" ca="1" si="0">F10-TODAY()</f>
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="229">
         <v>43858</v>
@@ -8685,12 +8793,12 @@
       </c>
       <c r="C11" s="140">
         <f ca="1">11+$A$28-$A$30</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="141"/>
       <c r="E11" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F11" s="229">
         <v>43850</v>
@@ -8751,12 +8859,12 @@
       </c>
       <c r="C12" s="140">
         <f ca="1">14+$A$28-$A$30</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="141"/>
       <c r="E12" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="229">
         <v>43847</v>
@@ -8819,12 +8927,12 @@
       </c>
       <c r="C13" s="140">
         <f ca="1">33+$A$28-$A$30</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="149"/>
       <c r="E13" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="229">
         <v>43828</v>
@@ -8885,12 +8993,12 @@
       </c>
       <c r="C14" s="140">
         <f ca="1">51+$A$28-$A$30</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="141"/>
       <c r="E14" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="229">
         <v>43810</v>
@@ -8951,12 +9059,12 @@
       </c>
       <c r="C15" s="140">
         <f ca="1">70+$A$28-$A$30</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D15" s="149"/>
       <c r="E15" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="229">
         <v>43791</v>
@@ -9017,12 +9125,12 @@
       </c>
       <c r="C16" s="140">
         <f ca="1">76+$A$28-$A$30</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="149"/>
       <c r="E16" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F16" s="229">
         <v>43785</v>
@@ -9087,12 +9195,12 @@
       </c>
       <c r="C17" s="140">
         <f ca="1">96+$A$28-$A$30</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" s="149"/>
       <c r="E17" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="229">
         <v>43765</v>
@@ -9153,12 +9261,12 @@
       </c>
       <c r="C18" s="140">
         <f ca="1">-1+$A$28-$A$30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="145"/>
       <c r="E18" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="229">
         <v>43750</v>
@@ -9221,12 +9329,12 @@
       </c>
       <c r="C19" s="140">
         <f ca="1">22+$A$28-$A$30</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" s="141"/>
       <c r="E19" s="212">
         <f ca="1">F19-TODAY()</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="229">
         <v>43750</v>
@@ -9293,12 +9401,12 @@
       </c>
       <c r="C20" s="140">
         <f ca="1">29+$A$28-$A$30</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="141"/>
       <c r="E20" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="229">
         <v>43749</v>
@@ -9359,12 +9467,12 @@
       </c>
       <c r="C21" s="140">
         <f ca="1">40+$A$28-$A$30</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="141"/>
       <c r="E21" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="229">
         <v>43749</v>
@@ -9425,12 +9533,12 @@
       </c>
       <c r="C22" s="140">
         <f ca="1">66+$A$28-$A$30</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="141"/>
       <c r="E22" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22" s="229">
         <v>43749</v>
@@ -9491,12 +9599,12 @@
       </c>
       <c r="C23" s="140">
         <f ca="1">67+$A$28-$A$30</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="141"/>
       <c r="E23" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F23" s="229">
         <v>43749</v>
@@ -9555,12 +9663,12 @@
       </c>
       <c r="C24" s="140">
         <f ca="1">71+$A$28-$A$30</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="149"/>
       <c r="E24" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24" s="229">
         <v>43749</v>
@@ -9621,12 +9729,12 @@
       </c>
       <c r="C25" s="140">
         <f ca="1">103+$A$28-$A$30</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" s="149"/>
       <c r="E25" s="212">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F25" s="229">
         <v>43749</v>
@@ -9753,7 +9861,7 @@
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="159">
         <f ca="1">TODAY()</f>
-        <v>43642</v>
+        <v>43643</v>
       </c>
       <c r="B28" s="160"/>
       <c r="C28" s="156"/>
@@ -9793,7 +9901,7 @@
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="162">
         <f ca="1">A30-A28</f>
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="B29" s="146"/>
       <c r="C29" s="146"/>
@@ -9971,3139 +10079,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:AV39"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125"/>
-    <col min="14" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125"/>
-    <col min="22" max="30" width="12.42578125" customWidth="1"/>
-    <col min="31" max="37" width="6.5703125" customWidth="1"/>
-    <col min="38" max="1025" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="M1" s="166" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" s="166" t="s">
-        <v>205</v>
-      </c>
-      <c r="O1" s="166" t="s">
-        <v>206</v>
-      </c>
-      <c r="P1" s="166" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q1" s="166" t="s">
-        <v>208</v>
-      </c>
-      <c r="R1" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="S1" s="166" t="s">
-        <v>210</v>
-      </c>
-      <c r="U1" s="166" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C2" s="167" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="313" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="313"/>
-      <c r="F2" s="314" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="314"/>
-      <c r="H2" s="315" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="315"/>
-      <c r="K2" s="60"/>
-      <c r="M2" s="168">
-        <v>11</v>
-      </c>
-      <c r="N2" s="169">
-        <v>14.98</v>
-      </c>
-      <c r="O2" s="169">
-        <v>5.95</v>
-      </c>
-      <c r="P2" s="170">
-        <f t="shared" ref="P2:P12" si="0">U2*0.97</f>
-        <v>5.3253000000000004</v>
-      </c>
-      <c r="Q2" s="169">
-        <v>0.68</v>
-      </c>
-      <c r="R2" s="171">
-        <v>27.09</v>
-      </c>
-      <c r="U2" s="169">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="173">
-        <f>B4+B5+B6+B7</f>
-        <v>12000</v>
-      </c>
-      <c r="C3" s="174">
-        <f>C4+C5+C6+C7</f>
-        <v>12400</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="175" t="s">
-        <v>220</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="M3" s="168">
-        <v>10</v>
-      </c>
-      <c r="N3" s="176">
-        <v>14.23</v>
-      </c>
-      <c r="O3" s="176">
-        <v>5.59</v>
-      </c>
-      <c r="P3" s="170">
-        <f t="shared" si="0"/>
-        <v>4.9179000000000004</v>
-      </c>
-      <c r="Q3" s="176">
-        <v>0.62</v>
-      </c>
-      <c r="R3" s="177">
-        <v>25.52</v>
-      </c>
-      <c r="U3" s="176">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="173">
-        <v>8000</v>
-      </c>
-      <c r="C4" s="178">
-        <v>8000</v>
-      </c>
-      <c r="D4" s="179">
-        <v>45</v>
-      </c>
-      <c r="E4" s="180">
-        <f>D4*(C4-B4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="181">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="180">
-        <f>(C4-B4)*F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="181">
-        <v>7</v>
-      </c>
-      <c r="I4" s="182">
-        <f>(C4-B4)*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="180">
-        <f>H4*C4</f>
-        <v>56000</v>
-      </c>
-      <c r="K4" s="25">
-        <f>B4*F4</f>
-        <v>4000</v>
-      </c>
-      <c r="L4" s="68">
-        <f>5000*N13*F4</f>
-        <v>1382.4289405684756</v>
-      </c>
-      <c r="M4" s="168">
-        <v>9</v>
-      </c>
-      <c r="N4" s="169">
-        <v>13.49</v>
-      </c>
-      <c r="O4" s="169">
-        <v>5.24</v>
-      </c>
-      <c r="P4" s="170">
-        <f t="shared" si="0"/>
-        <v>4.5202</v>
-      </c>
-      <c r="Q4" s="169">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="R4" s="171">
-        <v>23.95</v>
-      </c>
-      <c r="U4" s="169">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="173">
-        <v>3000</v>
-      </c>
-      <c r="C5" s="183">
-        <v>3000</v>
-      </c>
-      <c r="D5" s="184">
-        <v>75</v>
-      </c>
-      <c r="E5" s="180">
-        <f>D5*(C5-B5)</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="185">
-        <v>0.7</v>
-      </c>
-      <c r="G5" s="180">
-        <f>(C5-B5)*F5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="185">
-        <v>10</v>
-      </c>
-      <c r="I5" s="182">
-        <f>(C5-B5)*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="180">
-        <f>H5*C5</f>
-        <v>30000</v>
-      </c>
-      <c r="K5" s="25">
-        <f>B5*F5</f>
-        <v>2100</v>
-      </c>
-      <c r="L5" s="68">
-        <f>5000*O13*F5</f>
-        <v>768.73385012919903</v>
-      </c>
-      <c r="M5" s="168">
-        <v>8</v>
-      </c>
-      <c r="N5" s="176">
-        <v>12.74</v>
-      </c>
-      <c r="O5" s="176">
-        <v>4.8899999999999997</v>
-      </c>
-      <c r="P5" s="170">
-        <f t="shared" si="0"/>
-        <v>4.1224999999999996</v>
-      </c>
-      <c r="Q5" s="176">
-        <v>0.51</v>
-      </c>
-      <c r="R5" s="177">
-        <v>22.39</v>
-      </c>
-      <c r="U5" s="176">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="173">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="183">
-        <v>1200</v>
-      </c>
-      <c r="D6" s="179">
-        <v>90</v>
-      </c>
-      <c r="E6" s="180">
-        <f>D6*(C6-B6)</f>
-        <v>18000</v>
-      </c>
-      <c r="F6" s="181">
-        <v>1</v>
-      </c>
-      <c r="G6" s="180">
-        <f>(C6-B6)*F6</f>
-        <v>200</v>
-      </c>
-      <c r="H6" s="181">
-        <v>19</v>
-      </c>
-      <c r="I6" s="182">
-        <f>(C6-B6)*H6</f>
-        <v>3800</v>
-      </c>
-      <c r="J6" s="180">
-        <f>H6*C6</f>
-        <v>22800</v>
-      </c>
-      <c r="K6" s="25">
-        <f>B6*F6</f>
-        <v>1000</v>
-      </c>
-      <c r="L6" s="68">
-        <f>5000*P13*F6</f>
-        <v>982.89036544850512</v>
-      </c>
-      <c r="M6" s="168">
-        <v>7</v>
-      </c>
-      <c r="N6" s="169">
-        <v>12</v>
-      </c>
-      <c r="O6" s="169">
-        <v>4.53</v>
-      </c>
-      <c r="P6" s="170">
-        <f t="shared" si="0"/>
-        <v>3.7247999999999997</v>
-      </c>
-      <c r="Q6" s="169">
-        <v>0.46</v>
-      </c>
-      <c r="R6" s="171">
-        <v>20.83</v>
-      </c>
-      <c r="U6" s="169">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="172" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="173">
-        <v>0</v>
-      </c>
-      <c r="C7" s="186">
-        <v>200</v>
-      </c>
-      <c r="D7" s="184">
-        <v>300</v>
-      </c>
-      <c r="E7" s="180">
-        <f>D7*(C7-B7)</f>
-        <v>60000</v>
-      </c>
-      <c r="F7" s="185">
-        <v>2.5</v>
-      </c>
-      <c r="G7" s="180">
-        <f>(C7-B7)*F7</f>
-        <v>500</v>
-      </c>
-      <c r="H7" s="185">
-        <v>35</v>
-      </c>
-      <c r="I7" s="182">
-        <f>(C7-B7)*H7</f>
-        <v>7000</v>
-      </c>
-      <c r="J7" s="180">
-        <f>H7*C7</f>
-        <v>7000</v>
-      </c>
-      <c r="K7" s="25">
-        <f>B7*F7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="68">
-        <f>5000*Q13*F7</f>
-        <v>313.76891842008126</v>
-      </c>
-      <c r="M7" s="168">
-        <v>6</v>
-      </c>
-      <c r="N7" s="176">
-        <v>11.26</v>
-      </c>
-      <c r="O7" s="176">
-        <v>4.17</v>
-      </c>
-      <c r="P7" s="170">
-        <f t="shared" si="0"/>
-        <v>3.3367999999999998</v>
-      </c>
-      <c r="Q7" s="176">
-        <v>0.41</v>
-      </c>
-      <c r="R7" s="177">
-        <v>19.27</v>
-      </c>
-      <c r="U7" s="176">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C8" s="187">
-        <f>C4/$C$3</f>
-        <v>0.64516129032258063</v>
-      </c>
-      <c r="J8" s="180">
-        <f>J7+J6+J5+J4</f>
-        <v>115800</v>
-      </c>
-      <c r="K8" s="25">
-        <f>K7+K6+K5+K4</f>
-        <v>7100</v>
-      </c>
-      <c r="L8" s="25">
-        <f>L7+L6+L5+L4</f>
-        <v>3447.8220745662611</v>
-      </c>
-      <c r="M8" s="168">
-        <v>5</v>
-      </c>
-      <c r="N8" s="169">
-        <v>10.52</v>
-      </c>
-      <c r="O8" s="169">
-        <v>3.81</v>
-      </c>
-      <c r="P8" s="170">
-        <f t="shared" si="0"/>
-        <v>2.9390999999999998</v>
-      </c>
-      <c r="Q8" s="169">
-        <v>0.35</v>
-      </c>
-      <c r="R8" s="171">
-        <v>17.72</v>
-      </c>
-      <c r="U8" s="169">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="C9" s="188">
-        <f>C5/$C$3</f>
-        <v>0.24193548387096775</v>
-      </c>
-      <c r="E9" s="189">
-        <f>C4-B4</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>H10+H11+H12+H13</f>
-        <v>71304</v>
-      </c>
-      <c r="M9" s="168">
-        <v>4</v>
-      </c>
-      <c r="N9" s="176">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O9" s="176">
-        <v>3.46</v>
-      </c>
-      <c r="P9" s="170">
-        <f t="shared" si="0"/>
-        <v>2.5510999999999999</v>
-      </c>
-      <c r="Q9" s="176">
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="177">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="U9" s="176">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="190">
-        <f>B11/B13</f>
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="C10" s="188">
-        <f>C6/$C$3</f>
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="E10" s="189">
-        <f>C5-B5</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>40146</v>
-      </c>
-      <c r="I10" s="191">
-        <f>H10/$H$9</f>
-        <v>0.56302591719959605</v>
-      </c>
-      <c r="M10" s="168">
-        <v>3</v>
-      </c>
-      <c r="N10" s="169">
-        <v>9.09</v>
-      </c>
-      <c r="O10" s="169">
-        <v>3.1</v>
-      </c>
-      <c r="P10" s="170">
-        <f t="shared" si="0"/>
-        <v>2.1436999999999999</v>
-      </c>
-      <c r="Q10" s="169">
-        <v>0.24</v>
-      </c>
-      <c r="R10" s="171">
-        <v>14.63</v>
-      </c>
-      <c r="U10" s="169">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="192" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="193">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="188">
-        <f>C7/$C$3</f>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="E11" s="189">
-        <f>C6-B6</f>
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>15594</v>
-      </c>
-      <c r="I11" s="191">
-        <f>H11/$H$9</f>
-        <v>0.21869740828004039</v>
-      </c>
-      <c r="M11" s="168">
-        <v>2</v>
-      </c>
-      <c r="N11" s="176">
-        <v>8.42</v>
-      </c>
-      <c r="O11" s="176">
-        <v>2.73</v>
-      </c>
-      <c r="P11" s="170">
-        <f t="shared" si="0"/>
-        <v>1.7168999999999999</v>
-      </c>
-      <c r="Q11" s="176">
-        <v>0.18</v>
-      </c>
-      <c r="R11" s="177">
-        <v>13.09</v>
-      </c>
-      <c r="U11" s="176">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="194">
-        <f>E7+E6+E5+E4</f>
-        <v>78000</v>
-      </c>
-      <c r="E12" s="189">
-        <f>C7-B7</f>
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>13868</v>
-      </c>
-      <c r="I12" s="191">
-        <f>H12/$H$9</f>
-        <v>0.19449119263996409</v>
-      </c>
-      <c r="M12" s="168">
-        <v>1</v>
-      </c>
-      <c r="N12" s="169">
-        <v>7.85</v>
-      </c>
-      <c r="O12" s="169">
-        <v>2.34</v>
-      </c>
-      <c r="P12" s="170">
-        <f t="shared" si="0"/>
-        <v>1.1931</v>
-      </c>
-      <c r="Q12" s="169">
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="171">
-        <v>11.53</v>
-      </c>
-      <c r="U12" s="169">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="195" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="196">
-        <f>B11+B12</f>
-        <v>88000</v>
-      </c>
-      <c r="H13">
-        <v>1696</v>
-      </c>
-      <c r="I13" s="191">
-        <f>H13/$H$9</f>
-        <v>2.3785481880399417E-2</v>
-      </c>
-      <c r="N13">
-        <f>N2/R2</f>
-        <v>0.55297157622739024</v>
-      </c>
-      <c r="O13">
-        <f>O2/R2</f>
-        <v>0.21963824289405687</v>
-      </c>
-      <c r="P13" s="170">
-        <f>P2/R2</f>
-        <v>0.19657807308970102</v>
-      </c>
-      <c r="Q13">
-        <f>Q2/R2</f>
-        <v>2.51015134736065E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="197" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="197" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="197" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="197" t="s">
-        <v>114</v>
-      </c>
-      <c r="L15" s="197" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="197" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" s="197" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" s="197" t="s">
-        <v>118</v>
-      </c>
-      <c r="P15" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="197" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" s="197" t="s">
-        <v>105</v>
-      </c>
-      <c r="S15" s="197" t="s">
-        <v>106</v>
-      </c>
-      <c r="T15" s="197" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="V15" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="W15" s="197" t="s">
-        <v>110</v>
-      </c>
-      <c r="X15" s="197" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y15" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z15" s="197" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA15" s="197" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB15" s="197" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC15" s="197" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD15" s="197" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE15" s="197" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF15" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG15" s="197" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH15" s="197"/>
-      <c r="AI15" s="197"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="198" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="199">
-        <v>100</v>
-      </c>
-      <c r="C16" s="199">
-        <f t="shared" ref="C16:AD16" si="1">B16+15</f>
-        <v>115</v>
-      </c>
-      <c r="D16" s="199">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="E16" s="199">
-        <f t="shared" si="1"/>
-        <v>145</v>
-      </c>
-      <c r="F16" s="199">
-        <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="G16" s="199">
-        <f t="shared" si="1"/>
-        <v>175</v>
-      </c>
-      <c r="H16" s="199">
-        <f t="shared" si="1"/>
-        <v>190</v>
-      </c>
-      <c r="I16" s="199">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-      <c r="J16" s="199">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="K16" s="199">
-        <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-      <c r="L16" s="199">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="M16" s="199">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-      <c r="N16" s="199">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="O16" s="199">
-        <f t="shared" si="1"/>
-        <v>295</v>
-      </c>
-      <c r="P16" s="199">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="Q16" s="199">
-        <f t="shared" si="1"/>
-        <v>325</v>
-      </c>
-      <c r="R16" s="199">
-        <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="S16" s="199">
-        <f t="shared" si="1"/>
-        <v>355</v>
-      </c>
-      <c r="T16" s="199">
-        <f t="shared" si="1"/>
-        <v>370</v>
-      </c>
-      <c r="U16" s="199">
-        <f t="shared" si="1"/>
-        <v>385</v>
-      </c>
-      <c r="V16" s="199">
-        <f t="shared" si="1"/>
-        <v>400</v>
-      </c>
-      <c r="W16" s="199">
-        <f t="shared" si="1"/>
-        <v>415</v>
-      </c>
-      <c r="X16" s="199">
-        <f t="shared" si="1"/>
-        <v>430</v>
-      </c>
-      <c r="Y16" s="199">
-        <f t="shared" si="1"/>
-        <v>445</v>
-      </c>
-      <c r="Z16" s="199">
-        <f t="shared" si="1"/>
-        <v>460</v>
-      </c>
-      <c r="AA16" s="199">
-        <f t="shared" si="1"/>
-        <v>475</v>
-      </c>
-      <c r="AB16" s="199">
-        <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-      <c r="AC16" s="199">
-        <f t="shared" si="1"/>
-        <v>505</v>
-      </c>
-      <c r="AD16" s="199">
-        <f t="shared" si="1"/>
-        <v>520</v>
-      </c>
-      <c r="AE16" s="199"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="198"/>
-      <c r="AI16" s="198"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="198"/>
-      <c r="B17" s="199">
-        <f t="shared" ref="B17:AD17" si="2">B18+B19+B20+B21</f>
-        <v>2226.25</v>
-      </c>
-      <c r="C17" s="199">
-        <f t="shared" si="2"/>
-        <v>2560.1875</v>
-      </c>
-      <c r="D17" s="199">
-        <f t="shared" si="2"/>
-        <v>2894.125</v>
-      </c>
-      <c r="E17" s="199">
-        <f t="shared" si="2"/>
-        <v>3228.0624999999995</v>
-      </c>
-      <c r="F17" s="199">
-        <f t="shared" si="2"/>
-        <v>3562</v>
-      </c>
-      <c r="G17" s="199">
-        <f t="shared" si="2"/>
-        <v>3895.9375</v>
-      </c>
-      <c r="H17" s="199">
-        <f t="shared" si="2"/>
-        <v>4229.8749999999991</v>
-      </c>
-      <c r="I17" s="199">
-        <f t="shared" si="2"/>
-        <v>4563.8125</v>
-      </c>
-      <c r="J17" s="199">
-        <f t="shared" si="2"/>
-        <v>4897.75</v>
-      </c>
-      <c r="K17" s="199">
-        <f t="shared" si="2"/>
-        <v>5231.6875</v>
-      </c>
-      <c r="L17" s="199">
-        <f t="shared" si="2"/>
-        <v>5565.625</v>
-      </c>
-      <c r="M17" s="199">
-        <f t="shared" si="2"/>
-        <v>5899.5624999999991</v>
-      </c>
-      <c r="N17" s="199">
-        <f t="shared" si="2"/>
-        <v>6233.5</v>
-      </c>
-      <c r="O17" s="199">
-        <f t="shared" si="2"/>
-        <v>6567.4375</v>
-      </c>
-      <c r="P17" s="199">
-        <f t="shared" si="2"/>
-        <v>6901.375</v>
-      </c>
-      <c r="Q17" s="199">
-        <f t="shared" si="2"/>
-        <v>7235.3125</v>
-      </c>
-      <c r="R17" s="199">
-        <f t="shared" si="2"/>
-        <v>7569.25</v>
-      </c>
-      <c r="S17" s="199">
-        <f t="shared" si="2"/>
-        <v>7903.1875</v>
-      </c>
-      <c r="T17" s="199">
-        <f t="shared" si="2"/>
-        <v>8237.125</v>
-      </c>
-      <c r="U17" s="199">
-        <f t="shared" si="2"/>
-        <v>8571.0625</v>
-      </c>
-      <c r="V17" s="199">
-        <f t="shared" si="2"/>
-        <v>8905</v>
-      </c>
-      <c r="W17" s="199">
-        <f t="shared" si="2"/>
-        <v>9238.9375</v>
-      </c>
-      <c r="X17" s="199">
-        <f t="shared" si="2"/>
-        <v>9572.8749999999982</v>
-      </c>
-      <c r="Y17" s="199">
-        <f t="shared" si="2"/>
-        <v>9906.8125</v>
-      </c>
-      <c r="Z17" s="199">
-        <f t="shared" si="2"/>
-        <v>10240.75</v>
-      </c>
-      <c r="AA17" s="199">
-        <f t="shared" si="2"/>
-        <v>10574.6875</v>
-      </c>
-      <c r="AB17" s="199">
-        <f t="shared" si="2"/>
-        <v>10908.625</v>
-      </c>
-      <c r="AC17" s="199">
-        <f t="shared" si="2"/>
-        <v>11242.562499999998</v>
-      </c>
-      <c r="AD17" s="199">
-        <f t="shared" si="2"/>
-        <v>11576.5</v>
-      </c>
-      <c r="AE17" s="199"/>
-      <c r="AF17" s="199"/>
-      <c r="AG17" s="199"/>
-      <c r="AH17" s="199"/>
-      <c r="AI17" s="199"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="200" t="s">
-        <v>231</v>
-      </c>
-      <c r="B18" s="201">
-        <f t="shared" ref="B18:AD18" si="3">B16*$N$5</f>
-        <v>1274</v>
-      </c>
-      <c r="C18" s="201">
-        <f t="shared" si="3"/>
-        <v>1465.1000000000001</v>
-      </c>
-      <c r="D18" s="201">
-        <f t="shared" si="3"/>
-        <v>1656.2</v>
-      </c>
-      <c r="E18" s="201">
-        <f t="shared" si="3"/>
-        <v>1847.3</v>
-      </c>
-      <c r="F18" s="201">
-        <f t="shared" si="3"/>
-        <v>2038.4</v>
-      </c>
-      <c r="G18" s="201">
-        <f t="shared" si="3"/>
-        <v>2229.5</v>
-      </c>
-      <c r="H18" s="201">
-        <f t="shared" si="3"/>
-        <v>2420.6</v>
-      </c>
-      <c r="I18" s="201">
-        <f t="shared" si="3"/>
-        <v>2611.6999999999998</v>
-      </c>
-      <c r="J18" s="201">
-        <f t="shared" si="3"/>
-        <v>2802.8</v>
-      </c>
-      <c r="K18" s="201">
-        <f t="shared" si="3"/>
-        <v>2993.9</v>
-      </c>
-      <c r="L18" s="201">
-        <f t="shared" si="3"/>
-        <v>3185</v>
-      </c>
-      <c r="M18" s="201">
-        <f t="shared" si="3"/>
-        <v>3376.1</v>
-      </c>
-      <c r="N18" s="201">
-        <f t="shared" si="3"/>
-        <v>3567.2000000000003</v>
-      </c>
-      <c r="O18" s="201">
-        <f t="shared" si="3"/>
-        <v>3758.3</v>
-      </c>
-      <c r="P18" s="201">
-        <f t="shared" si="3"/>
-        <v>3949.4</v>
-      </c>
-      <c r="Q18" s="201">
-        <f t="shared" si="3"/>
-        <v>4140.5</v>
-      </c>
-      <c r="R18" s="201">
-        <f t="shared" si="3"/>
-        <v>4331.6000000000004</v>
-      </c>
-      <c r="S18" s="201">
-        <f t="shared" si="3"/>
-        <v>4522.7</v>
-      </c>
-      <c r="T18" s="201">
-        <f t="shared" si="3"/>
-        <v>4713.8</v>
-      </c>
-      <c r="U18" s="201">
-        <f t="shared" si="3"/>
-        <v>4904.8999999999996</v>
-      </c>
-      <c r="V18" s="201">
-        <f t="shared" si="3"/>
-        <v>5096</v>
-      </c>
-      <c r="W18" s="201">
-        <f t="shared" si="3"/>
-        <v>5287.1</v>
-      </c>
-      <c r="X18" s="201">
-        <f t="shared" si="3"/>
-        <v>5478.2</v>
-      </c>
-      <c r="Y18" s="201">
-        <f t="shared" si="3"/>
-        <v>5669.3</v>
-      </c>
-      <c r="Z18" s="201">
-        <f t="shared" si="3"/>
-        <v>5860.4000000000005</v>
-      </c>
-      <c r="AA18" s="201">
-        <f t="shared" si="3"/>
-        <v>6051.5</v>
-      </c>
-      <c r="AB18" s="201">
-        <f t="shared" si="3"/>
-        <v>6242.6</v>
-      </c>
-      <c r="AC18" s="201">
-        <f t="shared" si="3"/>
-        <v>6433.7</v>
-      </c>
-      <c r="AD18" s="201">
-        <f t="shared" si="3"/>
-        <v>6624.8</v>
-      </c>
-      <c r="AE18" s="201"/>
-      <c r="AF18" s="201"/>
-      <c r="AG18" s="201"/>
-      <c r="AH18" s="201"/>
-      <c r="AI18" s="201"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="7"/>
-      <c r="AU18" s="7"/>
-      <c r="AV18" s="7"/>
-    </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A19" s="200" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="201">
-        <f t="shared" ref="B19:AD19" si="4">B16*$O$5</f>
-        <v>488.99999999999994</v>
-      </c>
-      <c r="C19" s="201">
-        <f t="shared" si="4"/>
-        <v>562.34999999999991</v>
-      </c>
-      <c r="D19" s="201">
-        <f t="shared" si="4"/>
-        <v>635.69999999999993</v>
-      </c>
-      <c r="E19" s="201">
-        <f t="shared" si="4"/>
-        <v>709.05</v>
-      </c>
-      <c r="F19" s="201">
-        <f t="shared" si="4"/>
-        <v>782.4</v>
-      </c>
-      <c r="G19" s="201">
-        <f t="shared" si="4"/>
-        <v>855.75</v>
-      </c>
-      <c r="H19" s="201">
-        <f t="shared" si="4"/>
-        <v>929.09999999999991</v>
-      </c>
-      <c r="I19" s="201">
-        <f t="shared" si="4"/>
-        <v>1002.4499999999999</v>
-      </c>
-      <c r="J19" s="201">
-        <f t="shared" si="4"/>
-        <v>1075.8</v>
-      </c>
-      <c r="K19" s="201">
-        <f t="shared" si="4"/>
-        <v>1149.1499999999999</v>
-      </c>
-      <c r="L19" s="201">
-        <f t="shared" si="4"/>
-        <v>1222.5</v>
-      </c>
-      <c r="M19" s="201">
-        <f t="shared" si="4"/>
-        <v>1295.8499999999999</v>
-      </c>
-      <c r="N19" s="201">
-        <f t="shared" si="4"/>
-        <v>1369.1999999999998</v>
-      </c>
-      <c r="O19" s="201">
-        <f t="shared" si="4"/>
-        <v>1442.55</v>
-      </c>
-      <c r="P19" s="201">
-        <f t="shared" si="4"/>
-        <v>1515.8999999999999</v>
-      </c>
-      <c r="Q19" s="201">
-        <f t="shared" si="4"/>
-        <v>1589.25</v>
-      </c>
-      <c r="R19" s="201">
-        <f t="shared" si="4"/>
-        <v>1662.6</v>
-      </c>
-      <c r="S19" s="201">
-        <f t="shared" si="4"/>
-        <v>1735.9499999999998</v>
-      </c>
-      <c r="T19" s="201">
-        <f t="shared" si="4"/>
-        <v>1809.3</v>
-      </c>
-      <c r="U19" s="201">
-        <f t="shared" si="4"/>
-        <v>1882.6499999999999</v>
-      </c>
-      <c r="V19" s="201">
-        <f t="shared" si="4"/>
-        <v>1955.9999999999998</v>
-      </c>
-      <c r="W19" s="201">
-        <f t="shared" si="4"/>
-        <v>2029.35</v>
-      </c>
-      <c r="X19" s="201">
-        <f t="shared" si="4"/>
-        <v>2102.6999999999998</v>
-      </c>
-      <c r="Y19" s="201">
-        <f t="shared" si="4"/>
-        <v>2176.0499999999997</v>
-      </c>
-      <c r="Z19" s="201">
-        <f t="shared" si="4"/>
-        <v>2249.3999999999996</v>
-      </c>
-      <c r="AA19" s="201">
-        <f t="shared" si="4"/>
-        <v>2322.75</v>
-      </c>
-      <c r="AB19" s="201">
-        <f t="shared" si="4"/>
-        <v>2396.1</v>
-      </c>
-      <c r="AC19" s="201">
-        <f t="shared" si="4"/>
-        <v>2469.4499999999998</v>
-      </c>
-      <c r="AD19" s="201">
-        <f t="shared" si="4"/>
-        <v>2542.7999999999997</v>
-      </c>
-      <c r="AE19" s="201"/>
-      <c r="AF19" s="201"/>
-      <c r="AG19" s="201"/>
-      <c r="AH19" s="201"/>
-      <c r="AI19" s="201"/>
-    </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A20" s="200" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="201">
-        <f t="shared" ref="B20:AD20" si="5">B16*$P$5</f>
-        <v>412.24999999999994</v>
-      </c>
-      <c r="C20" s="201">
-        <f t="shared" si="5"/>
-        <v>474.08749999999998</v>
-      </c>
-      <c r="D20" s="201">
-        <f t="shared" si="5"/>
-        <v>535.92499999999995</v>
-      </c>
-      <c r="E20" s="201">
-        <f t="shared" si="5"/>
-        <v>597.76249999999993</v>
-      </c>
-      <c r="F20" s="201">
-        <f t="shared" si="5"/>
-        <v>659.59999999999991</v>
-      </c>
-      <c r="G20" s="201">
-        <f t="shared" si="5"/>
-        <v>721.43749999999989</v>
-      </c>
-      <c r="H20" s="201">
-        <f t="shared" si="5"/>
-        <v>783.27499999999998</v>
-      </c>
-      <c r="I20" s="201">
-        <f t="shared" si="5"/>
-        <v>845.11249999999995</v>
-      </c>
-      <c r="J20" s="201">
-        <f t="shared" si="5"/>
-        <v>906.94999999999993</v>
-      </c>
-      <c r="K20" s="201">
-        <f t="shared" si="5"/>
-        <v>968.78749999999991</v>
-      </c>
-      <c r="L20" s="201">
-        <f t="shared" si="5"/>
-        <v>1030.625</v>
-      </c>
-      <c r="M20" s="201">
-        <f t="shared" si="5"/>
-        <v>1092.4624999999999</v>
-      </c>
-      <c r="N20" s="201">
-        <f t="shared" si="5"/>
-        <v>1154.3</v>
-      </c>
-      <c r="O20" s="201">
-        <f t="shared" si="5"/>
-        <v>1216.1374999999998</v>
-      </c>
-      <c r="P20" s="201">
-        <f t="shared" si="5"/>
-        <v>1277.9749999999999</v>
-      </c>
-      <c r="Q20" s="201">
-        <f t="shared" si="5"/>
-        <v>1339.8124999999998</v>
-      </c>
-      <c r="R20" s="201">
-        <f t="shared" si="5"/>
-        <v>1401.6499999999999</v>
-      </c>
-      <c r="S20" s="201">
-        <f t="shared" si="5"/>
-        <v>1463.4875</v>
-      </c>
-      <c r="T20" s="201">
-        <f t="shared" si="5"/>
-        <v>1525.3249999999998</v>
-      </c>
-      <c r="U20" s="201">
-        <f t="shared" si="5"/>
-        <v>1587.1624999999999</v>
-      </c>
-      <c r="V20" s="201">
-        <f t="shared" si="5"/>
-        <v>1648.9999999999998</v>
-      </c>
-      <c r="W20" s="201">
-        <f t="shared" si="5"/>
-        <v>1710.8374999999999</v>
-      </c>
-      <c r="X20" s="201">
-        <f t="shared" si="5"/>
-        <v>1772.6749999999997</v>
-      </c>
-      <c r="Y20" s="201">
-        <f t="shared" si="5"/>
-        <v>1834.5124999999998</v>
-      </c>
-      <c r="Z20" s="201">
-        <f t="shared" si="5"/>
-        <v>1896.35</v>
-      </c>
-      <c r="AA20" s="201">
-        <f t="shared" si="5"/>
-        <v>1958.1874999999998</v>
-      </c>
-      <c r="AB20" s="201">
-        <f t="shared" si="5"/>
-        <v>2020.0249999999999</v>
-      </c>
-      <c r="AC20" s="201">
-        <f t="shared" si="5"/>
-        <v>2081.8624999999997</v>
-      </c>
-      <c r="AD20" s="201">
-        <f t="shared" si="5"/>
-        <v>2143.6999999999998</v>
-      </c>
-      <c r="AE20" s="201"/>
-      <c r="AF20" s="201"/>
-      <c r="AG20" s="201"/>
-      <c r="AH20" s="201"/>
-      <c r="AI20" s="201"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="200" t="s">
-        <v>234</v>
-      </c>
-      <c r="B21" s="201">
-        <f t="shared" ref="B21:AD21" si="6">B16*$Q$5</f>
-        <v>51</v>
-      </c>
-      <c r="C21" s="201">
-        <f t="shared" si="6"/>
-        <v>58.65</v>
-      </c>
-      <c r="D21" s="201">
-        <f t="shared" si="6"/>
-        <v>66.3</v>
-      </c>
-      <c r="E21" s="201">
-        <f t="shared" si="6"/>
-        <v>73.95</v>
-      </c>
-      <c r="F21" s="201">
-        <f t="shared" si="6"/>
-        <v>81.599999999999994</v>
-      </c>
-      <c r="G21" s="201">
-        <f t="shared" si="6"/>
-        <v>89.25</v>
-      </c>
-      <c r="H21" s="201">
-        <f t="shared" si="6"/>
-        <v>96.9</v>
-      </c>
-      <c r="I21" s="201">
-        <f t="shared" si="6"/>
-        <v>104.55</v>
-      </c>
-      <c r="J21" s="201">
-        <f t="shared" si="6"/>
-        <v>112.2</v>
-      </c>
-      <c r="K21" s="201">
-        <f t="shared" si="6"/>
-        <v>119.85000000000001</v>
-      </c>
-      <c r="L21" s="201">
-        <f t="shared" si="6"/>
-        <v>127.5</v>
-      </c>
-      <c r="M21" s="201">
-        <f t="shared" si="6"/>
-        <v>135.15</v>
-      </c>
-      <c r="N21" s="201">
-        <f t="shared" si="6"/>
-        <v>142.80000000000001</v>
-      </c>
-      <c r="O21" s="201">
-        <f t="shared" si="6"/>
-        <v>150.44999999999999</v>
-      </c>
-      <c r="P21" s="201">
-        <f t="shared" si="6"/>
-        <v>158.1</v>
-      </c>
-      <c r="Q21" s="201">
-        <f t="shared" si="6"/>
-        <v>165.75</v>
-      </c>
-      <c r="R21" s="201">
-        <f t="shared" si="6"/>
-        <v>173.4</v>
-      </c>
-      <c r="S21" s="201">
-        <f t="shared" si="6"/>
-        <v>181.05</v>
-      </c>
-      <c r="T21" s="201">
-        <f t="shared" si="6"/>
-        <v>188.70000000000002</v>
-      </c>
-      <c r="U21" s="201">
-        <f t="shared" si="6"/>
-        <v>196.35</v>
-      </c>
-      <c r="V21" s="201">
-        <f t="shared" si="6"/>
-        <v>204</v>
-      </c>
-      <c r="W21" s="201">
-        <f t="shared" si="6"/>
-        <v>211.65</v>
-      </c>
-      <c r="X21" s="201">
-        <f t="shared" si="6"/>
-        <v>219.3</v>
-      </c>
-      <c r="Y21" s="201">
-        <f t="shared" si="6"/>
-        <v>226.95000000000002</v>
-      </c>
-      <c r="Z21" s="201">
-        <f t="shared" si="6"/>
-        <v>234.6</v>
-      </c>
-      <c r="AA21" s="201">
-        <f t="shared" si="6"/>
-        <v>242.25</v>
-      </c>
-      <c r="AB21" s="201">
-        <f t="shared" si="6"/>
-        <v>249.9</v>
-      </c>
-      <c r="AC21" s="201">
-        <f t="shared" si="6"/>
-        <v>257.55</v>
-      </c>
-      <c r="AD21" s="201">
-        <f t="shared" si="6"/>
-        <v>265.2</v>
-      </c>
-      <c r="AE21" s="201"/>
-      <c r="AF21" s="201"/>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="201"/>
-      <c r="AI21" s="201"/>
-    </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A22" s="200" t="s">
-        <v>235</v>
-      </c>
-      <c r="B22" s="201">
-        <f t="shared" ref="B22:AD22" si="7">MIN(B$18,$C$4)</f>
-        <v>1274</v>
-      </c>
-      <c r="C22" s="201">
-        <f t="shared" si="7"/>
-        <v>1465.1000000000001</v>
-      </c>
-      <c r="D22" s="201">
-        <f t="shared" si="7"/>
-        <v>1656.2</v>
-      </c>
-      <c r="E22" s="201">
-        <f t="shared" si="7"/>
-        <v>1847.3</v>
-      </c>
-      <c r="F22" s="201">
-        <f t="shared" si="7"/>
-        <v>2038.4</v>
-      </c>
-      <c r="G22" s="201">
-        <f t="shared" si="7"/>
-        <v>2229.5</v>
-      </c>
-      <c r="H22" s="201">
-        <f t="shared" si="7"/>
-        <v>2420.6</v>
-      </c>
-      <c r="I22" s="201">
-        <f t="shared" si="7"/>
-        <v>2611.6999999999998</v>
-      </c>
-      <c r="J22" s="201">
-        <f t="shared" si="7"/>
-        <v>2802.8</v>
-      </c>
-      <c r="K22" s="201">
-        <f t="shared" si="7"/>
-        <v>2993.9</v>
-      </c>
-      <c r="L22" s="201">
-        <f t="shared" si="7"/>
-        <v>3185</v>
-      </c>
-      <c r="M22" s="201">
-        <f t="shared" si="7"/>
-        <v>3376.1</v>
-      </c>
-      <c r="N22" s="201">
-        <f t="shared" si="7"/>
-        <v>3567.2000000000003</v>
-      </c>
-      <c r="O22" s="201">
-        <f t="shared" si="7"/>
-        <v>3758.3</v>
-      </c>
-      <c r="P22" s="201">
-        <f t="shared" si="7"/>
-        <v>3949.4</v>
-      </c>
-      <c r="Q22" s="201">
-        <f t="shared" si="7"/>
-        <v>4140.5</v>
-      </c>
-      <c r="R22" s="201">
-        <f t="shared" si="7"/>
-        <v>4331.6000000000004</v>
-      </c>
-      <c r="S22" s="201">
-        <f t="shared" si="7"/>
-        <v>4522.7</v>
-      </c>
-      <c r="T22" s="201">
-        <f t="shared" si="7"/>
-        <v>4713.8</v>
-      </c>
-      <c r="U22" s="201">
-        <f t="shared" si="7"/>
-        <v>4904.8999999999996</v>
-      </c>
-      <c r="V22" s="201">
-        <f t="shared" si="7"/>
-        <v>5096</v>
-      </c>
-      <c r="W22" s="201">
-        <f t="shared" si="7"/>
-        <v>5287.1</v>
-      </c>
-      <c r="X22" s="201">
-        <f t="shared" si="7"/>
-        <v>5478.2</v>
-      </c>
-      <c r="Y22" s="201">
-        <f t="shared" si="7"/>
-        <v>5669.3</v>
-      </c>
-      <c r="Z22" s="201">
-        <f t="shared" si="7"/>
-        <v>5860.4000000000005</v>
-      </c>
-      <c r="AA22" s="201">
-        <f t="shared" si="7"/>
-        <v>6051.5</v>
-      </c>
-      <c r="AB22" s="201">
-        <f t="shared" si="7"/>
-        <v>6242.6</v>
-      </c>
-      <c r="AC22" s="201">
-        <f t="shared" si="7"/>
-        <v>6433.7</v>
-      </c>
-      <c r="AD22" s="201">
-        <f t="shared" si="7"/>
-        <v>6624.8</v>
-      </c>
-      <c r="AE22" s="201"/>
-      <c r="AF22" s="201"/>
-      <c r="AG22" s="201"/>
-      <c r="AH22" s="201"/>
-      <c r="AI22" s="201"/>
-    </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A23" s="200" t="s">
-        <v>236</v>
-      </c>
-      <c r="B23" s="201">
-        <f t="shared" ref="B23:AD23" si="8">MIN(B$19,$C$5)</f>
-        <v>488.99999999999994</v>
-      </c>
-      <c r="C23" s="201">
-        <f t="shared" si="8"/>
-        <v>562.34999999999991</v>
-      </c>
-      <c r="D23" s="201">
-        <f t="shared" si="8"/>
-        <v>635.69999999999993</v>
-      </c>
-      <c r="E23" s="201">
-        <f t="shared" si="8"/>
-        <v>709.05</v>
-      </c>
-      <c r="F23" s="201">
-        <f t="shared" si="8"/>
-        <v>782.4</v>
-      </c>
-      <c r="G23" s="201">
-        <f t="shared" si="8"/>
-        <v>855.75</v>
-      </c>
-      <c r="H23" s="201">
-        <f t="shared" si="8"/>
-        <v>929.09999999999991</v>
-      </c>
-      <c r="I23" s="201">
-        <f t="shared" si="8"/>
-        <v>1002.4499999999999</v>
-      </c>
-      <c r="J23" s="201">
-        <f t="shared" si="8"/>
-        <v>1075.8</v>
-      </c>
-      <c r="K23" s="201">
-        <f t="shared" si="8"/>
-        <v>1149.1499999999999</v>
-      </c>
-      <c r="L23" s="201">
-        <f t="shared" si="8"/>
-        <v>1222.5</v>
-      </c>
-      <c r="M23" s="201">
-        <f t="shared" si="8"/>
-        <v>1295.8499999999999</v>
-      </c>
-      <c r="N23" s="201">
-        <f t="shared" si="8"/>
-        <v>1369.1999999999998</v>
-      </c>
-      <c r="O23" s="201">
-        <f t="shared" si="8"/>
-        <v>1442.55</v>
-      </c>
-      <c r="P23" s="201">
-        <f t="shared" si="8"/>
-        <v>1515.8999999999999</v>
-      </c>
-      <c r="Q23" s="201">
-        <f t="shared" si="8"/>
-        <v>1589.25</v>
-      </c>
-      <c r="R23" s="201">
-        <f t="shared" si="8"/>
-        <v>1662.6</v>
-      </c>
-      <c r="S23" s="201">
-        <f t="shared" si="8"/>
-        <v>1735.9499999999998</v>
-      </c>
-      <c r="T23" s="201">
-        <f t="shared" si="8"/>
-        <v>1809.3</v>
-      </c>
-      <c r="U23" s="201">
-        <f t="shared" si="8"/>
-        <v>1882.6499999999999</v>
-      </c>
-      <c r="V23" s="201">
-        <f t="shared" si="8"/>
-        <v>1955.9999999999998</v>
-      </c>
-      <c r="W23" s="201">
-        <f t="shared" si="8"/>
-        <v>2029.35</v>
-      </c>
-      <c r="X23" s="201">
-        <f t="shared" si="8"/>
-        <v>2102.6999999999998</v>
-      </c>
-      <c r="Y23" s="201">
-        <f t="shared" si="8"/>
-        <v>2176.0499999999997</v>
-      </c>
-      <c r="Z23" s="201">
-        <f t="shared" si="8"/>
-        <v>2249.3999999999996</v>
-      </c>
-      <c r="AA23" s="201">
-        <f t="shared" si="8"/>
-        <v>2322.75</v>
-      </c>
-      <c r="AB23" s="201">
-        <f t="shared" si="8"/>
-        <v>2396.1</v>
-      </c>
-      <c r="AC23" s="201">
-        <f t="shared" si="8"/>
-        <v>2469.4499999999998</v>
-      </c>
-      <c r="AD23" s="201">
-        <f t="shared" si="8"/>
-        <v>2542.7999999999997</v>
-      </c>
-      <c r="AE23" s="201"/>
-      <c r="AF23" s="201"/>
-      <c r="AG23" s="201"/>
-      <c r="AH23" s="201"/>
-      <c r="AI23" s="201"/>
-    </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A24" s="200" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="201">
-        <f t="shared" ref="B24:AD24" si="9">MIN(B$20,$C$6)</f>
-        <v>412.24999999999994</v>
-      </c>
-      <c r="C24" s="201">
-        <f t="shared" si="9"/>
-        <v>474.08749999999998</v>
-      </c>
-      <c r="D24" s="201">
-        <f t="shared" si="9"/>
-        <v>535.92499999999995</v>
-      </c>
-      <c r="E24" s="201">
-        <f t="shared" si="9"/>
-        <v>597.76249999999993</v>
-      </c>
-      <c r="F24" s="201">
-        <f t="shared" si="9"/>
-        <v>659.59999999999991</v>
-      </c>
-      <c r="G24" s="201">
-        <f t="shared" si="9"/>
-        <v>721.43749999999989</v>
-      </c>
-      <c r="H24" s="201">
-        <f t="shared" si="9"/>
-        <v>783.27499999999998</v>
-      </c>
-      <c r="I24" s="201">
-        <f t="shared" si="9"/>
-        <v>845.11249999999995</v>
-      </c>
-      <c r="J24" s="201">
-        <f t="shared" si="9"/>
-        <v>906.94999999999993</v>
-      </c>
-      <c r="K24" s="201">
-        <f t="shared" si="9"/>
-        <v>968.78749999999991</v>
-      </c>
-      <c r="L24" s="201">
-        <f t="shared" si="9"/>
-        <v>1030.625</v>
-      </c>
-      <c r="M24" s="201">
-        <f t="shared" si="9"/>
-        <v>1092.4624999999999</v>
-      </c>
-      <c r="N24" s="201">
-        <f t="shared" si="9"/>
-        <v>1154.3</v>
-      </c>
-      <c r="O24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="P24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="Q24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="R24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="S24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="T24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="U24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="V24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="W24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="X24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="Y24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="Z24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="AA24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="AB24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="AC24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="AD24" s="201">
-        <f t="shared" si="9"/>
-        <v>1200</v>
-      </c>
-      <c r="AE24" s="201"/>
-      <c r="AF24" s="201"/>
-      <c r="AG24" s="201"/>
-      <c r="AH24" s="201"/>
-      <c r="AI24" s="201"/>
-    </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A25" s="200" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="201">
-        <f t="shared" ref="B25:AD25" si="10">MIN(B$21,$C$7)</f>
-        <v>51</v>
-      </c>
-      <c r="C25" s="201">
-        <f t="shared" si="10"/>
-        <v>58.65</v>
-      </c>
-      <c r="D25" s="201">
-        <f t="shared" si="10"/>
-        <v>66.3</v>
-      </c>
-      <c r="E25" s="201">
-        <f t="shared" si="10"/>
-        <v>73.95</v>
-      </c>
-      <c r="F25" s="201">
-        <f t="shared" si="10"/>
-        <v>81.599999999999994</v>
-      </c>
-      <c r="G25" s="201">
-        <f t="shared" si="10"/>
-        <v>89.25</v>
-      </c>
-      <c r="H25" s="201">
-        <f t="shared" si="10"/>
-        <v>96.9</v>
-      </c>
-      <c r="I25" s="201">
-        <f t="shared" si="10"/>
-        <v>104.55</v>
-      </c>
-      <c r="J25" s="201">
-        <f t="shared" si="10"/>
-        <v>112.2</v>
-      </c>
-      <c r="K25" s="201">
-        <f t="shared" si="10"/>
-        <v>119.85000000000001</v>
-      </c>
-      <c r="L25" s="201">
-        <f t="shared" si="10"/>
-        <v>127.5</v>
-      </c>
-      <c r="M25" s="201">
-        <f t="shared" si="10"/>
-        <v>135.15</v>
-      </c>
-      <c r="N25" s="201">
-        <f t="shared" si="10"/>
-        <v>142.80000000000001</v>
-      </c>
-      <c r="O25" s="201">
-        <f t="shared" si="10"/>
-        <v>150.44999999999999</v>
-      </c>
-      <c r="P25" s="201">
-        <f t="shared" si="10"/>
-        <v>158.1</v>
-      </c>
-      <c r="Q25" s="201">
-        <f t="shared" si="10"/>
-        <v>165.75</v>
-      </c>
-      <c r="R25" s="201">
-        <f t="shared" si="10"/>
-        <v>173.4</v>
-      </c>
-      <c r="S25" s="201">
-        <f t="shared" si="10"/>
-        <v>181.05</v>
-      </c>
-      <c r="T25" s="201">
-        <f t="shared" si="10"/>
-        <v>188.70000000000002</v>
-      </c>
-      <c r="U25" s="201">
-        <f t="shared" si="10"/>
-        <v>196.35</v>
-      </c>
-      <c r="V25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="W25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="X25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="Y25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="Z25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AA25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AB25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AC25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AD25" s="201">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="AE25" s="201"/>
-      <c r="AF25" s="201"/>
-      <c r="AG25" s="201"/>
-      <c r="AH25" s="201"/>
-      <c r="AI25" s="201"/>
-    </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A26" s="202" t="s">
-        <v>239</v>
-      </c>
-      <c r="B26" s="203">
-        <f>IF(B22&gt;$B$4,(B22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="203">
-        <v>0</v>
-      </c>
-      <c r="D26" s="203">
-        <f>IF(D22&gt;$B$4,(D22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="203">
-        <v>0</v>
-      </c>
-      <c r="F26" s="203">
-        <f>IF(F22&gt;$B$4,(F22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="203">
-        <v>0</v>
-      </c>
-      <c r="H26" s="203">
-        <f>IF(H22&gt;$B$4,(H22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="203">
-        <v>0</v>
-      </c>
-      <c r="J26" s="203">
-        <f>IF(J22&gt;$B$4,(J22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="203">
-        <v>0</v>
-      </c>
-      <c r="L26" s="203">
-        <f>IF(L22&gt;$B$4,(L22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="203">
-        <v>0</v>
-      </c>
-      <c r="N26" s="203">
-        <f>IF(N22&gt;$B$4,(N22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="203">
-        <v>0</v>
-      </c>
-      <c r="P26" s="203">
-        <f>IF(P22&gt;$B$4,(P22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="203">
-        <v>0</v>
-      </c>
-      <c r="R26" s="203">
-        <f>IF(R22&gt;$B$4,(R22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="203">
-        <v>0</v>
-      </c>
-      <c r="T26" s="203">
-        <f>IF(T22&gt;$B$4,(T22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="203">
-        <v>0</v>
-      </c>
-      <c r="V26" s="203">
-        <f>IF(V22&gt;$B$4,(V22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="203">
-        <v>0</v>
-      </c>
-      <c r="X26" s="203">
-        <f>IF(X22&gt;$B$4,(X22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="203">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="203">
-        <f>IF(Z22&gt;$B$4,(Z22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="203">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="203">
-        <f>IF(AB22&gt;$B$4,(AB22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="203">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="203">
-        <f>IF(AD22&gt;$B$4,(AD22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="203">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="203">
-        <f>IF(AF22&gt;$B$4,(AF22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="203">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="203">
-        <f>IF(AH22&gt;$B$4,(AH22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="203">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="203">
-        <f>IF(AJ22&gt;$B$4,(AJ22-$B$4)*$H$4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK26" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A27" s="202" t="s">
-        <v>240</v>
-      </c>
-      <c r="B27" s="203">
-        <f>IF(B23&gt;$B$5,(B23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="203">
-        <v>0</v>
-      </c>
-      <c r="D27" s="203">
-        <f>IF(D23&gt;$B$5,(D23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="203">
-        <v>0</v>
-      </c>
-      <c r="F27" s="203">
-        <f>IF(F23&gt;$B$5,(F23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="203">
-        <v>0</v>
-      </c>
-      <c r="H27" s="203">
-        <f>IF(H23&gt;$B$5,(H23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="203">
-        <v>0</v>
-      </c>
-      <c r="J27" s="203">
-        <f>IF(J23&gt;$B$5,(J23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="203">
-        <v>0</v>
-      </c>
-      <c r="L27" s="203">
-        <f>IF(L23&gt;$B$5,(L23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="203">
-        <v>0</v>
-      </c>
-      <c r="N27" s="203">
-        <f>IF(N23&gt;$B$5,(N23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="203">
-        <v>0</v>
-      </c>
-      <c r="P27" s="203">
-        <f>IF(P23&gt;$B$5,(P23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="203">
-        <v>0</v>
-      </c>
-      <c r="R27" s="203">
-        <f>IF(R23&gt;$B$5,(R23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="203">
-        <v>0</v>
-      </c>
-      <c r="T27" s="203">
-        <f>IF(T23&gt;$B$5,(T23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="203">
-        <v>0</v>
-      </c>
-      <c r="V27" s="203">
-        <f>IF(V23&gt;$B$5,(V23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W27" s="203">
-        <v>0</v>
-      </c>
-      <c r="X27" s="203">
-        <f>IF(X23&gt;$B$5,(X23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="203">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="203">
-        <f>IF(Z23&gt;$B$5,(Z23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="203">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="203">
-        <f>IF(AB23&gt;$B$5,(AB23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="203">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="203">
-        <f>IF(AD23&gt;$B$5,(AD23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="203">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="203">
-        <f>IF(AF23&gt;$B$5,(AF23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="203">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="203">
-        <f>IF(AH23&gt;$B$5,(AH23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="203">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="203">
-        <f>IF(AJ23&gt;$B$5,(AJ23-$B$5)*$H$5,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK27" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A28" s="202" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="203">
-        <f>IF(B24&gt;$B$6,(B24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="203">
-        <v>0</v>
-      </c>
-      <c r="D28" s="203">
-        <f>IF(D24&gt;$B$6,(D24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="203">
-        <v>0</v>
-      </c>
-      <c r="F28" s="203">
-        <f>IF(F24&gt;$B$6,(F24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="203">
-        <v>0</v>
-      </c>
-      <c r="H28" s="203">
-        <f>IF(H24&gt;$B$6,(H24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="203">
-        <v>0</v>
-      </c>
-      <c r="J28" s="203">
-        <f>IF(J24&gt;$B$6,(J24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="203">
-        <v>0</v>
-      </c>
-      <c r="L28" s="203">
-        <f>IF(L24&gt;$B$6,(L24-$B$6)*$H$6,0)</f>
-        <v>581.875</v>
-      </c>
-      <c r="M28" s="203">
-        <v>0</v>
-      </c>
-      <c r="N28" s="203">
-        <f>IF(N24&gt;$B$6,(N24-$B$6)*$H$6,0)</f>
-        <v>2931.6999999999989</v>
-      </c>
-      <c r="O28" s="203">
-        <v>0</v>
-      </c>
-      <c r="P28" s="203">
-        <f>IF(P24&gt;$B$6,(P24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="Q28" s="203">
-        <v>0</v>
-      </c>
-      <c r="R28" s="203">
-        <f>IF(R24&gt;$B$6,(R24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="S28" s="203">
-        <v>0</v>
-      </c>
-      <c r="T28" s="203">
-        <f>IF(T24&gt;$B$6,(T24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="U28" s="203">
-        <v>0</v>
-      </c>
-      <c r="V28" s="203">
-        <f>IF(V24&gt;$B$6,(V24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="W28" s="203">
-        <v>0</v>
-      </c>
-      <c r="X28" s="203">
-        <f>IF(X24&gt;$B$6,(X24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="Y28" s="203">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="203">
-        <f>IF(Z24&gt;$B$6,(Z24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="AA28" s="203">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="203">
-        <f>IF(AB24&gt;$B$6,(AB24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="AC28" s="203">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="203">
-        <f>IF(AD24&gt;$B$6,(AD24-$B$6)*$H$6,0)</f>
-        <v>3800</v>
-      </c>
-      <c r="AE28" s="203">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="203">
-        <f>IF(AF24&gt;$B$6,(AF24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="203">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="203">
-        <f>IF(AH24&gt;$B$6,(AH24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="203">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="203">
-        <f>IF(AJ24&gt;$B$6,(AJ24-$B$6)*$H$6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK28" s="203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A29" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="B29" s="203">
-        <f>IF(B25&gt;$B$7,(B25-$B$7)*$H$7,0)</f>
-        <v>1785</v>
-      </c>
-      <c r="C29" s="203">
-        <v>0</v>
-      </c>
-      <c r="D29" s="203">
-        <f>IF(D25&gt;$B$7,(D25-$B$7)*$H$7,0)</f>
-        <v>2320.5</v>
-      </c>
-      <c r="E29" s="203">
-        <v>0</v>
-      </c>
-      <c r="F29" s="203">
-        <f>IF(F25&gt;$B$7,(F25-$B$7)*$H$7,0)</f>
-        <v>2856</v>
-      </c>
-      <c r="G29" s="203">
-        <v>0</v>
-      </c>
-      <c r="H29" s="203">
-        <f>IF(H25&gt;$B$7,(H25-$B$7)*$H$7,0)</f>
-        <v>3391.5</v>
-      </c>
-      <c r="I29" s="203">
-        <v>0</v>
-      </c>
-      <c r="J29" s="203">
-        <f>IF(J25&gt;$B$7,(J25-$B$7)*$H$7,0)</f>
-        <v>3927</v>
-      </c>
-      <c r="K29" s="203">
-        <v>0</v>
-      </c>
-      <c r="L29" s="203">
-        <f>IF(L25&gt;$B$7,(L25-$B$7)*$H$7,0)</f>
-        <v>4462.5</v>
-      </c>
-      <c r="M29" s="203">
-        <v>0</v>
-      </c>
-      <c r="N29" s="203">
-        <f>IF(N25&gt;$B$7,(N25-$B$7)*$H$7,0)</f>
-        <v>4998</v>
-      </c>
-      <c r="O29" s="203">
-        <v>0</v>
-      </c>
-      <c r="P29" s="203">
-        <f>IF(P25&gt;$B$7,(P25-$B$7)*$H$7,0)</f>
-        <v>5533.5</v>
-      </c>
-      <c r="Q29" s="203">
-        <v>0</v>
-      </c>
-      <c r="R29" s="203">
-        <f>IF(R25&gt;$B$7,(R25-$B$7)*$H$7,0)</f>
-        <v>6069</v>
-      </c>
-      <c r="S29" s="203">
-        <v>0</v>
-      </c>
-      <c r="T29" s="203">
-        <f>IF(T25&gt;$B$7,(T25-$B$7)*$H$7,0)</f>
-        <v>6604.5000000000009</v>
-      </c>
-      <c r="U29" s="203">
-        <v>0</v>
-      </c>
-      <c r="V29" s="203">
-        <f>IF(V25&gt;$B$7,(V25-$B$7)*$H$7,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="W29" s="203">
-        <v>0</v>
-      </c>
-      <c r="X29" s="203">
-        <f>IF(X25&gt;$B$7,(X25-$B$7)*$H$7,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="Y29" s="203">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="203">
-        <f>IF(Z25&gt;$B$7,(Z25-$B$7)*$H$7,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="AA29" s="203">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="203">
-        <f>IF(AB25&gt;$B$7,(AB25-$B$7)*$H$7,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="AC29" s="203">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="203">
-        <f>IF(AD25&gt;$B$7,(AD25-$B$7)*$H$7,0)</f>
-        <v>7000</v>
-      </c>
-      <c r="AE29" s="203">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="203">
-        <f>IF(AF25&gt;$B$7,(AF25-$B$7)*$H$7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="203">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="203">
-        <f>IF(AH25&gt;$B$7,(AH25-$B$7)*$H$7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="203">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="203">
-        <f>IF(AJ25&gt;$B$7,(AJ25-$B$7)*$H$7,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AK29" s="203">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="204"/>
-      <c r="AM29" s="204"/>
-      <c r="AN29" s="204"/>
-      <c r="AO29" s="204"/>
-      <c r="AP29" s="204"/>
-      <c r="AQ29" s="204"/>
-      <c r="AR29" s="204"/>
-      <c r="AS29" s="204"/>
-      <c r="AT29" s="204"/>
-      <c r="AU29" s="204"/>
-      <c r="AV29" s="204"/>
-    </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A30" s="205" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="206">
-        <f>G4+G5+G6+G7</f>
-        <v>700</v>
-      </c>
-      <c r="C30" s="206">
-        <f t="shared" ref="C30:AD30" si="11">B30</f>
-        <v>700</v>
-      </c>
-      <c r="D30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="E30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="F30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="G30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="H30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="I30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="J30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="K30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="L30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="M30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="N30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="O30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="P30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="Q30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="R30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="S30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="T30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="U30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="V30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="W30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="X30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="Y30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="Z30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="AA30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="AB30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="AC30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="AD30" s="206">
-        <f t="shared" si="11"/>
-        <v>700</v>
-      </c>
-      <c r="AE30" s="206"/>
-      <c r="AF30" s="206"/>
-      <c r="AG30" s="206"/>
-      <c r="AH30" s="206"/>
-      <c r="AI30" s="206"/>
-      <c r="AJ30" s="204"/>
-      <c r="AK30" s="204"/>
-      <c r="AL30" s="204"/>
-      <c r="AM30" s="204"/>
-      <c r="AN30" s="204"/>
-      <c r="AO30" s="204"/>
-      <c r="AP30" s="204"/>
-      <c r="AQ30" s="204"/>
-      <c r="AR30" s="204"/>
-      <c r="AS30" s="204"/>
-      <c r="AT30" s="204"/>
-      <c r="AU30" s="204"/>
-      <c r="AV30" s="204"/>
-    </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A31" s="207" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="208">
-        <f t="shared" ref="B31:AD31" si="12">B26+B27+B28+B29-B30</f>
-        <v>1085</v>
-      </c>
-      <c r="C31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="D31" s="208">
-        <f t="shared" si="12"/>
-        <v>1620.5</v>
-      </c>
-      <c r="E31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="F31" s="208">
-        <f t="shared" si="12"/>
-        <v>2156</v>
-      </c>
-      <c r="G31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="H31" s="208">
-        <f t="shared" si="12"/>
-        <v>2691.5</v>
-      </c>
-      <c r="I31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="J31" s="208">
-        <f t="shared" si="12"/>
-        <v>3227</v>
-      </c>
-      <c r="K31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="L31" s="208">
-        <f t="shared" si="12"/>
-        <v>4344.375</v>
-      </c>
-      <c r="M31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="N31" s="208">
-        <f t="shared" si="12"/>
-        <v>7229.6999999999989</v>
-      </c>
-      <c r="O31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="P31" s="208">
-        <f t="shared" si="12"/>
-        <v>8633.5</v>
-      </c>
-      <c r="Q31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="R31" s="208">
-        <f t="shared" si="12"/>
-        <v>9169</v>
-      </c>
-      <c r="S31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="T31" s="208">
-        <f t="shared" si="12"/>
-        <v>9704.5</v>
-      </c>
-      <c r="U31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="V31" s="208">
-        <f t="shared" si="12"/>
-        <v>10100</v>
-      </c>
-      <c r="W31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="X31" s="208">
-        <f t="shared" si="12"/>
-        <v>10100</v>
-      </c>
-      <c r="Y31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="Z31" s="208">
-        <f t="shared" si="12"/>
-        <v>10100</v>
-      </c>
-      <c r="AA31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="AB31" s="208">
-        <f t="shared" si="12"/>
-        <v>10100</v>
-      </c>
-      <c r="AC31" s="208">
-        <f t="shared" si="12"/>
-        <v>-700</v>
-      </c>
-      <c r="AD31" s="208">
-        <f t="shared" si="12"/>
-        <v>10100</v>
-      </c>
-      <c r="AE31" s="208"/>
-      <c r="AF31" s="208"/>
-      <c r="AG31" s="208"/>
-      <c r="AH31" s="208"/>
-      <c r="AI31" s="208"/>
-      <c r="AJ31" s="209"/>
-      <c r="AK31" s="209"/>
-      <c r="AL31" s="209"/>
-      <c r="AM31" s="209"/>
-      <c r="AN31" s="209"/>
-      <c r="AO31" s="209"/>
-      <c r="AP31" s="209"/>
-      <c r="AQ31" s="209"/>
-      <c r="AR31" s="209"/>
-      <c r="AS31" s="209"/>
-      <c r="AT31" s="209"/>
-      <c r="AU31" s="209"/>
-      <c r="AV31" s="209"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A32" s="210" t="s">
-        <v>245</v>
-      </c>
-      <c r="B32" s="208">
-        <f>-B12-B11+B31</f>
-        <v>-86915</v>
-      </c>
-      <c r="C32" s="208">
-        <f t="shared" ref="C32:AD32" si="13">B32+C31</f>
-        <v>-87615</v>
-      </c>
-      <c r="D32" s="208">
-        <f t="shared" si="13"/>
-        <v>-85994.5</v>
-      </c>
-      <c r="E32" s="208">
-        <f t="shared" si="13"/>
-        <v>-86694.5</v>
-      </c>
-      <c r="F32" s="208">
-        <f t="shared" si="13"/>
-        <v>-84538.5</v>
-      </c>
-      <c r="G32" s="208">
-        <f t="shared" si="13"/>
-        <v>-85238.5</v>
-      </c>
-      <c r="H32" s="208">
-        <f t="shared" si="13"/>
-        <v>-82547</v>
-      </c>
-      <c r="I32" s="208">
-        <f t="shared" si="13"/>
-        <v>-83247</v>
-      </c>
-      <c r="J32" s="208">
-        <f t="shared" si="13"/>
-        <v>-80020</v>
-      </c>
-      <c r="K32" s="208">
-        <f t="shared" si="13"/>
-        <v>-80720</v>
-      </c>
-      <c r="L32" s="208">
-        <f t="shared" si="13"/>
-        <v>-76375.625</v>
-      </c>
-      <c r="M32" s="208">
-        <f t="shared" si="13"/>
-        <v>-77075.625</v>
-      </c>
-      <c r="N32" s="208">
-        <f t="shared" si="13"/>
-        <v>-69845.925000000003</v>
-      </c>
-      <c r="O32" s="208">
-        <f t="shared" si="13"/>
-        <v>-70545.925000000003</v>
-      </c>
-      <c r="P32" s="208">
-        <f t="shared" si="13"/>
-        <v>-61912.425000000003</v>
-      </c>
-      <c r="Q32" s="208">
-        <f t="shared" si="13"/>
-        <v>-62612.425000000003</v>
-      </c>
-      <c r="R32" s="208">
-        <f t="shared" si="13"/>
-        <v>-53443.425000000003</v>
-      </c>
-      <c r="S32" s="208">
-        <f t="shared" si="13"/>
-        <v>-54143.425000000003</v>
-      </c>
-      <c r="T32" s="208">
-        <f t="shared" si="13"/>
-        <v>-44438.925000000003</v>
-      </c>
-      <c r="U32" s="208">
-        <f t="shared" si="13"/>
-        <v>-45138.925000000003</v>
-      </c>
-      <c r="V32" s="208">
-        <f t="shared" si="13"/>
-        <v>-35038.925000000003</v>
-      </c>
-      <c r="W32" s="208">
-        <f t="shared" si="13"/>
-        <v>-35738.925000000003</v>
-      </c>
-      <c r="X32" s="208">
-        <f t="shared" si="13"/>
-        <v>-25638.925000000003</v>
-      </c>
-      <c r="Y32" s="208">
-        <f t="shared" si="13"/>
-        <v>-26338.925000000003</v>
-      </c>
-      <c r="Z32" s="208">
-        <f t="shared" si="13"/>
-        <v>-16238.925000000003</v>
-      </c>
-      <c r="AA32" s="208">
-        <f t="shared" si="13"/>
-        <v>-16938.925000000003</v>
-      </c>
-      <c r="AB32" s="208">
-        <f t="shared" si="13"/>
-        <v>-6838.9250000000029</v>
-      </c>
-      <c r="AC32" s="208">
-        <f t="shared" si="13"/>
-        <v>-7538.9250000000029</v>
-      </c>
-      <c r="AD32" s="208">
-        <f t="shared" si="13"/>
-        <v>2561.0749999999971</v>
-      </c>
-      <c r="AE32" s="208"/>
-      <c r="AF32" s="208"/>
-      <c r="AG32" s="208"/>
-      <c r="AH32" s="208"/>
-      <c r="AI32" s="208"/>
-      <c r="AJ32" s="209"/>
-      <c r="AK32" s="209"/>
-      <c r="AL32" s="209"/>
-      <c r="AM32" s="209"/>
-      <c r="AN32" s="209"/>
-      <c r="AO32" s="209"/>
-      <c r="AP32" s="209"/>
-      <c r="AQ32" s="209"/>
-      <c r="AR32" s="209"/>
-      <c r="AS32" s="209"/>
-      <c r="AT32" s="209"/>
-      <c r="AU32" s="209"/>
-      <c r="AV32" s="209"/>
-    </row>
-    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B33" s="191">
-        <f t="shared" ref="B33:AD33" si="14">B32/$B$13</f>
-        <v>-0.98767045454545455</v>
-      </c>
-      <c r="C33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.99562499999999998</v>
-      </c>
-      <c r="D33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.97721022727272733</v>
-      </c>
-      <c r="E33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.98516477272727276</v>
-      </c>
-      <c r="F33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.96066477272727269</v>
-      </c>
-      <c r="G33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.96861931818181823</v>
-      </c>
-      <c r="H33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.93803409090909096</v>
-      </c>
-      <c r="I33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.94598863636363639</v>
-      </c>
-      <c r="J33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.9093181818181818</v>
-      </c>
-      <c r="K33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.91727272727272724</v>
-      </c>
-      <c r="L33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.86790482954545456</v>
-      </c>
-      <c r="M33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.875859375</v>
-      </c>
-      <c r="N33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.79370369318181822</v>
-      </c>
-      <c r="O33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.80165823863636365</v>
-      </c>
-      <c r="P33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.70355028409090914</v>
-      </c>
-      <c r="Q33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.71150482954545458</v>
-      </c>
-      <c r="R33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.60731164772727275</v>
-      </c>
-      <c r="S33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.61526619318181819</v>
-      </c>
-      <c r="T33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.50498778409090916</v>
-      </c>
-      <c r="U33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.5129423295454546</v>
-      </c>
-      <c r="V33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.3981696022727273</v>
-      </c>
-      <c r="W33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.40612414772727273</v>
-      </c>
-      <c r="X33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.29135142045454548</v>
-      </c>
-      <c r="Y33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.29930596590909092</v>
-      </c>
-      <c r="Z33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.18453323863636367</v>
-      </c>
-      <c r="AA33" s="191">
-        <f t="shared" si="14"/>
-        <v>-0.19248778409090914</v>
-      </c>
-      <c r="AB33" s="191">
-        <f t="shared" si="14"/>
-        <v>-7.7715056818181846E-2</v>
-      </c>
-      <c r="AC33" s="191">
-        <f t="shared" si="14"/>
-        <v>-8.566960227272731E-2</v>
-      </c>
-      <c r="AD33" s="191">
-        <f t="shared" si="14"/>
-        <v>2.9103124999999966E-2</v>
-      </c>
-      <c r="AE33" s="191"/>
-      <c r="AF33" s="191"/>
-      <c r="AG33" s="191"/>
-      <c r="AH33" s="191"/>
-      <c r="AI33" s="191"/>
-    </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K36" s="191"/>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K37" s="191"/>
-    </row>
-    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K38" s="191"/>
-    </row>
-    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K39" s="191"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B32:AD32">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -13111,7 +10086,7 @@
   <dimension ref="A1:AG79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13230,14 +10205,14 @@
       <c r="W2" s="76"/>
       <c r="X2" s="76"/>
       <c r="Y2" s="76"/>
-      <c r="Z2" s="320" t="s">
+      <c r="Z2" s="317" t="s">
         <v>276</v>
       </c>
-      <c r="AA2" s="321"/>
-      <c r="AB2" s="321"/>
-      <c r="AC2" s="321"/>
-      <c r="AD2" s="321"/>
-      <c r="AE2" s="322"/>
+      <c r="AA2" s="318"/>
+      <c r="AB2" s="318"/>
+      <c r="AC2" s="318"/>
+      <c r="AD2" s="318"/>
+      <c r="AE2" s="319"/>
       <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -13304,14 +10279,14 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-      <c r="Z3" s="323" t="s">
+      <c r="Z3" s="320" t="s">
         <v>251</v>
       </c>
-      <c r="AA3" s="324"/>
-      <c r="AB3" s="324"/>
-      <c r="AC3" s="324"/>
-      <c r="AD3" s="324"/>
-      <c r="AE3" s="325"/>
+      <c r="AA3" s="321"/>
+      <c r="AB3" s="321"/>
+      <c r="AC3" s="321"/>
+      <c r="AD3" s="321"/>
+      <c r="AE3" s="322"/>
       <c r="AG3" s="7"/>
     </row>
     <row r="4" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
@@ -13328,81 +10303,81 @@
       </c>
       <c r="F4" s="83">
         <f>E4+(E11/30)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G4" s="83">
         <f t="shared" ref="G4:U4" si="1">F4+(F11/30)</f>
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="H4" s="83">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="I4" s="83">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="J4" s="83">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="K4" s="83">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="L4" s="83">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="M4" s="83">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="N4" s="83">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="O4" s="83">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>338</v>
       </c>
       <c r="P4" s="83">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="83">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>382</v>
       </c>
       <c r="R4" s="83">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>404</v>
       </c>
       <c r="S4" s="83">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="T4" s="83">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>448</v>
       </c>
       <c r="U4" s="83">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="V4" s="61"/>
       <c r="W4" s="61"/>
       <c r="X4" s="61"/>
       <c r="Y4" s="61"/>
-      <c r="Z4" s="326" t="s">
+      <c r="Z4" s="323" t="s">
         <v>252</v>
       </c>
-      <c r="AA4" s="327"/>
+      <c r="AA4" s="324"/>
       <c r="AB4" s="233"/>
-      <c r="AC4" s="328" t="s">
+      <c r="AC4" s="325" t="s">
         <v>253</v>
       </c>
-      <c r="AD4" s="329"/>
+      <c r="AD4" s="326"/>
       <c r="AE4" s="233"/>
       <c r="AG4" s="61"/>
     </row>
@@ -13424,67 +10399,67 @@
       </c>
       <c r="F5" s="86">
         <f t="shared" si="2"/>
-        <v>925602</v>
+        <v>925753</v>
       </c>
       <c r="G5" s="86">
         <f t="shared" si="2"/>
-        <v>851342</v>
+        <v>851853</v>
       </c>
       <c r="H5" s="86">
         <f t="shared" si="2"/>
-        <v>777982</v>
+        <v>778853</v>
       </c>
       <c r="I5" s="86">
         <f t="shared" si="2"/>
-        <v>802022</v>
+        <v>803253</v>
       </c>
       <c r="J5" s="86">
         <f t="shared" si="2"/>
-        <v>730462</v>
+        <v>732053</v>
       </c>
       <c r="K5" s="86">
         <f t="shared" si="2"/>
-        <v>756302</v>
+        <v>758253</v>
       </c>
       <c r="L5" s="86">
         <f t="shared" si="2"/>
-        <v>686542</v>
+        <v>688853</v>
       </c>
       <c r="M5" s="86">
         <f t="shared" si="2"/>
-        <v>714182</v>
+        <v>716853</v>
       </c>
       <c r="N5" s="86">
         <f t="shared" si="2"/>
-        <v>646222</v>
+        <v>649253</v>
       </c>
       <c r="O5" s="86">
         <f t="shared" si="2"/>
-        <v>675662</v>
+        <v>679053</v>
       </c>
       <c r="P5" s="86">
         <f t="shared" si="2"/>
-        <v>609502</v>
+        <v>613253</v>
       </c>
       <c r="Q5" s="86">
         <f t="shared" si="2"/>
-        <v>640742</v>
+        <v>644853</v>
       </c>
       <c r="R5" s="86">
         <f t="shared" si="2"/>
-        <v>576382</v>
+        <v>580853</v>
       </c>
       <c r="S5" s="86">
         <f t="shared" si="2"/>
-        <v>609422</v>
+        <v>614253</v>
       </c>
       <c r="T5" s="86">
         <f t="shared" si="2"/>
-        <v>643363</v>
+        <v>648554</v>
       </c>
       <c r="U5" s="86">
         <f t="shared" si="2"/>
-        <v>581703</v>
+        <v>587254</v>
       </c>
       <c r="V5" s="87"/>
       <c r="W5" s="87"/>
@@ -13507,14 +10482,14 @@
       </c>
       <c r="C6" s="89">
         <f t="shared" ref="C6:C23" si="3">SUM(D6:U6)</f>
-        <v>874638</v>
+        <v>874189</v>
       </c>
       <c r="D6" s="291">
         <v>0</v>
       </c>
       <c r="E6" s="291">
-        <f>140449+2688</f>
-        <v>143137</v>
+        <f>140449+2239</f>
+        <v>142688</v>
       </c>
       <c r="F6" s="291">
         <v>3500</v>
@@ -13569,7 +10544,7 @@
       </c>
       <c r="X6" s="90">
         <f t="shared" ref="X6:X12" si="4">C6/$C$13</f>
-        <v>0.40243160087292484</v>
+        <v>0.40113403698629008</v>
       </c>
       <c r="Z6" s="238" t="s">
         <v>254</v>
@@ -13580,7 +10555,7 @@
       </c>
       <c r="AB6" s="240">
         <f>AA6/AA34</f>
-        <v>0.12603870628529271</v>
+        <v>0.12577600657829319</v>
       </c>
       <c r="AC6" s="238" t="s">
         <v>255</v>
@@ -13591,7 +10566,7 @@
       </c>
       <c r="AE6" s="241">
         <f>AD6/$AD$34</f>
-        <v>0.10600395818779873</v>
+        <v>0.10578301646618435</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -13679,7 +10654,7 @@
       </c>
       <c r="X7" s="90">
         <f t="shared" si="4"/>
-        <v>0.17960249067927742</v>
+        <v>0.17911534652965594</v>
       </c>
       <c r="Z7" s="242" t="s">
         <v>134</v>
@@ -13690,7 +10665,7 @@
       </c>
       <c r="AB7" s="244">
         <f>AA7/AA34</f>
-        <v>3.1094494401754293E-2</v>
+        <v>3.1029684830080742E-2</v>
       </c>
       <c r="AC7" s="245" t="s">
         <v>256</v>
@@ -13700,7 +10675,7 @@
       </c>
       <c r="AE7" s="247">
         <f t="shared" ref="AE7:AE9" si="6">AD7/$AD$34</f>
-        <v>0.10600395818779873</v>
+        <v>0.10578301646618435</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -13784,7 +10759,7 @@
       </c>
       <c r="AB8" s="244">
         <f>AA8/AA34</f>
-        <v>9.4944211883538396E-2</v>
+        <v>9.4746321748212445E-2</v>
       </c>
       <c r="AC8" s="245" t="s">
         <v>257</v>
@@ -13968,7 +10943,7 @@
       <c r="AE10" s="241"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="318" t="s">
+      <c r="A11" s="315" t="s">
         <v>127</v>
       </c>
       <c r="B11" s="295" t="s">
@@ -13976,68 +10951,84 @@
       </c>
       <c r="C11" s="89">
         <f t="shared" si="3"/>
-        <v>5400</v>
+        <v>11760</v>
       </c>
       <c r="D11" s="293">
         <v>0</v>
       </c>
       <c r="E11" s="293">
-        <v>600</v>
+        <f>600+600</f>
+        <v>1200</v>
       </c>
       <c r="F11" s="293">
-        <v>300</v>
+        <v>660</v>
       </c>
       <c r="G11" s="293">
-        <v>300</v>
+        <f>F11</f>
+        <v>660</v>
       </c>
       <c r="H11" s="293">
-        <v>300</v>
+        <f t="shared" ref="H11:U11" si="7">G11</f>
+        <v>660</v>
       </c>
       <c r="I11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="J11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="K11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="L11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="M11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="N11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="O11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="P11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="Q11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="R11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="S11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="T11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="U11" s="293">
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>660</v>
       </c>
       <c r="W11" s="88" t="s">
         <v>128</v>
       </c>
       <c r="X11" s="90">
         <f t="shared" si="4"/>
-        <v>2.4846057965853233E-3</v>
+        <v>5.3962430034680958E-3</v>
       </c>
       <c r="Z11" s="238" t="s">
         <v>144</v>
@@ -14055,15 +11046,15 @@
       </c>
       <c r="AD11" s="239">
         <f>SUM(AD12:AD17)</f>
-        <v>577643</v>
+        <v>583554</v>
       </c>
       <c r="AE11" s="241">
-        <f t="shared" ref="AE11:AE17" si="7">AD11/$AD$34</f>
-        <v>0.20410814806491542</v>
+        <f t="shared" ref="AE11:AE17" si="8">AD11/$AD$34</f>
+        <v>0.20576700796969247</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="318"/>
+      <c r="A12" s="315"/>
       <c r="B12" s="295" t="s">
         <v>129</v>
       </c>
@@ -14130,7 +11121,7 @@
       </c>
       <c r="X12" s="90">
         <f t="shared" si="4"/>
-        <v>0.41548130265121241</v>
+        <v>0.4143543734805859</v>
       </c>
       <c r="Z12" s="253" t="s">
         <v>260</v>
@@ -14149,7 +11140,7 @@
         <v>0</v>
       </c>
       <c r="AE12" s="247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14160,7 +11151,7 @@
       <c r="B13" s="297"/>
       <c r="C13" s="91">
         <f t="shared" si="3"/>
-        <v>2173383</v>
+        <v>2179294</v>
       </c>
       <c r="D13" s="294">
         <f>SUM(D6:D12)</f>
@@ -14168,77 +11159,77 @@
       </c>
       <c r="E13" s="294">
         <f>SUM(E6:E12)</f>
-        <v>1077082</v>
+        <v>1077233</v>
       </c>
       <c r="F13" s="294">
         <f>F12+F11+F10+F9+F8+F7+F6</f>
-        <v>18800</v>
+        <v>19160</v>
       </c>
       <c r="G13" s="294">
-        <f t="shared" ref="G13:U13" si="8">SUM(G6:G12)</f>
-        <v>19800</v>
+        <f t="shared" ref="G13:U13" si="9">SUM(G6:G12)</f>
+        <v>20160</v>
       </c>
       <c r="H13" s="294">
-        <f t="shared" si="8"/>
-        <v>117300</v>
+        <f t="shared" si="9"/>
+        <v>117660</v>
       </c>
       <c r="I13" s="294">
-        <f t="shared" si="8"/>
-        <v>21800</v>
+        <f t="shared" si="9"/>
+        <v>22160</v>
       </c>
       <c r="J13" s="294">
-        <f t="shared" si="8"/>
-        <v>119300</v>
+        <f t="shared" si="9"/>
+        <v>119660</v>
       </c>
       <c r="K13" s="294">
-        <f t="shared" si="8"/>
-        <v>23800</v>
+        <f t="shared" si="9"/>
+        <v>24160</v>
       </c>
       <c r="L13" s="294">
-        <f t="shared" si="8"/>
-        <v>121300</v>
+        <f t="shared" si="9"/>
+        <v>121660</v>
       </c>
       <c r="M13" s="294">
-        <f t="shared" si="8"/>
-        <v>25800</v>
+        <f t="shared" si="9"/>
+        <v>26160</v>
       </c>
       <c r="N13" s="294">
-        <f t="shared" si="8"/>
-        <v>123300</v>
+        <f t="shared" si="9"/>
+        <v>123660</v>
       </c>
       <c r="O13" s="294">
-        <f t="shared" si="8"/>
-        <v>27800</v>
+        <f t="shared" si="9"/>
+        <v>28160</v>
       </c>
       <c r="P13" s="294">
-        <f t="shared" si="8"/>
-        <v>125300</v>
+        <f t="shared" si="9"/>
+        <v>125660</v>
       </c>
       <c r="Q13" s="294">
-        <f t="shared" si="8"/>
-        <v>29800</v>
+        <f t="shared" si="9"/>
+        <v>30160</v>
       </c>
       <c r="R13" s="294">
-        <f t="shared" si="8"/>
-        <v>127300</v>
+        <f t="shared" si="9"/>
+        <v>127660</v>
       </c>
       <c r="S13" s="294">
-        <f t="shared" si="8"/>
-        <v>128301</v>
+        <f t="shared" si="9"/>
+        <v>128661</v>
       </c>
       <c r="T13" s="294">
-        <f t="shared" si="8"/>
-        <v>32800</v>
+        <f t="shared" si="9"/>
+        <v>33160</v>
       </c>
       <c r="U13" s="294">
-        <f t="shared" si="8"/>
-        <v>33800</v>
+        <f t="shared" si="9"/>
+        <v>34160</v>
       </c>
       <c r="V13" s="92"/>
       <c r="W13" s="92"/>
       <c r="X13" s="93">
         <f>SUM(X6:X12)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="92"/>
       <c r="Z13" s="253" t="s">
@@ -14258,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG13" s="92"/>
@@ -14282,74 +11273,74 @@
         <v>8040</v>
       </c>
       <c r="F14" s="303">
-        <f t="shared" ref="F14:U14" si="9">E14+100</f>
+        <f t="shared" ref="F14:U14" si="10">E14+100</f>
         <v>8140</v>
       </c>
       <c r="G14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8240</v>
       </c>
       <c r="H14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8340</v>
       </c>
       <c r="I14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8440</v>
       </c>
       <c r="J14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8540</v>
       </c>
       <c r="K14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8640</v>
       </c>
       <c r="L14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8740</v>
       </c>
       <c r="M14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8840</v>
       </c>
       <c r="N14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8940</v>
       </c>
       <c r="O14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9040</v>
       </c>
       <c r="P14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9140</v>
       </c>
       <c r="Q14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9240</v>
       </c>
       <c r="R14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9340</v>
       </c>
       <c r="S14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9440</v>
       </c>
       <c r="T14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9540</v>
       </c>
       <c r="U14" s="303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9640</v>
       </c>
-      <c r="W14" s="319">
+      <c r="W14" s="316">
         <f>C13</f>
-        <v>2173383</v>
-      </c>
-      <c r="X14" s="319"/>
+        <v>2179294</v>
+      </c>
+      <c r="X14" s="316"/>
       <c r="Z14" s="253" t="s">
         <v>263</v>
       </c>
@@ -14367,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14393,63 +11384,63 @@
         <v>7800</v>
       </c>
       <c r="G15" s="303">
-        <f t="shared" ref="G15:U15" si="10">F15</f>
+        <f t="shared" ref="G15:U15" si="11">F15</f>
         <v>7800</v>
       </c>
       <c r="H15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="I15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="J15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="K15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="L15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="M15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="N15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="O15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="P15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="Q15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="R15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="S15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="T15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="U15" s="303">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7800</v>
       </c>
       <c r="Z15" s="253" t="s">
@@ -14469,7 +11460,7 @@
         <v>0</v>
       </c>
       <c r="AE15" s="247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14548,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -14574,63 +11565,63 @@
         <v>57120</v>
       </c>
       <c r="G17" s="303">
-        <f t="shared" ref="G17:U17" si="11">F17</f>
+        <f t="shared" ref="G17:U17" si="12">F17</f>
         <v>57120</v>
       </c>
       <c r="H17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="I17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="J17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="K17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="L17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="M17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="N17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="O17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="P17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="Q17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="R17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="S17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="T17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="U17" s="303">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>57120</v>
       </c>
       <c r="Z17" s="238" t="s">
@@ -14649,11 +11640,11 @@
       </c>
       <c r="AD17" s="261">
         <f>AA27-AD27</f>
-        <v>577643</v>
+        <v>583554</v>
       </c>
       <c r="AE17" s="247">
-        <f t="shared" si="7"/>
-        <v>0.20410814806491542</v>
+        <f t="shared" si="8"/>
+        <v>0.20576700796969247</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -14680,63 +11671,63 @@
         <v>20000</v>
       </c>
       <c r="G18" s="303">
-        <f t="shared" ref="G18:U18" si="12">F18</f>
+        <f t="shared" ref="G18:U18" si="13">F18</f>
         <v>20000</v>
       </c>
       <c r="H18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="I18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="J18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="K18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="L18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="M18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="N18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="O18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="P18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="Q18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="R18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="S18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="T18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="U18" s="303">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20000</v>
       </c>
       <c r="Z18" s="253" t="s">
@@ -14777,63 +11768,63 @@
         <v>0</v>
       </c>
       <c r="G19" s="303">
-        <f t="shared" ref="G19:U19" si="13">F19</f>
+        <f t="shared" ref="G19:U19" si="14">F19</f>
         <v>0</v>
       </c>
       <c r="H19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="L19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U19" s="303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z19" s="248" t="s">
@@ -14855,7 +11846,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="241">
-        <f t="shared" ref="AE19:AE21" si="14">AD19/$AD$34</f>
+        <f t="shared" ref="AE19:AE21" si="15">AD19/$AD$34</f>
         <v>0</v>
       </c>
     </row>
@@ -14880,63 +11871,63 @@
         <v>0</v>
       </c>
       <c r="G20" s="303">
-        <f t="shared" ref="G20:U20" si="15">F20</f>
+        <f t="shared" ref="G20:U20" si="16">F20</f>
         <v>0</v>
       </c>
       <c r="H20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U20" s="303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z20" s="257"/>
@@ -14950,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="AE20" s="247">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15025,7 +12016,7 @@
       </c>
       <c r="AB21" s="240">
         <f>AA21/AA34</f>
-        <v>0.10600395818779873</v>
+        <v>0.10578301646618435</v>
       </c>
       <c r="AC21" s="248" t="s">
         <v>271</v>
@@ -15034,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="247">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15054,71 +12045,71 @@
         <v>0</v>
       </c>
       <c r="E22" s="303">
-        <f t="shared" ref="E22:U22" si="16">D22</f>
+        <f t="shared" ref="E22:U22" si="17">D22</f>
         <v>0</v>
       </c>
       <c r="F22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U22" s="303">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z22" s="238"/>
@@ -15138,75 +12129,75 @@
         <v>1952440</v>
       </c>
       <c r="D23" s="304">
-        <f t="shared" ref="D23:U23" si="17">SUM(D14:D22)</f>
+        <f t="shared" ref="D23:U23" si="18">SUM(D14:D22)</f>
         <v>115000</v>
       </c>
       <c r="E23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>336480</v>
       </c>
       <c r="F23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93060</v>
       </c>
       <c r="G23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93160</v>
       </c>
       <c r="H23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93260</v>
       </c>
       <c r="I23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93360</v>
       </c>
       <c r="J23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93460</v>
       </c>
       <c r="K23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93560</v>
       </c>
       <c r="L23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93660</v>
       </c>
       <c r="M23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93760</v>
       </c>
       <c r="N23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93860</v>
       </c>
       <c r="O23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93960</v>
       </c>
       <c r="P23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94060</v>
       </c>
       <c r="Q23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94160</v>
       </c>
       <c r="R23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94260</v>
       </c>
       <c r="S23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94360</v>
       </c>
       <c r="T23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94460</v>
       </c>
       <c r="U23" s="304">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>94560</v>
       </c>
       <c r="V23" s="97"/>
@@ -15230,8 +12221,8 @@
         <v>356700</v>
       </c>
       <c r="AE23" s="241">
-        <f t="shared" ref="AE23:AE25" si="18">AD23/$AD$34</f>
-        <v>0.12603870628529271</v>
+        <f t="shared" ref="AE23:AE25" si="19">AD23/$AD$34</f>
+        <v>0.12577600657829319</v>
       </c>
       <c r="AG23" s="97"/>
     </row>
@@ -15241,84 +12232,84 @@
       </c>
       <c r="B24" s="99"/>
       <c r="C24" s="86">
-        <f t="shared" ref="C24:U24" si="19">C5+C13-C23</f>
-        <v>520943</v>
+        <f t="shared" ref="C24:U24" si="20">C5+C13-C23</f>
+        <v>526854</v>
       </c>
       <c r="D24" s="86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>185000</v>
       </c>
       <c r="E24" s="86">
-        <f t="shared" si="19"/>
-        <v>925602</v>
+        <f t="shared" si="20"/>
+        <v>925753</v>
       </c>
       <c r="F24" s="86">
-        <f t="shared" si="19"/>
-        <v>851342</v>
+        <f t="shared" si="20"/>
+        <v>851853</v>
       </c>
       <c r="G24" s="86">
-        <f t="shared" si="19"/>
-        <v>777982</v>
+        <f t="shared" si="20"/>
+        <v>778853</v>
       </c>
       <c r="H24" s="86">
-        <f t="shared" si="19"/>
-        <v>802022</v>
+        <f t="shared" si="20"/>
+        <v>803253</v>
       </c>
       <c r="I24" s="86">
-        <f t="shared" si="19"/>
-        <v>730462</v>
+        <f t="shared" si="20"/>
+        <v>732053</v>
       </c>
       <c r="J24" s="86">
-        <f t="shared" si="19"/>
-        <v>756302</v>
+        <f t="shared" si="20"/>
+        <v>758253</v>
       </c>
       <c r="K24" s="86">
-        <f t="shared" si="19"/>
-        <v>686542</v>
+        <f t="shared" si="20"/>
+        <v>688853</v>
       </c>
       <c r="L24" s="86">
-        <f t="shared" si="19"/>
-        <v>714182</v>
+        <f t="shared" si="20"/>
+        <v>716853</v>
       </c>
       <c r="M24" s="86">
-        <f t="shared" si="19"/>
-        <v>646222</v>
+        <f t="shared" si="20"/>
+        <v>649253</v>
       </c>
       <c r="N24" s="86">
-        <f t="shared" si="19"/>
-        <v>675662</v>
+        <f t="shared" si="20"/>
+        <v>679053</v>
       </c>
       <c r="O24" s="86">
-        <f t="shared" si="19"/>
-        <v>609502</v>
+        <f t="shared" si="20"/>
+        <v>613253</v>
       </c>
       <c r="P24" s="86">
-        <f t="shared" si="19"/>
-        <v>640742</v>
+        <f t="shared" si="20"/>
+        <v>644853</v>
       </c>
       <c r="Q24" s="86">
-        <f t="shared" si="19"/>
-        <v>576382</v>
+        <f t="shared" si="20"/>
+        <v>580853</v>
       </c>
       <c r="R24" s="86">
-        <f t="shared" si="19"/>
-        <v>609422</v>
+        <f t="shared" si="20"/>
+        <v>614253</v>
       </c>
       <c r="S24" s="86">
-        <f t="shared" si="19"/>
-        <v>643363</v>
+        <f t="shared" si="20"/>
+        <v>648554</v>
       </c>
       <c r="T24" s="86">
-        <f t="shared" si="19"/>
-        <v>581703</v>
+        <f t="shared" si="20"/>
+        <v>587254</v>
       </c>
       <c r="U24" s="86">
-        <f t="shared" si="19"/>
-        <v>520943</v>
+        <f t="shared" si="20"/>
+        <v>526854</v>
       </c>
       <c r="V24" s="87"/>
       <c r="W24" s="94" t="str">
-        <f t="shared" ref="W24:W31" si="20">B15</f>
+        <f t="shared" ref="W24:W31" si="21">B15</f>
         <v xml:space="preserve">Mantenimiento </v>
       </c>
       <c r="X24" s="98">
@@ -15337,8 +12328,8 @@
         <v>88000</v>
       </c>
       <c r="AE24" s="247">
-        <f t="shared" si="18"/>
-        <v>3.1094494401754293E-2</v>
+        <f t="shared" si="19"/>
+        <v>3.1029684830080742E-2</v>
       </c>
       <c r="AG24" s="87"/>
     </row>
@@ -15355,72 +12346,72 @@
         <v>43651</v>
       </c>
       <c r="F25" s="101">
-        <f t="shared" ref="F25:U25" si="21">E25+7</f>
+        <f t="shared" ref="F25:U25" si="22">E25+7</f>
         <v>43658</v>
       </c>
       <c r="G25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43665</v>
       </c>
       <c r="H25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43672</v>
       </c>
       <c r="I25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43679</v>
       </c>
       <c r="J25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43686</v>
       </c>
       <c r="K25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43693</v>
       </c>
       <c r="L25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43700</v>
       </c>
       <c r="M25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43707</v>
       </c>
       <c r="N25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43714</v>
       </c>
       <c r="O25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43721</v>
       </c>
       <c r="P25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43728</v>
       </c>
       <c r="Q25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43735</v>
       </c>
       <c r="R25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43742</v>
       </c>
       <c r="S25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43749</v>
       </c>
       <c r="T25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43756</v>
       </c>
       <c r="U25" s="101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43763</v>
       </c>
       <c r="V25" s="76"/>
       <c r="W25" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Estadio</v>
       </c>
       <c r="X25" s="98">
@@ -15439,8 +12430,8 @@
         <v>268700</v>
       </c>
       <c r="AE25" s="247">
-        <f t="shared" si="18"/>
-        <v>9.4944211883538396E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.4746321748212445E-2</v>
       </c>
       <c r="AG25" s="76"/>
     </row>
@@ -15468,11 +12459,11 @@
       <c r="U26" s="102"/>
       <c r="V26" s="61"/>
       <c r="W26" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Empleados</v>
       </c>
       <c r="X26" s="98">
-        <f t="shared" ref="X26:X31" si="22">C17/$C$23</f>
+        <f t="shared" ref="X26:X31" si="23">C17/$C$23</f>
         <v>0.48480875212554547</v>
       </c>
       <c r="Y26" s="61"/>
@@ -15514,11 +12505,11 @@
       <c r="U27" s="106"/>
       <c r="V27" s="7"/>
       <c r="W27" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Juveniles</v>
       </c>
       <c r="X27" s="98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.18438466739054721</v>
       </c>
       <c r="Y27" s="7"/>
@@ -15527,11 +12518,11 @@
       </c>
       <c r="AA27" s="239">
         <f>SUM(AA28:AA32)</f>
-        <v>2173383</v>
+        <v>2179294</v>
       </c>
       <c r="AB27" s="240">
         <f>AA27/AA34</f>
-        <v>0.76795733552690859</v>
+        <v>0.76844097695552249</v>
       </c>
       <c r="AC27" s="238" t="s">
         <v>274</v>
@@ -15541,14 +12532,14 @@
         <v>1595740</v>
       </c>
       <c r="AE27" s="241">
-        <f t="shared" ref="AE27:AE34" si="23">AD27/$AD$34</f>
-        <v>0.5638491874619932</v>
+        <f t="shared" ref="AE27:AE34" si="24">AD27/$AD$34</f>
+        <v>0.56267396898583</v>
       </c>
       <c r="AG27" s="7"/>
     </row>
     <row r="28" spans="1:33" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74"/>
-      <c r="B28" s="316" t="s">
+      <c r="B28" s="313" t="s">
         <v>145</v>
       </c>
       <c r="C28" s="108" t="s">
@@ -15578,11 +12569,11 @@
       <c r="U28" s="106"/>
       <c r="V28" s="61"/>
       <c r="W28" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Compra</v>
       </c>
       <c r="X28" s="98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Y28" s="61"/>
@@ -15591,11 +12582,11 @@
       </c>
       <c r="AA28" s="276">
         <f>C11</f>
-        <v>5400</v>
+        <v>11760</v>
       </c>
       <c r="AB28" s="244">
         <f>AA28/AA34</f>
-        <v>1.9080712473803771E-3</v>
+        <v>4.1466942454744266E-3</v>
       </c>
       <c r="AC28" s="263" t="s">
         <v>275</v>
@@ -15605,14 +12596,14 @@
         <v>150280</v>
       </c>
       <c r="AE28" s="247">
-        <f t="shared" si="23"/>
-        <v>5.310091612154131E-2</v>
+        <f t="shared" si="24"/>
+        <v>5.2990239048460612E-2</v>
       </c>
       <c r="AG28" s="61"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="74"/>
-      <c r="B29" s="316"/>
+      <c r="B29" s="313"/>
       <c r="C29" s="108" t="s">
         <v>146</v>
       </c>
@@ -15639,11 +12630,11 @@
       <c r="T29" s="106"/>
       <c r="U29" s="106"/>
       <c r="W29" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Entrenador</v>
       </c>
       <c r="X29" s="98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.13762266702177789</v>
       </c>
       <c r="Z29" s="275" t="s">
@@ -15655,7 +12646,7 @@
       </c>
       <c r="AB29" s="244">
         <f>AA29/AA34</f>
-        <v>0.31907191414527419</v>
+        <v>0.3184068795632149</v>
       </c>
       <c r="AC29" s="263" t="s">
         <v>132</v>
@@ -15665,13 +12656,13 @@
         <v>131900</v>
       </c>
       <c r="AE29" s="247">
-        <f t="shared" si="23"/>
-        <v>4.6606406949902174E-2</v>
+        <f t="shared" si="24"/>
+        <v>4.6509266239632384E-2</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="74"/>
-      <c r="B30" s="316"/>
+      <c r="B30" s="313"/>
       <c r="C30" s="108" t="s">
         <v>147</v>
       </c>
@@ -15698,11 +12689,11 @@
       <c r="T30" s="106"/>
       <c r="U30" s="106"/>
       <c r="W30" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Viajes+Venta</v>
       </c>
       <c r="X30" s="98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.5852574214828626E-3</v>
       </c>
       <c r="Z30" s="275" t="s">
@@ -15710,11 +12701,11 @@
       </c>
       <c r="AA30" s="276">
         <f>C6</f>
-        <v>874638</v>
+        <v>874189</v>
       </c>
       <c r="AB30" s="244">
         <f>AA30/AA34</f>
-        <v>0.30905029993819971</v>
+        <v>0.3082478312718574</v>
       </c>
       <c r="AC30" s="263" t="s">
         <v>135</v>
@@ -15724,13 +12715,13 @@
         <v>946560</v>
       </c>
       <c r="AE30" s="247">
-        <f t="shared" si="23"/>
-        <v>0.33446368887414257</v>
+        <f t="shared" si="24"/>
+        <v>0.33376657355410483</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="74"/>
-      <c r="B31" s="316"/>
+      <c r="B31" s="313"/>
       <c r="C31" s="108" t="s">
         <v>148</v>
       </c>
@@ -15757,11 +12748,11 @@
       <c r="T31" s="106"/>
       <c r="U31" s="106"/>
       <c r="W31" s="94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Intereses</v>
       </c>
       <c r="X31" s="98">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z31" s="275" t="s">
@@ -15773,7 +12764,7 @@
       </c>
       <c r="AB31" s="244">
         <f>AA31/AA34</f>
-        <v>0.13792705019605431</v>
+        <v>0.13763957187497575</v>
       </c>
       <c r="AC31" s="263" t="s">
         <v>136</v>
@@ -15783,13 +12774,13 @@
         <v>360000</v>
       </c>
       <c r="AE31" s="247">
-        <f t="shared" si="23"/>
-        <v>0.12720474982535848</v>
+        <f t="shared" si="24"/>
+        <v>0.12693961975942122</v>
       </c>
     </row>
     <row r="32" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="74"/>
-      <c r="B32" s="316"/>
+      <c r="B32" s="313"/>
       <c r="C32" s="108" t="s">
         <v>149</v>
       </c>
@@ -15839,13 +12830,13 @@
         <v>7000</v>
       </c>
       <c r="AE32" s="247">
-        <f t="shared" si="23"/>
-        <v>2.4734256910486372E-3</v>
+        <f t="shared" si="24"/>
+        <v>2.468270384210968E-3</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="74"/>
-      <c r="B33" s="316"/>
+      <c r="B33" s="313"/>
       <c r="C33" s="108" t="s">
         <v>151</v>
       </c>
@@ -15884,13 +12875,13 @@
         <v>0</v>
       </c>
       <c r="AE33" s="279">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="61"/>
-      <c r="B34" s="316"/>
+      <c r="B34" s="313"/>
       <c r="C34" s="108" t="s">
         <v>152</v>
       </c>
@@ -15916,17 +12907,17 @@
       <c r="S34" s="110"/>
       <c r="T34" s="110"/>
       <c r="U34" s="110"/>
-      <c r="W34" s="317">
+      <c r="W34" s="314">
         <f>C23</f>
         <v>1952440</v>
       </c>
-      <c r="X34" s="317"/>
+      <c r="X34" s="314"/>
       <c r="Z34" s="280" t="s">
         <v>229</v>
       </c>
       <c r="AA34" s="281">
         <f>AA27+AA21+AA17+AA11+AA6</f>
-        <v>2830083</v>
+        <v>2835994</v>
       </c>
       <c r="AB34" s="282">
         <f>AA34/AA34</f>
@@ -15937,16 +12928,16 @@
       </c>
       <c r="AD34" s="281">
         <f>AD27+AD19+AD11+AD6+AD23</f>
-        <v>2830083</v>
+        <v>2835994</v>
       </c>
       <c r="AE34" s="283">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="316"/>
+      <c r="B35" s="313"/>
       <c r="C35" s="108" t="s">
         <v>153</v>
       </c>
@@ -15985,63 +12976,63 @@
         <v>154</v>
       </c>
       <c r="D36" s="112">
-        <f t="shared" ref="D36:R36" si="24">D28/D29</f>
+        <f t="shared" ref="D36:R36" si="25">D28/D29</f>
         <v>2.4736842105263159</v>
       </c>
       <c r="E36" s="112">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.4505776636713734</v>
       </c>
       <c r="F36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R36" s="112" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S36" s="112"/>
@@ -16062,10 +13053,10 @@
       <c r="C37" s="61"/>
       <c r="E37" s="62"/>
       <c r="F37" s="75"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
-      <c r="J37" s="330"/>
+      <c r="G37" s="327"/>
+      <c r="H37" s="327"/>
+      <c r="I37" s="327"/>
+      <c r="J37" s="327"/>
       <c r="Z37" s="287"/>
       <c r="AA37" s="288"/>
       <c r="AB37" s="232"/>
@@ -16127,10 +13118,10 @@
       <c r="C40" s="61"/>
       <c r="D40" s="62"/>
       <c r="F40" s="75"/>
-      <c r="G40" s="331"/>
-      <c r="H40" s="331"/>
-      <c r="I40" s="331"/>
-      <c r="J40" s="331"/>
+      <c r="G40" s="328"/>
+      <c r="H40" s="328"/>
+      <c r="I40" s="328"/>
+      <c r="J40" s="328"/>
       <c r="M40" s="115"/>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
@@ -16151,10 +13142,10 @@
       <c r="C42" s="61"/>
       <c r="D42" s="62"/>
       <c r="F42" s="75"/>
-      <c r="G42" s="331"/>
-      <c r="H42" s="331"/>
-      <c r="I42" s="331"/>
-      <c r="J42" s="331"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
       <c r="P42" s="115"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
@@ -16163,9 +13154,9 @@
       <c r="C43" s="61"/>
       <c r="D43" s="62"/>
       <c r="F43" s="75"/>
-      <c r="G43" s="331"/>
-      <c r="H43" s="331"/>
-      <c r="I43" s="331"/>
+      <c r="G43" s="328"/>
+      <c r="H43" s="328"/>
+      <c r="I43" s="328"/>
       <c r="J43" s="117"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16437,23 +13428,23 @@
     <mergeCell ref="AC4:AD4"/>
   </mergeCells>
   <conditionalFormatting sqref="AD12:AD17">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD37">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA38">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16461,4 +13452,3137 @@
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AV39"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125"/>
+    <col min="14" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125"/>
+    <col min="22" max="30" width="12.42578125" customWidth="1"/>
+    <col min="31" max="37" width="6.5703125" customWidth="1"/>
+    <col min="38" max="1025" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="M1" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="166" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" s="166" t="s">
+        <v>209</v>
+      </c>
+      <c r="S1" s="166" t="s">
+        <v>210</v>
+      </c>
+      <c r="U1" s="166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C2" s="167" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="329" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="329"/>
+      <c r="F2" s="330" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="330"/>
+      <c r="H2" s="331" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="331"/>
+      <c r="K2" s="60"/>
+      <c r="M2" s="168">
+        <v>11</v>
+      </c>
+      <c r="N2" s="169">
+        <v>14.98</v>
+      </c>
+      <c r="O2" s="169">
+        <v>5.95</v>
+      </c>
+      <c r="P2" s="170">
+        <f t="shared" ref="P2:P12" si="0">U2*0.97</f>
+        <v>5.3253000000000004</v>
+      </c>
+      <c r="Q2" s="169">
+        <v>0.68</v>
+      </c>
+      <c r="R2" s="171">
+        <v>27.09</v>
+      </c>
+      <c r="U2" s="169">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="172" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="173">
+        <f>B4+B5+B6+B7</f>
+        <v>12000</v>
+      </c>
+      <c r="C3" s="174">
+        <f>C4+C5+C6+C7</f>
+        <v>12400</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="175" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="168">
+        <v>10</v>
+      </c>
+      <c r="N3" s="176">
+        <v>14.23</v>
+      </c>
+      <c r="O3" s="176">
+        <v>5.59</v>
+      </c>
+      <c r="P3" s="170">
+        <f t="shared" si="0"/>
+        <v>4.9179000000000004</v>
+      </c>
+      <c r="Q3" s="176">
+        <v>0.62</v>
+      </c>
+      <c r="R3" s="177">
+        <v>25.52</v>
+      </c>
+      <c r="U3" s="176">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="172" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="173">
+        <v>8000</v>
+      </c>
+      <c r="C4" s="178">
+        <v>8000</v>
+      </c>
+      <c r="D4" s="179">
+        <v>45</v>
+      </c>
+      <c r="E4" s="180">
+        <f>D4*(C4-B4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="181">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="180">
+        <f>(C4-B4)*F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="181">
+        <v>7</v>
+      </c>
+      <c r="I4" s="182">
+        <f>(C4-B4)*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="180">
+        <f>H4*C4</f>
+        <v>56000</v>
+      </c>
+      <c r="K4" s="25">
+        <f>B4*F4</f>
+        <v>4000</v>
+      </c>
+      <c r="L4" s="68">
+        <f>5000*N13*F4</f>
+        <v>1382.4289405684756</v>
+      </c>
+      <c r="M4" s="168">
+        <v>9</v>
+      </c>
+      <c r="N4" s="169">
+        <v>13.49</v>
+      </c>
+      <c r="O4" s="169">
+        <v>5.24</v>
+      </c>
+      <c r="P4" s="170">
+        <f t="shared" si="0"/>
+        <v>4.5202</v>
+      </c>
+      <c r="Q4" s="169">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R4" s="171">
+        <v>23.95</v>
+      </c>
+      <c r="U4" s="169">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="172" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="173">
+        <v>3000</v>
+      </c>
+      <c r="C5" s="183">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="184">
+        <v>75</v>
+      </c>
+      <c r="E5" s="180">
+        <f>D5*(C5-B5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="185">
+        <v>0.7</v>
+      </c>
+      <c r="G5" s="180">
+        <f>(C5-B5)*F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="185">
+        <v>10</v>
+      </c>
+      <c r="I5" s="182">
+        <f>(C5-B5)*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="180">
+        <f>H5*C5</f>
+        <v>30000</v>
+      </c>
+      <c r="K5" s="25">
+        <f>B5*F5</f>
+        <v>2100</v>
+      </c>
+      <c r="L5" s="68">
+        <f>5000*O13*F5</f>
+        <v>768.73385012919903</v>
+      </c>
+      <c r="M5" s="168">
+        <v>8</v>
+      </c>
+      <c r="N5" s="176">
+        <v>12.74</v>
+      </c>
+      <c r="O5" s="176">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="P5" s="170">
+        <f t="shared" si="0"/>
+        <v>4.1224999999999996</v>
+      </c>
+      <c r="Q5" s="176">
+        <v>0.51</v>
+      </c>
+      <c r="R5" s="177">
+        <v>22.39</v>
+      </c>
+      <c r="U5" s="176">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="172" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="173">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="183">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="179">
+        <v>90</v>
+      </c>
+      <c r="E6" s="180">
+        <f>D6*(C6-B6)</f>
+        <v>18000</v>
+      </c>
+      <c r="F6" s="181">
+        <v>1</v>
+      </c>
+      <c r="G6" s="180">
+        <f>(C6-B6)*F6</f>
+        <v>200</v>
+      </c>
+      <c r="H6" s="181">
+        <v>19</v>
+      </c>
+      <c r="I6" s="182">
+        <f>(C6-B6)*H6</f>
+        <v>3800</v>
+      </c>
+      <c r="J6" s="180">
+        <f>H6*C6</f>
+        <v>22800</v>
+      </c>
+      <c r="K6" s="25">
+        <f>B6*F6</f>
+        <v>1000</v>
+      </c>
+      <c r="L6" s="68">
+        <f>5000*P13*F6</f>
+        <v>982.89036544850512</v>
+      </c>
+      <c r="M6" s="168">
+        <v>7</v>
+      </c>
+      <c r="N6" s="169">
+        <v>12</v>
+      </c>
+      <c r="O6" s="169">
+        <v>4.53</v>
+      </c>
+      <c r="P6" s="170">
+        <f t="shared" si="0"/>
+        <v>3.7247999999999997</v>
+      </c>
+      <c r="Q6" s="169">
+        <v>0.46</v>
+      </c>
+      <c r="R6" s="171">
+        <v>20.83</v>
+      </c>
+      <c r="U6" s="169">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="172" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="173">
+        <v>0</v>
+      </c>
+      <c r="C7" s="186">
+        <v>200</v>
+      </c>
+      <c r="D7" s="184">
+        <v>300</v>
+      </c>
+      <c r="E7" s="180">
+        <f>D7*(C7-B7)</f>
+        <v>60000</v>
+      </c>
+      <c r="F7" s="185">
+        <v>2.5</v>
+      </c>
+      <c r="G7" s="180">
+        <f>(C7-B7)*F7</f>
+        <v>500</v>
+      </c>
+      <c r="H7" s="185">
+        <v>35</v>
+      </c>
+      <c r="I7" s="182">
+        <f>(C7-B7)*H7</f>
+        <v>7000</v>
+      </c>
+      <c r="J7" s="180">
+        <f>H7*C7</f>
+        <v>7000</v>
+      </c>
+      <c r="K7" s="25">
+        <f>B7*F7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="68">
+        <f>5000*Q13*F7</f>
+        <v>313.76891842008126</v>
+      </c>
+      <c r="M7" s="168">
+        <v>6</v>
+      </c>
+      <c r="N7" s="176">
+        <v>11.26</v>
+      </c>
+      <c r="O7" s="176">
+        <v>4.17</v>
+      </c>
+      <c r="P7" s="170">
+        <f t="shared" si="0"/>
+        <v>3.3367999999999998</v>
+      </c>
+      <c r="Q7" s="176">
+        <v>0.41</v>
+      </c>
+      <c r="R7" s="177">
+        <v>19.27</v>
+      </c>
+      <c r="U7" s="176">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C8" s="187">
+        <f>C4/$C$3</f>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="J8" s="180">
+        <f>J7+J6+J5+J4</f>
+        <v>115800</v>
+      </c>
+      <c r="K8" s="25">
+        <f>K7+K6+K5+K4</f>
+        <v>7100</v>
+      </c>
+      <c r="L8" s="25">
+        <f>L7+L6+L5+L4</f>
+        <v>3447.8220745662611</v>
+      </c>
+      <c r="M8" s="168">
+        <v>5</v>
+      </c>
+      <c r="N8" s="169">
+        <v>10.52</v>
+      </c>
+      <c r="O8" s="169">
+        <v>3.81</v>
+      </c>
+      <c r="P8" s="170">
+        <f t="shared" si="0"/>
+        <v>2.9390999999999998</v>
+      </c>
+      <c r="Q8" s="169">
+        <v>0.35</v>
+      </c>
+      <c r="R8" s="171">
+        <v>17.72</v>
+      </c>
+      <c r="U8" s="169">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C9" s="188">
+        <f>C5/$C$3</f>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="E9" s="189">
+        <f>C4-B4</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>H10+H11+H12+H13</f>
+        <v>71304</v>
+      </c>
+      <c r="M9" s="168">
+        <v>4</v>
+      </c>
+      <c r="N9" s="176">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O9" s="176">
+        <v>3.46</v>
+      </c>
+      <c r="P9" s="170">
+        <f t="shared" si="0"/>
+        <v>2.5510999999999999</v>
+      </c>
+      <c r="Q9" s="176">
+        <v>0.3</v>
+      </c>
+      <c r="R9" s="177">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="U9" s="176">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10" s="190">
+        <f>B11/B13</f>
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="C10" s="188">
+        <f>C6/$C$3</f>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="E10" s="189">
+        <f>C5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>40146</v>
+      </c>
+      <c r="I10" s="191">
+        <f>H10/$H$9</f>
+        <v>0.56302591719959605</v>
+      </c>
+      <c r="M10" s="168">
+        <v>3</v>
+      </c>
+      <c r="N10" s="169">
+        <v>9.09</v>
+      </c>
+      <c r="O10" s="169">
+        <v>3.1</v>
+      </c>
+      <c r="P10" s="170">
+        <f t="shared" si="0"/>
+        <v>2.1436999999999999</v>
+      </c>
+      <c r="Q10" s="169">
+        <v>0.24</v>
+      </c>
+      <c r="R10" s="171">
+        <v>14.63</v>
+      </c>
+      <c r="U10" s="169">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="192" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="193">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="188">
+        <f>C7/$C$3</f>
+        <v>1.6129032258064516E-2</v>
+      </c>
+      <c r="E11" s="189">
+        <f>C6-B6</f>
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>15594</v>
+      </c>
+      <c r="I11" s="191">
+        <f>H11/$H$9</f>
+        <v>0.21869740828004039</v>
+      </c>
+      <c r="M11" s="168">
+        <v>2</v>
+      </c>
+      <c r="N11" s="176">
+        <v>8.42</v>
+      </c>
+      <c r="O11" s="176">
+        <v>2.73</v>
+      </c>
+      <c r="P11" s="170">
+        <f t="shared" si="0"/>
+        <v>1.7168999999999999</v>
+      </c>
+      <c r="Q11" s="176">
+        <v>0.18</v>
+      </c>
+      <c r="R11" s="177">
+        <v>13.09</v>
+      </c>
+      <c r="U11" s="176">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="192" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="194">
+        <f>E7+E6+E5+E4</f>
+        <v>78000</v>
+      </c>
+      <c r="E12" s="189">
+        <f>C7-B7</f>
+        <v>200</v>
+      </c>
+      <c r="H12">
+        <v>13868</v>
+      </c>
+      <c r="I12" s="191">
+        <f>H12/$H$9</f>
+        <v>0.19449119263996409</v>
+      </c>
+      <c r="M12" s="168">
+        <v>1</v>
+      </c>
+      <c r="N12" s="169">
+        <v>7.85</v>
+      </c>
+      <c r="O12" s="169">
+        <v>2.34</v>
+      </c>
+      <c r="P12" s="170">
+        <f t="shared" si="0"/>
+        <v>1.1931</v>
+      </c>
+      <c r="Q12" s="169">
+        <v>0.1</v>
+      </c>
+      <c r="R12" s="171">
+        <v>11.53</v>
+      </c>
+      <c r="U12" s="169">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="195" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="196">
+        <f>B11+B12</f>
+        <v>88000</v>
+      </c>
+      <c r="H13">
+        <v>1696</v>
+      </c>
+      <c r="I13" s="191">
+        <f>H13/$H$9</f>
+        <v>2.3785481880399417E-2</v>
+      </c>
+      <c r="N13">
+        <f>N2/R2</f>
+        <v>0.55297157622739024</v>
+      </c>
+      <c r="O13">
+        <f>O2/R2</f>
+        <v>0.21963824289405687</v>
+      </c>
+      <c r="P13" s="170">
+        <f>P2/R2</f>
+        <v>0.19657807308970102</v>
+      </c>
+      <c r="Q13">
+        <f>Q2/R2</f>
+        <v>2.51015134736065E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="197" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="197" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="197" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="197" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="197" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="197" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="197" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="197" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="197" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="197" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="197" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="O15" s="197" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" s="197" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="197" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" s="197" t="s">
+        <v>106</v>
+      </c>
+      <c r="T15" s="197" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="197" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="197" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" s="197" t="s">
+        <v>110</v>
+      </c>
+      <c r="X15" s="197" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y15" s="197" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z15" s="197" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA15" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB15" s="197" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC15" s="197" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD15" s="197" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE15" s="197" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF15" s="197" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG15" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15" s="197"/>
+      <c r="AI15" s="197"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="198" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" s="199">
+        <v>100</v>
+      </c>
+      <c r="C16" s="199">
+        <f>B16+35</f>
+        <v>135</v>
+      </c>
+      <c r="D16" s="199">
+        <f t="shared" ref="D16:AD16" si="1">C16+35</f>
+        <v>170</v>
+      </c>
+      <c r="E16" s="199">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="F16" s="199">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G16" s="199">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="H16" s="199">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="I16" s="199">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="J16" s="199">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="K16" s="199">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="L16" s="199">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="M16" s="199">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="N16" s="199">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="O16" s="199">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+      <c r="P16" s="199">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="Q16" s="199">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="R16" s="199">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="S16" s="199">
+        <f t="shared" si="1"/>
+        <v>695</v>
+      </c>
+      <c r="T16" s="199">
+        <f t="shared" si="1"/>
+        <v>730</v>
+      </c>
+      <c r="U16" s="199">
+        <f t="shared" si="1"/>
+        <v>765</v>
+      </c>
+      <c r="V16" s="199">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="W16" s="199">
+        <f t="shared" si="1"/>
+        <v>835</v>
+      </c>
+      <c r="X16" s="199">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="Y16" s="199">
+        <f t="shared" si="1"/>
+        <v>905</v>
+      </c>
+      <c r="Z16" s="199">
+        <f t="shared" si="1"/>
+        <v>940</v>
+      </c>
+      <c r="AA16" s="199">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="AB16" s="199">
+        <f t="shared" si="1"/>
+        <v>1010</v>
+      </c>
+      <c r="AC16" s="199">
+        <f t="shared" si="1"/>
+        <v>1045</v>
+      </c>
+      <c r="AD16" s="199">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="AE16" s="199"/>
+      <c r="AF16" s="198"/>
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="198"/>
+      <c r="AI16" s="198"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" s="198"/>
+      <c r="B17" s="199">
+        <f t="shared" ref="B17:AD17" si="2">B18+B19+B20+B21</f>
+        <v>2226.25</v>
+      </c>
+      <c r="C17" s="199">
+        <f t="shared" si="2"/>
+        <v>3005.4375</v>
+      </c>
+      <c r="D17" s="199">
+        <f t="shared" si="2"/>
+        <v>3784.625</v>
+      </c>
+      <c r="E17" s="199">
+        <f t="shared" si="2"/>
+        <v>4563.8125</v>
+      </c>
+      <c r="F17" s="199">
+        <f t="shared" si="2"/>
+        <v>5342.9999999999991</v>
+      </c>
+      <c r="G17" s="199">
+        <f t="shared" si="2"/>
+        <v>6122.1875</v>
+      </c>
+      <c r="H17" s="199">
+        <f t="shared" si="2"/>
+        <v>6901.375</v>
+      </c>
+      <c r="I17" s="199">
+        <f t="shared" si="2"/>
+        <v>7680.5625</v>
+      </c>
+      <c r="J17" s="199">
+        <f t="shared" si="2"/>
+        <v>8459.7499999999982</v>
+      </c>
+      <c r="K17" s="199">
+        <f t="shared" si="2"/>
+        <v>9238.9375</v>
+      </c>
+      <c r="L17" s="199">
+        <f t="shared" si="2"/>
+        <v>10018.125</v>
+      </c>
+      <c r="M17" s="199">
+        <f t="shared" si="2"/>
+        <v>10797.3125</v>
+      </c>
+      <c r="N17" s="199">
+        <f t="shared" si="2"/>
+        <v>11576.5</v>
+      </c>
+      <c r="O17" s="199">
+        <f t="shared" si="2"/>
+        <v>12355.687499999998</v>
+      </c>
+      <c r="P17" s="199">
+        <f t="shared" si="2"/>
+        <v>13134.875</v>
+      </c>
+      <c r="Q17" s="199">
+        <f t="shared" si="2"/>
+        <v>13914.0625</v>
+      </c>
+      <c r="R17" s="199">
+        <f t="shared" si="2"/>
+        <v>14693.25</v>
+      </c>
+      <c r="S17" s="199">
+        <f t="shared" si="2"/>
+        <v>15472.4375</v>
+      </c>
+      <c r="T17" s="199">
+        <f t="shared" si="2"/>
+        <v>16251.625</v>
+      </c>
+      <c r="U17" s="199">
+        <f t="shared" si="2"/>
+        <v>17030.8125</v>
+      </c>
+      <c r="V17" s="199">
+        <f t="shared" si="2"/>
+        <v>17810</v>
+      </c>
+      <c r="W17" s="199">
+        <f t="shared" si="2"/>
+        <v>18589.187499999996</v>
+      </c>
+      <c r="X17" s="199">
+        <f t="shared" si="2"/>
+        <v>19368.375</v>
+      </c>
+      <c r="Y17" s="199">
+        <f t="shared" si="2"/>
+        <v>20147.5625</v>
+      </c>
+      <c r="Z17" s="199">
+        <f t="shared" si="2"/>
+        <v>20926.75</v>
+      </c>
+      <c r="AA17" s="199">
+        <f t="shared" si="2"/>
+        <v>21705.9375</v>
+      </c>
+      <c r="AB17" s="199">
+        <f t="shared" si="2"/>
+        <v>22485.124999999996</v>
+      </c>
+      <c r="AC17" s="199">
+        <f t="shared" si="2"/>
+        <v>23264.3125</v>
+      </c>
+      <c r="AD17" s="199">
+        <f t="shared" si="2"/>
+        <v>24043.5</v>
+      </c>
+      <c r="AE17" s="199"/>
+      <c r="AF17" s="199"/>
+      <c r="AG17" s="199"/>
+      <c r="AH17" s="199"/>
+      <c r="AI17" s="199"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" s="200" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="201">
+        <f t="shared" ref="B18:AD18" si="3">B16*$N$5</f>
+        <v>1274</v>
+      </c>
+      <c r="C18" s="201">
+        <f t="shared" si="3"/>
+        <v>1719.9</v>
+      </c>
+      <c r="D18" s="201">
+        <f t="shared" si="3"/>
+        <v>2165.8000000000002</v>
+      </c>
+      <c r="E18" s="201">
+        <f t="shared" si="3"/>
+        <v>2611.6999999999998</v>
+      </c>
+      <c r="F18" s="201">
+        <f t="shared" si="3"/>
+        <v>3057.6</v>
+      </c>
+      <c r="G18" s="201">
+        <f t="shared" si="3"/>
+        <v>3503.5</v>
+      </c>
+      <c r="H18" s="201">
+        <f t="shared" si="3"/>
+        <v>3949.4</v>
+      </c>
+      <c r="I18" s="201">
+        <f t="shared" si="3"/>
+        <v>4395.3</v>
+      </c>
+      <c r="J18" s="201">
+        <f t="shared" si="3"/>
+        <v>4841.2</v>
+      </c>
+      <c r="K18" s="201">
+        <f t="shared" si="3"/>
+        <v>5287.1</v>
+      </c>
+      <c r="L18" s="201">
+        <f t="shared" si="3"/>
+        <v>5733</v>
+      </c>
+      <c r="M18" s="201">
+        <f t="shared" si="3"/>
+        <v>6178.9000000000005</v>
+      </c>
+      <c r="N18" s="201">
+        <f t="shared" si="3"/>
+        <v>6624.8</v>
+      </c>
+      <c r="O18" s="201">
+        <f t="shared" si="3"/>
+        <v>7070.7</v>
+      </c>
+      <c r="P18" s="201">
+        <f t="shared" si="3"/>
+        <v>7516.6</v>
+      </c>
+      <c r="Q18" s="201">
+        <f t="shared" si="3"/>
+        <v>7962.5</v>
+      </c>
+      <c r="R18" s="201">
+        <f t="shared" si="3"/>
+        <v>8408.4</v>
+      </c>
+      <c r="S18" s="201">
+        <f t="shared" si="3"/>
+        <v>8854.2999999999993</v>
+      </c>
+      <c r="T18" s="201">
+        <f t="shared" si="3"/>
+        <v>9300.2000000000007</v>
+      </c>
+      <c r="U18" s="201">
+        <f t="shared" si="3"/>
+        <v>9746.1</v>
+      </c>
+      <c r="V18" s="201">
+        <f t="shared" si="3"/>
+        <v>10192</v>
+      </c>
+      <c r="W18" s="201">
+        <f t="shared" si="3"/>
+        <v>10637.9</v>
+      </c>
+      <c r="X18" s="201">
+        <f t="shared" si="3"/>
+        <v>11083.800000000001</v>
+      </c>
+      <c r="Y18" s="201">
+        <f t="shared" si="3"/>
+        <v>11529.7</v>
+      </c>
+      <c r="Z18" s="201">
+        <f t="shared" si="3"/>
+        <v>11975.6</v>
+      </c>
+      <c r="AA18" s="201">
+        <f t="shared" si="3"/>
+        <v>12421.5</v>
+      </c>
+      <c r="AB18" s="201">
+        <f t="shared" si="3"/>
+        <v>12867.4</v>
+      </c>
+      <c r="AC18" s="201">
+        <f t="shared" si="3"/>
+        <v>13313.300000000001</v>
+      </c>
+      <c r="AD18" s="201">
+        <f t="shared" si="3"/>
+        <v>13759.2</v>
+      </c>
+      <c r="AE18" s="201"/>
+      <c r="AF18" s="201"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="201"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" s="200" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="201">
+        <f t="shared" ref="B19:AD19" si="4">B16*$O$5</f>
+        <v>488.99999999999994</v>
+      </c>
+      <c r="C19" s="201">
+        <f t="shared" si="4"/>
+        <v>660.15</v>
+      </c>
+      <c r="D19" s="201">
+        <f t="shared" si="4"/>
+        <v>831.3</v>
+      </c>
+      <c r="E19" s="201">
+        <f t="shared" si="4"/>
+        <v>1002.4499999999999</v>
+      </c>
+      <c r="F19" s="201">
+        <f t="shared" si="4"/>
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="G19" s="201">
+        <f t="shared" si="4"/>
+        <v>1344.75</v>
+      </c>
+      <c r="H19" s="201">
+        <f t="shared" si="4"/>
+        <v>1515.8999999999999</v>
+      </c>
+      <c r="I19" s="201">
+        <f t="shared" si="4"/>
+        <v>1687.05</v>
+      </c>
+      <c r="J19" s="201">
+        <f t="shared" si="4"/>
+        <v>1858.1999999999998</v>
+      </c>
+      <c r="K19" s="201">
+        <f t="shared" si="4"/>
+        <v>2029.35</v>
+      </c>
+      <c r="L19" s="201">
+        <f t="shared" si="4"/>
+        <v>2200.5</v>
+      </c>
+      <c r="M19" s="201">
+        <f t="shared" si="4"/>
+        <v>2371.6499999999996</v>
+      </c>
+      <c r="N19" s="201">
+        <f t="shared" si="4"/>
+        <v>2542.7999999999997</v>
+      </c>
+      <c r="O19" s="201">
+        <f t="shared" si="4"/>
+        <v>2713.95</v>
+      </c>
+      <c r="P19" s="201">
+        <f t="shared" si="4"/>
+        <v>2885.1</v>
+      </c>
+      <c r="Q19" s="201">
+        <f t="shared" si="4"/>
+        <v>3056.25</v>
+      </c>
+      <c r="R19" s="201">
+        <f t="shared" si="4"/>
+        <v>3227.3999999999996</v>
+      </c>
+      <c r="S19" s="201">
+        <f t="shared" si="4"/>
+        <v>3398.5499999999997</v>
+      </c>
+      <c r="T19" s="201">
+        <f t="shared" si="4"/>
+        <v>3569.7</v>
+      </c>
+      <c r="U19" s="201">
+        <f t="shared" si="4"/>
+        <v>3740.85</v>
+      </c>
+      <c r="V19" s="201">
+        <f t="shared" si="4"/>
+        <v>3911.9999999999995</v>
+      </c>
+      <c r="W19" s="201">
+        <f t="shared" si="4"/>
+        <v>4083.1499999999996</v>
+      </c>
+      <c r="X19" s="201">
+        <f t="shared" si="4"/>
+        <v>4254.2999999999993</v>
+      </c>
+      <c r="Y19" s="201">
+        <f t="shared" si="4"/>
+        <v>4425.45</v>
+      </c>
+      <c r="Z19" s="201">
+        <f t="shared" si="4"/>
+        <v>4596.5999999999995</v>
+      </c>
+      <c r="AA19" s="201">
+        <f t="shared" si="4"/>
+        <v>4767.75</v>
+      </c>
+      <c r="AB19" s="201">
+        <f t="shared" si="4"/>
+        <v>4938.8999999999996</v>
+      </c>
+      <c r="AC19" s="201">
+        <f t="shared" si="4"/>
+        <v>5110.0499999999993</v>
+      </c>
+      <c r="AD19" s="201">
+        <f t="shared" si="4"/>
+        <v>5281.2</v>
+      </c>
+      <c r="AE19" s="201"/>
+      <c r="AF19" s="201"/>
+      <c r="AG19" s="201"/>
+      <c r="AH19" s="201"/>
+      <c r="AI19" s="201"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" s="200" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="201">
+        <f t="shared" ref="B20:AD20" si="5">B16*$P$5</f>
+        <v>412.24999999999994</v>
+      </c>
+      <c r="C20" s="201">
+        <f t="shared" si="5"/>
+        <v>556.53749999999991</v>
+      </c>
+      <c r="D20" s="201">
+        <f t="shared" si="5"/>
+        <v>700.82499999999993</v>
+      </c>
+      <c r="E20" s="201">
+        <f t="shared" si="5"/>
+        <v>845.11249999999995</v>
+      </c>
+      <c r="F20" s="201">
+        <f t="shared" si="5"/>
+        <v>989.39999999999986</v>
+      </c>
+      <c r="G20" s="201">
+        <f t="shared" si="5"/>
+        <v>1133.6875</v>
+      </c>
+      <c r="H20" s="201">
+        <f t="shared" si="5"/>
+        <v>1277.9749999999999</v>
+      </c>
+      <c r="I20" s="201">
+        <f t="shared" si="5"/>
+        <v>1422.2624999999998</v>
+      </c>
+      <c r="J20" s="201">
+        <f t="shared" si="5"/>
+        <v>1566.55</v>
+      </c>
+      <c r="K20" s="201">
+        <f t="shared" si="5"/>
+        <v>1710.8374999999999</v>
+      </c>
+      <c r="L20" s="201">
+        <f t="shared" si="5"/>
+        <v>1855.1249999999998</v>
+      </c>
+      <c r="M20" s="201">
+        <f t="shared" si="5"/>
+        <v>1999.4124999999999</v>
+      </c>
+      <c r="N20" s="201">
+        <f t="shared" si="5"/>
+        <v>2143.6999999999998</v>
+      </c>
+      <c r="O20" s="201">
+        <f t="shared" si="5"/>
+        <v>2287.9874999999997</v>
+      </c>
+      <c r="P20" s="201">
+        <f t="shared" si="5"/>
+        <v>2432.2749999999996</v>
+      </c>
+      <c r="Q20" s="201">
+        <f t="shared" si="5"/>
+        <v>2576.5624999999995</v>
+      </c>
+      <c r="R20" s="201">
+        <f t="shared" si="5"/>
+        <v>2720.85</v>
+      </c>
+      <c r="S20" s="201">
+        <f t="shared" si="5"/>
+        <v>2865.1374999999998</v>
+      </c>
+      <c r="T20" s="201">
+        <f t="shared" si="5"/>
+        <v>3009.4249999999997</v>
+      </c>
+      <c r="U20" s="201">
+        <f t="shared" si="5"/>
+        <v>3153.7124999999996</v>
+      </c>
+      <c r="V20" s="201">
+        <f t="shared" si="5"/>
+        <v>3297.9999999999995</v>
+      </c>
+      <c r="W20" s="201">
+        <f t="shared" si="5"/>
+        <v>3442.2874999999995</v>
+      </c>
+      <c r="X20" s="201">
+        <f t="shared" si="5"/>
+        <v>3586.5749999999998</v>
+      </c>
+      <c r="Y20" s="201">
+        <f t="shared" si="5"/>
+        <v>3730.8624999999997</v>
+      </c>
+      <c r="Z20" s="201">
+        <f t="shared" si="5"/>
+        <v>3875.1499999999996</v>
+      </c>
+      <c r="AA20" s="201">
+        <f t="shared" si="5"/>
+        <v>4019.4374999999995</v>
+      </c>
+      <c r="AB20" s="201">
+        <f t="shared" si="5"/>
+        <v>4163.7249999999995</v>
+      </c>
+      <c r="AC20" s="201">
+        <f t="shared" si="5"/>
+        <v>4308.0124999999998</v>
+      </c>
+      <c r="AD20" s="201">
+        <f t="shared" si="5"/>
+        <v>4452.2999999999993</v>
+      </c>
+      <c r="AE20" s="201"/>
+      <c r="AF20" s="201"/>
+      <c r="AG20" s="201"/>
+      <c r="AH20" s="201"/>
+      <c r="AI20" s="201"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" s="200" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="201">
+        <f t="shared" ref="B21:AD21" si="6">B16*$Q$5</f>
+        <v>51</v>
+      </c>
+      <c r="C21" s="201">
+        <f t="shared" si="6"/>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="D21" s="201">
+        <f t="shared" si="6"/>
+        <v>86.7</v>
+      </c>
+      <c r="E21" s="201">
+        <f t="shared" si="6"/>
+        <v>104.55</v>
+      </c>
+      <c r="F21" s="201">
+        <f t="shared" si="6"/>
+        <v>122.4</v>
+      </c>
+      <c r="G21" s="201">
+        <f t="shared" si="6"/>
+        <v>140.25</v>
+      </c>
+      <c r="H21" s="201">
+        <f t="shared" si="6"/>
+        <v>158.1</v>
+      </c>
+      <c r="I21" s="201">
+        <f t="shared" si="6"/>
+        <v>175.95000000000002</v>
+      </c>
+      <c r="J21" s="201">
+        <f t="shared" si="6"/>
+        <v>193.8</v>
+      </c>
+      <c r="K21" s="201">
+        <f t="shared" si="6"/>
+        <v>211.65</v>
+      </c>
+      <c r="L21" s="201">
+        <f t="shared" si="6"/>
+        <v>229.5</v>
+      </c>
+      <c r="M21" s="201">
+        <f t="shared" si="6"/>
+        <v>247.35</v>
+      </c>
+      <c r="N21" s="201">
+        <f t="shared" si="6"/>
+        <v>265.2</v>
+      </c>
+      <c r="O21" s="201">
+        <f t="shared" si="6"/>
+        <v>283.05</v>
+      </c>
+      <c r="P21" s="201">
+        <f t="shared" si="6"/>
+        <v>300.89999999999998</v>
+      </c>
+      <c r="Q21" s="201">
+        <f t="shared" si="6"/>
+        <v>318.75</v>
+      </c>
+      <c r="R21" s="201">
+        <f t="shared" si="6"/>
+        <v>336.6</v>
+      </c>
+      <c r="S21" s="201">
+        <f t="shared" si="6"/>
+        <v>354.45</v>
+      </c>
+      <c r="T21" s="201">
+        <f t="shared" si="6"/>
+        <v>372.3</v>
+      </c>
+      <c r="U21" s="201">
+        <f t="shared" si="6"/>
+        <v>390.15000000000003</v>
+      </c>
+      <c r="V21" s="201">
+        <f t="shared" si="6"/>
+        <v>408</v>
+      </c>
+      <c r="W21" s="201">
+        <f t="shared" si="6"/>
+        <v>425.85</v>
+      </c>
+      <c r="X21" s="201">
+        <f t="shared" si="6"/>
+        <v>443.7</v>
+      </c>
+      <c r="Y21" s="201">
+        <f t="shared" si="6"/>
+        <v>461.55</v>
+      </c>
+      <c r="Z21" s="201">
+        <f t="shared" si="6"/>
+        <v>479.40000000000003</v>
+      </c>
+      <c r="AA21" s="201">
+        <f t="shared" si="6"/>
+        <v>497.25</v>
+      </c>
+      <c r="AB21" s="201">
+        <f t="shared" si="6"/>
+        <v>515.1</v>
+      </c>
+      <c r="AC21" s="201">
+        <f t="shared" si="6"/>
+        <v>532.95000000000005</v>
+      </c>
+      <c r="AD21" s="201">
+        <f t="shared" si="6"/>
+        <v>550.79999999999995</v>
+      </c>
+      <c r="AE21" s="201"/>
+      <c r="AF21" s="201"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="201"/>
+      <c r="AI21" s="201"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="200" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="201">
+        <f t="shared" ref="B22:AD22" si="7">MIN(B$18,$C$4)</f>
+        <v>1274</v>
+      </c>
+      <c r="C22" s="201">
+        <f t="shared" si="7"/>
+        <v>1719.9</v>
+      </c>
+      <c r="D22" s="201">
+        <f t="shared" si="7"/>
+        <v>2165.8000000000002</v>
+      </c>
+      <c r="E22" s="201">
+        <f t="shared" si="7"/>
+        <v>2611.6999999999998</v>
+      </c>
+      <c r="F22" s="201">
+        <f t="shared" si="7"/>
+        <v>3057.6</v>
+      </c>
+      <c r="G22" s="201">
+        <f t="shared" si="7"/>
+        <v>3503.5</v>
+      </c>
+      <c r="H22" s="201">
+        <f t="shared" si="7"/>
+        <v>3949.4</v>
+      </c>
+      <c r="I22" s="201">
+        <f t="shared" si="7"/>
+        <v>4395.3</v>
+      </c>
+      <c r="J22" s="201">
+        <f t="shared" si="7"/>
+        <v>4841.2</v>
+      </c>
+      <c r="K22" s="201">
+        <f t="shared" si="7"/>
+        <v>5287.1</v>
+      </c>
+      <c r="L22" s="201">
+        <f t="shared" si="7"/>
+        <v>5733</v>
+      </c>
+      <c r="M22" s="201">
+        <f t="shared" si="7"/>
+        <v>6178.9000000000005</v>
+      </c>
+      <c r="N22" s="201">
+        <f t="shared" si="7"/>
+        <v>6624.8</v>
+      </c>
+      <c r="O22" s="201">
+        <f t="shared" si="7"/>
+        <v>7070.7</v>
+      </c>
+      <c r="P22" s="201">
+        <f t="shared" si="7"/>
+        <v>7516.6</v>
+      </c>
+      <c r="Q22" s="201">
+        <f t="shared" si="7"/>
+        <v>7962.5</v>
+      </c>
+      <c r="R22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="S22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="T22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="U22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="V22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="W22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="X22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="Y22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="Z22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="AA22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="AB22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="AC22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="AD22" s="201">
+        <f t="shared" si="7"/>
+        <v>8000</v>
+      </c>
+      <c r="AE22" s="201"/>
+      <c r="AF22" s="201"/>
+      <c r="AG22" s="201"/>
+      <c r="AH22" s="201"/>
+      <c r="AI22" s="201"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" s="200" t="s">
+        <v>236</v>
+      </c>
+      <c r="B23" s="201">
+        <f t="shared" ref="B23:AD23" si="8">MIN(B$19,$C$5)</f>
+        <v>488.99999999999994</v>
+      </c>
+      <c r="C23" s="201">
+        <f t="shared" si="8"/>
+        <v>660.15</v>
+      </c>
+      <c r="D23" s="201">
+        <f t="shared" si="8"/>
+        <v>831.3</v>
+      </c>
+      <c r="E23" s="201">
+        <f t="shared" si="8"/>
+        <v>1002.4499999999999</v>
+      </c>
+      <c r="F23" s="201">
+        <f t="shared" si="8"/>
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="G23" s="201">
+        <f t="shared" si="8"/>
+        <v>1344.75</v>
+      </c>
+      <c r="H23" s="201">
+        <f t="shared" si="8"/>
+        <v>1515.8999999999999</v>
+      </c>
+      <c r="I23" s="201">
+        <f t="shared" si="8"/>
+        <v>1687.05</v>
+      </c>
+      <c r="J23" s="201">
+        <f t="shared" si="8"/>
+        <v>1858.1999999999998</v>
+      </c>
+      <c r="K23" s="201">
+        <f t="shared" si="8"/>
+        <v>2029.35</v>
+      </c>
+      <c r="L23" s="201">
+        <f t="shared" si="8"/>
+        <v>2200.5</v>
+      </c>
+      <c r="M23" s="201">
+        <f t="shared" si="8"/>
+        <v>2371.6499999999996</v>
+      </c>
+      <c r="N23" s="201">
+        <f t="shared" si="8"/>
+        <v>2542.7999999999997</v>
+      </c>
+      <c r="O23" s="201">
+        <f t="shared" si="8"/>
+        <v>2713.95</v>
+      </c>
+      <c r="P23" s="201">
+        <f t="shared" si="8"/>
+        <v>2885.1</v>
+      </c>
+      <c r="Q23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="R23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="S23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="T23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="U23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="V23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="W23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="X23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="Y23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="Z23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="AA23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="AB23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="AC23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="AD23" s="201">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="AE23" s="201"/>
+      <c r="AF23" s="201"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="201"/>
+      <c r="AI23" s="201"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" s="200" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="201">
+        <f t="shared" ref="B24:AD24" si="9">MIN(B$20,$C$6)</f>
+        <v>412.24999999999994</v>
+      </c>
+      <c r="C24" s="201">
+        <f t="shared" si="9"/>
+        <v>556.53749999999991</v>
+      </c>
+      <c r="D24" s="201">
+        <f t="shared" si="9"/>
+        <v>700.82499999999993</v>
+      </c>
+      <c r="E24" s="201">
+        <f t="shared" si="9"/>
+        <v>845.11249999999995</v>
+      </c>
+      <c r="F24" s="201">
+        <f t="shared" si="9"/>
+        <v>989.39999999999986</v>
+      </c>
+      <c r="G24" s="201">
+        <f t="shared" si="9"/>
+        <v>1133.6875</v>
+      </c>
+      <c r="H24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="I24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="J24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="K24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="L24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="M24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="N24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="O24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="P24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="Q24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="R24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="S24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="T24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="U24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="V24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="W24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="X24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="Y24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="Z24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="AA24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="AB24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="AC24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="AD24" s="201">
+        <f t="shared" si="9"/>
+        <v>1200</v>
+      </c>
+      <c r="AE24" s="201"/>
+      <c r="AF24" s="201"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="201"/>
+      <c r="AI24" s="201"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" s="200" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="201">
+        <f t="shared" ref="B25:AD25" si="10">MIN(B$21,$C$7)</f>
+        <v>51</v>
+      </c>
+      <c r="C25" s="201">
+        <f t="shared" si="10"/>
+        <v>68.849999999999994</v>
+      </c>
+      <c r="D25" s="201">
+        <f t="shared" si="10"/>
+        <v>86.7</v>
+      </c>
+      <c r="E25" s="201">
+        <f t="shared" si="10"/>
+        <v>104.55</v>
+      </c>
+      <c r="F25" s="201">
+        <f t="shared" si="10"/>
+        <v>122.4</v>
+      </c>
+      <c r="G25" s="201">
+        <f t="shared" si="10"/>
+        <v>140.25</v>
+      </c>
+      <c r="H25" s="201">
+        <f t="shared" si="10"/>
+        <v>158.1</v>
+      </c>
+      <c r="I25" s="201">
+        <f t="shared" si="10"/>
+        <v>175.95000000000002</v>
+      </c>
+      <c r="J25" s="201">
+        <f t="shared" si="10"/>
+        <v>193.8</v>
+      </c>
+      <c r="K25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="L25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="M25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="N25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="O25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="P25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="Q25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="R25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="S25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="T25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="U25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="V25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="W25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="X25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="Y25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="Z25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AA25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AB25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AC25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AD25" s="201">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AE25" s="201"/>
+      <c r="AF25" s="201"/>
+      <c r="AG25" s="201"/>
+      <c r="AH25" s="201"/>
+      <c r="AI25" s="201"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="203">
+        <f>IF(B22&gt;$B$4,(B22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="203">
+        <v>0</v>
+      </c>
+      <c r="D26" s="203">
+        <f>IF(D22&gt;$B$4,(D22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="203">
+        <v>0</v>
+      </c>
+      <c r="F26" s="203">
+        <f>IF(F22&gt;$B$4,(F22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="203">
+        <v>0</v>
+      </c>
+      <c r="H26" s="203">
+        <f>IF(H22&gt;$B$4,(H22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="203">
+        <v>0</v>
+      </c>
+      <c r="J26" s="203">
+        <f>IF(J22&gt;$B$4,(J22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="203">
+        <v>0</v>
+      </c>
+      <c r="L26" s="203">
+        <f>IF(L22&gt;$B$4,(L22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="203">
+        <v>0</v>
+      </c>
+      <c r="N26" s="203">
+        <f>IF(N22&gt;$B$4,(N22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="203">
+        <v>0</v>
+      </c>
+      <c r="P26" s="203">
+        <f>IF(P22&gt;$B$4,(P22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="203">
+        <v>0</v>
+      </c>
+      <c r="R26" s="203">
+        <f>IF(R22&gt;$B$4,(R22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="203">
+        <v>0</v>
+      </c>
+      <c r="T26" s="203">
+        <f>IF(T22&gt;$B$4,(T22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="203">
+        <v>0</v>
+      </c>
+      <c r="V26" s="203">
+        <f>IF(V22&gt;$B$4,(V22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="203">
+        <v>0</v>
+      </c>
+      <c r="X26" s="203">
+        <f>IF(X22&gt;$B$4,(X22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="203">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="203">
+        <f>IF(Z22&gt;$B$4,(Z22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="203">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="203">
+        <f>IF(AB22&gt;$B$4,(AB22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="203">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="203">
+        <f>IF(AD22&gt;$B$4,(AD22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="203">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="203">
+        <f>IF(AF22&gt;$B$4,(AF22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="203">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="203">
+        <f>IF(AH22&gt;$B$4,(AH22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="203">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="203">
+        <f>IF(AJ22&gt;$B$4,(AJ22-$B$4)*$H$4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK26" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27" s="202" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="203">
+        <f>IF(B23&gt;$B$5,(B23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="203">
+        <v>0</v>
+      </c>
+      <c r="D27" s="203">
+        <f>IF(D23&gt;$B$5,(D23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="203">
+        <v>0</v>
+      </c>
+      <c r="F27" s="203">
+        <f>IF(F23&gt;$B$5,(F23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="203">
+        <v>0</v>
+      </c>
+      <c r="H27" s="203">
+        <f>IF(H23&gt;$B$5,(H23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="203">
+        <v>0</v>
+      </c>
+      <c r="J27" s="203">
+        <f>IF(J23&gt;$B$5,(J23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="203">
+        <v>0</v>
+      </c>
+      <c r="L27" s="203">
+        <f>IF(L23&gt;$B$5,(L23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="203">
+        <v>0</v>
+      </c>
+      <c r="N27" s="203">
+        <f>IF(N23&gt;$B$5,(N23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="203">
+        <v>0</v>
+      </c>
+      <c r="P27" s="203">
+        <f>IF(P23&gt;$B$5,(P23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="203">
+        <v>0</v>
+      </c>
+      <c r="R27" s="203">
+        <f>IF(R23&gt;$B$5,(R23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="203">
+        <v>0</v>
+      </c>
+      <c r="T27" s="203">
+        <f>IF(T23&gt;$B$5,(T23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="203">
+        <v>0</v>
+      </c>
+      <c r="V27" s="203">
+        <f>IF(V23&gt;$B$5,(V23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="203">
+        <v>0</v>
+      </c>
+      <c r="X27" s="203">
+        <f>IF(X23&gt;$B$5,(X23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="203">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="203">
+        <f>IF(Z23&gt;$B$5,(Z23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="203">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="203">
+        <f>IF(AB23&gt;$B$5,(AB23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="203">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="203">
+        <f>IF(AD23&gt;$B$5,(AD23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="203">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="203">
+        <f>IF(AF23&gt;$B$5,(AF23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="203">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="203">
+        <f>IF(AH23&gt;$B$5,(AH23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="203">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="203">
+        <f>IF(AJ23&gt;$B$5,(AJ23-$B$5)*$H$5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK27" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A28" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="203">
+        <f>IF(B24&gt;$B$6,(B24-$B$6)*$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="203">
+        <v>0</v>
+      </c>
+      <c r="D28" s="203">
+        <f>IF(D24&gt;$B$6,(D24-$B$6)*$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="203">
+        <v>0</v>
+      </c>
+      <c r="F28" s="203">
+        <f>IF(F24&gt;$B$6,(F24-$B$6)*$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="203">
+        <v>0</v>
+      </c>
+      <c r="H28" s="203">
+        <f>IF(H24&gt;$B$6,(H24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="I28" s="203">
+        <v>0</v>
+      </c>
+      <c r="J28" s="203">
+        <f>IF(J24&gt;$B$6,(J24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="K28" s="203">
+        <v>0</v>
+      </c>
+      <c r="L28" s="203">
+        <f>IF(L24&gt;$B$6,(L24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="M28" s="203">
+        <v>0</v>
+      </c>
+      <c r="N28" s="203">
+        <f>IF(N24&gt;$B$6,(N24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="O28" s="203">
+        <v>0</v>
+      </c>
+      <c r="P28" s="203">
+        <f>IF(P24&gt;$B$6,(P24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="Q28" s="203">
+        <v>0</v>
+      </c>
+      <c r="R28" s="203">
+        <f>IF(R24&gt;$B$6,(R24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="S28" s="203">
+        <v>0</v>
+      </c>
+      <c r="T28" s="203">
+        <f>IF(T24&gt;$B$6,(T24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="U28" s="203">
+        <v>0</v>
+      </c>
+      <c r="V28" s="203">
+        <f>IF(V24&gt;$B$6,(V24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="W28" s="203">
+        <v>0</v>
+      </c>
+      <c r="X28" s="203">
+        <f>IF(X24&gt;$B$6,(X24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="Y28" s="203">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="203">
+        <f>IF(Z24&gt;$B$6,(Z24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="AA28" s="203">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="203">
+        <f>IF(AB24&gt;$B$6,(AB24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="AC28" s="203">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="203">
+        <f>IF(AD24&gt;$B$6,(AD24-$B$6)*$H$6,0)</f>
+        <v>3800</v>
+      </c>
+      <c r="AE28" s="203">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="203">
+        <f>IF(AF24&gt;$B$6,(AF24-$B$6)*$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="203">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="203">
+        <f>IF(AH24&gt;$B$6,(AH24-$B$6)*$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="203">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="203">
+        <f>IF(AJ24&gt;$B$6,(AJ24-$B$6)*$H$6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK28" s="203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="202" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="203">
+        <f>IF(B25&gt;$B$7,(B25-$B$7)*$H$7,0)</f>
+        <v>1785</v>
+      </c>
+      <c r="C29" s="203">
+        <v>0</v>
+      </c>
+      <c r="D29" s="203">
+        <f>IF(D25&gt;$B$7,(D25-$B$7)*$H$7,0)</f>
+        <v>3034.5</v>
+      </c>
+      <c r="E29" s="203">
+        <v>0</v>
+      </c>
+      <c r="F29" s="203">
+        <f>IF(F25&gt;$B$7,(F25-$B$7)*$H$7,0)</f>
+        <v>4284</v>
+      </c>
+      <c r="G29" s="203">
+        <v>0</v>
+      </c>
+      <c r="H29" s="203">
+        <f>IF(H25&gt;$B$7,(H25-$B$7)*$H$7,0)</f>
+        <v>5533.5</v>
+      </c>
+      <c r="I29" s="203">
+        <v>0</v>
+      </c>
+      <c r="J29" s="203">
+        <f>IF(J25&gt;$B$7,(J25-$B$7)*$H$7,0)</f>
+        <v>6783</v>
+      </c>
+      <c r="K29" s="203">
+        <v>0</v>
+      </c>
+      <c r="L29" s="203">
+        <f>IF(L25&gt;$B$7,(L25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="M29" s="203">
+        <v>0</v>
+      </c>
+      <c r="N29" s="203">
+        <f>IF(N25&gt;$B$7,(N25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="O29" s="203">
+        <v>0</v>
+      </c>
+      <c r="P29" s="203">
+        <f>IF(P25&gt;$B$7,(P25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="Q29" s="203">
+        <v>0</v>
+      </c>
+      <c r="R29" s="203">
+        <f>IF(R25&gt;$B$7,(R25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="S29" s="203">
+        <v>0</v>
+      </c>
+      <c r="T29" s="203">
+        <f>IF(T25&gt;$B$7,(T25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="U29" s="203">
+        <v>0</v>
+      </c>
+      <c r="V29" s="203">
+        <f>IF(V25&gt;$B$7,(V25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="W29" s="203">
+        <v>0</v>
+      </c>
+      <c r="X29" s="203">
+        <f>IF(X25&gt;$B$7,(X25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="Y29" s="203">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="203">
+        <f>IF(Z25&gt;$B$7,(Z25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="AA29" s="203">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="203">
+        <f>IF(AB25&gt;$B$7,(AB25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="AC29" s="203">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="203">
+        <f>IF(AD25&gt;$B$7,(AD25-$B$7)*$H$7,0)</f>
+        <v>7000</v>
+      </c>
+      <c r="AE29" s="203">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="203">
+        <f>IF(AF25&gt;$B$7,(AF25-$B$7)*$H$7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="203">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="203">
+        <f>IF(AH25&gt;$B$7,(AH25-$B$7)*$H$7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="203">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="203">
+        <f>IF(AJ25&gt;$B$7,(AJ25-$B$7)*$H$7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AK29" s="203">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="204"/>
+      <c r="AM29" s="204"/>
+      <c r="AN29" s="204"/>
+      <c r="AO29" s="204"/>
+      <c r="AP29" s="204"/>
+      <c r="AQ29" s="204"/>
+      <c r="AR29" s="204"/>
+      <c r="AS29" s="204"/>
+      <c r="AT29" s="204"/>
+      <c r="AU29" s="204"/>
+      <c r="AV29" s="204"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A30" s="205" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="206">
+        <f>G4+G5+G6+G7</f>
+        <v>700</v>
+      </c>
+      <c r="C30" s="206">
+        <f t="shared" ref="C30:AD30" si="11">B30</f>
+        <v>700</v>
+      </c>
+      <c r="D30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="E30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="F30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="G30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="H30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="I30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="J30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="K30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="L30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="M30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="N30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="O30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="P30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="Q30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="R30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="S30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="T30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="U30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="V30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="W30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="X30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="Y30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="Z30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="AA30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="AB30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="AC30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="AD30" s="206">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="AE30" s="206"/>
+      <c r="AF30" s="206"/>
+      <c r="AG30" s="206"/>
+      <c r="AH30" s="206"/>
+      <c r="AI30" s="206"/>
+      <c r="AJ30" s="204"/>
+      <c r="AK30" s="204"/>
+      <c r="AL30" s="204"/>
+      <c r="AM30" s="204"/>
+      <c r="AN30" s="204"/>
+      <c r="AO30" s="204"/>
+      <c r="AP30" s="204"/>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="204"/>
+      <c r="AS30" s="204"/>
+      <c r="AT30" s="204"/>
+      <c r="AU30" s="204"/>
+      <c r="AV30" s="204"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A31" s="207" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="208">
+        <f t="shared" ref="B31:AD31" si="12">B26+B27+B28+B29-B30</f>
+        <v>1085</v>
+      </c>
+      <c r="C31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="D31" s="208">
+        <f t="shared" si="12"/>
+        <v>2334.5</v>
+      </c>
+      <c r="E31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="F31" s="208">
+        <f t="shared" si="12"/>
+        <v>3584</v>
+      </c>
+      <c r="G31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="H31" s="208">
+        <f t="shared" si="12"/>
+        <v>8633.5</v>
+      </c>
+      <c r="I31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="J31" s="208">
+        <f t="shared" si="12"/>
+        <v>9883</v>
+      </c>
+      <c r="K31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="L31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="M31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="N31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="O31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="P31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="Q31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="R31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="S31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="T31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="U31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="V31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="W31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="X31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="Y31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="Z31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="AA31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="AB31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="AC31" s="208">
+        <f t="shared" si="12"/>
+        <v>-700</v>
+      </c>
+      <c r="AD31" s="208">
+        <f t="shared" si="12"/>
+        <v>10100</v>
+      </c>
+      <c r="AE31" s="208"/>
+      <c r="AF31" s="208"/>
+      <c r="AG31" s="208"/>
+      <c r="AH31" s="208"/>
+      <c r="AI31" s="208"/>
+      <c r="AJ31" s="209"/>
+      <c r="AK31" s="209"/>
+      <c r="AL31" s="209"/>
+      <c r="AM31" s="209"/>
+      <c r="AN31" s="209"/>
+      <c r="AO31" s="209"/>
+      <c r="AP31" s="209"/>
+      <c r="AQ31" s="209"/>
+      <c r="AR31" s="209"/>
+      <c r="AS31" s="209"/>
+      <c r="AT31" s="209"/>
+      <c r="AU31" s="209"/>
+      <c r="AV31" s="209"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A32" s="210" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="208">
+        <f>-B12-B11+B31</f>
+        <v>-86915</v>
+      </c>
+      <c r="C32" s="208">
+        <f t="shared" ref="C32:AD32" si="13">B32+C31</f>
+        <v>-87615</v>
+      </c>
+      <c r="D32" s="208">
+        <f t="shared" si="13"/>
+        <v>-85280.5</v>
+      </c>
+      <c r="E32" s="208">
+        <f t="shared" si="13"/>
+        <v>-85980.5</v>
+      </c>
+      <c r="F32" s="208">
+        <f t="shared" si="13"/>
+        <v>-82396.5</v>
+      </c>
+      <c r="G32" s="208">
+        <f t="shared" si="13"/>
+        <v>-83096.5</v>
+      </c>
+      <c r="H32" s="208">
+        <f t="shared" si="13"/>
+        <v>-74463</v>
+      </c>
+      <c r="I32" s="208">
+        <f t="shared" si="13"/>
+        <v>-75163</v>
+      </c>
+      <c r="J32" s="208">
+        <f t="shared" si="13"/>
+        <v>-65280</v>
+      </c>
+      <c r="K32" s="208">
+        <f t="shared" si="13"/>
+        <v>-65980</v>
+      </c>
+      <c r="L32" s="208">
+        <f t="shared" si="13"/>
+        <v>-55880</v>
+      </c>
+      <c r="M32" s="208">
+        <f t="shared" si="13"/>
+        <v>-56580</v>
+      </c>
+      <c r="N32" s="208">
+        <f t="shared" si="13"/>
+        <v>-46480</v>
+      </c>
+      <c r="O32" s="208">
+        <f t="shared" si="13"/>
+        <v>-47180</v>
+      </c>
+      <c r="P32" s="208">
+        <f t="shared" si="13"/>
+        <v>-37080</v>
+      </c>
+      <c r="Q32" s="208">
+        <f t="shared" si="13"/>
+        <v>-37780</v>
+      </c>
+      <c r="R32" s="208">
+        <f t="shared" si="13"/>
+        <v>-27680</v>
+      </c>
+      <c r="S32" s="208">
+        <f t="shared" si="13"/>
+        <v>-28380</v>
+      </c>
+      <c r="T32" s="208">
+        <f t="shared" si="13"/>
+        <v>-18280</v>
+      </c>
+      <c r="U32" s="208">
+        <f t="shared" si="13"/>
+        <v>-18980</v>
+      </c>
+      <c r="V32" s="208">
+        <f t="shared" si="13"/>
+        <v>-8880</v>
+      </c>
+      <c r="W32" s="208">
+        <f t="shared" si="13"/>
+        <v>-9580</v>
+      </c>
+      <c r="X32" s="208">
+        <f t="shared" si="13"/>
+        <v>520</v>
+      </c>
+      <c r="Y32" s="208">
+        <f t="shared" si="13"/>
+        <v>-180</v>
+      </c>
+      <c r="Z32" s="208">
+        <f t="shared" si="13"/>
+        <v>9920</v>
+      </c>
+      <c r="AA32" s="208">
+        <f t="shared" si="13"/>
+        <v>9220</v>
+      </c>
+      <c r="AB32" s="208">
+        <f t="shared" si="13"/>
+        <v>19320</v>
+      </c>
+      <c r="AC32" s="208">
+        <f t="shared" si="13"/>
+        <v>18620</v>
+      </c>
+      <c r="AD32" s="208">
+        <f t="shared" si="13"/>
+        <v>28720</v>
+      </c>
+      <c r="AE32" s="208"/>
+      <c r="AF32" s="208"/>
+      <c r="AG32" s="208"/>
+      <c r="AH32" s="208"/>
+      <c r="AI32" s="208"/>
+      <c r="AJ32" s="209"/>
+      <c r="AK32" s="209"/>
+      <c r="AL32" s="209"/>
+      <c r="AM32" s="209"/>
+      <c r="AN32" s="209"/>
+      <c r="AO32" s="209"/>
+      <c r="AP32" s="209"/>
+      <c r="AQ32" s="209"/>
+      <c r="AR32" s="209"/>
+      <c r="AS32" s="209"/>
+      <c r="AT32" s="209"/>
+      <c r="AU32" s="209"/>
+      <c r="AV32" s="209"/>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B33" s="191">
+        <f t="shared" ref="B33:AD33" si="14">B32/$B$13</f>
+        <v>-0.98767045454545455</v>
+      </c>
+      <c r="C33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.99562499999999998</v>
+      </c>
+      <c r="D33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.96909659090909095</v>
+      </c>
+      <c r="E33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.97705113636363639</v>
+      </c>
+      <c r="F33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.93632386363636366</v>
+      </c>
+      <c r="G33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.9442784090909091</v>
+      </c>
+      <c r="H33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.84617045454545459</v>
+      </c>
+      <c r="I33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.85412500000000002</v>
+      </c>
+      <c r="J33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.74181818181818182</v>
+      </c>
+      <c r="K33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.74977272727272726</v>
+      </c>
+      <c r="L33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.63500000000000001</v>
+      </c>
+      <c r="M33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.64295454545454545</v>
+      </c>
+      <c r="N33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.5281818181818182</v>
+      </c>
+      <c r="O33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.53613636363636363</v>
+      </c>
+      <c r="P33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.42136363636363638</v>
+      </c>
+      <c r="Q33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.42931818181818182</v>
+      </c>
+      <c r="R33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.31454545454545457</v>
+      </c>
+      <c r="S33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.32250000000000001</v>
+      </c>
+      <c r="T33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.20772727272727273</v>
+      </c>
+      <c r="U33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.21568181818181817</v>
+      </c>
+      <c r="V33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.10090909090909091</v>
+      </c>
+      <c r="W33" s="191">
+        <f t="shared" si="14"/>
+        <v>-0.10886363636363636</v>
+      </c>
+      <c r="X33" s="191">
+        <f t="shared" si="14"/>
+        <v>5.909090909090909E-3</v>
+      </c>
+      <c r="Y33" s="191">
+        <f t="shared" si="14"/>
+        <v>-2.0454545454545456E-3</v>
+      </c>
+      <c r="Z33" s="191">
+        <f t="shared" si="14"/>
+        <v>0.11272727272727273</v>
+      </c>
+      <c r="AA33" s="191">
+        <f t="shared" si="14"/>
+        <v>0.10477272727272727</v>
+      </c>
+      <c r="AB33" s="191">
+        <f t="shared" si="14"/>
+        <v>0.21954545454545454</v>
+      </c>
+      <c r="AC33" s="191">
+        <f t="shared" si="14"/>
+        <v>0.21159090909090908</v>
+      </c>
+      <c r="AD33" s="191">
+        <f t="shared" si="14"/>
+        <v>0.32636363636363636</v>
+      </c>
+      <c r="AE33" s="191"/>
+      <c r="AF33" s="191"/>
+      <c r="AG33" s="191"/>
+      <c r="AH33" s="191"/>
+      <c r="AI33" s="191"/>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K36" s="191"/>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K37" s="191"/>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K38" s="191"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="K39" s="191"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B32:AD32">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaac\Desktop\HI\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BF16FA-BE8C-4461-9CD8-E838BD36D160}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Economia" sheetId="5" r:id="rId3"/>
     <sheet name="Ahch-To" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,13 +27,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>PORTA Isaac</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="1" shapeId="0" xr:uid="{5F5FBB7C-9A44-4F51-8E00-26EF4501232A}">
+    <comment ref="D4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{853D8B00-B468-4B6D-91E1-791BF8806284}">
+    <comment ref="D10" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="1" shapeId="0" xr:uid="{3A79AA26-FF11-401F-A346-6EC52C638541}">
+    <comment ref="D11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,12 +91,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{B80BB05B-F8E8-4772-ADA7-1483B4A370E0}">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{CA433500-5369-4CA6-91B8-D744E7A0D910}">
+    <comment ref="H10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{238AD516-FB1C-4D2A-AC4C-CE0A90C49059}">
+    <comment ref="G16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{4C919404-28D1-41CC-890C-16AB172A4F3E}">
+    <comment ref="H19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="288">
   <si>
     <t>Nfin</t>
   </si>
@@ -1050,12 +1049,24 @@
   </si>
   <si>
     <t>Cash Incial</t>
+  </si>
+  <si>
+    <t>B. Corominola</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>Tugores &gt; Aloy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0\ %"/>
@@ -1471,7 +1482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1748,6 +1759,12 @@
         <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF639A3F"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -1994,7 +2011,7 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2606,65 +2623,11 @@
     <xf numFmtId="0" fontId="49" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2737,44 +2700,125 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="170" fontId="2" fillId="45" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="2" fillId="46" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="169" fontId="24" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="46" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="25" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="11" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="47" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Excel Built-in Normal" xfId="4"/>
     <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percentatge" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -3009,7 +3053,7 @@
         <xdr:cNvPr id="1026" name="_x0000_t202" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACACD911-8FAD-4607-BE90-6C645A499BB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACACD911-8FAD-4607-BE90-6C645A499BB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3102,7 @@
         <xdr:cNvPr id="2" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3A2B86-3764-46E6-B5FF-CD9D32C97A4C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3A2B86-3764-46E6-B5FF-CD9D32C97A4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3112,7 +3156,7 @@
         <xdr:cNvPr id="3" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A359054-B895-4C72-9CCF-ABF4795C5031}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A359054-B895-4C72-9CCF-ABF4795C5031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,7 +3210,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3CE7BB-0A37-43B3-AD67-C0D721059C9A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C3CE7BB-0A37-43B3-AD67-C0D721059C9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3220,7 +3264,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B8826-9902-44AB-906C-006075018019}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636B8826-9902-44AB-906C-006075018019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3274,7 +3318,7 @@
         <xdr:cNvPr id="6" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C6FC24-5190-4275-B063-834F7156AF27}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C6FC24-5190-4275-B063-834F7156AF27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3372,7 @@
         <xdr:cNvPr id="7" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16452755-856A-41A0-8D87-EA7C0C929250}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16452755-856A-41A0-8D87-EA7C0C929250}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3426,7 @@
         <xdr:cNvPr id="8" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7332F424-7CD8-4931-B586-CD61E5B9FF08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7332F424-7CD8-4931-B586-CD61E5B9FF08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3480,7 @@
         <xdr:cNvPr id="9" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D205D84-B99F-48F2-B3AD-39A7AC457C85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D205D84-B99F-48F2-B3AD-39A7AC457C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3534,7 @@
         <xdr:cNvPr id="10" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18021C76-9602-4A25-9BFE-8EDBB712187B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18021C76-9602-4A25-9BFE-8EDBB712187B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3825,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3838,7 +3882,7 @@
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
@@ -3888,13 +3932,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43644</v>
-      </c>
-      <c r="E1" s="267">
+        <v>43646</v>
+      </c>
+      <c r="E1" s="318">
         <v>43637</v>
       </c>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -4190,7 +4234,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C22" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.660714285714285</v>
+        <v>17.642857142857142</v>
       </c>
       <c r="D4" s="220" t="s">
         <v>54</v>
@@ -4200,7 +4244,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -4372,7 +4416,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.8482142857142865</v>
+        <v>8.8303571428571423</v>
       </c>
       <c r="D5" s="219" t="s">
         <v>62</v>
@@ -4382,7 +4426,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -4556,7 +4600,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.741071428571429</v>
+        <v>14.723214285714286</v>
       </c>
       <c r="D6" s="219" t="s">
         <v>59</v>
@@ -4566,7 +4610,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -4740,7 +4784,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.785714285714285</v>
+        <v>17.767857142857142</v>
       </c>
       <c r="D7" s="219" t="s">
         <v>64</v>
@@ -4750,7 +4794,7 @@
       </c>
       <c r="F7" s="51">
         <f ca="1">$D$1-43620</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="37">
@@ -4920,7 +4964,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9464285714285716</v>
+        <v>3.9285714285714284</v>
       </c>
       <c r="D8" s="219" t="s">
         <v>67</v>
@@ -4930,7 +4974,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -5100,7 +5144,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4017857142857135</v>
+        <v>9.3839285714285712</v>
       </c>
       <c r="D9" s="200" t="s">
         <v>69</v>
@@ -5110,7 +5154,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="30">
@@ -5280,7 +5324,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.375</v>
+        <v>7.3571428571428568</v>
       </c>
       <c r="D10" s="266" t="s">
         <v>71</v>
@@ -5290,7 +5334,7 @@
       </c>
       <c r="F10" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -5460,7 +5504,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.125</v>
+        <v>5.1071428571428568</v>
       </c>
       <c r="D11" s="266" t="s">
         <v>73</v>
@@ -5470,7 +5514,7 @@
       </c>
       <c r="F11" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="37">
@@ -5640,7 +5684,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.8125</v>
+        <v>10.794642857142858</v>
       </c>
       <c r="D12" s="200" t="s">
         <v>76</v>
@@ -5650,7 +5694,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>77</v>
@@ -5822,7 +5866,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.151785714285714</v>
+        <v>14.133928571428571</v>
       </c>
       <c r="D13" s="219" t="s">
         <v>79</v>
@@ -5832,7 +5876,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -6002,7 +6046,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.464285714285715</v>
+        <v>16.446428571428573</v>
       </c>
       <c r="D14" s="219" t="s">
         <v>81</v>
@@ -6012,7 +6056,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -6182,7 +6226,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.910714285714286</v>
+        <v>12.892857142857142</v>
       </c>
       <c r="D15" s="219" t="s">
         <v>83</v>
@@ -6192,7 +6236,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -6362,7 +6406,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.928571428571429</v>
+        <v>11.910714285714286</v>
       </c>
       <c r="D16" s="219" t="s">
         <v>85</v>
@@ -6372,7 +6416,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="37">
@@ -6542,7 +6586,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8928571428571423</v>
+        <v>8.875</v>
       </c>
       <c r="D17" s="219" t="s">
         <v>87</v>
@@ -6552,7 +6596,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>88</v>
@@ -6724,7 +6768,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.142857142857142</v>
+        <v>15.125</v>
       </c>
       <c r="D18" s="219" t="s">
         <v>91</v>
@@ -6734,7 +6778,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -6904,7 +6948,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.303571428571429</v>
+        <v>13.285714285714286</v>
       </c>
       <c r="D19" s="219" t="s">
         <v>93</v>
@@ -6914,7 +6958,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -7084,7 +7128,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.892857142857142</v>
+        <v>17.875</v>
       </c>
       <c r="D20" s="219" t="s">
         <v>96</v>
@@ -7094,7 +7138,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -7264,7 +7308,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9375</v>
+        <v>2.9196428571428572</v>
       </c>
       <c r="D21" s="219" t="s">
         <v>98</v>
@@ -7274,7 +7318,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -7444,7 +7488,7 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9910714285714288</v>
+        <v>9.9732142857142865</v>
       </c>
       <c r="D22" s="219" t="s">
         <v>100</v>
@@ -7454,7 +7498,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="37">
@@ -8240,23 +8284,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AM32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" customWidth="1"/>
     <col min="4" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="62" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" customWidth="1"/>
     <col min="9" max="9" width="5.85546875" customWidth="1"/>
@@ -8276,27 +8320,28 @@
     <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.7109375" style="62" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="4" style="62" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" style="62" customWidth="1"/>
-    <col min="32" max="32" width="5.140625" style="62" customWidth="1"/>
-    <col min="33" max="33" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.7109375" customWidth="1"/>
-    <col min="35" max="35" width="4.85546875" customWidth="1"/>
-    <col min="36" max="36" width="6.85546875" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="62" customWidth="1"/>
+    <col min="30" max="32" width="4" style="62" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" style="62" customWidth="1"/>
+    <col min="34" max="34" width="5.140625" style="62" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.7109375" customWidth="1"/>
     <col min="37" max="37" width="4.85546875" customWidth="1"/>
-    <col min="38" max="38" width="4.42578125" customWidth="1"/>
-    <col min="39" max="39" width="5.140625" customWidth="1"/>
-    <col min="40" max="1023" width="10.7109375" customWidth="1"/>
+    <col min="38" max="38" width="6.85546875" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" customWidth="1"/>
+    <col min="40" max="40" width="4.42578125" customWidth="1"/>
+    <col min="41" max="41" width="5.140625" customWidth="1"/>
+    <col min="42" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="268" t="s">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="319" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -8320,19 +8365,21 @@
       <c r="Z1" s="107"/>
       <c r="AA1" s="107"/>
       <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
+      <c r="AC1" s="315"/>
       <c r="AD1" s="107"/>
       <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="109"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="107"/>
       <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
+      <c r="AI1" s="109"/>
       <c r="AJ1" s="107"/>
       <c r="AK1" s="107"/>
       <c r="AL1" s="107"/>
       <c r="AM1" s="107"/>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>171</v>
       </c>
@@ -8369,15 +8416,17 @@
       <c r="AD2" s="111"/>
       <c r="AE2" s="111"/>
       <c r="AF2" s="111"/>
-      <c r="AG2" s="112"/>
+      <c r="AG2" s="111"/>
       <c r="AH2" s="111"/>
-      <c r="AI2" s="111"/>
+      <c r="AI2" s="112"/>
       <c r="AJ2" s="111"/>
       <c r="AK2" s="111"/>
       <c r="AL2" s="111"/>
       <c r="AM2" s="111"/>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
@@ -8463,551 +8512,570 @@
         <v>166</v>
       </c>
       <c r="AC3" s="111" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD3" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" s="111" t="s">
+      <c r="AE3" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="AE3" s="111" t="s">
+      <c r="AF3" s="111" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="AF3" s="111" t="s">
+      <c r="AH3" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="AG3" s="112" t="s">
+      <c r="AI3" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="AH3" s="111" t="s">
+      <c r="AJ3" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="AI3" s="111" t="s">
+      <c r="AK3" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="AJ3" s="111" t="s">
+      <c r="AL3" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="AK3" s="111" t="s">
+      <c r="AM3" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="AL3" s="111" t="s">
+      <c r="AN3" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="AM3" s="111" t="s">
+      <c r="AO3" s="111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A4" s="269" t="s">
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="128">
+        <v>15</v>
+      </c>
+      <c r="C4" s="129">
+        <f ca="1">3+$A$29-$A$31</f>
+        <v>12</v>
+      </c>
+      <c r="D4" s="130"/>
+      <c r="E4" s="201">
+        <f ca="1">F4-TODAY()</f>
+        <v>212</v>
+      </c>
+      <c r="F4" s="218">
+        <v>43858</v>
+      </c>
+      <c r="G4" s="202"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="349"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="131"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="205">
+        <v>3.99</v>
+      </c>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="207">
+        <v>5.99</v>
+      </c>
+      <c r="R4" s="131"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="203"/>
+      <c r="V4" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="W4" s="211"/>
+      <c r="X4" s="211">
+        <f>COUNT(I4,K4,M4,O4,Q4,S4,U4)</f>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="132">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="211">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="213"/>
+      <c r="AB4" s="214"/>
+      <c r="AC4" s="214"/>
+      <c r="AD4" s="214"/>
+      <c r="AE4" s="214"/>
+      <c r="AF4" s="214">
+        <v>2.5</v>
+      </c>
+      <c r="AG4" s="214">
+        <v>3</v>
+      </c>
+      <c r="AH4" s="215"/>
+      <c r="AI4" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="217"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="141" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="128">
+        <v>16</v>
+      </c>
+      <c r="C5" s="129">
+        <f ca="1">6+$A$29-$A$31</f>
+        <v>15</v>
+      </c>
+      <c r="D5" s="134"/>
+      <c r="E5" s="201">
+        <f ca="1">F5-TODAY()</f>
+        <v>111</v>
+      </c>
+      <c r="F5" s="218">
+        <v>43757</v>
+      </c>
+      <c r="G5" s="202"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="350"/>
+      <c r="K5" s="348">
+        <v>6.99</v>
+      </c>
+      <c r="L5" s="346">
+        <v>4</v>
+      </c>
+      <c r="M5" s="347">
+        <v>4.99</v>
+      </c>
+      <c r="N5" s="136"/>
+      <c r="O5" s="204"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="204"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="204"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="204"/>
+      <c r="V5" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="W5" s="212"/>
+      <c r="X5" s="211">
+        <f t="shared" ref="X5" si="0">COUNT(I5,K5,M5,O5,Q5,S5,U5)</f>
+        <v>2</v>
+      </c>
+      <c r="Y5" s="132">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="211">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="213"/>
+      <c r="AB5" s="214"/>
+      <c r="AC5" s="214"/>
+      <c r="AD5" s="214"/>
+      <c r="AE5" s="214"/>
+      <c r="AF5" s="214">
+        <v>5.5</v>
+      </c>
+      <c r="AG5" s="214"/>
+      <c r="AH5" s="215"/>
+      <c r="AI5" s="216"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="212"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="320" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="269"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="117"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="115"/>
-      <c r="AM4" s="115"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="118" t="s">
+      <c r="B6" s="320"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="320"/>
+      <c r="E6" s="320"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="316"/>
+      <c r="AD6" s="115"/>
+      <c r="AE6" s="115"/>
+      <c r="AF6" s="316"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="115"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="115"/>
+      <c r="AL6" s="115"/>
+      <c r="AM6" s="115"/>
+      <c r="AN6" s="115"/>
+      <c r="AO6" s="115"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="118" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="119"/>
-      <c r="W5" s="119"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="119"/>
-      <c r="AA5" s="119"/>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="119"/>
-      <c r="AD5" s="119"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="119"/>
-      <c r="AG5" s="120"/>
-      <c r="AH5" s="119"/>
-      <c r="AI5" s="119"/>
-      <c r="AJ5" s="119"/>
-      <c r="AK5" s="119"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="119"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="119"/>
+      <c r="W7" s="119"/>
+      <c r="X7" s="119"/>
+      <c r="Y7" s="119"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="119"/>
+      <c r="AC7" s="119"/>
+      <c r="AD7" s="119"/>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+      <c r="AH7" s="119"/>
+      <c r="AI7" s="120"/>
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="119"/>
+      <c r="AL7" s="119"/>
+      <c r="AM7" s="119"/>
+      <c r="AN7" s="119"/>
+      <c r="AO7" s="119"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B8" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C8" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D8" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E8" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="F6" s="118" t="str">
+      <c r="F8" s="118" t="str">
         <f>F3</f>
         <v>Fpromo</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G8" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H8" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="118" t="s">
+      <c r="I8" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="121" t="s">
+      <c r="J8" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="K6" s="121" t="s">
+      <c r="K8" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="118" t="s">
+      <c r="L8" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="M6" s="118" t="s">
+      <c r="M8" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="121" t="s">
+      <c r="N8" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="121" t="s">
+      <c r="O8" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="118" t="s">
+      <c r="P8" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="118" t="s">
+      <c r="Q8" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="121" t="s">
+      <c r="R8" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="S6" s="121" t="s">
+      <c r="S8" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="118" t="s">
+      <c r="T8" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="U6" s="118" t="s">
+      <c r="U8" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="119" t="str">
+      <c r="V8" s="119" t="str">
         <f>V3</f>
         <v>U20</v>
       </c>
-      <c r="W6" s="119" t="str">
+      <c r="W8" s="119" t="str">
         <f>W3</f>
         <v>HTMS</v>
       </c>
-      <c r="X6" s="119" t="str">
+      <c r="X8" s="119" t="str">
         <f>X3</f>
         <v>Pot</v>
       </c>
-      <c r="Y6" s="119" t="str">
+      <c r="Y8" s="119" t="str">
         <f>Y3</f>
         <v>Cap</v>
       </c>
-      <c r="Z6" s="119" t="s">
+      <c r="Z8" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="AA6" s="119" t="s">
+      <c r="AA8" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AB6" s="119" t="s">
+      <c r="AB8" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="AC6" s="119" t="s">
+      <c r="AC8" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD8" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="AD6" s="119" t="s">
+      <c r="AE8" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="AE6" s="119" t="s">
+      <c r="AF8" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG8" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="AF6" s="119" t="s">
+      <c r="AH8" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="AG6" s="120" t="str">
-        <f>AG3</f>
+      <c r="AI8" s="120" t="str">
+        <f>AI3</f>
         <v>Ca</v>
       </c>
-      <c r="AH6" s="119" t="s">
+      <c r="AJ8" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AI6" s="119" t="s">
+      <c r="AK8" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="AJ6" s="119" t="s">
+      <c r="AL8" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="AK6" s="119" t="s">
+      <c r="AM8" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="AL6" s="119" t="s">
+      <c r="AN8" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="AM6" s="119" t="s">
+      <c r="AO8" s="119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" s="270" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="270"/>
-      <c r="C7" s="270"/>
-      <c r="D7" s="270"/>
-      <c r="E7" s="270"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="123"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="122"/>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="122"/>
-      <c r="AJ7" s="122"/>
-      <c r="AK7" s="122"/>
-      <c r="AL7" s="122"/>
-      <c r="AM7" s="122"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="125" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="125"/>
-      <c r="T8" s="125"/>
-      <c r="U8" s="125"/>
-      <c r="V8" s="126"/>
-      <c r="W8" s="126"/>
-      <c r="X8" s="126"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="126"/>
-      <c r="AC8" s="126"/>
-      <c r="AD8" s="126"/>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="126"/>
-      <c r="AG8" s="124"/>
-      <c r="AH8" s="126"/>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="126"/>
-      <c r="AK8" s="126"/>
-      <c r="AL8" s="126"/>
-      <c r="AM8" s="126"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="127" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="135">
+        <v>15</v>
+      </c>
+      <c r="C9" s="129">
+        <f ca="1">11+$A$29-$A$31</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="130"/>
+      <c r="E9" s="201">
+        <f ca="1">F9-TODAY()</f>
+        <v>204</v>
+      </c>
+      <c r="F9" s="218">
+        <v>43850</v>
+      </c>
+      <c r="G9" s="202"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="204"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="136"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="208" t="s">
+        <v>178</v>
+      </c>
+      <c r="W9" s="211"/>
+      <c r="X9" s="211">
+        <f>COUNT(I9,K9,M9,O9,Q9,S9,U9)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="132">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="211">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="213"/>
+      <c r="AB9" s="214"/>
+      <c r="AC9" s="214"/>
+      <c r="AD9" s="214"/>
+      <c r="AE9" s="214"/>
+      <c r="AF9" s="214"/>
+      <c r="AG9" s="214">
         <v>3</v>
       </c>
-      <c r="B9" s="125" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="125" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="125" t="str">
-        <f>F6</f>
-        <v>Fpromo</v>
-      </c>
-      <c r="G9" s="126" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="M9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="O9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="125" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="125" t="s">
-        <v>161</v>
-      </c>
-      <c r="S9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="125" t="s">
-        <v>162</v>
-      </c>
-      <c r="U9" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="126" t="str">
-        <f>V6</f>
-        <v>U20</v>
-      </c>
-      <c r="W9" s="126" t="str">
-        <f>W6</f>
-        <v>HTMS</v>
-      </c>
-      <c r="X9" s="126" t="str">
-        <f>X6</f>
-        <v>Pot</v>
-      </c>
-      <c r="Y9" s="126" t="str">
-        <f>Y6</f>
-        <v>Cap</v>
-      </c>
-      <c r="Z9" s="126" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA9" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB9" s="126" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC9" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD9" s="126" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE9" s="126" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF9" s="126" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG9" s="124" t="str">
-        <f>AG6</f>
-        <v>Ca</v>
-      </c>
-      <c r="AH9" s="126" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" s="126" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ9" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK9" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL9" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM9" s="126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
-        <v>175</v>
+      <c r="AH9" s="215">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ9" s="132"/>
+      <c r="AK9" s="132"/>
+      <c r="AL9" s="132"/>
+      <c r="AM9" s="132"/>
+      <c r="AN9" s="132"/>
+      <c r="AO9" s="211"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="142" t="s">
+        <v>197</v>
       </c>
       <c r="B10" s="128">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="129">
-        <f ca="1">3+$A$28-$A$30</f>
-        <v>10</v>
+        <f ca="1">67+$A$29-$A$31</f>
+        <v>76</v>
       </c>
       <c r="D10" s="130"/>
       <c r="E10" s="201">
-        <f t="shared" ref="E10:E25" ca="1" si="0">F10-TODAY()</f>
-        <v>214</v>
+        <f ca="1">F10-TODAY()</f>
+        <v>103</v>
       </c>
       <c r="F10" s="218">
-        <v>43858</v>
+        <v>43749</v>
       </c>
       <c r="G10" s="202"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="203"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="207">
-        <v>5.99</v>
-      </c>
-      <c r="R10" s="131"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="203"/>
-      <c r="V10" s="208" t="s">
-        <v>176</v>
+      <c r="H10" s="136"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="204"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="136"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="209" t="s">
+        <v>182</v>
       </c>
       <c r="W10" s="211"/>
       <c r="X10" s="211">
         <f>COUNT(I10,K10,M10,O10,Q10,S10,U10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="213"/>
       <c r="AB10" s="214"/>
       <c r="AC10" s="214"/>
       <c r="AD10" s="214"/>
-      <c r="AE10" s="214">
-        <v>3</v>
-      </c>
-      <c r="AF10" s="215"/>
-      <c r="AG10" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH10" s="130"/>
-      <c r="AI10" s="130"/>
-      <c r="AJ10" s="130"/>
-      <c r="AK10" s="130"/>
-      <c r="AL10" s="130"/>
-      <c r="AM10" s="217"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A11" s="127" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="135">
-        <v>15</v>
+      <c r="AE10" s="214"/>
+      <c r="AF10" s="214">
+        <v>4.5</v>
+      </c>
+      <c r="AG10" s="214"/>
+      <c r="AH10" s="215"/>
+      <c r="AI10" s="216" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ10" s="132"/>
+      <c r="AK10" s="132"/>
+      <c r="AL10" s="132"/>
+      <c r="AM10" s="132"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="211"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="128">
+        <v>16</v>
       </c>
       <c r="C11" s="129">
-        <f ca="1">11+$A$28-$A$30</f>
-        <v>18</v>
+        <f ca="1">40+$A$29-$A$31</f>
+        <v>49</v>
       </c>
       <c r="D11" s="130"/>
       <c r="E11" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <f ca="1">F11-TODAY()</f>
+        <v>103</v>
       </c>
       <c r="F11" s="218">
-        <v>43850</v>
+        <v>43749</v>
       </c>
       <c r="G11" s="202"/>
       <c r="H11" s="136"/>
@@ -9024,8 +9092,8 @@
       <c r="S11" s="204"/>
       <c r="T11" s="136"/>
       <c r="U11" s="204"/>
-      <c r="V11" s="208" t="s">
-        <v>178</v>
+      <c r="V11" s="209" t="s">
+        <v>182</v>
       </c>
       <c r="W11" s="211"/>
       <c r="X11" s="211">
@@ -9038,242 +9106,269 @@
       <c r="Z11" s="211">
         <v>0</v>
       </c>
-      <c r="AA11" s="213"/>
+      <c r="AA11" s="213">
+        <v>2</v>
+      </c>
       <c r="AB11" s="214"/>
-      <c r="AC11" s="214"/>
+      <c r="AC11" s="214">
+        <v>4.5</v>
+      </c>
       <c r="AD11" s="214"/>
-      <c r="AE11" s="214">
-        <v>3</v>
-      </c>
-      <c r="AF11" s="215"/>
-      <c r="AG11" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="132"/>
+      <c r="AE11" s="214"/>
+      <c r="AF11" s="214"/>
+      <c r="AG11" s="214"/>
+      <c r="AH11" s="215"/>
+      <c r="AI11" s="216" t="s">
+        <v>246</v>
+      </c>
       <c r="AJ11" s="132"/>
       <c r="AK11" s="132"/>
       <c r="AL11" s="132"/>
-      <c r="AM11" s="211"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" s="127" t="s">
+      <c r="AM11" s="132"/>
+      <c r="AN11" s="132"/>
+      <c r="AO11" s="211"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="321" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="321"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="123"/>
+      <c r="T12" s="123"/>
+      <c r="U12" s="123"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="317"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="317"/>
+      <c r="AG12" s="122"/>
+      <c r="AH12" s="122"/>
+      <c r="AI12" s="124"/>
+      <c r="AJ12" s="122"/>
+      <c r="AK12" s="122"/>
+      <c r="AL12" s="122"/>
+      <c r="AM12" s="122"/>
+      <c r="AN12" s="122"/>
+      <c r="AO12" s="122"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="125" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="125" t="s">
+        <v>172</v>
+      </c>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="126"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="124"/>
+      <c r="AJ13" s="126"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="126"/>
+      <c r="AO13" s="126"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="125" t="str">
+        <f>F8</f>
+        <v>Fpromo</v>
+      </c>
+      <c r="G14" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="125" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="125" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="125" t="s">
+        <v>162</v>
+      </c>
+      <c r="U14" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" s="126" t="str">
+        <f>V8</f>
+        <v>U20</v>
+      </c>
+      <c r="W14" s="126" t="str">
+        <f>W8</f>
+        <v>HTMS</v>
+      </c>
+      <c r="X14" s="126" t="str">
+        <f>X8</f>
+        <v>Pot</v>
+      </c>
+      <c r="Y14" s="126" t="str">
+        <f>Y8</f>
+        <v>Cap</v>
+      </c>
+      <c r="Z14" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA14" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB14" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC14" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD14" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE14" s="126" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF14" s="126" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG14" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH14" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI14" s="124" t="str">
+        <f>AI8</f>
+        <v>Ca</v>
+      </c>
+      <c r="AJ14" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL14" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM14" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN14" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO14" s="126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="127" t="s">
         <v>179</v>
-      </c>
-      <c r="B12" s="135">
-        <v>15</v>
-      </c>
-      <c r="C12" s="129">
-        <f ca="1">14+$A$28-$A$30</f>
-        <v>21</v>
-      </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>203</v>
-      </c>
-      <c r="F12" s="218">
-        <v>43847</v>
-      </c>
-      <c r="G12" s="202"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="205">
-        <v>2.99</v>
-      </c>
-      <c r="N12" s="136"/>
-      <c r="O12" s="204"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="204"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="204"/>
-      <c r="V12" s="208" t="s">
-        <v>180</v>
-      </c>
-      <c r="W12" s="211"/>
-      <c r="X12" s="211">
-        <f>COUNT(I12,K12,M12,O12,M24,S12,U12)</f>
-        <v>1</v>
-      </c>
-      <c r="Y12" s="132">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="211">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="213"/>
-      <c r="AB12" s="214"/>
-      <c r="AC12" s="214"/>
-      <c r="AD12" s="214"/>
-      <c r="AE12" s="214">
-        <v>2.5</v>
-      </c>
-      <c r="AF12" s="215"/>
-      <c r="AG12" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="130"/>
-      <c r="AM12" s="217"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A13" s="127" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="128">
-        <v>15</v>
-      </c>
-      <c r="C13" s="129">
-        <f ca="1">33+$A$28-$A$30</f>
-        <v>40</v>
-      </c>
-      <c r="D13" s="138"/>
-      <c r="E13" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="F13" s="218">
-        <v>43828</v>
-      </c>
-      <c r="G13" s="202"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="136"/>
-      <c r="O13" s="204"/>
-      <c r="P13" s="136"/>
-      <c r="Q13" s="204"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="W13" s="211"/>
-      <c r="X13" s="211">
-        <f t="shared" ref="X13:X23" si="1">COUNT(I13,K13,M13,O13,Q13,S13,U13)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="132">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="211">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="213"/>
-      <c r="AB13" s="214"/>
-      <c r="AC13" s="214"/>
-      <c r="AD13" s="214">
-        <v>2.5</v>
-      </c>
-      <c r="AE13" s="214"/>
-      <c r="AF13" s="215"/>
-      <c r="AG13" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH13" s="130"/>
-      <c r="AI13" s="130"/>
-      <c r="AJ13" s="130"/>
-      <c r="AK13" s="130"/>
-      <c r="AL13" s="130"/>
-      <c r="AM13" s="217"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A14" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="135">
-        <v>15</v>
-      </c>
-      <c r="C14" s="129">
-        <f ca="1">51+$A$28-$A$30</f>
-        <v>58</v>
-      </c>
-      <c r="D14" s="130"/>
-      <c r="E14" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="F14" s="218">
-        <v>43810</v>
-      </c>
-      <c r="G14" s="202"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="W14" s="211"/>
-      <c r="X14" s="211">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="132">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="211">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="213"/>
-      <c r="AB14" s="214"/>
-      <c r="AC14" s="214"/>
-      <c r="AD14" s="214">
-        <v>2.5</v>
-      </c>
-      <c r="AE14" s="214"/>
-      <c r="AF14" s="215"/>
-      <c r="AG14" s="216" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH14" s="130"/>
-      <c r="AI14" s="130"/>
-      <c r="AJ14" s="130"/>
-      <c r="AK14" s="130"/>
-      <c r="AL14" s="130"/>
-      <c r="AM14" s="217"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
-        <v>184</v>
       </c>
       <c r="B15" s="135">
         <v>15</v>
       </c>
       <c r="C15" s="129">
-        <f ca="1">70+$A$28-$A$30</f>
-        <v>77</v>
-      </c>
-      <c r="D15" s="138"/>
+        <f ca="1">14+$A$29-$A$31</f>
+        <v>23</v>
+      </c>
+      <c r="D15" s="130"/>
       <c r="E15" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <f t="shared" ref="E15:E26" ca="1" si="1">F15-TODAY()</f>
+        <v>201</v>
       </c>
       <c r="F15" s="218">
-        <v>43791</v>
+        <v>43847</v>
       </c>
       <c r="G15" s="202"/>
       <c r="H15" s="136"/>
@@ -9281,7 +9376,9 @@
       <c r="J15" s="136"/>
       <c r="K15" s="204"/>
       <c r="L15" s="136"/>
-      <c r="M15" s="204"/>
+      <c r="M15" s="205">
+        <v>2.99</v>
+      </c>
       <c r="N15" s="136"/>
       <c r="O15" s="204"/>
       <c r="P15" s="136"/>
@@ -9290,13 +9387,13 @@
       <c r="S15" s="204"/>
       <c r="T15" s="136"/>
       <c r="U15" s="204"/>
-      <c r="V15" s="210" t="s">
-        <v>185</v>
+      <c r="V15" s="208" t="s">
+        <v>180</v>
       </c>
       <c r="W15" s="211"/>
       <c r="X15" s="211">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNT(I15,K15,M15,O15,M25,S15,U15)</f>
+        <v>1</v>
       </c>
       <c r="Y15" s="132">
         <v>0</v>
@@ -9306,52 +9403,52 @@
       </c>
       <c r="AA15" s="213"/>
       <c r="AB15" s="214"/>
-      <c r="AC15" s="214"/>
+      <c r="AC15" s="214">
+        <v>2</v>
+      </c>
       <c r="AD15" s="214"/>
       <c r="AE15" s="214"/>
-      <c r="AF15" s="215">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="216" t="s">
+      <c r="AF15" s="214"/>
+      <c r="AG15" s="214">
+        <v>2.5</v>
+      </c>
+      <c r="AH15" s="215"/>
+      <c r="AI15" s="216" t="s">
         <v>247</v>
       </c>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="132"/>
-      <c r="AJ15" s="132"/>
-      <c r="AK15" s="132"/>
-      <c r="AL15" s="132"/>
-      <c r="AM15" s="211"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" s="139" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="135">
+      <c r="AJ15" s="130"/>
+      <c r="AK15" s="130"/>
+      <c r="AL15" s="130"/>
+      <c r="AM15" s="130"/>
+      <c r="AN15" s="130"/>
+      <c r="AO15" s="217"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="127" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="128">
         <v>15</v>
       </c>
       <c r="C16" s="129">
-        <f ca="1">76+$A$28-$A$30</f>
-        <v>83</v>
+        <f ca="1">33+$A$29-$A$31</f>
+        <v>42</v>
       </c>
       <c r="D16" s="138"/>
       <c r="E16" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>182</v>
       </c>
       <c r="F16" s="218">
-        <v>43785</v>
+        <v>43828</v>
       </c>
       <c r="G16" s="202"/>
       <c r="H16" s="136"/>
       <c r="I16" s="204"/>
       <c r="J16" s="136"/>
       <c r="K16" s="204"/>
-      <c r="L16" s="140">
-        <v>2</v>
-      </c>
-      <c r="M16" s="206">
-        <v>2.99</v>
-      </c>
+      <c r="L16" s="136"/>
+      <c r="M16" s="204"/>
       <c r="N16" s="136"/>
       <c r="O16" s="204"/>
       <c r="P16" s="136"/>
@@ -9360,13 +9457,13 @@
       <c r="S16" s="204"/>
       <c r="T16" s="136"/>
       <c r="U16" s="204"/>
-      <c r="V16" s="210" t="s">
-        <v>187</v>
+      <c r="V16" s="209" t="s">
+        <v>182</v>
       </c>
       <c r="W16" s="211"/>
       <c r="X16" s="211">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="X16:X24" si="2">COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
+        <v>0</v>
       </c>
       <c r="Y16" s="132">
         <v>0</v>
@@ -9376,40 +9473,44 @@
       </c>
       <c r="AA16" s="213"/>
       <c r="AB16" s="214"/>
-      <c r="AC16" s="214"/>
+      <c r="AC16" s="214">
+        <v>2</v>
+      </c>
       <c r="AD16" s="214"/>
-      <c r="AE16" s="214"/>
-      <c r="AF16" s="215">
-        <v>2</v>
-      </c>
-      <c r="AG16" s="216" t="s">
+      <c r="AE16" s="214">
+        <v>2.5</v>
+      </c>
+      <c r="AF16" s="214"/>
+      <c r="AG16" s="214"/>
+      <c r="AH16" s="215"/>
+      <c r="AI16" s="216" t="s">
         <v>247</v>
       </c>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="132"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="132"/>
-      <c r="AL16" s="132"/>
-      <c r="AM16" s="211"/>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
-        <v>188</v>
+      <c r="AJ16" s="130"/>
+      <c r="AK16" s="130"/>
+      <c r="AL16" s="130"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="130"/>
+      <c r="AO16" s="217"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="127" t="s">
+        <v>183</v>
       </c>
       <c r="B17" s="135">
         <v>15</v>
       </c>
       <c r="C17" s="129">
-        <f ca="1">96+$A$28-$A$30</f>
-        <v>103</v>
-      </c>
-      <c r="D17" s="138"/>
+        <f ca="1">51+$A$29-$A$31</f>
+        <v>60</v>
+      </c>
+      <c r="D17" s="130"/>
       <c r="E17" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>164</v>
       </c>
       <c r="F17" s="218">
-        <v>43765</v>
+        <v>43810</v>
       </c>
       <c r="G17" s="202"/>
       <c r="H17" s="136"/>
@@ -9427,11 +9528,11 @@
       <c r="T17" s="136"/>
       <c r="U17" s="204"/>
       <c r="V17" s="209" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="W17" s="211"/>
       <c r="X17" s="211">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y17" s="132">
@@ -9440,49 +9541,51 @@
       <c r="Z17" s="211">
         <v>0</v>
       </c>
-      <c r="AA17" s="213"/>
+      <c r="AA17" s="213">
+        <v>1</v>
+      </c>
       <c r="AB17" s="214"/>
       <c r="AC17" s="214"/>
       <c r="AD17" s="214"/>
-      <c r="AE17" s="214"/>
-      <c r="AF17" s="215">
-        <v>3</v>
-      </c>
-      <c r="AG17" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="132"/>
-      <c r="AJ17" s="132"/>
-      <c r="AK17" s="132"/>
-      <c r="AL17" s="132"/>
-      <c r="AM17" s="211"/>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18" s="141" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="128">
-        <v>16</v>
+      <c r="AE17" s="214">
+        <v>2.5</v>
+      </c>
+      <c r="AF17" s="214"/>
+      <c r="AG17" s="214"/>
+      <c r="AH17" s="215"/>
+      <c r="AI17" s="216" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="217"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="139" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="135">
+        <v>15</v>
       </c>
       <c r="C18" s="129">
-        <f ca="1">-1+$A$28-$A$30</f>
-        <v>6</v>
-      </c>
-      <c r="D18" s="134"/>
+        <f ca="1">70+$A$29-$A$31</f>
+        <v>79</v>
+      </c>
+      <c r="D18" s="138"/>
       <c r="E18" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>145</v>
       </c>
       <c r="F18" s="218">
-        <v>43750</v>
+        <v>43791</v>
       </c>
       <c r="G18" s="202"/>
       <c r="H18" s="136"/>
       <c r="I18" s="204"/>
-      <c r="J18" s="137">
-        <v>3</v>
-      </c>
+      <c r="J18" s="136"/>
       <c r="K18" s="204"/>
       <c r="L18" s="136"/>
       <c r="M18" s="204"/>
@@ -9495,11 +9598,11 @@
       <c r="T18" s="136"/>
       <c r="U18" s="204"/>
       <c r="V18" s="210" t="s">
-        <v>191</v>
-      </c>
-      <c r="W18" s="212"/>
+        <v>185</v>
+      </c>
+      <c r="W18" s="211"/>
       <c r="X18" s="211">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y18" s="132">
@@ -9509,55 +9612,57 @@
         <v>0</v>
       </c>
       <c r="AA18" s="213"/>
-      <c r="AB18" s="214">
-        <v>2.5</v>
-      </c>
+      <c r="AB18" s="214"/>
       <c r="AC18" s="214"/>
       <c r="AD18" s="214"/>
       <c r="AE18" s="214"/>
-      <c r="AF18" s="215"/>
-      <c r="AG18" s="216" t="s">
+      <c r="AF18" s="214">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="215">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="216" t="s">
         <v>247</v>
       </c>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="212"/>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A19" s="141" t="s">
-        <v>193</v>
-      </c>
-      <c r="B19" s="128">
-        <v>16</v>
+      <c r="AJ18" s="132"/>
+      <c r="AK18" s="132"/>
+      <c r="AL18" s="132"/>
+      <c r="AM18" s="132"/>
+      <c r="AN18" s="132"/>
+      <c r="AO18" s="211"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="135">
+        <v>15</v>
       </c>
       <c r="C19" s="129">
-        <f ca="1">22+$A$28-$A$30</f>
-        <v>29</v>
-      </c>
-      <c r="D19" s="130"/>
+        <f ca="1">76+$A$29-$A$31</f>
+        <v>85</v>
+      </c>
+      <c r="D19" s="138"/>
       <c r="E19" s="201">
-        <f ca="1">F19-TODAY()</f>
-        <v>106</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>139</v>
       </c>
       <c r="F19" s="218">
-        <v>43750</v>
-      </c>
-      <c r="G19" s="202" t="s">
-        <v>194</v>
-      </c>
+        <v>43785</v>
+      </c>
+      <c r="G19" s="202"/>
       <c r="H19" s="136"/>
       <c r="I19" s="204"/>
       <c r="J19" s="136"/>
-      <c r="K19" s="205">
-        <v>3.99</v>
-      </c>
-      <c r="L19" s="137">
-        <v>1</v>
-      </c>
-      <c r="M19" s="204"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="140">
+        <v>2</v>
+      </c>
+      <c r="M19" s="206">
+        <v>2.99</v>
+      </c>
       <c r="N19" s="136"/>
       <c r="O19" s="204"/>
       <c r="P19" s="136"/>
@@ -9566,12 +9671,12 @@
       <c r="S19" s="204"/>
       <c r="T19" s="136"/>
       <c r="U19" s="204"/>
-      <c r="V19" s="209" t="s">
-        <v>182</v>
+      <c r="V19" s="210" t="s">
+        <v>187</v>
       </c>
       <c r="W19" s="211"/>
       <c r="X19" s="211">
-        <f>COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y19" s="132">
@@ -9582,40 +9687,42 @@
       </c>
       <c r="AA19" s="213"/>
       <c r="AB19" s="214"/>
-      <c r="AC19" s="214">
-        <v>2.5</v>
-      </c>
+      <c r="AC19" s="214"/>
       <c r="AD19" s="214"/>
       <c r="AE19" s="214"/>
-      <c r="AF19" s="215"/>
-      <c r="AG19" s="216" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="132"/>
+      <c r="AF19" s="214"/>
+      <c r="AG19" s="214"/>
+      <c r="AH19" s="215">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="216" t="s">
+        <v>247</v>
+      </c>
       <c r="AJ19" s="132"/>
       <c r="AK19" s="132"/>
       <c r="AL19" s="132"/>
-      <c r="AM19" s="211"/>
-    </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
-        <v>192</v>
+      <c r="AM19" s="132"/>
+      <c r="AN19" s="132"/>
+      <c r="AO19" s="211"/>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20" s="139" t="s">
+        <v>188</v>
       </c>
       <c r="B20" s="135">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="129">
-        <f ca="1">29+$A$28-$A$30</f>
-        <v>36</v>
-      </c>
-      <c r="D20" s="130"/>
+        <f ca="1">96+$A$29-$A$31</f>
+        <v>105</v>
+      </c>
+      <c r="D20" s="138"/>
       <c r="E20" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>119</v>
       </c>
       <c r="F20" s="218">
-        <v>43749</v>
+        <v>43765</v>
       </c>
       <c r="G20" s="202"/>
       <c r="H20" s="136"/>
@@ -9633,11 +9740,11 @@
       <c r="T20" s="136"/>
       <c r="U20" s="204"/>
       <c r="V20" s="209" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="W20" s="211"/>
       <c r="X20" s="211">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y20" s="132">
@@ -9646,47 +9753,53 @@
       <c r="Z20" s="211">
         <v>0</v>
       </c>
-      <c r="AA20" s="213">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="213"/>
       <c r="AB20" s="214"/>
       <c r="AC20" s="214"/>
       <c r="AD20" s="214"/>
-      <c r="AE20" s="214"/>
-      <c r="AF20" s="215"/>
-      <c r="AG20" s="216" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="132"/>
+      <c r="AE20" s="214">
+        <v>1.5</v>
+      </c>
+      <c r="AF20" s="214"/>
+      <c r="AG20" s="214"/>
+      <c r="AH20" s="215">
+        <v>3</v>
+      </c>
+      <c r="AI20" s="216" t="s">
+        <v>248</v>
+      </c>
       <c r="AJ20" s="132"/>
       <c r="AK20" s="132"/>
       <c r="AL20" s="132"/>
-      <c r="AM20" s="211"/>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A21" s="142" t="s">
-        <v>195</v>
+      <c r="AM20" s="132"/>
+      <c r="AN20" s="132"/>
+      <c r="AO20" s="211"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="141" t="s">
+        <v>190</v>
       </c>
       <c r="B21" s="128">
         <v>16</v>
       </c>
       <c r="C21" s="129">
-        <f ca="1">40+$A$28-$A$30</f>
-        <v>47</v>
-      </c>
-      <c r="D21" s="130"/>
+        <f ca="1">-1+$A$29-$A$31</f>
+        <v>8</v>
+      </c>
+      <c r="D21" s="134"/>
       <c r="E21" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>104</v>
       </c>
       <c r="F21" s="218">
-        <v>43749</v>
+        <v>43750</v>
       </c>
       <c r="G21" s="202"/>
       <c r="H21" s="136"/>
       <c r="I21" s="204"/>
-      <c r="J21" s="136"/>
+      <c r="J21" s="137">
+        <v>3</v>
+      </c>
       <c r="K21" s="204"/>
       <c r="L21" s="136"/>
       <c r="M21" s="204"/>
@@ -9698,12 +9811,12 @@
       <c r="S21" s="204"/>
       <c r="T21" s="136"/>
       <c r="U21" s="204"/>
-      <c r="V21" s="209" t="s">
-        <v>182</v>
-      </c>
-      <c r="W21" s="211"/>
+      <c r="V21" s="210" t="s">
+        <v>191</v>
+      </c>
+      <c r="W21" s="212"/>
       <c r="X21" s="211">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y21" s="132">
@@ -9712,53 +9825,65 @@
       <c r="Z21" s="211">
         <v>0</v>
       </c>
-      <c r="AA21" s="213">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="214"/>
+      <c r="AA21" s="213"/>
+      <c r="AB21" s="214">
+        <v>2.5</v>
+      </c>
       <c r="AC21" s="214"/>
       <c r="AD21" s="214"/>
       <c r="AE21" s="214"/>
-      <c r="AF21" s="215"/>
-      <c r="AG21" s="216" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="132"/>
-      <c r="AJ21" s="132"/>
-      <c r="AK21" s="132"/>
-      <c r="AL21" s="132"/>
-      <c r="AM21" s="211"/>
-    </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A22" s="142" t="s">
-        <v>196</v>
+      <c r="AF21" s="214"/>
+      <c r="AG21" s="214"/>
+      <c r="AH21" s="215">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="113"/>
+      <c r="AN21" s="113"/>
+      <c r="AO21" s="212"/>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="141" t="s">
+        <v>193</v>
       </c>
       <c r="B22" s="128">
         <v>16</v>
       </c>
       <c r="C22" s="129">
-        <f ca="1">66+$A$28-$A$30</f>
-        <v>73</v>
+        <f ca="1">22+$A$29-$A$31</f>
+        <v>31</v>
       </c>
       <c r="D22" s="130"/>
       <c r="E22" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <f ca="1">F22-TODAY()</f>
+        <v>104</v>
       </c>
       <c r="F22" s="218">
-        <v>43749</v>
-      </c>
-      <c r="G22" s="202"/>
+        <v>43750</v>
+      </c>
+      <c r="G22" s="202" t="s">
+        <v>194</v>
+      </c>
       <c r="H22" s="136"/>
       <c r="I22" s="204"/>
       <c r="J22" s="136"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="136"/>
+      <c r="K22" s="205">
+        <v>3.99</v>
+      </c>
+      <c r="L22" s="137">
+        <v>1</v>
+      </c>
       <c r="M22" s="204"/>
       <c r="N22" s="136"/>
       <c r="O22" s="204"/>
-      <c r="P22" s="136"/>
+      <c r="P22" s="137">
+        <v>2</v>
+      </c>
       <c r="Q22" s="204"/>
       <c r="R22" s="136"/>
       <c r="S22" s="204"/>
@@ -9769,8 +9894,8 @@
       </c>
       <c r="W22" s="211"/>
       <c r="X22" s="211">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>COUNT(I22,K22,M22,O22,Q22,S22,U22)</f>
+        <v>1</v>
       </c>
       <c r="Y22" s="132">
         <v>0</v>
@@ -9781,36 +9906,40 @@
       <c r="AA22" s="213"/>
       <c r="AB22" s="214"/>
       <c r="AC22" s="214"/>
-      <c r="AD22" s="214"/>
-      <c r="AE22" s="214">
+      <c r="AD22" s="214">
+        <v>2.5</v>
+      </c>
+      <c r="AE22" s="214"/>
+      <c r="AF22" s="214"/>
+      <c r="AG22" s="214"/>
+      <c r="AH22" s="215">
         <v>2</v>
       </c>
-      <c r="AF22" s="215"/>
-      <c r="AG22" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="132"/>
+      <c r="AI22" s="216" t="s">
+        <v>246</v>
+      </c>
       <c r="AJ22" s="132"/>
       <c r="AK22" s="132"/>
       <c r="AL22" s="132"/>
-      <c r="AM22" s="211"/>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="128">
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="211"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="141" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" s="135">
         <v>16</v>
       </c>
       <c r="C23" s="129">
-        <f ca="1">67+$A$28-$A$30</f>
-        <v>74</v>
+        <f ca="1">29+$A$29-$A$31</f>
+        <v>38</v>
       </c>
       <c r="D23" s="130"/>
       <c r="E23" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
       </c>
       <c r="F23" s="218">
         <v>43749</v>
@@ -9835,7 +9964,7 @@
       </c>
       <c r="W23" s="211"/>
       <c r="X23" s="211">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y23" s="132">
@@ -9844,37 +9973,43 @@
       <c r="Z23" s="211">
         <v>0</v>
       </c>
-      <c r="AA23" s="213"/>
+      <c r="AA23" s="213">
+        <v>1</v>
+      </c>
       <c r="AB23" s="214"/>
       <c r="AC23" s="214"/>
       <c r="AD23" s="214"/>
-      <c r="AE23" s="214"/>
-      <c r="AF23" s="215"/>
-      <c r="AG23" s="216" t="s">
+      <c r="AE23" s="214">
+        <v>2.5</v>
+      </c>
+      <c r="AF23" s="214"/>
+      <c r="AG23" s="214"/>
+      <c r="AH23" s="215"/>
+      <c r="AI23" s="216" t="s">
         <v>245</v>
       </c>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="132"/>
       <c r="AJ23" s="132"/>
       <c r="AK23" s="132"/>
       <c r="AL23" s="132"/>
-      <c r="AM23" s="211"/>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="135">
+      <c r="AM23" s="132"/>
+      <c r="AN23" s="132"/>
+      <c r="AO23" s="211"/>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="142" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="128">
         <v>16</v>
       </c>
       <c r="C24" s="129">
-        <f ca="1">71+$A$28-$A$30</f>
-        <v>78</v>
-      </c>
-      <c r="D24" s="138"/>
+        <f ca="1">66+$A$29-$A$31</f>
+        <v>75</v>
+      </c>
+      <c r="D24" s="130"/>
       <c r="E24" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
       </c>
       <c r="F24" s="218">
         <v>43749</v>
@@ -9888,8 +10023,12 @@
       <c r="M24" s="204"/>
       <c r="N24" s="136"/>
       <c r="O24" s="204"/>
-      <c r="P24" s="136"/>
-      <c r="Q24" s="204"/>
+      <c r="P24" s="140">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="206">
+        <v>2.99</v>
+      </c>
       <c r="R24" s="136"/>
       <c r="S24" s="204"/>
       <c r="T24" s="136"/>
@@ -9899,8 +10038,8 @@
       </c>
       <c r="W24" s="211"/>
       <c r="X24" s="211">
-        <f>COUNT(I24,K24,#REF!,O24,Q24,S24,U24)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Y24" s="132">
         <v>0</v>
@@ -9915,32 +10054,36 @@
       <c r="AE24" s="214">
         <v>3.5</v>
       </c>
-      <c r="AF24" s="215"/>
-      <c r="AG24" s="216" t="s">
-        <v>245</v>
-      </c>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="132"/>
+      <c r="AF24" s="214"/>
+      <c r="AG24" s="214">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="215"/>
+      <c r="AI24" s="216" t="s">
+        <v>247</v>
+      </c>
       <c r="AJ24" s="132"/>
       <c r="AK24" s="132"/>
       <c r="AL24" s="132"/>
-      <c r="AM24" s="211"/>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM24" s="132"/>
+      <c r="AN24" s="132"/>
+      <c r="AO24" s="211"/>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="135">
         <v>16</v>
       </c>
       <c r="C25" s="129">
-        <f ca="1">103+$A$28-$A$30</f>
-        <v>110</v>
+        <f ca="1">71+$A$29-$A$31</f>
+        <v>80</v>
       </c>
       <c r="D25" s="138"/>
       <c r="E25" s="201">
-        <f t="shared" ca="1" si="0"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
       </c>
       <c r="F25" s="218">
         <v>43749</v>
@@ -9965,7 +10108,7 @@
       </c>
       <c r="W25" s="211"/>
       <c r="X25" s="211">
-        <f>COUNT(I25,K25,M25,O25,Q25,S25,U25)</f>
+        <f>COUNT(I25,K25,#REF!,O25,Q25,S25,U25)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="132">
@@ -9979,104 +10122,134 @@
       <c r="AC25" s="214"/>
       <c r="AD25" s="214"/>
       <c r="AE25" s="214"/>
-      <c r="AF25" s="215"/>
-      <c r="AG25" s="216" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="132"/>
+      <c r="AF25" s="214"/>
+      <c r="AG25" s="214">
+        <v>3.5</v>
+      </c>
+      <c r="AH25" s="215"/>
+      <c r="AI25" s="216" t="s">
+        <v>245</v>
+      </c>
       <c r="AJ25" s="132"/>
       <c r="AK25" s="132"/>
       <c r="AL25" s="132"/>
-      <c r="AM25" s="211"/>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AG26" s="133"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="113"/>
-      <c r="AJ26" s="113"/>
-      <c r="AK26" s="113"/>
-      <c r="AL26" s="113"/>
-      <c r="AM26" s="113"/>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A27" s="144" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="145"/>
+      <c r="AM25" s="132"/>
+      <c r="AN25" s="132"/>
+      <c r="AO25" s="211"/>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="141" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="135">
+        <v>17</v>
+      </c>
+      <c r="C26" s="129">
+        <f ca="1">103+$A$29-$A$31-112</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="138"/>
+      <c r="E26" s="201">
+        <f t="shared" ca="1" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="F26" s="218">
+        <v>43749</v>
+      </c>
+      <c r="G26" s="202"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="204"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="204"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="204"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="204"/>
+      <c r="R26" s="136"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="209" t="s">
+        <v>182</v>
+      </c>
+      <c r="W26" s="211"/>
+      <c r="X26" s="211">
+        <f>COUNT(I26,K26,M26,O26,Q26,S26,U26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="132">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="211">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="213"/>
+      <c r="AB26" s="214"/>
+      <c r="AC26" s="214"/>
+      <c r="AD26" s="214"/>
+      <c r="AE26" s="214"/>
+      <c r="AF26" s="214"/>
+      <c r="AG26" s="214"/>
+      <c r="AH26" s="215"/>
+      <c r="AI26" s="216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="132"/>
+      <c r="AL26" s="132"/>
+      <c r="AM26" s="132"/>
+      <c r="AN26" s="132"/>
+      <c r="AO26" s="211"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="135"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
       <c r="R27" s="135"/>
       <c r="S27" s="135"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AG27" s="147"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="134"/>
-      <c r="AJ27" s="134"/>
-      <c r="AK27" s="134"/>
-      <c r="AL27" s="134"/>
-      <c r="AM27" s="134"/>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" s="148">
-        <f ca="1">TODAY()</f>
-        <v>43644</v>
-      </c>
-      <c r="B28" s="149"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AI27" s="133"/>
+      <c r="AJ27" s="113"/>
+      <c r="AK27" s="113"/>
+      <c r="AL27" s="113"/>
+      <c r="AM27" s="113"/>
+      <c r="AN27" s="113"/>
+      <c r="AO27" s="113"/>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="144" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="145"/>
       <c r="C28" s="145"/>
       <c r="D28" s="145"/>
       <c r="E28" s="146"/>
-      <c r="F28" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G28" s="8"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="145"/>
       <c r="I28" s="145"/>
       <c r="J28" s="145"/>
       <c r="K28" s="145"/>
@@ -10096,27 +10269,27 @@
       <c r="Y28" s="134"/>
       <c r="Z28" s="134"/>
       <c r="AA28" s="134"/>
-      <c r="AG28" s="150"/>
-      <c r="AH28" s="134"/>
-      <c r="AI28" s="134"/>
+      <c r="AI28" s="147"/>
       <c r="AJ28" s="134"/>
       <c r="AK28" s="134"/>
       <c r="AL28" s="134"/>
       <c r="AM28" s="134"/>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A29" s="151">
-        <f ca="1">A30-A28</f>
-        <v>-7</v>
-      </c>
-      <c r="B29" s="135"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="134"/>
+      <c r="AN28" s="134"/>
+      <c r="AO28" s="134"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="148">
+        <f ca="1">TODAY()</f>
+        <v>43646</v>
+      </c>
+      <c r="B29" s="149"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="I29" s="145"/>
       <c r="J29" s="145"/>
       <c r="K29" s="145"/>
@@ -10136,25 +10309,27 @@
       <c r="Y29" s="134"/>
       <c r="Z29" s="134"/>
       <c r="AA29" s="134"/>
-      <c r="AG29" s="147"/>
-      <c r="AH29" s="134"/>
-      <c r="AI29" s="134"/>
+      <c r="AI29" s="150"/>
       <c r="AJ29" s="134"/>
       <c r="AK29" s="134"/>
       <c r="AL29" s="134"/>
       <c r="AM29" s="134"/>
-    </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A30" s="152">
-        <v>43637</v>
-      </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
+      <c r="AN29" s="134"/>
+      <c r="AO29" s="134"/>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30" s="151">
+        <f ca="1">A31-A29</f>
+        <v>-9</v>
+      </c>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
       <c r="D30" s="135"/>
       <c r="E30" s="135"/>
-      <c r="F30" s="145"/>
+      <c r="F30" s="351" t="s">
+        <v>287</v>
+      </c>
       <c r="G30" s="134"/>
-      <c r="H30" s="145"/>
       <c r="I30" s="145"/>
       <c r="J30" s="145"/>
       <c r="K30" s="145"/>
@@ -10174,23 +10349,23 @@
       <c r="Y30" s="134"/>
       <c r="Z30" s="134"/>
       <c r="AA30" s="134"/>
-      <c r="AG30" s="147"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="134"/>
+      <c r="AI30" s="147"/>
       <c r="AJ30" s="134"/>
       <c r="AK30" s="134"/>
       <c r="AL30" s="134"/>
       <c r="AM30" s="134"/>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A31" s="135"/>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="134"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="152">
+        <v>43637</v>
+      </c>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
       <c r="D31" s="135"/>
       <c r="E31" s="135"/>
-      <c r="F31" s="154" t="s">
-        <v>162</v>
-      </c>
+      <c r="F31" s="145"/>
       <c r="G31" s="134"/>
       <c r="H31" s="145"/>
       <c r="I31" s="145"/>
@@ -10212,38 +10387,64 @@
       <c r="Y31" s="134"/>
       <c r="Z31" s="134"/>
       <c r="AA31" s="134"/>
-      <c r="AG31" s="147"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="134"/>
+      <c r="AI31" s="147"/>
       <c r="AJ31" s="134"/>
       <c r="AK31" s="134"/>
       <c r="AL31" s="134"/>
       <c r="AM31" s="134"/>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="F32" s="134" t="s">
+      <c r="AN31" s="134"/>
+      <c r="AO31" s="134"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="135"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="134"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="145"/>
+      <c r="Q32" s="145"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="134"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134"/>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134"/>
+      <c r="AI32" s="147"/>
+      <c r="AJ32" s="134"/>
+      <c r="AK32" s="134"/>
+      <c r="AL32" s="134"/>
+      <c r="AM32" s="134"/>
+      <c r="AN32" s="134"/>
+      <c r="AO32" s="134"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="134" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
-  <conditionalFormatting sqref="X10:X18 X20:X25">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
+  <conditionalFormatting sqref="X22">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10255,19 +10456,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AF25">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E25">
+  <conditionalFormatting sqref="E4:E5 E15:E26 E9:E11">
     <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
@@ -10279,26 +10468,50 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="X23:X26 X15:X21 X9:X11 X4:X5">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15:AH26 AA9:AH11 AA4:AH5">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87BD7B38-E8F7-4DE8-A0A3-9E05FF9C31BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:AI81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -10321,14 +10534,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="274" t="s">
+      <c r="D1" s="323" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="275"/>
-      <c r="F1" s="275"/>
-      <c r="G1" s="275"/>
-      <c r="H1" s="275"/>
-      <c r="I1" s="276"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="325"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -10336,7 +10549,7 @@
         <f>O1-7</f>
         <v>43630</v>
       </c>
-      <c r="O1" s="283">
+      <c r="O1" s="267">
         <v>43637</v>
       </c>
       <c r="P1" s="77">
@@ -10408,14 +10621,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="277" t="s">
+      <c r="D2" s="326" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="279"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="328"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -10424,7 +10637,7 @@
       <c r="N2" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="O2" s="284" t="s">
+      <c r="O2" s="268" t="s">
         <v>103</v>
       </c>
       <c r="P2" s="79" t="s">
@@ -10480,15 +10693,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="341" t="s">
+      <c r="D3" s="329" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="342"/>
+      <c r="E3" s="330"/>
       <c r="F3" s="222"/>
-      <c r="G3" s="285" t="s">
+      <c r="G3" s="331" t="s">
         <v>252</v>
       </c>
-      <c r="H3" s="286"/>
+      <c r="H3" s="332"/>
       <c r="I3" s="222"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -10498,7 +10711,7 @@
       <c r="N3" s="81">
         <v>100</v>
       </c>
-      <c r="O3" s="287">
+      <c r="O3" s="269">
         <v>100</v>
       </c>
       <c r="P3" s="81">
@@ -10575,82 +10788,82 @@
       <c r="G4" s="223"/>
       <c r="H4" s="249"/>
       <c r="I4" s="225"/>
-      <c r="K4" s="288" t="s">
+      <c r="K4" s="270" t="s">
         <v>277</v>
       </c>
-      <c r="L4" s="288"/>
-      <c r="M4" s="289">
-        <v>0</v>
-      </c>
-      <c r="N4" s="289">
+      <c r="L4" s="270"/>
+      <c r="M4" s="271">
+        <v>0</v>
+      </c>
+      <c r="N4" s="271">
         <f>M4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="290">
+      <c r="O4" s="272">
         <f>N4-N13+N23</f>
         <v>0</v>
       </c>
-      <c r="P4" s="290">
+      <c r="P4" s="272">
         <f>O4-O13+O23</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="290">
+      <c r="Q4" s="272">
         <f t="shared" ref="Q4:AE4" si="2">P4-P13+P23</f>
         <v>0</v>
       </c>
-      <c r="R4" s="290">
+      <c r="R4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S4" s="290">
+      <c r="S4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T4" s="290">
+      <c r="T4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U4" s="290">
+      <c r="U4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V4" s="290">
+      <c r="V4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W4" s="290">
+      <c r="W4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X4" s="290">
+      <c r="X4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="290">
+      <c r="Y4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="290">
+      <c r="Z4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="290">
+      <c r="AA4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="290">
+      <c r="AB4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="290">
+      <c r="AC4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="290">
+      <c r="AD4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="290">
+      <c r="AE4" s="272">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -10666,14 +10879,14 @@
         <f>SUM(E6:E8)</f>
         <v>356700</v>
       </c>
-      <c r="F5" s="291">
+      <c r="F5" s="273">
         <f>E5/E35</f>
         <v>0.12437264513105675</v>
       </c>
       <c r="G5" s="226" t="s">
         <v>254</v>
       </c>
-      <c r="H5" s="292">
+      <c r="H5" s="274">
         <f>H6+H7</f>
         <v>300000</v>
       </c>
@@ -10766,7 +10979,7 @@
         <f t="shared" ref="A6:A13" si="4">L6</f>
         <v>Taquillas</v>
       </c>
-      <c r="B6" s="331">
+      <c r="B6" s="313">
         <f t="shared" ref="B6:B13" si="5">M6/$M$14</f>
         <v>0.39532916021117048</v>
       </c>
@@ -10777,17 +10990,17 @@
         <f>M17</f>
         <v>88000</v>
       </c>
-      <c r="F6" s="293">
+      <c r="F6" s="275">
         <f>E6/E35</f>
         <v>3.0683467259694407E-2</v>
       </c>
       <c r="G6" s="231" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="294">
+      <c r="H6" s="276">
         <v>300000</v>
       </c>
-      <c r="I6" s="295">
+      <c r="I6" s="277">
         <f>H6/$H$35</f>
         <v>0.10460272929441275</v>
       </c>
@@ -10797,11 +11010,11 @@
       <c r="L6" s="259" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="296">
+      <c r="M6" s="278">
         <f>SUM(N6:AE6)</f>
         <v>874189</v>
       </c>
-      <c r="N6" s="326">
+      <c r="N6" s="308">
         <v>0</v>
       </c>
       <c r="O6" s="256">
@@ -10862,7 +11075,7 @@
         <f t="shared" si="4"/>
         <v>Patrocinadores</v>
       </c>
-      <c r="B7" s="331">
+      <c r="B7" s="313">
         <f t="shared" si="5"/>
         <v>0.17652333882333149</v>
       </c>
@@ -10873,17 +11086,17 @@
         <f>M21</f>
         <v>268700</v>
       </c>
-      <c r="F7" s="293">
+      <c r="F7" s="275">
         <f>E7/E35</f>
         <v>9.3689177871362356E-2</v>
       </c>
       <c r="G7" s="231" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="294">
-        <v>0</v>
-      </c>
-      <c r="I7" s="295">
+      <c r="H7" s="276">
+        <v>0</v>
+      </c>
+      <c r="I7" s="277">
         <f>H7/$H$35</f>
         <v>0</v>
       </c>
@@ -10893,11 +11106,11 @@
       <c r="L7" s="259" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="296">
+      <c r="M7" s="278">
         <f t="shared" ref="M7:M13" si="6">SUM(N7:AE7)</f>
         <v>390345</v>
       </c>
-      <c r="N7" s="326">
+      <c r="N7" s="308">
         <v>0</v>
       </c>
       <c r="O7" s="258">
@@ -10972,7 +11185,7 @@
         <f t="shared" si="4"/>
         <v>Ventas</v>
       </c>
-      <c r="B8" s="331">
+      <c r="B8" s="313">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10982,12 +11195,12 @@
       <c r="E8" s="233">
         <v>0</v>
       </c>
-      <c r="F8" s="293">
+      <c r="F8" s="275">
         <f>E8/E35</f>
         <v>0</v>
       </c>
       <c r="G8" s="236"/>
-      <c r="H8" s="297"/>
+      <c r="H8" s="279"/>
       <c r="I8" s="228"/>
       <c r="K8" s="259" t="s">
         <v>122</v>
@@ -10995,11 +11208,11 @@
       <c r="L8" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="296">
+      <c r="M8" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N8" s="326">
+      <c r="N8" s="308">
         <v>0</v>
       </c>
       <c r="O8" s="256">
@@ -11061,25 +11274,25 @@
         <f t="shared" si="4"/>
         <v>VentasCantera</v>
       </c>
-      <c r="B9" s="331">
+      <c r="B9" s="313">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D9" s="234"/>
       <c r="E9" s="235"/>
-      <c r="F9" s="291"/>
+      <c r="F9" s="273"/>
       <c r="G9" s="236"/>
-      <c r="H9" s="297"/>
+      <c r="H9" s="279"/>
       <c r="I9" s="228"/>
       <c r="K9" s="259"/>
       <c r="L9" s="259" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="296">
+      <c r="M9" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N9" s="326">
+      <c r="N9" s="308">
         <v>0</v>
       </c>
       <c r="O9" s="256">
@@ -11139,7 +11352,7 @@
         <f t="shared" si="4"/>
         <v>Comisiones</v>
       </c>
-      <c r="B10" s="331">
+      <c r="B10" s="313">
         <f t="shared" si="5"/>
         <v>1.447116484736991E-2</v>
       </c>
@@ -11150,14 +11363,14 @@
         <f>E11+E12+E13</f>
         <v>0</v>
       </c>
-      <c r="F10" s="291">
+      <c r="F10" s="273">
         <f>E10/E35</f>
         <v>0</v>
       </c>
       <c r="G10" s="226" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="292">
+      <c r="H10" s="274">
         <f>SUM(H11:H16)</f>
         <v>1032034</v>
       </c>
@@ -11171,11 +11384,11 @@
       <c r="L10" s="259" t="s">
         <v>125</v>
       </c>
-      <c r="M10" s="296">
+      <c r="M10" s="278">
         <f t="shared" si="6"/>
         <v>32000</v>
       </c>
-      <c r="N10" s="326">
+      <c r="N10" s="308">
         <v>0</v>
       </c>
       <c r="O10" s="258">
@@ -11250,7 +11463,7 @@
         <f t="shared" si="4"/>
         <v>Nuevos Socios</v>
       </c>
-      <c r="B11" s="331">
+      <c r="B11" s="313">
         <f t="shared" si="5"/>
         <v>5.3181530814084424E-3</v>
       </c>
@@ -11261,31 +11474,31 @@
         <f>N4</f>
         <v>0</v>
       </c>
-      <c r="F11" s="293">
+      <c r="F11" s="275">
         <f>E11/E35</f>
         <v>0</v>
       </c>
       <c r="G11" s="246" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="298">
-        <v>0</v>
-      </c>
-      <c r="I11" s="295">
+      <c r="H11" s="280">
+        <v>0</v>
+      </c>
+      <c r="I11" s="277">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="335" t="s">
+      <c r="K11" s="333" t="s">
         <v>126</v>
       </c>
       <c r="L11" s="259" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="296">
+      <c r="M11" s="278">
         <f t="shared" si="6"/>
         <v>11760</v>
       </c>
-      <c r="N11" s="326">
+      <c r="N11" s="308">
         <v>0</v>
       </c>
       <c r="O11" s="258">
@@ -11360,7 +11573,7 @@
         <f t="shared" si="4"/>
         <v>Premios</v>
       </c>
-      <c r="B12" s="331">
+      <c r="B12" s="313">
         <f t="shared" si="5"/>
         <v>0.40835818303671967</v>
       </c>
@@ -11372,29 +11585,29 @@
         <f>M13*-1</f>
         <v>0</v>
       </c>
-      <c r="F12" s="293">
+      <c r="F12" s="275">
         <f>E12/E35</f>
         <v>0</v>
       </c>
-      <c r="G12" s="299" t="s">
+      <c r="G12" s="281" t="s">
         <v>261</v>
       </c>
-      <c r="H12" s="300">
-        <v>0</v>
-      </c>
-      <c r="I12" s="301">
+      <c r="H12" s="282">
+        <v>0</v>
+      </c>
+      <c r="I12" s="283">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="336"/>
+      <c r="K12" s="334"/>
       <c r="L12" s="259" t="s">
         <v>128</v>
       </c>
-      <c r="M12" s="296">
+      <c r="M12" s="278">
         <f t="shared" si="6"/>
         <v>903000</v>
       </c>
-      <c r="N12" s="326">
+      <c r="N12" s="308">
         <v>0</v>
       </c>
       <c r="O12" s="258">
@@ -11454,11 +11667,11 @@
         <f t="shared" si="4"/>
         <v>Ing Reservas</v>
       </c>
-      <c r="B13" s="331">
+      <c r="B13" s="313">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C13" s="302"/>
+      <c r="C13" s="284"/>
       <c r="D13" s="237" t="str">
         <f>L23</f>
         <v>Pago Reservas</v>
@@ -11467,30 +11680,30 @@
         <f>M23</f>
         <v>0</v>
       </c>
-      <c r="F13" s="293">
+      <c r="F13" s="275">
         <f>E13/E35</f>
         <v>0</v>
       </c>
       <c r="G13" s="246" t="s">
         <v>263</v>
       </c>
-      <c r="H13" s="298">
-        <v>0</v>
-      </c>
-      <c r="I13" s="295">
+      <c r="H13" s="280">
+        <v>0</v>
+      </c>
+      <c r="I13" s="277">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J13" s="303"/>
-      <c r="K13" s="337"/>
+      <c r="J13" s="285"/>
+      <c r="K13" s="335"/>
       <c r="L13" s="259" t="s">
         <v>280</v>
       </c>
-      <c r="M13" s="296">
+      <c r="M13" s="278">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N13" s="326">
+      <c r="N13" s="308">
         <v>0</v>
       </c>
       <c r="O13" s="258">
@@ -11560,116 +11773,116 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="303"/>
-      <c r="AG13" s="303"/>
-      <c r="AH13" s="303"/>
-      <c r="AI13" s="303"/>
+      <c r="AF13" s="285"/>
+      <c r="AG13" s="285"/>
+      <c r="AH13" s="285"/>
+      <c r="AI13" s="285"/>
     </row>
     <row r="14" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="302"/>
-      <c r="B14" s="304">
+      <c r="A14" s="284"/>
+      <c r="B14" s="286">
         <f>SUM(B6:B13)</f>
         <v>1</v>
       </c>
       <c r="D14" s="234"/>
-      <c r="E14" s="305"/>
+      <c r="E14" s="287"/>
       <c r="G14" s="246" t="s">
         <v>265</v>
       </c>
-      <c r="H14" s="298">
-        <v>0</v>
-      </c>
-      <c r="I14" s="295">
+      <c r="H14" s="280">
+        <v>0</v>
+      </c>
+      <c r="I14" s="277">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K14" s="329" t="s">
+      <c r="K14" s="311" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="330"/>
-      <c r="M14" s="306">
+      <c r="L14" s="312"/>
+      <c r="M14" s="288">
         <f>SUM(N14:AE14)</f>
         <v>2211294</v>
       </c>
-      <c r="N14" s="327">
+      <c r="N14" s="309">
         <f>SUM(N6:N13)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="327">
+      <c r="O14" s="309">
         <f>SUM(O6:O13)</f>
         <v>1077233</v>
       </c>
-      <c r="P14" s="327">
+      <c r="P14" s="309">
         <f t="shared" ref="P14:AE14" si="11">SUM(P6:P13)</f>
         <v>21160</v>
       </c>
-      <c r="Q14" s="327">
+      <c r="Q14" s="309">
         <f t="shared" si="11"/>
         <v>22160</v>
       </c>
-      <c r="R14" s="327">
+      <c r="R14" s="309">
         <f t="shared" si="11"/>
         <v>119660</v>
       </c>
-      <c r="S14" s="327">
+      <c r="S14" s="309">
         <f t="shared" si="11"/>
         <v>24160</v>
       </c>
-      <c r="T14" s="327">
+      <c r="T14" s="309">
         <f t="shared" si="11"/>
         <v>121660</v>
       </c>
-      <c r="U14" s="327">
+      <c r="U14" s="309">
         <f t="shared" si="11"/>
         <v>26160</v>
       </c>
-      <c r="V14" s="327">
+      <c r="V14" s="309">
         <f t="shared" si="11"/>
         <v>123660</v>
       </c>
-      <c r="W14" s="327">
+      <c r="W14" s="309">
         <f t="shared" si="11"/>
         <v>28160</v>
       </c>
-      <c r="X14" s="327">
+      <c r="X14" s="309">
         <f t="shared" si="11"/>
         <v>125660</v>
       </c>
-      <c r="Y14" s="327">
+      <c r="Y14" s="309">
         <f t="shared" si="11"/>
         <v>30160</v>
       </c>
-      <c r="Z14" s="327">
+      <c r="Z14" s="309">
         <f t="shared" si="11"/>
         <v>127660</v>
       </c>
-      <c r="AA14" s="327">
+      <c r="AA14" s="309">
         <f t="shared" si="11"/>
         <v>32160</v>
       </c>
-      <c r="AB14" s="327">
+      <c r="AB14" s="309">
         <f t="shared" si="11"/>
         <v>129660</v>
       </c>
-      <c r="AC14" s="327">
+      <c r="AC14" s="309">
         <f t="shared" si="11"/>
         <v>130661</v>
       </c>
-      <c r="AD14" s="327">
+      <c r="AD14" s="309">
         <f t="shared" si="11"/>
         <v>35160</v>
       </c>
-      <c r="AE14" s="327">
+      <c r="AE14" s="309">
         <f t="shared" si="11"/>
         <v>36160</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="332">
+      <c r="A15" s="322">
         <f>M14</f>
         <v>2211294</v>
       </c>
-      <c r="B15" s="332"/>
+      <c r="B15" s="322"/>
       <c r="D15" s="226" t="s">
         <v>143</v>
       </c>
@@ -11677,17 +11890,17 @@
         <f>SUM(E16:E19)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="291">
+      <c r="F15" s="273">
         <f>E15/E35</f>
         <v>0</v>
       </c>
       <c r="G15" s="246" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="298">
-        <v>0</v>
-      </c>
-      <c r="I15" s="295">
+      <c r="H15" s="280">
+        <v>0</v>
+      </c>
+      <c r="I15" s="277">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -11702,7 +11915,7 @@
         <f>SUM(N15:AE15)</f>
         <v>136680</v>
       </c>
-      <c r="N15" s="328">
+      <c r="N15" s="310">
         <v>0</v>
       </c>
       <c r="O15" s="264">
@@ -11764,18 +11977,18 @@
       <c r="E16" s="238">
         <v>0</v>
       </c>
-      <c r="F16" s="293">
+      <c r="F16" s="275">
         <f>E16/E35</f>
         <v>0</v>
       </c>
-      <c r="G16" s="307" t="s">
+      <c r="G16" s="289" t="s">
         <v>267</v>
       </c>
-      <c r="H16" s="308">
+      <c r="H16" s="290">
         <f>E29-H26</f>
         <v>1032034</v>
       </c>
-      <c r="I16" s="295">
+      <c r="I16" s="277">
         <f t="shared" si="8"/>
         <v>0.35984524374876659</v>
       </c>
@@ -11790,7 +12003,7 @@
         <f t="shared" ref="M16:M24" si="12">SUM(N16:AE16)</f>
         <v>120700</v>
       </c>
-      <c r="N16" s="328">
+      <c r="N16" s="310">
         <v>0</v>
       </c>
       <c r="O16" s="264">
@@ -11846,18 +12059,18 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="309" t="s">
+      <c r="D17" s="291" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="310">
-        <v>0</v>
-      </c>
-      <c r="F17" s="311">
+      <c r="E17" s="292">
+        <v>0</v>
+      </c>
+      <c r="F17" s="293">
         <f>E17/E35</f>
         <v>0</v>
       </c>
       <c r="G17" s="234"/>
-      <c r="H17" s="297"/>
+      <c r="H17" s="279"/>
       <c r="I17" s="242"/>
       <c r="K17" s="260" t="s">
         <v>132</v>
@@ -11869,7 +12082,7 @@
         <f t="shared" si="12"/>
         <v>88000</v>
       </c>
-      <c r="N17" s="328">
+      <c r="N17" s="310">
         <v>88000</v>
       </c>
       <c r="O17" s="264">
@@ -11931,14 +12144,14 @@
       <c r="E18" s="238">
         <v>0</v>
       </c>
-      <c r="F18" s="293">
+      <c r="F18" s="275">
         <f>E18/E35</f>
         <v>0</v>
       </c>
       <c r="G18" s="226" t="s">
         <v>268</v>
       </c>
-      <c r="H18" s="312">
+      <c r="H18" s="294">
         <f>H19</f>
         <v>0</v>
       </c>
@@ -11957,7 +12170,7 @@
         <f t="shared" si="12"/>
         <v>554880</v>
       </c>
-      <c r="N18" s="328">
+      <c r="N18" s="310">
         <v>0</v>
       </c>
       <c r="O18" s="264">
@@ -12019,18 +12232,18 @@
       <c r="E19" s="238">
         <v>0</v>
       </c>
-      <c r="F19" s="293">
+      <c r="F19" s="275">
         <f>E19/E35</f>
         <v>0</v>
       </c>
       <c r="G19" s="243" t="s">
         <v>137</v>
       </c>
-      <c r="H19" s="313">
+      <c r="H19" s="295">
         <f>M20</f>
         <v>0</v>
       </c>
-      <c r="I19" s="295">
+      <c r="I19" s="277">
         <f>H19/$H$35</f>
         <v>0</v>
       </c>
@@ -12045,7 +12258,7 @@
         <f t="shared" si="12"/>
         <v>360000</v>
       </c>
-      <c r="N19" s="328">
+      <c r="N19" s="310">
         <v>20000</v>
       </c>
       <c r="O19" s="264">
@@ -12102,11 +12315,11 @@
     </row>
     <row r="20" spans="1:31" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="234"/>
-      <c r="E20" s="305"/>
+      <c r="E20" s="287"/>
       <c r="F20" s="193"/>
       <c r="G20" s="239"/>
-      <c r="H20" s="314"/>
-      <c r="I20" s="315"/>
+      <c r="H20" s="296"/>
+      <c r="I20" s="297"/>
       <c r="K20" s="260" t="s">
         <v>136</v>
       </c>
@@ -12117,7 +12330,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N20" s="328">
+      <c r="N20" s="310">
         <v>0</v>
       </c>
       <c r="O20" s="264">
@@ -12180,14 +12393,14 @@
         <f>E22</f>
         <v>0</v>
       </c>
-      <c r="F21" s="291">
+      <c r="F21" s="273">
         <f>E21/E35</f>
         <v>0</v>
       </c>
       <c r="G21" s="239"/>
-      <c r="H21" s="314"/>
-      <c r="I21" s="315"/>
-      <c r="K21" s="338" t="s">
+      <c r="H21" s="296"/>
+      <c r="I21" s="297"/>
+      <c r="K21" s="337" t="s">
         <v>126</v>
       </c>
       <c r="L21" s="261" t="s">
@@ -12197,7 +12410,7 @@
         <f t="shared" si="12"/>
         <v>268700</v>
       </c>
-      <c r="N21" s="328">
+      <c r="N21" s="310">
         <v>0</v>
       </c>
       <c r="O21" s="264">
@@ -12260,14 +12473,14 @@
         <f>M8+M9</f>
         <v>0</v>
       </c>
-      <c r="F22" s="293">
+      <c r="F22" s="275">
         <f>E22/E35</f>
         <v>0</v>
       </c>
       <c r="G22" s="226" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="292">
+      <c r="H22" s="274">
         <f>SUM(H23:H24)</f>
         <v>356700</v>
       </c>
@@ -12275,7 +12488,7 @@
         <f>H22/$H$35</f>
         <v>0.12437264513105675</v>
       </c>
-      <c r="K22" s="339"/>
+      <c r="K22" s="338"/>
       <c r="L22" s="261" t="s">
         <v>139</v>
       </c>
@@ -12283,7 +12496,7 @@
         <f t="shared" si="12"/>
         <v>7000</v>
       </c>
-      <c r="N22" s="328">
+      <c r="N22" s="310">
         <v>7000</v>
       </c>
       <c r="O22" s="264">
@@ -12341,20 +12554,20 @@
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="88"/>
       <c r="D23" s="234"/>
-      <c r="E23" s="305"/>
+      <c r="E23" s="287"/>
       <c r="F23" s="193"/>
       <c r="G23" s="243" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="316">
+      <c r="H23" s="298">
         <f>M17</f>
         <v>88000</v>
       </c>
-      <c r="I23" s="295">
+      <c r="I23" s="277">
         <f>H23/$H$35</f>
         <v>3.0683467259694407E-2</v>
       </c>
-      <c r="K23" s="340"/>
+      <c r="K23" s="339"/>
       <c r="L23" s="261" t="s">
         <v>281</v>
       </c>
@@ -12362,7 +12575,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N23" s="328">
+      <c r="N23" s="310">
         <v>0</v>
       </c>
       <c r="O23" s="264">
@@ -12422,7 +12635,7 @@
         <f t="shared" ref="A24:A31" si="13">L15</f>
         <v>Sueldos</v>
       </c>
-      <c r="B24" s="333">
+      <c r="B24" s="314">
         <f t="shared" ref="B24:B31" si="14">M15/$M$25</f>
         <v>8.8986692361780251E-2</v>
       </c>
@@ -12434,18 +12647,18 @@
         <f>E25+E26-E27</f>
         <v>300000</v>
       </c>
-      <c r="F24" s="291">
+      <c r="F24" s="273">
         <f>E24/E35</f>
         <v>0.10460272929441275</v>
       </c>
       <c r="G24" s="243" t="s">
         <v>138</v>
       </c>
-      <c r="H24" s="316">
+      <c r="H24" s="298">
         <f>M21</f>
         <v>268700</v>
       </c>
-      <c r="I24" s="295">
+      <c r="I24" s="277">
         <f>H24/$H$35</f>
         <v>9.3689177871362356E-2</v>
       </c>
@@ -12460,7 +12673,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N24" s="328">
+      <c r="N24" s="310">
         <v>0</v>
       </c>
       <c r="O24" s="264">
@@ -12520,7 +12733,7 @@
         <f t="shared" si="13"/>
         <v xml:space="preserve">Mantenimiento </v>
       </c>
-      <c r="B25" s="333">
+      <c r="B25" s="314">
         <f t="shared" si="14"/>
         <v>7.8582775593114398E-2</v>
       </c>
@@ -12532,12 +12745,12 @@
         <f>N5</f>
         <v>300000</v>
       </c>
-      <c r="F25" s="293">
+      <c r="F25" s="275">
         <f>E25/E35</f>
         <v>0.10460272929441275</v>
       </c>
       <c r="G25" s="244"/>
-      <c r="H25" s="317"/>
+      <c r="H25" s="299"/>
       <c r="I25" s="245"/>
       <c r="K25" s="262" t="s">
         <v>141</v>
@@ -12625,7 +12838,7 @@
         <f t="shared" si="13"/>
         <v>Estadio</v>
       </c>
-      <c r="B26" s="333">
+      <c r="B26" s="314">
         <f t="shared" si="14"/>
         <v>5.7293158676007185E-2</v>
       </c>
@@ -12638,14 +12851,14 @@
         <f>M13</f>
         <v>0</v>
       </c>
-      <c r="F26" s="293">
+      <c r="F26" s="275">
         <f>E26/E35</f>
         <v>0</v>
       </c>
       <c r="G26" s="226" t="s">
         <v>271</v>
       </c>
-      <c r="H26" s="292">
+      <c r="H26" s="274">
         <f>SUM(H27:H32)</f>
         <v>1179260</v>
       </c>
@@ -12739,7 +12952,7 @@
         <f t="shared" si="13"/>
         <v>Empleados</v>
       </c>
-      <c r="B27" s="333">
+      <c r="B27" s="314">
         <f t="shared" si="14"/>
         <v>0.36125940779707805</v>
       </c>
@@ -12752,18 +12965,18 @@
         <f>M23*-1</f>
         <v>0</v>
       </c>
-      <c r="F27" s="293">
+      <c r="F27" s="275">
         <f>E27/E35</f>
         <v>0</v>
       </c>
       <c r="G27" s="243" t="s">
         <v>272</v>
       </c>
-      <c r="H27" s="316">
+      <c r="H27" s="298">
         <f>M15</f>
         <v>136680</v>
       </c>
-      <c r="I27" s="295">
+      <c r="I27" s="277">
         <f t="shared" si="16"/>
         <v>4.7657003466534446E-2</v>
       </c>
@@ -12848,22 +13061,22 @@
         <f t="shared" si="13"/>
         <v>Juveniles</v>
       </c>
-      <c r="B28" s="333">
+      <c r="B28" s="314">
         <f t="shared" si="14"/>
         <v>0.23438110367457485</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="239"/>
       <c r="E28" s="240"/>
-      <c r="F28" s="293"/>
+      <c r="F28" s="275"/>
       <c r="G28" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="316">
+      <c r="H28" s="298">
         <f>M16</f>
         <v>120700</v>
       </c>
-      <c r="I28" s="295">
+      <c r="I28" s="277">
         <f t="shared" si="16"/>
         <v>4.2085164752785398E-2</v>
       </c>
@@ -12894,7 +13107,7 @@
         <f t="shared" si="13"/>
         <v>Compra</v>
       </c>
-      <c r="B29" s="333">
+      <c r="B29" s="314">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -12905,18 +13118,18 @@
         <f>SUM(E30:E34)</f>
         <v>2211294</v>
       </c>
-      <c r="F29" s="291">
+      <c r="F29" s="273">
         <f>E29/E35</f>
         <v>0.77102462557453044</v>
       </c>
       <c r="G29" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="316">
+      <c r="H29" s="298">
         <f>M18</f>
         <v>554880</v>
       </c>
-      <c r="I29" s="295">
+      <c r="I29" s="277">
         <f t="shared" si="16"/>
         <v>0.19347320810294583</v>
       </c>
@@ -12953,7 +13166,7 @@
         <f t="shared" si="13"/>
         <v>Entrenador</v>
       </c>
-      <c r="B30" s="333">
+      <c r="B30" s="314">
         <f t="shared" si="14"/>
         <v>0.17493945154821741</v>
       </c>
@@ -12964,23 +13177,23 @@
         <f>M11</f>
         <v>11760</v>
       </c>
-      <c r="F30" s="293">
+      <c r="F30" s="275">
         <f>E30/E35</f>
         <v>4.1004269883409801E-3</v>
       </c>
       <c r="G30" s="243" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="316">
+      <c r="H30" s="298">
         <f>M19</f>
         <v>360000</v>
       </c>
-      <c r="I30" s="295">
+      <c r="I30" s="277">
         <f t="shared" si="16"/>
         <v>0.12552327515329531</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="273" t="s">
+      <c r="L30" s="340" t="s">
         <v>144</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -13014,7 +13227,7 @@
         <f t="shared" si="13"/>
         <v>Viajes+Venta</v>
       </c>
-      <c r="B31" s="333">
+      <c r="B31" s="314">
         <f t="shared" si="14"/>
         <v>4.5574103492278441E-3</v>
       </c>
@@ -13025,23 +13238,23 @@
         <f>M12</f>
         <v>903000</v>
       </c>
-      <c r="F31" s="293">
+      <c r="F31" s="275">
         <f>E31/E35</f>
         <v>0.31485421517618239</v>
       </c>
       <c r="G31" s="243" t="s">
         <v>139</v>
       </c>
-      <c r="H31" s="316">
+      <c r="H31" s="298">
         <f>M22</f>
         <v>7000</v>
       </c>
-      <c r="I31" s="295">
+      <c r="I31" s="277">
         <f t="shared" si="16"/>
         <v>2.4407303502029642E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="273"/>
+      <c r="L31" s="340"/>
       <c r="M31" s="98" t="s">
         <v>145</v>
       </c>
@@ -13073,7 +13286,7 @@
         <f>L24</f>
         <v>Intereses</v>
       </c>
-      <c r="B32" s="333">
+      <c r="B32" s="314">
         <f>M24/$M$25</f>
         <v>0</v>
       </c>
@@ -13084,23 +13297,23 @@
         <f>M6</f>
         <v>874189</v>
       </c>
-      <c r="F32" s="293">
+      <c r="F32" s="275">
         <f>E32/E35</f>
         <v>0.30480851773051126</v>
       </c>
       <c r="G32" s="243" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="316">
+      <c r="H32" s="298">
         <f>M24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="295">
+      <c r="I32" s="277">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="273"/>
+      <c r="L32" s="340"/>
       <c r="M32" s="98" t="s">
         <v>146</v>
       </c>
@@ -13140,15 +13353,15 @@
         <f>M7</f>
         <v>390345</v>
       </c>
-      <c r="F33" s="293">
+      <c r="F33" s="275">
         <f>E33/E35</f>
         <v>0.13610384122142516</v>
       </c>
       <c r="G33" s="239"/>
-      <c r="H33" s="314"/>
-      <c r="I33" s="315"/>
+      <c r="H33" s="296"/>
+      <c r="I33" s="297"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="273"/>
+      <c r="L33" s="340"/>
       <c r="M33" s="98" t="s">
         <v>147</v>
       </c>
@@ -13178,22 +13391,22 @@
     <row r="34" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="97"/>
-      <c r="D34" s="318" t="s">
+      <c r="D34" s="300" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="319">
+      <c r="E34" s="301">
         <f>M10</f>
         <v>32000</v>
       </c>
-      <c r="F34" s="293">
+      <c r="F34" s="275">
         <f>E34/E35</f>
         <v>1.1157624458070694E-2</v>
       </c>
-      <c r="G34" s="320"/>
-      <c r="H34" s="321"/>
-      <c r="I34" s="322"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="303"/>
+      <c r="I34" s="304"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="273"/>
+      <c r="L34" s="340"/>
       <c r="M34" s="98" t="s">
         <v>148</v>
       </c>
@@ -13221,15 +13434,15 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="334">
+      <c r="A35" s="341">
         <f>M25</f>
         <v>1535960</v>
       </c>
-      <c r="B35" s="334"/>
-      <c r="D35" s="323" t="s">
+      <c r="B35" s="341"/>
+      <c r="D35" s="305" t="s">
         <v>228</v>
       </c>
-      <c r="E35" s="324">
+      <c r="E35" s="306">
         <f>E29+E21+E15+E5+E10+E24</f>
         <v>2867994</v>
       </c>
@@ -13237,19 +13450,19 @@
         <f>F29+F21+F15+F5+F10+F24</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="G35" s="323" t="s">
+      <c r="G35" s="305" t="s">
         <v>228</v>
       </c>
-      <c r="H35" s="324">
+      <c r="H35" s="306">
         <f>H26+H18+H10+H5+H22</f>
         <v>2867994</v>
       </c>
-      <c r="I35" s="325">
+      <c r="I35" s="307">
         <f>H35/$H$35</f>
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="273"/>
+      <c r="L35" s="340"/>
       <c r="M35" s="98" t="s">
         <v>150</v>
       </c>
@@ -13286,7 +13499,7 @@
       </c>
       <c r="I36" s="221"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="273"/>
+      <c r="L36" s="340"/>
       <c r="M36" s="98" t="s">
         <v>151</v>
       </c>
@@ -13319,7 +13532,7 @@
       <c r="H37" s="221"/>
       <c r="I37" s="221"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="273"/>
+      <c r="L37" s="340"/>
       <c r="M37" s="98" t="s">
         <v>152</v>
       </c>
@@ -13442,10 +13655,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="271"/>
-      <c r="R39" s="271"/>
-      <c r="S39" s="271"/>
-      <c r="T39" s="271"/>
+      <c r="Q39" s="342"/>
+      <c r="R39" s="342"/>
+      <c r="S39" s="342"/>
+      <c r="T39" s="342"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="221"/>
@@ -13497,10 +13710,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="272"/>
-      <c r="R42" s="272"/>
-      <c r="S42" s="272"/>
-      <c r="T42" s="272"/>
+      <c r="Q42" s="336"/>
+      <c r="R42" s="336"/>
+      <c r="S42" s="336"/>
+      <c r="T42" s="336"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -13521,10 +13734,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="272"/>
-      <c r="R44" s="272"/>
-      <c r="S44" s="272"/>
-      <c r="T44" s="272"/>
+      <c r="Q44" s="336"/>
+      <c r="R44" s="336"/>
+      <c r="S44" s="336"/>
+      <c r="T44" s="336"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -13533,9 +13746,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="272"/>
-      <c r="R45" s="272"/>
-      <c r="S45" s="272"/>
+      <c r="Q45" s="336"/>
+      <c r="R45" s="336"/>
+      <c r="S45" s="336"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -13792,20 +14005,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q44:T44"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K11:K13"/>
-    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
@@ -13834,7 +14047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -13844,7 +14057,7 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.28515625" customWidth="1"/>
     <col min="2" max="6" width="12.42578125" customWidth="1"/>
@@ -13892,18 +14105,18 @@
       <c r="C2" s="156" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="280" t="s">
+      <c r="D2" s="343" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="280"/>
-      <c r="F2" s="281" t="s">
+      <c r="E2" s="343"/>
+      <c r="F2" s="344" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="281"/>
-      <c r="H2" s="282" t="s">
+      <c r="G2" s="344"/>
+      <c r="H2" s="345" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="282"/>
+      <c r="I2" s="345"/>
       <c r="K2" s="60"/>
       <c r="M2" s="157">
         <v>11</v>
@@ -16395,7 +16608,7 @@
       <c r="AU29" s="193"/>
       <c r="AV29" s="193"/>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="194" t="s">
         <v>242</v>
       </c>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75328D-4042-4E06-8A35-451A843A56A5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C9F647-0217-4C0C-943E-054049773372}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="293">
   <si>
     <t>Nfin</t>
   </si>
@@ -1065,6 +1065,18 @@
   </si>
   <si>
     <t>Malintencionat - no Infame</t>
+  </si>
+  <si>
+    <t>23(42)</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>A. Arsequell</t>
+  </si>
+  <si>
+    <t>TEC</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1096,7 @@
     <numFmt numFmtId="173" formatCode="_-* #,##0&quot; €&quot;_-;\-* #,##0&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="174" formatCode="_-* #,##0\ [$€-C0A]_-;\-* #,##0\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1486,6 +1498,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="49">
@@ -2023,7 +2042,7 @@
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2725,9 +2744,6 @@
     <xf numFmtId="2" fontId="3" fillId="47" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="37" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2740,6 +2756,21 @@
     <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="48" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="54" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2824,9 +2855,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2835,202 +2864,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3122,6 +2956,63 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4058,11 +3949,11 @@
   </sheetPr>
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,13 +4006,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43649</v>
-      </c>
-      <c r="E1" s="324">
+        <v>43653</v>
+      </c>
+      <c r="E1" s="328">
         <v>43637</v>
       </c>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -4198,19 +4089,19 @@
       <c r="R2" s="11"/>
       <c r="S2" s="12">
         <f>AVERAGE(S4:S22)</f>
-        <v>4.6842105263157894</v>
+        <v>4.9473684210526319</v>
       </c>
       <c r="T2" s="13">
         <f>AVERAGE(T4:T22)</f>
-        <v>0.81607684527628344</v>
+        <v>0.83847248281753972</v>
       </c>
       <c r="U2" s="13">
         <f>AVERAGE(U4:U22)</f>
-        <v>0.89886708891549372</v>
+        <v>0.91932024064412976</v>
       </c>
       <c r="V2" s="14">
         <f>AVERAGE(V4:V22)</f>
-        <v>1056.3157894736842</v>
+        <v>1120.5263157894738</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14">
@@ -4417,7 +4308,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C22" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.616071428571427</v>
+        <v>17.580357142857142</v>
       </c>
       <c r="D4" s="218" t="s">
         <v>54</v>
@@ -4427,7 +4318,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -4486,7 +4377,7 @@
       </c>
       <c r="W4" s="40">
         <f t="shared" ref="W4:W22" si="8">V4-AZ4</f>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X4" s="41">
         <v>370</v>
@@ -4496,7 +4387,7 @@
         <v>2.3243243243243241</v>
       </c>
       <c r="Z4" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="34">
         <v>6</v>
@@ -4517,10 +4408,10 @@
         <v>4</v>
       </c>
       <c r="AG4" s="46">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="AH4" s="46">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="AI4" s="43">
         <f t="shared" ref="AI4:AI22" si="10">(AB4+R4+M4)*(S4/7)^0.5</f>
@@ -4559,7 +4450,7 @@
         <v>5.092010548749033</v>
       </c>
       <c r="AR4" s="47">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AS4" s="47">
         <v>14</v>
@@ -4581,10 +4472,10 @@
       </c>
       <c r="AY4" s="48">
         <f t="shared" ref="AY4:AY22" si="19">SUM(AR4:AX4)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ4" s="39">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="BA4" s="49" t="s">
         <v>56</v>
@@ -4599,9 +4490,9 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.8035714285714288</v>
-      </c>
-      <c r="D5" s="352" t="s">
+        <v>8.7678571428571423</v>
+      </c>
+      <c r="D5" s="323" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="50">
@@ -4609,7 +4500,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -4664,22 +4555,22 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="V5" s="39">
-        <v>2310</v>
+        <v>2900</v>
       </c>
       <c r="W5" s="40">
         <f t="shared" si="8"/>
-        <v>490</v>
+        <v>590</v>
       </c>
       <c r="X5" s="39">
         <v>890</v>
       </c>
       <c r="Y5" s="42">
         <f>V5/X5</f>
-        <v>2.595505617977528</v>
+        <v>3.2584269662921348</v>
       </c>
       <c r="Z5" s="45">
-        <f>5+1/3*80/90</f>
-        <v>5.2962962962962958</v>
+        <f>5+1/3*80/90+1/3</f>
+        <v>5.6296296296296289</v>
       </c>
       <c r="AA5" s="34">
         <v>3</v>
@@ -4742,8 +4633,8 @@
         <v>3.8293416127348134</v>
       </c>
       <c r="AR5" s="47">
-        <f>5.5+1*80/90</f>
-        <v>6.3888888888888893</v>
+        <f>5.5+1*80/90+1</f>
+        <v>7.3888888888888893</v>
       </c>
       <c r="AS5" s="47">
         <v>3</v>
@@ -4765,10 +4656,10 @@
       </c>
       <c r="AY5" s="48">
         <f>SUM(AR5:AX5)</f>
-        <v>9.3888888888888893</v>
+        <v>10.388888888888889</v>
       </c>
       <c r="AZ5" s="39">
-        <v>1820</v>
+        <v>2310</v>
       </c>
       <c r="BA5" s="49" t="s">
         <v>56</v>
@@ -4783,9 +4674,9 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.696428571428571</v>
-      </c>
-      <c r="D6" s="352" t="s">
+        <v>14.660714285714286</v>
+      </c>
+      <c r="D6" s="323" t="s">
         <v>59</v>
       </c>
       <c r="E6" s="50">
@@ -4793,7 +4684,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -4837,33 +4728,33 @@
         <v>1.5</v>
       </c>
       <c r="S6" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" s="31">
         <f t="shared" si="6"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="U6" s="31">
         <f t="shared" si="7"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="V6" s="39">
-        <v>2030</v>
+        <v>2450</v>
       </c>
       <c r="W6" s="40">
         <f t="shared" si="8"/>
-        <v>220</v>
+        <v>420</v>
       </c>
       <c r="X6" s="39">
         <v>990</v>
       </c>
       <c r="Y6" s="42">
         <f t="shared" si="9"/>
-        <v>2.0505050505050506</v>
+        <v>2.4747474747474749</v>
       </c>
       <c r="Z6" s="45">
-        <f>5+1/3*10/90</f>
-        <v>5.0370370370370372</v>
+        <f>5+1/3*39/90</f>
+        <v>5.1444444444444448</v>
       </c>
       <c r="AA6" s="34">
         <v>2</v>
@@ -4891,23 +4782,23 @@
       </c>
       <c r="AI6" s="43">
         <f t="shared" si="10"/>
-        <v>1.6147864419653308</v>
+        <v>1.8053861266897495</v>
       </c>
       <c r="AJ6" s="43">
         <f t="shared" si="11"/>
-        <v>1.8053861266897495</v>
+        <v>1.9777014131897108</v>
       </c>
       <c r="AK6" s="42">
         <f t="shared" si="12"/>
-        <v>0.79452715224161274</v>
+        <v>0.88830836119078527</v>
       </c>
       <c r="AL6" s="42">
         <f t="shared" si="13"/>
-        <v>-0.51333827175627267</v>
+        <v>-0.57392963554964316</v>
       </c>
       <c r="AM6" s="42">
         <f t="shared" si="14"/>
-        <v>3.7313874908170028</v>
+        <v>4.1718180399295957</v>
       </c>
       <c r="AN6" s="42">
         <f t="shared" si="15"/>
@@ -4919,15 +4810,15 @@
       </c>
       <c r="AP6" s="44">
         <f t="shared" si="17"/>
-        <v>4.4610189195577838</v>
+        <v>4.9875707765219355</v>
       </c>
       <c r="AQ6" s="44">
         <f t="shared" si="18"/>
-        <v>4.9875707765219355</v>
+        <v>5.4636100429092433</v>
       </c>
       <c r="AR6" s="47">
-        <f>5.5+1*10/90</f>
-        <v>5.6111111111111107</v>
+        <f>5.5+1*39/90</f>
+        <v>5.9333333333333336</v>
       </c>
       <c r="AS6" s="47">
         <v>0</v>
@@ -4949,10 +4840,10 @@
       </c>
       <c r="AY6" s="48">
         <f t="shared" si="19"/>
-        <v>7.6111111111111107</v>
+        <v>7.9333333333333336</v>
       </c>
       <c r="AZ6" s="39">
-        <v>1810</v>
+        <v>2030</v>
       </c>
       <c r="BA6" s="49" t="s">
         <v>56</v>
@@ -4967,9 +4858,9 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.741071428571427</v>
-      </c>
-      <c r="D7" s="352" t="s">
+        <v>17.705357142857142</v>
+      </c>
+      <c r="D7" s="323" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="50">
@@ -4977,7 +4868,7 @@
       </c>
       <c r="F7" s="51">
         <f ca="1">$D$1-43620</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="37">
@@ -5019,29 +4910,29 @@
         <v>1.5</v>
       </c>
       <c r="S7" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T7" s="31">
         <f t="shared" si="6"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="U7" s="31">
         <f t="shared" si="7"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="V7" s="39">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="W7" s="40">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7" s="39">
         <v>390</v>
       </c>
       <c r="Y7" s="42">
         <f t="shared" si="9"/>
-        <v>0.4358974358974359</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="Z7" s="45">
         <v>2</v>
@@ -5072,23 +4963,23 @@
       </c>
       <c r="AI7" s="43">
         <f t="shared" si="10"/>
-        <v>1.3143756540609242</v>
+        <v>1.4398263895295496</v>
       </c>
       <c r="AJ7" s="43">
         <f t="shared" si="11"/>
-        <v>1.4398263895295496</v>
+        <v>1.5551902468776335</v>
       </c>
       <c r="AK7" s="42">
         <f t="shared" si="12"/>
-        <v>0.70417943395497562</v>
+        <v>0.77138992101671888</v>
       </c>
       <c r="AL7" s="42">
         <f t="shared" si="13"/>
-        <v>-3.0535673003613995</v>
+        <v>-3.3450153825361828</v>
       </c>
       <c r="AM7" s="42">
         <f t="shared" si="14"/>
-        <v>1.9059836323708859</v>
+        <v>2.0879004593703359</v>
       </c>
       <c r="AN7" s="42">
         <f t="shared" si="15"/>
@@ -5100,11 +4991,11 @@
       </c>
       <c r="AP7" s="44">
         <f t="shared" si="17"/>
-        <v>0.98601329718326935</v>
+        <v>1.0801234497346435</v>
       </c>
       <c r="AQ7" s="44">
         <f t="shared" si="18"/>
-        <v>1.0801234497346435</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="AR7" s="47">
         <v>0</v>
@@ -5147,7 +5038,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9017857142857144</v>
+        <v>3.8660714285714284</v>
       </c>
       <c r="D8" s="217" t="s">
         <v>67</v>
@@ -5157,7 +5048,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -5199,29 +5090,29 @@
         <v>1.5</v>
       </c>
       <c r="S8" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T8" s="31">
         <f t="shared" si="6"/>
-        <v>0.7559289460184544</v>
+        <v>0.65465367070797709</v>
       </c>
       <c r="U8" s="31">
         <f t="shared" si="7"/>
-        <v>0.84430867747355465</v>
+        <v>0.75498344352707503</v>
       </c>
       <c r="V8" s="39">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="W8" s="40">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>-40</v>
       </c>
       <c r="X8" s="41">
         <v>310</v>
       </c>
       <c r="Y8" s="42">
         <f t="shared" si="9"/>
-        <v>1.5806451612903225</v>
+        <v>1.4516129032258065</v>
       </c>
       <c r="Z8" s="45">
         <v>1</v>
@@ -5252,23 +5143,23 @@
       </c>
       <c r="AI8" s="43">
         <f t="shared" si="10"/>
-        <v>4.8621047480031541</v>
+        <v>4.2107062276316682</v>
       </c>
       <c r="AJ8" s="43">
         <f t="shared" si="11"/>
-        <v>5.4359983651297696</v>
+        <v>4.8621047480031541</v>
       </c>
       <c r="AK8" s="42">
         <f t="shared" si="12"/>
-        <v>1.9177803987534896</v>
+        <v>1.6608465442003726</v>
       </c>
       <c r="AL8" s="42">
         <f t="shared" si="13"/>
-        <v>2.9062683228755994</v>
+        <v>2.5169021978242641</v>
       </c>
       <c r="AM8" s="42">
         <f t="shared" si="14"/>
-        <v>4.9376976426049994</v>
+        <v>4.2761715947024657</v>
       </c>
       <c r="AN8" s="42">
         <f t="shared" si="15"/>
@@ -5280,11 +5171,11 @@
       </c>
       <c r="AP8" s="44">
         <f t="shared" si="17"/>
-        <v>5.5203575820325224</v>
+        <v>4.7807699040142024</v>
       </c>
       <c r="AQ8" s="44">
         <f t="shared" si="18"/>
-        <v>6.171947406765546</v>
+        <v>5.5203575820325224</v>
       </c>
       <c r="AR8" s="47">
         <v>0</v>
@@ -5312,7 +5203,7 @@
         <v>28.5</v>
       </c>
       <c r="AZ8" s="39">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="BA8" s="49" t="s">
         <v>56</v>
@@ -5327,7 +5218,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3571428571428577</v>
+        <v>9.3214285714285712</v>
       </c>
       <c r="D9" s="198" t="s">
         <v>69</v>
@@ -5337,7 +5228,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G9" s="56"/>
       <c r="H9" s="30">
@@ -5369,39 +5260,39 @@
         <v>48</v>
       </c>
       <c r="P9" s="36">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Q9" s="37">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R9" s="38">
         <v>1.5</v>
       </c>
       <c r="S9" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" s="31">
         <f t="shared" si="6"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="U9" s="31">
         <f t="shared" si="7"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="V9" s="39">
-        <v>1100</v>
+        <v>1180</v>
       </c>
       <c r="W9" s="40">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="X9" s="41">
         <v>390</v>
       </c>
       <c r="Y9" s="42">
         <f t="shared" si="9"/>
-        <v>2.8205128205128207</v>
+        <v>3.0256410256410255</v>
       </c>
       <c r="Z9" s="45">
         <v>0</v>
@@ -5432,23 +5323,23 @@
       </c>
       <c r="AI9" s="43">
         <f t="shared" si="10"/>
-        <v>3.252570743977159</v>
+        <v>3.6364846425799962</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="11"/>
-        <v>3.6364846425799962</v>
+        <v>3.9835693375243508</v>
       </c>
       <c r="AK9" s="42">
         <f t="shared" si="12"/>
-        <v>1.7866607385052755</v>
+        <v>1.9975474320138862</v>
       </c>
       <c r="AL9" s="42">
         <f t="shared" si="13"/>
-        <v>1.0198011446789335</v>
+        <v>1.1401723415170968</v>
       </c>
       <c r="AM9" s="42">
         <f t="shared" si="14"/>
-        <v>4.0840925845974594</v>
+        <v>4.5661543227813652</v>
       </c>
       <c r="AN9" s="42">
         <f t="shared" si="15"/>
@@ -5460,11 +5351,11 @@
       </c>
       <c r="AP9" s="44">
         <f t="shared" si="17"/>
-        <v>4.6385022260391482</v>
+        <v>5.1860031456038156</v>
       </c>
       <c r="AQ9" s="44">
         <f t="shared" si="18"/>
-        <v>5.1860031456038156</v>
+        <v>5.6809818122799163</v>
       </c>
       <c r="AR9" s="47">
         <v>0</v>
@@ -5492,7 +5383,7 @@
         <v>23.5</v>
       </c>
       <c r="AZ9" s="39">
-        <v>1050</v>
+        <v>1100</v>
       </c>
       <c r="BA9" s="49" t="s">
         <v>56</v>
@@ -5507,7 +5398,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3303571428571432</v>
+        <v>7.2946428571428568</v>
       </c>
       <c r="D10" s="264" t="s">
         <v>71</v>
@@ -5517,7 +5408,7 @@
       </c>
       <c r="F10" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -5549,11 +5440,11 @@
         <v>144</v>
       </c>
       <c r="P10" s="54">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Q10" s="37">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R10" s="38">
         <v>1.5</v>
@@ -5569,19 +5460,19 @@
         <f t="shared" si="7"/>
         <v>0.99928545900129484</v>
       </c>
-      <c r="V10" s="39">
-        <v>620</v>
+      <c r="V10" s="327">
+        <v>510</v>
       </c>
       <c r="W10" s="40">
         <f t="shared" si="8"/>
-        <v>-30</v>
+        <v>-110</v>
       </c>
       <c r="X10" s="39">
         <v>300</v>
       </c>
       <c r="Y10" s="42">
         <f t="shared" si="9"/>
-        <v>2.0666666666666669</v>
+        <v>1.7</v>
       </c>
       <c r="Z10" s="45">
         <v>0</v>
@@ -5672,7 +5563,7 @@
         <v>20</v>
       </c>
       <c r="AZ10" s="39">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="BA10" s="49" t="s">
         <v>56</v>
@@ -5687,7 +5578,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0803571428571432</v>
+        <v>5.0446428571428568</v>
       </c>
       <c r="D11" s="264" t="s">
         <v>73</v>
@@ -5697,7 +5588,7 @@
       </c>
       <c r="F11" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="37">
@@ -5729,39 +5620,39 @@
         <v>125</v>
       </c>
       <c r="P11" s="54">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Q11" s="37">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R11" s="38">
         <v>1.5</v>
       </c>
       <c r="S11" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11" s="31">
         <f t="shared" si="6"/>
-        <v>0.92582009977255142</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="U11" s="31">
         <f t="shared" si="7"/>
-        <v>0.99928545900129484</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="V11" s="39">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="W11" s="40">
         <f t="shared" si="8"/>
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="X11" s="39">
         <v>280</v>
       </c>
       <c r="Y11" s="42">
         <f t="shared" si="9"/>
-        <v>1.1785714285714286</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="Z11" s="45">
         <v>0</v>
@@ -5792,23 +5683,23 @@
       </c>
       <c r="AI11" s="43">
         <f t="shared" si="10"/>
-        <v>6.0525813064401275</v>
+        <v>5.5252255211189105</v>
       </c>
       <c r="AJ11" s="43">
         <f t="shared" si="11"/>
-        <v>6.5375350005115251</v>
+        <v>6.0525813064401275</v>
       </c>
       <c r="AK11" s="42">
         <f t="shared" si="12"/>
-        <v>1.9225354525003409</v>
+        <v>1.7550267248963975</v>
       </c>
       <c r="AL11" s="42">
         <f t="shared" si="13"/>
-        <v>1.2109285762213573</v>
+        <v>1.1054214945400855</v>
       </c>
       <c r="AM11" s="42">
         <f t="shared" si="14"/>
-        <v>6.237745326394637</v>
+        <v>5.6942563720646131</v>
       </c>
       <c r="AN11" s="42">
         <f t="shared" si="15"/>
@@ -5820,11 +5711,11 @@
       </c>
       <c r="AP11" s="44">
         <f t="shared" si="17"/>
-        <v>7.8064780538306602</v>
+        <v>7.1263068745868017</v>
       </c>
       <c r="AQ11" s="44">
         <f t="shared" si="18"/>
-        <v>8.4319600057813577</v>
+        <v>7.8064780538306602</v>
       </c>
       <c r="AR11" s="47">
         <v>0</v>
@@ -5852,7 +5743,7 @@
         <v>21.5</v>
       </c>
       <c r="AZ11" s="39">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="BA11" s="49" t="s">
         <v>56</v>
@@ -5867,7 +5758,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.767857142857142</v>
+        <v>10.732142857142858</v>
       </c>
       <c r="D12" s="198" t="s">
         <v>76</v>
@@ -5877,7 +5768,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="56" t="s">
         <v>77</v>
@@ -5932,18 +5823,18 @@
         <v>0.84430867747355465</v>
       </c>
       <c r="V12" s="41">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="W12" s="40">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>-40</v>
       </c>
       <c r="X12" s="41">
         <v>330</v>
       </c>
       <c r="Y12" s="42">
         <f t="shared" si="9"/>
-        <v>2.606060606060606</v>
+        <v>2.4848484848484849</v>
       </c>
       <c r="Z12" s="45">
         <v>1</v>
@@ -6034,7 +5925,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" s="41">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="BA12" s="49" t="s">
         <v>56</v>
@@ -6049,7 +5940,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.107142857142858</v>
+        <v>14.071428571428571</v>
       </c>
       <c r="D13" s="217" t="s">
         <v>79</v>
@@ -6059,7 +5950,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -6116,7 +6007,7 @@
       </c>
       <c r="W13" s="40">
         <f t="shared" si="8"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="X13" s="39">
         <v>310</v>
@@ -6214,7 +6105,7 @@
         <v>20.5</v>
       </c>
       <c r="AZ13" s="39">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="BA13" s="49" t="s">
         <v>56</v>
@@ -6229,7 +6120,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.419642857142858</v>
+        <v>16.383928571428573</v>
       </c>
       <c r="D14" s="217" t="s">
         <v>81</v>
@@ -6239,7 +6130,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -6292,18 +6183,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="V14" s="39">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="W14" s="40">
         <f t="shared" si="8"/>
-        <v>-10</v>
+        <v>-30</v>
       </c>
       <c r="X14" s="39">
         <v>330</v>
       </c>
       <c r="Y14" s="42">
         <f t="shared" si="9"/>
-        <v>2.8787878787878789</v>
+        <v>2.7878787878787881</v>
       </c>
       <c r="Z14" s="45">
         <v>0</v>
@@ -6394,7 +6285,7 @@
         <v>22</v>
       </c>
       <c r="AZ14" s="39">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="BA14" s="49" t="s">
         <v>56</v>
@@ -6409,7 +6300,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.866071428571429</v>
+        <v>12.830357142857142</v>
       </c>
       <c r="D15" s="217" t="s">
         <v>83</v>
@@ -6419,7 +6310,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -6451,11 +6342,11 @@
         <v>72</v>
       </c>
       <c r="P15" s="54">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Q15" s="37">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R15" s="38">
         <v>1.5</v>
@@ -6472,18 +6363,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="V15" s="39">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="W15" s="40">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="X15" s="39">
         <v>430</v>
       </c>
       <c r="Y15" s="42">
         <f t="shared" si="9"/>
-        <v>3.2093023255813953</v>
+        <v>3.2558139534883721</v>
       </c>
       <c r="Z15" s="45">
         <v>0</v>
@@ -6574,7 +6465,7 @@
         <v>26</v>
       </c>
       <c r="AZ15" s="39">
-        <v>1370</v>
+        <v>1380</v>
       </c>
       <c r="BA15" s="49" t="s">
         <v>56</v>
@@ -6589,7 +6480,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.883928571428571</v>
+        <v>11.848214285714286</v>
       </c>
       <c r="D16" s="217" t="s">
         <v>85</v>
@@ -6599,7 +6490,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="37">
@@ -6631,39 +6522,39 @@
         <v>32</v>
       </c>
       <c r="P16" s="54">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q16" s="37">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R16" s="38">
         <v>1.5</v>
       </c>
       <c r="S16" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="6"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="U16" s="31">
         <f t="shared" si="7"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="V16" s="39">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="W16" s="40">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="X16" s="39">
         <v>410</v>
       </c>
       <c r="Y16" s="42">
         <f t="shared" si="9"/>
-        <v>2.4146341463414633</v>
+        <v>2.4878048780487805</v>
       </c>
       <c r="Z16" s="45">
         <v>0</v>
@@ -6694,23 +6585,23 @@
       </c>
       <c r="AI16" s="43">
         <f t="shared" si="10"/>
-        <v>6.1503601180760574</v>
+        <v>6.8763116550608494</v>
       </c>
       <c r="AJ16" s="43">
         <f t="shared" si="11"/>
-        <v>6.8763116550608494</v>
+        <v>7.53262201182502</v>
       </c>
       <c r="AK16" s="42">
         <f t="shared" si="12"/>
-        <v>1.644947216512374</v>
+        <v>1.8391068977603664</v>
       </c>
       <c r="AL16" s="42">
         <f t="shared" si="13"/>
-        <v>3.2511878794156304</v>
+        <v>3.6349385529983698</v>
       </c>
       <c r="AM16" s="42">
         <f t="shared" si="14"/>
-        <v>4.4117235422336121</v>
+        <v>4.9324568691852608</v>
       </c>
       <c r="AN16" s="42">
         <f t="shared" si="15"/>
@@ -6722,11 +6613,11 @@
       </c>
       <c r="AP16" s="44">
         <f t="shared" si="17"/>
-        <v>4.4610189195577838</v>
+        <v>4.9875707765219355</v>
       </c>
       <c r="AQ16" s="44">
         <f t="shared" si="18"/>
-        <v>4.9875707765219355</v>
+        <v>5.4636100429092433</v>
       </c>
       <c r="AR16" s="47">
         <v>0</v>
@@ -6754,7 +6645,7 @@
         <v>23</v>
       </c>
       <c r="AZ16" s="39">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="BA16" s="49" t="s">
         <v>56</v>
@@ -6769,7 +6660,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8482142857142865</v>
+        <v>8.8125</v>
       </c>
       <c r="D17" s="217" t="s">
         <v>87</v>
@@ -6779,7 +6670,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>88</v>
@@ -6813,11 +6704,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="54">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q17" s="37">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R17" s="38">
         <v>1.5</v>
@@ -6834,18 +6725,18 @@
         <v>0.84430867747355465</v>
       </c>
       <c r="V17" s="39">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="W17" s="40">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>-10</v>
       </c>
       <c r="X17" s="39">
         <v>330</v>
       </c>
       <c r="Y17" s="42">
         <f t="shared" si="9"/>
-        <v>3.9393939393939394</v>
+        <v>3.9090909090909092</v>
       </c>
       <c r="Z17" s="45">
         <v>0</v>
@@ -6936,7 +6827,7 @@
         <v>26.5</v>
       </c>
       <c r="AZ17" s="39">
-        <v>1190</v>
+        <v>1300</v>
       </c>
       <c r="BA17" s="49" t="s">
         <v>56</v>
@@ -6951,7 +6842,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.098214285714286</v>
+        <v>15.0625</v>
       </c>
       <c r="D18" s="217" t="s">
         <v>91</v>
@@ -6961,7 +6852,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -6993,39 +6884,39 @@
         <v>36</v>
       </c>
       <c r="P18" s="54">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Q18" s="37">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R18" s="38">
         <v>1.5</v>
       </c>
       <c r="S18" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="6"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="U18" s="31">
         <f t="shared" si="7"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="V18" s="39">
-        <v>1330</v>
+        <v>1500</v>
       </c>
       <c r="W18" s="40">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="X18" s="39">
         <v>330</v>
       </c>
       <c r="Y18" s="42">
         <f t="shared" si="9"/>
-        <v>4.0303030303030303</v>
+        <v>4.5454545454545459</v>
       </c>
       <c r="Z18" s="45">
         <v>0</v>
@@ -7056,23 +6947,23 @@
       </c>
       <c r="AI18" s="43">
         <f t="shared" si="10"/>
-        <v>5.2169478655762385</v>
+        <v>5.8327250312504519</v>
       </c>
       <c r="AJ18" s="43">
         <f t="shared" si="11"/>
-        <v>5.8327250312504519</v>
+        <v>6.3894301426817952</v>
       </c>
       <c r="AK18" s="42">
         <f t="shared" si="12"/>
-        <v>1.6728820948341687</v>
+        <v>1.8703390411957257</v>
       </c>
       <c r="AL18" s="42">
         <f t="shared" si="13"/>
-        <v>0.34926567131054559</v>
+        <v>0.39049089162873901</v>
       </c>
       <c r="AM18" s="42">
         <f t="shared" si="14"/>
-        <v>3.7806828681411746</v>
+        <v>4.2269319472662703</v>
       </c>
       <c r="AN18" s="42">
         <f t="shared" si="15"/>
@@ -7084,11 +6975,11 @@
       </c>
       <c r="AP18" s="44">
         <f t="shared" si="17"/>
-        <v>4.1576092031014991</v>
+        <v>4.6483484010068414</v>
       </c>
       <c r="AQ18" s="44">
         <f t="shared" si="18"/>
-        <v>4.6483484010068414</v>
+        <v>5.092010548749033</v>
       </c>
       <c r="AR18" s="47">
         <v>0</v>
@@ -7116,7 +7007,7 @@
         <v>26.5</v>
       </c>
       <c r="AZ18" s="39">
-        <v>1230</v>
+        <v>1330</v>
       </c>
       <c r="BA18" s="49" t="s">
         <v>56</v>
@@ -7131,7 +7022,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.258928571428571</v>
+        <v>13.223214285714286</v>
       </c>
       <c r="D19" s="217" t="s">
         <v>93</v>
@@ -7141,7 +7032,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -7194,18 +7085,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="V19" s="39">
-        <v>2250</v>
+        <v>2240</v>
       </c>
       <c r="W19" s="40">
         <f t="shared" si="8"/>
-        <v>-60</v>
+        <v>-10</v>
       </c>
       <c r="X19" s="39">
         <v>370</v>
       </c>
       <c r="Y19" s="42">
         <f t="shared" si="9"/>
-        <v>6.0810810810810807</v>
+        <v>6.0540540540540544</v>
       </c>
       <c r="Z19" s="45">
         <v>0</v>
@@ -7296,7 +7187,7 @@
         <v>29.5</v>
       </c>
       <c r="AZ19" s="39">
-        <v>2310</v>
+        <v>2250</v>
       </c>
       <c r="BA19" s="49" t="s">
         <v>56</v>
@@ -7311,7 +7202,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.848214285714285</v>
+        <v>17.8125</v>
       </c>
       <c r="D20" s="217" t="s">
         <v>96</v>
@@ -7321,7 +7212,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -7374,18 +7265,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="V20" s="39">
-        <v>1280</v>
+        <v>1310</v>
       </c>
       <c r="W20" s="40">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="X20" s="39">
         <v>410</v>
       </c>
       <c r="Y20" s="42">
         <f t="shared" si="9"/>
-        <v>3.1219512195121952</v>
+        <v>3.1951219512195124</v>
       </c>
       <c r="Z20" s="45">
         <v>0</v>
@@ -7476,7 +7367,7 @@
         <v>25.5</v>
       </c>
       <c r="AZ20" s="39">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="BA20" s="49" t="s">
         <v>56</v>
@@ -7491,7 +7382,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8928571428571428</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="D21" s="217" t="s">
         <v>98</v>
@@ -7501,7 +7392,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -7543,22 +7434,22 @@
         <v>1.5</v>
       </c>
       <c r="S21" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T21" s="31">
         <f t="shared" si="6"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="U21" s="31">
         <f t="shared" si="7"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="V21" s="39">
         <v>210</v>
       </c>
       <c r="W21" s="40">
         <f t="shared" si="8"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="X21" s="39">
         <v>310</v>
@@ -7596,23 +7487,23 @@
       </c>
       <c r="AI21" s="43">
         <f t="shared" si="10"/>
-        <v>4.6800712663903941</v>
+        <v>5.1267612066675756</v>
       </c>
       <c r="AJ21" s="43">
         <f t="shared" si="11"/>
-        <v>5.1267612066675756</v>
+        <v>5.5375350005115251</v>
       </c>
       <c r="AK21" s="42">
         <f t="shared" si="12"/>
-        <v>1.649382443055333</v>
+        <v>1.806807940028772</v>
       </c>
       <c r="AL21" s="42">
         <f t="shared" si="13"/>
-        <v>8.1286533513340569</v>
+        <v>8.9044936053312576</v>
       </c>
       <c r="AM21" s="42">
         <f t="shared" si="14"/>
-        <v>5.4407100956460592</v>
+        <v>5.9599992964628727</v>
       </c>
       <c r="AN21" s="42">
         <f t="shared" si="15"/>
@@ -7624,11 +7515,11 @@
       </c>
       <c r="AP21" s="44">
         <f t="shared" si="17"/>
-        <v>4.5908441104012523</v>
+        <v>5.0290177545130064</v>
       </c>
       <c r="AQ21" s="44">
         <f t="shared" si="18"/>
-        <v>5.0290177545130064</v>
+        <v>5.4319600057813586</v>
       </c>
       <c r="AR21" s="47">
         <v>0</v>
@@ -7656,7 +7547,7 @@
         <v>18</v>
       </c>
       <c r="AZ21" s="39">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="BA21" s="49" t="s">
         <v>56</v>
@@ -7671,7 +7562,7 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9464285714285712</v>
+        <v>9.9107142857142865</v>
       </c>
       <c r="D22" s="217" t="s">
         <v>100</v>
@@ -7681,7 +7572,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="37">
@@ -7713,39 +7604,39 @@
         <v>75</v>
       </c>
       <c r="P22" s="54">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q22" s="37">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R22" s="38">
         <v>1.5</v>
       </c>
       <c r="S22" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" s="31">
         <f t="shared" si="6"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="U22" s="31">
         <f t="shared" si="7"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="V22" s="39">
-        <v>850</v>
+        <v>970</v>
       </c>
       <c r="W22" s="40">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="X22" s="39">
         <v>310</v>
       </c>
       <c r="Y22" s="42">
         <f t="shared" si="9"/>
-        <v>2.7419354838709675</v>
+        <v>3.129032258064516</v>
       </c>
       <c r="Z22" s="45">
         <v>0</v>
@@ -7776,23 +7667,23 @@
       </c>
       <c r="AI22" s="43">
         <f t="shared" si="10"/>
-        <v>4.0084996899956131</v>
+        <v>4.4816388973085131</v>
       </c>
       <c r="AJ22" s="43">
         <f t="shared" si="11"/>
-        <v>4.4816388973085131</v>
+        <v>4.9093894372969018</v>
       </c>
       <c r="AK22" s="42">
         <f t="shared" si="12"/>
-        <v>1.7866607385052755</v>
+        <v>1.9975474320138862</v>
       </c>
       <c r="AL22" s="42">
         <f t="shared" si="13"/>
-        <v>5.2076475056211704</v>
+        <v>5.8223269127130779</v>
       </c>
       <c r="AM22" s="42">
         <f t="shared" si="14"/>
-        <v>3.9329067953937673</v>
+        <v>4.3971234718356609</v>
       </c>
       <c r="AN22" s="42">
         <f t="shared" si="15"/>
@@ -7804,11 +7695,11 @@
       </c>
       <c r="AP22" s="44">
         <f t="shared" si="17"/>
-        <v>3.1266443340022394</v>
+        <v>3.4956946361467827</v>
       </c>
       <c r="AQ22" s="44">
         <f t="shared" si="18"/>
-        <v>3.4956946361467827</v>
+        <v>3.8293416127348134</v>
       </c>
       <c r="AR22" s="47">
         <v>0</v>
@@ -7836,7 +7727,7 @@
         <v>18</v>
       </c>
       <c r="AZ22" s="39">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="BA22" s="49" t="s">
         <v>56</v>
@@ -7856,11 +7747,11 @@
       <c r="U23" s="62"/>
       <c r="V23" s="63">
         <f>SUM(V4:V22)</f>
-        <v>20070</v>
+        <v>21290</v>
       </c>
       <c r="W23" s="63">
         <f t="shared" ref="W23:X23" si="20">SUM(W4:W22)</f>
-        <v>970</v>
+        <v>1220</v>
       </c>
       <c r="X23" s="63">
         <f t="shared" si="20"/>
@@ -7868,7 +7759,7 @@
       </c>
       <c r="Y23" s="64">
         <f t="shared" si="9"/>
-        <v>2.5763799743260591</v>
+        <v>2.7329910141206675</v>
       </c>
       <c r="AF23" s="62"/>
       <c r="AG23" s="63"/>
@@ -8104,15 +7995,15 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J22">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X4:X22">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8126,7 +8017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y4:Y22">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8140,7 +8031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V22">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8154,7 +8045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH22">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8168,7 +8059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C22">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8180,7 +8071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AJ22">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8192,7 +8083,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AK22">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8204,7 +8095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AL22">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8216,7 +8107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM22">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8228,7 +8119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AO22">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8240,7 +8131,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP4:AQ22">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8252,10 +8143,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AF22">
-    <cfRule type="cellIs" dxfId="8" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="36" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="36">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8265,7 +8156,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L22">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8277,7 +8168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AX22">
-    <cfRule type="colorScale" priority="38">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8287,7 +8178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W22">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8301,7 +8192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AY22">
-    <cfRule type="colorScale" priority="41">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8313,7 +8204,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG4:AG22">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8327,7 +8218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:U22">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8338,8 +8229,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Q4:Q22">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="lessThan">
+      <formula>70</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="between">
+      <formula>70</formula>
+      <formula>80</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
+      <formula>80</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AZ4:AZ22">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8347,21 +8250,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DC7A1E22-65A8-43CC-8046-FBBA4BFC0107}</x14:id>
+          <x14:id>{E4A236B2-8A69-4C61-9CB9-7A0DA23588DC}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q22">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
-      <formula>70</formula>
-      <formula>80</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -8438,7 +8329,7 @@
           <xm:sqref>AG4:AG22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DC7A1E22-65A8-43CC-8046-FBBA4BFC0107}">
+          <x14:cfRule type="dataBar" id="{E4A236B2-8A69-4C61-9CB9-7A0DA23588DC}">
             <x14:dataBar>
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -8459,10 +8350,13 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AP34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8490,29 +8384,30 @@
     <col min="22" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="62" customWidth="1"/>
-    <col min="30" max="32" width="4" style="62" customWidth="1"/>
-    <col min="33" max="33" width="4.7109375" style="62" customWidth="1"/>
-    <col min="34" max="34" width="5.140625" style="62" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.7109375" customWidth="1"/>
-    <col min="37" max="37" width="4.85546875" customWidth="1"/>
-    <col min="38" max="38" width="6.85546875" customWidth="1"/>
-    <col min="39" max="39" width="4.85546875" customWidth="1"/>
-    <col min="40" max="40" width="4.42578125" customWidth="1"/>
-    <col min="41" max="41" width="5.140625" customWidth="1"/>
-    <col min="42" max="1025" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="4.7109375" style="62" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" style="62" customWidth="1"/>
+    <col min="31" max="33" width="4" style="62" customWidth="1"/>
+    <col min="34" max="34" width="4.7109375" style="62" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" style="62" customWidth="1"/>
+    <col min="36" max="36" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="6.85546875" customWidth="1"/>
+    <col min="40" max="40" width="4.85546875" customWidth="1"/>
+    <col min="41" max="41" width="4.42578125" customWidth="1"/>
+    <col min="42" max="42" width="5.140625" customWidth="1"/>
+    <col min="43" max="1026" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="325" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="329" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="329"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -8535,22 +8430,23 @@
       <c r="Y1" s="107"/>
       <c r="Z1" s="107"/>
       <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="313"/>
-      <c r="AD1" s="107"/>
+      <c r="AB1" s="324"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="313"/>
       <c r="AE1" s="107"/>
-      <c r="AF1" s="313"/>
-      <c r="AG1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="313"/>
       <c r="AH1" s="107"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="109"/>
       <c r="AK1" s="107"/>
       <c r="AL1" s="107"/>
       <c r="AM1" s="107"/>
       <c r="AN1" s="107"/>
       <c r="AO1" s="107"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP1" s="107"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>171</v>
       </c>
@@ -8589,15 +8485,16 @@
       <c r="AF2" s="111"/>
       <c r="AG2" s="111"/>
       <c r="AH2" s="111"/>
-      <c r="AI2" s="112"/>
-      <c r="AJ2" s="111"/>
+      <c r="AI2" s="111"/>
+      <c r="AJ2" s="112"/>
       <c r="AK2" s="111"/>
       <c r="AL2" s="111"/>
       <c r="AM2" s="111"/>
       <c r="AN2" s="111"/>
       <c r="AO2" s="111"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP2" s="111"/>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
@@ -8680,63 +8577,66 @@
         <v>58</v>
       </c>
       <c r="AB3" s="111" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC3" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="AC3" s="111" t="s">
+      <c r="AD3" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="AD3" s="111" t="s">
+      <c r="AE3" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="AE3" s="111" t="s">
+      <c r="AF3" s="111" t="s">
         <v>168</v>
       </c>
-      <c r="AF3" s="111" t="s">
+      <c r="AG3" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="AG3" s="111" t="s">
+      <c r="AH3" s="111" t="s">
         <v>169</v>
       </c>
-      <c r="AH3" s="111" t="s">
+      <c r="AI3" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="AI3" s="112" t="s">
+      <c r="AJ3" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="AJ3" s="111" t="s">
+      <c r="AK3" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="AK3" s="111" t="s">
+      <c r="AL3" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="AL3" s="111" t="s">
+      <c r="AM3" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="AM3" s="111" t="s">
+      <c r="AN3" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="AN3" s="111" t="s">
+      <c r="AO3" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="AO3" s="111" t="s">
+      <c r="AP3" s="111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="323" t="s">
+    <row r="4" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="322" t="s">
         <v>175</v>
       </c>
       <c r="B4" s="127">
         <v>15</v>
       </c>
       <c r="C4" s="128">
-        <f ca="1">3+$A$29-$A$31</f>
-        <v>15</v>
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>19</v>
       </c>
       <c r="D4" s="129"/>
       <c r="E4" s="199">
         <f ca="1">F4-TODAY()</f>
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F4" s="216">
         <v>43858</v>
@@ -8744,7 +8644,9 @@
       <c r="G4" s="200"/>
       <c r="H4" s="130"/>
       <c r="I4" s="130"/>
-      <c r="J4" s="319"/>
+      <c r="J4" s="136">
+        <v>1</v>
+      </c>
       <c r="K4" s="201"/>
       <c r="L4" s="130"/>
       <c r="M4" s="201"/>
@@ -8769,34 +8671,37 @@
         <v>2</v>
       </c>
       <c r="Y4" s="131">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="209">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="211"/>
+      <c r="AB4" s="113">
         <v>1</v>
       </c>
-      <c r="Z4" s="209">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="211"/>
-      <c r="AB4" s="212"/>
       <c r="AC4" s="212"/>
       <c r="AD4" s="212"/>
       <c r="AE4" s="212"/>
-      <c r="AF4" s="212">
+      <c r="AF4" s="212"/>
+      <c r="AG4" s="212">
         <v>2.5</v>
       </c>
-      <c r="AG4" s="212">
+      <c r="AH4" s="212">
         <v>3</v>
       </c>
-      <c r="AH4" s="213"/>
-      <c r="AI4" s="214" t="s">
+      <c r="AI4" s="213"/>
+      <c r="AJ4" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="AJ4" s="129"/>
       <c r="AK4" s="129"/>
       <c r="AL4" s="129"/>
       <c r="AM4" s="129"/>
       <c r="AN4" s="129"/>
-      <c r="AO4" s="215"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO4" s="129"/>
+      <c r="AP4" s="215"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
         <v>284</v>
       </c>
@@ -8804,13 +8709,13 @@
         <v>16</v>
       </c>
       <c r="C5" s="128">
-        <f ca="1">6+$A$29-$A$31</f>
-        <v>18</v>
+        <f ca="1">6+$A$30-$A$32</f>
+        <v>22</v>
       </c>
       <c r="D5" s="133"/>
       <c r="E5" s="199">
         <f ca="1">F5-TODAY()</f>
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F5" s="216">
         <v>43757</v>
@@ -8818,7 +8723,7 @@
       <c r="G5" s="200"/>
       <c r="H5" s="135"/>
       <c r="I5" s="135"/>
-      <c r="J5" s="320"/>
+      <c r="J5" s="319"/>
       <c r="K5" s="318">
         <v>6.99</v>
       </c>
@@ -8851,33 +8756,36 @@
         <v>0</v>
       </c>
       <c r="AA5" s="211"/>
-      <c r="AB5" s="212"/>
+      <c r="AB5" s="113">
+        <v>4.5</v>
+      </c>
       <c r="AC5" s="212"/>
       <c r="AD5" s="212"/>
       <c r="AE5" s="212"/>
-      <c r="AF5" s="212">
+      <c r="AF5" s="212"/>
+      <c r="AG5" s="212">
         <v>5.5</v>
       </c>
-      <c r="AG5" s="212"/>
-      <c r="AH5" s="213"/>
-      <c r="AI5" s="214" t="s">
+      <c r="AH5" s="212"/>
+      <c r="AI5" s="213"/>
+      <c r="AJ5" s="214" t="s">
         <v>288</v>
       </c>
-      <c r="AJ5" s="113"/>
       <c r="AK5" s="113"/>
       <c r="AL5" s="113"/>
       <c r="AM5" s="113"/>
       <c r="AN5" s="113"/>
-      <c r="AO5" s="210"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="326" t="s">
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="210"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="330" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="326"/>
-      <c r="C6" s="326"/>
-      <c r="D6" s="326"/>
-      <c r="E6" s="326"/>
+      <c r="B6" s="330"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
       <c r="F6" s="116"/>
       <c r="G6" s="115"/>
       <c r="H6" s="116"/>
@@ -8900,22 +8808,23 @@
       <c r="Y6" s="115"/>
       <c r="Z6" s="115"/>
       <c r="AA6" s="115"/>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="314"/>
-      <c r="AD6" s="115"/>
+      <c r="AB6" s="325"/>
+      <c r="AC6" s="115"/>
+      <c r="AD6" s="314"/>
       <c r="AE6" s="115"/>
-      <c r="AF6" s="314"/>
-      <c r="AG6" s="115"/>
+      <c r="AF6" s="115"/>
+      <c r="AG6" s="314"/>
       <c r="AH6" s="115"/>
-      <c r="AI6" s="117"/>
-      <c r="AJ6" s="115"/>
+      <c r="AI6" s="115"/>
+      <c r="AJ6" s="117"/>
       <c r="AK6" s="115"/>
       <c r="AL6" s="115"/>
       <c r="AM6" s="115"/>
       <c r="AN6" s="115"/>
       <c r="AO6" s="115"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP6" s="115"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
         <v>171</v>
       </c>
@@ -8954,15 +8863,16 @@
       <c r="AF7" s="119"/>
       <c r="AG7" s="119"/>
       <c r="AH7" s="119"/>
-      <c r="AI7" s="120"/>
-      <c r="AJ7" s="119"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="120"/>
       <c r="AK7" s="119"/>
       <c r="AL7" s="119"/>
       <c r="AM7" s="119"/>
       <c r="AN7" s="119"/>
       <c r="AO7" s="119"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP7" s="119"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
@@ -9050,64 +8960,67 @@
         <v>58</v>
       </c>
       <c r="AB8" s="119" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC8" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="AC8" s="119" t="s">
+      <c r="AD8" s="119" t="s">
         <v>286</v>
       </c>
-      <c r="AD8" s="119" t="s">
+      <c r="AE8" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="AE8" s="119" t="s">
+      <c r="AF8" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="AF8" s="119" t="s">
+      <c r="AG8" s="119" t="s">
         <v>285</v>
       </c>
-      <c r="AG8" s="119" t="s">
+      <c r="AH8" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="AH8" s="119" t="s">
+      <c r="AI8" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="AI8" s="120" t="str">
-        <f>AI3</f>
+      <c r="AJ8" s="120" t="str">
+        <f>AJ3</f>
         <v>Ca</v>
       </c>
-      <c r="AJ8" s="119" t="s">
+      <c r="AK8" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="119" t="s">
+      <c r="AL8" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="AL8" s="119" t="s">
+      <c r="AM8" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="AM8" s="119" t="s">
+      <c r="AN8" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="AN8" s="119" t="s">
+      <c r="AO8" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="AO8" s="119" t="s">
+      <c r="AP8" s="119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="323" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="322" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="134">
         <v>15</v>
       </c>
       <c r="C9" s="128">
-        <f ca="1">11+$A$29-$A$31</f>
-        <v>23</v>
+        <f ca="1">11+$A$30-$A$32</f>
+        <v>27</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="199">
         <f ca="1">F9-TODAY()</f>
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F9" s="216">
         <v>43850</v>
@@ -9142,28 +9055,31 @@
         <v>0</v>
       </c>
       <c r="AA9" s="211"/>
-      <c r="AB9" s="212"/>
+      <c r="AB9" s="113"/>
       <c r="AC9" s="212"/>
-      <c r="AD9" s="212"/>
+      <c r="AD9" s="212">
+        <v>3</v>
+      </c>
       <c r="AE9" s="212"/>
       <c r="AF9" s="212"/>
-      <c r="AG9" s="212">
+      <c r="AG9" s="212"/>
+      <c r="AH9" s="212">
         <v>3</v>
       </c>
-      <c r="AH9" s="213">
+      <c r="AI9" s="213">
         <v>2</v>
       </c>
-      <c r="AI9" s="214" t="s">
+      <c r="AJ9" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="AJ9" s="131"/>
       <c r="AK9" s="131"/>
       <c r="AL9" s="131"/>
       <c r="AM9" s="131"/>
       <c r="AN9" s="131"/>
-      <c r="AO9" s="209"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO9" s="131"/>
+      <c r="AP9" s="209"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="140" t="s">
         <v>197</v>
       </c>
@@ -9171,13 +9087,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="128">
-        <f ca="1">67+$A$29-$A$31</f>
-        <v>79</v>
+        <f ca="1">67+$A$30-$A$32</f>
+        <v>83</v>
       </c>
       <c r="D10" s="129"/>
       <c r="E10" s="199">
         <f ca="1">F10-TODAY()</f>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F10" s="216">
         <v>43749</v>
@@ -9188,7 +9104,9 @@
       <c r="J10" s="135"/>
       <c r="K10" s="202"/>
       <c r="L10" s="135"/>
-      <c r="M10" s="202"/>
+      <c r="M10" s="203">
+        <v>2.99</v>
+      </c>
       <c r="N10" s="135"/>
       <c r="O10" s="202"/>
       <c r="P10" s="135"/>
@@ -9203,7 +9121,7 @@
       <c r="W10" s="209"/>
       <c r="X10" s="209">
         <f>COUNT(I10,K10,M10,O10,Q10,S10,U10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="131">
         <v>0</v>
@@ -9212,26 +9130,29 @@
         <v>0</v>
       </c>
       <c r="AA10" s="211"/>
-      <c r="AB10" s="212"/>
+      <c r="AB10" s="113"/>
       <c r="AC10" s="212"/>
       <c r="AD10" s="212"/>
       <c r="AE10" s="212"/>
-      <c r="AF10" s="212">
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="212">
         <v>4.5</v>
       </c>
-      <c r="AG10" s="212"/>
-      <c r="AH10" s="213"/>
-      <c r="AI10" s="214" t="s">
+      <c r="AH10" s="212">
+        <v>3</v>
+      </c>
+      <c r="AI10" s="213"/>
+      <c r="AJ10" s="214" t="s">
         <v>245</v>
       </c>
-      <c r="AJ10" s="131"/>
       <c r="AK10" s="131"/>
       <c r="AL10" s="131"/>
       <c r="AM10" s="131"/>
       <c r="AN10" s="131"/>
-      <c r="AO10" s="209"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO10" s="131"/>
+      <c r="AP10" s="209"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="140" t="s">
         <v>195</v>
       </c>
@@ -9239,13 +9160,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="128">
-        <f ca="1">40+$A$29-$A$31</f>
-        <v>52</v>
+        <f ca="1">40+$A$30-$A$32</f>
+        <v>56</v>
       </c>
       <c r="D11" s="129"/>
       <c r="E11" s="199">
         <f ca="1">F11-TODAY()</f>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F11" s="216">
         <v>43749</v>
@@ -9282,338 +9203,349 @@
       <c r="AA11" s="211">
         <v>2</v>
       </c>
-      <c r="AB11" s="212"/>
+      <c r="AB11" s="113"/>
       <c r="AC11" s="212">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="212">
         <v>4.5</v>
       </c>
-      <c r="AD11" s="212"/>
       <c r="AE11" s="212"/>
       <c r="AF11" s="212"/>
       <c r="AG11" s="212"/>
-      <c r="AH11" s="213"/>
-      <c r="AI11" s="214" t="s">
+      <c r="AH11" s="212"/>
+      <c r="AI11" s="213"/>
+      <c r="AJ11" s="214" t="s">
         <v>246</v>
       </c>
-      <c r="AJ11" s="131"/>
       <c r="AK11" s="131"/>
       <c r="AL11" s="131"/>
       <c r="AM11" s="131"/>
       <c r="AN11" s="131"/>
-      <c r="AO11" s="209"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="327" t="s">
+      <c r="AO11" s="131"/>
+      <c r="AP11" s="209"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="140" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="127">
+        <v>15</v>
+      </c>
+      <c r="C12" s="128">
+        <f ca="1">67+$A$30-$A$32+14</f>
+        <v>97</v>
+      </c>
+      <c r="D12" s="129"/>
+      <c r="E12" s="199">
+        <f ca="1">F12-TODAY()</f>
+        <v>127</v>
+      </c>
+      <c r="F12" s="356">
+        <v>43780</v>
+      </c>
+      <c r="G12" s="200"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="136">
+        <v>3</v>
+      </c>
+      <c r="M12" s="202"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="203">
+        <v>3.99</v>
+      </c>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="202"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="202"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="202"/>
+      <c r="V12" s="208" t="s">
+        <v>187</v>
+      </c>
+      <c r="W12" s="209"/>
+      <c r="X12" s="209">
+        <f>COUNT(I12,K12,M12,O12,Q12,S12,U12)</f>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="131">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="212"/>
+      <c r="AD12" s="212"/>
+      <c r="AE12" s="212"/>
+      <c r="AF12" s="212"/>
+      <c r="AG12" s="212">
+        <v>3.5</v>
+      </c>
+      <c r="AH12" s="212"/>
+      <c r="AI12" s="213"/>
+      <c r="AJ12" s="214" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="131"/>
+      <c r="AM12" s="131"/>
+      <c r="AN12" s="131"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="209"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="331" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="327"/>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="123"/>
-      <c r="T12" s="123"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="122"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="122"/>
-      <c r="AC12" s="315"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
-      <c r="AF12" s="315"/>
-      <c r="AG12" s="122"/>
-      <c r="AH12" s="122"/>
-      <c r="AI12" s="124"/>
-      <c r="AJ12" s="122"/>
-      <c r="AK12" s="122"/>
-      <c r="AL12" s="122"/>
-      <c r="AM12" s="122"/>
-      <c r="AN12" s="122"/>
-      <c r="AO12" s="122"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
+      <c r="B13" s="331"/>
+      <c r="C13" s="331"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="122"/>
+      <c r="W13" s="122"/>
+      <c r="X13" s="122"/>
+      <c r="Y13" s="122"/>
+      <c r="Z13" s="122"/>
+      <c r="AA13" s="122"/>
+      <c r="AB13" s="326"/>
+      <c r="AC13" s="122"/>
+      <c r="AD13" s="315"/>
+      <c r="AE13" s="122"/>
+      <c r="AF13" s="122"/>
+      <c r="AG13" s="315"/>
+      <c r="AH13" s="122"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="122"/>
+      <c r="AL13" s="122"/>
+      <c r="AM13" s="122"/>
+      <c r="AN13" s="122"/>
+      <c r="AO13" s="122"/>
+      <c r="AP13" s="122"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="125" t="s">
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="126"/>
-      <c r="AC13" s="126"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="126"/>
-      <c r="AI13" s="124"/>
-      <c r="AJ13" s="126"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="126"/>
-      <c r="AO13" s="126"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
+      <c r="X14" s="126"/>
+      <c r="Y14" s="126"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="126"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="126"/>
+      <c r="AI14" s="126"/>
+      <c r="AJ14" s="124"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="126"/>
+      <c r="AN14" s="126"/>
+      <c r="AO14" s="126"/>
+      <c r="AP14" s="126"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B15" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C15" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="126" t="s">
+      <c r="D15" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E15" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="125" t="str">
+      <c r="F15" s="125" t="str">
         <f>F8</f>
         <v>Fpromo</v>
       </c>
-      <c r="G14" s="126" t="s">
+      <c r="G15" s="126" t="s">
         <v>157</v>
       </c>
-      <c r="H14" s="125" t="s">
+      <c r="H15" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="125" t="s">
+      <c r="I15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="125" t="s">
+      <c r="J15" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="K14" s="125" t="s">
+      <c r="K15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="125" t="s">
+      <c r="L15" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="125" t="s">
+      <c r="M15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="125" t="s">
+      <c r="N15" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="O14" s="125" t="s">
+      <c r="O15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="125" t="s">
+      <c r="P15" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="Q14" s="125" t="s">
+      <c r="Q15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="125" t="s">
+      <c r="R15" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="S14" s="125" t="s">
+      <c r="S15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="T14" s="125" t="s">
+      <c r="T15" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="U14" s="125" t="s">
+      <c r="U15" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="126" t="str">
+      <c r="V15" s="126" t="str">
         <f>V8</f>
         <v>U20</v>
       </c>
-      <c r="W14" s="126" t="str">
+      <c r="W15" s="126" t="str">
         <f>W8</f>
         <v>HTMS</v>
       </c>
-      <c r="X14" s="126" t="str">
+      <c r="X15" s="126" t="str">
         <f>X8</f>
         <v>Pot</v>
       </c>
-      <c r="Y14" s="126" t="str">
+      <c r="Y15" s="126" t="str">
         <f>Y8</f>
         <v>Cap</v>
       </c>
-      <c r="Z14" s="126" t="s">
+      <c r="Z15" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="AA14" s="126" t="s">
+      <c r="AA15" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="AB14" s="126" t="s">
+      <c r="AB15" s="126" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC15" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="AC14" s="126" t="s">
+      <c r="AD15" s="126" t="s">
         <v>286</v>
       </c>
-      <c r="AD14" s="126" t="s">
+      <c r="AE15" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AE14" s="126" t="s">
+      <c r="AF15" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="AF14" s="126" t="s">
+      <c r="AG15" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="AG14" s="126" t="s">
+      <c r="AH15" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="AH14" s="126" t="s">
+      <c r="AI15" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="AI14" s="124" t="str">
-        <f>AI8</f>
+      <c r="AJ15" s="124" t="str">
+        <f>AJ8</f>
         <v>Ca</v>
       </c>
-      <c r="AJ14" s="126" t="s">
+      <c r="AK15" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="126" t="s">
+      <c r="AL15" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="AL14" s="126" t="s">
+      <c r="AM15" s="126" t="s">
         <v>159</v>
       </c>
-      <c r="AM14" s="126" t="s">
+      <c r="AN15" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="AN14" s="126" t="s">
+      <c r="AO15" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="AO14" s="126" t="s">
+      <c r="AP15" s="126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="323" t="s">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="322" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="134">
+      <c r="B16" s="134">
         <v>15</v>
       </c>
-      <c r="C15" s="128">
-        <f ca="1">14+$A$29-$A$31</f>
-        <v>26</v>
-      </c>
-      <c r="D15" s="129"/>
-      <c r="E15" s="199">
-        <f t="shared" ref="E15:E26" ca="1" si="1">F15-TODAY()</f>
-        <v>198</v>
-      </c>
-      <c r="F15" s="216">
+      <c r="C16" s="128">
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>30</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="199">
+        <f t="shared" ref="E16:E27" ca="1" si="1">F16-TODAY()</f>
+        <v>194</v>
+      </c>
+      <c r="F16" s="216">
         <v>43847</v>
-      </c>
-      <c r="G15" s="200"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="202"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="203">
-        <v>2.99</v>
-      </c>
-      <c r="N15" s="135"/>
-      <c r="O15" s="202"/>
-      <c r="P15" s="135"/>
-      <c r="Q15" s="202"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="202"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="202"/>
-      <c r="V15" s="206" t="s">
-        <v>180</v>
-      </c>
-      <c r="W15" s="209"/>
-      <c r="X15" s="209">
-        <f>COUNT(I15,K15,M15,O15,M25,S15,U15)</f>
-        <v>1</v>
-      </c>
-      <c r="Y15" s="131">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="209">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="211"/>
-      <c r="AB15" s="212"/>
-      <c r="AC15" s="212">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="212"/>
-      <c r="AE15" s="212"/>
-      <c r="AF15" s="212"/>
-      <c r="AG15" s="212">
-        <v>2.5</v>
-      </c>
-      <c r="AH15" s="213"/>
-      <c r="AI15" s="214" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="129"/>
-      <c r="AL15" s="129"/>
-      <c r="AM15" s="129"/>
-      <c r="AN15" s="129"/>
-      <c r="AO15" s="215"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="323" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="127">
-        <v>15</v>
-      </c>
-      <c r="C16" s="128">
-        <f ca="1">33+$A$29-$A$31</f>
-        <v>45</v>
-      </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="199">
-        <f t="shared" ca="1" si="1"/>
-        <v>179</v>
-      </c>
-      <c r="F16" s="216">
-        <v>43828</v>
       </c>
       <c r="G16" s="200"/>
       <c r="H16" s="135"/>
@@ -9621,22 +9553,26 @@
       <c r="J16" s="135"/>
       <c r="K16" s="202"/>
       <c r="L16" s="135"/>
-      <c r="M16" s="202"/>
+      <c r="M16" s="203">
+        <v>2.99</v>
+      </c>
       <c r="N16" s="135"/>
-      <c r="O16" s="202"/>
+      <c r="O16" s="203">
+        <v>1.99</v>
+      </c>
       <c r="P16" s="135"/>
       <c r="Q16" s="202"/>
       <c r="R16" s="135"/>
       <c r="S16" s="202"/>
       <c r="T16" s="135"/>
       <c r="U16" s="202"/>
-      <c r="V16" s="207" t="s">
-        <v>182</v>
+      <c r="V16" s="206" t="s">
+        <v>180</v>
       </c>
       <c r="W16" s="209"/>
       <c r="X16" s="209">
-        <f t="shared" ref="X16:X24" si="2">COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
-        <v>0</v>
+        <f>COUNT(I16,K16,M16,O16,M26,S16,U16)</f>
+        <v>2</v>
       </c>
       <c r="Y16" s="131">
         <v>0</v>
@@ -9645,45 +9581,48 @@
         <v>0</v>
       </c>
       <c r="AA16" s="211"/>
-      <c r="AB16" s="212"/>
-      <c r="AC16" s="212">
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="212"/>
+      <c r="AD16" s="212">
         <v>2</v>
       </c>
-      <c r="AD16" s="212"/>
-      <c r="AE16" s="212">
+      <c r="AE16" s="212"/>
+      <c r="AF16" s="212">
         <v>2.5</v>
       </c>
-      <c r="AF16" s="212"/>
       <c r="AG16" s="212"/>
-      <c r="AH16" s="213"/>
-      <c r="AI16" s="214" t="s">
+      <c r="AH16" s="212">
+        <v>2.5</v>
+      </c>
+      <c r="AI16" s="213"/>
+      <c r="AJ16" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="AJ16" s="129"/>
       <c r="AK16" s="129"/>
       <c r="AL16" s="129"/>
       <c r="AM16" s="129"/>
       <c r="AN16" s="129"/>
-      <c r="AO16" s="215"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17" s="323" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="134">
+      <c r="AO16" s="129"/>
+      <c r="AP16" s="215"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17" s="322" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="127">
         <v>15</v>
       </c>
       <c r="C17" s="128">
-        <f ca="1">51+$A$29-$A$31</f>
-        <v>63</v>
-      </c>
-      <c r="D17" s="129"/>
+        <f ca="1">33+$A$30-$A$32</f>
+        <v>49</v>
+      </c>
+      <c r="D17" s="137"/>
       <c r="E17" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F17" s="216">
-        <v>43810</v>
+        <v>43828</v>
       </c>
       <c r="G17" s="200"/>
       <c r="H17" s="135"/>
@@ -9705,7 +9644,7 @@
       </c>
       <c r="W17" s="209"/>
       <c r="X17" s="209">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="X17:X25" si="2">COUNT(I17,K17,M17,O17,Q17,S17,U17)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="131">
@@ -9714,46 +9653,49 @@
       <c r="Z17" s="209">
         <v>0</v>
       </c>
-      <c r="AA17" s="211">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="212"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="113"/>
       <c r="AC17" s="212"/>
-      <c r="AD17" s="212"/>
-      <c r="AE17" s="212">
+      <c r="AD17" s="212">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="212"/>
+      <c r="AF17" s="212">
         <v>2.5</v>
       </c>
-      <c r="AF17" s="212"/>
       <c r="AG17" s="212"/>
-      <c r="AH17" s="213"/>
-      <c r="AI17" s="214" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ17" s="129"/>
+      <c r="AH17" s="212">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="213"/>
+      <c r="AJ17" s="214" t="s">
+        <v>247</v>
+      </c>
       <c r="AK17" s="129"/>
       <c r="AL17" s="129"/>
       <c r="AM17" s="129"/>
       <c r="AN17" s="129"/>
-      <c r="AO17" s="215"/>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO17" s="129"/>
+      <c r="AP17" s="215"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="322" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="134">
         <v>15</v>
       </c>
       <c r="C18" s="128">
-        <f ca="1">70+$A$29-$A$31</f>
-        <v>82</v>
-      </c>
-      <c r="D18" s="137"/>
+        <f ca="1">51+$A$30-$A$32</f>
+        <v>67</v>
+      </c>
+      <c r="D18" s="129"/>
       <c r="E18" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="F18" s="216">
-        <v>43791</v>
+        <v>43810</v>
       </c>
       <c r="G18" s="200"/>
       <c r="H18" s="135"/>
@@ -9770,8 +9712,8 @@
       <c r="S18" s="202"/>
       <c r="T18" s="135"/>
       <c r="U18" s="202"/>
-      <c r="V18" s="208" t="s">
-        <v>185</v>
+      <c r="V18" s="207" t="s">
+        <v>182</v>
       </c>
       <c r="W18" s="209"/>
       <c r="X18" s="209">
@@ -9784,58 +9726,57 @@
       <c r="Z18" s="209">
         <v>0</v>
       </c>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="212"/>
+      <c r="AA18" s="211">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="113"/>
       <c r="AC18" s="212"/>
       <c r="AD18" s="212"/>
       <c r="AE18" s="212"/>
       <c r="AF18" s="212">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="212"/>
-      <c r="AH18" s="213">
-        <v>3</v>
-      </c>
-      <c r="AI18" s="214" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ18" s="131"/>
-      <c r="AK18" s="131"/>
-      <c r="AL18" s="131"/>
-      <c r="AM18" s="131"/>
-      <c r="AN18" s="131"/>
-      <c r="AO18" s="209"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19" s="322" t="s">
-        <v>186</v>
+        <v>2.5</v>
+      </c>
+      <c r="AG18" s="212">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="212"/>
+      <c r="AI18" s="213"/>
+      <c r="AJ18" s="214" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK18" s="129"/>
+      <c r="AL18" s="129"/>
+      <c r="AM18" s="129"/>
+      <c r="AN18" s="129"/>
+      <c r="AO18" s="129"/>
+      <c r="AP18" s="215"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19" s="321" t="s">
+        <v>184</v>
       </c>
       <c r="B19" s="134">
         <v>15</v>
       </c>
       <c r="C19" s="128">
-        <f ca="1">76+$A$29-$A$31</f>
-        <v>88</v>
+        <f ca="1">70+$A$30-$A$32</f>
+        <v>86</v>
       </c>
       <c r="D19" s="137"/>
       <c r="E19" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F19" s="216">
-        <v>43785</v>
+        <v>43791</v>
       </c>
       <c r="G19" s="200"/>
       <c r="H19" s="135"/>
       <c r="I19" s="202"/>
       <c r="J19" s="135"/>
       <c r="K19" s="202"/>
-      <c r="L19" s="138">
-        <v>2</v>
-      </c>
-      <c r="M19" s="204">
-        <v>2.99</v>
-      </c>
+      <c r="L19" s="135"/>
+      <c r="M19" s="202"/>
       <c r="N19" s="135"/>
       <c r="O19" s="202"/>
       <c r="P19" s="135"/>
@@ -9845,12 +9786,12 @@
       <c r="T19" s="135"/>
       <c r="U19" s="202"/>
       <c r="V19" s="208" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W19" s="209"/>
       <c r="X19" s="209">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="131">
         <v>0</v>
@@ -9859,51 +9800,60 @@
         <v>0</v>
       </c>
       <c r="AA19" s="211"/>
-      <c r="AB19" s="212"/>
+      <c r="AB19" s="113"/>
       <c r="AC19" s="212"/>
       <c r="AD19" s="212"/>
       <c r="AE19" s="212"/>
-      <c r="AF19" s="212"/>
-      <c r="AG19" s="212"/>
-      <c r="AH19" s="213">
-        <v>2</v>
-      </c>
-      <c r="AI19" s="214" t="s">
+      <c r="AF19" s="212">
+        <v>2.5</v>
+      </c>
+      <c r="AG19" s="212">
+        <v>3</v>
+      </c>
+      <c r="AH19" s="212"/>
+      <c r="AI19" s="213">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="214" t="s">
         <v>247</v>
       </c>
-      <c r="AJ19" s="131"/>
       <c r="AK19" s="131"/>
       <c r="AL19" s="131"/>
       <c r="AM19" s="131"/>
       <c r="AN19" s="131"/>
-      <c r="AO19" s="209"/>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="322" t="s">
-        <v>188</v>
+      <c r="AO19" s="131"/>
+      <c r="AP19" s="209"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20" s="321" t="s">
+        <v>186</v>
       </c>
       <c r="B20" s="134">
         <v>15</v>
       </c>
       <c r="C20" s="128">
-        <f ca="1">96+$A$29-$A$31</f>
-        <v>108</v>
+        <f ca="1">76+$A$30-$A$32</f>
+        <v>92</v>
       </c>
       <c r="D20" s="137"/>
       <c r="E20" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F20" s="216">
-        <v>43765</v>
+        <v>43785</v>
       </c>
       <c r="G20" s="200"/>
       <c r="H20" s="135"/>
       <c r="I20" s="202"/>
       <c r="J20" s="135"/>
       <c r="K20" s="202"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="202"/>
+      <c r="L20" s="138">
+        <v>2</v>
+      </c>
+      <c r="M20" s="204">
+        <v>2.99</v>
+      </c>
       <c r="N20" s="135"/>
       <c r="O20" s="202"/>
       <c r="P20" s="135"/>
@@ -9912,13 +9862,13 @@
       <c r="S20" s="202"/>
       <c r="T20" s="135"/>
       <c r="U20" s="202"/>
-      <c r="V20" s="207" t="s">
-        <v>189</v>
+      <c r="V20" s="208" t="s">
+        <v>187</v>
       </c>
       <c r="W20" s="209"/>
       <c r="X20" s="209">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" s="131">
         <v>0</v>
@@ -9927,52 +9877,49 @@
         <v>0</v>
       </c>
       <c r="AA20" s="211"/>
-      <c r="AB20" s="212"/>
+      <c r="AB20" s="113"/>
       <c r="AC20" s="212"/>
       <c r="AD20" s="212"/>
-      <c r="AE20" s="212">
-        <v>1.5</v>
-      </c>
+      <c r="AE20" s="212"/>
       <c r="AF20" s="212"/>
       <c r="AG20" s="212"/>
-      <c r="AH20" s="213">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="214" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ20" s="131"/>
+      <c r="AH20" s="212"/>
+      <c r="AI20" s="213">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="214" t="s">
+        <v>247</v>
+      </c>
       <c r="AK20" s="131"/>
       <c r="AL20" s="131"/>
       <c r="AM20" s="131"/>
       <c r="AN20" s="131"/>
-      <c r="AO20" s="209"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21" s="322" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="127">
+      <c r="AO20" s="131"/>
+      <c r="AP20" s="209"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" s="321" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="134">
         <v>16</v>
       </c>
       <c r="C21" s="128">
-        <f ca="1">-1+$A$29-$A$31</f>
-        <v>11</v>
-      </c>
-      <c r="D21" s="133"/>
+        <f ca="1">96+$A$30-$A$32-112</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="137"/>
       <c r="E21" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F21" s="216">
-        <v>43750</v>
+        <v>43765</v>
       </c>
       <c r="G21" s="200"/>
       <c r="H21" s="135"/>
       <c r="I21" s="202"/>
-      <c r="J21" s="136">
-        <v>3</v>
-      </c>
+      <c r="J21" s="135"/>
       <c r="K21" s="202"/>
       <c r="L21" s="135"/>
       <c r="M21" s="202"/>
@@ -9984,10 +9931,10 @@
       <c r="S21" s="202"/>
       <c r="T21" s="135"/>
       <c r="U21" s="202"/>
-      <c r="V21" s="208" t="s">
-        <v>191</v>
-      </c>
-      <c r="W21" s="210"/>
+      <c r="V21" s="207" t="s">
+        <v>189</v>
+      </c>
+      <c r="W21" s="209"/>
       <c r="X21" s="209">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9999,76 +9946,73 @@
         <v>0</v>
       </c>
       <c r="AA21" s="211"/>
-      <c r="AB21" s="212">
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="212"/>
+      <c r="AD21" s="212">
         <v>2.5</v>
       </c>
-      <c r="AC21" s="212"/>
-      <c r="AD21" s="212"/>
       <c r="AE21" s="212"/>
-      <c r="AF21" s="212"/>
+      <c r="AF21" s="212">
+        <v>1.5</v>
+      </c>
       <c r="AG21" s="212"/>
-      <c r="AH21" s="213">
+      <c r="AH21" s="212"/>
+      <c r="AI21" s="213">
         <v>3</v>
       </c>
-      <c r="AI21" s="214" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ21" s="113"/>
-      <c r="AK21" s="113"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="113"/>
-      <c r="AN21" s="113"/>
-      <c r="AO21" s="210"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22" s="139" t="s">
-        <v>193</v>
+      <c r="AJ21" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK21" s="131"/>
+      <c r="AL21" s="131"/>
+      <c r="AM21" s="131"/>
+      <c r="AN21" s="131"/>
+      <c r="AO21" s="131"/>
+      <c r="AP21" s="209"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" s="321" t="s">
+        <v>190</v>
       </c>
       <c r="B22" s="127">
         <v>16</v>
       </c>
       <c r="C22" s="128">
-        <f ca="1">22+$A$29-$A$31</f>
-        <v>34</v>
-      </c>
-      <c r="D22" s="129"/>
+        <f ca="1">-1+$A$30-$A$32</f>
+        <v>15</v>
+      </c>
+      <c r="D22" s="133"/>
       <c r="E22" s="199">
-        <f ca="1">F22-TODAY()</f>
-        <v>101</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
       </c>
       <c r="F22" s="216">
         <v>43750</v>
       </c>
-      <c r="G22" s="200" t="s">
-        <v>194</v>
-      </c>
+      <c r="G22" s="200"/>
       <c r="H22" s="135"/>
       <c r="I22" s="202"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="203">
-        <v>3.99</v>
-      </c>
-      <c r="L22" s="136">
-        <v>1</v>
-      </c>
+      <c r="J22" s="136">
+        <v>3</v>
+      </c>
+      <c r="K22" s="202"/>
+      <c r="L22" s="135"/>
       <c r="M22" s="202"/>
       <c r="N22" s="135"/>
       <c r="O22" s="202"/>
-      <c r="P22" s="136">
-        <v>2</v>
-      </c>
+      <c r="P22" s="135"/>
       <c r="Q22" s="202"/>
       <c r="R22" s="135"/>
       <c r="S22" s="202"/>
       <c r="T22" s="135"/>
       <c r="U22" s="202"/>
-      <c r="V22" s="207" t="s">
-        <v>182</v>
-      </c>
-      <c r="W22" s="209"/>
+      <c r="V22" s="208" t="s">
+        <v>191</v>
+      </c>
+      <c r="W22" s="210"/>
       <c r="X22" s="209">
-        <f>COUNT(I22,K22,M22,O22,Q22,S22,U22)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y22" s="131">
         <v>0</v>
@@ -10076,57 +10020,70 @@
       <c r="Z22" s="209">
         <v>0</v>
       </c>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="212"/>
-      <c r="AC22" s="212"/>
-      <c r="AD22" s="212">
+      <c r="AA22" s="211">
+        <v>0.5</v>
+      </c>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="212">
         <v>2.5</v>
       </c>
+      <c r="AD22" s="212"/>
       <c r="AE22" s="212"/>
       <c r="AF22" s="212"/>
       <c r="AG22" s="212"/>
-      <c r="AH22" s="213">
-        <v>2</v>
-      </c>
-      <c r="AI22" s="214" t="s">
-        <v>246</v>
-      </c>
-      <c r="AJ22" s="131"/>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="131"/>
-      <c r="AM22" s="131"/>
-      <c r="AN22" s="131"/>
-      <c r="AO22" s="209"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AH22" s="212">
+        <v>3.5</v>
+      </c>
+      <c r="AI22" s="213">
+        <v>3</v>
+      </c>
+      <c r="AJ22" s="214" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="113"/>
+      <c r="AN22" s="113"/>
+      <c r="AO22" s="113"/>
+      <c r="AP22" s="210"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="139" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="134">
+        <v>193</v>
+      </c>
+      <c r="B23" s="127">
         <v>16</v>
       </c>
       <c r="C23" s="128">
-        <f ca="1">29+$A$29-$A$31</f>
-        <v>41</v>
+        <f ca="1">22+$A$30-$A$32</f>
+        <v>38</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="199">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f ca="1">F23-TODAY()</f>
+        <v>97</v>
       </c>
       <c r="F23" s="216">
-        <v>43749</v>
-      </c>
-      <c r="G23" s="200"/>
+        <v>43750</v>
+      </c>
+      <c r="G23" s="200" t="s">
+        <v>194</v>
+      </c>
       <c r="H23" s="135"/>
       <c r="I23" s="202"/>
       <c r="J23" s="135"/>
-      <c r="K23" s="202"/>
-      <c r="L23" s="135"/>
+      <c r="K23" s="203">
+        <v>3.99</v>
+      </c>
+      <c r="L23" s="136">
+        <v>1</v>
+      </c>
       <c r="M23" s="202"/>
       <c r="N23" s="135"/>
       <c r="O23" s="202"/>
-      <c r="P23" s="135"/>
+      <c r="P23" s="136">
+        <v>2</v>
+      </c>
       <c r="Q23" s="202"/>
       <c r="R23" s="135"/>
       <c r="S23" s="202"/>
@@ -10137,8 +10094,8 @@
       </c>
       <c r="W23" s="209"/>
       <c r="X23" s="209">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNT(I23,K23,M23,O23,Q23,S23,U23)</f>
+        <v>1</v>
       </c>
       <c r="Y23" s="131">
         <v>0</v>
@@ -10146,43 +10103,46 @@
       <c r="Z23" s="209">
         <v>0</v>
       </c>
-      <c r="AA23" s="211">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="212"/>
+      <c r="AA23" s="211"/>
+      <c r="AB23" s="113"/>
       <c r="AC23" s="212"/>
       <c r="AD23" s="212"/>
       <c r="AE23" s="212">
         <v>2.5</v>
       </c>
-      <c r="AF23" s="212"/>
+      <c r="AF23" s="212">
+        <v>3.5</v>
+      </c>
       <c r="AG23" s="212"/>
-      <c r="AH23" s="213"/>
-      <c r="AI23" s="214" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ23" s="131"/>
+      <c r="AH23" s="212"/>
+      <c r="AI23" s="213">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="214" t="s">
+        <v>246</v>
+      </c>
       <c r="AK23" s="131"/>
       <c r="AL23" s="131"/>
       <c r="AM23" s="131"/>
       <c r="AN23" s="131"/>
-      <c r="AO23" s="209"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24" s="140" t="s">
-        <v>196</v>
-      </c>
-      <c r="B24" s="127">
+      <c r="AO23" s="131"/>
+      <c r="AP23" s="209"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="134">
         <v>16</v>
       </c>
       <c r="C24" s="128">
-        <f ca="1">66+$A$29-$A$31</f>
-        <v>78</v>
+        <f ca="1">29+$A$30-$A$32</f>
+        <v>45</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F24" s="216">
         <v>43749</v>
@@ -10196,12 +10156,8 @@
       <c r="M24" s="202"/>
       <c r="N24" s="135"/>
       <c r="O24" s="202"/>
-      <c r="P24" s="138">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="204">
-        <v>2.99</v>
-      </c>
+      <c r="P24" s="135"/>
+      <c r="Q24" s="202"/>
       <c r="R24" s="135"/>
       <c r="S24" s="202"/>
       <c r="T24" s="135"/>
@@ -10212,51 +10168,52 @@
       <c r="W24" s="209"/>
       <c r="X24" s="209">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="131">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="211">
         <v>1</v>
       </c>
-      <c r="Y24" s="131">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="209">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="211"/>
-      <c r="AB24" s="212"/>
+      <c r="AB24" s="113"/>
       <c r="AC24" s="212"/>
       <c r="AD24" s="212"/>
-      <c r="AE24" s="212">
-        <v>3.5</v>
-      </c>
-      <c r="AF24" s="212"/>
-      <c r="AG24" s="212">
-        <v>2</v>
-      </c>
-      <c r="AH24" s="213"/>
-      <c r="AI24" s="214" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ24" s="131"/>
+      <c r="AE24" s="212"/>
+      <c r="AF24" s="212">
+        <v>2.5</v>
+      </c>
+      <c r="AG24" s="212"/>
+      <c r="AH24" s="212"/>
+      <c r="AI24" s="213"/>
+      <c r="AJ24" s="214" t="s">
+        <v>245</v>
+      </c>
       <c r="AK24" s="131"/>
       <c r="AL24" s="131"/>
       <c r="AM24" s="131"/>
       <c r="AN24" s="131"/>
-      <c r="AO24" s="209"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="134">
+      <c r="AO24" s="131"/>
+      <c r="AP24" s="209"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="127">
         <v>16</v>
       </c>
       <c r="C25" s="128">
-        <f ca="1">71+$A$29-$A$31</f>
-        <v>83</v>
-      </c>
-      <c r="D25" s="137"/>
+        <f ca="1">66+$A$30-$A$32</f>
+        <v>82</v>
+      </c>
+      <c r="D25" s="129"/>
       <c r="E25" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F25" s="216">
         <v>43749</v>
@@ -10270,8 +10227,12 @@
       <c r="M25" s="202"/>
       <c r="N25" s="135"/>
       <c r="O25" s="202"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="202"/>
+      <c r="P25" s="138">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="204">
+        <v>2.99</v>
+      </c>
       <c r="R25" s="135"/>
       <c r="S25" s="202"/>
       <c r="T25" s="135"/>
@@ -10281,8 +10242,8 @@
       </c>
       <c r="W25" s="209"/>
       <c r="X25" s="209">
-        <f>COUNT(I25,K25,#REF!,O25,Q25,S25,U25)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="Y25" s="131">
         <v>0</v>
@@ -10291,40 +10252,43 @@
         <v>0</v>
       </c>
       <c r="AA25" s="211"/>
-      <c r="AB25" s="212"/>
+      <c r="AB25" s="113"/>
       <c r="AC25" s="212"/>
       <c r="AD25" s="212"/>
       <c r="AE25" s="212"/>
-      <c r="AF25" s="212"/>
-      <c r="AG25" s="212">
+      <c r="AF25" s="212">
         <v>3.5</v>
       </c>
-      <c r="AH25" s="213"/>
-      <c r="AI25" s="214" t="s">
-        <v>245</v>
-      </c>
-      <c r="AJ25" s="131"/>
+      <c r="AG25" s="212"/>
+      <c r="AH25" s="212">
+        <v>2</v>
+      </c>
+      <c r="AI25" s="213"/>
+      <c r="AJ25" s="214" t="s">
+        <v>247</v>
+      </c>
       <c r="AK25" s="131"/>
       <c r="AL25" s="131"/>
       <c r="AM25" s="131"/>
       <c r="AN25" s="131"/>
-      <c r="AO25" s="209"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO25" s="131"/>
+      <c r="AP25" s="209"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="139" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B26" s="134">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="128">
-        <f ca="1">103+$A$29-$A$31-112</f>
-        <v>3</v>
+        <f ca="1">71+$A$30-$A$32</f>
+        <v>87</v>
       </c>
       <c r="D26" s="137"/>
       <c r="E26" s="199">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F26" s="216">
         <v>43749</v>
@@ -10349,7 +10313,7 @@
       </c>
       <c r="W26" s="209"/>
       <c r="X26" s="209">
-        <f>COUNT(I26,K26,M26,O26,Q26,S26,U26)</f>
+        <f>COUNT(I26,K26,#REF!,O26,Q26,S26,U26)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="131">
@@ -10359,110 +10323,141 @@
         <v>0</v>
       </c>
       <c r="AA26" s="211"/>
-      <c r="AB26" s="212"/>
+      <c r="AB26" s="113"/>
       <c r="AC26" s="212"/>
       <c r="AD26" s="212"/>
       <c r="AE26" s="212"/>
       <c r="AF26" s="212"/>
       <c r="AG26" s="212"/>
-      <c r="AH26" s="213"/>
-      <c r="AI26" s="214" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ26" s="131"/>
+      <c r="AH26" s="212">
+        <v>3.5</v>
+      </c>
+      <c r="AI26" s="213"/>
+      <c r="AJ26" s="214" t="s">
+        <v>245</v>
+      </c>
       <c r="AK26" s="131"/>
       <c r="AL26" s="131"/>
       <c r="AM26" s="131"/>
       <c r="AN26" s="131"/>
-      <c r="AO26" s="209"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="113"/>
-      <c r="W27" s="113"/>
-      <c r="X27" s="113"/>
-      <c r="Y27" s="113"/>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="113"/>
-      <c r="AI27" s="132"/>
-      <c r="AJ27" s="113"/>
-      <c r="AK27" s="113"/>
-      <c r="AL27" s="113"/>
-      <c r="AM27" s="113"/>
-      <c r="AN27" s="113"/>
-      <c r="AO27" s="113"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="142" t="s">
-        <v>200</v>
-      </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
+      <c r="AO26" s="131"/>
+      <c r="AP26" s="209"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" s="139" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="134">
+        <v>17</v>
+      </c>
+      <c r="C27" s="128">
+        <f ca="1">103+$A$30-$A$32-112</f>
+        <v>7</v>
+      </c>
+      <c r="D27" s="137"/>
+      <c r="E27" s="199">
+        <f t="shared" ca="1" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="F27" s="216">
+        <v>43749</v>
+      </c>
+      <c r="G27" s="200"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="202"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="202"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="202"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="202"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="202"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="202"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="202"/>
+      <c r="V27" s="207" t="s">
+        <v>182</v>
+      </c>
+      <c r="W27" s="209"/>
+      <c r="X27" s="209">
+        <f>COUNT(I27,K27,M27,O27,Q27,S27,U27)</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="131">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="209">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="211"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="212"/>
+      <c r="AD27" s="212"/>
+      <c r="AE27" s="212"/>
+      <c r="AF27" s="212"/>
+      <c r="AG27" s="212"/>
+      <c r="AH27" s="212"/>
+      <c r="AI27" s="213"/>
+      <c r="AJ27" s="214" t="s">
+        <v>247</v>
+      </c>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="131"/>
+      <c r="AM27" s="131"/>
+      <c r="AN27" s="131"/>
+      <c r="AO27" s="131"/>
+      <c r="AP27" s="209"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" s="134"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="134"/>
+      <c r="N28" s="134"/>
+      <c r="O28" s="134"/>
+      <c r="P28" s="134"/>
+      <c r="Q28" s="134"/>
       <c r="R28" s="134"/>
       <c r="S28" s="134"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="133"/>
-      <c r="W28" s="133"/>
-      <c r="X28" s="133"/>
-      <c r="Y28" s="133"/>
-      <c r="Z28" s="133"/>
-      <c r="AA28" s="133"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="133"/>
-      <c r="AK28" s="133"/>
-      <c r="AL28" s="133"/>
-      <c r="AM28" s="133"/>
-      <c r="AN28" s="133"/>
-      <c r="AO28" s="133"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29" s="146">
-        <f ca="1">TODAY()</f>
-        <v>43649</v>
-      </c>
-      <c r="B29" s="147"/>
+      <c r="T28" s="134"/>
+      <c r="U28" s="134"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="113"/>
+      <c r="AL28" s="113"/>
+      <c r="AM28" s="113"/>
+      <c r="AN28" s="113"/>
+      <c r="AO28" s="113"/>
+      <c r="AP28" s="113"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="142" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="143"/>
       <c r="C29" s="143"/>
       <c r="D29" s="143"/>
       <c r="E29" s="144"/>
-      <c r="F29" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="8"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="143"/>
       <c r="I29" s="143"/>
       <c r="J29" s="143"/>
       <c r="K29" s="143"/>
@@ -10482,27 +10477,28 @@
       <c r="Y29" s="133"/>
       <c r="Z29" s="133"/>
       <c r="AA29" s="133"/>
-      <c r="AI29" s="148"/>
-      <c r="AJ29" s="133"/>
+      <c r="AB29" s="133"/>
+      <c r="AJ29" s="145"/>
       <c r="AK29" s="133"/>
       <c r="AL29" s="133"/>
       <c r="AM29" s="133"/>
       <c r="AN29" s="133"/>
       <c r="AO29" s="133"/>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="149">
-        <f ca="1">A31-A29</f>
-        <v>-12</v>
-      </c>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="321" t="s">
-        <v>287</v>
-      </c>
-      <c r="G30" s="133"/>
+      <c r="AP29" s="133"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="146">
+        <f ca="1">TODAY()</f>
+        <v>43653</v>
+      </c>
+      <c r="B30" s="147"/>
+      <c r="C30" s="143"/>
+      <c r="D30" s="143"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="8"/>
       <c r="I30" s="143"/>
       <c r="J30" s="143"/>
       <c r="K30" s="143"/>
@@ -10522,25 +10518,28 @@
       <c r="Y30" s="133"/>
       <c r="Z30" s="133"/>
       <c r="AA30" s="133"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="133"/>
+      <c r="AB30" s="133"/>
+      <c r="AJ30" s="148"/>
       <c r="AK30" s="133"/>
       <c r="AL30" s="133"/>
       <c r="AM30" s="133"/>
       <c r="AN30" s="133"/>
       <c r="AO30" s="133"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31" s="150">
-        <v>43637</v>
-      </c>
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
+      <c r="AP30" s="133"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A31" s="149">
+        <f ca="1">A32-A30</f>
+        <v>-16</v>
+      </c>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="134"/>
       <c r="E31" s="134"/>
-      <c r="F31" s="143"/>
+      <c r="F31" s="320" t="s">
+        <v>287</v>
+      </c>
       <c r="G31" s="133"/>
-      <c r="H31" s="143"/>
       <c r="I31" s="143"/>
       <c r="J31" s="143"/>
       <c r="K31" s="143"/>
@@ -10560,23 +10559,24 @@
       <c r="Y31" s="133"/>
       <c r="Z31" s="133"/>
       <c r="AA31" s="133"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="133"/>
+      <c r="AB31" s="133"/>
+      <c r="AJ31" s="145"/>
       <c r="AK31" s="133"/>
       <c r="AL31" s="133"/>
       <c r="AM31" s="133"/>
       <c r="AN31" s="133"/>
       <c r="AO31" s="133"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32" s="134"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
+      <c r="AP31" s="133"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" s="150">
+        <v>43637</v>
+      </c>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
       <c r="D32" s="134"/>
       <c r="E32" s="134"/>
-      <c r="F32" s="152" t="s">
-        <v>162</v>
-      </c>
+      <c r="F32" s="143"/>
       <c r="G32" s="133"/>
       <c r="H32" s="143"/>
       <c r="I32" s="143"/>
@@ -10598,16 +10598,56 @@
       <c r="Y32" s="133"/>
       <c r="Z32" s="133"/>
       <c r="AA32" s="133"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="133"/>
+      <c r="AB32" s="133"/>
+      <c r="AJ32" s="145"/>
       <c r="AK32" s="133"/>
       <c r="AL32" s="133"/>
       <c r="AM32" s="133"/>
       <c r="AN32" s="133"/>
       <c r="AO32" s="133"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="133" t="s">
+      <c r="AP32" s="133"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="152" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="133"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="134"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="133"/>
+      <c r="W33" s="133"/>
+      <c r="X33" s="133"/>
+      <c r="Y33" s="133"/>
+      <c r="Z33" s="133"/>
+      <c r="AA33" s="133"/>
+      <c r="AB33" s="133"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="133"/>
+      <c r="AL33" s="133"/>
+      <c r="AM33" s="133"/>
+      <c r="AN33" s="133"/>
+      <c r="AO33" s="133"/>
+      <c r="AP33" s="133"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F34" s="133" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10615,9 +10655,9 @@
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
-  <conditionalFormatting sqref="X22">
+  <conditionalFormatting sqref="X23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -10629,19 +10669,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5 E15:E26 E9:E11">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E4:E5 E16:E27 E9:E12">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="between">
       <formula>15</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X23:X26 X15:X21 X9:X11 X4:X5">
+  <conditionalFormatting sqref="X24:X27 X16:X22 X4:X5 X9:X12">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -10653,7 +10693,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA15:AH26 AA9:AH11 AA4:AH5">
+  <conditionalFormatting sqref="AA16:AI27 AA4:AI5 AA9:AI12">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -10681,7 +10721,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10707,14 +10747,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="336" t="s">
+      <c r="D1" s="340" t="s">
         <v>276</v>
       </c>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
-      <c r="G1" s="337"/>
-      <c r="H1" s="337"/>
-      <c r="I1" s="338"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="342"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -10794,14 +10834,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="339" t="s">
+      <c r="D2" s="343" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="341"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="345"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -10866,15 +10906,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="342" t="s">
+      <c r="D3" s="346" t="s">
         <v>251</v>
       </c>
-      <c r="E3" s="343"/>
+      <c r="E3" s="347"/>
       <c r="F3" s="220"/>
-      <c r="G3" s="344" t="s">
+      <c r="G3" s="348" t="s">
         <v>252</v>
       </c>
-      <c r="H3" s="345"/>
+      <c r="H3" s="349"/>
       <c r="I3" s="220"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -10892,63 +10932,63 @@
       </c>
       <c r="Q3" s="81">
         <f>P3+P11/30</f>
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="R3" s="81">
         <f t="shared" ref="R3:AE3" si="1">Q3+Q11/30</f>
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S3" s="81">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="T3" s="81">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="U3" s="81">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="V3" s="81">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="W3" s="81">
         <f t="shared" si="1"/>
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="X3" s="81">
         <f t="shared" si="1"/>
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Y3" s="81">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Z3" s="81">
         <f t="shared" si="1"/>
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AA3" s="81">
         <f t="shared" si="1"/>
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AB3" s="81">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AC3" s="81">
         <f t="shared" si="1"/>
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AD3" s="81">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AE3" s="81">
         <f t="shared" si="1"/>
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
@@ -11054,7 +11094,7 @@
       </c>
       <c r="F5" s="271">
         <f>E5/E35</f>
-        <v>0.1219222076840728</v>
+        <v>0.12191720703982151</v>
       </c>
       <c r="G5" s="224" t="s">
         <v>254</v>
@@ -11065,7 +11105,7 @@
       </c>
       <c r="I5" s="226">
         <f>H5/$H$35</f>
-        <v>0.10254180629442623</v>
+        <v>0.10253760053811732</v>
       </c>
       <c r="K5" s="82" t="s">
         <v>119</v>
@@ -11088,63 +11128,63 @@
       </c>
       <c r="Q5" s="84">
         <f t="shared" si="3"/>
-        <v>909196</v>
+        <v>909316</v>
       </c>
       <c r="R5" s="84">
         <f t="shared" si="3"/>
-        <v>854346</v>
+        <v>854466</v>
       </c>
       <c r="S5" s="84">
         <f t="shared" si="3"/>
-        <v>861746</v>
+        <v>861866</v>
       </c>
       <c r="T5" s="84">
         <f t="shared" si="3"/>
-        <v>808396</v>
+        <v>808516</v>
       </c>
       <c r="U5" s="84">
         <f t="shared" si="3"/>
-        <v>816696</v>
+        <v>816816</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" si="3"/>
-        <v>766246</v>
+        <v>766366</v>
       </c>
       <c r="W5" s="84">
         <f t="shared" si="3"/>
-        <v>778046</v>
+        <v>778166</v>
       </c>
       <c r="X5" s="84">
         <f t="shared" si="3"/>
-        <v>729096</v>
+        <v>729216</v>
       </c>
       <c r="Y5" s="84">
         <f t="shared" si="3"/>
-        <v>742396</v>
+        <v>742516</v>
       </c>
       <c r="Z5" s="84">
         <f t="shared" si="3"/>
-        <v>694946</v>
+        <v>695066</v>
       </c>
       <c r="AA5" s="84">
         <f t="shared" si="3"/>
-        <v>709746</v>
+        <v>709866</v>
       </c>
       <c r="AB5" s="84">
         <f t="shared" si="3"/>
-        <v>663796</v>
+        <v>663916</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" si="3"/>
-        <v>680096</v>
+        <v>680216</v>
       </c>
       <c r="AD5" s="84">
         <f t="shared" si="3"/>
-        <v>697146</v>
+        <v>697266</v>
       </c>
       <c r="AE5" s="84">
         <f t="shared" si="3"/>
-        <v>653446</v>
+        <v>653566</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -11154,7 +11194,7 @@
       </c>
       <c r="B6" s="311">
         <f t="shared" ref="B6:B13" si="5">M6/$M$14</f>
-        <v>0.2945129346971444</v>
+        <v>0.29449735925424492</v>
       </c>
       <c r="D6" s="227" t="s">
         <v>133</v>
@@ -11165,7 +11205,7 @@
       </c>
       <c r="F6" s="273">
         <f>E6/E35</f>
-        <v>3.0078929846365031E-2</v>
+        <v>3.007769615784775E-2</v>
       </c>
       <c r="G6" s="229" t="s">
         <v>255</v>
@@ -11175,7 +11215,7 @@
       </c>
       <c r="I6" s="275">
         <f>H6/$H$35</f>
-        <v>0.10254180629442623</v>
+        <v>0.10253760053811732</v>
       </c>
       <c r="K6" s="257" t="s">
         <v>120</v>
@@ -11251,7 +11291,7 @@
       </c>
       <c r="B7" s="311">
         <f t="shared" si="5"/>
-        <v>0.2919892848454077</v>
+        <v>0.29197384286681333</v>
       </c>
       <c r="D7" s="227" t="s">
         <v>138</v>
@@ -11262,7 +11302,7 @@
       </c>
       <c r="F7" s="273">
         <f>E7/E35</f>
-        <v>9.1843277837707765E-2</v>
+        <v>9.1839510881973757E-2</v>
       </c>
       <c r="G7" s="229" t="s">
         <v>256</v>
@@ -11528,7 +11568,7 @@
       </c>
       <c r="B10" s="311">
         <f t="shared" si="5"/>
-        <v>9.6961747709058341E-3</v>
+        <v>9.6956619845433526E-3</v>
       </c>
       <c r="D10" s="224" t="s">
         <v>278</v>
@@ -11546,11 +11586,11 @@
       </c>
       <c r="H10" s="272">
         <f>SUM(H11:H16)</f>
-        <v>667196</v>
+        <v>667316</v>
       </c>
       <c r="I10" s="226">
         <f t="shared" ref="I10:I16" si="8">H10/$H$35</f>
-        <v>0.22805160997472002</v>
+        <v>0.228083271468981</v>
       </c>
       <c r="K10" s="257" t="s">
         <v>125</v>
@@ -11638,7 +11678,7 @@
       </c>
       <c r="B11" s="311">
         <f t="shared" si="5"/>
-        <v>5.817704862543501E-3</v>
+        <v>5.8702826197326117E-3</v>
       </c>
       <c r="D11" s="235" t="s">
         <v>279</v>
@@ -11661,7 +11701,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="346" t="s">
+      <c r="K11" s="350" t="s">
         <v>126</v>
       </c>
       <c r="L11" s="257" t="s">
@@ -11669,7 +11709,7 @@
       </c>
       <c r="M11" s="276">
         <f t="shared" si="6"/>
-        <v>13200</v>
+        <v>13320</v>
       </c>
       <c r="N11" s="306">
         <v>0</v>
@@ -11678,10 +11718,9 @@
         <v>1200</v>
       </c>
       <c r="P11" s="256">
-        <v>1200</v>
+        <v>1320</v>
       </c>
       <c r="Q11" s="256">
-        <f>P11</f>
         <v>1200</v>
       </c>
       <c r="R11" s="256">
@@ -11747,7 +11786,7 @@
       </c>
       <c r="B12" s="311">
         <f t="shared" si="5"/>
-        <v>0.39798390082399854</v>
+        <v>0.39796285327466574</v>
       </c>
       <c r="D12" s="235" t="str">
         <f>L13</f>
@@ -11771,7 +11810,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="347"/>
+      <c r="K12" s="351"/>
       <c r="L12" s="257" t="s">
         <v>128</v>
       </c>
@@ -11867,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="283"/>
-      <c r="K13" s="348"/>
+      <c r="K13" s="352"/>
       <c r="L13" s="257" t="s">
         <v>280</v>
       </c>
@@ -11974,7 +12013,7 @@
       <c r="L14" s="310"/>
       <c r="M14" s="286">
         <f>SUM(N14:AE14)</f>
-        <v>2268936</v>
+        <v>2269056</v>
       </c>
       <c r="N14" s="307">
         <f>SUM(N6:N13)</f>
@@ -11986,7 +12025,7 @@
       </c>
       <c r="P14" s="307">
         <f t="shared" ref="P14:AE14" si="11">SUM(P6:P13)</f>
-        <v>75753</v>
+        <v>75873</v>
       </c>
       <c r="Q14" s="307">
         <f t="shared" si="11"/>
@@ -12050,11 +12089,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="333">
+      <c r="A15" s="337">
         <f>M14</f>
-        <v>2268936</v>
-      </c>
-      <c r="B15" s="333"/>
+        <v>2269056</v>
+      </c>
+      <c r="B15" s="337"/>
       <c r="D15" s="224" t="s">
         <v>143</v>
       </c>
@@ -12173,11 +12212,11 @@
       </c>
       <c r="H16" s="288">
         <f>E29-H26</f>
-        <v>667196</v>
+        <v>667316</v>
       </c>
       <c r="I16" s="275">
         <f t="shared" si="8"/>
-        <v>0.22805160997472002</v>
+        <v>0.228083271468981</v>
       </c>
       <c r="K16" s="258" t="s">
         <v>131</v>
@@ -12602,7 +12641,7 @@
       <c r="G21" s="237"/>
       <c r="H21" s="294"/>
       <c r="I21" s="295"/>
-      <c r="K21" s="329" t="s">
+      <c r="K21" s="333" t="s">
         <v>126</v>
       </c>
       <c r="L21" s="259" t="s">
@@ -12688,9 +12727,9 @@
       </c>
       <c r="I22" s="226">
         <f>H22/$H$35</f>
-        <v>0.1219222076840728</v>
-      </c>
-      <c r="K22" s="330"/>
+        <v>0.12191720703982151</v>
+      </c>
+      <c r="K22" s="334"/>
       <c r="L22" s="259" t="s">
         <v>139</v>
       </c>
@@ -12767,9 +12806,9 @@
       </c>
       <c r="I23" s="275">
         <f>H23/$H$35</f>
-        <v>3.0078929846365031E-2</v>
-      </c>
-      <c r="K23" s="331"/>
+        <v>3.007769615784775E-2</v>
+      </c>
+      <c r="K23" s="335"/>
       <c r="L23" s="259" t="s">
         <v>281</v>
       </c>
@@ -12851,7 +12890,7 @@
       </c>
       <c r="F24" s="271">
         <f>E24/E35</f>
-        <v>0.10254180629442623</v>
+        <v>0.10253760053811732</v>
       </c>
       <c r="G24" s="241" t="s">
         <v>138</v>
@@ -12862,7 +12901,7 @@
       </c>
       <c r="I24" s="275">
         <f>H24/$H$35</f>
-        <v>9.1843277837707765E-2</v>
+        <v>9.1839510881973757E-2</v>
       </c>
       <c r="K24" s="258" t="s">
         <v>140</v>
@@ -12949,7 +12988,7 @@
       </c>
       <c r="F25" s="273">
         <f>E25/E35</f>
-        <v>0.10254180629442623</v>
+        <v>0.10253760053811732</v>
       </c>
       <c r="G25" s="242"/>
       <c r="H25" s="297"/>
@@ -13066,7 +13105,7 @@
       </c>
       <c r="I26" s="226">
         <f t="shared" ref="I26:I32" si="18">H26/$H$35</f>
-        <v>0.54748437604678091</v>
+        <v>0.54746192095308022</v>
       </c>
       <c r="K26" s="89" t="s">
         <v>142</v>
@@ -13074,7 +13113,7 @@
       <c r="L26" s="89"/>
       <c r="M26" s="84">
         <f t="shared" ref="M26:AE26" si="19">M5+M14-M25</f>
-        <v>610496</v>
+        <v>610616</v>
       </c>
       <c r="N26" s="84">
         <f t="shared" si="19"/>
@@ -13086,67 +13125,67 @@
       </c>
       <c r="P26" s="84">
         <f t="shared" si="19"/>
-        <v>909196</v>
+        <v>909316</v>
       </c>
       <c r="Q26" s="84">
         <f t="shared" si="19"/>
-        <v>854346</v>
+        <v>854466</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" si="19"/>
-        <v>861746</v>
+        <v>861866</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" si="19"/>
-        <v>808396</v>
+        <v>808516</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" si="19"/>
-        <v>816696</v>
+        <v>816816</v>
       </c>
       <c r="U26" s="84">
         <f t="shared" si="19"/>
-        <v>766246</v>
+        <v>766366</v>
       </c>
       <c r="V26" s="84">
         <f t="shared" si="19"/>
-        <v>778046</v>
+        <v>778166</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" si="19"/>
-        <v>729096</v>
+        <v>729216</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" si="19"/>
-        <v>742396</v>
+        <v>742516</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" si="19"/>
-        <v>694946</v>
+        <v>695066</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" si="19"/>
-        <v>709746</v>
+        <v>709866</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" si="19"/>
-        <v>663796</v>
+        <v>663916</v>
       </c>
       <c r="AB26" s="84">
         <f t="shared" si="19"/>
-        <v>680096</v>
+        <v>680216</v>
       </c>
       <c r="AC26" s="84">
         <f t="shared" si="19"/>
-        <v>697146</v>
+        <v>697266</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" si="19"/>
-        <v>653446</v>
+        <v>653566</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" si="19"/>
-        <v>610496</v>
+        <v>610616</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -13180,7 +13219,7 @@
       </c>
       <c r="I27" s="275">
         <f t="shared" si="18"/>
-        <v>5.7245672393968355E-2</v>
+        <v>5.724332446041297E-2</v>
       </c>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
@@ -13280,7 +13319,7 @@
       </c>
       <c r="I28" s="275">
         <f t="shared" si="18"/>
-        <v>4.1255986732457492E-2</v>
+        <v>4.125429461650254E-2</v>
       </c>
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
@@ -13318,11 +13357,11 @@
       </c>
       <c r="E29" s="225">
         <f>SUM(E30:E34)</f>
-        <v>2268936</v>
+        <v>2269056</v>
       </c>
       <c r="F29" s="271">
         <f>E29/E35</f>
-        <v>0.77553598602150098</v>
+        <v>0.77554519242206121</v>
       </c>
       <c r="G29" s="241" t="s">
         <v>134</v>
@@ -13333,7 +13372,7 @@
       </c>
       <c r="I29" s="275">
         <f t="shared" si="18"/>
-        <v>0.32353990722017367</v>
+        <v>0.32352663721786779</v>
       </c>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -13346,7 +13385,9 @@
       <c r="O29" s="96">
         <v>19</v>
       </c>
-      <c r="P29" s="96"/>
+      <c r="P29" s="96">
+        <v>19</v>
+      </c>
       <c r="Q29" s="96"/>
       <c r="R29" s="96"/>
       <c r="S29" s="96"/>
@@ -13377,11 +13418,11 @@
       </c>
       <c r="E30" s="245">
         <f>M11</f>
-        <v>13200</v>
+        <v>13320</v>
       </c>
       <c r="F30" s="273">
         <f>E30/E35</f>
-        <v>4.5118394769547545E-3</v>
+        <v>4.5526694638924094E-3</v>
       </c>
       <c r="G30" s="241" t="s">
         <v>135</v>
@@ -13392,10 +13433,10 @@
       </c>
       <c r="I30" s="275">
         <f t="shared" si="18"/>
-        <v>0.12305016755331148</v>
+        <v>0.12304512064574079</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="332" t="s">
+      <c r="L30" s="336" t="s">
         <v>144</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -13407,7 +13448,9 @@
       <c r="O30" s="96">
         <v>19090</v>
       </c>
-      <c r="P30" s="96"/>
+      <c r="P30" s="96">
+        <v>21290</v>
+      </c>
       <c r="Q30" s="96"/>
       <c r="R30" s="96"/>
       <c r="S30" s="96"/>
@@ -13442,7 +13485,7 @@
       </c>
       <c r="F31" s="273">
         <f>E31/E35</f>
-        <v>0.30865083694622297</v>
+        <v>0.30863817761973317</v>
       </c>
       <c r="G31" s="241" t="s">
         <v>139</v>
@@ -13453,10 +13496,10 @@
       </c>
       <c r="I31" s="275">
         <f t="shared" si="18"/>
-        <v>2.3926421468699454E-3</v>
+        <v>2.3925440125560711E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="332"/>
+      <c r="L31" s="336"/>
       <c r="M31" s="98" t="s">
         <v>145</v>
       </c>
@@ -13466,7 +13509,9 @@
       <c r="O31" s="96">
         <v>7790</v>
       </c>
-      <c r="P31" s="96"/>
+      <c r="P31" s="96">
+        <v>7790</v>
+      </c>
       <c r="Q31" s="96"/>
       <c r="R31" s="96"/>
       <c r="S31" s="96"/>
@@ -13501,7 +13546,7 @@
       </c>
       <c r="F32" s="273">
         <f>E32/E35</f>
-        <v>0.2284053792064358</v>
+        <v>0.22839601115062227</v>
       </c>
       <c r="G32" s="241" t="s">
         <v>140</v>
@@ -13515,7 +13560,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="332"/>
+      <c r="L32" s="336"/>
       <c r="M32" s="98" t="s">
         <v>146</v>
       </c>
@@ -13525,7 +13570,9 @@
       <c r="O32" s="96">
         <v>14830</v>
       </c>
-      <c r="P32" s="96"/>
+      <c r="P32" s="96">
+        <v>17180</v>
+      </c>
       <c r="Q32" s="96"/>
       <c r="R32" s="96"/>
       <c r="S32" s="96"/>
@@ -13557,13 +13604,13 @@
       </c>
       <c r="F33" s="273">
         <f>E33/E35</f>
-        <v>0.22644819793029619</v>
+        <v>0.22643891014835141</v>
       </c>
       <c r="G33" s="237"/>
       <c r="H33" s="294"/>
       <c r="I33" s="295"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="332"/>
+      <c r="L33" s="336"/>
       <c r="M33" s="98" t="s">
         <v>147</v>
       </c>
@@ -13573,7 +13620,9 @@
       <c r="O33" s="96">
         <v>5250</v>
       </c>
-      <c r="P33" s="96"/>
+      <c r="P33" s="96">
+        <v>5190</v>
+      </c>
       <c r="Q33" s="96"/>
       <c r="R33" s="96"/>
       <c r="S33" s="96"/>
@@ -13602,13 +13651,13 @@
       </c>
       <c r="F34" s="273">
         <f>E34/E35</f>
-        <v>7.5197324615912577E-3</v>
+        <v>7.5194240394619374E-3</v>
       </c>
       <c r="G34" s="300"/>
       <c r="H34" s="301"/>
       <c r="I34" s="302"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="332"/>
+      <c r="L34" s="336"/>
       <c r="M34" s="98" t="s">
         <v>148</v>
       </c>
@@ -13618,7 +13667,9 @@
       <c r="O34" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="P34" s="99"/>
+      <c r="P34" s="99" t="s">
+        <v>289</v>
+      </c>
       <c r="Q34" s="99"/>
       <c r="R34" s="99"/>
       <c r="S34" s="99"/>
@@ -13636,17 +13687,17 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="334">
+      <c r="A35" s="338">
         <f>M25</f>
         <v>1958440</v>
       </c>
-      <c r="B35" s="334"/>
+      <c r="B35" s="338"/>
       <c r="D35" s="303" t="s">
         <v>228</v>
       </c>
       <c r="E35" s="304">
         <f>E29+E21+E15+E5+E10+E24</f>
-        <v>2925636</v>
+        <v>2925756</v>
       </c>
       <c r="F35" s="246">
         <f>F29+F21+F15+F5+F10+F24</f>
@@ -13657,14 +13708,14 @@
       </c>
       <c r="H35" s="304">
         <f>H26+H18+H10+H5+H22</f>
-        <v>2925636</v>
+        <v>2925756</v>
       </c>
       <c r="I35" s="305">
         <f>H35/$H$35</f>
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="332"/>
+      <c r="L35" s="336"/>
       <c r="M35" s="98" t="s">
         <v>150</v>
       </c>
@@ -13674,7 +13725,9 @@
       <c r="O35" s="100">
         <v>5.25</v>
       </c>
-      <c r="P35" s="100"/>
+      <c r="P35" s="100">
+        <v>5.25</v>
+      </c>
       <c r="Q35" s="100"/>
       <c r="R35" s="100"/>
       <c r="S35" s="100"/>
@@ -13701,7 +13754,7 @@
       </c>
       <c r="I36" s="219"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="332"/>
+      <c r="L36" s="336"/>
       <c r="M36" s="98" t="s">
         <v>151</v>
       </c>
@@ -13711,7 +13764,9 @@
       <c r="O36" s="100">
         <v>4.75</v>
       </c>
-      <c r="P36" s="100"/>
+      <c r="P36" s="100">
+        <v>5.25</v>
+      </c>
       <c r="Q36" s="100"/>
       <c r="R36" s="100"/>
       <c r="S36" s="100"/>
@@ -13734,7 +13789,7 @@
       <c r="H37" s="219"/>
       <c r="I37" s="219"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="332"/>
+      <c r="L37" s="336"/>
       <c r="M37" s="98" t="s">
         <v>152</v>
       </c>
@@ -13744,7 +13799,9 @@
       <c r="O37" s="100">
         <v>2.5</v>
       </c>
-      <c r="P37" s="100"/>
+      <c r="P37" s="100">
+        <v>2.75</v>
+      </c>
       <c r="Q37" s="100"/>
       <c r="R37" s="100"/>
       <c r="S37" s="100"/>
@@ -13781,9 +13838,9 @@
         <f t="shared" si="21"/>
         <v>2.4505776636713734</v>
       </c>
-      <c r="P38" s="102" t="e">
+      <c r="P38" s="102">
         <f t="shared" ref="P38:AE38" si="22">P30/P31</f>
-        <v>#DIV/0!</v>
+        <v>2.7329910141206675</v>
       </c>
       <c r="Q38" s="102" t="e">
         <f t="shared" si="22"/>
@@ -13857,10 +13914,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="335"/>
-      <c r="R39" s="335"/>
-      <c r="S39" s="335"/>
-      <c r="T39" s="335"/>
+      <c r="Q39" s="339"/>
+      <c r="R39" s="339"/>
+      <c r="S39" s="339"/>
+      <c r="T39" s="339"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="219"/>
@@ -13912,10 +13969,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="328"/>
-      <c r="R42" s="328"/>
-      <c r="S42" s="328"/>
-      <c r="T42" s="328"/>
+      <c r="Q42" s="332"/>
+      <c r="R42" s="332"/>
+      <c r="S42" s="332"/>
+      <c r="T42" s="332"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -13936,10 +13993,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="328"/>
-      <c r="R44" s="328"/>
-      <c r="S44" s="328"/>
-      <c r="T44" s="328"/>
+      <c r="Q44" s="332"/>
+      <c r="R44" s="332"/>
+      <c r="S44" s="332"/>
+      <c r="T44" s="332"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -13948,9 +14005,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="328"/>
-      <c r="R45" s="328"/>
-      <c r="S45" s="328"/>
+      <c r="Q45" s="332"/>
+      <c r="R45" s="332"/>
+      <c r="S45" s="332"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -14223,23 +14280,23 @@
     <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14307,18 +14364,18 @@
       <c r="C2" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="349" t="s">
+      <c r="D2" s="353" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="349"/>
-      <c r="F2" s="350" t="s">
+      <c r="E2" s="353"/>
+      <c r="F2" s="354" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="350"/>
-      <c r="H2" s="351" t="s">
+      <c r="G2" s="354"/>
+      <c r="H2" s="355" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="351"/>
+      <c r="I2" s="355"/>
       <c r="K2" s="60"/>
       <c r="M2" s="155">
         <v>11</v>
@@ -17369,10 +17426,10 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:AD32">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F26C164-EFE8-4662-8A7C-1D43F5BC0EDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22300CC-7542-4178-8E7D-6CEE64FD236F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
-    <sheet name="Juvenils" sheetId="3" r:id="rId2"/>
-    <sheet name="Economia" sheetId="5" r:id="rId3"/>
-    <sheet name="Ahch-To" sheetId="4" r:id="rId4"/>
+    <sheet name="Hall_of_Fame" sheetId="6" r:id="rId1"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId2"/>
+    <sheet name="Juvenils" sheetId="3" r:id="rId3"/>
+    <sheet name="Planning" sheetId="7" r:id="rId4"/>
+    <sheet name="Economia" sheetId="5" r:id="rId5"/>
+    <sheet name="Ahch-To" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -198,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="347">
   <si>
     <t>Nfin</t>
   </si>
@@ -1107,6 +1109,138 @@
   </si>
   <si>
     <t>POR/DEF/MED/EXT/DAV</t>
+  </si>
+  <si>
+    <t>Fecha Actualizacion</t>
+  </si>
+  <si>
+    <t>Mejor Partido</t>
+  </si>
+  <si>
+    <t>Porteria Imbatuda</t>
+  </si>
+  <si>
+    <t>Més Partits Jugats</t>
+  </si>
+  <si>
+    <t>Gols Marcats</t>
+  </si>
+  <si>
+    <t>G/P</t>
+  </si>
+  <si>
+    <t>Millor Qualificació</t>
+  </si>
+  <si>
+    <t>Més vegades Capità</t>
+  </si>
+  <si>
+    <t>168 hts</t>
+  </si>
+  <si>
+    <t>Humanoides11 - Luke JC</t>
+  </si>
+  <si>
+    <t>Luke JC - Bayern 1985</t>
+  </si>
+  <si>
+    <t>159 hts</t>
+  </si>
+  <si>
+    <t>5*</t>
+  </si>
+  <si>
+    <t>Joel Autet</t>
+  </si>
+  <si>
+    <t>4,5*</t>
+  </si>
+  <si>
+    <t>Thibault Averous</t>
+  </si>
+  <si>
+    <t>Luis Gerardo Salares</t>
+  </si>
+  <si>
+    <t>Darius Salat</t>
+  </si>
+  <si>
+    <t>Jean-Louis Grellier</t>
+  </si>
+  <si>
+    <t>4*</t>
+  </si>
+  <si>
+    <t>Ismael Escuder</t>
+  </si>
+  <si>
+    <t>Agustí Aguilella</t>
+  </si>
+  <si>
+    <t>Maximilià Teixè</t>
+  </si>
+  <si>
+    <t>Àlex Aluja</t>
+  </si>
+  <si>
+    <t>Pere Pau Cunill</t>
+  </si>
+  <si>
+    <t>Jesús Banal</t>
+  </si>
+  <si>
+    <t>Àlex Guau</t>
+  </si>
+  <si>
+    <t>Joan Poblet</t>
+  </si>
+  <si>
+    <t>Marc Tàcias</t>
+  </si>
+  <si>
+    <t>3,5*</t>
+  </si>
+  <si>
+    <t>Hernán Grijalva</t>
+  </si>
+  <si>
+    <t>Eusebi Tarrida</t>
+  </si>
+  <si>
+    <t>3*</t>
+  </si>
+  <si>
+    <t>Samuel Candela</t>
+  </si>
+  <si>
+    <t>Més Targetes</t>
+  </si>
+  <si>
+    <t>Grogues</t>
+  </si>
+  <si>
+    <t>Vermelles</t>
+  </si>
+  <si>
+    <t>T/P</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F/N</t>
+  </si>
+  <si>
+    <t>Agradable i Popular /Tranquil-Calmat</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>Solo Jugadas/Anotación/Pases y BP</t>
+  </si>
+  <si>
+    <t>253 + 343</t>
   </si>
 </sst>
 </file>
@@ -1126,13 +1260,20 @@
     <numFmt numFmtId="173" formatCode="_-* #,##0&quot; €&quot;_-;\-* #,##0&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="174" formatCode="_-* #,##0\ [$€-C0A]_-;\-* #,##0\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="57" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1549,8 +1690,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1839,6 +2002,12 @@
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -2080,187 +2249,187 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="14" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="10" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="11" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2269,194 +2438,194 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="26" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="17" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="173" fontId="3" fillId="17" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="1" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="37" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2465,26 +2634,26 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2500,11 +2669,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2522,21 +2691,21 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="21" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="38" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2548,32 +2717,32 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2604,109 +2773,109 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="44" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="28" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="26" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="43" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="41" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="43" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="43" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="43" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="42" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="44" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="45" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="44" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="50" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="50" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="51" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="44" fillId="37" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="45" fillId="37" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="45" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2715,128 +2884,257 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="43" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="41" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="50" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="44" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="42" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="51" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="45" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="2" fillId="46" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="3" fillId="45" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="3" fillId="46" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="53" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="54" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="55" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="32" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="20" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="20" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="47" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="34" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="58" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="45" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="45" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="24" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="26" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2848,25 +3146,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2878,33 +3176,7 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="20" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="20" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="47" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="33" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2913,97 +3185,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3075,6 +3257,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4052,17 +4264,1271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C09E61C-298F-4481-9305-8EA273077EB6}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:AA32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" customWidth="1"/>
+    <col min="22" max="22" width="3" style="62" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" style="62" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="377" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="377"/>
+      <c r="C1" s="377"/>
+      <c r="E1" s="376" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="378">
+        <v>43655</v>
+      </c>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="E2" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="332" t="s">
+        <v>314</v>
+      </c>
+      <c r="G2" s="333">
+        <v>43649</v>
+      </c>
+      <c r="H2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="E3" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="340" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="333">
+        <v>43639</v>
+      </c>
+      <c r="H3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="334"/>
+      <c r="B4" s="334"/>
+      <c r="C4" s="334"/>
+      <c r="D4" s="334"/>
+      <c r="E4" s="334"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="334"/>
+      <c r="H4" s="334"/>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
+      <c r="N4" s="334"/>
+      <c r="O4" s="334"/>
+      <c r="P4" s="334"/>
+      <c r="Q4" s="334"/>
+      <c r="R4" s="334"/>
+      <c r="S4" s="334"/>
+      <c r="T4" s="334"/>
+      <c r="U4" s="334"/>
+      <c r="V4" s="363"/>
+      <c r="W4" s="363"/>
+    </row>
+    <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="334"/>
+      <c r="B5" s="375" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="375"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="334"/>
+      <c r="G5" s="375" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="375"/>
+      <c r="I5" s="375"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="375" t="s">
+        <v>307</v>
+      </c>
+      <c r="M5" s="375"/>
+      <c r="O5" s="239" t="s">
+        <v>308</v>
+      </c>
+      <c r="P5" s="334"/>
+      <c r="Q5" s="334"/>
+      <c r="R5" s="375" t="s">
+        <v>309</v>
+      </c>
+      <c r="S5" s="375"/>
+      <c r="T5" s="334"/>
+      <c r="U5" s="334"/>
+      <c r="V5" s="376" t="s">
+        <v>337</v>
+      </c>
+      <c r="W5" s="376"/>
+      <c r="X5" s="363" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y5" s="363" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z5" s="363" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="363" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="187">
+        <v>1</v>
+      </c>
+      <c r="B6" s="358">
+        <v>1</v>
+      </c>
+      <c r="C6" s="348" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="350">
+        <v>1</v>
+      </c>
+      <c r="G6" s="358">
+        <v>2</v>
+      </c>
+      <c r="H6" s="348" t="s">
+        <v>330</v>
+      </c>
+      <c r="I6" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="372">
+        <v>1</v>
+      </c>
+      <c r="L6" s="373">
+        <v>2</v>
+      </c>
+      <c r="M6" s="362" t="s">
+        <v>329</v>
+      </c>
+      <c r="N6" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="370">
+        <f>L6/G14</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="362">
+        <v>1</v>
+      </c>
+      <c r="R6" s="344" t="s">
+        <v>315</v>
+      </c>
+      <c r="S6" s="345" t="s">
+        <v>316</v>
+      </c>
+      <c r="T6" s="346" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="364">
+        <v>1</v>
+      </c>
+      <c r="W6" s="364" t="s">
+        <v>328</v>
+      </c>
+      <c r="X6" s="344">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="365">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="366">
+        <f>Y6+X6</f>
+        <v>2</v>
+      </c>
+      <c r="AA6" s="374">
+        <f>Z6/G17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="187">
+        <v>2</v>
+      </c>
+      <c r="B7" s="351"/>
+      <c r="C7" s="352"/>
+      <c r="D7" s="353"/>
+      <c r="F7" s="350">
+        <v>1</v>
+      </c>
+      <c r="G7" s="358">
+        <v>2</v>
+      </c>
+      <c r="H7" s="348" t="s">
+        <v>334</v>
+      </c>
+      <c r="I7" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="372">
+        <v>1</v>
+      </c>
+      <c r="L7" s="373">
+        <v>2</v>
+      </c>
+      <c r="M7" s="362" t="s">
+        <v>328</v>
+      </c>
+      <c r="N7" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="370">
+        <f>L7/G17</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="343">
+        <v>2</v>
+      </c>
+      <c r="R7" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="S7" s="348" t="s">
+        <v>318</v>
+      </c>
+      <c r="T7" s="348" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="367">
+        <v>2</v>
+      </c>
+      <c r="W7" s="347" t="s">
+        <v>319</v>
+      </c>
+      <c r="X7" s="347">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="347">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="366">
+        <f>Y7+X7</f>
+        <v>1</v>
+      </c>
+      <c r="AA7" s="374">
+        <f>Z7/G16</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="187">
+        <v>3</v>
+      </c>
+      <c r="B8" s="355"/>
+      <c r="C8" s="356"/>
+      <c r="D8" s="357"/>
+      <c r="F8" s="350">
+        <v>1</v>
+      </c>
+      <c r="G8" s="358">
+        <v>2</v>
+      </c>
+      <c r="H8" s="348" t="s">
+        <v>320</v>
+      </c>
+      <c r="I8" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="372">
+        <v>1</v>
+      </c>
+      <c r="L8" s="373">
+        <v>2</v>
+      </c>
+      <c r="M8" s="345" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="346" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="370">
+        <f>L8/G12</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="343">
+        <v>2</v>
+      </c>
+      <c r="R8" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="S8" s="348" t="s">
+        <v>319</v>
+      </c>
+      <c r="T8" s="348" t="s">
+        <v>93</v>
+      </c>
+      <c r="V8" s="367">
+        <v>2</v>
+      </c>
+      <c r="W8" s="347" t="s">
+        <v>326</v>
+      </c>
+      <c r="X8" s="347">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="347">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="366">
+        <f>Y8+X8</f>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="374">
+        <f>Z8/G20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="187">
+        <v>4</v>
+      </c>
+      <c r="B9" s="355"/>
+      <c r="C9" s="356"/>
+      <c r="D9" s="356"/>
+      <c r="E9" s="334"/>
+      <c r="F9" s="350">
+        <v>1</v>
+      </c>
+      <c r="G9" s="359">
+        <v>2</v>
+      </c>
+      <c r="H9" s="348" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="334"/>
+      <c r="K9" s="331">
+        <v>1</v>
+      </c>
+      <c r="L9" s="344">
+        <v>2</v>
+      </c>
+      <c r="M9" s="348" t="s">
+        <v>318</v>
+      </c>
+      <c r="N9" s="348" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="371">
+        <f>L9/G13</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="334"/>
+      <c r="Q9" s="343">
+        <v>2</v>
+      </c>
+      <c r="R9" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="S9" s="348" t="s">
+        <v>320</v>
+      </c>
+      <c r="T9" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="U9" s="334"/>
+      <c r="V9" s="367">
+        <v>2</v>
+      </c>
+      <c r="W9" s="347"/>
+      <c r="X9" s="347"/>
+      <c r="Y9" s="368"/>
+      <c r="Z9" s="342"/>
+      <c r="AA9" s="341"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="187">
+        <v>5</v>
+      </c>
+      <c r="B10" s="354"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="360"/>
+      <c r="F10" s="350">
+        <v>1</v>
+      </c>
+      <c r="G10" s="359">
+        <v>2</v>
+      </c>
+      <c r="H10" s="345" t="s">
+        <v>323</v>
+      </c>
+      <c r="I10" s="346" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="331">
+        <v>5</v>
+      </c>
+      <c r="L10" s="347">
+        <v>1</v>
+      </c>
+      <c r="M10" s="345" t="s">
+        <v>316</v>
+      </c>
+      <c r="N10" s="346" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="370">
+        <f>L10/G15</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="343">
+        <v>2</v>
+      </c>
+      <c r="R10" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="S10" s="345" t="s">
+        <v>321</v>
+      </c>
+      <c r="T10" s="345" t="s">
+        <v>156</v>
+      </c>
+      <c r="V10" s="367">
+        <v>2</v>
+      </c>
+      <c r="W10" s="347"/>
+      <c r="X10" s="344"/>
+      <c r="Y10" s="344"/>
+      <c r="Z10" s="342"/>
+      <c r="AA10" s="341"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="187">
+        <v>5</v>
+      </c>
+      <c r="B11" s="355"/>
+      <c r="C11" s="356"/>
+      <c r="D11" s="356"/>
+      <c r="F11" s="350">
+        <v>1</v>
+      </c>
+      <c r="G11" s="359">
+        <v>2</v>
+      </c>
+      <c r="H11" s="345" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="345" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="331">
+        <v>5</v>
+      </c>
+      <c r="L11" s="344">
+        <v>1</v>
+      </c>
+      <c r="M11" s="348" t="s">
+        <v>319</v>
+      </c>
+      <c r="N11" s="348" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="371">
+        <f>L11/G16</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="343">
+        <v>6</v>
+      </c>
+      <c r="R11" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S11" s="345" t="s">
+        <v>323</v>
+      </c>
+      <c r="T11" s="346" t="s">
+        <v>73</v>
+      </c>
+      <c r="V11" s="367">
+        <v>6</v>
+      </c>
+      <c r="W11" s="344"/>
+      <c r="X11" s="344"/>
+      <c r="Y11" s="369"/>
+      <c r="Z11" s="342"/>
+      <c r="AA11" s="341"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
+      <c r="B12" s="62"/>
+      <c r="F12" s="350">
+        <v>1</v>
+      </c>
+      <c r="G12" s="359">
+        <v>2</v>
+      </c>
+      <c r="H12" s="345" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="346" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="331">
+        <v>5</v>
+      </c>
+      <c r="L12" s="367">
+        <v>1</v>
+      </c>
+      <c r="M12" s="348" t="s">
+        <v>320</v>
+      </c>
+      <c r="N12" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="370">
+        <f>L12/G8</f>
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="343">
+        <v>6</v>
+      </c>
+      <c r="R12" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S12" s="345" t="s">
+        <v>324</v>
+      </c>
+      <c r="T12" s="345" t="s">
+        <v>88</v>
+      </c>
+      <c r="V12" s="367">
+        <v>6</v>
+      </c>
+      <c r="W12" s="344"/>
+      <c r="X12" s="344"/>
+      <c r="Y12" s="344"/>
+      <c r="Z12" s="342"/>
+      <c r="AA12" s="341"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="361"/>
+      <c r="B13" s="337" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="337"/>
+      <c r="E13" s="334"/>
+      <c r="F13" s="350">
+        <v>1</v>
+      </c>
+      <c r="G13" s="355">
+        <v>2</v>
+      </c>
+      <c r="H13" s="348" t="s">
+        <v>318</v>
+      </c>
+      <c r="I13" s="348" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="334"/>
+      <c r="K13" s="331">
+        <v>7</v>
+      </c>
+      <c r="L13" s="347"/>
+      <c r="M13" s="348"/>
+      <c r="N13" s="349"/>
+      <c r="O13" s="370"/>
+      <c r="P13" s="334"/>
+      <c r="Q13" s="343">
+        <v>6</v>
+      </c>
+      <c r="R13" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S13" s="345" t="s">
+        <v>325</v>
+      </c>
+      <c r="T13" s="346" t="s">
+        <v>156</v>
+      </c>
+      <c r="V13" s="367">
+        <v>6</v>
+      </c>
+      <c r="W13" s="344"/>
+      <c r="X13" s="344"/>
+      <c r="Y13" s="369"/>
+      <c r="Z13" s="342"/>
+      <c r="AA13" s="341"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="187">
+        <v>1</v>
+      </c>
+      <c r="B14" s="355">
+        <v>1</v>
+      </c>
+      <c r="C14" s="345" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" s="346" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="350">
+        <v>1</v>
+      </c>
+      <c r="G14" s="359">
+        <v>2</v>
+      </c>
+      <c r="H14" s="348" t="s">
+        <v>329</v>
+      </c>
+      <c r="I14" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="331">
+        <v>9</v>
+      </c>
+      <c r="L14" s="347"/>
+      <c r="M14" s="348"/>
+      <c r="N14" s="349"/>
+      <c r="O14" s="370"/>
+      <c r="Q14" s="343">
+        <v>6</v>
+      </c>
+      <c r="R14" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S14" s="348" t="s">
+        <v>326</v>
+      </c>
+      <c r="T14" s="349" t="s">
+        <v>156</v>
+      </c>
+      <c r="V14" s="367">
+        <v>6</v>
+      </c>
+      <c r="W14" s="344"/>
+      <c r="X14" s="347"/>
+      <c r="Y14" s="368"/>
+      <c r="Z14" s="342"/>
+      <c r="AA14" s="341"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="187">
+        <v>1</v>
+      </c>
+      <c r="B15" s="355">
+        <v>1</v>
+      </c>
+      <c r="C15" s="348" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="350">
+        <v>1</v>
+      </c>
+      <c r="G15" s="359">
+        <v>2</v>
+      </c>
+      <c r="H15" s="345" t="s">
+        <v>316</v>
+      </c>
+      <c r="I15" s="346" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="331">
+        <v>10</v>
+      </c>
+      <c r="L15" s="367"/>
+      <c r="M15" s="348"/>
+      <c r="N15" s="349"/>
+      <c r="O15" s="370"/>
+      <c r="Q15" s="343">
+        <v>6</v>
+      </c>
+      <c r="R15" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S15" s="348" t="s">
+        <v>327</v>
+      </c>
+      <c r="T15" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="V15" s="367">
+        <v>6</v>
+      </c>
+      <c r="W15" s="344"/>
+      <c r="X15" s="347"/>
+      <c r="Y15" s="368"/>
+      <c r="Z15" s="342"/>
+      <c r="AA15" s="341"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="187">
+        <v>3</v>
+      </c>
+      <c r="B16" s="350"/>
+      <c r="C16" s="352"/>
+      <c r="D16" s="353"/>
+      <c r="F16" s="350">
+        <v>1</v>
+      </c>
+      <c r="G16" s="355">
+        <v>2</v>
+      </c>
+      <c r="H16" s="348" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" s="348" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="331">
+        <v>11</v>
+      </c>
+      <c r="L16" s="367"/>
+      <c r="M16" s="348"/>
+      <c r="N16" s="348"/>
+      <c r="O16" s="370"/>
+      <c r="Q16" s="343">
+        <v>6</v>
+      </c>
+      <c r="R16" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S16" s="348" t="s">
+        <v>328</v>
+      </c>
+      <c r="T16" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="V16" s="367">
+        <v>6</v>
+      </c>
+      <c r="W16" s="344"/>
+      <c r="X16" s="347"/>
+      <c r="Y16" s="368"/>
+      <c r="Z16" s="342"/>
+      <c r="AA16" s="341"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="187">
+        <v>4</v>
+      </c>
+      <c r="B17" s="355"/>
+      <c r="C17" s="356"/>
+      <c r="D17" s="356"/>
+      <c r="F17" s="350">
+        <v>1</v>
+      </c>
+      <c r="G17" s="355">
+        <v>2</v>
+      </c>
+      <c r="H17" s="348" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="331">
+        <v>12</v>
+      </c>
+      <c r="L17" s="347"/>
+      <c r="M17" s="348"/>
+      <c r="N17" s="349"/>
+      <c r="O17" s="370"/>
+      <c r="Q17" s="343">
+        <v>6</v>
+      </c>
+      <c r="R17" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S17" s="348" t="s">
+        <v>329</v>
+      </c>
+      <c r="T17" s="349" t="s">
+        <v>73</v>
+      </c>
+      <c r="V17" s="367">
+        <v>6</v>
+      </c>
+      <c r="W17" s="344"/>
+      <c r="X17" s="347"/>
+      <c r="Y17" s="368"/>
+      <c r="Z17" s="342"/>
+      <c r="AA17" s="341"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="187">
+        <v>5</v>
+      </c>
+      <c r="B18" s="355"/>
+      <c r="C18" s="356"/>
+      <c r="D18" s="357"/>
+      <c r="F18" s="350">
+        <v>13</v>
+      </c>
+      <c r="G18" s="359">
+        <v>1</v>
+      </c>
+      <c r="H18" s="348" t="s">
+        <v>333</v>
+      </c>
+      <c r="I18" s="349" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="331">
+        <v>13</v>
+      </c>
+      <c r="L18" s="344"/>
+      <c r="M18" s="345"/>
+      <c r="N18" s="345"/>
+      <c r="O18" s="371"/>
+      <c r="Q18" s="343">
+        <v>6</v>
+      </c>
+      <c r="R18" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S18" s="348" t="s">
+        <v>330</v>
+      </c>
+      <c r="T18" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" s="367">
+        <v>6</v>
+      </c>
+      <c r="W18" s="344"/>
+      <c r="X18" s="347"/>
+      <c r="Y18" s="368"/>
+      <c r="Z18" s="342"/>
+      <c r="AA18" s="341"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="187">
+        <v>6</v>
+      </c>
+      <c r="B19" s="355"/>
+      <c r="C19" s="356"/>
+      <c r="D19" s="357"/>
+      <c r="F19" s="350">
+        <v>13</v>
+      </c>
+      <c r="G19" s="355">
+        <v>1</v>
+      </c>
+      <c r="H19" s="348" t="s">
+        <v>331</v>
+      </c>
+      <c r="I19" s="349" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="331">
+        <v>14</v>
+      </c>
+      <c r="L19" s="344"/>
+      <c r="M19" s="345"/>
+      <c r="N19" s="345"/>
+      <c r="O19" s="371"/>
+      <c r="Q19" s="343">
+        <v>6</v>
+      </c>
+      <c r="R19" s="344" t="s">
+        <v>322</v>
+      </c>
+      <c r="S19" s="348" t="s">
+        <v>331</v>
+      </c>
+      <c r="T19" s="349" t="s">
+        <v>88</v>
+      </c>
+      <c r="V19" s="367">
+        <v>6</v>
+      </c>
+      <c r="W19" s="344"/>
+      <c r="X19" s="347"/>
+      <c r="Y19" s="368"/>
+      <c r="Z19" s="342"/>
+      <c r="AA19" s="341"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="187">
+        <v>7</v>
+      </c>
+      <c r="B20" s="355"/>
+      <c r="C20" s="356"/>
+      <c r="D20" s="357"/>
+      <c r="F20" s="350">
+        <v>13</v>
+      </c>
+      <c r="G20" s="355">
+        <v>1</v>
+      </c>
+      <c r="H20" s="348" t="s">
+        <v>326</v>
+      </c>
+      <c r="I20" s="349" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" s="331">
+        <v>15</v>
+      </c>
+      <c r="L20" s="344"/>
+      <c r="M20" s="345"/>
+      <c r="N20" s="345"/>
+      <c r="O20" s="371"/>
+      <c r="Q20" s="343">
+        <v>15</v>
+      </c>
+      <c r="R20" s="347" t="s">
+        <v>332</v>
+      </c>
+      <c r="S20" s="348" t="s">
+        <v>333</v>
+      </c>
+      <c r="T20" s="349" t="s">
+        <v>156</v>
+      </c>
+      <c r="V20" s="367">
+        <v>15</v>
+      </c>
+      <c r="W20" s="347"/>
+      <c r="X20" s="347"/>
+      <c r="Y20" s="368"/>
+      <c r="Z20" s="342"/>
+      <c r="AA20" s="341"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="187">
+        <v>8</v>
+      </c>
+      <c r="B21" s="355"/>
+      <c r="C21" s="356"/>
+      <c r="D21" s="357"/>
+      <c r="F21" s="350">
+        <v>13</v>
+      </c>
+      <c r="G21" s="355">
+        <v>1</v>
+      </c>
+      <c r="H21" s="345" t="s">
+        <v>321</v>
+      </c>
+      <c r="I21" s="345" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="331">
+        <v>16</v>
+      </c>
+      <c r="L21" s="347"/>
+      <c r="M21" s="348"/>
+      <c r="N21" s="348"/>
+      <c r="O21" s="370"/>
+      <c r="Q21" s="343">
+        <v>15</v>
+      </c>
+      <c r="R21" s="347" t="s">
+        <v>332</v>
+      </c>
+      <c r="S21" s="348" t="s">
+        <v>334</v>
+      </c>
+      <c r="T21" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="367">
+        <v>15</v>
+      </c>
+      <c r="W21" s="347"/>
+      <c r="X21" s="347"/>
+      <c r="Y21" s="368"/>
+      <c r="Z21" s="342"/>
+      <c r="AA21" s="341"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="187">
+        <v>9</v>
+      </c>
+      <c r="B22" s="350"/>
+      <c r="C22" s="352"/>
+      <c r="D22" s="353"/>
+      <c r="F22" s="350"/>
+      <c r="G22" s="355"/>
+      <c r="H22" s="356"/>
+      <c r="I22" s="357"/>
+      <c r="K22" s="331">
+        <v>17</v>
+      </c>
+      <c r="L22" s="347"/>
+      <c r="M22" s="348"/>
+      <c r="N22" s="348"/>
+      <c r="O22" s="370"/>
+      <c r="Q22" s="343">
+        <v>17</v>
+      </c>
+      <c r="R22" s="347" t="s">
+        <v>335</v>
+      </c>
+      <c r="S22" s="348" t="s">
+        <v>336</v>
+      </c>
+      <c r="T22" s="349" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="367">
+        <v>17</v>
+      </c>
+      <c r="W22" s="347"/>
+      <c r="X22" s="347"/>
+      <c r="Y22" s="368"/>
+      <c r="Z22" s="342"/>
+      <c r="AA22" s="341"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="187">
+        <v>10</v>
+      </c>
+      <c r="B23" s="355"/>
+      <c r="C23" s="356"/>
+      <c r="D23" s="357"/>
+      <c r="F23" s="350"/>
+      <c r="G23" s="355"/>
+      <c r="H23" s="352"/>
+      <c r="I23" s="352"/>
+      <c r="K23" s="331">
+        <v>18</v>
+      </c>
+      <c r="L23" s="344"/>
+      <c r="M23" s="345"/>
+      <c r="N23" s="346"/>
+      <c r="O23" s="371"/>
+      <c r="Q23" s="336"/>
+      <c r="R23" s="336"/>
+      <c r="S23" s="336"/>
+      <c r="T23" s="336"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="187">
+        <v>10</v>
+      </c>
+      <c r="B24" s="355"/>
+      <c r="C24" s="356"/>
+      <c r="D24" s="356"/>
+      <c r="F24" s="350"/>
+      <c r="G24" s="355"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="356"/>
+      <c r="K24" s="331">
+        <v>19</v>
+      </c>
+      <c r="L24" s="344"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="346"/>
+      <c r="O24" s="371"/>
+      <c r="Q24" s="336"/>
+      <c r="R24" s="336"/>
+      <c r="S24" s="336"/>
+      <c r="T24" s="336"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="355"/>
+      <c r="C25" s="356"/>
+      <c r="D25" s="357"/>
+      <c r="F25" s="350"/>
+      <c r="G25" s="355"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="357"/>
+      <c r="K25" s="331">
+        <v>20</v>
+      </c>
+      <c r="L25" s="344"/>
+      <c r="M25" s="345"/>
+      <c r="N25" s="346"/>
+      <c r="O25" s="371"/>
+      <c r="Q25" s="336"/>
+      <c r="R25" s="336"/>
+      <c r="S25" s="336"/>
+      <c r="T25" s="336"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="338">
+        <f>SUM(B14:B25)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="350"/>
+      <c r="G26" s="350"/>
+      <c r="H26" s="352"/>
+      <c r="I26" s="352"/>
+      <c r="K26" s="331">
+        <v>21</v>
+      </c>
+      <c r="L26" s="367"/>
+      <c r="M26" s="348"/>
+      <c r="N26" s="349"/>
+      <c r="O26" s="370"/>
+      <c r="Q26" s="336"/>
+      <c r="R26" s="336"/>
+      <c r="S26" s="336"/>
+      <c r="T26" s="336"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="F27" s="350"/>
+      <c r="G27" s="355"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="357"/>
+      <c r="K27" s="331">
+        <v>22</v>
+      </c>
+      <c r="L27" s="344"/>
+      <c r="M27" s="345"/>
+      <c r="N27" s="346"/>
+      <c r="O27" s="371"/>
+      <c r="Q27" s="336"/>
+      <c r="R27" s="336"/>
+      <c r="S27" s="336"/>
+      <c r="T27" s="336"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B28" s="62"/>
+      <c r="K28" s="331">
+        <v>22</v>
+      </c>
+      <c r="L28" s="344"/>
+      <c r="M28" s="345"/>
+      <c r="N28" s="346"/>
+      <c r="O28" s="371"/>
+      <c r="Q28" s="336"/>
+      <c r="R28" s="336"/>
+      <c r="S28" s="336"/>
+      <c r="T28" s="336"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="62"/>
+      <c r="K29" s="331">
+        <v>24</v>
+      </c>
+      <c r="L29" s="344"/>
+      <c r="M29" s="345"/>
+      <c r="N29" s="345"/>
+      <c r="O29" s="371"/>
+      <c r="Q29" s="336"/>
+      <c r="R29" s="336"/>
+      <c r="S29" s="336"/>
+      <c r="T29" s="336"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B30" s="62"/>
+      <c r="K30" s="331">
+        <v>24</v>
+      </c>
+      <c r="L30" s="344"/>
+      <c r="M30" s="345"/>
+      <c r="N30" s="345"/>
+      <c r="O30" s="371"/>
+      <c r="Q30" s="336"/>
+      <c r="R30" s="336"/>
+      <c r="S30" s="336"/>
+      <c r="T30" s="336"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B31" s="62"/>
+      <c r="K31" s="331">
+        <v>26</v>
+      </c>
+      <c r="L31" s="344"/>
+      <c r="M31" s="345"/>
+      <c r="N31" s="345"/>
+      <c r="O31" s="371"/>
+      <c r="Q31" s="336"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="L32" s="339">
+        <f>SUM(L6:L31)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,13 +5581,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43654</v>
-      </c>
-      <c r="E1" s="322">
+        <v>43655</v>
+      </c>
+      <c r="E1" s="379">
         <v>43637</v>
       </c>
-      <c r="F1" s="322"/>
-      <c r="G1" s="322"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -4417,7 +5883,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.571428571428573</v>
+        <v>17.5625</v>
       </c>
       <c r="D4" s="205" t="s">
         <v>54</v>
@@ -4427,7 +5893,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -4599,7 +6065,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.7589285714285712</v>
+        <v>8.75</v>
       </c>
       <c r="D5" s="306" t="s">
         <v>62</v>
@@ -4609,7 +6075,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -4783,7 +6249,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.651785714285714</v>
+        <v>14.642857142857142</v>
       </c>
       <c r="D6" s="306" t="s">
         <v>59</v>
@@ -4793,7 +6259,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -4967,7 +6433,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8571428571428572</v>
+        <v>3.8482142857142856</v>
       </c>
       <c r="D7" s="204" t="s">
         <v>65</v>
@@ -4977,7 +6443,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="30">
@@ -5147,7 +6613,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3125</v>
+        <v>9.3035714285714288</v>
       </c>
       <c r="D8" s="194" t="s">
         <v>67</v>
@@ -5157,7 +6623,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -5327,7 +6793,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2857142857142856</v>
+        <v>7.2767857142857144</v>
       </c>
       <c r="D9" s="251" t="s">
         <v>69</v>
@@ -5337,7 +6803,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="37">
@@ -5507,7 +6973,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0357142857142856</v>
+        <v>5.0267857142857144</v>
       </c>
       <c r="D10" s="251" t="s">
         <v>71</v>
@@ -5517,7 +6983,7 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -5687,7 +7153,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.723214285714286</v>
+        <v>10.714285714285714</v>
       </c>
       <c r="D11" s="194" t="s">
         <v>74</v>
@@ -5697,7 +7163,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>75</v>
@@ -5869,7 +7335,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.0625</v>
+        <v>14.053571428571429</v>
       </c>
       <c r="D12" s="204" t="s">
         <v>77</v>
@@ -5879,7 +7345,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="37">
@@ -6049,7 +7515,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.375</v>
+        <v>16.366071428571427</v>
       </c>
       <c r="D13" s="204" t="s">
         <v>79</v>
@@ -6059,7 +7525,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -6229,7 +7695,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.821428571428571</v>
+        <v>12.8125</v>
       </c>
       <c r="D14" s="204" t="s">
         <v>81</v>
@@ -6239,7 +7705,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -6409,7 +7875,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.839285714285714</v>
+        <v>11.830357142857142</v>
       </c>
       <c r="D15" s="204" t="s">
         <v>83</v>
@@ -6419,7 +7885,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -6589,7 +8055,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8035714285714288</v>
+        <v>8.7946428571428577</v>
       </c>
       <c r="D16" s="204" t="s">
         <v>85</v>
@@ -6599,7 +8065,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>86</v>
@@ -6771,7 +8237,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.053571428571429</v>
+        <v>15.044642857142858</v>
       </c>
       <c r="D17" s="204" t="s">
         <v>89</v>
@@ -6781,7 +8247,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="37">
@@ -6951,7 +8417,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.214285714285714</v>
+        <v>13.205357142857142</v>
       </c>
       <c r="D18" s="204" t="s">
         <v>91</v>
@@ -6961,7 +8427,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -7131,7 +8597,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.803571428571427</v>
+        <v>17.794642857142858</v>
       </c>
       <c r="D19" s="204" t="s">
         <v>94</v>
@@ -7141,7 +8607,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -7311,7 +8777,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8482142857142856</v>
+        <v>2.8392857142857144</v>
       </c>
       <c r="D20" s="204" t="s">
         <v>96</v>
@@ -7321,7 +8787,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -7491,7 +8957,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9017857142857135</v>
+        <v>9.8928571428571423</v>
       </c>
       <c r="D21" s="204" t="s">
         <v>98</v>
@@ -7501,7 +8967,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -7924,22 +9390,22 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J21">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="23" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q21">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="lessThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>70</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8084,7 +9550,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AF21">
-    <cfRule type="cellIs" dxfId="16" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="93" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -8274,7 +9740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -8285,7 +9751,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8295,7 +9761,7 @@
     <col min="3" max="3" width="4.7109375" customWidth="1"/>
     <col min="4" max="5" width="4.5703125" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="62" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
@@ -8316,19 +9782,19 @@
     <col min="31" max="33" width="4" style="62" customWidth="1"/>
     <col min="34" max="34" width="4.7109375" style="62" customWidth="1"/>
     <col min="35" max="35" width="5.140625" style="62" customWidth="1"/>
-    <col min="36" max="36" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="22.7109375" style="318" bestFit="1" customWidth="1"/>
     <col min="38" max="1021" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="323" t="s">
+      <c r="A1" s="380" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
+      <c r="B1" s="380"/>
+      <c r="C1" s="380"/>
+      <c r="D1" s="380"/>
+      <c r="E1" s="380"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -8518,162 +9984,162 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
-        <v>173</v>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="135" t="s">
+        <v>282</v>
       </c>
       <c r="B4" s="127">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="128">
-        <f ca="1">3+$A$30-$A$32</f>
-        <v>20</v>
-      </c>
-      <c r="D4" s="129"/>
+        <f ca="1">6+$A$30-$A$32</f>
+        <v>24</v>
+      </c>
+      <c r="D4" s="132"/>
       <c r="E4" s="195">
         <f ca="1">F4-TODAY()</f>
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="F4" s="203">
-        <v>43858</v>
+        <v>43757</v>
       </c>
       <c r="G4" s="196"/>
-      <c r="H4" s="350"/>
-      <c r="I4" s="350"/>
-      <c r="J4" s="351">
-        <v>1</v>
-      </c>
-      <c r="K4" s="350"/>
-      <c r="L4" s="350"/>
-      <c r="M4" s="350"/>
-      <c r="N4" s="350"/>
-      <c r="O4" s="351">
-        <v>3.99</v>
-      </c>
-      <c r="P4" s="350"/>
-      <c r="Q4" s="352">
-        <v>5.99</v>
-      </c>
-      <c r="R4" s="350"/>
-      <c r="S4" s="350"/>
-      <c r="T4" s="350"/>
-      <c r="U4" s="350"/>
-      <c r="V4" s="197" t="s">
-        <v>174</v>
-      </c>
-      <c r="W4" s="200"/>
+      <c r="H4" s="325"/>
+      <c r="I4" s="325"/>
+      <c r="J4" s="325"/>
+      <c r="K4" s="326">
+        <v>6.99</v>
+      </c>
+      <c r="L4" s="327">
+        <v>4</v>
+      </c>
+      <c r="M4" s="327">
+        <v>4.99</v>
+      </c>
+      <c r="N4" s="325"/>
+      <c r="O4" s="325"/>
+      <c r="P4" s="325"/>
+      <c r="Q4" s="325"/>
+      <c r="R4" s="325"/>
+      <c r="S4" s="325"/>
+      <c r="T4" s="325"/>
+      <c r="U4" s="325"/>
+      <c r="V4" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="W4" s="201"/>
       <c r="X4" s="200">
-        <f>COUNT(I4,K4,M4,O4,Q4,S4,U4)</f>
+        <f t="shared" ref="X4" si="0">COUNT(I4,K4,M4,O4,Q4,S4,U4)</f>
         <v>2</v>
       </c>
       <c r="Y4" s="130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="200">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="357"/>
-      <c r="AB4" s="357">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="358"/>
-      <c r="AD4" s="358"/>
-      <c r="AE4" s="358"/>
-      <c r="AF4" s="358"/>
-      <c r="AG4" s="358">
-        <v>2.5</v>
-      </c>
-      <c r="AH4" s="358">
-        <v>3</v>
-      </c>
-      <c r="AI4" s="358"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="329"/>
+      <c r="AB4" s="329">
+        <v>4.5</v>
+      </c>
+      <c r="AC4" s="330"/>
+      <c r="AD4" s="330"/>
+      <c r="AE4" s="330"/>
+      <c r="AF4" s="330"/>
+      <c r="AG4" s="330">
+        <v>5.5</v>
+      </c>
+      <c r="AH4" s="330"/>
+      <c r="AI4" s="330"/>
       <c r="AJ4" s="202" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK4" s="312" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+      <c r="AK4" s="313"/>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="305" t="s">
+        <v>173</v>
       </c>
       <c r="B5" s="127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="128">
-        <f ca="1">6+$A$30-$A$32</f>
-        <v>23</v>
-      </c>
-      <c r="D5" s="132"/>
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>21</v>
+      </c>
+      <c r="D5" s="129"/>
       <c r="E5" s="195">
         <f ca="1">F5-TODAY()</f>
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="F5" s="203">
-        <v>43757</v>
+        <v>43858</v>
       </c>
       <c r="G5" s="196"/>
-      <c r="H5" s="353"/>
-      <c r="I5" s="353"/>
-      <c r="J5" s="353"/>
-      <c r="K5" s="354">
-        <v>6.99</v>
-      </c>
-      <c r="L5" s="355">
-        <v>4</v>
-      </c>
-      <c r="M5" s="355">
-        <v>4.99</v>
-      </c>
-      <c r="N5" s="353"/>
-      <c r="O5" s="353"/>
-      <c r="P5" s="353"/>
-      <c r="Q5" s="353"/>
-      <c r="R5" s="353"/>
-      <c r="S5" s="353"/>
-      <c r="T5" s="353"/>
-      <c r="U5" s="353"/>
-      <c r="V5" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="W5" s="201"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="323">
+        <v>1</v>
+      </c>
+      <c r="K5" s="322"/>
+      <c r="L5" s="322"/>
+      <c r="M5" s="322"/>
+      <c r="N5" s="322"/>
+      <c r="O5" s="323">
+        <v>3.99</v>
+      </c>
+      <c r="P5" s="322"/>
+      <c r="Q5" s="324">
+        <v>5.99</v>
+      </c>
+      <c r="R5" s="322"/>
+      <c r="S5" s="322"/>
+      <c r="T5" s="322"/>
+      <c r="U5" s="322"/>
+      <c r="V5" s="197" t="s">
+        <v>174</v>
+      </c>
+      <c r="W5" s="200"/>
       <c r="X5" s="200">
-        <f t="shared" ref="X5" si="0">COUNT(I5,K5,M5,O5,Q5,S5,U5)</f>
+        <f>COUNT(I5,K5,M5,O5,Q5,S5,U5)</f>
         <v>2</v>
       </c>
       <c r="Y5" s="130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="357"/>
-      <c r="AB5" s="357">
-        <v>4.5</v>
-      </c>
-      <c r="AC5" s="358"/>
-      <c r="AD5" s="358"/>
-      <c r="AE5" s="358"/>
-      <c r="AF5" s="358"/>
-      <c r="AG5" s="358">
-        <v>5.5</v>
-      </c>
-      <c r="AH5" s="358"/>
-      <c r="AI5" s="358"/>
+        <v>2</v>
+      </c>
+      <c r="AA5" s="329"/>
+      <c r="AB5" s="329">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="330"/>
+      <c r="AD5" s="330"/>
+      <c r="AE5" s="330"/>
+      <c r="AF5" s="330"/>
+      <c r="AG5" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AH5" s="330">
+        <v>3</v>
+      </c>
+      <c r="AI5" s="330"/>
       <c r="AJ5" s="202" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK5" s="313"/>
+        <v>245</v>
+      </c>
+      <c r="AK5" s="312" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="324" t="s">
+      <c r="A6" s="381" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="324"/>
-      <c r="C6" s="324"/>
-      <c r="D6" s="324"/>
-      <c r="E6" s="324"/>
+      <c r="B6" s="381"/>
+      <c r="C6" s="381"/>
+      <c r="D6" s="381"/>
+      <c r="E6" s="381"/>
       <c r="F6" s="116"/>
       <c r="G6" s="115"/>
       <c r="H6" s="116"/>
@@ -8871,118 +10337,116 @@
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="305" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="133">
-        <v>15</v>
+      <c r="A9" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="127">
+        <v>16</v>
       </c>
       <c r="C9" s="128">
-        <f ca="1">11+$A$30-$A$32</f>
-        <v>28</v>
+        <f ca="1">67+$A$30-$A$32</f>
+        <v>85</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="195">
-        <f ca="1">F9-TODAY()</f>
-        <v>196</v>
+        <f t="shared" ref="E9:E13" ca="1" si="1">F9-TODAY()</f>
+        <v>94</v>
       </c>
       <c r="F9" s="203">
-        <v>43850</v>
+        <v>43749</v>
       </c>
       <c r="G9" s="196"/>
-      <c r="H9" s="353"/>
-      <c r="I9" s="353"/>
-      <c r="J9" s="353"/>
-      <c r="K9" s="353"/>
-      <c r="L9" s="353"/>
-      <c r="M9" s="353"/>
-      <c r="N9" s="353"/>
-      <c r="O9" s="353"/>
-      <c r="P9" s="353"/>
-      <c r="Q9" s="353"/>
-      <c r="R9" s="353"/>
-      <c r="S9" s="353"/>
-      <c r="T9" s="353"/>
-      <c r="U9" s="353"/>
-      <c r="V9" s="197" t="s">
-        <v>176</v>
+      <c r="H9" s="325"/>
+      <c r="I9" s="325"/>
+      <c r="J9" s="325"/>
+      <c r="K9" s="325"/>
+      <c r="L9" s="325"/>
+      <c r="M9" s="323">
+        <v>2.99</v>
+      </c>
+      <c r="N9" s="325"/>
+      <c r="O9" s="325"/>
+      <c r="P9" s="325"/>
+      <c r="Q9" s="325"/>
+      <c r="R9" s="325"/>
+      <c r="S9" s="325"/>
+      <c r="T9" s="325"/>
+      <c r="U9" s="325"/>
+      <c r="V9" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W9" s="200"/>
       <c r="X9" s="200">
-        <f>COUNT(I9,K9,M9,O9,Q9,S9,U9)</f>
-        <v>0</v>
+        <f t="shared" ref="X9:X13" si="2">COUNT(I9,K9,M9,O9,Q9,S9,U9)</f>
+        <v>1</v>
       </c>
       <c r="Y9" s="130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="200">
         <v>0</v>
       </c>
-      <c r="AA9" s="357"/>
-      <c r="AB9" s="357"/>
-      <c r="AC9" s="358"/>
-      <c r="AD9" s="358">
+      <c r="AA9" s="329"/>
+      <c r="AB9" s="329"/>
+      <c r="AC9" s="330"/>
+      <c r="AD9" s="330"/>
+      <c r="AE9" s="330"/>
+      <c r="AF9" s="330"/>
+      <c r="AG9" s="330">
+        <v>4.5</v>
+      </c>
+      <c r="AH9" s="330">
         <v>3</v>
       </c>
-      <c r="AE9" s="358"/>
-      <c r="AF9" s="358"/>
-      <c r="AG9" s="358"/>
-      <c r="AH9" s="358">
-        <v>3</v>
-      </c>
-      <c r="AI9" s="358">
-        <v>2</v>
-      </c>
+      <c r="AI9" s="330"/>
       <c r="AJ9" s="202" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AK9" s="312" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10" s="127">
         <v>16</v>
       </c>
       <c r="C10" s="128">
-        <f ca="1">67+$A$30-$A$32</f>
-        <v>84</v>
+        <f ca="1">40+$A$30-$A$32</f>
+        <v>58</v>
       </c>
       <c r="D10" s="129"/>
       <c r="E10" s="195">
-        <f ca="1">F10-TODAY()</f>
-        <v>95</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>94</v>
       </c>
       <c r="F10" s="203">
         <v>43749</v>
       </c>
       <c r="G10" s="196"/>
-      <c r="H10" s="353"/>
-      <c r="I10" s="353"/>
-      <c r="J10" s="353"/>
-      <c r="K10" s="353"/>
-      <c r="L10" s="353"/>
-      <c r="M10" s="351">
-        <v>2.99</v>
-      </c>
-      <c r="N10" s="353"/>
-      <c r="O10" s="353"/>
-      <c r="P10" s="353"/>
-      <c r="Q10" s="353"/>
-      <c r="R10" s="353"/>
-      <c r="S10" s="353"/>
-      <c r="T10" s="353"/>
-      <c r="U10" s="353"/>
+      <c r="H10" s="325"/>
+      <c r="I10" s="325"/>
+      <c r="J10" s="325"/>
+      <c r="K10" s="325"/>
+      <c r="L10" s="325"/>
+      <c r="M10" s="325"/>
+      <c r="N10" s="325"/>
+      <c r="O10" s="325"/>
+      <c r="P10" s="325"/>
+      <c r="Q10" s="325"/>
+      <c r="R10" s="325"/>
+      <c r="S10" s="325"/>
+      <c r="T10" s="325"/>
+      <c r="U10" s="325"/>
       <c r="V10" s="198" t="s">
         <v>180</v>
       </c>
       <c r="W10" s="200"/>
       <c r="X10" s="200">
-        <f>COUNT(I10,K10,M10,O10,Q10,S10,U10)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y10" s="130">
         <v>0</v>
@@ -8990,66 +10454,70 @@
       <c r="Z10" s="200">
         <v>0</v>
       </c>
-      <c r="AA10" s="357"/>
-      <c r="AB10" s="357"/>
-      <c r="AC10" s="358"/>
-      <c r="AD10" s="358"/>
-      <c r="AE10" s="358"/>
-      <c r="AF10" s="358"/>
-      <c r="AG10" s="358">
+      <c r="AA10" s="329">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="329"/>
+      <c r="AC10" s="330">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="330">
         <v>4.5</v>
       </c>
-      <c r="AH10" s="358">
-        <v>3</v>
-      </c>
-      <c r="AI10" s="358"/>
+      <c r="AE10" s="330"/>
+      <c r="AF10" s="330"/>
+      <c r="AG10" s="330"/>
+      <c r="AH10" s="330"/>
+      <c r="AI10" s="330"/>
       <c r="AJ10" s="202" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK10" s="312" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="136" t="s">
-        <v>193</v>
+      <c r="A11" s="304" t="s">
+        <v>188</v>
       </c>
       <c r="B11" s="127">
         <v>16</v>
       </c>
       <c r="C11" s="128">
-        <f ca="1">40+$A$30-$A$32</f>
-        <v>57</v>
-      </c>
-      <c r="D11" s="129"/>
+        <f ca="1">-1+$A$30-$A$32</f>
+        <v>17</v>
+      </c>
+      <c r="D11" s="132"/>
       <c r="E11" s="195">
-        <f ca="1">F11-TODAY()</f>
+        <f t="shared" ca="1" si="1"/>
         <v>95</v>
       </c>
       <c r="F11" s="203">
-        <v>43749</v>
+        <v>43750</v>
       </c>
       <c r="G11" s="196"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="353"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="353"/>
-      <c r="L11" s="353"/>
-      <c r="M11" s="353"/>
-      <c r="N11" s="353"/>
-      <c r="O11" s="353"/>
-      <c r="P11" s="353"/>
-      <c r="Q11" s="353"/>
-      <c r="R11" s="353"/>
-      <c r="S11" s="353"/>
-      <c r="T11" s="353"/>
-      <c r="U11" s="353"/>
-      <c r="V11" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="W11" s="200"/>
+      <c r="H11" s="325"/>
+      <c r="I11" s="325"/>
+      <c r="J11" s="323">
+        <v>3</v>
+      </c>
+      <c r="K11" s="325"/>
+      <c r="L11" s="325"/>
+      <c r="M11" s="325"/>
+      <c r="N11" s="325"/>
+      <c r="O11" s="325"/>
+      <c r="P11" s="325"/>
+      <c r="Q11" s="325"/>
+      <c r="R11" s="325"/>
+      <c r="S11" s="325"/>
+      <c r="T11" s="325"/>
+      <c r="U11" s="325"/>
+      <c r="V11" s="199" t="s">
+        <v>189</v>
+      </c>
+      <c r="W11" s="201"/>
       <c r="X11" s="200">
-        <f>COUNT(I11,K11,M11,O11,Q11,S11,U11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="130">
@@ -9058,26 +10526,28 @@
       <c r="Z11" s="200">
         <v>0</v>
       </c>
-      <c r="AA11" s="357">
-        <v>2</v>
-      </c>
-      <c r="AB11" s="357"/>
-      <c r="AC11" s="358">
+      <c r="AA11" s="329">
+        <v>0.5</v>
+      </c>
+      <c r="AB11" s="329"/>
+      <c r="AC11" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AD11" s="330"/>
+      <c r="AE11" s="330"/>
+      <c r="AF11" s="330"/>
+      <c r="AG11" s="330"/>
+      <c r="AH11" s="330">
+        <v>3.5</v>
+      </c>
+      <c r="AI11" s="330">
         <v>3</v>
       </c>
-      <c r="AD11" s="358">
-        <v>4.5</v>
-      </c>
-      <c r="AE11" s="358"/>
-      <c r="AF11" s="358"/>
-      <c r="AG11" s="358"/>
-      <c r="AH11" s="358"/>
-      <c r="AI11" s="358"/>
       <c r="AJ11" s="202" t="s">
-        <v>244</v>
-      </c>
-      <c r="AK11" s="312" t="s">
-        <v>294</v>
+        <v>245</v>
+      </c>
+      <c r="AK11" s="313" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
@@ -9089,41 +10559,41 @@
       </c>
       <c r="C12" s="128">
         <f ca="1">67+$A$30-$A$32+14</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" s="129"/>
       <c r="E12" s="195">
-        <f ca="1">F12-TODAY()</f>
-        <v>126</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>125</v>
       </c>
       <c r="F12" s="203">
         <v>43780</v>
       </c>
       <c r="G12" s="196"/>
-      <c r="H12" s="353"/>
-      <c r="I12" s="353"/>
-      <c r="J12" s="353"/>
-      <c r="K12" s="353"/>
-      <c r="L12" s="351">
+      <c r="H12" s="325"/>
+      <c r="I12" s="325"/>
+      <c r="J12" s="325"/>
+      <c r="K12" s="325"/>
+      <c r="L12" s="323">
         <v>3</v>
       </c>
-      <c r="M12" s="353"/>
-      <c r="N12" s="353"/>
-      <c r="O12" s="351">
+      <c r="M12" s="325"/>
+      <c r="N12" s="325"/>
+      <c r="O12" s="323">
         <v>3.99</v>
       </c>
-      <c r="P12" s="353"/>
-      <c r="Q12" s="353"/>
-      <c r="R12" s="353"/>
-      <c r="S12" s="353"/>
-      <c r="T12" s="353"/>
-      <c r="U12" s="353"/>
+      <c r="P12" s="325"/>
+      <c r="Q12" s="325"/>
+      <c r="R12" s="325"/>
+      <c r="S12" s="325"/>
+      <c r="T12" s="325"/>
+      <c r="U12" s="325"/>
       <c r="V12" s="199" t="s">
         <v>185</v>
       </c>
       <c r="W12" s="200"/>
       <c r="X12" s="200">
-        <f>COUNT(I12,K12,M12,O12,Q12,S12,U12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y12" s="130">
@@ -9132,17 +10602,17 @@
       <c r="Z12" s="200">
         <v>0</v>
       </c>
-      <c r="AA12" s="357"/>
-      <c r="AB12" s="357"/>
-      <c r="AC12" s="358"/>
-      <c r="AD12" s="358"/>
-      <c r="AE12" s="358"/>
-      <c r="AF12" s="358"/>
-      <c r="AG12" s="358">
+      <c r="AA12" s="329"/>
+      <c r="AB12" s="329"/>
+      <c r="AC12" s="330"/>
+      <c r="AD12" s="330"/>
+      <c r="AE12" s="330"/>
+      <c r="AF12" s="330"/>
+      <c r="AG12" s="330">
         <v>3.5</v>
       </c>
-      <c r="AH12" s="358"/>
-      <c r="AI12" s="358"/>
+      <c r="AH12" s="330"/>
+      <c r="AI12" s="330"/>
       <c r="AJ12" s="202" t="s">
         <v>243</v>
       </c>
@@ -9157,37 +10627,37 @@
       </c>
       <c r="C13" s="128">
         <f ca="1">51+$A$30-$A$32</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="129"/>
       <c r="E13" s="195">
-        <f ca="1">F13-TODAY()</f>
-        <v>156</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>155</v>
       </c>
       <c r="F13" s="203">
         <v>43810</v>
       </c>
       <c r="G13" s="196"/>
-      <c r="H13" s="353"/>
-      <c r="I13" s="353"/>
-      <c r="J13" s="353"/>
-      <c r="K13" s="353"/>
-      <c r="L13" s="353"/>
-      <c r="M13" s="353"/>
-      <c r="N13" s="353"/>
-      <c r="O13" s="353"/>
-      <c r="P13" s="353"/>
-      <c r="Q13" s="353"/>
-      <c r="R13" s="353"/>
-      <c r="S13" s="353"/>
-      <c r="T13" s="353"/>
-      <c r="U13" s="353"/>
+      <c r="H13" s="325"/>
+      <c r="I13" s="325"/>
+      <c r="J13" s="325"/>
+      <c r="K13" s="325"/>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
+      <c r="N13" s="325"/>
+      <c r="O13" s="325"/>
+      <c r="P13" s="325"/>
+      <c r="Q13" s="325"/>
+      <c r="R13" s="325"/>
+      <c r="S13" s="325"/>
+      <c r="T13" s="325"/>
+      <c r="U13" s="325"/>
       <c r="V13" s="198" t="s">
         <v>180</v>
       </c>
       <c r="W13" s="200"/>
       <c r="X13" s="200">
-        <f>COUNT(I13,K13,M13,O13,Q13,S13,U13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y13" s="130">
@@ -9196,21 +10666,21 @@
       <c r="Z13" s="200">
         <v>0</v>
       </c>
-      <c r="AA13" s="357">
+      <c r="AA13" s="329">
         <v>1</v>
       </c>
-      <c r="AB13" s="357"/>
-      <c r="AC13" s="358"/>
-      <c r="AD13" s="358"/>
-      <c r="AE13" s="358"/>
-      <c r="AF13" s="358">
+      <c r="AB13" s="329"/>
+      <c r="AC13" s="330"/>
+      <c r="AD13" s="330"/>
+      <c r="AE13" s="330"/>
+      <c r="AF13" s="330">
         <v>2.5</v>
       </c>
-      <c r="AG13" s="358">
+      <c r="AG13" s="330">
         <v>4</v>
       </c>
-      <c r="AH13" s="358"/>
-      <c r="AI13" s="358"/>
+      <c r="AH13" s="330"/>
+      <c r="AI13" s="330"/>
       <c r="AJ13" s="202" t="s">
         <v>243</v>
       </c>
@@ -9219,13 +10689,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="325" t="s">
+      <c r="A14" s="382" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="325"/>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
+      <c r="B14" s="382"/>
+      <c r="C14" s="382"/>
+      <c r="D14" s="382"/>
+      <c r="E14" s="382"/>
       <c r="F14" s="123"/>
       <c r="G14" s="122"/>
       <c r="H14" s="123"/>
@@ -9424,121 +10894,121 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="305" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B17" s="133">
         <v>15</v>
       </c>
       <c r="C17" s="128">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>31</v>
-      </c>
-      <c r="D17" s="129" t="s">
-        <v>289</v>
-      </c>
+        <f ca="1">11+$A$30-$A$32</f>
+        <v>29</v>
+      </c>
+      <c r="D17" s="129"/>
       <c r="E17" s="195">
-        <f t="shared" ref="E17:E27" ca="1" si="1">F17-TODAY()</f>
-        <v>193</v>
+        <f ca="1">F17-TODAY()</f>
+        <v>195</v>
       </c>
       <c r="F17" s="203">
-        <v>43847</v>
+        <v>43850</v>
       </c>
       <c r="G17" s="196"/>
-      <c r="H17" s="353"/>
-      <c r="I17" s="353"/>
-      <c r="J17" s="353"/>
-      <c r="K17" s="353"/>
-      <c r="L17" s="353"/>
-      <c r="M17" s="351">
-        <v>2.99</v>
-      </c>
-      <c r="N17" s="353"/>
-      <c r="O17" s="351">
-        <v>1.99</v>
-      </c>
-      <c r="P17" s="353"/>
-      <c r="Q17" s="353"/>
-      <c r="R17" s="353"/>
-      <c r="S17" s="353"/>
-      <c r="T17" s="353"/>
-      <c r="U17" s="353"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="325"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="325"/>
+      <c r="M17" s="325"/>
+      <c r="N17" s="325"/>
+      <c r="O17" s="325"/>
+      <c r="P17" s="325"/>
+      <c r="Q17" s="325"/>
+      <c r="R17" s="325"/>
+      <c r="S17" s="325"/>
+      <c r="T17" s="325"/>
+      <c r="U17" s="325"/>
       <c r="V17" s="197" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W17" s="200"/>
       <c r="X17" s="200">
-        <f>COUNT(I17,K17,M17,O17,M26,S17,U17)</f>
+        <f>COUNT(I17,K17,M17,O17,Q17,S17,U17)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="130">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="329"/>
+      <c r="AB17" s="329"/>
+      <c r="AC17" s="330"/>
+      <c r="AD17" s="330">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="330"/>
+      <c r="AF17" s="330"/>
+      <c r="AG17" s="330"/>
+      <c r="AH17" s="330">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="330">
         <v>2</v>
       </c>
-      <c r="Y17" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="357"/>
-      <c r="AB17" s="357"/>
-      <c r="AC17" s="358"/>
-      <c r="AD17" s="358">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="358"/>
-      <c r="AF17" s="358">
-        <v>2.5</v>
-      </c>
-      <c r="AG17" s="358"/>
-      <c r="AH17" s="358">
-        <v>2.5</v>
-      </c>
-      <c r="AI17" s="358"/>
       <c r="AJ17" s="202" t="s">
         <v>245</v>
       </c>
       <c r="AK17" s="312" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="305" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="127">
+        <v>177</v>
+      </c>
+      <c r="B18" s="133">
         <v>15</v>
       </c>
       <c r="C18" s="128">
-        <f ca="1">33+$A$30-$A$32</f>
-        <v>50</v>
-      </c>
-      <c r="D18" s="134"/>
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>32</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>289</v>
+      </c>
       <c r="E18" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>174</v>
+        <f t="shared" ref="E18:E27" ca="1" si="3">F18-TODAY()</f>
+        <v>192</v>
       </c>
       <c r="F18" s="203">
-        <v>43828</v>
+        <v>43847</v>
       </c>
       <c r="G18" s="196"/>
-      <c r="H18" s="353"/>
-      <c r="I18" s="353"/>
-      <c r="J18" s="353"/>
-      <c r="K18" s="353"/>
-      <c r="L18" s="353"/>
-      <c r="M18" s="353"/>
-      <c r="N18" s="353"/>
-      <c r="O18" s="353"/>
-      <c r="P18" s="353"/>
-      <c r="Q18" s="353"/>
-      <c r="R18" s="353"/>
-      <c r="S18" s="353"/>
-      <c r="T18" s="353"/>
-      <c r="U18" s="353"/>
-      <c r="V18" s="198" t="s">
-        <v>180</v>
+      <c r="H18" s="325"/>
+      <c r="I18" s="325"/>
+      <c r="J18" s="325"/>
+      <c r="K18" s="325"/>
+      <c r="L18" s="325"/>
+      <c r="M18" s="323">
+        <v>2.99</v>
+      </c>
+      <c r="N18" s="325"/>
+      <c r="O18" s="323">
+        <v>1.99</v>
+      </c>
+      <c r="P18" s="325"/>
+      <c r="Q18" s="325"/>
+      <c r="R18" s="325"/>
+      <c r="S18" s="325"/>
+      <c r="T18" s="325"/>
+      <c r="U18" s="325"/>
+      <c r="V18" s="197" t="s">
+        <v>178</v>
       </c>
       <c r="W18" s="200"/>
       <c r="X18" s="200">
-        <f t="shared" ref="X18:X25" si="2">COUNT(I18,K18,M18,O18,Q18,S18,U18)</f>
-        <v>0</v>
+        <f>COUNT(I18,K18,M18,O18,M26,S18,U18)</f>
+        <v>2</v>
       </c>
       <c r="Y18" s="130">
         <v>0</v>
@@ -9546,69 +11016,73 @@
       <c r="Z18" s="200">
         <v>0</v>
       </c>
-      <c r="AA18" s="357"/>
-      <c r="AB18" s="357"/>
-      <c r="AC18" s="358"/>
-      <c r="AD18" s="358">
+      <c r="AA18" s="329"/>
+      <c r="AB18" s="329"/>
+      <c r="AC18" s="330"/>
+      <c r="AD18" s="330">
         <v>2</v>
       </c>
-      <c r="AE18" s="358"/>
-      <c r="AF18" s="358">
+      <c r="AE18" s="330"/>
+      <c r="AF18" s="330">
         <v>2.5</v>
       </c>
-      <c r="AG18" s="358"/>
-      <c r="AH18" s="358">
-        <v>2</v>
-      </c>
-      <c r="AI18" s="358"/>
+      <c r="AG18" s="330"/>
+      <c r="AH18" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AI18" s="330"/>
       <c r="AJ18" s="202" t="s">
-        <v>245</v>
+        <v>343</v>
       </c>
       <c r="AK18" s="312" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="304" t="s">
-        <v>182</v>
-      </c>
-      <c r="B19" s="133">
+      <c r="A19" s="305" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="127">
         <v>15</v>
       </c>
       <c r="C19" s="128">
-        <f ca="1">70+$A$30-$A$32</f>
-        <v>87</v>
+        <f ca="1">33+$A$30-$A$32</f>
+        <v>51</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>137</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>173</v>
       </c>
       <c r="F19" s="203">
-        <v>43791</v>
+        <v>43828</v>
       </c>
       <c r="G19" s="196"/>
-      <c r="H19" s="353"/>
-      <c r="I19" s="353"/>
-      <c r="J19" s="353"/>
-      <c r="K19" s="353"/>
-      <c r="L19" s="353"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="353"/>
-      <c r="O19" s="353"/>
-      <c r="P19" s="353"/>
-      <c r="Q19" s="353"/>
-      <c r="R19" s="353"/>
-      <c r="S19" s="353"/>
-      <c r="T19" s="353"/>
-      <c r="U19" s="353"/>
-      <c r="V19" s="199" t="s">
-        <v>183</v>
+      <c r="H19" s="325"/>
+      <c r="I19" s="325"/>
+      <c r="J19" s="328">
+        <v>2</v>
+      </c>
+      <c r="K19" s="328">
+        <v>2.99</v>
+      </c>
+      <c r="L19" s="325"/>
+      <c r="M19" s="325"/>
+      <c r="N19" s="325"/>
+      <c r="O19" s="325"/>
+      <c r="P19" s="325"/>
+      <c r="Q19" s="325"/>
+      <c r="R19" s="325"/>
+      <c r="S19" s="325"/>
+      <c r="T19" s="325"/>
+      <c r="U19" s="325"/>
+      <c r="V19" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W19" s="200"/>
       <c r="X19" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="X19:X25" si="4">COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
+        <v>1</v>
       </c>
       <c r="Y19" s="130">
         <v>0</v>
@@ -9616,73 +11090,69 @@
       <c r="Z19" s="200">
         <v>0</v>
       </c>
-      <c r="AA19" s="357"/>
-      <c r="AB19" s="357"/>
-      <c r="AC19" s="358"/>
-      <c r="AD19" s="358"/>
-      <c r="AE19" s="358"/>
-      <c r="AF19" s="358">
+      <c r="AA19" s="329"/>
+      <c r="AB19" s="329"/>
+      <c r="AC19" s="330"/>
+      <c r="AD19" s="330">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="330"/>
+      <c r="AF19" s="330">
         <v>2.5</v>
       </c>
-      <c r="AG19" s="358">
-        <v>3</v>
-      </c>
-      <c r="AH19" s="358"/>
-      <c r="AI19" s="358">
-        <v>3</v>
-      </c>
+      <c r="AG19" s="330"/>
+      <c r="AH19" s="330">
+        <v>2</v>
+      </c>
+      <c r="AI19" s="330"/>
       <c r="AJ19" s="202" t="s">
         <v>245</v>
       </c>
       <c r="AK19" s="312" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="304" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B20" s="133">
         <v>15</v>
       </c>
       <c r="C20" s="128">
-        <f ca="1">76+$A$30-$A$32</f>
-        <v>93</v>
+        <f ca="1">70+$A$30-$A$32</f>
+        <v>88</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>131</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>136</v>
       </c>
       <c r="F20" s="203">
-        <v>43785</v>
+        <v>43791</v>
       </c>
       <c r="G20" s="196"/>
-      <c r="H20" s="353"/>
-      <c r="I20" s="353"/>
-      <c r="J20" s="353"/>
-      <c r="K20" s="353"/>
-      <c r="L20" s="356">
-        <v>2</v>
-      </c>
-      <c r="M20" s="356">
-        <v>2.99</v>
-      </c>
-      <c r="N20" s="353"/>
-      <c r="O20" s="353"/>
-      <c r="P20" s="353"/>
-      <c r="Q20" s="353"/>
-      <c r="R20" s="353"/>
-      <c r="S20" s="353"/>
-      <c r="T20" s="353"/>
-      <c r="U20" s="353"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="325"/>
+      <c r="J20" s="325"/>
+      <c r="K20" s="325"/>
+      <c r="L20" s="325"/>
+      <c r="M20" s="325"/>
+      <c r="N20" s="325"/>
+      <c r="O20" s="325"/>
+      <c r="P20" s="325"/>
+      <c r="Q20" s="325"/>
+      <c r="R20" s="325"/>
+      <c r="S20" s="325"/>
+      <c r="T20" s="325"/>
+      <c r="U20" s="325"/>
       <c r="V20" s="199" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W20" s="200"/>
       <c r="X20" s="200">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y20" s="130">
         <v>0</v>
@@ -9690,65 +11160,73 @@
       <c r="Z20" s="200">
         <v>0</v>
       </c>
-      <c r="AA20" s="357"/>
-      <c r="AB20" s="357"/>
-      <c r="AC20" s="358"/>
-      <c r="AD20" s="358"/>
-      <c r="AE20" s="358"/>
-      <c r="AF20" s="358"/>
-      <c r="AG20" s="358"/>
-      <c r="AH20" s="358"/>
-      <c r="AI20" s="358">
-        <v>2</v>
+      <c r="AA20" s="329"/>
+      <c r="AB20" s="329"/>
+      <c r="AC20" s="330"/>
+      <c r="AD20" s="330"/>
+      <c r="AE20" s="330"/>
+      <c r="AF20" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AG20" s="330">
+        <v>3</v>
+      </c>
+      <c r="AH20" s="330"/>
+      <c r="AI20" s="330">
+        <v>3</v>
       </c>
       <c r="AJ20" s="202" t="s">
         <v>245</v>
       </c>
       <c r="AK20" s="312" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B21" s="133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="128">
-        <f ca="1">96+$A$30-$A$32-112</f>
-        <v>1</v>
+        <f ca="1">76+$A$30-$A$32</f>
+        <v>94</v>
       </c>
       <c r="D21" s="134"/>
       <c r="E21" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>130</v>
       </c>
       <c r="F21" s="203">
-        <v>43765</v>
+        <v>43785</v>
       </c>
       <c r="G21" s="196"/>
-      <c r="H21" s="353"/>
-      <c r="I21" s="353"/>
-      <c r="J21" s="353"/>
-      <c r="K21" s="353"/>
-      <c r="L21" s="353"/>
-      <c r="M21" s="353"/>
-      <c r="N21" s="353"/>
-      <c r="O21" s="353"/>
-      <c r="P21" s="353"/>
-      <c r="Q21" s="353"/>
-      <c r="R21" s="353"/>
-      <c r="S21" s="353"/>
-      <c r="T21" s="353"/>
-      <c r="U21" s="353"/>
-      <c r="V21" s="198" t="s">
-        <v>187</v>
+      <c r="H21" s="325"/>
+      <c r="I21" s="325"/>
+      <c r="J21" s="325"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="328">
+        <v>2</v>
+      </c>
+      <c r="M21" s="328">
+        <v>2.99</v>
+      </c>
+      <c r="N21" s="325"/>
+      <c r="O21" s="325"/>
+      <c r="P21" s="325"/>
+      <c r="Q21" s="325"/>
+      <c r="R21" s="325"/>
+      <c r="S21" s="325"/>
+      <c r="T21" s="325"/>
+      <c r="U21" s="325"/>
+      <c r="V21" s="199" t="s">
+        <v>185</v>
       </c>
       <c r="W21" s="200"/>
       <c r="X21" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y21" s="130">
         <v>0</v>
@@ -9756,100 +11234,92 @@
       <c r="Z21" s="200">
         <v>0</v>
       </c>
-      <c r="AA21" s="357"/>
-      <c r="AB21" s="357"/>
-      <c r="AC21" s="358"/>
-      <c r="AD21" s="358">
-        <v>2.5</v>
-      </c>
-      <c r="AE21" s="358"/>
-      <c r="AF21" s="358">
-        <v>1.5</v>
-      </c>
-      <c r="AG21" s="358"/>
-      <c r="AH21" s="358"/>
-      <c r="AI21" s="358">
-        <v>3</v>
+      <c r="AA21" s="329"/>
+      <c r="AB21" s="329"/>
+      <c r="AC21" s="330"/>
+      <c r="AD21" s="330"/>
+      <c r="AE21" s="330"/>
+      <c r="AF21" s="330"/>
+      <c r="AG21" s="330"/>
+      <c r="AH21" s="330"/>
+      <c r="AI21" s="330">
+        <v>2</v>
       </c>
       <c r="AJ21" s="202" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AK21" s="312" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="304" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" s="127">
+        <v>186</v>
+      </c>
+      <c r="B22" s="133">
         <v>16</v>
       </c>
       <c r="C22" s="128">
-        <f ca="1">-1+$A$30-$A$32</f>
-        <v>16</v>
-      </c>
-      <c r="D22" s="132"/>
+        <f ca="1">96+$A$30-$A$32-112</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="134"/>
       <c r="E22" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>110</v>
       </c>
       <c r="F22" s="203">
-        <v>43750</v>
+        <v>43765</v>
       </c>
       <c r="G22" s="196"/>
-      <c r="H22" s="353"/>
-      <c r="I22" s="353"/>
-      <c r="J22" s="351">
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="325"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="325"/>
+      <c r="M22" s="325"/>
+      <c r="N22" s="325"/>
+      <c r="O22" s="325"/>
+      <c r="P22" s="325"/>
+      <c r="Q22" s="325"/>
+      <c r="R22" s="325"/>
+      <c r="S22" s="325"/>
+      <c r="T22" s="325"/>
+      <c r="U22" s="325"/>
+      <c r="V22" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="W22" s="200"/>
+      <c r="X22" s="200">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="329"/>
+      <c r="AB22" s="329"/>
+      <c r="AC22" s="330"/>
+      <c r="AD22" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AE22" s="330"/>
+      <c r="AF22" s="330">
+        <v>1.5</v>
+      </c>
+      <c r="AG22" s="330"/>
+      <c r="AH22" s="330"/>
+      <c r="AI22" s="330">
         <v>3</v>
       </c>
-      <c r="K22" s="353"/>
-      <c r="L22" s="353"/>
-      <c r="M22" s="353"/>
-      <c r="N22" s="353"/>
-      <c r="O22" s="353"/>
-      <c r="P22" s="353"/>
-      <c r="Q22" s="353"/>
-      <c r="R22" s="353"/>
-      <c r="S22" s="353"/>
-      <c r="T22" s="353"/>
-      <c r="U22" s="353"/>
-      <c r="V22" s="199" t="s">
-        <v>189</v>
-      </c>
-      <c r="W22" s="201"/>
-      <c r="X22" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="357">
-        <v>0.5</v>
-      </c>
-      <c r="AB22" s="357"/>
-      <c r="AC22" s="358">
-        <v>2.5</v>
-      </c>
-      <c r="AD22" s="358"/>
-      <c r="AE22" s="358"/>
-      <c r="AF22" s="358"/>
-      <c r="AG22" s="358"/>
-      <c r="AH22" s="358">
-        <v>3.5</v>
-      </c>
-      <c r="AI22" s="358">
-        <v>3</v>
-      </c>
       <c r="AJ22" s="202" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK22" s="313" t="s">
-        <v>88</v>
+        <v>246</v>
+      </c>
+      <c r="AK22" s="312" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
@@ -9861,12 +11331,12 @@
       </c>
       <c r="C23" s="128">
         <f ca="1">22+$A$30-$A$32</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="195">
         <f ca="1">F23-TODAY()</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="203">
         <v>43750</v>
@@ -9874,26 +11344,26 @@
       <c r="G23" s="196" t="s">
         <v>192</v>
       </c>
-      <c r="H23" s="353"/>
-      <c r="I23" s="353"/>
-      <c r="J23" s="353"/>
-      <c r="K23" s="351">
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="325"/>
+      <c r="K23" s="323">
         <v>3.99</v>
       </c>
-      <c r="L23" s="351">
+      <c r="L23" s="323">
         <v>1</v>
       </c>
-      <c r="M23" s="353"/>
-      <c r="N23" s="353"/>
-      <c r="O23" s="353"/>
-      <c r="P23" s="351">
+      <c r="M23" s="325"/>
+      <c r="N23" s="325"/>
+      <c r="O23" s="325"/>
+      <c r="P23" s="323">
         <v>2</v>
       </c>
-      <c r="Q23" s="353"/>
-      <c r="R23" s="353"/>
-      <c r="S23" s="353"/>
-      <c r="T23" s="353"/>
-      <c r="U23" s="353"/>
+      <c r="Q23" s="325"/>
+      <c r="R23" s="325"/>
+      <c r="S23" s="325"/>
+      <c r="T23" s="325"/>
+      <c r="U23" s="325"/>
       <c r="V23" s="198" t="s">
         <v>180</v>
       </c>
@@ -9908,19 +11378,19 @@
       <c r="Z23" s="200">
         <v>0</v>
       </c>
-      <c r="AA23" s="357"/>
-      <c r="AB23" s="357"/>
-      <c r="AC23" s="358"/>
-      <c r="AD23" s="358"/>
-      <c r="AE23" s="358">
+      <c r="AA23" s="329"/>
+      <c r="AB23" s="329"/>
+      <c r="AC23" s="330"/>
+      <c r="AD23" s="330"/>
+      <c r="AE23" s="330">
         <v>2.5</v>
       </c>
-      <c r="AF23" s="358">
+      <c r="AF23" s="330">
         <v>3.5</v>
       </c>
-      <c r="AG23" s="358"/>
-      <c r="AH23" s="358"/>
-      <c r="AI23" s="358">
+      <c r="AG23" s="330"/>
+      <c r="AH23" s="330"/>
+      <c r="AI23" s="330">
         <v>2</v>
       </c>
       <c r="AJ23" s="202" t="s">
@@ -9939,37 +11409,37 @@
       </c>
       <c r="C24" s="128">
         <f ca="1">29+$A$30-$A$32</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
       <c r="F24" s="203">
         <v>43749</v>
       </c>
       <c r="G24" s="196"/>
-      <c r="H24" s="353"/>
-      <c r="I24" s="353"/>
-      <c r="J24" s="353"/>
-      <c r="K24" s="353"/>
-      <c r="L24" s="353"/>
-      <c r="M24" s="353"/>
-      <c r="N24" s="353"/>
-      <c r="O24" s="353"/>
-      <c r="P24" s="353"/>
-      <c r="Q24" s="353"/>
-      <c r="R24" s="353"/>
-      <c r="S24" s="353"/>
-      <c r="T24" s="353"/>
-      <c r="U24" s="353"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="325"/>
+      <c r="K24" s="325"/>
+      <c r="L24" s="325"/>
+      <c r="M24" s="325"/>
+      <c r="N24" s="325"/>
+      <c r="O24" s="325"/>
+      <c r="P24" s="325"/>
+      <c r="Q24" s="325"/>
+      <c r="R24" s="325"/>
+      <c r="S24" s="325"/>
+      <c r="T24" s="325"/>
+      <c r="U24" s="325"/>
       <c r="V24" s="198" t="s">
         <v>180</v>
       </c>
       <c r="W24" s="200"/>
       <c r="X24" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y24" s="130">
@@ -9978,19 +11448,19 @@
       <c r="Z24" s="200">
         <v>0</v>
       </c>
-      <c r="AA24" s="357">
+      <c r="AA24" s="329">
         <v>1</v>
       </c>
-      <c r="AB24" s="357"/>
-      <c r="AC24" s="358"/>
-      <c r="AD24" s="358"/>
-      <c r="AE24" s="358"/>
-      <c r="AF24" s="358">
+      <c r="AB24" s="329"/>
+      <c r="AC24" s="330"/>
+      <c r="AD24" s="330"/>
+      <c r="AE24" s="330"/>
+      <c r="AF24" s="330">
         <v>2.5</v>
       </c>
-      <c r="AG24" s="358"/>
-      <c r="AH24" s="358"/>
-      <c r="AI24" s="358"/>
+      <c r="AG24" s="330"/>
+      <c r="AH24" s="330"/>
+      <c r="AI24" s="330"/>
       <c r="AJ24" s="202" t="s">
         <v>243</v>
       </c>
@@ -10007,41 +11477,41 @@
       </c>
       <c r="C25" s="128">
         <f ca="1">66+$A$30-$A$32</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="129"/>
       <c r="E25" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
       <c r="F25" s="203">
         <v>43749</v>
       </c>
       <c r="G25" s="196"/>
-      <c r="H25" s="353"/>
-      <c r="I25" s="353"/>
-      <c r="J25" s="353"/>
-      <c r="K25" s="353"/>
-      <c r="L25" s="353"/>
-      <c r="M25" s="353"/>
-      <c r="N25" s="353"/>
-      <c r="O25" s="353"/>
-      <c r="P25" s="356">
+      <c r="H25" s="325"/>
+      <c r="I25" s="325"/>
+      <c r="J25" s="325"/>
+      <c r="K25" s="325"/>
+      <c r="L25" s="325"/>
+      <c r="M25" s="325"/>
+      <c r="N25" s="325"/>
+      <c r="O25" s="325"/>
+      <c r="P25" s="328">
         <v>2</v>
       </c>
-      <c r="Q25" s="356">
+      <c r="Q25" s="328">
         <v>2.99</v>
       </c>
-      <c r="R25" s="353"/>
-      <c r="S25" s="353"/>
-      <c r="T25" s="353"/>
-      <c r="U25" s="353"/>
+      <c r="R25" s="325"/>
+      <c r="S25" s="325"/>
+      <c r="T25" s="325"/>
+      <c r="U25" s="325"/>
       <c r="V25" s="198" t="s">
         <v>180</v>
       </c>
       <c r="W25" s="200"/>
       <c r="X25" s="200">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Y25" s="130">
@@ -10050,19 +11520,19 @@
       <c r="Z25" s="200">
         <v>0</v>
       </c>
-      <c r="AA25" s="357"/>
-      <c r="AB25" s="357"/>
-      <c r="AC25" s="358"/>
-      <c r="AD25" s="358"/>
-      <c r="AE25" s="358"/>
-      <c r="AF25" s="358">
+      <c r="AA25" s="329"/>
+      <c r="AB25" s="329"/>
+      <c r="AC25" s="330"/>
+      <c r="AD25" s="330"/>
+      <c r="AE25" s="330"/>
+      <c r="AF25" s="330">
         <v>3.5</v>
       </c>
-      <c r="AG25" s="358"/>
-      <c r="AH25" s="358">
+      <c r="AG25" s="330"/>
+      <c r="AH25" s="330">
         <v>2</v>
       </c>
-      <c r="AI25" s="358"/>
+      <c r="AI25" s="330"/>
       <c r="AJ25" s="202" t="s">
         <v>245</v>
       </c>
@@ -10079,31 +11549,31 @@
       </c>
       <c r="C26" s="128">
         <f ca="1">71+$A$30-$A$32</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="134"/>
       <c r="E26" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
       <c r="F26" s="203">
         <v>43749</v>
       </c>
       <c r="G26" s="196"/>
-      <c r="H26" s="353"/>
-      <c r="I26" s="353"/>
-      <c r="J26" s="353"/>
-      <c r="K26" s="353"/>
-      <c r="L26" s="353"/>
-      <c r="M26" s="353"/>
-      <c r="N26" s="353"/>
-      <c r="O26" s="353"/>
-      <c r="P26" s="353"/>
-      <c r="Q26" s="353"/>
-      <c r="R26" s="353"/>
-      <c r="S26" s="353"/>
-      <c r="T26" s="353"/>
-      <c r="U26" s="353"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="325"/>
+      <c r="M26" s="325"/>
+      <c r="N26" s="325"/>
+      <c r="O26" s="325"/>
+      <c r="P26" s="325"/>
+      <c r="Q26" s="325"/>
+      <c r="R26" s="325"/>
+      <c r="S26" s="325"/>
+      <c r="T26" s="325"/>
+      <c r="U26" s="325"/>
       <c r="V26" s="198" t="s">
         <v>180</v>
       </c>
@@ -10118,17 +11588,17 @@
       <c r="Z26" s="200">
         <v>0</v>
       </c>
-      <c r="AA26" s="357"/>
-      <c r="AB26" s="357"/>
-      <c r="AC26" s="358"/>
-      <c r="AD26" s="358"/>
-      <c r="AE26" s="358"/>
-      <c r="AF26" s="358"/>
-      <c r="AG26" s="358"/>
-      <c r="AH26" s="358">
+      <c r="AA26" s="329"/>
+      <c r="AB26" s="329"/>
+      <c r="AC26" s="330"/>
+      <c r="AD26" s="330"/>
+      <c r="AE26" s="330"/>
+      <c r="AF26" s="330"/>
+      <c r="AG26" s="330"/>
+      <c r="AH26" s="330">
         <v>3.5</v>
       </c>
-      <c r="AI26" s="358"/>
+      <c r="AI26" s="330"/>
       <c r="AJ26" s="202" t="s">
         <v>243</v>
       </c>
@@ -10145,31 +11615,31 @@
       </c>
       <c r="C27" s="128">
         <f ca="1">103+$A$30-$A$32-112</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="134"/>
       <c r="E27" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>94</v>
       </c>
       <c r="F27" s="203">
         <v>43749</v>
       </c>
       <c r="G27" s="196"/>
-      <c r="H27" s="353"/>
-      <c r="I27" s="353"/>
-      <c r="J27" s="353"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="353"/>
-      <c r="M27" s="353"/>
-      <c r="N27" s="353"/>
-      <c r="O27" s="353"/>
-      <c r="P27" s="353"/>
-      <c r="Q27" s="353"/>
-      <c r="R27" s="353"/>
-      <c r="S27" s="353"/>
-      <c r="T27" s="353"/>
-      <c r="U27" s="353"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
+      <c r="J27" s="325"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="325"/>
+      <c r="M27" s="325"/>
+      <c r="N27" s="325"/>
+      <c r="O27" s="325"/>
+      <c r="P27" s="325"/>
+      <c r="Q27" s="325"/>
+      <c r="R27" s="325"/>
+      <c r="S27" s="325"/>
+      <c r="T27" s="325"/>
+      <c r="U27" s="325"/>
       <c r="V27" s="198" t="s">
         <v>180</v>
       </c>
@@ -10184,15 +11654,15 @@
       <c r="Z27" s="200">
         <v>0</v>
       </c>
-      <c r="AA27" s="357"/>
-      <c r="AB27" s="357"/>
-      <c r="AC27" s="358"/>
-      <c r="AD27" s="358"/>
-      <c r="AE27" s="358"/>
-      <c r="AF27" s="358"/>
-      <c r="AG27" s="358"/>
-      <c r="AH27" s="358"/>
-      <c r="AI27" s="358"/>
+      <c r="AA27" s="329"/>
+      <c r="AB27" s="329"/>
+      <c r="AC27" s="330"/>
+      <c r="AD27" s="330"/>
+      <c r="AE27" s="330"/>
+      <c r="AF27" s="330"/>
+      <c r="AG27" s="330"/>
+      <c r="AH27" s="330"/>
+      <c r="AI27" s="330"/>
       <c r="AJ27" s="202" t="s">
         <v>245</v>
       </c>
@@ -10269,7 +11739,7 @@
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="142">
         <f ca="1">TODAY()</f>
-        <v>43654</v>
+        <v>43655</v>
       </c>
       <c r="B30" s="143"/>
       <c r="C30" s="139"/>
@@ -10305,7 +11775,7 @@
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <f ca="1">A32-A30</f>
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -10417,20 +11887,20 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E5 E17:E27 E9:E13">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="E4:E5 E9:E13 E17:E27">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>15</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA17:AI27 AA4:AI5 AA9:AI13">
-    <cfRule type="colorScale" priority="67">
+    <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10441,8 +11911,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X5 X9:X13 X17:X27">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="X17:X27 X4:X5 X9:X13">
+    <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10458,7 +11928,41 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4034EA4A-149D-4EF3-AED1-205C2A2A7C13}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="407" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="407" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -10495,14 +11999,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="334" t="s">
+      <c r="D1" s="391" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="336"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="393"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -10582,14 +12086,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="337" t="s">
+      <c r="D2" s="394" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="338"/>
-      <c r="F2" s="338"/>
-      <c r="G2" s="338"/>
-      <c r="H2" s="338"/>
-      <c r="I2" s="339"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="396"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -10654,15 +12158,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="340" t="s">
+      <c r="D3" s="397" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="341"/>
+      <c r="E3" s="398"/>
       <c r="F3" s="207"/>
-      <c r="G3" s="342" t="s">
+      <c r="G3" s="399" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="343"/>
+      <c r="H3" s="400"/>
       <c r="I3" s="207"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -11449,7 +12953,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="344" t="s">
+      <c r="K11" s="401" t="s">
         <v>124</v>
       </c>
       <c r="L11" s="244" t="s">
@@ -11559,7 +13063,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="345"/>
+      <c r="K12" s="402"/>
       <c r="L12" s="244" t="s">
         <v>126</v>
       </c>
@@ -11655,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="270"/>
-      <c r="K13" s="346"/>
+      <c r="K13" s="403"/>
       <c r="L13" s="244" t="s">
         <v>278</v>
       </c>
@@ -11838,11 +13342,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="331">
+      <c r="A15" s="388">
         <f>M14</f>
         <v>2377570</v>
       </c>
-      <c r="B15" s="331"/>
+      <c r="B15" s="388"/>
       <c r="D15" s="211" t="s">
         <v>141</v>
       </c>
@@ -12403,7 +13907,7 @@
       <c r="G21" s="224"/>
       <c r="H21" s="281"/>
       <c r="I21" s="282"/>
-      <c r="K21" s="327" t="s">
+      <c r="K21" s="384" t="s">
         <v>124</v>
       </c>
       <c r="L21" s="246" t="s">
@@ -12491,7 +13995,7 @@
         <f>H22/$H$35</f>
         <v>0.11755710599254515</v>
       </c>
-      <c r="K22" s="328"/>
+      <c r="K22" s="385"/>
       <c r="L22" s="246" t="s">
         <v>137</v>
       </c>
@@ -12570,7 +14074,7 @@
         <f>H23/$H$35</f>
         <v>2.9002033438026278E-2</v>
       </c>
-      <c r="K23" s="329"/>
+      <c r="K23" s="386"/>
       <c r="L23" s="246" t="s">
         <v>279</v>
       </c>
@@ -13200,7 +14704,7 @@
         <v>0.11864468224647115</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="330" t="s">
+      <c r="L30" s="387" t="s">
         <v>142</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -13265,7 +14769,7 @@
         <v>2.3069799325702721E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="330"/>
+      <c r="L31" s="387"/>
       <c r="M31" s="98" t="s">
         <v>143</v>
       </c>
@@ -13328,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="330"/>
+      <c r="L32" s="387"/>
       <c r="M32" s="98" t="s">
         <v>144</v>
       </c>
@@ -13380,7 +14884,7 @@
       <c r="H33" s="281"/>
       <c r="I33" s="282"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="330"/>
+      <c r="L33" s="387"/>
       <c r="M33" s="98" t="s">
         <v>145</v>
       </c>
@@ -13429,7 +14933,7 @@
       <c r="H34" s="288"/>
       <c r="I34" s="289"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="330"/>
+      <c r="L34" s="387"/>
       <c r="M34" s="98" t="s">
         <v>146</v>
       </c>
@@ -13461,11 +14965,11 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="332">
+      <c r="A35" s="389">
         <f>M25</f>
         <v>1965190</v>
       </c>
-      <c r="B35" s="332"/>
+      <c r="B35" s="389"/>
       <c r="D35" s="290" t="s">
         <v>226</v>
       </c>
@@ -13489,7 +14993,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="330"/>
+      <c r="L35" s="387"/>
       <c r="M35" s="98" t="s">
         <v>148</v>
       </c>
@@ -13530,7 +15034,7 @@
       </c>
       <c r="I36" s="206"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="330"/>
+      <c r="L36" s="387"/>
       <c r="M36" s="98" t="s">
         <v>149</v>
       </c>
@@ -13567,7 +15071,7 @@
       <c r="H37" s="206"/>
       <c r="I37" s="206"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="330"/>
+      <c r="L37" s="387"/>
       <c r="M37" s="98" t="s">
         <v>150</v>
       </c>
@@ -13694,10 +15198,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="333"/>
-      <c r="R39" s="333"/>
-      <c r="S39" s="333"/>
-      <c r="T39" s="333"/>
+      <c r="Q39" s="390"/>
+      <c r="R39" s="390"/>
+      <c r="S39" s="390"/>
+      <c r="T39" s="390"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="206"/>
@@ -13749,10 +15253,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
+      <c r="Q42" s="383"/>
+      <c r="R42" s="383"/>
+      <c r="S42" s="383"/>
+      <c r="T42" s="383"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -13773,10 +15277,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="326"/>
-      <c r="R44" s="326"/>
-      <c r="S44" s="326"/>
-      <c r="T44" s="326"/>
+      <c r="Q44" s="383"/>
+      <c r="R44" s="383"/>
+      <c r="S44" s="383"/>
+      <c r="T44" s="383"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -13785,9 +15289,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="326"/>
-      <c r="R45" s="326"/>
-      <c r="S45" s="326"/>
+      <c r="Q45" s="383"/>
+      <c r="R45" s="383"/>
+      <c r="S45" s="383"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -14060,23 +15564,23 @@
     <mergeCell ref="Q42:T42"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14085,7 +15589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -14144,18 +15648,18 @@
       <c r="C2" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="347" t="s">
+      <c r="D2" s="404" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="347"/>
-      <c r="F2" s="348" t="s">
+      <c r="E2" s="404"/>
+      <c r="F2" s="405" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="348"/>
-      <c r="H2" s="349" t="s">
+      <c r="G2" s="405"/>
+      <c r="H2" s="406" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="349"/>
+      <c r="I2" s="406"/>
       <c r="K2" s="60"/>
       <c r="M2" s="151">
         <v>11</v>
@@ -17206,10 +18710,10 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:AD32">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22300CC-7542-4178-8E7D-6CEE64FD236F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBF439-C932-4256-8AE0-27FB02CEE27D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall_of_Fame" sheetId="6" r:id="rId1"/>
@@ -3080,6 +3080,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3104,9 +3105,48 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3128,45 +3168,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3176,7 +3177,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -4306,24 +4306,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="378" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="377"/>
-      <c r="C1" s="377"/>
-      <c r="E1" s="376" t="s">
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="E1" s="377" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="376"/>
-      <c r="G1" s="376"/>
-      <c r="H1" s="376"/>
+      <c r="F1" s="377"/>
+      <c r="G1" s="377"/>
+      <c r="H1" s="377"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="378">
+      <c r="A2" s="379">
         <v>43655</v>
       </c>
-      <c r="B2" s="378"/>
-      <c r="C2" s="378"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
       <c r="E2" s="62" t="s">
         <v>341</v>
       </c>
@@ -4378,38 +4378,38 @@
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="334"/>
-      <c r="B5" s="375" t="s">
+      <c r="B5" s="376" t="s">
         <v>305</v>
       </c>
-      <c r="C5" s="375"/>
+      <c r="C5" s="376"/>
       <c r="E5" s="334"/>
       <c r="F5" s="334"/>
-      <c r="G5" s="375" t="s">
+      <c r="G5" s="376" t="s">
         <v>306</v>
       </c>
-      <c r="H5" s="375"/>
-      <c r="I5" s="375"/>
+      <c r="H5" s="376"/>
+      <c r="I5" s="376"/>
       <c r="J5" s="335"/>
       <c r="K5" s="335"/>
-      <c r="L5" s="375" t="s">
+      <c r="L5" s="376" t="s">
         <v>307</v>
       </c>
-      <c r="M5" s="375"/>
+      <c r="M5" s="376"/>
       <c r="O5" s="239" t="s">
         <v>308</v>
       </c>
       <c r="P5" s="334"/>
       <c r="Q5" s="334"/>
-      <c r="R5" s="375" t="s">
+      <c r="R5" s="376" t="s">
         <v>309</v>
       </c>
-      <c r="S5" s="375"/>
+      <c r="S5" s="376"/>
       <c r="T5" s="334"/>
       <c r="U5" s="334"/>
-      <c r="V5" s="376" t="s">
+      <c r="V5" s="377" t="s">
         <v>337</v>
       </c>
-      <c r="W5" s="376"/>
+      <c r="W5" s="377"/>
       <c r="X5" s="363" t="s">
         <v>338</v>
       </c>
@@ -5520,15 +5520,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,13 +5581,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43655</v>
-      </c>
-      <c r="E1" s="379">
+        <v>43656</v>
+      </c>
+      <c r="E1" s="380">
         <v>43637</v>
       </c>
-      <c r="F1" s="379"/>
-      <c r="G1" s="379"/>
+      <c r="F1" s="380"/>
+      <c r="G1" s="380"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -5651,7 +5651,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="12">
         <f>AVERAGE(L4:L21)</f>
-        <v>2.6111111111111112</v>
+        <v>2.6333333333333333</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="V2" s="14">
         <f>AVERAGE(V4:V21)</f>
-        <v>1174.4444444444443</v>
+        <v>1176.1111111111111</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.5625</v>
+        <v>17.553571428571427</v>
       </c>
       <c r="D4" s="205" t="s">
         <v>54</v>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -5912,19 +5912,19 @@
         <v>2</v>
       </c>
       <c r="L4" s="33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M4" s="34">
         <f t="shared" ref="M4:M21" si="2">LOG(L4+1)*4/3</f>
-        <v>0.40137332755197491</v>
+        <v>0.45656357442960838</v>
       </c>
       <c r="N4" s="35">
         <f t="shared" ref="N4:N21" si="3">(K4)*(K4)*(L4)</f>
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="O4" s="35">
         <f t="shared" ref="O4:O21" si="4">(K4+1)*(K4+1)*L4</f>
-        <v>9</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="P4" s="36">
         <v>5.3</v>
@@ -5990,39 +5990,39 @@
       </c>
       <c r="AI4" s="43">
         <f t="shared" ref="AI4:AI21" si="10">(AB4+R4+M4)*(S4/7)^0.5</f>
-        <v>3.2972622670649021</v>
+        <v>3.3439065390330511</v>
       </c>
       <c r="AJ4" s="43">
         <f t="shared" ref="AJ4:AJ21" si="11">(AB4+R4+M4)*(IF(S4=7, (S4/7)^0.5, ((S4+1)/7)^0.5))</f>
-        <v>3.6119698433641405</v>
+        <v>3.6630660832348627</v>
       </c>
       <c r="AK4" s="42">
         <f t="shared" ref="AK4:AK21" si="12">(((AA4+R4+M4)+(AD4+R4+M4)*2)/8)*(S4/7)^0.5</f>
-        <v>1.8703390411957257</v>
+        <v>1.8878306431837819</v>
       </c>
       <c r="AL4" s="42">
         <f t="shared" ref="AL4:AL21" si="13">(1.66*(AE4+M4+R4)+0.55*(AF4+M4+R4)-7.6)*(S4/7)^0.5</f>
-        <v>0.39049089162873901</v>
+        <v>0.49357473267834928</v>
       </c>
       <c r="AM4" s="42">
         <f t="shared" ref="AM4:AM21" si="14">((AF4+M4+R4)*0.7+(AE4+M4+R4)*0.3)*(S4/7)^0.5</f>
-        <v>4.2269319472662703</v>
+        <v>4.2735762192344193</v>
       </c>
       <c r="AN4" s="42">
         <f t="shared" ref="AN4:AN21" si="15">(0.5*(AE4+R4+M4)+ 0.3*(AF4+R4+M4))/10</f>
-        <v>0.32210986620415805</v>
+        <v>0.32652508595436869</v>
       </c>
       <c r="AO4" s="42">
         <f t="shared" ref="AO4:AO21" si="16">(0.4*(AA4+R4+M4)+0.3*(AF4+R4+M4))/10</f>
-        <v>0.4930961329286383</v>
+        <v>0.4969594502100726</v>
       </c>
       <c r="AP4" s="44">
         <f t="shared" ref="AP4:AP21" si="17">(AF4+R4+(LOG(L4)*4/3))*(S4/7)^0.5</f>
-        <v>4.6483484010068414</v>
+        <v>4.7375755569959823</v>
       </c>
       <c r="AQ4" s="44">
         <f t="shared" ref="AQ4:AQ21" si="18">(AF4+R4+(LOG(L4)*4/3))*(IF(S4=7, (S4/7)^0.5, ((S4+1)/7)^0.5))</f>
-        <v>5.092010548749033</v>
+        <v>5.1897540009036023</v>
       </c>
       <c r="AR4" s="47">
         <v>-1</v>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.75</v>
+        <v>8.7410714285714288</v>
       </c>
       <c r="D5" s="306" t="s">
         <v>62</v>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.642857142857142</v>
+        <v>14.633928571428571</v>
       </c>
       <c r="D6" s="306" t="s">
         <v>59</v>
@@ -6259,7 +6259,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8482142857142856</v>
+        <v>3.8392857142857144</v>
       </c>
       <c r="D7" s="204" t="s">
         <v>65</v>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="30">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3035714285714288</v>
+        <v>9.2946428571428577</v>
       </c>
       <c r="D8" s="194" t="s">
         <v>67</v>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2767857142857144</v>
+        <v>7.2678571428571432</v>
       </c>
       <c r="D9" s="251" t="s">
         <v>69</v>
@@ -6803,7 +6803,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="37">
@@ -6820,19 +6820,19 @@
         <v>5</v>
       </c>
       <c r="L9" s="53">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M9" s="34">
         <f t="shared" si="2"/>
-        <v>0.93196000578135851</v>
+        <v>0.94342690146391517</v>
       </c>
       <c r="N9" s="35">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>102.49999999999999</v>
       </c>
       <c r="O9" s="35">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>147.6</v>
       </c>
       <c r="P9" s="54">
         <v>6.1</v>
@@ -6856,18 +6856,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="V9" s="310">
-        <v>540</v>
+        <v>570</v>
       </c>
       <c r="W9" s="40">
         <f t="shared" si="8"/>
-        <v>-80</v>
+        <v>-50</v>
       </c>
       <c r="X9" s="39">
         <v>300</v>
       </c>
       <c r="Y9" s="42">
         <f t="shared" si="9"/>
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="Z9" s="45">
         <v>0</v>
@@ -6898,39 +6898,39 @@
       </c>
       <c r="AI9" s="43">
         <f t="shared" si="10"/>
-        <v>6.8806579540581092</v>
+        <v>6.8912742365630155</v>
       </c>
       <c r="AJ9" s="43">
         <f t="shared" si="11"/>
-        <v>7.4319600057813586</v>
+        <v>7.4434269014639156</v>
       </c>
       <c r="AK9" s="42">
         <f t="shared" si="12"/>
-        <v>1.6544266329992394</v>
+        <v>1.6584077389385794</v>
       </c>
       <c r="AL9" s="42">
         <f t="shared" si="13"/>
-        <v>1.0041737479574835</v>
+        <v>1.0276357322933261</v>
       </c>
       <c r="AM9" s="42">
         <f t="shared" si="14"/>
-        <v>4.4735256946494752</v>
+        <v>4.4841419771543816</v>
       </c>
       <c r="AN9" s="42">
         <f t="shared" si="15"/>
-        <v>0.33455680046250869</v>
+        <v>0.33547415211711323</v>
       </c>
       <c r="AO9" s="42">
         <f t="shared" si="16"/>
-        <v>0.46023720040469512</v>
+        <v>0.46103988310247412</v>
       </c>
       <c r="AP9" s="44">
         <f t="shared" si="17"/>
-        <v>4.9093894372969018</v>
+        <v>4.9226272641328466</v>
       </c>
       <c r="AQ9" s="44">
         <f t="shared" si="18"/>
-        <v>5.3027466551039497</v>
+        <v>5.3170451422929803</v>
       </c>
       <c r="AR9" s="47">
         <v>0</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0267857142857144</v>
+        <v>5.0178571428571432</v>
       </c>
       <c r="D10" s="251" t="s">
         <v>71</v>
@@ -6983,7 +6983,7 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -7000,19 +7000,19 @@
         <v>4</v>
       </c>
       <c r="L10" s="53">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M10" s="34">
         <f t="shared" si="2"/>
-        <v>1.0375350005115249</v>
+        <v>1.0471064466810227</v>
       </c>
       <c r="N10" s="35">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="O10" s="35">
         <f t="shared" si="4"/>
-        <v>125</v>
+        <v>127.49999999999999</v>
       </c>
       <c r="P10" s="54">
         <v>5.8</v>
@@ -7078,39 +7078,39 @@
       </c>
       <c r="AI10" s="43">
         <f t="shared" si="10"/>
-        <v>5.5252255211189105</v>
+        <v>5.5333148695729655</v>
       </c>
       <c r="AJ10" s="43">
         <f t="shared" si="11"/>
-        <v>6.0525813064401275</v>
+        <v>6.0614427436877385</v>
       </c>
       <c r="AK10" s="42">
         <f t="shared" si="12"/>
-        <v>1.7550267248963975</v>
+        <v>1.7580602305666686</v>
       </c>
       <c r="AL10" s="42">
         <f t="shared" si="13"/>
-        <v>1.1054214945400855</v>
+        <v>1.1232989546235472</v>
       </c>
       <c r="AM10" s="42">
         <f t="shared" si="14"/>
-        <v>5.6942563720646131</v>
+        <v>5.7023457205186681</v>
       </c>
       <c r="AN10" s="42">
         <f t="shared" si="15"/>
-        <v>0.38300280004092202</v>
+        <v>0.38376851573448179</v>
       </c>
       <c r="AO10" s="42">
         <f t="shared" si="16"/>
-        <v>0.55762745003580672</v>
+        <v>0.5582974512676715</v>
       </c>
       <c r="AP10" s="44">
         <f t="shared" si="17"/>
-        <v>7.1263068745868017</v>
+        <v>7.1359981702614439</v>
       </c>
       <c r="AQ10" s="44">
         <f t="shared" si="18"/>
-        <v>7.8064780538306602</v>
+        <v>7.8170943363355674</v>
       </c>
       <c r="AR10" s="47">
         <v>0</v>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.714285714285714</v>
+        <v>10.705357142857142</v>
       </c>
       <c r="D11" s="194" t="s">
         <v>74</v>
@@ -7163,7 +7163,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>75</v>
@@ -7335,7 +7335,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.053571428571429</v>
+        <v>14.044642857142858</v>
       </c>
       <c r="D12" s="204" t="s">
         <v>77</v>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="37">
@@ -7515,7 +7515,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.366071428571427</v>
+        <v>16.357142857142858</v>
       </c>
       <c r="D13" s="204" t="s">
         <v>79</v>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.8125</v>
+        <v>12.803571428571429</v>
       </c>
       <c r="D14" s="204" t="s">
         <v>81</v>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -7875,7 +7875,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.830357142857142</v>
+        <v>11.821428571428571</v>
       </c>
       <c r="D15" s="204" t="s">
         <v>83</v>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7946428571428577</v>
+        <v>8.7857142857142865</v>
       </c>
       <c r="D16" s="204" t="s">
         <v>85</v>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>86</v>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.044642857142858</v>
+        <v>15.035714285714286</v>
       </c>
       <c r="D17" s="204" t="s">
         <v>89</v>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="37">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.205357142857142</v>
+        <v>13.196428571428571</v>
       </c>
       <c r="D18" s="204" t="s">
         <v>91</v>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.794642857142858</v>
+        <v>17.785714285714285</v>
       </c>
       <c r="D19" s="204" t="s">
         <v>94</v>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8392857142857144</v>
+        <v>2.8303571428571428</v>
       </c>
       <c r="D20" s="204" t="s">
         <v>96</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8928571428571423</v>
+        <v>9.8839285714285712</v>
       </c>
       <c r="D21" s="204" t="s">
         <v>98</v>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -9142,11 +9142,11 @@
       <c r="U22" s="62"/>
       <c r="V22" s="63">
         <f>SUM(V4:V21)</f>
-        <v>21140</v>
+        <v>21170</v>
       </c>
       <c r="W22" s="63">
         <f t="shared" ref="W22:X22" si="20">SUM(W4:W21)</f>
-        <v>1240</v>
+        <v>1270</v>
       </c>
       <c r="X22" s="63">
         <f t="shared" si="20"/>
@@ -9154,7 +9154,7 @@
       </c>
       <c r="Y22" s="64">
         <f t="shared" si="9"/>
-        <v>2.8567567567567567</v>
+        <v>2.8608108108108108</v>
       </c>
       <c r="AF22" s="62"/>
       <c r="AG22" s="63"/>
@@ -9743,7 +9743,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:AK34"/>
   <sheetViews>
@@ -9751,7 +9751,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9788,13 +9788,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="381" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
+      <c r="B1" s="381"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="381"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -9993,12 +9993,12 @@
       </c>
       <c r="C4" s="128">
         <f ca="1">6+$A$30-$A$32</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="132"/>
       <c r="E4" s="195">
         <f ca="1">F4-TODAY()</f>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="203">
         <v>43757</v>
@@ -10065,12 +10065,12 @@
       </c>
       <c r="C5" s="128">
         <f ca="1">3+$A$30-$A$32</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="129"/>
       <c r="E5" s="195">
         <f ca="1">F5-TODAY()</f>
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="203">
         <v>43858</v>
@@ -10133,13 +10133,13 @@
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="381" t="s">
+      <c r="A6" s="382" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="381"/>
-      <c r="C6" s="381"/>
-      <c r="D6" s="381"/>
-      <c r="E6" s="381"/>
+      <c r="B6" s="382"/>
+      <c r="C6" s="382"/>
+      <c r="D6" s="382"/>
+      <c r="E6" s="382"/>
       <c r="F6" s="116"/>
       <c r="G6" s="115"/>
       <c r="H6" s="116"/>
@@ -10345,12 +10345,12 @@
       </c>
       <c r="C9" s="128">
         <f ca="1">67+$A$30-$A$32</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="195">
         <f t="shared" ref="E9:E13" ca="1" si="1">F9-TODAY()</f>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="203">
         <v>43749</v>
@@ -10415,12 +10415,12 @@
       </c>
       <c r="C10" s="128">
         <f ca="1">40+$A$30-$A$32</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10" s="129"/>
       <c r="E10" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="203">
         <v>43749</v>
@@ -10485,12 +10485,12 @@
       </c>
       <c r="C11" s="128">
         <f ca="1">-1+$A$30-$A$32</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="132"/>
       <c r="E11" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="203">
         <v>43750</v>
@@ -10559,12 +10559,12 @@
       </c>
       <c r="C12" s="128">
         <f ca="1">67+$A$30-$A$32+14</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="129"/>
       <c r="E12" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="203">
         <v>43780</v>
@@ -10627,12 +10627,12 @@
       </c>
       <c r="C13" s="128">
         <f ca="1">51+$A$30-$A$32</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="129"/>
       <c r="E13" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="203">
         <v>43810</v>
@@ -10689,13 +10689,13 @@
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="382" t="s">
+      <c r="A14" s="383" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="382"/>
-      <c r="C14" s="382"/>
-      <c r="D14" s="382"/>
-      <c r="E14" s="382"/>
+      <c r="B14" s="383"/>
+      <c r="C14" s="383"/>
+      <c r="D14" s="383"/>
+      <c r="E14" s="383"/>
       <c r="F14" s="123"/>
       <c r="G14" s="122"/>
       <c r="H14" s="123"/>
@@ -10901,12 +10901,12 @@
       </c>
       <c r="C17" s="128">
         <f ca="1">11+$A$30-$A$32</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="129"/>
       <c r="E17" s="195">
         <f ca="1">F17-TODAY()</f>
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" s="203">
         <v>43850</v>
@@ -10971,14 +10971,14 @@
       </c>
       <c r="C18" s="128">
         <f ca="1">14+$A$30-$A$32</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>289</v>
       </c>
       <c r="E18" s="195">
         <f t="shared" ref="E18:E27" ca="1" si="3">F18-TODAY()</f>
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F18" s="203">
         <v>43847</v>
@@ -11047,12 +11047,12 @@
       </c>
       <c r="C19" s="128">
         <f ca="1">33+$A$30-$A$32</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F19" s="203">
         <v>43828</v>
@@ -11121,12 +11121,12 @@
       </c>
       <c r="C20" s="128">
         <f ca="1">70+$A$30-$A$32</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="134"/>
       <c r="E20" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="203">
         <v>43791</v>
@@ -11191,12 +11191,12 @@
       </c>
       <c r="C21" s="128">
         <f ca="1">76+$A$30-$A$32</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="134"/>
       <c r="E21" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="203">
         <v>43785</v>
@@ -11261,12 +11261,12 @@
       </c>
       <c r="C22" s="128">
         <f ca="1">96+$A$30-$A$32-112</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="134"/>
       <c r="E22" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="203">
         <v>43765</v>
@@ -11331,12 +11331,12 @@
       </c>
       <c r="C23" s="128">
         <f ca="1">22+$A$30-$A$32</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="129"/>
       <c r="E23" s="195">
         <f ca="1">F23-TODAY()</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="203">
         <v>43750</v>
@@ -11409,12 +11409,12 @@
       </c>
       <c r="C24" s="128">
         <f ca="1">29+$A$30-$A$32</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" s="203">
         <v>43749</v>
@@ -11477,12 +11477,12 @@
       </c>
       <c r="C25" s="128">
         <f ca="1">66+$A$30-$A$32</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="129"/>
       <c r="E25" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="203">
         <v>43749</v>
@@ -11549,12 +11549,12 @@
       </c>
       <c r="C26" s="128">
         <f ca="1">71+$A$30-$A$32</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D26" s="134"/>
       <c r="E26" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="203">
         <v>43749</v>
@@ -11615,12 +11615,12 @@
       </c>
       <c r="C27" s="128">
         <f ca="1">103+$A$30-$A$32-112</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="134"/>
       <c r="E27" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="203">
         <v>43749</v>
@@ -11739,7 +11739,7 @@
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="142">
         <f ca="1">TODAY()</f>
-        <v>43655</v>
+        <v>43656</v>
       </c>
       <c r="B30" s="143"/>
       <c r="C30" s="139"/>
@@ -11775,7 +11775,7 @@
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <f ca="1">A32-A30</f>
-        <v>-18</v>
+        <v>-19</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -11935,14 +11935,14 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="407" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="407" t="s">
+    <row r="1" spans="1:1" s="375" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="375" t="s">
         <v>344</v>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11999,14 +11999,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="391" t="s">
+      <c r="D1" s="384" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="392"/>
-      <c r="H1" s="392"/>
-      <c r="I1" s="393"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="386"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -12086,14 +12086,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="394" t="s">
+      <c r="D2" s="387" t="s">
         <v>248</v>
       </c>
-      <c r="E2" s="395"/>
-      <c r="F2" s="395"/>
-      <c r="G2" s="395"/>
-      <c r="H2" s="395"/>
-      <c r="I2" s="396"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="388"/>
+      <c r="G2" s="388"/>
+      <c r="H2" s="388"/>
+      <c r="I2" s="389"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -12158,15 +12158,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="397" t="s">
+      <c r="D3" s="390" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="398"/>
+      <c r="E3" s="391"/>
       <c r="F3" s="207"/>
-      <c r="G3" s="399" t="s">
+      <c r="G3" s="392" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="400"/>
+      <c r="H3" s="393"/>
       <c r="I3" s="207"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -12346,7 +12346,7 @@
       </c>
       <c r="F5" s="258">
         <f>E5/E35</f>
-        <v>0.11755710599254515</v>
+        <v>0.10987467448819101</v>
       </c>
       <c r="G5" s="211" t="s">
         <v>252</v>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="I5" s="213">
         <f>H5/$H$35</f>
-        <v>9.8870568538725959E-2</v>
+        <v>9.2409314119588748E-2</v>
       </c>
       <c r="K5" s="82" t="s">
         <v>117</v>
@@ -12384,59 +12384,59 @@
       </c>
       <c r="R5" s="84">
         <f t="shared" si="3"/>
-        <v>936960</v>
+        <v>1149116</v>
       </c>
       <c r="S5" s="84">
         <f t="shared" si="3"/>
-        <v>946045</v>
+        <v>1158201</v>
       </c>
       <c r="T5" s="84">
         <f t="shared" si="3"/>
-        <v>894380</v>
+        <v>1106536</v>
       </c>
       <c r="U5" s="84">
         <f t="shared" si="3"/>
-        <v>904005</v>
+        <v>1116161</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" si="3"/>
-        <v>854880</v>
+        <v>1067036</v>
       </c>
       <c r="W5" s="84">
         <f t="shared" si="3"/>
-        <v>868005</v>
+        <v>1080161</v>
       </c>
       <c r="X5" s="84">
         <f t="shared" si="3"/>
-        <v>820380</v>
+        <v>1032536</v>
       </c>
       <c r="Y5" s="84">
         <f t="shared" si="3"/>
-        <v>835005</v>
+        <v>1047161</v>
       </c>
       <c r="Z5" s="84">
         <f t="shared" si="3"/>
-        <v>788880</v>
+        <v>1001036</v>
       </c>
       <c r="AA5" s="84">
         <f t="shared" si="3"/>
-        <v>805005</v>
+        <v>1017161</v>
       </c>
       <c r="AB5" s="84">
         <f t="shared" si="3"/>
-        <v>760380</v>
+        <v>972536</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" si="3"/>
-        <v>778005</v>
+        <v>990161</v>
       </c>
       <c r="AD5" s="84">
         <f t="shared" si="3"/>
-        <v>796380</v>
+        <v>1008536</v>
       </c>
       <c r="AE5" s="84">
         <f t="shared" si="3"/>
-        <v>754005</v>
+        <v>966161</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="B6" s="298">
         <f t="shared" ref="B6:B13" si="5">M6/$M$14</f>
-        <v>0.31504435200646036</v>
+        <v>0.30937481416952989</v>
       </c>
       <c r="D6" s="214" t="s">
         <v>131</v>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="F6" s="260">
         <f>E6/E35</f>
-        <v>2.9002033438026278E-2</v>
+        <v>2.710673214174603E-2</v>
       </c>
       <c r="G6" s="216" t="s">
         <v>253</v>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="I6" s="262">
         <f>H6/$H$35</f>
-        <v>9.8870568538725959E-2</v>
+        <v>9.2409314119588748E-2</v>
       </c>
       <c r="K6" s="244" t="s">
         <v>118</v>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="M6" s="263">
         <f>SUM(N6:AE6)</f>
-        <v>749040</v>
+        <v>801196</v>
       </c>
       <c r="N6" s="293">
         <v>0</v>
@@ -12491,8 +12491,8 @@
         <v>42543</v>
       </c>
       <c r="Q6" s="241">
-        <f>81809+2500</f>
-        <v>84309</v>
+        <f>81809+54656</f>
+        <v>136465</v>
       </c>
       <c r="R6" s="241">
         <v>65000</v>
@@ -12544,7 +12544,7 @@
       </c>
       <c r="B7" s="298">
         <f t="shared" si="5"/>
-        <v>0.28984635573295425</v>
+        <v>0.26610151035283269</v>
       </c>
       <c r="D7" s="214" t="s">
         <v>136</v>
@@ -12555,7 +12555,7 @@
       </c>
       <c r="F7" s="260">
         <f>E7/E35</f>
-        <v>8.8555072554518874E-2</v>
+        <v>8.2767942346444981E-2</v>
       </c>
       <c r="G7" s="216" t="s">
         <v>254</v>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="B10" s="298">
         <f t="shared" si="5"/>
-        <v>9.2531450178123045E-3</v>
+        <v>8.4951072043915072E-3</v>
       </c>
       <c r="D10" s="211" t="s">
         <v>276</v>
@@ -12838,11 +12838,11 @@
       </c>
       <c r="H10" s="259">
         <f>SUM(H11:H16)</f>
-        <v>769080</v>
+        <v>981236</v>
       </c>
       <c r="I10" s="213">
         <f t="shared" ref="I10:I16" si="8">H10/$H$35</f>
-        <v>0.25346458950587786</v>
+        <v>0.30225115249816259</v>
       </c>
       <c r="K10" s="244" t="s">
         <v>123</v>
@@ -12930,7 +12930,7 @@
       </c>
       <c r="B11" s="298">
         <f t="shared" si="5"/>
-        <v>6.056604011658963E-3</v>
+        <v>5.5604338065108044E-3</v>
       </c>
       <c r="D11" s="222" t="s">
         <v>277</v>
@@ -12953,7 +12953,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="401" t="s">
+      <c r="K11" s="395" t="s">
         <v>124</v>
       </c>
       <c r="L11" s="244" t="s">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="B12" s="298">
         <f t="shared" si="5"/>
-        <v>0.37979954323111415</v>
+        <v>0.41046813446673508</v>
       </c>
       <c r="D12" s="222" t="str">
         <f>L13</f>
@@ -13063,13 +13063,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="402"/>
+      <c r="K12" s="396"/>
       <c r="L12" s="244" t="s">
         <v>126</v>
       </c>
       <c r="M12" s="263">
         <f t="shared" si="6"/>
-        <v>903000</v>
+        <v>1063000</v>
       </c>
       <c r="N12" s="293">
         <v>0</v>
@@ -13081,7 +13081,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="243">
-        <v>0</v>
+        <v>160000</v>
       </c>
       <c r="R12" s="243">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="270"/>
-      <c r="K13" s="403"/>
+      <c r="K13" s="397"/>
       <c r="L13" s="244" t="s">
         <v>278</v>
       </c>
@@ -13266,7 +13266,7 @@
       <c r="L14" s="297"/>
       <c r="M14" s="273">
         <f>SUM(N14:AE14)</f>
-        <v>2377570</v>
+        <v>2589726</v>
       </c>
       <c r="N14" s="294">
         <f>SUM(N6:N13)</f>
@@ -13282,7 +13282,7 @@
       </c>
       <c r="Q14" s="294">
         <f t="shared" si="11"/>
-        <v>120654</v>
+        <v>332810</v>
       </c>
       <c r="R14" s="294">
         <f t="shared" si="11"/>
@@ -13342,11 +13342,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="388">
+      <c r="A15" s="402">
         <f>M14</f>
-        <v>2377570</v>
-      </c>
-      <c r="B15" s="388"/>
+        <v>2589726</v>
+      </c>
+      <c r="B15" s="402"/>
       <c r="D15" s="211" t="s">
         <v>141</v>
       </c>
@@ -13464,11 +13464,11 @@
       </c>
       <c r="H16" s="275">
         <f>E29-H26</f>
-        <v>769080</v>
+        <v>981236</v>
       </c>
       <c r="I16" s="262">
         <f t="shared" si="8"/>
-        <v>0.25346458950587786</v>
+        <v>0.30225115249816259</v>
       </c>
       <c r="K16" s="245" t="s">
         <v>129</v>
@@ -13907,7 +13907,7 @@
       <c r="G21" s="224"/>
       <c r="H21" s="281"/>
       <c r="I21" s="282"/>
-      <c r="K21" s="384" t="s">
+      <c r="K21" s="398" t="s">
         <v>124</v>
       </c>
       <c r="L21" s="246" t="s">
@@ -13993,9 +13993,9 @@
       </c>
       <c r="I22" s="213">
         <f>H22/$H$35</f>
-        <v>0.11755710599254515</v>
-      </c>
-      <c r="K22" s="385"/>
+        <v>0.10987467448819101</v>
+      </c>
+      <c r="K22" s="399"/>
       <c r="L22" s="246" t="s">
         <v>137</v>
       </c>
@@ -14072,9 +14072,9 @@
       </c>
       <c r="I23" s="262">
         <f>H23/$H$35</f>
-        <v>2.9002033438026278E-2</v>
-      </c>
-      <c r="K23" s="386"/>
+        <v>2.710673214174603E-2</v>
+      </c>
+      <c r="K23" s="400"/>
       <c r="L23" s="246" t="s">
         <v>279</v>
       </c>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="F24" s="258">
         <f>E24/E35</f>
-        <v>9.8870568538725959E-2</v>
+        <v>9.2409314119588748E-2</v>
       </c>
       <c r="G24" s="228" t="s">
         <v>136</v>
@@ -14167,7 +14167,7 @@
       </c>
       <c r="I24" s="262">
         <f>H24/$H$35</f>
-        <v>8.8555072554518874E-2</v>
+        <v>8.2767942346444981E-2</v>
       </c>
       <c r="K24" s="245" t="s">
         <v>138</v>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="F25" s="260">
         <f>E25/E35</f>
-        <v>9.8870568538725959E-2</v>
+        <v>9.2409314119588748E-2</v>
       </c>
       <c r="G25" s="229"/>
       <c r="H25" s="284"/>
@@ -14371,7 +14371,7 @@
       </c>
       <c r="I26" s="213">
         <f t="shared" ref="I26:I32" si="19">H26/$H$35</f>
-        <v>0.53010773596285099</v>
+        <v>0.49546485889405767</v>
       </c>
       <c r="K26" s="89" t="s">
         <v>140</v>
@@ -14379,7 +14379,7 @@
       <c r="L26" s="89"/>
       <c r="M26" s="84">
         <f t="shared" ref="M26:AE26" si="20">M5+M14-M25</f>
-        <v>712380</v>
+        <v>924536</v>
       </c>
       <c r="N26" s="84">
         <f t="shared" si="20"/>
@@ -14395,63 +14395,63 @@
       </c>
       <c r="Q26" s="84">
         <f t="shared" si="20"/>
-        <v>936960</v>
+        <v>1149116</v>
       </c>
       <c r="R26" s="84">
         <f t="shared" si="20"/>
-        <v>946045</v>
+        <v>1158201</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" si="20"/>
-        <v>894380</v>
+        <v>1106536</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" si="20"/>
-        <v>904005</v>
+        <v>1116161</v>
       </c>
       <c r="U26" s="84">
         <f t="shared" si="20"/>
-        <v>854880</v>
+        <v>1067036</v>
       </c>
       <c r="V26" s="84">
         <f t="shared" si="20"/>
-        <v>868005</v>
+        <v>1080161</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" si="20"/>
-        <v>820380</v>
+        <v>1032536</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" si="20"/>
-        <v>835005</v>
+        <v>1047161</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" si="20"/>
-        <v>788880</v>
+        <v>1001036</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" si="20"/>
-        <v>805005</v>
+        <v>1017161</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" si="20"/>
-        <v>760380</v>
+        <v>972536</v>
       </c>
       <c r="AB26" s="84">
         <f t="shared" si="20"/>
-        <v>778005</v>
+        <v>990161</v>
       </c>
       <c r="AC26" s="84">
         <f t="shared" si="20"/>
-        <v>796380</v>
+        <v>1008536</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" si="20"/>
-        <v>754005</v>
+        <v>966161</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" si="20"/>
-        <v>712380</v>
+        <v>924536</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="I27" s="262">
         <f t="shared" si="19"/>
-        <v>5.3960260622818668E-2</v>
+        <v>5.0433923336000885E-2</v>
       </c>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="I28" s="262">
         <f t="shared" si="19"/>
-        <v>4.3239395307602818E-2</v>
+        <v>4.0413673374966812E-2</v>
       </c>
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
@@ -14623,11 +14623,11 @@
       </c>
       <c r="E29" s="212">
         <f>SUM(E30:E34)</f>
-        <v>2377570</v>
+        <v>2589726</v>
       </c>
       <c r="F29" s="258">
         <f>E29/E35</f>
-        <v>0.7835723254687289</v>
+        <v>0.79771601139222026</v>
       </c>
       <c r="G29" s="228" t="s">
         <v>132</v>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="I29" s="262">
         <f t="shared" si="19"/>
-        <v>0.31195641785338812</v>
+        <v>0.2915698679101264</v>
       </c>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="F30" s="260">
         <f>E30/E35</f>
-        <v>4.7457872898588457E-3</v>
+        <v>4.4356470777402596E-3</v>
       </c>
       <c r="G30" s="228" t="s">
         <v>133</v>
@@ -14701,10 +14701,10 @@
       </c>
       <c r="I30" s="262">
         <f t="shared" si="19"/>
-        <v>0.11864468224647115</v>
+        <v>0.11089117694350649</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="387" t="s">
+      <c r="L30" s="401" t="s">
         <v>142</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -14751,11 +14751,11 @@
       </c>
       <c r="E31" s="232">
         <f>M12</f>
-        <v>903000</v>
+        <v>1063000</v>
       </c>
       <c r="F31" s="260">
         <f>E31/E35</f>
-        <v>0.29760041130156512</v>
+        <v>0.32743700303040946</v>
       </c>
       <c r="G31" s="228" t="s">
         <v>137</v>
@@ -14766,10 +14766,10 @@
       </c>
       <c r="I31" s="262">
         <f t="shared" si="19"/>
-        <v>2.3069799325702721E-3</v>
+        <v>2.1562173294570708E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="387"/>
+      <c r="L31" s="401"/>
       <c r="M31" s="98" t="s">
         <v>143</v>
       </c>
@@ -14814,11 +14814,11 @@
       </c>
       <c r="E32" s="232">
         <f>M6</f>
-        <v>749040</v>
+        <v>801196</v>
       </c>
       <c r="F32" s="260">
         <f>E32/E35</f>
-        <v>0.24686003552749097</v>
+        <v>0.24679324278452675</v>
       </c>
       <c r="G32" s="228" t="s">
         <v>138</v>
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="387"/>
+      <c r="L32" s="401"/>
       <c r="M32" s="98" t="s">
         <v>144</v>
       </c>
@@ -14878,13 +14878,13 @@
       </c>
       <c r="F33" s="260">
         <f>E33/E35</f>
-        <v>0.2271155829903074</v>
+        <v>0.21227343546410729</v>
       </c>
       <c r="G33" s="224"/>
       <c r="H33" s="281"/>
       <c r="I33" s="282"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="387"/>
+      <c r="L33" s="401"/>
       <c r="M33" s="98" t="s">
         <v>145</v>
       </c>
@@ -14927,13 +14927,13 @@
       </c>
       <c r="F34" s="260">
         <f>E34/E35</f>
-        <v>7.2505083595065696E-3</v>
+        <v>6.7766830354365074E-3</v>
       </c>
       <c r="G34" s="287"/>
       <c r="H34" s="288"/>
       <c r="I34" s="289"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="387"/>
+      <c r="L34" s="401"/>
       <c r="M34" s="98" t="s">
         <v>146</v>
       </c>
@@ -14965,17 +14965,17 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="389">
+      <c r="A35" s="403">
         <f>M25</f>
         <v>1965190</v>
       </c>
-      <c r="B35" s="389"/>
+      <c r="B35" s="403"/>
       <c r="D35" s="290" t="s">
         <v>226</v>
       </c>
       <c r="E35" s="291">
         <f>E29+E21+E15+E5+E10+E24</f>
-        <v>3034270</v>
+        <v>3246426</v>
       </c>
       <c r="F35" s="233">
         <f>F29+F21+F15+F5+F10+F24</f>
@@ -14986,14 +14986,14 @@
       </c>
       <c r="H35" s="291">
         <f>H26+H18+H10+H5+H22</f>
-        <v>3034270</v>
+        <v>3246426</v>
       </c>
       <c r="I35" s="292">
         <f>H35/$H$35</f>
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="387"/>
+      <c r="L35" s="401"/>
       <c r="M35" s="98" t="s">
         <v>148</v>
       </c>
@@ -15034,7 +15034,7 @@
       </c>
       <c r="I36" s="206"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="387"/>
+      <c r="L36" s="401"/>
       <c r="M36" s="98" t="s">
         <v>149</v>
       </c>
@@ -15071,7 +15071,7 @@
       <c r="H37" s="206"/>
       <c r="I37" s="206"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="387"/>
+      <c r="L37" s="401"/>
       <c r="M37" s="98" t="s">
         <v>150</v>
       </c>
@@ -15198,10 +15198,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="390"/>
-      <c r="R39" s="390"/>
-      <c r="S39" s="390"/>
-      <c r="T39" s="390"/>
+      <c r="Q39" s="404"/>
+      <c r="R39" s="404"/>
+      <c r="S39" s="404"/>
+      <c r="T39" s="404"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="206"/>
@@ -15253,10 +15253,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="383"/>
-      <c r="R42" s="383"/>
-      <c r="S42" s="383"/>
-      <c r="T42" s="383"/>
+      <c r="Q42" s="394"/>
+      <c r="R42" s="394"/>
+      <c r="S42" s="394"/>
+      <c r="T42" s="394"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -15277,10 +15277,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="383"/>
-      <c r="R44" s="383"/>
-      <c r="S44" s="383"/>
-      <c r="T44" s="383"/>
+      <c r="Q44" s="394"/>
+      <c r="R44" s="394"/>
+      <c r="S44" s="394"/>
+      <c r="T44" s="394"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -15289,9 +15289,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="383"/>
-      <c r="R45" s="383"/>
-      <c r="S45" s="383"/>
+      <c r="Q45" s="394"/>
+      <c r="R45" s="394"/>
+      <c r="S45" s="394"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -15548,12 +15548,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
@@ -15562,6 +15556,12 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
@@ -15648,18 +15648,18 @@
       <c r="C2" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="404" t="s">
+      <c r="D2" s="405" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="404"/>
-      <c r="F2" s="405" t="s">
+      <c r="E2" s="405"/>
+      <c r="F2" s="406" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="405"/>
-      <c r="H2" s="406" t="s">
+      <c r="G2" s="406"/>
+      <c r="H2" s="407" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="406"/>
+      <c r="I2" s="407"/>
       <c r="K2" s="60"/>
       <c r="M2" s="151">
         <v>11</v>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDBF439-C932-4256-8AE0-27FB02CEE27D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46212DAD-518E-4E29-80C3-D6A6D7532A75}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="343">
   <si>
     <t>Nfin</t>
   </si>
@@ -793,9 +793,6 @@
     <t>J. Estela</t>
   </si>
   <si>
-    <t>A. Majoral</t>
-  </si>
-  <si>
     <t>Actualización</t>
   </si>
   <si>
@@ -1078,27 +1075,15 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>POR/EXT</t>
-  </si>
-  <si>
     <t>POR/DEF/DAV</t>
   </si>
   <si>
-    <t>EXT/MED/DAV</t>
-  </si>
-  <si>
     <t>POR/DAV</t>
   </si>
   <si>
     <t>DEF/DAV</t>
   </si>
   <si>
-    <t>POR/DEF</t>
-  </si>
-  <si>
-    <t>POR/DEF/EXT/MED</t>
-  </si>
-  <si>
     <t>POR/MED</t>
   </si>
   <si>
@@ -1108,9 +1093,6 @@
     <t>POR/DEF/EXT/DAV</t>
   </si>
   <si>
-    <t>POR/DEF/MED/EXT/DAV</t>
-  </si>
-  <si>
     <t>Fecha Actualizacion</t>
   </si>
   <si>
@@ -1241,6 +1223,12 @@
   </si>
   <si>
     <t>253 + 343</t>
+  </si>
+  <si>
+    <t>MED/DAV</t>
+  </si>
+  <si>
+    <t>POR/EXT/MED</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2242,7 @@
     <xf numFmtId="165" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3105,6 +3093,30 @@
     <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="25" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3135,9 +3147,6 @@
     <xf numFmtId="0" fontId="44" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3147,27 +3156,6 @@
     <xf numFmtId="0" fontId="3" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="25" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="46" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3176,6 +3164,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4307,12 +4301,12 @@
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="378" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="378"/>
       <c r="C1" s="378"/>
       <c r="E1" s="377" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F1" s="377"/>
       <c r="G1" s="377"/>
@@ -4325,30 +4319,30 @@
       <c r="B2" s="379"/>
       <c r="C2" s="379"/>
       <c r="E2" s="62" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F2" s="332" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G2" s="333">
         <v>43649</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3" s="62" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F3" s="340" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="G3" s="333">
         <v>43639</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
@@ -4379,48 +4373,48 @@
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="334"/>
       <c r="B5" s="376" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C5" s="376"/>
       <c r="E5" s="334"/>
       <c r="F5" s="334"/>
       <c r="G5" s="376" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H5" s="376"/>
       <c r="I5" s="376"/>
       <c r="J5" s="335"/>
       <c r="K5" s="335"/>
       <c r="L5" s="376" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M5" s="376"/>
       <c r="O5" s="239" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P5" s="334"/>
       <c r="Q5" s="334"/>
       <c r="R5" s="376" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="S5" s="376"/>
       <c r="T5" s="334"/>
       <c r="U5" s="334"/>
       <c r="V5" s="377" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="W5" s="377"/>
       <c r="X5" s="363" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Y5" s="363" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Z5" s="363" t="s">
         <v>49</v>
       </c>
       <c r="AA5" s="363" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -4431,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="348" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D6" s="349" t="s">
         <v>58</v>
@@ -4443,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="348" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="I6" s="349" t="s">
         <v>58</v>
@@ -4455,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="362" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N6" s="349" t="s">
         <v>73</v>
@@ -4468,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="R6" s="344" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="S6" s="345" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="T6" s="346" t="s">
         <v>93</v>
@@ -4480,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="W6" s="364" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="X6" s="344">
         <v>1</v>
@@ -4511,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="348" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="I7" s="349" t="s">
         <v>58</v>
@@ -4523,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="362" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N7" s="349" t="s">
         <v>73</v>
@@ -4536,10 +4530,10 @@
         <v>2</v>
       </c>
       <c r="R7" s="347" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S7" s="348" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="T7" s="348" t="s">
         <v>88</v>
@@ -4548,7 +4542,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="347" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="X7" s="347">
         <v>1</v>
@@ -4579,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="348" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I8" s="349" t="s">
         <v>73</v>
@@ -4591,7 +4585,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="345" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="N8" s="346" t="s">
         <v>156</v>
@@ -4604,10 +4598,10 @@
         <v>2</v>
       </c>
       <c r="R8" s="347" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S8" s="348" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="T8" s="348" t="s">
         <v>93</v>
@@ -4616,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="347" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="X8" s="347">
         <v>0</v>
@@ -4648,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="H9" s="348" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I9" s="349" t="s">
         <v>73</v>
@@ -4661,7 +4655,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="348" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N9" s="348" t="s">
         <v>88</v>
@@ -4675,10 +4669,10 @@
         <v>2</v>
       </c>
       <c r="R9" s="347" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S9" s="348" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="T9" s="349" t="s">
         <v>73</v>
@@ -4707,7 +4701,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="345" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="I10" s="346" t="s">
         <v>73</v>
@@ -4719,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="345" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="N10" s="346" t="s">
         <v>93</v>
@@ -4732,10 +4726,10 @@
         <v>2</v>
       </c>
       <c r="R10" s="347" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="S10" s="345" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="T10" s="345" t="s">
         <v>156</v>
@@ -4763,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="345" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I11" s="345" t="s">
         <v>88</v>
@@ -4775,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="348" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N11" s="348" t="s">
         <v>93</v>
@@ -4788,10 +4782,10 @@
         <v>6</v>
       </c>
       <c r="R11" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S11" s="345" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="T11" s="346" t="s">
         <v>73</v>
@@ -4815,7 +4809,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="345" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="I12" s="346" t="s">
         <v>156</v>
@@ -4827,7 +4821,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="348" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N12" s="349" t="s">
         <v>73</v>
@@ -4840,10 +4834,10 @@
         <v>6</v>
       </c>
       <c r="R12" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S12" s="345" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="T12" s="345" t="s">
         <v>88</v>
@@ -4860,7 +4854,7 @@
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="361"/>
       <c r="B13" s="337" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C13" s="337"/>
       <c r="E13" s="334"/>
@@ -4871,7 +4865,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="348" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="I13" s="348" t="s">
         <v>88</v>
@@ -4889,10 +4883,10 @@
         <v>6</v>
       </c>
       <c r="R13" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S13" s="345" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="T13" s="346" t="s">
         <v>156</v>
@@ -4914,7 +4908,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="345" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D14" s="346" t="s">
         <v>93</v>
@@ -4926,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="348" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I14" s="349" t="s">
         <v>73</v>
@@ -4942,10 +4936,10 @@
         <v>6</v>
       </c>
       <c r="R14" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S14" s="348" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="T14" s="349" t="s">
         <v>156</v>
@@ -4967,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="348" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D15" s="349" t="s">
         <v>73</v>
@@ -4979,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="345" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="I15" s="346" t="s">
         <v>93</v>
@@ -4995,10 +4989,10 @@
         <v>6</v>
       </c>
       <c r="R15" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S15" s="348" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="T15" s="349" t="s">
         <v>73</v>
@@ -5026,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="348" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I16" s="348" t="s">
         <v>93</v>
@@ -5042,10 +5036,10 @@
         <v>6</v>
       </c>
       <c r="R16" s="344" t="s">
+        <v>316</v>
+      </c>
+      <c r="S16" s="348" t="s">
         <v>322</v>
-      </c>
-      <c r="S16" s="348" t="s">
-        <v>328</v>
       </c>
       <c r="T16" s="349" t="s">
         <v>73</v>
@@ -5073,7 +5067,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="348" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="I17" s="349" t="s">
         <v>73</v>
@@ -5089,10 +5083,10 @@
         <v>6</v>
       </c>
       <c r="R17" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S17" s="348" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="T17" s="349" t="s">
         <v>73</v>
@@ -5120,7 +5114,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="348" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I18" s="349" t="s">
         <v>156</v>
@@ -5136,10 +5130,10 @@
         <v>6</v>
       </c>
       <c r="R18" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S18" s="348" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="T18" s="349" t="s">
         <v>58</v>
@@ -5167,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="348" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I19" s="349" t="s">
         <v>88</v>
@@ -5183,10 +5177,10 @@
         <v>6</v>
       </c>
       <c r="R19" s="344" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S19" s="348" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="T19" s="349" t="s">
         <v>88</v>
@@ -5214,7 +5208,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="348" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I20" s="349" t="s">
         <v>156</v>
@@ -5230,10 +5224,10 @@
         <v>15</v>
       </c>
       <c r="R20" s="347" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="S20" s="348" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="T20" s="349" t="s">
         <v>156</v>
@@ -5261,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="345" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="I21" s="345" t="s">
         <v>156</v>
@@ -5277,10 +5271,10 @@
         <v>15</v>
       </c>
       <c r="R21" s="347" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="S21" s="348" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="T21" s="349" t="s">
         <v>58</v>
@@ -5316,10 +5310,10 @@
         <v>17</v>
       </c>
       <c r="R22" s="347" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="S22" s="348" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="T22" s="349" t="s">
         <v>58</v>
@@ -5528,7 +5522,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,7 +5575,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="E1" s="380">
         <v>43637</v>
@@ -5883,7 +5877,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.553571428571427</v>
+        <v>17.544642857142858</v>
       </c>
       <c r="D4" s="205" t="s">
         <v>54</v>
@@ -5893,7 +5887,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -6065,7 +6059,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.7410714285714288</v>
+        <v>8.7321428571428577</v>
       </c>
       <c r="D5" s="306" t="s">
         <v>62</v>
@@ -6075,7 +6069,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -6249,7 +6243,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.633928571428571</v>
+        <v>14.625</v>
       </c>
       <c r="D6" s="306" t="s">
         <v>59</v>
@@ -6259,7 +6253,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -6433,7 +6427,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8392857142857144</v>
+        <v>3.8303571428571428</v>
       </c>
       <c r="D7" s="204" t="s">
         <v>65</v>
@@ -6443,7 +6437,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="30">
@@ -6613,7 +6607,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2946428571428577</v>
+        <v>9.2857142857142865</v>
       </c>
       <c r="D8" s="194" t="s">
         <v>67</v>
@@ -6623,7 +6617,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="30">
@@ -6793,7 +6787,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2678571428571432</v>
+        <v>7.2589285714285712</v>
       </c>
       <c r="D9" s="251" t="s">
         <v>69</v>
@@ -6803,7 +6797,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="37">
@@ -6973,7 +6967,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0178571428571432</v>
+        <v>5.0089285714285712</v>
       </c>
       <c r="D10" s="251" t="s">
         <v>71</v>
@@ -6983,7 +6977,7 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="37">
@@ -7153,7 +7147,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.705357142857142</v>
+        <v>10.696428571428571</v>
       </c>
       <c r="D11" s="194" t="s">
         <v>74</v>
@@ -7163,7 +7157,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>75</v>
@@ -7335,7 +7329,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.044642857142858</v>
+        <v>14.035714285714286</v>
       </c>
       <c r="D12" s="204" t="s">
         <v>77</v>
@@ -7345,7 +7339,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="37">
@@ -7515,7 +7509,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.357142857142858</v>
+        <v>16.348214285714285</v>
       </c>
       <c r="D13" s="204" t="s">
         <v>79</v>
@@ -7525,7 +7519,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="37">
@@ -7695,7 +7689,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.803571428571429</v>
+        <v>12.794642857142858</v>
       </c>
       <c r="D14" s="204" t="s">
         <v>81</v>
@@ -7705,7 +7699,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="37">
@@ -7875,7 +7869,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.821428571428571</v>
+        <v>11.8125</v>
       </c>
       <c r="D15" s="204" t="s">
         <v>83</v>
@@ -7885,7 +7879,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="37">
@@ -8055,7 +8049,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7857142857142865</v>
+        <v>8.7767857142857135</v>
       </c>
       <c r="D16" s="204" t="s">
         <v>85</v>
@@ -8065,7 +8059,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>86</v>
@@ -8237,7 +8231,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.035714285714286</v>
+        <v>15.026785714285714</v>
       </c>
       <c r="D17" s="204" t="s">
         <v>89</v>
@@ -8247,7 +8241,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="37">
@@ -8417,7 +8411,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.196428571428571</v>
+        <v>13.1875</v>
       </c>
       <c r="D18" s="204" t="s">
         <v>91</v>
@@ -8427,7 +8421,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="37">
@@ -8597,7 +8591,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.785714285714285</v>
+        <v>17.776785714285715</v>
       </c>
       <c r="D19" s="204" t="s">
         <v>94</v>
@@ -8607,7 +8601,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="37">
@@ -8777,7 +8771,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8303571428571428</v>
+        <v>2.8214285714285716</v>
       </c>
       <c r="D20" s="204" t="s">
         <v>96</v>
@@ -8787,7 +8781,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="37">
@@ -8957,7 +8951,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8839285714285712</v>
+        <v>9.875</v>
       </c>
       <c r="D21" s="204" t="s">
         <v>98</v>
@@ -8967,7 +8961,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="37">
@@ -9751,7 +9745,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9766,9 +9760,7 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.140625" customWidth="1"/>
-    <col min="15" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.140625" customWidth="1"/>
     <col min="19" max="19" width="4" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.28515625" customWidth="1"/>
@@ -9888,7 +9880,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="111" t="s">
         <v>155</v>
@@ -9936,7 +9928,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="111" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="W3" s="111" t="s">
         <v>162</v>
@@ -9948,19 +9940,19 @@
         <v>161</v>
       </c>
       <c r="Z3" s="111" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AA3" s="111" t="s">
         <v>58</v>
       </c>
       <c r="AB3" s="111" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC3" s="111" t="s">
         <v>164</v>
       </c>
       <c r="AD3" s="111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE3" s="111" t="s">
         <v>165</v>
@@ -9969,7 +9961,7 @@
         <v>166</v>
       </c>
       <c r="AG3" s="111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH3" s="111" t="s">
         <v>167</v>
@@ -9981,24 +9973,24 @@
         <v>163</v>
       </c>
       <c r="AK3" s="319" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
-        <v>282</v>
+      <c r="A4" s="408" t="s">
+        <v>281</v>
       </c>
       <c r="B4" s="127">
         <v>16</v>
       </c>
       <c r="C4" s="128">
         <f ca="1">6+$A$30-$A$32</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="132"/>
       <c r="E4" s="195">
         <f ca="1">F4-TODAY()</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="203">
         <v>43757</v>
@@ -10006,7 +9998,9 @@
       <c r="G4" s="196"/>
       <c r="H4" s="325"/>
       <c r="I4" s="325"/>
-      <c r="J4" s="325"/>
+      <c r="J4" s="323">
+        <v>4</v>
+      </c>
       <c r="K4" s="326">
         <v>6.99</v>
       </c>
@@ -10052,305 +10046,303 @@
       <c r="AH4" s="330"/>
       <c r="AI4" s="330"/>
       <c r="AJ4" s="202" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AK4" s="313"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="305" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="127">
-        <v>15</v>
-      </c>
-      <c r="C5" s="128">
-        <f ca="1">3+$A$30-$A$32</f>
-        <v>22</v>
-      </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="195">
-        <f ca="1">F5-TODAY()</f>
-        <v>202</v>
-      </c>
-      <c r="F5" s="203">
-        <v>43858</v>
-      </c>
-      <c r="G5" s="196"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="323">
-        <v>1</v>
-      </c>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
-      <c r="N5" s="322"/>
-      <c r="O5" s="323">
-        <v>3.99</v>
-      </c>
-      <c r="P5" s="322"/>
-      <c r="Q5" s="324">
-        <v>5.99</v>
-      </c>
-      <c r="R5" s="322"/>
-      <c r="S5" s="322"/>
-      <c r="T5" s="322"/>
-      <c r="U5" s="322"/>
-      <c r="V5" s="197" t="s">
-        <v>174</v>
-      </c>
-      <c r="W5" s="200"/>
-      <c r="X5" s="200">
-        <f>COUNT(I5,K5,M5,O5,Q5,S5,U5)</f>
-        <v>2</v>
-      </c>
-      <c r="Y5" s="130">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="200">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="329"/>
-      <c r="AB5" s="329">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="330"/>
-      <c r="AD5" s="330"/>
-      <c r="AE5" s="330"/>
-      <c r="AF5" s="330"/>
-      <c r="AG5" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AH5" s="330">
-        <v>3</v>
-      </c>
-      <c r="AI5" s="330"/>
-      <c r="AJ5" s="202" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK5" s="312" t="s">
-        <v>93</v>
-      </c>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="382" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="382"/>
+      <c r="C5" s="382"/>
+      <c r="D5" s="382"/>
+      <c r="E5" s="382"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
+      <c r="AA5" s="115"/>
+      <c r="AB5" s="308"/>
+      <c r="AC5" s="115"/>
+      <c r="AD5" s="301"/>
+      <c r="AE5" s="115"/>
+      <c r="AF5" s="115"/>
+      <c r="AG5" s="301"/>
+      <c r="AH5" s="115"/>
+      <c r="AI5" s="115"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="314"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="382" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="382"/>
-      <c r="C6" s="382"/>
-      <c r="D6" s="382"/>
-      <c r="E6" s="382"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="116"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="116"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="116"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="308"/>
-      <c r="AC6" s="115"/>
-      <c r="AD6" s="301"/>
-      <c r="AE6" s="115"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="115"/>
-      <c r="AI6" s="115"/>
-      <c r="AJ6" s="117"/>
+      <c r="A6" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="118"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="118" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="118"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="119"/>
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="120"/>
       <c r="AK6" s="314"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="119"/>
-      <c r="W7" s="119"/>
-      <c r="X7" s="119"/>
-      <c r="Y7" s="119"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="119"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="119"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="119"/>
-      <c r="AF7" s="119"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="119"/>
-      <c r="AI7" s="119"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="314"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B7" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C7" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D7" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E7" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="118" t="str">
+      <c r="F7" s="118" t="str">
         <f>F3</f>
         <v>Fpromo</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G7" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="118" t="s">
+      <c r="H7" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="I8" s="118" t="s">
+      <c r="I7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="121" t="s">
+      <c r="J7" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="121" t="s">
+      <c r="K7" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="118" t="s">
+      <c r="L7" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="M8" s="118" t="s">
+      <c r="M7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="121" t="s">
+      <c r="N7" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="O8" s="121" t="s">
+      <c r="O7" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="118" t="s">
+      <c r="P7" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="Q8" s="118" t="s">
+      <c r="Q7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="121" t="s">
+      <c r="R7" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="S8" s="121" t="s">
+      <c r="S7" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="T8" s="118" t="s">
+      <c r="T7" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="U8" s="118" t="s">
+      <c r="U7" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="119" t="str">
+      <c r="V7" s="119" t="str">
         <f>V3</f>
         <v>U20</v>
       </c>
-      <c r="W8" s="119" t="str">
+      <c r="W7" s="119" t="str">
         <f>W3</f>
         <v>HTMS</v>
       </c>
-      <c r="X8" s="119" t="str">
+      <c r="X7" s="119" t="str">
         <f>X3</f>
         <v>Pot</v>
       </c>
-      <c r="Y8" s="119" t="str">
+      <c r="Y7" s="119" t="str">
         <f>Y3</f>
         <v>Cap</v>
       </c>
-      <c r="Z8" s="119" t="s">
+      <c r="Z7" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" s="119" t="s">
+      <c r="AA7" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="AB8" s="119" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC8" s="119" t="s">
+      <c r="AB7" s="119" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC7" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="AD8" s="119" t="s">
-        <v>284</v>
-      </c>
-      <c r="AE8" s="119" t="s">
+      <c r="AD7" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE7" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="AF8" s="119" t="s">
+      <c r="AF7" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="AG8" s="119" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH8" s="119" t="s">
+      <c r="AG7" s="119" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH7" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="AI8" s="119" t="s">
+      <c r="AI7" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="AJ8" s="120" t="str">
+      <c r="AJ7" s="120" t="str">
         <f>AJ3</f>
         <v>Ca</v>
       </c>
-      <c r="AK8" s="320" t="str">
+      <c r="AK7" s="320" t="str">
         <f>AK3</f>
         <v>Comentarios</v>
       </c>
     </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" s="136" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="127">
+        <v>16</v>
+      </c>
+      <c r="C8" s="128">
+        <f ca="1">67+$A$30-$A$32</f>
+        <v>87</v>
+      </c>
+      <c r="D8" s="129"/>
+      <c r="E8" s="195">
+        <f t="shared" ref="E8:E12" ca="1" si="1">F8-TODAY()</f>
+        <v>92</v>
+      </c>
+      <c r="F8" s="203">
+        <v>43749</v>
+      </c>
+      <c r="G8" s="196"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="325"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="323">
+        <v>2.99</v>
+      </c>
+      <c r="N8" s="325"/>
+      <c r="O8" s="323">
+        <v>2.99</v>
+      </c>
+      <c r="P8" s="325"/>
+      <c r="Q8" s="325"/>
+      <c r="R8" s="325"/>
+      <c r="S8" s="325"/>
+      <c r="T8" s="325"/>
+      <c r="U8" s="325"/>
+      <c r="V8" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200">
+        <f t="shared" ref="X8:X12" si="2">COUNT(I8,K8,M8,O8,Q8,S8,U8)</f>
+        <v>2</v>
+      </c>
+      <c r="Y8" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="329"/>
+      <c r="AB8" s="329">
+        <v>3.5</v>
+      </c>
+      <c r="AC8" s="330"/>
+      <c r="AD8" s="330"/>
+      <c r="AE8" s="330"/>
+      <c r="AF8" s="330"/>
+      <c r="AG8" s="330">
+        <v>4.5</v>
+      </c>
+      <c r="AH8" s="330">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="330"/>
+      <c r="AJ8" s="202" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK8" s="312" t="s">
+        <v>291</v>
+      </c>
+    </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="136" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="127">
         <v>16</v>
       </c>
       <c r="C9" s="128">
-        <f ca="1">67+$A$30-$A$32</f>
-        <v>86</v>
+        <f ca="1">40+$A$30-$A$32</f>
+        <v>60</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="195">
-        <f t="shared" ref="E9:E13" ca="1" si="1">F9-TODAY()</f>
-        <v>93</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="F9" s="203">
         <v>43749</v>
@@ -10361,9 +10353,7 @@
       <c r="J9" s="325"/>
       <c r="K9" s="325"/>
       <c r="L9" s="325"/>
-      <c r="M9" s="323">
-        <v>2.99</v>
-      </c>
+      <c r="M9" s="325"/>
       <c r="N9" s="325"/>
       <c r="O9" s="325"/>
       <c r="P9" s="325"/>
@@ -10377,8 +10367,8 @@
       </c>
       <c r="W9" s="200"/>
       <c r="X9" s="200">
-        <f t="shared" ref="X9:X13" si="2">COUNT(I9,K9,M9,O9,Q9,S9,U9)</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Y9" s="130">
         <v>0</v>
@@ -10386,49 +10376,55 @@
       <c r="Z9" s="200">
         <v>0</v>
       </c>
-      <c r="AA9" s="329"/>
+      <c r="AA9" s="329">
+        <v>2</v>
+      </c>
       <c r="AB9" s="329"/>
-      <c r="AC9" s="330"/>
-      <c r="AD9" s="330"/>
+      <c r="AC9" s="330">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="330">
+        <v>4.5</v>
+      </c>
       <c r="AE9" s="330"/>
-      <c r="AF9" s="330"/>
-      <c r="AG9" s="330">
-        <v>4.5</v>
-      </c>
-      <c r="AH9" s="330">
-        <v>3</v>
-      </c>
+      <c r="AF9" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AG9" s="330"/>
+      <c r="AH9" s="330"/>
       <c r="AI9" s="330"/>
       <c r="AJ9" s="202" t="s">
         <v>243</v>
       </c>
       <c r="AK9" s="312" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
-        <v>193</v>
+      <c r="A10" s="304" t="s">
+        <v>188</v>
       </c>
       <c r="B10" s="127">
         <v>16</v>
       </c>
       <c r="C10" s="128">
-        <f ca="1">40+$A$30-$A$32</f>
-        <v>59</v>
-      </c>
-      <c r="D10" s="129"/>
+        <f ca="1">-1+$A$30-$A$32</f>
+        <v>19</v>
+      </c>
+      <c r="D10" s="132"/>
       <c r="E10" s="195">
         <f t="shared" ca="1" si="1"/>
         <v>93</v>
       </c>
       <c r="F10" s="203">
-        <v>43749</v>
+        <v>43750</v>
       </c>
       <c r="G10" s="196"/>
       <c r="H10" s="325"/>
       <c r="I10" s="325"/>
-      <c r="J10" s="325"/>
+      <c r="J10" s="323">
+        <v>3</v>
+      </c>
       <c r="K10" s="325"/>
       <c r="L10" s="325"/>
       <c r="M10" s="325"/>
@@ -10440,10 +10436,10 @@
       <c r="S10" s="325"/>
       <c r="T10" s="325"/>
       <c r="U10" s="325"/>
-      <c r="V10" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="W10" s="200"/>
+      <c r="V10" s="199" t="s">
+        <v>189</v>
+      </c>
+      <c r="W10" s="201"/>
       <c r="X10" s="200">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -10455,57 +10451,61 @@
         <v>0</v>
       </c>
       <c r="AA10" s="329">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB10" s="329"/>
       <c r="AC10" s="330">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="330">
-        <v>4.5</v>
-      </c>
-      <c r="AE10" s="330"/>
+        <v>2.5</v>
+      </c>
+      <c r="AD10" s="330"/>
+      <c r="AE10" s="330">
+        <v>2.5</v>
+      </c>
       <c r="AF10" s="330"/>
       <c r="AG10" s="330"/>
-      <c r="AH10" s="330"/>
-      <c r="AI10" s="330"/>
+      <c r="AH10" s="330">
+        <v>3.5</v>
+      </c>
+      <c r="AI10" s="330">
+        <v>3</v>
+      </c>
       <c r="AJ10" s="202" t="s">
         <v>244</v>
       </c>
-      <c r="AK10" s="312" t="s">
-        <v>294</v>
-      </c>
+      <c r="AK10" s="313"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="304" t="s">
-        <v>188</v>
+      <c r="A11" s="409" t="s">
+        <v>287</v>
       </c>
       <c r="B11" s="127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="128">
-        <f ca="1">-1+$A$30-$A$32</f>
-        <v>18</v>
-      </c>
-      <c r="D11" s="132"/>
+        <f ca="1">67+$A$30-$A$32+14</f>
+        <v>101</v>
+      </c>
+      <c r="D11" s="129"/>
       <c r="E11" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F11" s="203">
-        <v>43750</v>
+        <v>43780</v>
       </c>
       <c r="G11" s="196"/>
       <c r="H11" s="325"/>
       <c r="I11" s="325"/>
-      <c r="J11" s="323">
+      <c r="J11" s="325"/>
+      <c r="K11" s="325"/>
+      <c r="L11" s="323">
         <v>3</v>
       </c>
-      <c r="K11" s="325"/>
-      <c r="L11" s="325"/>
       <c r="M11" s="325"/>
       <c r="N11" s="325"/>
-      <c r="O11" s="325"/>
+      <c r="O11" s="323">
+        <v>3.99</v>
+      </c>
       <c r="P11" s="325"/>
       <c r="Q11" s="325"/>
       <c r="R11" s="325"/>
@@ -10513,12 +10513,12 @@
       <c r="T11" s="325"/>
       <c r="U11" s="325"/>
       <c r="V11" s="199" t="s">
-        <v>189</v>
-      </c>
-      <c r="W11" s="201"/>
+        <v>185</v>
+      </c>
+      <c r="W11" s="200"/>
       <c r="X11" s="200">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" s="130">
         <v>0</v>
@@ -10526,70 +10526,62 @@
       <c r="Z11" s="200">
         <v>0</v>
       </c>
-      <c r="AA11" s="329">
-        <v>0.5</v>
-      </c>
-      <c r="AB11" s="329"/>
-      <c r="AC11" s="330">
-        <v>2.5</v>
-      </c>
+      <c r="AA11" s="329"/>
+      <c r="AB11" s="329">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="330"/>
       <c r="AD11" s="330"/>
       <c r="AE11" s="330"/>
       <c r="AF11" s="330"/>
-      <c r="AG11" s="330"/>
-      <c r="AH11" s="330">
+      <c r="AG11" s="330">
         <v>3.5</v>
       </c>
-      <c r="AI11" s="330">
-        <v>3</v>
-      </c>
+      <c r="AH11" s="330"/>
+      <c r="AI11" s="330"/>
       <c r="AJ11" s="202" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK11" s="313" t="s">
-        <v>88</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="AK11" s="312"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="127">
+      <c r="A12" s="305" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="133">
         <v>15</v>
       </c>
       <c r="C12" s="128">
-        <f ca="1">67+$A$30-$A$32+14</f>
-        <v>100</v>
+        <f ca="1">51+$A$30-$A$32</f>
+        <v>71</v>
       </c>
       <c r="D12" s="129"/>
       <c r="E12" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F12" s="203">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="G12" s="196"/>
       <c r="H12" s="325"/>
       <c r="I12" s="325"/>
       <c r="J12" s="325"/>
       <c r="K12" s="325"/>
-      <c r="L12" s="323">
-        <v>3</v>
-      </c>
-      <c r="M12" s="325"/>
+      <c r="L12" s="325"/>
+      <c r="M12" s="323">
+        <v>3.99</v>
+      </c>
       <c r="N12" s="325"/>
-      <c r="O12" s="323">
-        <v>3.99</v>
-      </c>
+      <c r="O12" s="325"/>
       <c r="P12" s="325"/>
       <c r="Q12" s="325"/>
       <c r="R12" s="325"/>
       <c r="S12" s="325"/>
       <c r="T12" s="325"/>
       <c r="U12" s="325"/>
-      <c r="V12" s="199" t="s">
-        <v>185</v>
+      <c r="V12" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W12" s="200"/>
       <c r="X12" s="200">
@@ -10602,91 +10594,105 @@
       <c r="Z12" s="200">
         <v>0</v>
       </c>
-      <c r="AA12" s="329"/>
+      <c r="AA12" s="329">
+        <v>1</v>
+      </c>
       <c r="AB12" s="329"/>
       <c r="AC12" s="330"/>
       <c r="AD12" s="330"/>
       <c r="AE12" s="330"/>
-      <c r="AF12" s="330"/>
+      <c r="AF12" s="330">
+        <v>2.5</v>
+      </c>
       <c r="AG12" s="330">
-        <v>3.5</v>
-      </c>
-      <c r="AH12" s="330"/>
+        <v>4</v>
+      </c>
+      <c r="AH12" s="330">
+        <v>2.5</v>
+      </c>
       <c r="AI12" s="330"/>
       <c r="AJ12" s="202" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK12" s="312"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="AK12" s="312" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="305" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="133">
+        <v>173</v>
+      </c>
+      <c r="B13" s="127">
         <v>15</v>
       </c>
       <c r="C13" s="128">
-        <f ca="1">51+$A$30-$A$32</f>
-        <v>70</v>
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>23</v>
       </c>
       <c r="D13" s="129"/>
       <c r="E13" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <f ca="1">F13-TODAY()</f>
+        <v>201</v>
       </c>
       <c r="F13" s="203">
-        <v>43810</v>
+        <v>43858</v>
       </c>
       <c r="G13" s="196"/>
-      <c r="H13" s="325"/>
-      <c r="I13" s="325"/>
-      <c r="J13" s="325"/>
-      <c r="K13" s="325"/>
-      <c r="L13" s="325"/>
-      <c r="M13" s="325"/>
-      <c r="N13" s="325"/>
-      <c r="O13" s="325"/>
-      <c r="P13" s="325"/>
-      <c r="Q13" s="325"/>
-      <c r="R13" s="325"/>
-      <c r="S13" s="325"/>
-      <c r="T13" s="325"/>
-      <c r="U13" s="325"/>
-      <c r="V13" s="198" t="s">
-        <v>180</v>
+      <c r="H13" s="322"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="323">
+        <v>1</v>
+      </c>
+      <c r="K13" s="322"/>
+      <c r="L13" s="322"/>
+      <c r="M13" s="322"/>
+      <c r="N13" s="322"/>
+      <c r="O13" s="323">
+        <v>3.99</v>
+      </c>
+      <c r="P13" s="322"/>
+      <c r="Q13" s="324">
+        <v>5.99</v>
+      </c>
+      <c r="R13" s="322"/>
+      <c r="S13" s="322"/>
+      <c r="T13" s="322"/>
+      <c r="U13" s="322"/>
+      <c r="V13" s="197" t="s">
+        <v>174</v>
       </c>
       <c r="W13" s="200"/>
       <c r="X13" s="200">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>COUNT(I13,K13,M13,O13,Q13,S13,U13)</f>
+        <v>2</v>
       </c>
       <c r="Y13" s="130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="329">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="329"/>
+      <c r="AB13" s="329">
         <v>1</v>
       </c>
-      <c r="AB13" s="329"/>
       <c r="AC13" s="330"/>
       <c r="AD13" s="330"/>
       <c r="AE13" s="330"/>
-      <c r="AF13" s="330">
+      <c r="AF13" s="330"/>
+      <c r="AG13" s="330">
         <v>2.5</v>
       </c>
-      <c r="AG13" s="330">
-        <v>4</v>
-      </c>
-      <c r="AH13" s="330"/>
-      <c r="AI13" s="330"/>
+      <c r="AH13" s="330">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="330">
+        <v>3</v>
+      </c>
       <c r="AJ13" s="202" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK13" s="312" t="s">
-        <v>296</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="AK13" s="312"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="383" t="s">
@@ -10789,7 +10795,7 @@
         <v>154</v>
       </c>
       <c r="F16" s="125" t="str">
-        <f>F8</f>
+        <f>F7</f>
         <v>Fpromo</v>
       </c>
       <c r="G16" s="126" t="s">
@@ -10838,19 +10844,19 @@
         <v>41</v>
       </c>
       <c r="V16" s="126" t="str">
-        <f>V8</f>
+        <f>V7</f>
         <v>U20</v>
       </c>
       <c r="W16" s="126" t="str">
-        <f>W8</f>
+        <f>W7</f>
         <v>HTMS</v>
       </c>
       <c r="X16" s="126" t="str">
-        <f>X8</f>
+        <f>X7</f>
         <v>Pot</v>
       </c>
       <c r="Y16" s="126" t="str">
-        <f>Y8</f>
+        <f>Y7</f>
         <v>Cap</v>
       </c>
       <c r="Z16" s="126" t="s">
@@ -10860,13 +10866,13 @@
         <v>58</v>
       </c>
       <c r="AB16" s="126" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC16" s="126" t="s">
         <v>164</v>
       </c>
       <c r="AD16" s="126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE16" s="126" t="s">
         <v>165</v>
@@ -10875,7 +10881,7 @@
         <v>166</v>
       </c>
       <c r="AG16" s="126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AH16" s="126" t="s">
         <v>167</v>
@@ -10884,33 +10890,27 @@
         <v>93</v>
       </c>
       <c r="AJ16" s="124" t="str">
-        <f>AJ8</f>
+        <f>AJ7</f>
         <v>Ca</v>
       </c>
       <c r="AK16" s="321" t="str">
-        <f>AK8</f>
+        <f>AK7</f>
         <v>Comentarios</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="305" t="s">
-        <v>175</v>
-      </c>
-      <c r="B17" s="133">
-        <v>15</v>
-      </c>
+      <c r="A17" s="135"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="128">
-        <f ca="1">11+$A$30-$A$32</f>
-        <v>30</v>
-      </c>
-      <c r="D17" s="129"/>
+        <f ca="1">103+$A$30-$A$32-112</f>
+        <v>11</v>
+      </c>
+      <c r="D17" s="134"/>
       <c r="E17" s="195">
         <f ca="1">F17-TODAY()</f>
-        <v>194</v>
-      </c>
-      <c r="F17" s="203">
-        <v>43850</v>
-      </c>
+        <v>-43657</v>
+      </c>
+      <c r="F17" s="203"/>
       <c r="G17" s="196"/>
       <c r="H17" s="325"/>
       <c r="I17" s="325"/>
@@ -10926,8 +10926,8 @@
       <c r="S17" s="325"/>
       <c r="T17" s="325"/>
       <c r="U17" s="325"/>
-      <c r="V17" s="197" t="s">
-        <v>176</v>
+      <c r="V17" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W17" s="200"/>
       <c r="X17" s="200">
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="200">
         <v>0</v>
@@ -10943,45 +10943,33 @@
       <c r="AA17" s="329"/>
       <c r="AB17" s="329"/>
       <c r="AC17" s="330"/>
-      <c r="AD17" s="330">
-        <v>3</v>
-      </c>
+      <c r="AD17" s="330"/>
       <c r="AE17" s="330"/>
       <c r="AF17" s="330"/>
       <c r="AG17" s="330"/>
-      <c r="AH17" s="330">
-        <v>3</v>
-      </c>
-      <c r="AI17" s="330">
-        <v>2</v>
-      </c>
-      <c r="AJ17" s="202" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK17" s="312" t="s">
-        <v>292</v>
-      </c>
+      <c r="AH17" s="330"/>
+      <c r="AI17" s="330"/>
+      <c r="AJ17" s="202"/>
+      <c r="AK17" s="312"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="305" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="133">
         <v>15</v>
       </c>
       <c r="C18" s="128">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>33</v>
-      </c>
-      <c r="D18" s="129" t="s">
-        <v>289</v>
-      </c>
+        <f ca="1">11+$A$30-$A$32</f>
+        <v>31</v>
+      </c>
+      <c r="D18" s="129"/>
       <c r="E18" s="195">
-        <f t="shared" ref="E18:E27" ca="1" si="3">F18-TODAY()</f>
-        <v>191</v>
+        <f ca="1">F18-TODAY()</f>
+        <v>193</v>
       </c>
       <c r="F18" s="203">
-        <v>43847</v>
+        <v>43850</v>
       </c>
       <c r="G18" s="196"/>
       <c r="H18" s="325"/>
@@ -10989,13 +10977,9 @@
       <c r="J18" s="325"/>
       <c r="K18" s="325"/>
       <c r="L18" s="325"/>
-      <c r="M18" s="323">
-        <v>2.99</v>
-      </c>
+      <c r="M18" s="325"/>
       <c r="N18" s="325"/>
-      <c r="O18" s="323">
-        <v>1.99</v>
-      </c>
+      <c r="O18" s="325"/>
       <c r="P18" s="325"/>
       <c r="Q18" s="325"/>
       <c r="R18" s="325"/>
@@ -11003,15 +10987,15 @@
       <c r="T18" s="325"/>
       <c r="U18" s="325"/>
       <c r="V18" s="197" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W18" s="200"/>
       <c r="X18" s="200">
-        <f>COUNT(I18,K18,M18,O18,M26,S18,U18)</f>
-        <v>2</v>
+        <f>COUNT(I18,K18,M18,O18,Q18,S18,U18)</f>
+        <v>0</v>
       </c>
       <c r="Y18" s="130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="200">
         <v>0</v>
@@ -11020,7 +11004,7 @@
       <c r="AB18" s="329"/>
       <c r="AC18" s="330"/>
       <c r="AD18" s="330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="330"/>
       <c r="AF18" s="330">
@@ -11028,61 +11012,65 @@
       </c>
       <c r="AG18" s="330"/>
       <c r="AH18" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AI18" s="330"/>
+        <v>3</v>
+      </c>
+      <c r="AI18" s="330">
+        <v>2</v>
+      </c>
       <c r="AJ18" s="202" t="s">
-        <v>343</v>
+        <v>244</v>
       </c>
       <c r="AK18" s="312" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="305" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="127">
+        <v>177</v>
+      </c>
+      <c r="B19" s="133">
         <v>15</v>
       </c>
       <c r="C19" s="128">
-        <f ca="1">33+$A$30-$A$32</f>
-        <v>52</v>
-      </c>
-      <c r="D19" s="134"/>
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>34</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>288</v>
+      </c>
       <c r="E19" s="195">
-        <f t="shared" ca="1" si="3"/>
-        <v>172</v>
+        <f t="shared" ref="E19:E27" ca="1" si="3">F19-TODAY()</f>
+        <v>190</v>
       </c>
       <c r="F19" s="203">
-        <v>43828</v>
+        <v>43847</v>
       </c>
       <c r="G19" s="196"/>
       <c r="H19" s="325"/>
       <c r="I19" s="325"/>
-      <c r="J19" s="328">
-        <v>2</v>
-      </c>
-      <c r="K19" s="328">
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="325"/>
+      <c r="M19" s="323">
         <v>2.99</v>
       </c>
-      <c r="L19" s="325"/>
-      <c r="M19" s="325"/>
       <c r="N19" s="325"/>
-      <c r="O19" s="325"/>
+      <c r="O19" s="323">
+        <v>1.99</v>
+      </c>
       <c r="P19" s="325"/>
       <c r="Q19" s="325"/>
       <c r="R19" s="325"/>
       <c r="S19" s="325"/>
       <c r="T19" s="325"/>
       <c r="U19" s="325"/>
-      <c r="V19" s="198" t="s">
-        <v>180</v>
+      <c r="V19" s="197" t="s">
+        <v>178</v>
       </c>
       <c r="W19" s="200"/>
       <c r="X19" s="200">
-        <f t="shared" ref="X19:X25" si="4">COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
-        <v>1</v>
+        <f>COUNT(I19,K19,M19,O19,M27,S19,U19)</f>
+        <v>2</v>
       </c>
       <c r="Y19" s="130">
         <v>0</v>
@@ -11090,7 +11078,9 @@
       <c r="Z19" s="200">
         <v>0</v>
       </c>
-      <c r="AA19" s="329"/>
+      <c r="AA19" s="329">
+        <v>0.5</v>
+      </c>
       <c r="AB19" s="329"/>
       <c r="AC19" s="330"/>
       <c r="AD19" s="330">
@@ -11102,40 +11092,46 @@
       </c>
       <c r="AG19" s="330"/>
       <c r="AH19" s="330">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AI19" s="330"/>
       <c r="AJ19" s="202" t="s">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c r="AK19" s="312" t="s">
-        <v>295</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="304" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="133">
+      <c r="A20" s="305" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="127">
         <v>15</v>
       </c>
       <c r="C20" s="128">
-        <f ca="1">70+$A$30-$A$32</f>
-        <v>89</v>
-      </c>
-      <c r="D20" s="134"/>
+        <f ca="1">33+$A$30-$A$32</f>
+        <v>53</v>
+      </c>
+      <c r="D20" s="134" t="s">
+        <v>86</v>
+      </c>
       <c r="E20" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="F20" s="203">
-        <v>43791</v>
+        <v>43828</v>
       </c>
       <c r="G20" s="196"/>
       <c r="H20" s="325"/>
       <c r="I20" s="325"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
+      <c r="J20" s="328">
+        <v>2</v>
+      </c>
+      <c r="K20" s="328">
+        <v>2.99</v>
+      </c>
       <c r="L20" s="325"/>
       <c r="M20" s="325"/>
       <c r="N20" s="325"/>
@@ -11146,13 +11142,13 @@
       <c r="S20" s="325"/>
       <c r="T20" s="325"/>
       <c r="U20" s="325"/>
-      <c r="V20" s="199" t="s">
-        <v>183</v>
+      <c r="V20" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W20" s="200"/>
       <c r="X20" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="X20:X26" si="4">COUNT(I20,K20,M20,O20,Q20,S20,U20)</f>
+        <v>1</v>
       </c>
       <c r="Y20" s="130">
         <v>0</v>
@@ -11163,57 +11159,59 @@
       <c r="AA20" s="329"/>
       <c r="AB20" s="329"/>
       <c r="AC20" s="330"/>
-      <c r="AD20" s="330"/>
+      <c r="AD20" s="330">
+        <v>2</v>
+      </c>
       <c r="AE20" s="330"/>
       <c r="AF20" s="330">
         <v>2.5</v>
       </c>
-      <c r="AG20" s="330">
-        <v>3</v>
-      </c>
-      <c r="AH20" s="330"/>
+      <c r="AG20" s="330"/>
+      <c r="AH20" s="330">
+        <v>2</v>
+      </c>
       <c r="AI20" s="330">
         <v>3</v>
       </c>
       <c r="AJ20" s="202" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK20" s="312" t="s">
-        <v>297</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="304" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B21" s="133">
         <v>15</v>
       </c>
       <c r="C21" s="128">
-        <f ca="1">76+$A$30-$A$32</f>
-        <v>95</v>
+        <f ca="1">70+$A$30-$A$32</f>
+        <v>90</v>
       </c>
       <c r="D21" s="134"/>
       <c r="E21" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F21" s="203">
-        <v>43785</v>
+        <v>43791</v>
       </c>
       <c r="G21" s="196"/>
       <c r="H21" s="325"/>
       <c r="I21" s="325"/>
       <c r="J21" s="325"/>
       <c r="K21" s="325"/>
-      <c r="L21" s="328">
-        <v>2</v>
-      </c>
-      <c r="M21" s="328">
-        <v>2.99</v>
-      </c>
-      <c r="N21" s="325"/>
-      <c r="O21" s="325"/>
+      <c r="L21" s="325"/>
+      <c r="M21" s="325"/>
+      <c r="N21" s="328">
+        <v>1</v>
+      </c>
+      <c r="O21" s="328">
+        <v>1.99</v>
+      </c>
       <c r="P21" s="325"/>
       <c r="Q21" s="325"/>
       <c r="R21" s="325"/>
@@ -11221,7 +11219,7 @@
       <c r="T21" s="325"/>
       <c r="U21" s="325"/>
       <c r="V21" s="199" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W21" s="200"/>
       <c r="X21" s="200">
@@ -11237,47 +11235,57 @@
       <c r="AA21" s="329"/>
       <c r="AB21" s="329"/>
       <c r="AC21" s="330"/>
-      <c r="AD21" s="330"/>
+      <c r="AD21" s="330">
+        <v>3.5</v>
+      </c>
       <c r="AE21" s="330"/>
-      <c r="AF21" s="330"/>
-      <c r="AG21" s="330"/>
+      <c r="AF21" s="330">
+        <v>2.5</v>
+      </c>
+      <c r="AG21" s="330">
+        <v>3</v>
+      </c>
       <c r="AH21" s="330"/>
       <c r="AI21" s="330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ21" s="202" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK21" s="312" t="s">
-        <v>298</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="304" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="128">
-        <f ca="1">96+$A$30-$A$32-112</f>
-        <v>3</v>
+        <f ca="1">76+$A$30-$A$32</f>
+        <v>96</v>
       </c>
       <c r="D22" s="134"/>
       <c r="E22" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="F22" s="203">
-        <v>43765</v>
+        <v>43785</v>
       </c>
       <c r="G22" s="196"/>
       <c r="H22" s="325"/>
       <c r="I22" s="325"/>
       <c r="J22" s="325"/>
       <c r="K22" s="325"/>
-      <c r="L22" s="325"/>
-      <c r="M22" s="325"/>
+      <c r="L22" s="328">
+        <v>2</v>
+      </c>
+      <c r="M22" s="328">
+        <v>2.99</v>
+      </c>
       <c r="N22" s="325"/>
       <c r="O22" s="325"/>
       <c r="P22" s="325"/>
@@ -11286,13 +11294,13 @@
       <c r="S22" s="325"/>
       <c r="T22" s="325"/>
       <c r="U22" s="325"/>
-      <c r="V22" s="198" t="s">
-        <v>187</v>
+      <c r="V22" s="199" t="s">
+        <v>185</v>
       </c>
       <c r="W22" s="200"/>
       <c r="X22" s="200">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="130">
         <v>0</v>
@@ -11301,76 +11309,66 @@
         <v>0</v>
       </c>
       <c r="AA22" s="329"/>
-      <c r="AB22" s="329"/>
+      <c r="AB22" s="329">
+        <v>3.5</v>
+      </c>
       <c r="AC22" s="330"/>
-      <c r="AD22" s="330">
-        <v>2.5</v>
-      </c>
+      <c r="AD22" s="330"/>
       <c r="AE22" s="330"/>
-      <c r="AF22" s="330">
-        <v>1.5</v>
-      </c>
+      <c r="AF22" s="330"/>
       <c r="AG22" s="330"/>
       <c r="AH22" s="330"/>
       <c r="AI22" s="330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ22" s="202" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AK22" s="312" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="127">
+      <c r="A23" s="304" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="133">
         <v>16</v>
       </c>
       <c r="C23" s="128">
-        <f ca="1">22+$A$30-$A$32</f>
-        <v>41</v>
-      </c>
-      <c r="D23" s="129"/>
+        <f ca="1">96+$A$30-$A$32-112</f>
+        <v>4</v>
+      </c>
+      <c r="D23" s="134"/>
       <c r="E23" s="195">
-        <f ca="1">F23-TODAY()</f>
-        <v>94</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>108</v>
       </c>
       <c r="F23" s="203">
-        <v>43750</v>
-      </c>
-      <c r="G23" s="196" t="s">
-        <v>192</v>
-      </c>
+        <v>43765</v>
+      </c>
+      <c r="G23" s="196"/>
       <c r="H23" s="325"/>
       <c r="I23" s="325"/>
       <c r="J23" s="325"/>
-      <c r="K23" s="323">
-        <v>3.99</v>
-      </c>
-      <c r="L23" s="323">
-        <v>1</v>
-      </c>
+      <c r="K23" s="325"/>
+      <c r="L23" s="325"/>
       <c r="M23" s="325"/>
       <c r="N23" s="325"/>
       <c r="O23" s="325"/>
-      <c r="P23" s="323">
-        <v>2</v>
-      </c>
+      <c r="P23" s="325"/>
       <c r="Q23" s="325"/>
       <c r="R23" s="325"/>
       <c r="S23" s="325"/>
       <c r="T23" s="325"/>
       <c r="U23" s="325"/>
       <c r="V23" s="198" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="W23" s="200"/>
       <c r="X23" s="200">
-        <f>COUNT(I23,K23,M23,O23,Q23,S23,U23)</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y23" s="130">
         <v>0</v>
@@ -11381,54 +11379,62 @@
       <c r="AA23" s="329"/>
       <c r="AB23" s="329"/>
       <c r="AC23" s="330"/>
-      <c r="AD23" s="330"/>
-      <c r="AE23" s="330">
+      <c r="AD23" s="330">
         <v>2.5</v>
       </c>
+      <c r="AE23" s="330"/>
       <c r="AF23" s="330">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="AG23" s="330"/>
       <c r="AH23" s="330"/>
       <c r="AI23" s="330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ23" s="202" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK23" s="312" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="135" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="133">
+      <c r="A24" s="408" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="127">
         <v>16</v>
       </c>
       <c r="C24" s="128">
-        <f ca="1">29+$A$30-$A$32</f>
-        <v>48</v>
+        <f ca="1">22+$A$30-$A$32</f>
+        <v>42</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="195">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">F24-TODAY()</f>
         <v>93</v>
       </c>
       <c r="F24" s="203">
-        <v>43749</v>
-      </c>
-      <c r="G24" s="196"/>
+        <v>43750</v>
+      </c>
+      <c r="G24" s="196" t="s">
+        <v>192</v>
+      </c>
       <c r="H24" s="325"/>
       <c r="I24" s="325"/>
       <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="325"/>
+      <c r="K24" s="323">
+        <v>3.99</v>
+      </c>
+      <c r="L24" s="323">
+        <v>1</v>
+      </c>
       <c r="M24" s="325"/>
       <c r="N24" s="325"/>
       <c r="O24" s="325"/>
-      <c r="P24" s="325"/>
+      <c r="P24" s="323">
+        <v>2</v>
+      </c>
       <c r="Q24" s="325"/>
       <c r="R24" s="325"/>
       <c r="S24" s="325"/>
@@ -11439,8 +11445,8 @@
       </c>
       <c r="W24" s="200"/>
       <c r="X24" s="200">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>COUNT(I24,K24,M24,O24,Q24,S24,U24)</f>
+        <v>1</v>
       </c>
       <c r="Y24" s="130">
         <v>0</v>
@@ -11448,41 +11454,43 @@
       <c r="Z24" s="200">
         <v>0</v>
       </c>
-      <c r="AA24" s="329">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="329"/>
       <c r="AB24" s="329"/>
       <c r="AC24" s="330"/>
       <c r="AD24" s="330"/>
-      <c r="AE24" s="330"/>
+      <c r="AE24" s="330">
+        <v>2.5</v>
+      </c>
       <c r="AF24" s="330">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AG24" s="330"/>
       <c r="AH24" s="330"/>
-      <c r="AI24" s="330"/>
+      <c r="AI24" s="330">
+        <v>2</v>
+      </c>
       <c r="AJ24" s="202" t="s">
         <v>243</v>
       </c>
       <c r="AK24" s="312" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
-        <v>194</v>
-      </c>
-      <c r="B25" s="127">
+      <c r="A25" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="133">
         <v>16</v>
       </c>
       <c r="C25" s="128">
-        <f ca="1">66+$A$30-$A$32</f>
-        <v>85</v>
+        <f ca="1">29+$A$30-$A$32</f>
+        <v>49</v>
       </c>
       <c r="D25" s="129"/>
       <c r="E25" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="203">
         <v>43749</v>
@@ -11496,12 +11504,8 @@
       <c r="M25" s="325"/>
       <c r="N25" s="325"/>
       <c r="O25" s="325"/>
-      <c r="P25" s="328">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="328">
-        <v>2.99</v>
-      </c>
+      <c r="P25" s="325"/>
+      <c r="Q25" s="325"/>
       <c r="R25" s="325"/>
       <c r="S25" s="325"/>
       <c r="T25" s="325"/>
@@ -11512,49 +11516,49 @@
       <c r="W25" s="200"/>
       <c r="X25" s="200">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="329">
         <v>1</v>
       </c>
-      <c r="Y25" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="329"/>
       <c r="AB25" s="329"/>
       <c r="AC25" s="330"/>
       <c r="AD25" s="330"/>
       <c r="AE25" s="330"/>
       <c r="AF25" s="330">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AG25" s="330"/>
-      <c r="AH25" s="330">
-        <v>2</v>
-      </c>
+      <c r="AH25" s="330"/>
       <c r="AI25" s="330"/>
       <c r="AJ25" s="202" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AK25" s="312" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="135" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="133">
+      <c r="A26" s="136" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="127">
         <v>16</v>
       </c>
       <c r="C26" s="128">
-        <f ca="1">71+$A$30-$A$32</f>
-        <v>90</v>
-      </c>
-      <c r="D26" s="134"/>
+        <f ca="1">66+$A$30-$A$32</f>
+        <v>86</v>
+      </c>
+      <c r="D26" s="129"/>
       <c r="E26" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="203">
         <v>43749</v>
@@ -11568,8 +11572,12 @@
       <c r="M26" s="325"/>
       <c r="N26" s="325"/>
       <c r="O26" s="325"/>
-      <c r="P26" s="325"/>
-      <c r="Q26" s="325"/>
+      <c r="P26" s="328">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="328">
+        <v>2.99</v>
+      </c>
       <c r="R26" s="325"/>
       <c r="S26" s="325"/>
       <c r="T26" s="325"/>
@@ -11579,8 +11587,8 @@
       </c>
       <c r="W26" s="200"/>
       <c r="X26" s="200">
-        <f>COUNT(I26,K26,#REF!,O26,Q26,S26,U26)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="Y26" s="130">
         <v>0</v>
@@ -11591,36 +11599,40 @@
       <c r="AA26" s="329"/>
       <c r="AB26" s="329"/>
       <c r="AC26" s="330"/>
-      <c r="AD26" s="330"/>
+      <c r="AD26" s="330">
+        <v>1</v>
+      </c>
       <c r="AE26" s="330"/>
-      <c r="AF26" s="330"/>
+      <c r="AF26" s="330">
+        <v>3.5</v>
+      </c>
       <c r="AG26" s="330"/>
       <c r="AH26" s="330">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="AI26" s="330"/>
       <c r="AJ26" s="202" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK26" s="312" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="135" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="133">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="128">
-        <f ca="1">103+$A$30-$A$32-112</f>
-        <v>10</v>
+        <f ca="1">71+$A$30-$A$32</f>
+        <v>91</v>
       </c>
       <c r="D27" s="134"/>
       <c r="E27" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="203">
         <v>43749</v>
@@ -11645,7 +11657,7 @@
       </c>
       <c r="W27" s="200"/>
       <c r="X27" s="200">
-        <f>COUNT(I27,K27,M27,O27,Q27,S27,U27)</f>
+        <f>COUNT(I27,K27,#REF!,O27,Q27,S27,U27)</f>
         <v>0</v>
       </c>
       <c r="Y27" s="130">
@@ -11661,13 +11673,15 @@
       <c r="AE27" s="330"/>
       <c r="AF27" s="330"/>
       <c r="AG27" s="330"/>
-      <c r="AH27" s="330"/>
+      <c r="AH27" s="330">
+        <v>3.5</v>
+      </c>
       <c r="AI27" s="330"/>
       <c r="AJ27" s="202" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AK27" s="312" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -11704,7 +11718,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="139"/>
       <c r="C29" s="139"/>
@@ -11739,14 +11753,14 @@
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="142">
         <f ca="1">TODAY()</f>
-        <v>43656</v>
+        <v>43657</v>
       </c>
       <c r="B30" s="143"/>
       <c r="C30" s="139"/>
       <c r="D30" s="139"/>
       <c r="E30" s="140"/>
       <c r="F30" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G30" s="8"/>
       <c r="I30" s="139"/>
@@ -11775,14 +11789,14 @@
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <f ca="1">A32-A30</f>
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133"/>
       <c r="F31" s="303" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G31" s="132"/>
       <c r="I31" s="139"/>
@@ -11878,16 +11892,16 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="F34" s="132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A14:E14"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E5 E9:E13 E17:E27">
+  <conditionalFormatting sqref="E4 E8:E13 E17:E27">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>15</formula>
     </cfRule>
@@ -11899,8 +11913,8 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA17:AI27 AA4:AI5 AA9:AI13">
-    <cfRule type="colorScale" priority="144">
+  <conditionalFormatting sqref="AA17:AI27 AA4:AI4 AA8:AI13">
+    <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11911,8 +11925,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X27 X4:X5 X9:X13">
-    <cfRule type="colorScale" priority="148">
+  <conditionalFormatting sqref="X17:X27 X4 X8:X13">
+    <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11943,17 +11957,17 @@
   <sheetData>
     <row r="1" spans="1:1" s="375" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="375" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -11999,14 +12013,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="384" t="s">
-        <v>274</v>
-      </c>
-      <c r="E1" s="385"/>
-      <c r="F1" s="385"/>
-      <c r="G1" s="385"/>
-      <c r="H1" s="385"/>
-      <c r="I1" s="386"/>
+      <c r="D1" s="392" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="393"/>
+      <c r="H1" s="393"/>
+      <c r="I1" s="394"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -12086,14 +12100,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="387" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="388"/>
-      <c r="F2" s="388"/>
-      <c r="G2" s="388"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="389"/>
+      <c r="D2" s="395" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="396"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="396"/>
+      <c r="H2" s="396"/>
+      <c r="I2" s="397"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -12158,15 +12172,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="390" t="s">
+      <c r="D3" s="398" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="399"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="400" t="s">
         <v>249</v>
       </c>
-      <c r="E3" s="391"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="392" t="s">
-        <v>250</v>
-      </c>
-      <c r="H3" s="393"/>
+      <c r="H3" s="401"/>
       <c r="I3" s="207"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -12254,7 +12268,7 @@
       <c r="H4" s="234"/>
       <c r="I4" s="210"/>
       <c r="K4" s="255" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L4" s="255"/>
       <c r="M4" s="256">
@@ -12338,7 +12352,7 @@
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
       <c r="D5" s="211" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" s="212">
         <f>SUM(E6:E8)</f>
@@ -12349,7 +12363,7 @@
         <v>0.10987467448819101</v>
       </c>
       <c r="G5" s="211" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H5" s="259">
         <f>H6+H7</f>
@@ -12460,7 +12474,7 @@
         <v>2.710673214174603E-2</v>
       </c>
       <c r="G6" s="216" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H6" s="261">
         <v>300000</v>
@@ -12558,7 +12572,7 @@
         <v>8.2767942346444981E-2</v>
       </c>
       <c r="G7" s="216" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H7" s="261">
         <v>0</v>
@@ -12656,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="217" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" s="218">
         <v>0</v>
@@ -12823,7 +12837,7 @@
         <v>8.4951072043915072E-3</v>
       </c>
       <c r="D10" s="211" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="212">
         <f>E11+E12+E13</f>
@@ -12834,7 +12848,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="211" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H10" s="259">
         <f>SUM(H11:H16)</f>
@@ -12933,7 +12947,7 @@
         <v>5.5604338065108044E-3</v>
       </c>
       <c r="D11" s="222" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" s="223">
         <f>N4</f>
@@ -12944,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="231" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H11" s="265">
         <v>0</v>
@@ -12953,7 +12967,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="395" t="s">
+      <c r="K11" s="402" t="s">
         <v>124</v>
       </c>
       <c r="L11" s="244" t="s">
@@ -13054,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="266" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H12" s="267">
         <v>0</v>
@@ -13063,7 +13077,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="396"/>
+      <c r="K12" s="403"/>
       <c r="L12" s="244" t="s">
         <v>126</v>
       </c>
@@ -13149,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="231" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H13" s="265">
         <v>0</v>
@@ -13159,9 +13173,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="270"/>
-      <c r="K13" s="397"/>
+      <c r="K13" s="404"/>
       <c r="L13" s="244" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M13" s="263">
         <f t="shared" si="6"/>
@@ -13251,7 +13265,7 @@
       <c r="D14" s="219"/>
       <c r="E14" s="272"/>
       <c r="G14" s="231" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H14" s="265">
         <v>0</v>
@@ -13342,11 +13356,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="402">
+      <c r="A15" s="389">
         <f>M14</f>
         <v>2589726</v>
       </c>
-      <c r="B15" s="402"/>
+      <c r="B15" s="389"/>
       <c r="D15" s="211" t="s">
         <v>141</v>
       </c>
@@ -13359,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="231" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H15" s="265">
         <v>0</v>
@@ -13450,7 +13464,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D16" s="222" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E16" s="223">
         <v>0</v>
@@ -13460,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="274" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H16" s="275">
         <f>E29-H26</f>
@@ -13631,7 +13645,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D18" s="222" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" s="223">
         <v>0</v>
@@ -13641,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="211" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H18" s="279">
         <f>H19</f>
@@ -13734,7 +13748,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D19" s="222" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E19" s="223">
         <v>0</v>
@@ -13907,7 +13921,7 @@
       <c r="G21" s="224"/>
       <c r="H21" s="281"/>
       <c r="I21" s="282"/>
-      <c r="K21" s="398" t="s">
+      <c r="K21" s="385" t="s">
         <v>124</v>
       </c>
       <c r="L21" s="246" t="s">
@@ -13985,7 +13999,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="211" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H22" s="259">
         <f>SUM(H23:H24)</f>
@@ -13995,7 +14009,7 @@
         <f>H22/$H$35</f>
         <v>0.10987467448819101</v>
       </c>
-      <c r="K22" s="399"/>
+      <c r="K22" s="386"/>
       <c r="L22" s="246" t="s">
         <v>137</v>
       </c>
@@ -14074,9 +14088,9 @@
         <f>H23/$H$35</f>
         <v>2.710673214174603E-2</v>
       </c>
-      <c r="K23" s="400"/>
+      <c r="K23" s="387"/>
       <c r="L23" s="246" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M23" s="86">
         <f t="shared" si="13"/>
@@ -14148,7 +14162,7 @@
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="211" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E24" s="212">
         <f>E25+E26-E27</f>
@@ -14246,7 +14260,7 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="231" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="232">
         <f>N5</f>
@@ -14363,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="211" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H26" s="259">
         <f>SUM(H27:H32)</f>
@@ -14477,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="228" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H27" s="283">
         <f>M15</f>
@@ -14619,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E29" s="212">
         <f>SUM(E30:E34)</f>
@@ -14704,7 +14718,7 @@
         <v>0.11089117694350649</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="401" t="s">
+      <c r="L30" s="388" t="s">
         <v>142</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -14769,7 +14783,7 @@
         <v>2.1562173294570708E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="401"/>
+      <c r="L31" s="388"/>
       <c r="M31" s="98" t="s">
         <v>143</v>
       </c>
@@ -14832,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="401"/>
+      <c r="L32" s="388"/>
       <c r="M32" s="98" t="s">
         <v>144</v>
       </c>
@@ -14884,7 +14898,7 @@
       <c r="H33" s="281"/>
       <c r="I33" s="282"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="401"/>
+      <c r="L33" s="388"/>
       <c r="M33" s="98" t="s">
         <v>145</v>
       </c>
@@ -14933,7 +14947,7 @@
       <c r="H34" s="288"/>
       <c r="I34" s="289"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="401"/>
+      <c r="L34" s="388"/>
       <c r="M34" s="98" t="s">
         <v>146</v>
       </c>
@@ -14941,13 +14955,13 @@
         <v>147</v>
       </c>
       <c r="O34" s="99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P34" s="99" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Q34" s="99" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="R34" s="99"/>
       <c r="S34" s="99"/>
@@ -14965,13 +14979,13 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="403">
+      <c r="A35" s="390">
         <f>M25</f>
         <v>1965190</v>
       </c>
-      <c r="B35" s="403"/>
+      <c r="B35" s="390"/>
       <c r="D35" s="290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E35" s="291">
         <f>E29+E21+E15+E5+E10+E24</f>
@@ -14982,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="290" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H35" s="291">
         <f>H26+H18+H10+H5+H22</f>
@@ -14993,7 +15007,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="401"/>
+      <c r="L35" s="388"/>
       <c r="M35" s="98" t="s">
         <v>148</v>
       </c>
@@ -15034,7 +15048,7 @@
       </c>
       <c r="I36" s="206"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="401"/>
+      <c r="L36" s="388"/>
       <c r="M36" s="98" t="s">
         <v>149</v>
       </c>
@@ -15071,7 +15085,7 @@
       <c r="H37" s="206"/>
       <c r="I37" s="206"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="401"/>
+      <c r="L37" s="388"/>
       <c r="M37" s="98" t="s">
         <v>150</v>
       </c>
@@ -15198,10 +15212,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="404"/>
-      <c r="R39" s="404"/>
-      <c r="S39" s="404"/>
-      <c r="T39" s="404"/>
+      <c r="Q39" s="391"/>
+      <c r="R39" s="391"/>
+      <c r="S39" s="391"/>
+      <c r="T39" s="391"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="206"/>
@@ -15253,10 +15267,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="394"/>
-      <c r="R42" s="394"/>
-      <c r="S42" s="394"/>
-      <c r="T42" s="394"/>
+      <c r="Q42" s="384"/>
+      <c r="R42" s="384"/>
+      <c r="S42" s="384"/>
+      <c r="T42" s="384"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -15277,10 +15291,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="394"/>
-      <c r="R44" s="394"/>
-      <c r="S44" s="394"/>
-      <c r="T44" s="394"/>
+      <c r="Q44" s="384"/>
+      <c r="R44" s="384"/>
+      <c r="S44" s="384"/>
+      <c r="T44" s="384"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -15289,9 +15303,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="394"/>
-      <c r="R45" s="394"/>
-      <c r="S45" s="394"/>
+      <c r="Q45" s="384"/>
+      <c r="R45" s="384"/>
+      <c r="S45" s="384"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -15548,6 +15562,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
@@ -15556,12 +15576,6 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
@@ -15620,44 +15634,44 @@
   <sheetData>
     <row r="1" spans="1:35" ht="32.25" x14ac:dyDescent="0.25">
       <c r="M1" s="149" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="149" t="s">
+      <c r="O1" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="149" t="s">
+      <c r="P1" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="149" t="s">
+      <c r="Q1" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="R1" s="149" t="s">
         <v>205</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="S1" s="149" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="U1" s="149" t="s">
         <v>207</v>
-      </c>
-      <c r="U1" s="149" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" s="150" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="405" t="s">
         <v>209</v>
-      </c>
-      <c r="D2" s="405" t="s">
-        <v>210</v>
       </c>
       <c r="E2" s="405"/>
       <c r="F2" s="406" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="406"/>
       <c r="H2" s="407" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I2" s="407"/>
       <c r="K2" s="60"/>
@@ -15686,7 +15700,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="156">
         <f>B4+B5+B6+B7</f>
@@ -15697,28 +15711,28 @@
         <v>12400</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="158" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="158" t="s">
+      <c r="J3" s="25" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>219</v>
       </c>
       <c r="M3" s="151">
         <v>10</v>
@@ -15745,7 +15759,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="156">
         <v>8000</v>
@@ -15811,7 +15825,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="155" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B5" s="156">
         <v>3000</v>
@@ -15877,7 +15891,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="156">
         <v>1000</v>
@@ -15943,7 +15957,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" s="156">
         <v>0</v>
@@ -16128,7 +16142,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="175" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" s="176">
         <v>10000</v>
@@ -16173,7 +16187,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="175" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" s="177">
         <f>E7+E6+E5+E4</f>
@@ -16215,7 +16229,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="178" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="179">
         <f>B11+B12</f>
@@ -16348,7 +16362,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="181" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" s="182">
         <v>100</v>
@@ -16597,7 +16611,7 @@
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="184">
         <f t="shared" ref="B18:AD18" si="3">B16*$N$5</f>
@@ -16736,7 +16750,7 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="183" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" s="184">
         <f t="shared" ref="B19:AD19" si="4">B16*$O$5</f>
@@ -16862,7 +16876,7 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="183" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B20" s="184">
         <f t="shared" ref="B20:AD20" si="5">B16*$P$5</f>
@@ -16988,7 +17002,7 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="183" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="184">
         <f t="shared" ref="B21:AD21" si="6">B16*$Q$5</f>
@@ -17114,7 +17128,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="183" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="184">
         <f t="shared" ref="B22:AD22" si="7">MIN(B$18,$C$4)</f>
@@ -17240,7 +17254,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="183" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="184">
         <f t="shared" ref="B23:AD23" si="8">MIN(B$19,$C$5)</f>
@@ -17366,7 +17380,7 @@
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="183" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B24" s="184">
         <f t="shared" ref="B24:AD24" si="9">MIN(B$20,$C$6)</f>
@@ -17492,7 +17506,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="183" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="184">
         <f t="shared" ref="B25:AD25" si="10">MIN(B$21,$C$7)</f>
@@ -17618,7 +17632,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="185" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="186">
         <f>IF(B22&gt;$B$4,(B22-$B$4)*$H$4,0)</f>
@@ -17749,7 +17763,7 @@
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="185" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="186">
         <f>IF(B23&gt;$B$5,(B23-$B$5)*$H$5,0)</f>
@@ -17880,7 +17894,7 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="185" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="186">
         <f>IF(B24&gt;$B$6,(B24-$B$6)*$H$6,0)</f>
@@ -18011,7 +18025,7 @@
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="185" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B29" s="186">
         <f>IF(B25&gt;$B$7,(B25-$B$7)*$H$7,0)</f>
@@ -18153,7 +18167,7 @@
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="188" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="189">
         <f>G4+G5+G6+G7</f>
@@ -18292,7 +18306,7 @@
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="190" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="191">
         <f t="shared" ref="B31:AD31" si="12">B26+B27+B28+B29-B30</f>
@@ -18431,7 +18445,7 @@
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="193" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="191">
         <f>-B12-B11+B31</f>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB428868-4795-4F14-A53F-EA5CCDD42B38}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF808B7-9833-4BDC-8ACD-FAE8CD75931B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall_of_Fame" sheetId="6" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="348">
   <si>
     <t>Nfin</t>
   </si>
@@ -766,9 +766,6 @@
     <t>FF-3</t>
   </si>
   <si>
-    <t>G. llatcha</t>
-  </si>
-  <si>
     <t>A. Valldeoriola</t>
   </si>
   <si>
@@ -1072,9 +1069,6 @@
     <t>POR/DEF/DAV</t>
   </si>
   <si>
-    <t>POR/DAV</t>
-  </si>
-  <si>
     <t>DEF/DAV</t>
   </si>
   <si>
@@ -1219,9 +1213,6 @@
     <t>O. Lluch</t>
   </si>
   <si>
-    <t>POR/DEF/EXT</t>
-  </si>
-  <si>
     <t>FF+2</t>
   </si>
   <si>
@@ -1232,6 +1223,27 @@
   </si>
   <si>
     <t>23(111)</t>
+  </si>
+  <si>
+    <t>I. Velayo</t>
+  </si>
+  <si>
+    <t>ns/nc</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>POR/EXT/MED/DAV</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>POR/DEF</t>
+  </si>
+  <si>
+    <t>24(6)</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2270,7 @@
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2982,9 +2994,6 @@
     <xf numFmtId="2" fontId="5" fillId="47" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="35" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3088,6 +3097,21 @@
     <xf numFmtId="0" fontId="13" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="13" fillId="50" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3112,9 +3136,48 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3136,45 +3199,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3184,11 +3208,8 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="50" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="54" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4284,7 +4305,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,193 +4340,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="379" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="379"/>
-      <c r="C1" s="379"/>
-      <c r="E1" s="378" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="378"/>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
+      <c r="A1" s="383" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="E1" s="382" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="380">
+      <c r="A2" s="384">
         <v>43662</v>
       </c>
-      <c r="B2" s="380"/>
-      <c r="C2" s="380"/>
+      <c r="B2" s="384"/>
+      <c r="C2" s="384"/>
       <c r="E2" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="332" t="s">
-        <v>304</v>
-      </c>
-      <c r="G2" s="333">
+        <v>329</v>
+      </c>
+      <c r="F2" s="331" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" s="332">
         <v>43649</v>
       </c>
       <c r="H2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="F3" s="340" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="333">
+        <v>330</v>
+      </c>
+      <c r="F3" s="339" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="332">
         <v>43639</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="334"/>
-      <c r="B4" s="334"/>
-      <c r="C4" s="334"/>
-      <c r="D4" s="334"/>
-      <c r="E4" s="334"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="334"/>
-      <c r="H4" s="334"/>
-      <c r="I4" s="334"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="334"/>
-      <c r="L4" s="334"/>
-      <c r="M4" s="334"/>
-      <c r="N4" s="334"/>
-      <c r="O4" s="334"/>
-      <c r="P4" s="334"/>
-      <c r="Q4" s="334"/>
-      <c r="R4" s="334"/>
-      <c r="S4" s="334"/>
-      <c r="T4" s="334"/>
-      <c r="U4" s="334"/>
-      <c r="V4" s="362"/>
-      <c r="W4" s="362"/>
+      <c r="A4" s="333"/>
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="333"/>
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="333"/>
+      <c r="L4" s="333"/>
+      <c r="M4" s="333"/>
+      <c r="N4" s="333"/>
+      <c r="O4" s="333"/>
+      <c r="P4" s="333"/>
+      <c r="Q4" s="333"/>
+      <c r="R4" s="333"/>
+      <c r="S4" s="333"/>
+      <c r="T4" s="333"/>
+      <c r="U4" s="333"/>
+      <c r="V4" s="361"/>
+      <c r="W4" s="361"/>
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="334"/>
-      <c r="B5" s="377" t="s">
+      <c r="A5" s="333"/>
+      <c r="B5" s="381" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="381"/>
+      <c r="E5" s="333"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="381" t="s">
+        <v>294</v>
+      </c>
+      <c r="H5" s="381"/>
+      <c r="I5" s="381"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="334"/>
+      <c r="L5" s="381" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="377"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="377" t="s">
+      <c r="M5" s="381"/>
+      <c r="O5" s="239" t="s">
         <v>296</v>
       </c>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="335"/>
-      <c r="L5" s="377" t="s">
+      <c r="P5" s="333"/>
+      <c r="Q5" s="333"/>
+      <c r="R5" s="381" t="s">
         <v>297</v>
       </c>
-      <c r="M5" s="377"/>
-      <c r="O5" s="239" t="s">
-        <v>298</v>
-      </c>
-      <c r="P5" s="334"/>
-      <c r="Q5" s="334"/>
-      <c r="R5" s="377" t="s">
-        <v>299</v>
-      </c>
-      <c r="S5" s="377"/>
-      <c r="T5" s="334"/>
-      <c r="U5" s="334"/>
-      <c r="V5" s="378" t="s">
+      <c r="S5" s="381"/>
+      <c r="T5" s="333"/>
+      <c r="U5" s="333"/>
+      <c r="V5" s="382" t="s">
+        <v>325</v>
+      </c>
+      <c r="W5" s="382"/>
+      <c r="X5" s="361" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y5" s="361" t="s">
         <v>327</v>
       </c>
-      <c r="W5" s="378"/>
-      <c r="X5" s="362" t="s">
+      <c r="Z5" s="361" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="361" t="s">
         <v>328</v>
-      </c>
-      <c r="Y5" s="362" t="s">
-        <v>329</v>
-      </c>
-      <c r="Z5" s="362" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="362" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="187">
         <v>1</v>
       </c>
-      <c r="B6" s="357">
+      <c r="B6" s="356">
         <v>1</v>
       </c>
-      <c r="C6" s="348" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="349" t="s">
+      <c r="C6" s="347" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="350">
+      <c r="F6" s="349">
         <v>1</v>
       </c>
-      <c r="G6" s="357">
+      <c r="G6" s="356">
         <v>5</v>
       </c>
-      <c r="H6" s="348" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" s="349" t="s">
+      <c r="H6" s="347" t="s">
+        <v>322</v>
+      </c>
+      <c r="I6" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="371">
+      <c r="K6" s="370">
         <v>1</v>
       </c>
-      <c r="L6" s="347">
+      <c r="L6" s="346">
         <v>3</v>
       </c>
-      <c r="M6" s="348" t="s">
-        <v>342</v>
-      </c>
-      <c r="N6" s="349" t="s">
+      <c r="M6" s="347" t="s">
+        <v>339</v>
+      </c>
+      <c r="N6" s="348" t="s">
         <v>93</v>
       </c>
-      <c r="O6" s="369">
+      <c r="O6" s="368">
         <f>L6/G22</f>
         <v>3</v>
       </c>
-      <c r="Q6" s="361">
+      <c r="Q6" s="360">
         <v>1</v>
       </c>
-      <c r="R6" s="344" t="s">
-        <v>341</v>
-      </c>
-      <c r="S6" s="345" t="s">
-        <v>306</v>
-      </c>
-      <c r="T6" s="346" t="s">
+      <c r="R6" s="343" t="s">
+        <v>338</v>
+      </c>
+      <c r="S6" s="344" t="s">
+        <v>304</v>
+      </c>
+      <c r="T6" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="V6" s="363">
+      <c r="V6" s="362">
         <v>1</v>
       </c>
-      <c r="W6" s="363" t="s">
-        <v>318</v>
-      </c>
-      <c r="X6" s="344">
+      <c r="W6" s="362" t="s">
+        <v>316</v>
+      </c>
+      <c r="X6" s="343">
         <v>1</v>
       </c>
-      <c r="Y6" s="364">
+      <c r="Y6" s="363">
         <v>1</v>
       </c>
-      <c r="Z6" s="365">
+      <c r="Z6" s="364">
         <f>Y6+X6</f>
         <v>2</v>
       </c>
-      <c r="AA6" s="373">
+      <c r="AA6" s="372">
         <f>Z6/G20</f>
         <v>1</v>
       </c>
@@ -4514,72 +4535,72 @@
       <c r="A7" s="187">
         <v>1</v>
       </c>
-      <c r="B7" s="410">
+      <c r="B7" s="377">
         <v>1</v>
       </c>
-      <c r="C7" s="348" t="s">
-        <v>324</v>
-      </c>
-      <c r="D7" s="349" t="s">
+      <c r="C7" s="347" t="s">
+        <v>322</v>
+      </c>
+      <c r="D7" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="350">
+      <c r="F7" s="349">
         <v>1</v>
       </c>
-      <c r="G7" s="354">
+      <c r="G7" s="353">
         <v>5</v>
       </c>
-      <c r="H7" s="348" t="s">
-        <v>309</v>
-      </c>
-      <c r="I7" s="348" t="s">
+      <c r="H7" s="347" t="s">
+        <v>307</v>
+      </c>
+      <c r="I7" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="371">
+      <c r="K7" s="370">
         <v>2</v>
       </c>
-      <c r="L7" s="372">
+      <c r="L7" s="371">
         <v>2</v>
       </c>
-      <c r="M7" s="361" t="s">
-        <v>319</v>
-      </c>
-      <c r="N7" s="349" t="s">
+      <c r="M7" s="360" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="369">
+      <c r="O7" s="368">
         <f>L7/G14</f>
         <v>0.5</v>
       </c>
-      <c r="Q7" s="343">
+      <c r="Q7" s="342">
         <v>2</v>
       </c>
-      <c r="R7" s="347" t="s">
-        <v>305</v>
-      </c>
-      <c r="S7" s="348" t="s">
-        <v>342</v>
-      </c>
-      <c r="T7" s="349" t="s">
+      <c r="R7" s="346" t="s">
+        <v>303</v>
+      </c>
+      <c r="S7" s="347" t="s">
+        <v>339</v>
+      </c>
+      <c r="T7" s="348" t="s">
         <v>93</v>
       </c>
-      <c r="V7" s="366">
+      <c r="V7" s="365">
         <v>2</v>
       </c>
-      <c r="W7" s="347" t="s">
-        <v>309</v>
-      </c>
-      <c r="X7" s="347">
+      <c r="W7" s="346" t="s">
+        <v>307</v>
+      </c>
+      <c r="X7" s="346">
         <v>2</v>
       </c>
-      <c r="Y7" s="347">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="365">
+      <c r="Y7" s="346">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="364">
         <f>Y7+X7</f>
         <v>2</v>
       </c>
-      <c r="AA7" s="373">
+      <c r="AA7" s="372">
         <f>Z7/G7</f>
         <v>0.4</v>
       </c>
@@ -4588,66 +4609,66 @@
       <c r="A8" s="187">
         <v>3</v>
       </c>
-      <c r="B8" s="354"/>
-      <c r="C8" s="355"/>
-      <c r="D8" s="356"/>
-      <c r="F8" s="350">
+      <c r="B8" s="353"/>
+      <c r="C8" s="354"/>
+      <c r="D8" s="355"/>
+      <c r="F8" s="349">
         <v>1</v>
       </c>
-      <c r="G8" s="358">
+      <c r="G8" s="357">
         <v>5</v>
       </c>
-      <c r="H8" s="345" t="s">
-        <v>313</v>
-      </c>
-      <c r="I8" s="346" t="s">
+      <c r="H8" s="344" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" s="345" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="371">
+      <c r="K8" s="370">
         <v>2</v>
       </c>
-      <c r="L8" s="372">
+      <c r="L8" s="371">
         <v>2</v>
       </c>
-      <c r="M8" s="361" t="s">
-        <v>318</v>
-      </c>
-      <c r="N8" s="349" t="s">
+      <c r="M8" s="360" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="369">
+      <c r="O8" s="368">
         <f>L8/G20</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="343">
+      <c r="Q8" s="342">
         <v>2</v>
       </c>
-      <c r="R8" s="347" t="s">
-        <v>305</v>
-      </c>
-      <c r="S8" s="348" t="s">
-        <v>309</v>
-      </c>
-      <c r="T8" s="348" t="s">
+      <c r="R8" s="346" t="s">
+        <v>303</v>
+      </c>
+      <c r="S8" s="347" t="s">
+        <v>307</v>
+      </c>
+      <c r="T8" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="V8" s="366">
+      <c r="V8" s="365">
         <v>2</v>
       </c>
-      <c r="W8" s="347" t="s">
-        <v>316</v>
-      </c>
-      <c r="X8" s="347">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="347">
+      <c r="W8" s="346" t="s">
+        <v>314</v>
+      </c>
+      <c r="X8" s="346">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="346">
         <v>1</v>
       </c>
-      <c r="Z8" s="365">
+      <c r="Z8" s="364">
         <f>Y8+X8</f>
         <v>1</v>
       </c>
-      <c r="AA8" s="373">
+      <c r="AA8" s="372">
         <f>Z8/G16</f>
         <v>0.25</v>
       </c>
@@ -4656,779 +4677,779 @@
       <c r="A9" s="187">
         <v>4</v>
       </c>
-      <c r="B9" s="354"/>
-      <c r="C9" s="355"/>
-      <c r="D9" s="355"/>
-      <c r="E9" s="334"/>
-      <c r="F9" s="350">
+      <c r="B9" s="353"/>
+      <c r="C9" s="354"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="333"/>
+      <c r="F9" s="349">
         <v>1</v>
       </c>
-      <c r="G9" s="358">
+      <c r="G9" s="357">
         <v>5</v>
       </c>
-      <c r="H9" s="345" t="s">
-        <v>314</v>
-      </c>
-      <c r="I9" s="345" t="s">
+      <c r="H9" s="344" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="J9" s="334"/>
-      <c r="K9" s="331">
+      <c r="J9" s="333"/>
+      <c r="K9" s="330">
         <v>2</v>
       </c>
-      <c r="L9" s="372">
+      <c r="L9" s="371">
         <v>2</v>
       </c>
-      <c r="M9" s="345" t="s">
-        <v>315</v>
-      </c>
-      <c r="N9" s="346" t="s">
+      <c r="M9" s="344" t="s">
+        <v>313</v>
+      </c>
+      <c r="N9" s="345" t="s">
         <v>156</v>
       </c>
-      <c r="O9" s="369">
+      <c r="O9" s="368">
         <f>L9/G10</f>
         <v>0.4</v>
       </c>
-      <c r="P9" s="334"/>
-      <c r="Q9" s="343">
+      <c r="P9" s="333"/>
+      <c r="Q9" s="342">
         <v>4</v>
       </c>
-      <c r="R9" s="347" t="s">
-        <v>307</v>
-      </c>
-      <c r="S9" s="348" t="s">
-        <v>308</v>
-      </c>
-      <c r="T9" s="348" t="s">
+      <c r="R9" s="346" t="s">
+        <v>305</v>
+      </c>
+      <c r="S9" s="347" t="s">
+        <v>306</v>
+      </c>
+      <c r="T9" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="334"/>
-      <c r="V9" s="366">
+      <c r="U9" s="333"/>
+      <c r="V9" s="365">
         <v>2</v>
       </c>
-      <c r="W9" s="347"/>
-      <c r="X9" s="347"/>
-      <c r="Y9" s="367"/>
-      <c r="Z9" s="342"/>
-      <c r="AA9" s="341"/>
+      <c r="W9" s="346"/>
+      <c r="X9" s="346"/>
+      <c r="Y9" s="366"/>
+      <c r="Z9" s="341"/>
+      <c r="AA9" s="340"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="187">
         <v>5</v>
       </c>
-      <c r="B10" s="353"/>
-      <c r="C10" s="359"/>
-      <c r="D10" s="359"/>
-      <c r="F10" s="350">
+      <c r="B10" s="352"/>
+      <c r="C10" s="358"/>
+      <c r="D10" s="358"/>
+      <c r="F10" s="349">
         <v>1</v>
       </c>
-      <c r="G10" s="358">
+      <c r="G10" s="357">
         <v>5</v>
       </c>
-      <c r="H10" s="345" t="s">
-        <v>315</v>
-      </c>
-      <c r="I10" s="346" t="s">
+      <c r="H10" s="344" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" s="345" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="331">
+      <c r="K10" s="330">
         <v>2</v>
       </c>
-      <c r="L10" s="344">
+      <c r="L10" s="343">
         <v>2</v>
       </c>
-      <c r="M10" s="348" t="s">
-        <v>308</v>
-      </c>
-      <c r="N10" s="348" t="s">
+      <c r="M10" s="347" t="s">
+        <v>306</v>
+      </c>
+      <c r="N10" s="347" t="s">
         <v>88</v>
       </c>
-      <c r="O10" s="370">
+      <c r="O10" s="369">
         <f>L10/G11</f>
         <v>0.4</v>
       </c>
-      <c r="Q10" s="343">
+      <c r="Q10" s="342">
         <v>4</v>
       </c>
-      <c r="R10" s="347" t="s">
-        <v>307</v>
-      </c>
-      <c r="S10" s="348" t="s">
-        <v>310</v>
-      </c>
-      <c r="T10" s="349" t="s">
+      <c r="R10" s="346" t="s">
+        <v>305</v>
+      </c>
+      <c r="S10" s="347" t="s">
+        <v>308</v>
+      </c>
+      <c r="T10" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="V10" s="366">
+      <c r="V10" s="365">
         <v>2</v>
       </c>
-      <c r="W10" s="347"/>
-      <c r="X10" s="344"/>
-      <c r="Y10" s="344"/>
-      <c r="Z10" s="342"/>
-      <c r="AA10" s="341"/>
+      <c r="W10" s="346"/>
+      <c r="X10" s="343"/>
+      <c r="Y10" s="343"/>
+      <c r="Z10" s="341"/>
+      <c r="AA10" s="340"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="187">
         <v>5</v>
       </c>
-      <c r="B11" s="354"/>
-      <c r="C11" s="355"/>
-      <c r="D11" s="355"/>
-      <c r="F11" s="350">
+      <c r="B11" s="353"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="F11" s="349">
         <v>1</v>
       </c>
-      <c r="G11" s="354">
+      <c r="G11" s="353">
         <v>5</v>
       </c>
-      <c r="H11" s="348" t="s">
+      <c r="H11" s="347" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="347" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="330">
+        <v>2</v>
+      </c>
+      <c r="L11" s="365">
+        <v>2</v>
+      </c>
+      <c r="M11" s="347" t="s">
         <v>308</v>
       </c>
-      <c r="I11" s="348" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="331">
-        <v>2</v>
-      </c>
-      <c r="L11" s="366">
-        <v>2</v>
-      </c>
-      <c r="M11" s="348" t="s">
-        <v>310</v>
-      </c>
-      <c r="N11" s="349" t="s">
+      <c r="N11" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="O11" s="369">
+      <c r="O11" s="368">
         <f>L11/G12</f>
         <v>0.5</v>
       </c>
-      <c r="Q11" s="343">
+      <c r="Q11" s="342">
         <v>4</v>
       </c>
-      <c r="R11" s="347" t="s">
-        <v>307</v>
-      </c>
-      <c r="S11" s="345" t="s">
-        <v>311</v>
-      </c>
-      <c r="T11" s="345" t="s">
+      <c r="R11" s="346" t="s">
+        <v>305</v>
+      </c>
+      <c r="S11" s="344" t="s">
+        <v>309</v>
+      </c>
+      <c r="T11" s="344" t="s">
         <v>156</v>
       </c>
-      <c r="V11" s="366">
+      <c r="V11" s="365">
         <v>6</v>
       </c>
-      <c r="W11" s="344"/>
-      <c r="X11" s="344"/>
-      <c r="Y11" s="368"/>
-      <c r="Z11" s="342"/>
-      <c r="AA11" s="341"/>
+      <c r="W11" s="343"/>
+      <c r="X11" s="343"/>
+      <c r="Y11" s="367"/>
+      <c r="Z11" s="341"/>
+      <c r="AA11" s="340"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="187"/>
       <c r="B12" s="62"/>
-      <c r="F12" s="350">
+      <c r="F12" s="349">
         <v>7</v>
       </c>
-      <c r="G12" s="357">
+      <c r="G12" s="356">
         <v>4</v>
       </c>
-      <c r="H12" s="348" t="s">
-        <v>310</v>
-      </c>
-      <c r="I12" s="349" t="s">
+      <c r="H12" s="347" t="s">
+        <v>308</v>
+      </c>
+      <c r="I12" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="331">
+      <c r="K12" s="330">
         <v>7</v>
       </c>
-      <c r="L12" s="347">
+      <c r="L12" s="346">
         <v>1</v>
       </c>
-      <c r="M12" s="345" t="s">
-        <v>306</v>
-      </c>
-      <c r="N12" s="346" t="s">
+      <c r="M12" s="344" t="s">
+        <v>304</v>
+      </c>
+      <c r="N12" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="O12" s="369">
+      <c r="O12" s="368">
         <f>L12/G15</f>
         <v>0.25</v>
       </c>
-      <c r="Q12" s="343">
+      <c r="Q12" s="342">
         <v>4</v>
       </c>
-      <c r="R12" s="344" t="s">
+      <c r="R12" s="343" t="s">
+        <v>305</v>
+      </c>
+      <c r="S12" s="344" t="s">
+        <v>313</v>
+      </c>
+      <c r="T12" s="345" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="365">
+        <v>6</v>
+      </c>
+      <c r="W12" s="343"/>
+      <c r="X12" s="343"/>
+      <c r="Y12" s="343"/>
+      <c r="Z12" s="341"/>
+      <c r="AA12" s="340"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="359"/>
+      <c r="B13" s="336" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="336"/>
+      <c r="E13" s="333"/>
+      <c r="F13" s="349">
+        <v>7</v>
+      </c>
+      <c r="G13" s="357">
+        <v>4</v>
+      </c>
+      <c r="H13" s="347" t="s">
+        <v>315</v>
+      </c>
+      <c r="I13" s="348" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="333"/>
+      <c r="K13" s="330">
+        <v>7</v>
+      </c>
+      <c r="L13" s="343">
+        <v>1</v>
+      </c>
+      <c r="M13" s="347" t="s">
         <v>307</v>
       </c>
-      <c r="S12" s="345" t="s">
-        <v>315</v>
-      </c>
-      <c r="T12" s="346" t="s">
-        <v>156</v>
-      </c>
-      <c r="V12" s="366">
-        <v>6</v>
-      </c>
-      <c r="W12" s="344"/>
-      <c r="X12" s="344"/>
-      <c r="Y12" s="344"/>
-      <c r="Z12" s="342"/>
-      <c r="AA12" s="341"/>
-    </row>
-    <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="360"/>
-      <c r="B13" s="337" t="s">
-        <v>300</v>
-      </c>
-      <c r="C13" s="337"/>
-      <c r="E13" s="334"/>
-      <c r="F13" s="350">
-        <v>7</v>
-      </c>
-      <c r="G13" s="358">
-        <v>4</v>
-      </c>
-      <c r="H13" s="348" t="s">
-        <v>317</v>
-      </c>
-      <c r="I13" s="349" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="334"/>
-      <c r="K13" s="331">
-        <v>7</v>
-      </c>
-      <c r="L13" s="344">
-        <v>1</v>
-      </c>
-      <c r="M13" s="348" t="s">
-        <v>309</v>
-      </c>
-      <c r="N13" s="348" t="s">
+      <c r="N13" s="347" t="s">
         <v>93</v>
       </c>
-      <c r="O13" s="370">
+      <c r="O13" s="369">
         <f>L13/G7</f>
         <v>0.2</v>
       </c>
-      <c r="P13" s="334"/>
-      <c r="Q13" s="343">
+      <c r="P13" s="333"/>
+      <c r="Q13" s="342">
         <v>4</v>
       </c>
-      <c r="R13" s="344" t="s">
-        <v>307</v>
-      </c>
-      <c r="S13" s="348" t="s">
-        <v>319</v>
-      </c>
-      <c r="T13" s="349" t="s">
+      <c r="R13" s="343" t="s">
+        <v>305</v>
+      </c>
+      <c r="S13" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="T13" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="V13" s="366">
+      <c r="V13" s="365">
         <v>6</v>
       </c>
-      <c r="W13" s="344"/>
-      <c r="X13" s="344"/>
-      <c r="Y13" s="368"/>
-      <c r="Z13" s="342"/>
-      <c r="AA13" s="341"/>
+      <c r="W13" s="343"/>
+      <c r="X13" s="343"/>
+      <c r="Y13" s="367"/>
+      <c r="Z13" s="341"/>
+      <c r="AA13" s="340"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="187">
         <v>1</v>
       </c>
-      <c r="B14" s="350">
+      <c r="B14" s="349">
         <v>3</v>
       </c>
-      <c r="C14" s="345" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="345" t="s">
+      <c r="C14" s="344" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="344" t="s">
         <v>156</v>
       </c>
-      <c r="F14" s="350">
+      <c r="F14" s="349">
         <v>7</v>
       </c>
-      <c r="G14" s="358">
+      <c r="G14" s="357">
         <v>4</v>
       </c>
-      <c r="H14" s="348" t="s">
-        <v>319</v>
-      </c>
-      <c r="I14" s="349" t="s">
+      <c r="H14" s="347" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="331">
+      <c r="K14" s="330">
         <v>7</v>
       </c>
-      <c r="L14" s="347">
+      <c r="L14" s="346">
         <v>1</v>
       </c>
-      <c r="M14" s="348" t="s">
-        <v>316</v>
-      </c>
-      <c r="N14" s="349" t="s">
+      <c r="M14" s="347" t="s">
+        <v>314</v>
+      </c>
+      <c r="N14" s="348" t="s">
         <v>156</v>
       </c>
-      <c r="O14" s="369">
+      <c r="O14" s="368">
         <f>L14/G16</f>
         <v>0.25</v>
       </c>
-      <c r="Q14" s="343">
+      <c r="Q14" s="342">
         <v>9</v>
       </c>
-      <c r="R14" s="344" t="s">
-        <v>312</v>
-      </c>
-      <c r="S14" s="345" t="s">
-        <v>313</v>
-      </c>
-      <c r="T14" s="346" t="s">
+      <c r="R14" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S14" s="344" t="s">
+        <v>311</v>
+      </c>
+      <c r="T14" s="345" t="s">
         <v>73</v>
       </c>
-      <c r="V14" s="366">
+      <c r="V14" s="365">
         <v>6</v>
       </c>
-      <c r="W14" s="344"/>
-      <c r="X14" s="347"/>
-      <c r="Y14" s="367"/>
-      <c r="Z14" s="342"/>
-      <c r="AA14" s="341"/>
+      <c r="W14" s="343"/>
+      <c r="X14" s="346"/>
+      <c r="Y14" s="366"/>
+      <c r="Z14" s="341"/>
+      <c r="AA14" s="340"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="187">
         <v>2</v>
       </c>
-      <c r="B15" s="354">
+      <c r="B15" s="353">
         <v>1</v>
       </c>
-      <c r="C15" s="345" t="s">
-        <v>306</v>
-      </c>
-      <c r="D15" s="346" t="s">
+      <c r="C15" s="344" t="s">
+        <v>304</v>
+      </c>
+      <c r="D15" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="350">
+      <c r="F15" s="349">
         <v>7</v>
       </c>
-      <c r="G15" s="358">
+      <c r="G15" s="357">
         <v>4</v>
       </c>
-      <c r="H15" s="345" t="s">
-        <v>306</v>
-      </c>
-      <c r="I15" s="346" t="s">
+      <c r="H15" s="344" t="s">
+        <v>304</v>
+      </c>
+      <c r="I15" s="345" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="331">
+      <c r="K15" s="330">
         <v>7</v>
       </c>
-      <c r="L15" s="366">
+      <c r="L15" s="365">
         <v>1</v>
       </c>
-      <c r="M15" s="345" t="s">
-        <v>314</v>
-      </c>
-      <c r="N15" s="345" t="s">
+      <c r="M15" s="344" t="s">
+        <v>312</v>
+      </c>
+      <c r="N15" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="O15" s="369">
+      <c r="O15" s="368">
         <f>L15/G9</f>
         <v>0.2</v>
       </c>
-      <c r="Q15" s="343">
+      <c r="Q15" s="342">
         <v>9</v>
       </c>
-      <c r="R15" s="344" t="s">
+      <c r="R15" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S15" s="344" t="s">
         <v>312</v>
       </c>
-      <c r="S15" s="345" t="s">
-        <v>314</v>
-      </c>
-      <c r="T15" s="345" t="s">
+      <c r="T15" s="344" t="s">
         <v>88</v>
       </c>
-      <c r="V15" s="366">
+      <c r="V15" s="365">
         <v>6</v>
       </c>
-      <c r="W15" s="344"/>
-      <c r="X15" s="347"/>
-      <c r="Y15" s="367"/>
-      <c r="Z15" s="342"/>
-      <c r="AA15" s="341"/>
+      <c r="W15" s="343"/>
+      <c r="X15" s="346"/>
+      <c r="Y15" s="366"/>
+      <c r="Z15" s="341"/>
+      <c r="AA15" s="340"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="187">
         <v>2</v>
       </c>
-      <c r="B16" s="354">
+      <c r="B16" s="353">
         <v>1</v>
       </c>
-      <c r="C16" s="348" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="349" t="s">
+      <c r="C16" s="347" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="350">
+      <c r="F16" s="349">
         <v>7</v>
       </c>
-      <c r="G16" s="354">
+      <c r="G16" s="353">
         <v>4</v>
       </c>
-      <c r="H16" s="348" t="s">
-        <v>316</v>
-      </c>
-      <c r="I16" s="349" t="s">
+      <c r="H16" s="347" t="s">
+        <v>314</v>
+      </c>
+      <c r="I16" s="348" t="s">
         <v>156</v>
       </c>
-      <c r="K16" s="331">
+      <c r="K16" s="330">
         <v>11</v>
       </c>
-      <c r="L16" s="366"/>
-      <c r="M16" s="348"/>
-      <c r="N16" s="348"/>
-      <c r="O16" s="369"/>
-      <c r="Q16" s="343">
+      <c r="L16" s="365"/>
+      <c r="M16" s="347"/>
+      <c r="N16" s="347"/>
+      <c r="O16" s="368"/>
+      <c r="Q16" s="342">
         <v>9</v>
       </c>
-      <c r="R16" s="344" t="s">
-        <v>312</v>
-      </c>
-      <c r="S16" s="348" t="s">
-        <v>316</v>
-      </c>
-      <c r="T16" s="349" t="s">
+      <c r="R16" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S16" s="347" t="s">
+        <v>314</v>
+      </c>
+      <c r="T16" s="348" t="s">
         <v>156</v>
       </c>
-      <c r="V16" s="366">
+      <c r="V16" s="365">
         <v>6</v>
       </c>
-      <c r="W16" s="344"/>
-      <c r="X16" s="347"/>
-      <c r="Y16" s="367"/>
-      <c r="Z16" s="342"/>
-      <c r="AA16" s="341"/>
+      <c r="W16" s="343"/>
+      <c r="X16" s="346"/>
+      <c r="Y16" s="366"/>
+      <c r="Z16" s="341"/>
+      <c r="AA16" s="340"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="187">
         <v>4</v>
       </c>
-      <c r="B17" s="354"/>
-      <c r="C17" s="355"/>
-      <c r="D17" s="355"/>
-      <c r="F17" s="350">
+      <c r="B17" s="353"/>
+      <c r="C17" s="354"/>
+      <c r="D17" s="354"/>
+      <c r="F17" s="349">
         <v>7</v>
       </c>
-      <c r="G17" s="354">
+      <c r="G17" s="353">
         <v>4</v>
       </c>
-      <c r="H17" s="345" t="s">
-        <v>311</v>
-      </c>
-      <c r="I17" s="345" t="s">
+      <c r="H17" s="344" t="s">
+        <v>309</v>
+      </c>
+      <c r="I17" s="344" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="331">
+      <c r="K17" s="330">
         <v>12</v>
       </c>
-      <c r="L17" s="347"/>
-      <c r="M17" s="348"/>
-      <c r="N17" s="349"/>
-      <c r="O17" s="369"/>
-      <c r="Q17" s="343">
+      <c r="L17" s="346"/>
+      <c r="M17" s="347"/>
+      <c r="N17" s="348"/>
+      <c r="O17" s="368"/>
+      <c r="Q17" s="342">
         <v>9</v>
       </c>
-      <c r="R17" s="344" t="s">
-        <v>312</v>
-      </c>
-      <c r="S17" s="348" t="s">
-        <v>317</v>
-      </c>
-      <c r="T17" s="349" t="s">
+      <c r="R17" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S17" s="347" t="s">
+        <v>315</v>
+      </c>
+      <c r="T17" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="V17" s="366">
+      <c r="V17" s="365">
         <v>6</v>
       </c>
-      <c r="W17" s="344"/>
-      <c r="X17" s="347"/>
-      <c r="Y17" s="367"/>
-      <c r="Z17" s="342"/>
-      <c r="AA17" s="341"/>
+      <c r="W17" s="343"/>
+      <c r="X17" s="346"/>
+      <c r="Y17" s="366"/>
+      <c r="Z17" s="341"/>
+      <c r="AA17" s="340"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="187">
         <v>5</v>
       </c>
-      <c r="B18" s="354"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="356"/>
-      <c r="F18" s="350">
+      <c r="B18" s="353"/>
+      <c r="C18" s="354"/>
+      <c r="D18" s="355"/>
+      <c r="F18" s="349">
         <v>13</v>
       </c>
-      <c r="G18" s="357">
+      <c r="G18" s="356">
         <v>3</v>
       </c>
-      <c r="H18" s="348" t="s">
-        <v>320</v>
-      </c>
-      <c r="I18" s="349" t="s">
+      <c r="H18" s="347" t="s">
+        <v>318</v>
+      </c>
+      <c r="I18" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="331">
+      <c r="K18" s="330">
         <v>13</v>
       </c>
-      <c r="L18" s="344"/>
-      <c r="M18" s="345"/>
-      <c r="N18" s="345"/>
-      <c r="O18" s="370"/>
-      <c r="Q18" s="343">
+      <c r="L18" s="343"/>
+      <c r="M18" s="344"/>
+      <c r="N18" s="344"/>
+      <c r="O18" s="369"/>
+      <c r="Q18" s="342">
         <v>9</v>
       </c>
-      <c r="R18" s="344" t="s">
-        <v>312</v>
-      </c>
-      <c r="S18" s="348" t="s">
-        <v>318</v>
-      </c>
-      <c r="T18" s="349" t="s">
+      <c r="R18" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S18" s="347" t="s">
+        <v>316</v>
+      </c>
+      <c r="T18" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="V18" s="366">
+      <c r="V18" s="365">
         <v>6</v>
       </c>
-      <c r="W18" s="344"/>
-      <c r="X18" s="347"/>
-      <c r="Y18" s="367"/>
-      <c r="Z18" s="342"/>
-      <c r="AA18" s="341"/>
+      <c r="W18" s="343"/>
+      <c r="X18" s="346"/>
+      <c r="Y18" s="366"/>
+      <c r="Z18" s="341"/>
+      <c r="AA18" s="340"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="187">
         <v>6</v>
       </c>
-      <c r="B19" s="354"/>
-      <c r="C19" s="355"/>
-      <c r="D19" s="356"/>
-      <c r="F19" s="350">
+      <c r="B19" s="353"/>
+      <c r="C19" s="354"/>
+      <c r="D19" s="355"/>
+      <c r="F19" s="349">
         <v>13</v>
       </c>
-      <c r="G19" s="358">
+      <c r="G19" s="357">
         <v>3</v>
       </c>
-      <c r="H19" s="348" t="s">
-        <v>323</v>
-      </c>
-      <c r="I19" s="349" t="s">
+      <c r="H19" s="347" t="s">
+        <v>321</v>
+      </c>
+      <c r="I19" s="348" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="331">
+      <c r="K19" s="330">
         <v>14</v>
       </c>
-      <c r="L19" s="344"/>
-      <c r="M19" s="345"/>
-      <c r="N19" s="345"/>
-      <c r="O19" s="370"/>
-      <c r="Q19" s="343">
+      <c r="L19" s="343"/>
+      <c r="M19" s="344"/>
+      <c r="N19" s="344"/>
+      <c r="O19" s="369"/>
+      <c r="Q19" s="342">
         <v>9</v>
       </c>
-      <c r="R19" s="344" t="s">
-        <v>312</v>
-      </c>
-      <c r="S19" s="348" t="s">
-        <v>320</v>
-      </c>
-      <c r="T19" s="349" t="s">
+      <c r="R19" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S19" s="347" t="s">
+        <v>318</v>
+      </c>
+      <c r="T19" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="V19" s="366">
+      <c r="V19" s="365">
         <v>6</v>
       </c>
-      <c r="W19" s="344"/>
-      <c r="X19" s="347"/>
-      <c r="Y19" s="367"/>
-      <c r="Z19" s="342"/>
-      <c r="AA19" s="341"/>
+      <c r="W19" s="343"/>
+      <c r="X19" s="346"/>
+      <c r="Y19" s="366"/>
+      <c r="Z19" s="341"/>
+      <c r="AA19" s="340"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="187">
         <v>7</v>
       </c>
-      <c r="B20" s="354"/>
-      <c r="C20" s="355"/>
-      <c r="D20" s="356"/>
-      <c r="F20" s="350">
+      <c r="B20" s="353"/>
+      <c r="C20" s="354"/>
+      <c r="D20" s="355"/>
+      <c r="F20" s="349">
         <v>15</v>
       </c>
-      <c r="G20" s="354">
+      <c r="G20" s="353">
         <v>2</v>
       </c>
-      <c r="H20" s="348" t="s">
-        <v>318</v>
-      </c>
-      <c r="I20" s="349" t="s">
+      <c r="H20" s="347" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" s="348" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="331">
+      <c r="K20" s="330">
         <v>15</v>
       </c>
-      <c r="L20" s="344"/>
-      <c r="M20" s="345"/>
-      <c r="N20" s="345"/>
-      <c r="O20" s="370"/>
-      <c r="Q20" s="343">
+      <c r="L20" s="343"/>
+      <c r="M20" s="344"/>
+      <c r="N20" s="344"/>
+      <c r="O20" s="369"/>
+      <c r="Q20" s="342">
         <v>9</v>
       </c>
-      <c r="R20" s="344" t="s">
-        <v>312</v>
-      </c>
-      <c r="S20" s="348" t="s">
-        <v>321</v>
-      </c>
-      <c r="T20" s="349" t="s">
+      <c r="R20" s="343" t="s">
+        <v>310</v>
+      </c>
+      <c r="S20" s="347" t="s">
+        <v>319</v>
+      </c>
+      <c r="T20" s="348" t="s">
         <v>88</v>
       </c>
-      <c r="V20" s="366">
+      <c r="V20" s="365">
         <v>15</v>
       </c>
-      <c r="W20" s="347"/>
-      <c r="X20" s="347"/>
-      <c r="Y20" s="367"/>
-      <c r="Z20" s="342"/>
-      <c r="AA20" s="341"/>
+      <c r="W20" s="346"/>
+      <c r="X20" s="346"/>
+      <c r="Y20" s="366"/>
+      <c r="Z20" s="341"/>
+      <c r="AA20" s="340"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="187">
         <v>8</v>
       </c>
-      <c r="B21" s="354"/>
-      <c r="C21" s="355"/>
-      <c r="D21" s="356"/>
-      <c r="F21" s="350">
+      <c r="B21" s="353"/>
+      <c r="C21" s="354"/>
+      <c r="D21" s="355"/>
+      <c r="F21" s="349">
         <v>15</v>
       </c>
-      <c r="G21" s="354">
+      <c r="G21" s="353">
         <v>2</v>
       </c>
-      <c r="H21" s="348" t="s">
+      <c r="H21" s="347" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" s="348" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21" s="330">
+        <v>16</v>
+      </c>
+      <c r="L21" s="346"/>
+      <c r="M21" s="347"/>
+      <c r="N21" s="347"/>
+      <c r="O21" s="368"/>
+      <c r="Q21" s="342">
+        <v>16</v>
+      </c>
+      <c r="R21" s="346" t="s">
+        <v>320</v>
+      </c>
+      <c r="S21" s="347" t="s">
         <v>321</v>
       </c>
-      <c r="I21" s="349" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="331">
-        <v>16</v>
-      </c>
-      <c r="L21" s="347"/>
-      <c r="M21" s="348"/>
-      <c r="N21" s="348"/>
-      <c r="O21" s="369"/>
-      <c r="Q21" s="343">
-        <v>16</v>
-      </c>
-      <c r="R21" s="347" t="s">
-        <v>322</v>
-      </c>
-      <c r="S21" s="348" t="s">
-        <v>323</v>
-      </c>
-      <c r="T21" s="349" t="s">
+      <c r="T21" s="348" t="s">
         <v>156</v>
       </c>
-      <c r="V21" s="366">
+      <c r="V21" s="365">
         <v>15</v>
       </c>
-      <c r="W21" s="347"/>
-      <c r="X21" s="347"/>
-      <c r="Y21" s="367"/>
-      <c r="Z21" s="342"/>
-      <c r="AA21" s="341"/>
+      <c r="W21" s="346"/>
+      <c r="X21" s="346"/>
+      <c r="Y21" s="366"/>
+      <c r="Z21" s="341"/>
+      <c r="AA21" s="340"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="187">
         <v>9</v>
       </c>
-      <c r="B22" s="350"/>
-      <c r="C22" s="351"/>
-      <c r="D22" s="352"/>
-      <c r="F22" s="350">
+      <c r="B22" s="349"/>
+      <c r="C22" s="350"/>
+      <c r="D22" s="351"/>
+      <c r="F22" s="349">
         <v>17</v>
       </c>
-      <c r="G22" s="354">
+      <c r="G22" s="353">
         <v>1</v>
       </c>
-      <c r="H22" s="348" t="s">
-        <v>342</v>
-      </c>
-      <c r="I22" s="349" t="s">
+      <c r="H22" s="347" t="s">
+        <v>339</v>
+      </c>
+      <c r="I22" s="348" t="s">
         <v>93</v>
       </c>
-      <c r="K22" s="331">
+      <c r="K22" s="330">
         <v>17</v>
       </c>
-      <c r="L22" s="347"/>
-      <c r="M22" s="348"/>
-      <c r="N22" s="348"/>
-      <c r="O22" s="369"/>
-      <c r="Q22" s="343">
+      <c r="L22" s="346"/>
+      <c r="M22" s="347"/>
+      <c r="N22" s="347"/>
+      <c r="O22" s="368"/>
+      <c r="Q22" s="342">
         <v>16</v>
       </c>
-      <c r="R22" s="347" t="s">
+      <c r="R22" s="346" t="s">
+        <v>320</v>
+      </c>
+      <c r="S22" s="347" t="s">
         <v>322</v>
       </c>
-      <c r="S22" s="348" t="s">
-        <v>324</v>
-      </c>
-      <c r="T22" s="349" t="s">
+      <c r="T22" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="366">
+      <c r="V22" s="365">
         <v>17</v>
       </c>
-      <c r="W22" s="347"/>
-      <c r="X22" s="347"/>
-      <c r="Y22" s="367"/>
-      <c r="Z22" s="342"/>
-      <c r="AA22" s="341"/>
+      <c r="W22" s="346"/>
+      <c r="X22" s="346"/>
+      <c r="Y22" s="366"/>
+      <c r="Z22" s="341"/>
+      <c r="AA22" s="340"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="187">
         <v>10</v>
       </c>
-      <c r="B23" s="354"/>
-      <c r="C23" s="355"/>
-      <c r="D23" s="356"/>
-      <c r="F23" s="350">
+      <c r="B23" s="353"/>
+      <c r="C23" s="354"/>
+      <c r="D23" s="355"/>
+      <c r="F23" s="349">
         <v>17</v>
       </c>
-      <c r="G23" s="354">
+      <c r="G23" s="353">
         <v>1</v>
       </c>
-      <c r="H23" s="348" t="s">
-        <v>326</v>
-      </c>
-      <c r="I23" s="349" t="s">
+      <c r="H23" s="347" t="s">
+        <v>324</v>
+      </c>
+      <c r="I23" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="331">
+      <c r="K23" s="330">
         <v>18</v>
       </c>
-      <c r="L23" s="344"/>
-      <c r="M23" s="345"/>
-      <c r="N23" s="346"/>
-      <c r="O23" s="370"/>
-      <c r="Q23" s="343">
+      <c r="L23" s="343"/>
+      <c r="M23" s="344"/>
+      <c r="N23" s="345"/>
+      <c r="O23" s="369"/>
+      <c r="Q23" s="342">
         <v>18</v>
       </c>
-      <c r="R23" s="347" t="s">
-        <v>325</v>
-      </c>
-      <c r="S23" s="348" t="s">
-        <v>326</v>
-      </c>
-      <c r="T23" s="349" t="s">
+      <c r="R23" s="346" t="s">
+        <v>323</v>
+      </c>
+      <c r="S23" s="347" t="s">
+        <v>324</v>
+      </c>
+      <c r="T23" s="348" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5436,143 +5457,143 @@
       <c r="A24" s="187">
         <v>10</v>
       </c>
-      <c r="B24" s="354"/>
-      <c r="C24" s="355"/>
-      <c r="D24" s="355"/>
-      <c r="F24" s="350"/>
-      <c r="G24" s="354"/>
-      <c r="H24" s="355"/>
-      <c r="I24" s="355"/>
-      <c r="K24" s="331">
+      <c r="B24" s="353"/>
+      <c r="C24" s="354"/>
+      <c r="D24" s="354"/>
+      <c r="F24" s="349"/>
+      <c r="G24" s="353"/>
+      <c r="H24" s="354"/>
+      <c r="I24" s="354"/>
+      <c r="K24" s="330">
         <v>19</v>
       </c>
-      <c r="L24" s="344"/>
-      <c r="M24" s="345"/>
-      <c r="N24" s="346"/>
-      <c r="O24" s="370"/>
-      <c r="Q24" s="336"/>
-      <c r="R24" s="336"/>
-      <c r="S24" s="336"/>
-      <c r="T24" s="336"/>
+      <c r="L24" s="343"/>
+      <c r="M24" s="344"/>
+      <c r="N24" s="345"/>
+      <c r="O24" s="369"/>
+      <c r="Q24" s="335"/>
+      <c r="R24" s="335"/>
+      <c r="S24" s="335"/>
+      <c r="T24" s="335"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
-      <c r="B25" s="354"/>
-      <c r="C25" s="355"/>
-      <c r="D25" s="356"/>
-      <c r="F25" s="350"/>
-      <c r="G25" s="354"/>
-      <c r="H25" s="355"/>
-      <c r="I25" s="356"/>
-      <c r="K25" s="331">
+      <c r="B25" s="353"/>
+      <c r="C25" s="354"/>
+      <c r="D25" s="355"/>
+      <c r="F25" s="349"/>
+      <c r="G25" s="353"/>
+      <c r="H25" s="354"/>
+      <c r="I25" s="355"/>
+      <c r="K25" s="330">
         <v>20</v>
       </c>
-      <c r="L25" s="344"/>
-      <c r="M25" s="345"/>
-      <c r="N25" s="346"/>
-      <c r="O25" s="370"/>
-      <c r="Q25" s="336"/>
-      <c r="R25" s="336"/>
-      <c r="S25" s="336"/>
-      <c r="T25" s="336"/>
+      <c r="L25" s="343"/>
+      <c r="M25" s="344"/>
+      <c r="N25" s="345"/>
+      <c r="O25" s="369"/>
+      <c r="Q25" s="335"/>
+      <c r="R25" s="335"/>
+      <c r="S25" s="335"/>
+      <c r="T25" s="335"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="338">
+      <c r="B26" s="337">
         <f>SUM(B14:B25)</f>
         <v>5</v>
       </c>
-      <c r="F26" s="350"/>
-      <c r="G26" s="350"/>
-      <c r="H26" s="351"/>
-      <c r="I26" s="351"/>
-      <c r="K26" s="331">
+      <c r="F26" s="349"/>
+      <c r="G26" s="349"/>
+      <c r="H26" s="350"/>
+      <c r="I26" s="350"/>
+      <c r="K26" s="330">
         <v>21</v>
       </c>
-      <c r="L26" s="366"/>
-      <c r="M26" s="348"/>
-      <c r="N26" s="349"/>
-      <c r="O26" s="369"/>
-      <c r="Q26" s="336"/>
-      <c r="R26" s="336"/>
-      <c r="S26" s="336"/>
-      <c r="T26" s="336"/>
+      <c r="L26" s="365"/>
+      <c r="M26" s="347"/>
+      <c r="N26" s="348"/>
+      <c r="O26" s="368"/>
+      <c r="Q26" s="335"/>
+      <c r="R26" s="335"/>
+      <c r="S26" s="335"/>
+      <c r="T26" s="335"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B27" s="62"/>
-      <c r="F27" s="350"/>
-      <c r="G27" s="354"/>
-      <c r="H27" s="355"/>
-      <c r="I27" s="356"/>
-      <c r="K27" s="331">
+      <c r="F27" s="349"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="354"/>
+      <c r="I27" s="355"/>
+      <c r="K27" s="330">
         <v>22</v>
       </c>
-      <c r="L27" s="344"/>
-      <c r="M27" s="345"/>
-      <c r="N27" s="346"/>
-      <c r="O27" s="370"/>
-      <c r="Q27" s="336"/>
-      <c r="R27" s="336"/>
-      <c r="S27" s="336"/>
-      <c r="T27" s="336"/>
+      <c r="L27" s="343"/>
+      <c r="M27" s="344"/>
+      <c r="N27" s="345"/>
+      <c r="O27" s="369"/>
+      <c r="Q27" s="335"/>
+      <c r="R27" s="335"/>
+      <c r="S27" s="335"/>
+      <c r="T27" s="335"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B28" s="62"/>
-      <c r="K28" s="331">
+      <c r="K28" s="330">
         <v>22</v>
       </c>
-      <c r="L28" s="344"/>
-      <c r="M28" s="345"/>
-      <c r="N28" s="346"/>
-      <c r="O28" s="370"/>
-      <c r="Q28" s="336"/>
-      <c r="R28" s="336"/>
-      <c r="S28" s="336"/>
-      <c r="T28" s="336"/>
+      <c r="L28" s="343"/>
+      <c r="M28" s="344"/>
+      <c r="N28" s="345"/>
+      <c r="O28" s="369"/>
+      <c r="Q28" s="335"/>
+      <c r="R28" s="335"/>
+      <c r="S28" s="335"/>
+      <c r="T28" s="335"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" s="62"/>
-      <c r="K29" s="331">
+      <c r="K29" s="330">
         <v>24</v>
       </c>
-      <c r="L29" s="344"/>
-      <c r="M29" s="345"/>
-      <c r="N29" s="345"/>
-      <c r="O29" s="370"/>
-      <c r="Q29" s="336"/>
-      <c r="R29" s="336"/>
-      <c r="S29" s="336"/>
-      <c r="T29" s="336"/>
+      <c r="L29" s="343"/>
+      <c r="M29" s="344"/>
+      <c r="N29" s="344"/>
+      <c r="O29" s="369"/>
+      <c r="Q29" s="335"/>
+      <c r="R29" s="335"/>
+      <c r="S29" s="335"/>
+      <c r="T29" s="335"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B30" s="62"/>
-      <c r="K30" s="331">
+      <c r="K30" s="330">
         <v>24</v>
       </c>
-      <c r="L30" s="344"/>
-      <c r="M30" s="345"/>
-      <c r="N30" s="345"/>
-      <c r="O30" s="370"/>
-      <c r="Q30" s="336"/>
-      <c r="R30" s="336"/>
-      <c r="S30" s="336"/>
-      <c r="T30" s="336"/>
+      <c r="L30" s="343"/>
+      <c r="M30" s="344"/>
+      <c r="N30" s="344"/>
+      <c r="O30" s="369"/>
+      <c r="Q30" s="335"/>
+      <c r="R30" s="335"/>
+      <c r="S30" s="335"/>
+      <c r="T30" s="335"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B31" s="62"/>
-      <c r="K31" s="331">
+      <c r="K31" s="330">
         <v>26</v>
       </c>
-      <c r="L31" s="344"/>
-      <c r="M31" s="345"/>
-      <c r="N31" s="345"/>
-      <c r="O31" s="370"/>
-      <c r="Q31" s="336"/>
+      <c r="L31" s="343"/>
+      <c r="M31" s="344"/>
+      <c r="N31" s="344"/>
+      <c r="O31" s="369"/>
+      <c r="Q31" s="335"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B32" s="62"/>
-      <c r="L32" s="339">
+      <c r="L32" s="338">
         <f>SUM(L6:L31)</f>
         <v>17</v>
       </c>
@@ -5600,11 +5621,11 @@
   </sheetPr>
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5657,13 +5678,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43662</v>
-      </c>
-      <c r="E1" s="381">
+        <v>43669</v>
+      </c>
+      <c r="E1" s="385">
         <v>43637</v>
       </c>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -5724,32 +5745,32 @@
       <c r="H2" s="7"/>
       <c r="I2" s="12">
         <f>AVERAGE(I4:I21)</f>
-        <v>2.6333333333333333</v>
+        <v>2.6500000000000004</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
       <c r="L2" s="7"/>
       <c r="M2" s="12">
         <f>AVERAGE(M4:M21)</f>
-        <v>5.3111111111111118</v>
+        <v>5.3388888888888895</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="12">
         <f>AVERAGE(P4:P21)</f>
-        <v>5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="Q2" s="13">
         <f>AVERAGE(Q4:Q21)</f>
-        <v>0.84305823486193321</v>
+        <v>0.85650254236927237</v>
       </c>
       <c r="R2" s="13">
         <f>AVERAGE(R4:R21)</f>
-        <v>0.92348754970916169</v>
+        <v>0.93586041599450054</v>
       </c>
       <c r="S2" s="14">
         <f>AVERAGE(S4:S21)</f>
-        <v>1245</v>
+        <v>1319.4444444444443</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14">
@@ -5959,7 +5980,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.5</v>
+        <v>17.4375</v>
       </c>
       <c r="D4" s="205" t="s">
         <v>54</v>
@@ -5969,7 +5990,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>55</v>
@@ -5978,19 +5999,19 @@
         <v>2</v>
       </c>
       <c r="I4" s="33">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="J4" s="34">
         <f t="shared" ref="J4:J21" si="1">LOG(I4+1)*4/3</f>
-        <v>0.45656357442960838</v>
+        <v>0.48230378135679047</v>
       </c>
       <c r="K4" s="35">
         <f t="shared" ref="K4:K21" si="2">(H4)*(H4)*(I4)</f>
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L4" s="35">
         <f t="shared" ref="L4:L21" si="3">(H4+1)*(H4+1)*I4</f>
-        <v>10.799999999999999</v>
+        <v>11.700000000000001</v>
       </c>
       <c r="M4" s="36">
         <v>5.3</v>
@@ -6014,21 +6035,22 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="S4" s="39">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="T4" s="40">
         <f t="shared" ref="T4:T21" si="7">S4-AZ4</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="U4" s="41">
         <v>370</v>
       </c>
       <c r="V4" s="42">
         <f t="shared" ref="V4:V22" si="8">S4/U4</f>
-        <v>2.3243243243243241</v>
+        <v>2.2972972972972974</v>
       </c>
       <c r="W4" s="45">
-        <v>3</v>
+        <f>3+1/2</f>
+        <v>3.5</v>
       </c>
       <c r="X4" s="34">
         <v>6</v>
@@ -6056,39 +6078,39 @@
       </c>
       <c r="AF4" s="43">
         <f t="shared" ref="AF4:AF21" si="9">(Y4+O4+J4)*(P4/7)^0.5</f>
-        <v>3.3439065390330511</v>
+        <v>3.3656609844351517</v>
       </c>
       <c r="AG4" s="43">
         <f t="shared" ref="AG4:AG21" si="10">(Y4+O4+J4)*(IF(P4=7, (P4/7)^0.5, ((P4+1)/7)^0.5))</f>
-        <v>3.6630660832348627</v>
+        <v>3.6868968841803524</v>
       </c>
       <c r="AH4" s="42">
         <f t="shared" ref="AH4:AH21" si="11">(((X4+O4+J4)+(AA4+O4+J4)*2)/8)*(P4/7)^0.5</f>
-        <v>1.8878306431837819</v>
+        <v>1.8959885602095694</v>
       </c>
       <c r="AI4" s="42">
         <f t="shared" ref="AI4:AI21" si="12">(1.66*(AB4+J4+O4)+0.55*(AC4+J4+O4)-7.6)*(P4/7)^0.5</f>
-        <v>0.49357473267834928</v>
+        <v>0.54165205701699004</v>
       </c>
       <c r="AJ4" s="42">
         <f t="shared" ref="AJ4:AJ21" si="13">((AC4+J4+O4)*0.7+(AB4+J4+O4)*0.3)*(P4/7)^0.5</f>
-        <v>4.2735762192344193</v>
+        <v>4.2953306646365199</v>
       </c>
       <c r="AK4" s="42">
         <f t="shared" ref="AK4:AK21" si="14">(0.5*(AB4+O4+J4)+ 0.3*(AC4+O4+J4))/10</f>
-        <v>0.32652508595436869</v>
+        <v>0.3285843025085432</v>
       </c>
       <c r="AL4" s="42">
         <f t="shared" ref="AL4:AL21" si="15">(0.4*(X4+O4+J4)+0.3*(AC4+O4+J4))/10</f>
-        <v>0.4969594502100726</v>
+        <v>0.49876126469497539</v>
       </c>
       <c r="AM4" s="44">
         <f t="shared" ref="AM4:AM21" si="16">(AC4+O4+(LOG(I4)*4/3))*(P4/7)^0.5</f>
-        <v>4.7375755569959823</v>
+        <v>4.7767480130070457</v>
       </c>
       <c r="AN4" s="44">
         <f t="shared" ref="AN4:AN21" si="17">(AC4+O4+(LOG(I4)*4/3))*(IF(P4=7, (P4/7)^0.5, ((P4+1)/7)^0.5))</f>
-        <v>5.1897540009036023</v>
+        <v>5.2326652764838784</v>
       </c>
       <c r="AO4" s="30">
         <v>0</v>
@@ -6101,7 +6123,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AR4" s="47">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AS4" s="47">
         <v>14</v>
@@ -6123,7 +6145,7 @@
       </c>
       <c r="AY4" s="48">
         <f t="shared" ref="AY4:AY21" si="19">SUM(AR4:AX4)</f>
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="AZ4" s="39">
         <v>860</v>
@@ -6141,7 +6163,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.6875</v>
+        <v>8.625</v>
       </c>
       <c r="D5" s="306" t="s">
         <v>62</v>
@@ -6151,7 +6173,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>60</v>
@@ -6185,32 +6207,33 @@
         <v>1.5</v>
       </c>
       <c r="P5" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="31">
         <f>(P5/7)^0.5</f>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R5" s="31">
         <f>IF(P5=7,1,((P5+0.99)/7)^0.5)</f>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S5" s="39">
-        <v>3570</v>
+        <v>4560</v>
       </c>
       <c r="T5" s="40">
         <f t="shared" si="7"/>
-        <v>670</v>
+        <v>990</v>
       </c>
       <c r="U5" s="39">
         <v>890</v>
       </c>
       <c r="V5" s="42">
         <f>S5/U5</f>
-        <v>4.01123595505618</v>
+        <v>5.1235955056179776</v>
       </c>
       <c r="W5" s="45">
-        <v>6</v>
+        <f>6+1/2</f>
+        <v>6.5</v>
       </c>
       <c r="X5" s="34">
         <v>3</v>
@@ -6238,23 +6261,23 @@
       </c>
       <c r="AF5" s="43">
         <f t="shared" si="9"/>
-        <v>1.946176133122963</v>
+        <v>2.131929137979248</v>
       </c>
       <c r="AG5" s="43">
         <f t="shared" si="10"/>
-        <v>2.131929137979248</v>
+        <v>2.3027466551039497</v>
       </c>
       <c r="AH5" s="42">
         <f t="shared" si="11"/>
-        <v>1.4693260228085632</v>
+        <v>1.6095660140432004</v>
       </c>
       <c r="AI5" s="42">
         <f t="shared" si="12"/>
-        <v>-1.1924534015336088</v>
+        <v>-1.306267253587446</v>
       </c>
       <c r="AJ5" s="42">
         <f t="shared" si="13"/>
-        <v>3.1293920897428857</v>
+        <v>3.4280772776608193</v>
       </c>
       <c r="AK5" s="42">
         <f t="shared" si="14"/>
@@ -6266,11 +6289,11 @@
       </c>
       <c r="AM5" s="44">
         <f t="shared" si="16"/>
-        <v>3.4956946361467827</v>
+        <v>3.8293416127348134</v>
       </c>
       <c r="AN5" s="44">
         <f t="shared" si="17"/>
-        <v>3.8293416127348134</v>
+        <v>4.1361616729595498</v>
       </c>
       <c r="AO5" s="37">
         <v>2</v>
@@ -6283,7 +6306,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AR5" s="47">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AS5" s="47">
         <v>3</v>
@@ -6305,10 +6328,10 @@
       </c>
       <c r="AY5" s="48">
         <f>SUM(AR5:AX5)</f>
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AZ5" s="39">
-        <v>2900</v>
+        <v>3570</v>
       </c>
       <c r="BA5" s="49" t="s">
         <v>56</v>
@@ -6323,7 +6346,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.580357142857142</v>
+        <v>14.517857142857142</v>
       </c>
       <c r="D6" s="306" t="s">
         <v>59</v>
@@ -6333,7 +6356,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>60</v>
@@ -6378,22 +6401,22 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S6" s="39">
-        <v>2670</v>
+        <v>2810</v>
       </c>
       <c r="T6" s="40">
         <f t="shared" si="7"/>
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="U6" s="39">
         <v>990</v>
       </c>
       <c r="V6" s="42">
         <f t="shared" si="8"/>
-        <v>2.6969696969696968</v>
+        <v>2.8383838383838382</v>
       </c>
       <c r="W6" s="45">
-        <f>5+1/3*39/90</f>
-        <v>5.1444444444444448</v>
+        <f>5+1/3*40/90</f>
+        <v>5.1481481481481479</v>
       </c>
       <c r="X6" s="34">
         <v>2</v>
@@ -6492,7 +6515,7 @@
         <v>7.9333333333333336</v>
       </c>
       <c r="AZ6" s="39">
-        <v>2450</v>
+        <v>2670</v>
       </c>
       <c r="BA6" s="49" t="s">
         <v>56</v>
@@ -6507,7 +6530,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7857142857142856</v>
+        <v>3.7232142857142856</v>
       </c>
       <c r="D7" s="204" t="s">
         <v>65</v>
@@ -6517,7 +6540,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="32">
@@ -6564,7 +6587,7 @@
       </c>
       <c r="T7" s="40">
         <f t="shared" si="7"/>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="U7" s="41">
         <v>310</v>
@@ -6670,7 +6693,7 @@
         <v>28.5</v>
       </c>
       <c r="AZ7" s="39">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="BA7" s="49" t="s">
         <v>56</v>
@@ -6685,7 +6708,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2410714285714288</v>
+        <v>9.1785714285714288</v>
       </c>
       <c r="D8" s="194" t="s">
         <v>67</v>
@@ -6695,7 +6718,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577</f>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="32">
@@ -6738,18 +6761,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="S8" s="39">
-        <v>1240</v>
+        <v>1260</v>
       </c>
       <c r="T8" s="40">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="U8" s="41">
         <v>390</v>
       </c>
       <c r="V8" s="42">
         <f t="shared" si="8"/>
-        <v>3.1794871794871793</v>
+        <v>3.2307692307692308</v>
       </c>
       <c r="W8" s="45">
         <v>0</v>
@@ -6850,7 +6873,7 @@
         <v>23.5</v>
       </c>
       <c r="AZ8" s="39">
-        <v>1180</v>
+        <v>1240</v>
       </c>
       <c r="BA8" s="49" t="s">
         <v>56</v>
@@ -6865,7 +6888,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2142857142857144</v>
+        <v>7.1517857142857144</v>
       </c>
       <c r="D9" s="251" t="s">
         <v>69</v>
@@ -6875,26 +6898,26 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574</f>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="32">
         <v>5</v>
       </c>
       <c r="I9" s="53">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="J9" s="34">
         <f t="shared" si="1"/>
-        <v>0.94342690146391517</v>
+        <v>0.95467112484639893</v>
       </c>
       <c r="K9" s="35">
         <f t="shared" si="2"/>
-        <v>102.49999999999999</v>
+        <v>105</v>
       </c>
       <c r="L9" s="35">
         <f t="shared" si="3"/>
-        <v>147.6</v>
+        <v>151.20000000000002</v>
       </c>
       <c r="M9" s="54">
         <v>6</v>
@@ -6917,8 +6940,8 @@
         <f t="shared" si="6"/>
         <v>0.92504826128926143</v>
       </c>
-      <c r="S9" s="310">
-        <v>580</v>
+      <c r="S9" s="39">
+        <v>590</v>
       </c>
       <c r="T9" s="40">
         <f t="shared" si="7"/>
@@ -6929,7 +6952,7 @@
       </c>
       <c r="V9" s="42">
         <f t="shared" si="8"/>
-        <v>1.9333333333333333</v>
+        <v>1.9666666666666666</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
@@ -6960,39 +6983,39 @@
       </c>
       <c r="AF9" s="43">
         <f t="shared" si="9"/>
-        <v>6.2908439155329265</v>
+        <v>6.3003470187657511</v>
       </c>
       <c r="AG9" s="43">
         <f t="shared" si="10"/>
-        <v>6.8912742365630155</v>
+        <v>6.9016843645768517</v>
       </c>
       <c r="AH9" s="42">
         <f t="shared" si="11"/>
-        <v>1.513912213596331</v>
+        <v>1.5174758773086401</v>
       </c>
       <c r="AI9" s="42">
         <f t="shared" si="12"/>
-        <v>0.93809878579232464</v>
+        <v>0.95910064393686567</v>
       </c>
       <c r="AJ9" s="42">
         <f t="shared" si="13"/>
-        <v>4.0934428532387832</v>
+        <v>4.1029459564716078</v>
       </c>
       <c r="AK9" s="42">
         <f t="shared" si="14"/>
-        <v>0.33547415211711323</v>
+        <v>0.33637368998771189</v>
       </c>
       <c r="AL9" s="42">
         <f t="shared" si="15"/>
-        <v>0.46103988310247412</v>
+        <v>0.461826978739248</v>
       </c>
       <c r="AM9" s="44">
         <f t="shared" si="16"/>
-        <v>4.4937233245925032</v>
+        <v>4.5055165323267437</v>
       </c>
       <c r="AN9" s="44">
         <f t="shared" si="17"/>
-        <v>4.9226272641328466</v>
+        <v>4.9355460759356227</v>
       </c>
       <c r="AO9" s="37">
         <v>0</v>
@@ -7030,7 +7053,7 @@
         <v>20</v>
       </c>
       <c r="AZ9" s="310">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="BA9" s="49" t="s">
         <v>56</v>
@@ -7045,7 +7068,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9642857142857144</v>
+        <v>4.9017857142857144</v>
       </c>
       <c r="D10" s="251" t="s">
         <v>71</v>
@@ -7055,26 +7078,26 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546-112</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="32">
         <v>4</v>
       </c>
       <c r="I10" s="53">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="J10" s="34">
         <f t="shared" si="1"/>
-        <v>1.0471064466810227</v>
+        <v>1.0565222526643385</v>
       </c>
       <c r="K10" s="35">
         <f t="shared" si="2"/>
-        <v>81.599999999999994</v>
+        <v>83.2</v>
       </c>
       <c r="L10" s="35">
         <f t="shared" si="3"/>
-        <v>127.49999999999999</v>
+        <v>130</v>
       </c>
       <c r="M10" s="54">
         <v>5.6</v>
@@ -7098,18 +7121,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="S10" s="39">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="T10" s="40">
         <f t="shared" si="7"/>
-        <v>-70</v>
+        <v>-10</v>
       </c>
       <c r="U10" s="39">
         <v>280</v>
       </c>
       <c r="V10" s="42">
         <f t="shared" si="8"/>
-        <v>0.8928571428571429</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W10" s="45">
         <v>0</v>
@@ -7138,39 +7161,39 @@
       <c r="AE10" s="46"/>
       <c r="AF10" s="43">
         <f t="shared" si="9"/>
-        <v>5.5333148695729655</v>
+        <v>5.5412726780614641</v>
       </c>
       <c r="AG10" s="43">
         <f t="shared" si="10"/>
-        <v>6.0614427436877385</v>
+        <v>6.0701600861226517</v>
       </c>
       <c r="AH10" s="42">
         <f t="shared" si="11"/>
-        <v>1.7580602305666686</v>
+        <v>1.7610444087498554</v>
       </c>
       <c r="AI10" s="42">
         <f t="shared" si="12"/>
-        <v>1.1232989546235472</v>
+        <v>1.1408857113831266</v>
       </c>
       <c r="AJ10" s="42">
         <f t="shared" si="13"/>
-        <v>5.7023457205186681</v>
+        <v>5.7103035290071666</v>
       </c>
       <c r="AK10" s="42">
         <f t="shared" si="14"/>
-        <v>0.38376851573448179</v>
+        <v>0.38452178021314709</v>
       </c>
       <c r="AL10" s="42">
         <f t="shared" si="15"/>
-        <v>0.5582974512676715</v>
+        <v>0.55895655768650376</v>
       </c>
       <c r="AM10" s="44">
         <f t="shared" si="16"/>
-        <v>7.1359981702614439</v>
+        <v>7.1455012734942676</v>
       </c>
       <c r="AN10" s="44">
         <f t="shared" si="17"/>
-        <v>7.8170943363355674</v>
+        <v>7.8275044643494027</v>
       </c>
       <c r="AO10" s="37">
         <v>1</v>
@@ -7208,7 +7231,7 @@
         <v>21.5</v>
       </c>
       <c r="AZ10" s="39">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="BA10" s="49" t="s">
         <v>56</v>
@@ -7223,7 +7246,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.651785714285714</v>
+        <v>10.589285714285714</v>
       </c>
       <c r="D11" s="194" t="s">
         <v>74</v>
@@ -7233,7 +7256,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>75</v>
@@ -7267,29 +7290,29 @@
         <v>1.5</v>
       </c>
       <c r="P11" s="30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R11" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S11" s="41">
-        <v>930</v>
+        <v>1010</v>
       </c>
       <c r="T11" s="40">
         <f t="shared" si="7"/>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="U11" s="41">
         <v>330</v>
       </c>
       <c r="V11" s="42">
         <f t="shared" si="8"/>
-        <v>2.8181818181818183</v>
+        <v>3.0606060606060606</v>
       </c>
       <c r="W11" s="45">
         <v>1</v>
@@ -7320,23 +7343,23 @@
       </c>
       <c r="AF11" s="43">
         <f t="shared" si="9"/>
-        <v>6.0311574003323321</v>
+        <v>6.6068019120524681</v>
       </c>
       <c r="AG11" s="43">
         <f t="shared" si="10"/>
-        <v>6.6068019120524681</v>
+        <v>7.1361616729595498</v>
       </c>
       <c r="AH11" s="42">
         <f t="shared" si="11"/>
-        <v>1.944751179601431</v>
+        <v>2.1303681796049689</v>
       </c>
       <c r="AI11" s="42">
         <f t="shared" si="12"/>
-        <v>2.6968173302497154</v>
+        <v>2.9542153704972565</v>
       </c>
       <c r="AJ11" s="42">
         <f t="shared" si="13"/>
-        <v>5.2705185710766669</v>
+        <v>5.773563822257171</v>
       </c>
       <c r="AK11" s="42">
         <f t="shared" si="14"/>
@@ -7348,11 +7371,11 @@
       </c>
       <c r="AM11" s="44">
         <f t="shared" si="16"/>
-        <v>5.8327250312504519</v>
+        <v>6.3894301426817952</v>
       </c>
       <c r="AN11" s="44">
         <f t="shared" si="17"/>
-        <v>6.3894301426817952</v>
+        <v>6.9013733275519753</v>
       </c>
       <c r="AO11" s="30">
         <v>4</v>
@@ -7390,7 +7413,7 @@
         <v>22</v>
       </c>
       <c r="AZ11" s="41">
-        <v>820</v>
+        <v>930</v>
       </c>
       <c r="BA11" s="49" t="s">
         <v>56</v>
@@ -7405,7 +7428,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.991071428571429</v>
+        <v>13.928571428571429</v>
       </c>
       <c r="D12" s="204" t="s">
         <v>77</v>
@@ -7415,7 +7438,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549-112</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="32">
@@ -7437,39 +7460,39 @@
         <v>18</v>
       </c>
       <c r="M12" s="54">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="N12" s="37">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O12" s="38">
         <v>1.5</v>
       </c>
       <c r="P12" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R12" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S12" s="39">
-        <v>750</v>
+        <v>810</v>
       </c>
       <c r="T12" s="40">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>60</v>
       </c>
       <c r="U12" s="39">
         <v>310</v>
       </c>
       <c r="V12" s="42">
         <f t="shared" si="8"/>
-        <v>2.4193548387096775</v>
+        <v>2.6129032258064515</v>
       </c>
       <c r="W12" s="45">
         <v>0</v>
@@ -7500,23 +7523,23 @@
       </c>
       <c r="AF12" s="43">
         <f t="shared" si="9"/>
-        <v>6.0311574003323321</v>
+        <v>6.6068019120524681</v>
       </c>
       <c r="AG12" s="43">
         <f t="shared" si="10"/>
-        <v>6.6068019120524681</v>
+        <v>7.1361616729595498</v>
       </c>
       <c r="AH12" s="42">
         <f t="shared" si="11"/>
-        <v>1.7334626159193018</v>
+        <v>1.898913154661831</v>
       </c>
       <c r="AI12" s="42">
         <f t="shared" si="12"/>
-        <v>0.82902642729969456</v>
+        <v>0.90815294999991869</v>
       </c>
       <c r="AJ12" s="42">
         <f t="shared" si="13"/>
-        <v>4.4253643163481513</v>
+        <v>4.8477437224846209</v>
       </c>
       <c r="AK12" s="42">
         <f t="shared" si="14"/>
@@ -7528,11 +7551,11 @@
       </c>
       <c r="AM12" s="44">
         <f t="shared" si="16"/>
-        <v>4.9875707765219355</v>
+        <v>5.4636100429092433</v>
       </c>
       <c r="AN12" s="44">
         <f t="shared" si="17"/>
-        <v>5.4636100429092433</v>
+        <v>5.9013733275519753</v>
       </c>
       <c r="AO12" s="37">
         <v>2</v>
@@ -7570,7 +7593,7 @@
         <v>20.5</v>
       </c>
       <c r="AZ12" s="39">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="BA12" s="49" t="s">
         <v>56</v>
@@ -7585,7 +7608,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16.303571428571427</v>
+        <v>16.241071428571427</v>
       </c>
       <c r="D13" s="204" t="s">
         <v>79</v>
@@ -7595,7 +7618,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584</f>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="32">
@@ -7627,29 +7650,29 @@
         <v>1.5</v>
       </c>
       <c r="P13" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="R13" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.84430867747355465</v>
       </c>
       <c r="S13" s="39">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="T13" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="U13" s="39">
         <v>330</v>
       </c>
       <c r="V13" s="42">
         <f t="shared" si="8"/>
-        <v>2.7878787878787881</v>
+        <v>2.7272727272727271</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
@@ -7680,23 +7703,23 @@
       </c>
       <c r="AF13" s="43">
         <f t="shared" si="9"/>
-        <v>5.8327250312504519</v>
+        <v>5.2169478655762385</v>
       </c>
       <c r="AG13" s="43">
         <f t="shared" si="10"/>
-        <v>6.3894301426817952</v>
+        <v>5.8327250312504519</v>
       </c>
       <c r="AH13" s="42">
         <f t="shared" si="11"/>
-        <v>1.9759833230367903</v>
+        <v>1.7673732130864757</v>
       </c>
       <c r="AI13" s="42">
         <f t="shared" si="12"/>
-        <v>2.2582817945787612</v>
+        <v>2.0198686420113305</v>
       </c>
       <c r="AJ13" s="42">
         <f t="shared" si="13"/>
-        <v>5.0720862019947868</v>
+        <v>4.5366118141596292</v>
       </c>
       <c r="AK13" s="42">
         <f t="shared" si="14"/>
@@ -7708,11 +7731,11 @@
       </c>
       <c r="AM13" s="44">
         <f t="shared" si="16"/>
-        <v>5.4935026557353579</v>
+        <v>4.9135381491199537</v>
       </c>
       <c r="AN13" s="44">
         <f t="shared" si="17"/>
-        <v>6.017830648521584</v>
+        <v>5.4935026557353579</v>
       </c>
       <c r="AO13" s="37">
         <v>0</v>
@@ -7765,7 +7788,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.75</v>
+        <v>12.6875</v>
       </c>
       <c r="D14" s="204" t="s">
         <v>81</v>
@@ -7775,7 +7798,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="32">
@@ -7818,18 +7841,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="S14" s="39">
-        <v>1420</v>
+        <v>1430</v>
       </c>
       <c r="T14" s="40">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="U14" s="39">
         <v>430</v>
       </c>
       <c r="V14" s="42">
         <f t="shared" si="8"/>
-        <v>3.3023255813953489</v>
+        <v>3.3255813953488373</v>
       </c>
       <c r="W14" s="45">
         <v>0</v>
@@ -7930,7 +7953,7 @@
         <v>26</v>
       </c>
       <c r="AZ14" s="39">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="BA14" s="49" t="s">
         <v>56</v>
@@ -7945,7 +7968,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.767857142857142</v>
+        <v>11.705357142857142</v>
       </c>
       <c r="D15" s="204" t="s">
         <v>83</v>
@@ -7955,7 +7978,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="32">
@@ -8002,7 +8025,7 @@
       </c>
       <c r="T15" s="40">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U15" s="39">
         <v>410</v>
@@ -8110,7 +8133,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" s="39">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="BA15" s="49" t="s">
         <v>56</v>
@@ -8125,7 +8148,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7321428571428577</v>
+        <v>8.6696428571428577</v>
       </c>
       <c r="D16" s="204" t="s">
         <v>85</v>
@@ -8135,7 +8158,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>86</v>
@@ -8169,29 +8192,29 @@
         <v>1.5</v>
       </c>
       <c r="P16" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="5"/>
-        <v>0.7559289460184544</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="R16" s="31">
         <f t="shared" si="6"/>
-        <v>0.84430867747355465</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="S16" s="39">
-        <v>1420</v>
+        <v>1450</v>
       </c>
       <c r="T16" s="40">
         <f t="shared" si="7"/>
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="U16" s="39">
         <v>330</v>
       </c>
       <c r="V16" s="42">
         <f t="shared" si="8"/>
-        <v>4.3030303030303028</v>
+        <v>4.3939393939393936</v>
       </c>
       <c r="W16" s="45">
         <v>0</v>
@@ -8222,23 +8245,23 @@
       </c>
       <c r="AF16" s="43">
         <f t="shared" si="9"/>
-        <v>5.6180336940216087</v>
+        <v>6.2811526198582861</v>
       </c>
       <c r="AG16" s="43">
         <f t="shared" si="10"/>
-        <v>6.2811526198582861</v>
+        <v>6.8806579540581092</v>
       </c>
       <c r="AH16" s="42">
         <f t="shared" si="11"/>
-        <v>1.7287981622488759</v>
+        <v>1.9328551050825988</v>
       </c>
       <c r="AI16" s="42">
         <f t="shared" si="12"/>
-        <v>1.6589855619451492</v>
+        <v>1.8548022451000212</v>
       </c>
       <c r="AJ16" s="42">
         <f t="shared" si="13"/>
-        <v>3.3502468559662448</v>
+        <v>3.7456898556727354</v>
       </c>
       <c r="AK16" s="42">
         <f t="shared" si="14"/>
@@ -8250,11 +8273,11 @@
       </c>
       <c r="AM16" s="44">
         <f t="shared" si="16"/>
-        <v>3.252570743977159</v>
+        <v>3.6364846425799962</v>
       </c>
       <c r="AN16" s="44">
         <f t="shared" si="17"/>
-        <v>3.6364846425799962</v>
+        <v>3.9835693375243508</v>
       </c>
       <c r="AO16" s="37">
         <v>3</v>
@@ -8292,7 +8315,7 @@
         <v>26.5</v>
       </c>
       <c r="AZ16" s="39">
-        <v>1290</v>
+        <v>1420</v>
       </c>
       <c r="BA16" s="49" t="s">
         <v>56</v>
@@ -8307,7 +8330,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.982142857142858</v>
+        <v>14.919642857142858</v>
       </c>
       <c r="D17" s="204" t="s">
         <v>89</v>
@@ -8317,7 +8340,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548-112</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="32">
@@ -8339,39 +8362,39 @@
         <v>36</v>
       </c>
       <c r="M17" s="54">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="N17" s="37">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O17" s="38">
         <v>1.5</v>
       </c>
       <c r="P17" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S17" s="39">
-        <v>1540</v>
+        <v>1610</v>
       </c>
       <c r="T17" s="40">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="U17" s="39">
         <v>330</v>
       </c>
       <c r="V17" s="42">
         <f t="shared" si="8"/>
-        <v>4.666666666666667</v>
+        <v>4.8787878787878789</v>
       </c>
       <c r="W17" s="45">
         <v>0</v>
@@ -8402,23 +8425,23 @@
       </c>
       <c r="AF17" s="43">
         <f t="shared" si="9"/>
-        <v>5.8327250312504519</v>
+        <v>6.3894301426817952</v>
       </c>
       <c r="AG17" s="43">
         <f t="shared" si="10"/>
-        <v>6.3894301426817952</v>
+        <v>6.9013733275519753</v>
       </c>
       <c r="AH17" s="42">
         <f t="shared" si="11"/>
-        <v>1.8703390411957257</v>
+        <v>2.048853766090966</v>
       </c>
       <c r="AI17" s="42">
         <f t="shared" si="12"/>
-        <v>0.39049089162873901</v>
+        <v>0.42776133969073116</v>
       </c>
       <c r="AJ17" s="42">
         <f t="shared" si="13"/>
-        <v>4.2269319472662703</v>
+        <v>4.6303719531139471</v>
       </c>
       <c r="AK17" s="42">
         <f t="shared" si="14"/>
@@ -8430,11 +8453,11 @@
       </c>
       <c r="AM17" s="44">
         <f t="shared" si="16"/>
-        <v>4.6483484010068414</v>
+        <v>5.092010548749033</v>
       </c>
       <c r="AN17" s="44">
         <f t="shared" si="17"/>
-        <v>5.092010548749033</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" s="37">
         <v>1</v>
@@ -8472,7 +8495,7 @@
         <v>26.5</v>
       </c>
       <c r="AZ17" s="39">
-        <v>1500</v>
+        <v>1540</v>
       </c>
       <c r="BA17" s="49" t="s">
         <v>56</v>
@@ -8487,7 +8510,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.142857142857142</v>
+        <v>13.080357142857142</v>
       </c>
       <c r="D18" s="204" t="s">
         <v>91</v>
@@ -8497,7 +8520,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566</f>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="32">
@@ -8667,7 +8690,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.732142857142858</v>
+        <v>17.669642857142858</v>
       </c>
       <c r="D19" s="204" t="s">
         <v>94</v>
@@ -8677,7 +8700,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -8720,7 +8743,7 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="S19" s="39">
-        <v>1330</v>
+        <v>1350</v>
       </c>
       <c r="T19" s="40">
         <f t="shared" si="7"/>
@@ -8731,7 +8754,7 @@
       </c>
       <c r="V19" s="42">
         <f t="shared" si="8"/>
-        <v>3.2439024390243905</v>
+        <v>3.2926829268292681</v>
       </c>
       <c r="W19" s="45">
         <v>0</v>
@@ -8832,7 +8855,7 @@
         <v>25.5</v>
       </c>
       <c r="AZ19" s="39">
-        <v>1310</v>
+        <v>1330</v>
       </c>
       <c r="BA19" s="49" t="s">
         <v>56</v>
@@ -8847,7 +8870,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7767857142857144</v>
+        <v>2.7142857142857144</v>
       </c>
       <c r="D20" s="204" t="s">
         <v>96</v>
@@ -8857,7 +8880,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="32">
@@ -8904,7 +8927,7 @@
       </c>
       <c r="T20" s="40">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="U20" s="39">
         <v>310</v>
@@ -9010,7 +9033,7 @@
         <v>18</v>
       </c>
       <c r="AZ20" s="39">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="BA20" s="49" t="s">
         <v>56</v>
@@ -9025,7 +9048,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8303571428571423</v>
+        <v>9.7678571428571423</v>
       </c>
       <c r="D21" s="204" t="s">
         <v>98</v>
@@ -9035,7 +9058,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="32">
@@ -9067,29 +9090,29 @@
         <v>1.5</v>
       </c>
       <c r="P21" s="37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="5"/>
-        <v>0.92582009977255142</v>
+        <v>0.84515425472851657</v>
       </c>
       <c r="R21" s="31">
         <f t="shared" si="6"/>
-        <v>0.99928545900129484</v>
+        <v>0.92504826128926143</v>
       </c>
       <c r="S21" s="39">
-        <v>1030</v>
+        <v>980</v>
       </c>
       <c r="T21" s="40">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>-50</v>
       </c>
       <c r="U21" s="39">
         <v>310</v>
       </c>
       <c r="V21" s="42">
         <f t="shared" si="8"/>
-        <v>3.3225806451612905</v>
+        <v>3.161290322580645</v>
       </c>
       <c r="W21" s="45">
         <v>0</v>
@@ -9120,23 +9143,23 @@
       </c>
       <c r="AF21" s="43">
         <f t="shared" si="9"/>
-        <v>4.9093894372969018</v>
+        <v>4.4816388973085131</v>
       </c>
       <c r="AG21" s="43">
         <f t="shared" si="10"/>
-        <v>5.3027466551039497</v>
+        <v>4.9093894372969018</v>
       </c>
       <c r="AH21" s="42">
         <f t="shared" si="11"/>
-        <v>2.1882035764010452</v>
+        <v>1.9975474320138862</v>
       </c>
       <c r="AI21" s="42">
         <f t="shared" si="12"/>
-        <v>6.3780395745247294</v>
+        <v>5.8223269127130779</v>
       </c>
       <c r="AJ21" s="42">
         <f t="shared" si="13"/>
-        <v>4.8168074273196462</v>
+        <v>4.3971234718356609</v>
       </c>
       <c r="AK21" s="42">
         <f t="shared" si="14"/>
@@ -9148,11 +9171,11 @@
       </c>
       <c r="AM21" s="44">
         <f t="shared" si="16"/>
-        <v>3.8293416127348134</v>
+        <v>3.4956946361467827</v>
       </c>
       <c r="AN21" s="44">
         <f t="shared" si="17"/>
-        <v>4.1361616729595498</v>
+        <v>3.8293416127348134</v>
       </c>
       <c r="AO21" s="37">
         <v>3</v>
@@ -9190,7 +9213,7 @@
         <v>18</v>
       </c>
       <c r="AZ21" s="39">
-        <v>970</v>
+        <v>1030</v>
       </c>
       <c r="BA21" s="49" t="s">
         <v>56</v>
@@ -9210,11 +9233,11 @@
       <c r="R22" s="62"/>
       <c r="S22" s="63">
         <f>SUM(S4:S21)</f>
-        <v>22410</v>
+        <v>23750</v>
       </c>
       <c r="T22" s="63">
         <f t="shared" ref="T22:U22" si="20">SUM(T4:T21)</f>
-        <v>1240</v>
+        <v>1340</v>
       </c>
       <c r="U22" s="63">
         <f t="shared" si="20"/>
@@ -9222,7 +9245,7 @@
       </c>
       <c r="V22" s="64">
         <f t="shared" si="8"/>
-        <v>3.0283783783783784</v>
+        <v>3.2094594594594597</v>
       </c>
       <c r="AC22" s="62"/>
       <c r="AD22" s="63"/>
@@ -9458,27 +9481,27 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ4:AQ21">
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N21">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
       <formula>70</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U21">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9492,7 +9515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V21">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="75">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9506,7 +9529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S21">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9520,7 +9543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE21">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9534,7 +9557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C21">
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9546,7 +9569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AG21">
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9558,7 +9581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AH21">
-    <cfRule type="colorScale" priority="84">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9570,7 +9593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AI21">
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9582,7 +9605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AJ21">
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9594,7 +9617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK4:AL21">
-    <cfRule type="colorScale" priority="90">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9606,7 +9629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AN21">
-    <cfRule type="colorScale" priority="92">
+    <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9618,10 +9641,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AC21">
-    <cfRule type="cellIs" dxfId="10" priority="94" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="95" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9631,7 +9654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I21">
-    <cfRule type="colorScale" priority="98">
+    <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9643,7 +9666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AX21">
-    <cfRule type="colorScale" priority="100">
+    <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9653,7 +9676,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T21">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9667,7 +9690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AY21">
-    <cfRule type="colorScale" priority="104">
+    <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9679,7 +9702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD21">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9693,7 +9716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R21">
-    <cfRule type="colorScale" priority="108">
+    <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9713,7 +9736,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0FBB8AC6-726D-4109-8012-1A7B4D9EAA72}</x14:id>
+          <x14:id>{7813D7C0-F606-4C7B-80B6-E02D106C30FD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -9792,7 +9815,7 @@
           <xm:sqref>AD4:AD21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0FBB8AC6-726D-4109-8012-1A7B4D9EAA72}">
+          <x14:cfRule type="dataBar" id="{7813D7C0-F606-4C7B-80B6-E02D106C30FD}">
             <x14:dataBar>
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -9813,13 +9836,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9844,22 +9867,22 @@
     <col min="28" max="28" width="4.7109375" style="62" customWidth="1"/>
     <col min="29" max="29" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="4.85546875" style="62" customWidth="1"/>
-    <col min="31" max="33" width="4" style="62" customWidth="1"/>
-    <col min="34" max="34" width="4.7109375" style="62" customWidth="1"/>
-    <col min="35" max="35" width="5.140625" style="62" customWidth="1"/>
-    <col min="36" max="36" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5703125" style="318" bestFit="1" customWidth="1"/>
-    <col min="38" max="1021" width="10.7109375" customWidth="1"/>
+    <col min="31" max="34" width="4" style="62" customWidth="1"/>
+    <col min="35" max="35" width="4.7109375" style="62" customWidth="1"/>
+    <col min="36" max="36" width="5.140625" style="62" customWidth="1"/>
+    <col min="37" max="37" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="318" bestFit="1" customWidth="1"/>
+    <col min="39" max="1022" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="382" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" s="386" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="382"/>
-      <c r="C1" s="382"/>
-      <c r="D1" s="382"/>
-      <c r="E1" s="382"/>
+      <c r="B1" s="386"/>
+      <c r="C1" s="386"/>
+      <c r="D1" s="386"/>
+      <c r="E1" s="386"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -9886,14 +9909,15 @@
       <c r="AC1" s="107"/>
       <c r="AD1" s="300"/>
       <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="300"/>
-      <c r="AH1" s="107"/>
+      <c r="AF1" s="378"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="300"/>
       <c r="AI1" s="107"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="311"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="109"/>
+      <c r="AL1" s="311"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>169</v>
       </c>
@@ -9933,10 +9957,11 @@
       <c r="AG2" s="111"/>
       <c r="AH2" s="111"/>
       <c r="AI2" s="111"/>
-      <c r="AJ2" s="112"/>
-      <c r="AK2" s="311"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="112"/>
+      <c r="AL2" s="311"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
@@ -9953,7 +9978,7 @@
         <v>154</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G3" s="111" t="s">
         <v>155</v>
@@ -10001,7 +10026,7 @@
         <v>41</v>
       </c>
       <c r="V3" s="111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W3" s="111" t="s">
         <v>162</v>
@@ -10013,57 +10038,60 @@
         <v>161</v>
       </c>
       <c r="Z3" s="111" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AA3" s="111" t="s">
         <v>58</v>
       </c>
       <c r="AB3" s="111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC3" s="111" t="s">
         <v>164</v>
       </c>
       <c r="AD3" s="111" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE3" s="111" t="s">
         <v>165</v>
       </c>
       <c r="AF3" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG3" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="AG3" s="111" t="s">
-        <v>280</v>
-      </c>
       <c r="AH3" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI3" s="111" t="s">
         <v>167</v>
       </c>
-      <c r="AI3" s="111" t="s">
+      <c r="AJ3" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="112" t="s">
+      <c r="AK3" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="AK3" s="319" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="375" t="s">
-        <v>279</v>
+      <c r="AL3" s="319" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="374" t="s">
+        <v>278</v>
       </c>
       <c r="B4" s="127">
         <v>16</v>
       </c>
       <c r="C4" s="128">
         <f ca="1">6+$A$30-$A$32</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="132"/>
       <c r="E4" s="195">
         <f ca="1">F4-TODAY()</f>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F4" s="203">
         <v>43757</v>
@@ -10105,39 +10133,42 @@
       <c r="Z4" s="200">
         <v>0</v>
       </c>
-      <c r="AA4" s="329"/>
-      <c r="AB4" s="329">
+      <c r="AA4" s="328"/>
+      <c r="AB4" s="328">
         <v>4.5</v>
       </c>
-      <c r="AC4" s="330"/>
-      <c r="AD4" s="330"/>
-      <c r="AE4" s="330"/>
-      <c r="AF4" s="330"/>
-      <c r="AG4" s="330">
+      <c r="AC4" s="329"/>
+      <c r="AD4" s="329"/>
+      <c r="AE4" s="329"/>
+      <c r="AF4" s="329"/>
+      <c r="AG4" s="329"/>
+      <c r="AH4" s="329">
         <v>5.5</v>
       </c>
-      <c r="AH4" s="330"/>
-      <c r="AI4" s="330"/>
-      <c r="AJ4" s="202" t="s">
-        <v>282</v>
-      </c>
-      <c r="AK4" s="313"/>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="375" t="s">
-        <v>338</v>
+      <c r="AI4" s="329">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="329"/>
+      <c r="AK4" s="202" t="s">
+        <v>281</v>
+      </c>
+      <c r="AL4" s="313"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="374" t="s">
+        <v>336</v>
       </c>
       <c r="B5" s="133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="128">
-        <f ca="1">84+$A$30-$A$32</f>
-        <v>109</v>
+        <f ca="1">84+$A$30-$A$32-112</f>
+        <v>4</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="195">
         <f ca="1">F5-TODAY()</f>
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F5" s="203">
         <v>43777</v>
@@ -10154,7 +10185,9 @@
         <v>5.99</v>
       </c>
       <c r="L5" s="325"/>
-      <c r="M5" s="325"/>
+      <c r="M5" s="323">
+        <v>4.99</v>
+      </c>
       <c r="N5" s="325"/>
       <c r="O5" s="325"/>
       <c r="P5" s="325"/>
@@ -10164,43 +10197,46 @@
       <c r="T5" s="325"/>
       <c r="U5" s="325"/>
       <c r="V5" s="199" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="W5" s="200"/>
       <c r="X5" s="200">
         <f>COUNT(I5,K5,M5,O5,Q5,S5,U5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="130">
         <v>0</v>
       </c>
       <c r="Z5" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="329"/>
-      <c r="AB5" s="329">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="328"/>
+      <c r="AB5" s="328">
         <v>5</v>
       </c>
-      <c r="AC5" s="330"/>
-      <c r="AD5" s="330"/>
-      <c r="AE5" s="330"/>
-      <c r="AF5" s="330"/>
-      <c r="AG5" s="330"/>
-      <c r="AH5" s="330"/>
-      <c r="AI5" s="330"/>
-      <c r="AJ5" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK5" s="312"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="383" t="s">
+      <c r="AC5" s="329"/>
+      <c r="AD5" s="329"/>
+      <c r="AE5" s="329"/>
+      <c r="AF5" s="329"/>
+      <c r="AG5" s="329"/>
+      <c r="AH5" s="329">
+        <v>4.5</v>
+      </c>
+      <c r="AI5" s="329"/>
+      <c r="AJ5" s="329"/>
+      <c r="AK5" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL5" s="312"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="387" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="383"/>
-      <c r="C6" s="383"/>
-      <c r="D6" s="383"/>
-      <c r="E6" s="383"/>
+      <c r="B6" s="387"/>
+      <c r="C6" s="387"/>
+      <c r="D6" s="387"/>
+      <c r="E6" s="387"/>
       <c r="F6" s="116"/>
       <c r="G6" s="115"/>
       <c r="H6" s="116"/>
@@ -10227,14 +10263,15 @@
       <c r="AC6" s="115"/>
       <c r="AD6" s="301"/>
       <c r="AE6" s="115"/>
-      <c r="AF6" s="115"/>
-      <c r="AG6" s="301"/>
-      <c r="AH6" s="115"/>
+      <c r="AF6" s="379"/>
+      <c r="AG6" s="115"/>
+      <c r="AH6" s="301"/>
       <c r="AI6" s="115"/>
-      <c r="AJ6" s="117"/>
-      <c r="AK6" s="314"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="115"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="314"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
         <v>169</v>
       </c>
@@ -10274,10 +10311,11 @@
       <c r="AG7" s="119"/>
       <c r="AH7" s="119"/>
       <c r="AI7" s="119"/>
-      <c r="AJ7" s="120"/>
-      <c r="AK7" s="314"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="119"/>
+      <c r="AK7" s="120"/>
+      <c r="AL7" s="314"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="118" t="s">
         <v>3</v>
       </c>
@@ -10365,53 +10403,56 @@
         <v>58</v>
       </c>
       <c r="AB8" s="119" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC8" s="119" t="s">
         <v>164</v>
       </c>
       <c r="AD8" s="119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE8" s="119" t="s">
         <v>165</v>
       </c>
       <c r="AF8" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG8" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="AG8" s="119" t="s">
-        <v>280</v>
-      </c>
       <c r="AH8" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI8" s="119" t="s">
         <v>167</v>
       </c>
-      <c r="AI8" s="119" t="s">
+      <c r="AJ8" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="AJ8" s="120" t="str">
-        <f>AJ3</f>
+      <c r="AK8" s="120" t="str">
+        <f>AK3</f>
         <v>Ca</v>
       </c>
-      <c r="AK8" s="320" t="str">
-        <f>AK3</f>
+      <c r="AL8" s="320" t="str">
+        <f>AL3</f>
         <v>Comentarios</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="136" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="127">
         <v>16</v>
       </c>
       <c r="C9" s="128">
         <f ca="1">67+$A$30-$A$32</f>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D9" s="129"/>
       <c r="E9" s="195">
-        <f t="shared" ref="E9:E14" ca="1" si="1">F9-TODAY()</f>
-        <v>87</v>
+        <f t="shared" ref="E9:E15" ca="1" si="1">F9-TODAY()</f>
+        <v>80</v>
       </c>
       <c r="F9" s="203">
         <v>43749</v>
@@ -10440,7 +10481,7 @@
       </c>
       <c r="W9" s="200"/>
       <c r="X9" s="200">
-        <f t="shared" ref="X9:X14" si="2">COUNT(I9,K9,M9,O9,Q9,S9,U9)</f>
+        <f t="shared" ref="X9:X15" si="2">COUNT(I9,K9,M9,O9,Q9,S9,U9)</f>
         <v>2</v>
       </c>
       <c r="Y9" s="130">
@@ -10449,45 +10490,46 @@
       <c r="Z9" s="200">
         <v>0</v>
       </c>
-      <c r="AA9" s="329"/>
-      <c r="AB9" s="329">
+      <c r="AA9" s="328"/>
+      <c r="AB9" s="328">
         <v>3.5</v>
       </c>
-      <c r="AC9" s="330"/>
-      <c r="AD9" s="330"/>
-      <c r="AE9" s="330"/>
-      <c r="AF9" s="330">
+      <c r="AC9" s="329"/>
+      <c r="AD9" s="329"/>
+      <c r="AE9" s="329"/>
+      <c r="AF9" s="329"/>
+      <c r="AG9" s="329">
         <v>3.5</v>
       </c>
-      <c r="AG9" s="330">
+      <c r="AH9" s="329">
         <v>4.5</v>
       </c>
-      <c r="AH9" s="330">
+      <c r="AI9" s="329">
         <v>3</v>
       </c>
-      <c r="AI9" s="330"/>
-      <c r="AJ9" s="202" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK9" s="312" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="329"/>
+      <c r="AK9" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL9" s="312" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="136" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="127">
         <v>16</v>
       </c>
       <c r="C10" s="128">
         <f ca="1">40+$A$30-$A$32</f>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D10" s="129"/>
       <c r="E10" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F10" s="203">
         <v>43749</v>
@@ -10521,47 +10563,50 @@
       <c r="Z10" s="200">
         <v>0</v>
       </c>
-      <c r="AA10" s="329">
+      <c r="AA10" s="328">
         <v>2</v>
       </c>
-      <c r="AB10" s="329">
+      <c r="AB10" s="328">
         <v>4</v>
       </c>
-      <c r="AC10" s="330">
+      <c r="AC10" s="329">
         <v>3</v>
       </c>
-      <c r="AD10" s="330">
+      <c r="AD10" s="329">
         <v>4.5</v>
       </c>
-      <c r="AE10" s="330"/>
-      <c r="AF10" s="330">
+      <c r="AE10" s="329">
+        <v>3.5</v>
+      </c>
+      <c r="AF10" s="329"/>
+      <c r="AG10" s="329">
         <v>2.5</v>
       </c>
-      <c r="AG10" s="330"/>
-      <c r="AH10" s="330"/>
-      <c r="AI10" s="330"/>
-      <c r="AJ10" s="202" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK10" s="312" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH10" s="329"/>
+      <c r="AI10" s="329"/>
+      <c r="AJ10" s="329"/>
+      <c r="AK10" s="202" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL10" s="312" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="135" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="133">
         <v>16</v>
       </c>
       <c r="C11" s="128">
         <f ca="1">71+$A$30-$A$32</f>
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D11" s="134"/>
       <c r="E11" s="195">
         <f ca="1">F11-TODAY()</f>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F11" s="203">
         <v>43749</v>
@@ -10569,12 +10614,14 @@
       <c r="G11" s="196"/>
       <c r="H11" s="325"/>
       <c r="I11" s="325"/>
-      <c r="J11" s="325"/>
+      <c r="J11" s="323">
+        <v>3</v>
+      </c>
       <c r="K11" s="325"/>
-      <c r="L11" s="328">
+      <c r="L11" s="327">
         <v>2</v>
       </c>
-      <c r="M11" s="328">
+      <c r="M11" s="327">
         <v>2.99</v>
       </c>
       <c r="N11" s="325"/>
@@ -10599,27 +10646,30 @@
       <c r="Z11" s="200">
         <v>0</v>
       </c>
-      <c r="AA11" s="329"/>
-      <c r="AB11" s="329"/>
-      <c r="AC11" s="330"/>
-      <c r="AD11" s="330"/>
-      <c r="AE11" s="330"/>
-      <c r="AF11" s="330"/>
-      <c r="AG11" s="330"/>
-      <c r="AH11" s="330">
+      <c r="AA11" s="328"/>
+      <c r="AB11" s="328"/>
+      <c r="AC11" s="329"/>
+      <c r="AD11" s="329"/>
+      <c r="AE11" s="329"/>
+      <c r="AF11" s="329"/>
+      <c r="AG11" s="329">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="329"/>
+      <c r="AI11" s="329">
         <v>3.5</v>
       </c>
-      <c r="AI11" s="330">
+      <c r="AJ11" s="329">
         <v>4.5</v>
       </c>
-      <c r="AJ11" s="202" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK11" s="312" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK11" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL11" s="312" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="304" t="s">
         <v>186</v>
       </c>
@@ -10628,12 +10678,12 @@
       </c>
       <c r="C12" s="128">
         <f ca="1">-1+$A$30-$A$32</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D12" s="132"/>
       <c r="E12" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F12" s="203">
         <v>43750</v>
@@ -10669,543 +10719,571 @@
       <c r="Z12" s="200">
         <v>0</v>
       </c>
-      <c r="AA12" s="329">
+      <c r="AA12" s="328">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="329">
+      <c r="AB12" s="328">
         <v>3.5</v>
       </c>
-      <c r="AC12" s="330">
+      <c r="AC12" s="329">
         <v>2.5</v>
       </c>
-      <c r="AD12" s="330"/>
-      <c r="AE12" s="330">
+      <c r="AD12" s="329">
+        <v>3</v>
+      </c>
+      <c r="AE12" s="329">
         <v>2.5</v>
       </c>
-      <c r="AF12" s="330"/>
-      <c r="AG12" s="330"/>
-      <c r="AH12" s="330">
+      <c r="AF12" s="329"/>
+      <c r="AG12" s="329"/>
+      <c r="AH12" s="329"/>
+      <c r="AI12" s="329">
         <v>3.5</v>
       </c>
-      <c r="AI12" s="330">
+      <c r="AJ12" s="329">
         <v>3</v>
       </c>
-      <c r="AJ12" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK12" s="313"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="376" t="s">
-        <v>285</v>
-      </c>
-      <c r="B13" s="127">
-        <v>15</v>
+      <c r="AK12" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL12" s="313"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="413" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="133">
+        <v>16</v>
       </c>
       <c r="C13" s="128">
-        <f ca="1">67+$A$30-$A$32+14</f>
-        <v>106</v>
-      </c>
-      <c r="D13" s="129"/>
+        <f ca="1">58+$A$30-$A$32</f>
+        <v>90</v>
+      </c>
+      <c r="D13" s="134"/>
       <c r="E13" s="195">
-        <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <f ca="1">F13-TODAY()</f>
+        <v>109</v>
       </c>
       <c r="F13" s="203">
-        <v>43780</v>
-      </c>
-      <c r="G13" s="196"/>
+        <v>43778</v>
+      </c>
+      <c r="G13" s="196" t="s">
+        <v>342</v>
+      </c>
       <c r="H13" s="325"/>
       <c r="I13" s="325"/>
       <c r="J13" s="325"/>
-      <c r="K13" s="325"/>
-      <c r="L13" s="409">
-        <v>3</v>
-      </c>
-      <c r="M13" s="409">
-        <v>3.99</v>
-      </c>
+      <c r="K13" s="323">
+        <v>4.99</v>
+      </c>
+      <c r="L13" s="325"/>
+      <c r="M13" s="325"/>
       <c r="N13" s="325"/>
       <c r="O13" s="323">
         <v>3.99</v>
       </c>
       <c r="P13" s="325"/>
       <c r="Q13" s="325"/>
-      <c r="R13" s="325"/>
+      <c r="R13" s="323">
+        <v>3</v>
+      </c>
       <c r="S13" s="325"/>
       <c r="T13" s="325"/>
       <c r="U13" s="325"/>
-      <c r="V13" s="199" t="s">
-        <v>183</v>
+      <c r="V13" s="197" t="s">
+        <v>343</v>
       </c>
       <c r="W13" s="200"/>
       <c r="X13" s="200">
-        <f t="shared" si="2"/>
+        <f>COUNT(I13,K13,M13,O13,Q13,S13,U13)</f>
         <v>2</v>
       </c>
       <c r="Y13" s="130">
         <v>0</v>
       </c>
       <c r="Z13" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="328"/>
+      <c r="AB13" s="328">
+        <v>3.5</v>
+      </c>
+      <c r="AC13" s="329"/>
+      <c r="AD13" s="329"/>
+      <c r="AE13" s="329"/>
+      <c r="AF13" s="329"/>
+      <c r="AG13" s="329"/>
+      <c r="AH13" s="329"/>
+      <c r="AI13" s="329"/>
+      <c r="AJ13" s="329"/>
+      <c r="AK13" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL13" s="312" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="375" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="127">
+        <v>16</v>
+      </c>
+      <c r="C14" s="128">
+        <f ca="1">67+$A$30-$A$32+14-112</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="329"/>
-      <c r="AB13" s="329">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="330"/>
-      <c r="AD13" s="330"/>
-      <c r="AE13" s="330"/>
-      <c r="AF13" s="330"/>
-      <c r="AG13" s="330">
-        <v>3.5</v>
-      </c>
-      <c r="AH13" s="330">
-        <v>3.5</v>
-      </c>
-      <c r="AI13" s="330"/>
-      <c r="AJ13" s="202" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK13" s="312"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="305" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="133">
-        <v>15</v>
-      </c>
-      <c r="C14" s="128">
-        <f ca="1">51+$A$30-$A$32</f>
-        <v>76</v>
-      </c>
-      <c r="D14" s="129" t="s">
-        <v>286</v>
-      </c>
+      <c r="D14" s="129"/>
       <c r="E14" s="195">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="F14" s="203">
-        <v>43810</v>
+        <v>43780</v>
       </c>
       <c r="G14" s="196"/>
       <c r="H14" s="325"/>
       <c r="I14" s="325"/>
       <c r="J14" s="325"/>
       <c r="K14" s="325"/>
-      <c r="L14" s="325"/>
-      <c r="M14" s="323">
+      <c r="L14" s="376">
+        <v>3</v>
+      </c>
+      <c r="M14" s="376">
         <v>3.99</v>
       </c>
       <c r="N14" s="325"/>
-      <c r="O14" s="325"/>
+      <c r="O14" s="323">
+        <v>3.99</v>
+      </c>
       <c r="P14" s="325"/>
       <c r="Q14" s="325"/>
       <c r="R14" s="325"/>
       <c r="S14" s="325"/>
       <c r="T14" s="325"/>
       <c r="U14" s="325"/>
-      <c r="V14" s="198" t="s">
-        <v>180</v>
+      <c r="V14" s="199" t="s">
+        <v>183</v>
       </c>
       <c r="W14" s="200"/>
       <c r="X14" s="200">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Y14" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="200">
         <v>1</v>
       </c>
-      <c r="Y14" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="329">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="329"/>
-      <c r="AC14" s="330"/>
-      <c r="AD14" s="330"/>
-      <c r="AE14" s="330"/>
-      <c r="AF14" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AG14" s="330">
-        <v>4</v>
-      </c>
-      <c r="AH14" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AI14" s="330"/>
-      <c r="AJ14" s="202" t="s">
-        <v>240</v>
-      </c>
-      <c r="AK14" s="312" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA14" s="328"/>
+      <c r="AB14" s="328">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="329"/>
+      <c r="AD14" s="329"/>
+      <c r="AE14" s="329"/>
+      <c r="AF14" s="329"/>
+      <c r="AG14" s="329"/>
+      <c r="AH14" s="329">
+        <v>3.5</v>
+      </c>
+      <c r="AI14" s="329">
+        <v>3.5</v>
+      </c>
+      <c r="AJ14" s="329">
+        <v>4.5</v>
+      </c>
+      <c r="AK14" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL14" s="312"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="305" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="127">
+        <v>181</v>
+      </c>
+      <c r="B15" s="133">
         <v>15</v>
       </c>
       <c r="C15" s="128">
-        <f ca="1">3+$A$30-$A$32</f>
-        <v>28</v>
-      </c>
-      <c r="D15" s="129"/>
+        <f ca="1">51+$A$30-$A$32</f>
+        <v>83</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>285</v>
+      </c>
       <c r="E15" s="195">
-        <f ca="1">F15-TODAY()</f>
-        <v>196</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>141</v>
       </c>
       <c r="F15" s="203">
-        <v>43858</v>
+        <v>43810</v>
       </c>
       <c r="G15" s="196"/>
-      <c r="H15" s="322"/>
-      <c r="I15" s="322"/>
-      <c r="J15" s="323">
-        <v>1</v>
-      </c>
-      <c r="K15" s="322"/>
-      <c r="L15" s="322"/>
-      <c r="M15" s="322"/>
-      <c r="N15" s="322"/>
-      <c r="O15" s="323">
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
+      <c r="K15" s="325"/>
+      <c r="L15" s="325"/>
+      <c r="M15" s="323">
         <v>3.99</v>
       </c>
-      <c r="P15" s="322"/>
-      <c r="Q15" s="324">
-        <v>5.99</v>
-      </c>
-      <c r="R15" s="322"/>
-      <c r="S15" s="322"/>
-      <c r="T15" s="322"/>
-      <c r="U15" s="322"/>
-      <c r="V15" s="197" t="s">
-        <v>174</v>
+      <c r="N15" s="325"/>
+      <c r="O15" s="325"/>
+      <c r="P15" s="325"/>
+      <c r="Q15" s="325"/>
+      <c r="R15" s="325"/>
+      <c r="S15" s="325"/>
+      <c r="T15" s="325"/>
+      <c r="U15" s="325"/>
+      <c r="V15" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W15" s="200"/>
       <c r="X15" s="200">
-        <f>COUNT(I15,K15,M15,O15,Q15,S15,U15)</f>
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="328">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="328"/>
+      <c r="AC15" s="329"/>
+      <c r="AD15" s="329"/>
+      <c r="AE15" s="329"/>
+      <c r="AF15" s="329"/>
+      <c r="AG15" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="AH15" s="329">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="AJ15" s="329">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL15" s="312" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="305" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="127">
+        <v>15</v>
+      </c>
+      <c r="C16" s="128">
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>35</v>
+      </c>
+      <c r="D16" s="129"/>
+      <c r="E16" s="195">
+        <f ca="1">F16-TODAY()</f>
+        <v>189</v>
+      </c>
+      <c r="F16" s="203">
+        <v>43858</v>
+      </c>
+      <c r="G16" s="196"/>
+      <c r="H16" s="322"/>
+      <c r="I16" s="322"/>
+      <c r="J16" s="323">
+        <v>1</v>
+      </c>
+      <c r="K16" s="322"/>
+      <c r="L16" s="322"/>
+      <c r="M16" s="322"/>
+      <c r="N16" s="322"/>
+      <c r="O16" s="323">
+        <v>3.99</v>
+      </c>
+      <c r="P16" s="322"/>
+      <c r="Q16" s="324">
+        <v>5.99</v>
+      </c>
+      <c r="R16" s="322"/>
+      <c r="S16" s="322"/>
+      <c r="T16" s="322"/>
+      <c r="U16" s="322"/>
+      <c r="V16" s="197" t="s">
+        <v>174</v>
+      </c>
+      <c r="W16" s="200"/>
+      <c r="X16" s="200">
+        <f>COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
         <v>2</v>
       </c>
-      <c r="Y15" s="130">
+      <c r="Y16" s="130">
         <v>2</v>
       </c>
-      <c r="Z15" s="200">
+      <c r="Z16" s="200">
         <v>2</v>
       </c>
-      <c r="AA15" s="329"/>
-      <c r="AB15" s="329">
+      <c r="AA16" s="328"/>
+      <c r="AB16" s="328">
         <v>1</v>
       </c>
-      <c r="AC15" s="330"/>
-      <c r="AD15" s="330"/>
-      <c r="AE15" s="330"/>
-      <c r="AF15" s="330"/>
-      <c r="AG15" s="330">
+      <c r="AC16" s="329"/>
+      <c r="AD16" s="329"/>
+      <c r="AE16" s="329"/>
+      <c r="AF16" s="329"/>
+      <c r="AG16" s="329"/>
+      <c r="AH16" s="329">
         <v>2.5</v>
       </c>
-      <c r="AH15" s="330">
+      <c r="AI16" s="329">
         <v>3</v>
       </c>
-      <c r="AI15" s="330">
+      <c r="AJ16" s="329">
         <v>3</v>
       </c>
-      <c r="AJ15" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK15" s="312"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="384" t="s">
+      <c r="AK16" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL16" s="312"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="388" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="384"/>
-      <c r="C16" s="384"/>
-      <c r="D16" s="384"/>
-      <c r="E16" s="384"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="123"/>
-      <c r="T16" s="123"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="122"/>
-      <c r="AA16" s="122"/>
-      <c r="AB16" s="309"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="302"/>
-      <c r="AE16" s="122"/>
-      <c r="AF16" s="122"/>
-      <c r="AG16" s="302"/>
-      <c r="AH16" s="122"/>
-      <c r="AI16" s="122"/>
-      <c r="AJ16" s="124"/>
-      <c r="AK16" s="315"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="B17" s="388"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="388"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="122"/>
+      <c r="W17" s="122"/>
+      <c r="X17" s="122"/>
+      <c r="Y17" s="122"/>
+      <c r="Z17" s="122"/>
+      <c r="AA17" s="122"/>
+      <c r="AB17" s="309"/>
+      <c r="AC17" s="122"/>
+      <c r="AD17" s="302"/>
+      <c r="AE17" s="122"/>
+      <c r="AF17" s="380"/>
+      <c r="AG17" s="122"/>
+      <c r="AH17" s="302"/>
+      <c r="AI17" s="122"/>
+      <c r="AJ17" s="122"/>
+      <c r="AK17" s="124"/>
+      <c r="AL17" s="315"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="125" t="s">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="126"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="126"/>
-      <c r="AC17" s="126"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="126"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="126"/>
-      <c r="AI17" s="126"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="315"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="125" t="s">
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="126"/>
+      <c r="X18" s="126"/>
+      <c r="Y18" s="126"/>
+      <c r="Z18" s="126"/>
+      <c r="AA18" s="126"/>
+      <c r="AB18" s="126"/>
+      <c r="AC18" s="126"/>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="126"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="126"/>
+      <c r="AI18" s="126"/>
+      <c r="AJ18" s="126"/>
+      <c r="AK18" s="124"/>
+      <c r="AL18" s="315"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="125" t="s">
+      <c r="B19" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="125" t="s">
+      <c r="C19" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="126" t="s">
+      <c r="D19" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E19" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="125" t="str">
+      <c r="F19" s="125" t="str">
         <f>F8</f>
         <v>Fpromo</v>
       </c>
-      <c r="G18" s="126" t="s">
+      <c r="G19" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="125" t="s">
+      <c r="H19" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="125" t="s">
+      <c r="I19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="125" t="s">
+      <c r="J19" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="125" t="s">
+      <c r="K19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="L18" s="125" t="s">
+      <c r="L19" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="125" t="s">
+      <c r="M19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="N18" s="125" t="s">
+      <c r="N19" s="125" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="125" t="s">
+      <c r="O19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="P18" s="125" t="s">
+      <c r="P19" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="Q18" s="125" t="s">
+      <c r="Q19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="R18" s="125" t="s">
+      <c r="R19" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="S18" s="125" t="s">
+      <c r="S19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="T18" s="125" t="s">
+      <c r="T19" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="U18" s="125" t="s">
+      <c r="U19" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="126" t="str">
+      <c r="V19" s="126" t="str">
         <f>V8</f>
         <v>U20</v>
       </c>
-      <c r="W18" s="126" t="str">
+      <c r="W19" s="126" t="str">
         <f>W8</f>
         <v>HTMS</v>
       </c>
-      <c r="X18" s="126" t="str">
+      <c r="X19" s="126" t="str">
         <f>X8</f>
         <v>Pot</v>
       </c>
-      <c r="Y18" s="126" t="str">
+      <c r="Y19" s="126" t="str">
         <f>Y8</f>
         <v>Cap</v>
       </c>
-      <c r="Z18" s="126" t="s">
+      <c r="Z19" s="126" t="s">
         <v>160</v>
       </c>
-      <c r="AA18" s="126" t="s">
+      <c r="AA19" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="AB18" s="126" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC18" s="126" t="s">
+      <c r="AB19" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC19" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="AD18" s="126" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE18" s="126" t="s">
+      <c r="AD19" s="126" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE19" s="126" t="s">
         <v>165</v>
       </c>
-      <c r="AF18" s="126" t="s">
+      <c r="AF19" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG19" s="126" t="s">
         <v>166</v>
       </c>
-      <c r="AG18" s="126" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH18" s="126" t="s">
+      <c r="AH19" s="126" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI19" s="126" t="s">
         <v>167</v>
       </c>
-      <c r="AI18" s="126" t="s">
+      <c r="AJ19" s="126" t="s">
         <v>93</v>
       </c>
-      <c r="AJ18" s="124" t="str">
-        <f>AJ8</f>
+      <c r="AK19" s="124" t="str">
+        <f>AK8</f>
         <v>Ca</v>
       </c>
-      <c r="AK18" s="321" t="str">
-        <f>AK8</f>
+      <c r="AL19" s="321" t="str">
+        <f>AL8</f>
         <v>Comentarios</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="304"/>
-      <c r="B19" s="133">
-        <v>15</v>
-      </c>
-      <c r="C19" s="128">
-        <f ca="1">70+$A$30-$A$32</f>
-        <v>95</v>
-      </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="195">
-        <f ca="1">F19-TODAY()</f>
-        <v>-43662</v>
-      </c>
-      <c r="F19" s="203"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="325"/>
-      <c r="M19" s="325"/>
-      <c r="N19" s="325"/>
-      <c r="O19" s="325"/>
-      <c r="P19" s="325"/>
-      <c r="Q19" s="325"/>
-      <c r="R19" s="325"/>
-      <c r="S19" s="325"/>
-      <c r="T19" s="325"/>
-      <c r="U19" s="325"/>
-      <c r="V19" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="W19" s="200"/>
-      <c r="X19" s="200">
-        <f>COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="329"/>
-      <c r="AB19" s="329"/>
-      <c r="AC19" s="330"/>
-      <c r="AD19" s="330"/>
-      <c r="AE19" s="330"/>
-      <c r="AF19" s="330"/>
-      <c r="AG19" s="330"/>
-      <c r="AH19" s="330"/>
-      <c r="AI19" s="330"/>
-      <c r="AJ19" s="202"/>
-      <c r="AK19" s="312"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="305" t="s">
-        <v>175</v>
-      </c>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="135"/>
       <c r="B20" s="133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="128">
-        <f ca="1">11+$A$30-$A$32</f>
-        <v>36</v>
+        <f ca="1">29+$A$30-$A$32</f>
+        <v>61</v>
       </c>
       <c r="D20" s="129"/>
       <c r="E20" s="195">
         <f ca="1">F20-TODAY()</f>
-        <v>188</v>
-      </c>
-      <c r="F20" s="203">
-        <v>43850</v>
-      </c>
+        <v>-43669</v>
+      </c>
+      <c r="F20" s="203"/>
       <c r="G20" s="196"/>
       <c r="H20" s="325"/>
       <c r="I20" s="325"/>
-      <c r="J20" s="323">
-        <v>3</v>
-      </c>
+      <c r="J20" s="325"/>
       <c r="K20" s="325"/>
       <c r="L20" s="325"/>
       <c r="M20" s="325"/>
@@ -11217,8 +11295,8 @@
       <c r="S20" s="325"/>
       <c r="T20" s="325"/>
       <c r="U20" s="325"/>
-      <c r="V20" s="197" t="s">
-        <v>176</v>
+      <c r="V20" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W20" s="200"/>
       <c r="X20" s="200">
@@ -11226,71 +11304,54 @@
         <v>0</v>
       </c>
       <c r="Y20" s="130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="200">
         <v>0</v>
       </c>
       <c r="AA20" s="329"/>
       <c r="AB20" s="329"/>
-      <c r="AC20" s="330"/>
-      <c r="AD20" s="330">
-        <v>3</v>
-      </c>
-      <c r="AE20" s="330">
-        <v>3</v>
-      </c>
-      <c r="AF20" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AG20" s="330"/>
-      <c r="AH20" s="330">
-        <v>3</v>
-      </c>
-      <c r="AI20" s="330">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK20" s="312" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AC20" s="329"/>
+      <c r="AD20" s="329"/>
+      <c r="AE20" s="329"/>
+      <c r="AF20" s="329"/>
+      <c r="AG20" s="329"/>
+      <c r="AH20" s="329"/>
+      <c r="AI20" s="329"/>
+      <c r="AJ20" s="329"/>
+      <c r="AK20" s="202"/>
+      <c r="AL20" s="312"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="305" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" s="133">
         <v>15</v>
       </c>
       <c r="C21" s="128">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>39</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>286</v>
-      </c>
+        <f ca="1">11+$A$30-$A$32</f>
+        <v>43</v>
+      </c>
+      <c r="D21" s="129"/>
       <c r="E21" s="195">
-        <f t="shared" ref="E21:E27" ca="1" si="3">F21-TODAY()</f>
-        <v>185</v>
+        <f ca="1">F21-TODAY()</f>
+        <v>181</v>
       </c>
       <c r="F21" s="203">
-        <v>43847</v>
+        <v>43850</v>
       </c>
       <c r="G21" s="196"/>
       <c r="H21" s="325"/>
       <c r="I21" s="325"/>
-      <c r="J21" s="325"/>
+      <c r="J21" s="323">
+        <v>3</v>
+      </c>
       <c r="K21" s="325"/>
       <c r="L21" s="325"/>
-      <c r="M21" s="323">
-        <v>2.99</v>
-      </c>
+      <c r="M21" s="325"/>
       <c r="N21" s="325"/>
-      <c r="O21" s="323">
-        <v>1.99</v>
-      </c>
+      <c r="O21" s="325"/>
       <c r="P21" s="325"/>
       <c r="Q21" s="325"/>
       <c r="R21" s="325"/>
@@ -11298,90 +11359,99 @@
       <c r="T21" s="325"/>
       <c r="U21" s="325"/>
       <c r="V21" s="197" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W21" s="200"/>
       <c r="X21" s="200">
-        <f t="shared" ref="X21:X27" si="4">COUNT(I21,K21,M21,O21,Q21,S21,U21)</f>
+        <f>COUNT(I21,K21,M21,O21,Q21,S21,U21)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="130">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="200">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="328"/>
+      <c r="AB21" s="328">
+        <v>3.5</v>
+      </c>
+      <c r="AC21" s="329"/>
+      <c r="AD21" s="329">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="329">
+        <v>3</v>
+      </c>
+      <c r="AF21" s="329"/>
+      <c r="AG21" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="AH21" s="329"/>
+      <c r="AI21" s="329">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="329">
         <v>2</v>
       </c>
-      <c r="Y21" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="200">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="329">
-        <v>0.5</v>
-      </c>
-      <c r="AB21" s="329"/>
-      <c r="AC21" s="330"/>
-      <c r="AD21" s="330">
-        <v>2</v>
-      </c>
-      <c r="AE21" s="330"/>
-      <c r="AF21" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AG21" s="330"/>
-      <c r="AH21" s="330">
-        <v>2.5</v>
-      </c>
-      <c r="AI21" s="330"/>
-      <c r="AJ21" s="202" t="s">
-        <v>333</v>
-      </c>
-      <c r="AK21" s="312" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK21" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL21" s="312" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="305" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="127">
+        <v>177</v>
+      </c>
+      <c r="B22" s="133">
         <v>15</v>
       </c>
       <c r="C22" s="128">
-        <f ca="1">33+$A$30-$A$32</f>
-        <v>58</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>86</v>
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>46</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>285</v>
       </c>
       <c r="E22" s="195">
-        <f t="shared" ca="1" si="3"/>
-        <v>166</v>
+        <f t="shared" ref="E22:E27" ca="1" si="3">F22-TODAY()</f>
+        <v>178</v>
       </c>
       <c r="F22" s="203">
-        <v>43828</v>
+        <v>43847</v>
       </c>
       <c r="G22" s="196"/>
       <c r="H22" s="325"/>
       <c r="I22" s="325"/>
-      <c r="J22" s="328">
-        <v>2</v>
-      </c>
-      <c r="K22" s="328">
+      <c r="J22" s="327">
+        <v>1</v>
+      </c>
+      <c r="K22" s="327">
+        <v>1.99</v>
+      </c>
+      <c r="L22" s="325"/>
+      <c r="M22" s="323">
         <v>2.99</v>
       </c>
-      <c r="L22" s="325"/>
-      <c r="M22" s="325"/>
       <c r="N22" s="325"/>
-      <c r="O22" s="325"/>
+      <c r="O22" s="323">
+        <v>1.99</v>
+      </c>
       <c r="P22" s="325"/>
       <c r="Q22" s="325"/>
       <c r="R22" s="325"/>
       <c r="S22" s="325"/>
       <c r="T22" s="325"/>
       <c r="U22" s="325"/>
-      <c r="V22" s="198" t="s">
-        <v>180</v>
+      <c r="V22" s="197" t="s">
+        <v>178</v>
       </c>
       <c r="W22" s="200"/>
       <c r="X22" s="200">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" ref="X22:X27" si="4">COUNT(I22,K22,M22,O22,Q22,S22,U22)</f>
+        <v>3</v>
       </c>
       <c r="Y22" s="130">
         <v>0</v>
@@ -11389,60 +11459,63 @@
       <c r="Z22" s="200">
         <v>0</v>
       </c>
-      <c r="AA22" s="329"/>
-      <c r="AB22" s="329"/>
-      <c r="AC22" s="330"/>
-      <c r="AD22" s="330">
+      <c r="AA22" s="328">
+        <v>0.5</v>
+      </c>
+      <c r="AB22" s="328"/>
+      <c r="AC22" s="329"/>
+      <c r="AD22" s="329">
         <v>2</v>
       </c>
-      <c r="AE22" s="330"/>
-      <c r="AF22" s="330">
+      <c r="AE22" s="329"/>
+      <c r="AF22" s="329"/>
+      <c r="AG22" s="329">
         <v>2.5</v>
       </c>
-      <c r="AG22" s="330"/>
-      <c r="AH22" s="330">
-        <v>2</v>
-      </c>
-      <c r="AI22" s="330">
-        <v>3</v>
-      </c>
-      <c r="AJ22" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK22" s="312" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="304" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="133">
+      <c r="AH22" s="329"/>
+      <c r="AI22" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="AJ22" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="AK22" s="202" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL22" s="312"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="305" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="127">
         <v>15</v>
       </c>
       <c r="C23" s="128">
-        <f ca="1">76+$A$30-$A$32</f>
-        <v>101</v>
-      </c>
-      <c r="D23" s="134"/>
+        <f ca="1">33+$A$30-$A$32</f>
+        <v>65</v>
+      </c>
+      <c r="D23" s="134" t="s">
+        <v>86</v>
+      </c>
       <c r="E23" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="F23" s="203">
-        <v>43785</v>
+        <v>43828</v>
       </c>
       <c r="G23" s="196"/>
       <c r="H23" s="325"/>
       <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="328">
+      <c r="J23" s="327">
         <v>2</v>
       </c>
-      <c r="M23" s="328">
+      <c r="K23" s="327">
         <v>2.99</v>
       </c>
+      <c r="L23" s="325"/>
+      <c r="M23" s="325"/>
       <c r="N23" s="325"/>
       <c r="O23" s="325"/>
       <c r="P23" s="325"/>
@@ -11451,8 +11524,8 @@
       <c r="S23" s="325"/>
       <c r="T23" s="325"/>
       <c r="U23" s="325"/>
-      <c r="V23" s="199" t="s">
-        <v>183</v>
+      <c r="V23" s="198" t="s">
+        <v>180</v>
       </c>
       <c r="W23" s="200"/>
       <c r="X23" s="200">
@@ -11465,56 +11538,61 @@
       <c r="Z23" s="200">
         <v>0</v>
       </c>
-      <c r="AA23" s="329"/>
-      <c r="AB23" s="329">
-        <v>3.5</v>
-      </c>
-      <c r="AC23" s="330"/>
-      <c r="AD23" s="330"/>
-      <c r="AE23" s="330"/>
-      <c r="AF23" s="330">
+      <c r="AA23" s="328">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="328"/>
+      <c r="AC23" s="329"/>
+      <c r="AD23" s="329">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="329"/>
+      <c r="AF23" s="329"/>
+      <c r="AG23" s="329">
         <v>2.5</v>
       </c>
-      <c r="AG23" s="330">
+      <c r="AH23" s="329"/>
+      <c r="AI23" s="329">
         <v>2</v>
       </c>
-      <c r="AH23" s="330"/>
-      <c r="AI23" s="330">
-        <v>2</v>
-      </c>
-      <c r="AJ23" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK23" s="312" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="329">
+        <v>3</v>
+      </c>
+      <c r="AK23" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL23" s="312"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="304" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="133">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="128">
-        <f ca="1">96+$A$30-$A$32-112</f>
-        <v>9</v>
+        <f ca="1">76+$A$30-$A$32</f>
+        <v>108</v>
       </c>
       <c r="D24" s="134"/>
       <c r="E24" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F24" s="203">
-        <v>43765</v>
+        <v>43785</v>
       </c>
       <c r="G24" s="196"/>
       <c r="H24" s="325"/>
       <c r="I24" s="325"/>
       <c r="J24" s="325"/>
       <c r="K24" s="325"/>
-      <c r="L24" s="325"/>
-      <c r="M24" s="325"/>
+      <c r="L24" s="327">
+        <v>2</v>
+      </c>
+      <c r="M24" s="327">
+        <v>2.99</v>
+      </c>
       <c r="N24" s="325"/>
       <c r="O24" s="325"/>
       <c r="P24" s="325"/>
@@ -11524,12 +11602,12 @@
       <c r="T24" s="325"/>
       <c r="U24" s="325"/>
       <c r="V24" s="199" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W24" s="200"/>
       <c r="X24" s="200">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" s="130">
         <v>0</v>
@@ -11537,77 +11615,74 @@
       <c r="Z24" s="200">
         <v>0</v>
       </c>
-      <c r="AA24" s="329"/>
-      <c r="AB24" s="329"/>
-      <c r="AC24" s="330"/>
-      <c r="AD24" s="330">
+      <c r="AA24" s="328"/>
+      <c r="AB24" s="328">
+        <v>3.5</v>
+      </c>
+      <c r="AC24" s="329"/>
+      <c r="AD24" s="329"/>
+      <c r="AE24" s="329"/>
+      <c r="AF24" s="329">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="329">
         <v>2.5</v>
       </c>
-      <c r="AE24" s="330"/>
-      <c r="AF24" s="330">
-        <v>1.5</v>
-      </c>
-      <c r="AG24" s="330"/>
-      <c r="AH24" s="330"/>
-      <c r="AI24" s="330">
-        <v>3</v>
-      </c>
-      <c r="AJ24" s="202" t="s">
-        <v>243</v>
-      </c>
-      <c r="AK24" s="312" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="375" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="127">
+      <c r="AH24" s="329">
+        <v>2</v>
+      </c>
+      <c r="AI24" s="329"/>
+      <c r="AJ24" s="329">
+        <v>2</v>
+      </c>
+      <c r="AK24" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL24" s="312" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="304" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="133">
         <v>16</v>
       </c>
       <c r="C25" s="128">
-        <f ca="1">22+$A$30-$A$32</f>
-        <v>47</v>
-      </c>
-      <c r="D25" s="129"/>
+        <f ca="1">96+$A$30-$A$32-112</f>
+        <v>16</v>
+      </c>
+      <c r="D25" s="134"/>
       <c r="E25" s="195">
-        <f ca="1">F25-TODAY()</f>
-        <v>88</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>96</v>
       </c>
       <c r="F25" s="203">
-        <v>43750</v>
-      </c>
-      <c r="G25" s="196" t="s">
-        <v>190</v>
-      </c>
+        <v>43765</v>
+      </c>
+      <c r="G25" s="196"/>
       <c r="H25" s="325"/>
       <c r="I25" s="325"/>
       <c r="J25" s="325"/>
-      <c r="K25" s="323">
-        <v>3.99</v>
-      </c>
-      <c r="L25" s="323">
-        <v>1</v>
-      </c>
+      <c r="K25" s="325"/>
+      <c r="L25" s="325"/>
       <c r="M25" s="325"/>
       <c r="N25" s="325"/>
       <c r="O25" s="325"/>
-      <c r="P25" s="323">
-        <v>2</v>
-      </c>
+      <c r="P25" s="325"/>
       <c r="Q25" s="325"/>
       <c r="R25" s="325"/>
       <c r="S25" s="325"/>
       <c r="T25" s="325"/>
       <c r="U25" s="325"/>
-      <c r="V25" s="198" t="s">
-        <v>180</v>
+      <c r="V25" s="199" t="s">
+        <v>185</v>
       </c>
       <c r="W25" s="200"/>
       <c r="X25" s="200">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="130">
         <v>0</v>
@@ -11615,57 +11690,66 @@
       <c r="Z25" s="200">
         <v>0</v>
       </c>
-      <c r="AA25" s="329"/>
-      <c r="AB25" s="329"/>
-      <c r="AC25" s="330"/>
-      <c r="AD25" s="330"/>
-      <c r="AE25" s="330">
+      <c r="AA25" s="328"/>
+      <c r="AB25" s="328"/>
+      <c r="AC25" s="329"/>
+      <c r="AD25" s="329">
         <v>2.5</v>
       </c>
-      <c r="AF25" s="330">
-        <v>3.5</v>
-      </c>
-      <c r="AG25" s="330"/>
-      <c r="AH25" s="330"/>
-      <c r="AI25" s="330">
-        <v>2</v>
-      </c>
-      <c r="AJ25" s="202" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK25" s="312" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="135" t="s">
+      <c r="AE25" s="329"/>
+      <c r="AF25" s="329"/>
+      <c r="AG25" s="329">
+        <v>1.5</v>
+      </c>
+      <c r="AH25" s="329"/>
+      <c r="AI25" s="329"/>
+      <c r="AJ25" s="329">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="202" t="s">
+        <v>242</v>
+      </c>
+      <c r="AL25" s="312" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="374" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="133">
+      <c r="B26" s="127">
         <v>16</v>
       </c>
       <c r="C26" s="128">
-        <f ca="1">29+$A$30-$A$32</f>
+        <f ca="1">22+$A$30-$A$32</f>
         <v>54</v>
       </c>
       <c r="D26" s="129"/>
       <c r="E26" s="195">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <f ca="1">F26-TODAY()</f>
+        <v>81</v>
       </c>
       <c r="F26" s="203">
-        <v>43749</v>
-      </c>
-      <c r="G26" s="196"/>
+        <v>43750</v>
+      </c>
+      <c r="G26" s="196" t="s">
+        <v>189</v>
+      </c>
       <c r="H26" s="325"/>
       <c r="I26" s="325"/>
       <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="325"/>
+      <c r="K26" s="323">
+        <v>3.99</v>
+      </c>
+      <c r="L26" s="323">
+        <v>1</v>
+      </c>
       <c r="M26" s="325"/>
       <c r="N26" s="325"/>
       <c r="O26" s="325"/>
-      <c r="P26" s="325"/>
+      <c r="P26" s="323">
+        <v>2</v>
+      </c>
       <c r="Q26" s="325"/>
       <c r="R26" s="325"/>
       <c r="S26" s="325"/>
@@ -11677,7 +11761,7 @@
       <c r="W26" s="200"/>
       <c r="X26" s="200">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" s="130">
         <v>0</v>
@@ -11685,43 +11769,46 @@
       <c r="Z26" s="200">
         <v>0</v>
       </c>
-      <c r="AA26" s="329">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="329">
-        <v>3</v>
-      </c>
-      <c r="AC26" s="330"/>
-      <c r="AD26" s="330"/>
-      <c r="AE26" s="330"/>
-      <c r="AF26" s="330">
+      <c r="AA26" s="328"/>
+      <c r="AB26" s="328"/>
+      <c r="AC26" s="329"/>
+      <c r="AD26" s="329"/>
+      <c r="AE26" s="329">
         <v>2.5</v>
       </c>
-      <c r="AG26" s="330"/>
-      <c r="AH26" s="330"/>
-      <c r="AI26" s="330"/>
-      <c r="AJ26" s="202" t="s">
+      <c r="AF26" s="329"/>
+      <c r="AG26" s="329">
+        <v>3.5</v>
+      </c>
+      <c r="AH26" s="329">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="329"/>
+      <c r="AJ26" s="329">
+        <v>2</v>
+      </c>
+      <c r="AK26" s="202" t="s">
         <v>240</v>
       </c>
-      <c r="AK26" s="312" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" s="312" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="136" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B27" s="127">
         <v>16</v>
       </c>
       <c r="C27" s="128">
         <f ca="1">66+$A$30-$A$32</f>
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D27" s="129"/>
       <c r="E27" s="195">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F27" s="203">
         <v>43749</v>
@@ -11735,10 +11822,10 @@
       <c r="M27" s="325"/>
       <c r="N27" s="325"/>
       <c r="O27" s="325"/>
-      <c r="P27" s="328">
+      <c r="P27" s="327">
         <v>2</v>
       </c>
-      <c r="Q27" s="328">
+      <c r="Q27" s="327">
         <v>2.99</v>
       </c>
       <c r="R27" s="325"/>
@@ -11759,29 +11846,32 @@
       <c r="Z27" s="200">
         <v>0</v>
       </c>
-      <c r="AA27" s="329"/>
-      <c r="AB27" s="329"/>
-      <c r="AC27" s="330"/>
-      <c r="AD27" s="330">
+      <c r="AA27" s="328">
         <v>1</v>
       </c>
-      <c r="AE27" s="330"/>
-      <c r="AF27" s="330">
+      <c r="AB27" s="328"/>
+      <c r="AC27" s="329"/>
+      <c r="AD27" s="329">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="329"/>
+      <c r="AF27" s="329"/>
+      <c r="AG27" s="329">
         <v>3.5</v>
       </c>
-      <c r="AG27" s="330"/>
-      <c r="AH27" s="330">
+      <c r="AH27" s="329"/>
+      <c r="AI27" s="329">
         <v>2</v>
       </c>
-      <c r="AI27" s="330"/>
-      <c r="AJ27" s="202" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK27" s="312" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="329"/>
+      <c r="AK27" s="202" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL27" s="312" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="133"/>
       <c r="B28" s="133"/>
       <c r="C28" s="137"/>
@@ -11810,12 +11900,12 @@
       <c r="Z28" s="113"/>
       <c r="AA28" s="113"/>
       <c r="AB28" s="113"/>
-      <c r="AJ28" s="131"/>
-      <c r="AK28" s="316"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK28" s="131"/>
+      <c r="AL28" s="316"/>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="138" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B29" s="139"/>
       <c r="C29" s="139"/>
@@ -11844,20 +11934,20 @@
       <c r="Z29" s="132"/>
       <c r="AA29" s="132"/>
       <c r="AB29" s="132"/>
-      <c r="AJ29" s="141"/>
-      <c r="AK29" s="317"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK29" s="141"/>
+      <c r="AL29" s="317"/>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="142">
         <f ca="1">TODAY()</f>
-        <v>43662</v>
+        <v>43669</v>
       </c>
       <c r="B30" s="143"/>
       <c r="C30" s="139"/>
       <c r="D30" s="139"/>
       <c r="E30" s="140"/>
       <c r="F30" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" s="8"/>
       <c r="I30" s="139"/>
@@ -11880,20 +11970,20 @@
       <c r="Z30" s="132"/>
       <c r="AA30" s="132"/>
       <c r="AB30" s="132"/>
-      <c r="AJ30" s="144"/>
-      <c r="AK30" s="317"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK30" s="144"/>
+      <c r="AL30" s="317"/>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <f ca="1">A32-A30</f>
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133"/>
       <c r="F31" s="303" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G31" s="132"/>
       <c r="I31" s="139"/>
@@ -11916,10 +12006,10 @@
       <c r="Z31" s="132"/>
       <c r="AA31" s="132"/>
       <c r="AB31" s="132"/>
-      <c r="AJ31" s="141"/>
-      <c r="AK31" s="317"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK31" s="141"/>
+      <c r="AL31" s="317"/>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="146">
         <v>43637</v>
       </c>
@@ -11950,10 +12040,10 @@
       <c r="Z32" s="132"/>
       <c r="AA32" s="132"/>
       <c r="AB32" s="132"/>
-      <c r="AJ32" s="141"/>
-      <c r="AK32" s="317"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK32" s="141"/>
+      <c r="AL32" s="317"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="133"/>
       <c r="B33" s="133"/>
       <c r="C33" s="133"/>
@@ -11984,21 +12074,21 @@
       <c r="Z33" s="132"/>
       <c r="AA33" s="132"/>
       <c r="AB33" s="132"/>
-      <c r="AJ33" s="141"/>
-      <c r="AK33" s="317"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK33" s="141"/>
+      <c r="AL33" s="317"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="F34" s="132" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E5 E9:E15 E19:E27">
+  <conditionalFormatting sqref="E4:E5 E9:E16 E20:E27">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
       <formula>15</formula>
     </cfRule>
@@ -12010,8 +12100,8 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA19:AI27 AA9:AI15 AA4:AI5">
-    <cfRule type="colorScale" priority="166">
+  <conditionalFormatting sqref="AA9:AJ16 AA4:AJ5 AA20:AJ27">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12022,8 +12112,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X9:X15 X4:X5 X19:X27">
-    <cfRule type="colorScale" priority="170">
+  <conditionalFormatting sqref="X20:X27 X4:X5 X9:X16">
+    <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12052,19 +12142,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="374" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
-        <v>334</v>
+    <row r="1" spans="1:1" s="373" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="373" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -12084,7 +12174,7 @@
       <pane xSplit="13" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R7" sqref="R7"/>
+      <selection pane="bottomRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12110,14 +12200,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="393" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="395"/>
+      <c r="D1" s="389" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" s="390"/>
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="391"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -12136,11 +12226,11 @@
         <f t="shared" si="0"/>
         <v>43651</v>
       </c>
-      <c r="R1" s="252">
+      <c r="R1" s="77">
         <f t="shared" si="0"/>
         <v>43658</v>
       </c>
-      <c r="S1" s="77">
+      <c r="S1" s="252">
         <f t="shared" si="0"/>
         <v>43665</v>
       </c>
@@ -12197,14 +12287,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="396" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="397"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="397"/>
-      <c r="H2" s="397"/>
-      <c r="I2" s="398"/>
+      <c r="D2" s="392" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="394"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -12222,10 +12312,10 @@
       <c r="Q2" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="R2" s="253" t="s">
+      <c r="R2" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="S2" s="79" t="s">
+      <c r="S2" s="253" t="s">
         <v>105</v>
       </c>
       <c r="T2" s="79" t="s">
@@ -12269,15 +12359,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="399" t="s">
+      <c r="D3" s="395" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="396"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="397" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="400"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="401" t="s">
-        <v>247</v>
-      </c>
-      <c r="H3" s="402"/>
+      <c r="H3" s="398"/>
       <c r="I3" s="207"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -12297,11 +12387,11 @@
         <f>P3+P11/30</f>
         <v>184</v>
       </c>
-      <c r="R3" s="254">
+      <c r="R3" s="81">
         <f t="shared" ref="R3:AE3" si="1">Q3+Q11/30</f>
         <v>235</v>
       </c>
-      <c r="S3" s="81">
+      <c r="S3" s="254">
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
@@ -12365,7 +12455,7 @@
       <c r="H4" s="234"/>
       <c r="I4" s="210"/>
       <c r="K4" s="255" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L4" s="255"/>
       <c r="M4" s="256">
@@ -12387,7 +12477,7 @@
         <f t="shared" ref="Q4:AE4" si="2">P4-P13+P23</f>
         <v>0</v>
       </c>
-      <c r="R4" s="257">
+      <c r="R4" s="256">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -12449,7 +12539,7 @@
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
       <c r="D5" s="211" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" s="212">
         <f>SUM(E6:E8)</f>
@@ -12457,10 +12547,10 @@
       </c>
       <c r="F5" s="258">
         <f>E5/E35</f>
-        <v>0.10878661598294059</v>
+        <v>0.10934318678832668</v>
       </c>
       <c r="G5" s="211" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H5" s="259">
         <f>H6+H7</f>
@@ -12468,7 +12558,7 @@
       </c>
       <c r="I5" s="213">
         <f>H5/$H$35</f>
-        <v>9.1494210246375607E-2</v>
+        <v>9.1962310166801245E-2</v>
       </c>
       <c r="K5" s="82" t="s">
         <v>117</v>
@@ -12493,61 +12583,61 @@
         <f t="shared" si="3"/>
         <v>909316</v>
       </c>
-      <c r="R5" s="84">
+      <c r="R5" s="83">
         <f t="shared" si="3"/>
         <v>1149086</v>
       </c>
       <c r="S5" s="84">
         <f t="shared" si="3"/>
-        <v>1099581</v>
+        <v>1120308</v>
       </c>
       <c r="T5" s="84">
         <f t="shared" si="3"/>
-        <v>1112326</v>
+        <v>1155866</v>
       </c>
       <c r="U5" s="84">
         <f t="shared" si="3"/>
-        <v>1124921</v>
+        <v>1109171</v>
       </c>
       <c r="V5" s="84">
         <f t="shared" si="3"/>
-        <v>1078766</v>
+        <v>1063226</v>
       </c>
       <c r="W5" s="84">
         <f t="shared" si="3"/>
-        <v>1094861</v>
+        <v>1079531</v>
       </c>
       <c r="X5" s="84">
         <f t="shared" si="3"/>
-        <v>1050206</v>
+        <v>1035086</v>
       </c>
       <c r="Y5" s="84">
         <f t="shared" si="3"/>
-        <v>1067801</v>
+        <v>1052891</v>
       </c>
       <c r="Z5" s="84">
         <f t="shared" si="3"/>
-        <v>1024646</v>
+        <v>1009946</v>
       </c>
       <c r="AA5" s="84">
         <f t="shared" si="3"/>
-        <v>1043741</v>
+        <v>1029251</v>
       </c>
       <c r="AB5" s="84">
         <f t="shared" si="3"/>
-        <v>1002086</v>
+        <v>987806</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" si="3"/>
-        <v>1022681</v>
+        <v>1008611</v>
       </c>
       <c r="AD5" s="84">
         <f t="shared" si="3"/>
-        <v>1044026</v>
+        <v>1030166</v>
       </c>
       <c r="AE5" s="84">
         <f t="shared" si="3"/>
-        <v>1004621</v>
+        <v>990971</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -12557,7 +12647,7 @@
       </c>
       <c r="B6" s="298">
         <f t="shared" ref="B6:B13" si="5">M6/$M$14</f>
-        <v>0.30554390289665606</v>
+        <v>0.29975981632742354</v>
       </c>
       <c r="D6" s="214" t="s">
         <v>131</v>
@@ -12568,17 +12658,17 @@
       </c>
       <c r="F6" s="260">
         <f>E6/E35</f>
-        <v>2.6838301672270179E-2</v>
+        <v>2.6975610982261696E-2</v>
       </c>
       <c r="G6" s="216" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H6" s="261">
         <v>300000</v>
       </c>
       <c r="I6" s="262">
         <f>H6/$H$35</f>
-        <v>9.1494210246375607E-2</v>
+        <v>9.1962310166801245E-2</v>
       </c>
       <c r="K6" s="244" t="s">
         <v>118</v>
@@ -12588,7 +12678,7 @@
       </c>
       <c r="M6" s="263">
         <f>SUM(N6:AE6)</f>
-        <v>801196</v>
+        <v>781026</v>
       </c>
       <c r="N6" s="293">
         <v>0</v>
@@ -12605,14 +12695,14 @@
         <f>81809+54656</f>
         <v>136465</v>
       </c>
-      <c r="R6" s="241">
+      <c r="R6" s="293">
+        <v>24227</v>
+      </c>
+      <c r="S6" s="241">
+        <v>85603</v>
+      </c>
+      <c r="T6" s="241">
         <v>3500</v>
-      </c>
-      <c r="S6" s="241">
-        <v>65000</v>
-      </c>
-      <c r="T6" s="241">
-        <v>65000</v>
       </c>
       <c r="U6" s="241">
         <v>3500</v>
@@ -12655,7 +12745,7 @@
       </c>
       <c r="B7" s="298">
         <f t="shared" si="5"/>
-        <v>0.27524639653176192</v>
+        <v>0.28678882336099015</v>
       </c>
       <c r="D7" s="214" t="s">
         <v>136</v>
@@ -12666,10 +12756,10 @@
       </c>
       <c r="F7" s="260">
         <f>E7/E35</f>
-        <v>8.1948314310670414E-2</v>
+        <v>8.2367575806064977E-2</v>
       </c>
       <c r="G7" s="216" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H7" s="261">
         <v>0</v>
@@ -12686,7 +12776,7 @@
       </c>
       <c r="M7" s="263">
         <f t="shared" ref="M7:M13" si="6">SUM(N7:AE7)</f>
-        <v>721750</v>
+        <v>747230</v>
       </c>
       <c r="N7" s="293">
         <v>0</v>
@@ -12700,60 +12790,59 @@
       <c r="Q7" s="293">
         <v>34785</v>
       </c>
-      <c r="R7" s="243">
+      <c r="R7" s="293">
         <v>38115</v>
       </c>
       <c r="S7" s="243">
-        <f t="shared" ref="R7:AE7" si="7">R7+1000</f>
-        <v>39115</v>
+        <v>41075</v>
       </c>
       <c r="T7" s="243">
-        <f t="shared" si="7"/>
-        <v>40115</v>
+        <f t="shared" ref="S7:AE7" si="7">S7+1000</f>
+        <v>42075</v>
       </c>
       <c r="U7" s="243">
         <f t="shared" si="7"/>
-        <v>41115</v>
+        <v>43075</v>
       </c>
       <c r="V7" s="243">
         <f t="shared" si="7"/>
-        <v>42115</v>
+        <v>44075</v>
       </c>
       <c r="W7" s="243">
         <f t="shared" si="7"/>
-        <v>43115</v>
+        <v>45075</v>
       </c>
       <c r="X7" s="243">
         <f t="shared" si="7"/>
-        <v>44115</v>
+        <v>46075</v>
       </c>
       <c r="Y7" s="243">
         <f t="shared" si="7"/>
-        <v>45115</v>
+        <v>47075</v>
       </c>
       <c r="Z7" s="243">
         <f t="shared" si="7"/>
-        <v>46115</v>
+        <v>48075</v>
       </c>
       <c r="AA7" s="243">
         <f t="shared" si="7"/>
-        <v>47115</v>
+        <v>49075</v>
       </c>
       <c r="AB7" s="243">
         <f t="shared" si="7"/>
-        <v>48115</v>
+        <v>50075</v>
       </c>
       <c r="AC7" s="243">
         <f t="shared" si="7"/>
-        <v>49115</v>
+        <v>51075</v>
       </c>
       <c r="AD7" s="243">
         <f t="shared" si="7"/>
-        <v>50115</v>
+        <v>52075</v>
       </c>
       <c r="AE7" s="243">
         <f t="shared" si="7"/>
-        <v>51115</v>
+        <v>53075</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -12766,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="217" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E8" s="218">
         <v>0</v>
@@ -12800,7 +12889,7 @@
       <c r="Q8" s="293">
         <v>0</v>
       </c>
-      <c r="R8" s="241">
+      <c r="R8" s="293">
         <v>0</v>
       </c>
       <c r="S8" s="241">
@@ -12880,7 +12969,7 @@
       <c r="Q9" s="293">
         <v>0</v>
       </c>
-      <c r="R9" s="241">
+      <c r="R9" s="293">
         <v>0</v>
       </c>
       <c r="S9" s="241">
@@ -12930,10 +13019,10 @@
       </c>
       <c r="B10" s="298">
         <f t="shared" si="5"/>
-        <v>8.3899144076186524E-3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="211" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" s="212">
         <f>E11+E12+E13</f>
@@ -12944,15 +13033,15 @@
         <v>0</v>
       </c>
       <c r="G10" s="211" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H10" s="259">
         <f>SUM(H11:H16)</f>
-        <v>1022666</v>
+        <v>1009226</v>
       </c>
       <c r="I10" s="213">
         <f t="shared" ref="I10:I16" si="8">H10/$H$35</f>
-        <v>0.31189339338606653</v>
+        <v>0.30936918146800046</v>
       </c>
       <c r="K10" s="244" t="s">
         <v>123</v>
@@ -12962,7 +13051,7 @@
       </c>
       <c r="M10" s="263">
         <f t="shared" si="6"/>
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="293">
         <v>0</v>
@@ -12977,7 +13066,7 @@
         <f>P10</f>
         <v>0</v>
       </c>
-      <c r="R10" s="243">
+      <c r="R10" s="293">
         <f t="shared" ref="R10:AE11" si="9">Q10</f>
         <v>0</v>
       </c>
@@ -12990,47 +13079,46 @@
         <v>0</v>
       </c>
       <c r="U10" s="243">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="V10" s="243">
-        <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="W10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="X10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="243">
         <f t="shared" si="9"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -13040,10 +13128,10 @@
       </c>
       <c r="B11" s="298">
         <f t="shared" si="5"/>
-        <v>5.4343763776620816E-3</v>
+        <v>5.4691871751590673E-3</v>
       </c>
       <c r="D11" s="222" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E11" s="223">
         <f>N4</f>
@@ -13054,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="231" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H11" s="265">
         <v>0</v>
@@ -13063,7 +13151,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="403" t="s">
+      <c r="K11" s="400" t="s">
         <v>124</v>
       </c>
       <c r="L11" s="244" t="s">
@@ -13086,7 +13174,7 @@
         <f>780+750</f>
         <v>1530</v>
       </c>
-      <c r="R11" s="243">
+      <c r="R11" s="293">
         <f>750*2</f>
         <v>1500</v>
       </c>
@@ -13149,7 +13237,7 @@
       </c>
       <c r="B12" s="298">
         <f t="shared" si="5"/>
-        <v>0.40538540978630128</v>
+        <v>0.40798217313642726</v>
       </c>
       <c r="D12" s="222" t="str">
         <f>L13</f>
@@ -13164,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="266" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H12" s="267">
         <v>0</v>
@@ -13173,7 +13261,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="404"/>
+      <c r="K12" s="401"/>
       <c r="L12" s="244" t="s">
         <v>126</v>
       </c>
@@ -13193,7 +13281,7 @@
       <c r="Q12" s="293">
         <v>160000</v>
       </c>
-      <c r="R12" s="243">
+      <c r="R12" s="293">
         <v>0</v>
       </c>
       <c r="S12" s="243">
@@ -13259,7 +13347,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="231" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" s="265">
         <v>0</v>
@@ -13269,9 +13357,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="270"/>
-      <c r="K13" s="405"/>
+      <c r="K13" s="402"/>
       <c r="L13" s="244" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M13" s="263">
         <f t="shared" si="6"/>
@@ -13291,7 +13379,7 @@
         <f t="shared" ref="Q13:AE13" si="10">P13</f>
         <v>0</v>
       </c>
-      <c r="R13" s="243">
+      <c r="R13" s="293">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -13361,7 +13449,7 @@
       <c r="D14" s="219"/>
       <c r="E14" s="272"/>
       <c r="G14" s="231" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H14" s="265">
         <v>0</v>
@@ -13376,7 +13464,7 @@
       <c r="L14" s="297"/>
       <c r="M14" s="273">
         <f>SUM(N14:AE14)</f>
-        <v>2622196</v>
+        <v>2605506</v>
       </c>
       <c r="N14" s="294">
         <f>SUM(N6:N13)</f>
@@ -13396,67 +13484,67 @@
       </c>
       <c r="R14" s="294">
         <f t="shared" si="11"/>
-        <v>43115</v>
+        <v>63842</v>
       </c>
       <c r="S14" s="294">
         <f t="shared" si="11"/>
-        <v>105615</v>
+        <v>128178</v>
       </c>
       <c r="T14" s="294">
         <f t="shared" si="11"/>
-        <v>105715</v>
+        <v>46175</v>
       </c>
       <c r="U14" s="294">
         <f t="shared" si="11"/>
-        <v>47215</v>
+        <v>47175</v>
       </c>
       <c r="V14" s="294">
         <f t="shared" si="11"/>
-        <v>109715</v>
+        <v>109675</v>
       </c>
       <c r="W14" s="294">
         <f t="shared" si="11"/>
-        <v>49215</v>
+        <v>49175</v>
       </c>
       <c r="X14" s="294">
         <f t="shared" si="11"/>
-        <v>111715</v>
+        <v>111675</v>
       </c>
       <c r="Y14" s="294">
         <f t="shared" si="11"/>
-        <v>51215</v>
+        <v>51175</v>
       </c>
       <c r="Z14" s="294">
         <f t="shared" si="11"/>
-        <v>113715</v>
+        <v>113675</v>
       </c>
       <c r="AA14" s="294">
         <f t="shared" si="11"/>
-        <v>53215</v>
+        <v>53175</v>
       </c>
       <c r="AB14" s="294">
         <f t="shared" si="11"/>
-        <v>115715</v>
+        <v>115675</v>
       </c>
       <c r="AC14" s="294">
         <f t="shared" si="11"/>
-        <v>116715</v>
+        <v>116675</v>
       </c>
       <c r="AD14" s="294">
         <f t="shared" si="11"/>
-        <v>56215</v>
+        <v>56175</v>
       </c>
       <c r="AE14" s="294">
         <f t="shared" si="11"/>
-        <v>57215</v>
+        <v>57175</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="390">
+      <c r="A15" s="407">
         <f>M14</f>
-        <v>2622196</v>
-      </c>
-      <c r="B15" s="390"/>
+        <v>2605506</v>
+      </c>
+      <c r="B15" s="407"/>
       <c r="D15" s="211" t="s">
         <v>141</v>
       </c>
@@ -13469,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="231" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H15" s="265">
         <v>0</v>
@@ -13487,7 +13575,7 @@
       </c>
       <c r="M15" s="86">
         <f>SUM(N15:AE15)</f>
-        <v>154770</v>
+        <v>151520</v>
       </c>
       <c r="N15" s="295">
         <v>0</v>
@@ -13501,65 +13589,64 @@
       <c r="Q15" s="295">
         <v>8090</v>
       </c>
-      <c r="R15" s="249">
+      <c r="R15" s="295">
         <v>7700</v>
       </c>
       <c r="S15" s="249">
-        <f t="shared" ref="R15:AE15" si="12">R15+250</f>
+        <v>7700</v>
+      </c>
+      <c r="T15" s="249">
+        <f t="shared" ref="S15:AE15" si="12">S15+250</f>
         <v>7950</v>
       </c>
-      <c r="T15" s="249">
+      <c r="U15" s="249">
         <f t="shared" si="12"/>
         <v>8200</v>
       </c>
-      <c r="U15" s="249">
+      <c r="V15" s="249">
         <f t="shared" si="12"/>
         <v>8450</v>
       </c>
-      <c r="V15" s="249">
+      <c r="W15" s="249">
         <f t="shared" si="12"/>
         <v>8700</v>
       </c>
-      <c r="W15" s="249">
+      <c r="X15" s="249">
         <f t="shared" si="12"/>
         <v>8950</v>
       </c>
-      <c r="X15" s="249">
+      <c r="Y15" s="249">
         <f t="shared" si="12"/>
         <v>9200</v>
       </c>
-      <c r="Y15" s="249">
+      <c r="Z15" s="249">
         <f t="shared" si="12"/>
         <v>9450</v>
       </c>
-      <c r="Z15" s="249">
+      <c r="AA15" s="249">
         <f t="shared" si="12"/>
         <v>9700</v>
       </c>
-      <c r="AA15" s="249">
+      <c r="AB15" s="249">
         <f t="shared" si="12"/>
         <v>9950</v>
       </c>
-      <c r="AB15" s="249">
+      <c r="AC15" s="249">
         <f t="shared" si="12"/>
         <v>10200</v>
       </c>
-      <c r="AC15" s="249">
+      <c r="AD15" s="249">
         <f t="shared" si="12"/>
         <v>10450</v>
       </c>
-      <c r="AD15" s="249">
+      <c r="AE15" s="249">
         <f t="shared" si="12"/>
         <v>10700</v>
       </c>
-      <c r="AE15" s="249">
-        <f t="shared" si="12"/>
-        <v>10950</v>
-      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D16" s="222" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E16" s="223">
         <v>0</v>
@@ -13569,15 +13656,15 @@
         <v>0</v>
       </c>
       <c r="G16" s="274" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H16" s="275">
         <f>E29-H26</f>
-        <v>1022666</v>
+        <v>1009226</v>
       </c>
       <c r="I16" s="262">
         <f t="shared" si="8"/>
-        <v>0.31189339338606653</v>
+        <v>0.30936918146800046</v>
       </c>
       <c r="K16" s="245" t="s">
         <v>129</v>
@@ -13602,7 +13689,7 @@
       <c r="Q16" s="295">
         <v>7800</v>
       </c>
-      <c r="R16" s="249">
+      <c r="R16" s="295">
         <f>Q16</f>
         <v>7800</v>
       </c>
@@ -13695,7 +13782,7 @@
       <c r="Q17" s="295">
         <v>0</v>
       </c>
-      <c r="R17" s="249">
+      <c r="R17" s="295">
         <v>0</v>
       </c>
       <c r="S17" s="249">
@@ -13740,7 +13827,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D18" s="222" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="223">
         <v>0</v>
@@ -13750,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="211" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H18" s="279">
         <f>H19</f>
@@ -13784,7 +13871,7 @@
         <f>P18</f>
         <v>57120</v>
       </c>
-      <c r="R18" s="249">
+      <c r="R18" s="295">
         <f t="shared" ref="R18:AE18" si="15">Q18</f>
         <v>57120</v>
       </c>
@@ -13843,7 +13930,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D19" s="222" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E19" s="223">
         <v>0</v>
@@ -13886,7 +13973,7 @@
       <c r="Q19" s="295">
         <v>20000</v>
       </c>
-      <c r="R19" s="249">
+      <c r="R19" s="295">
         <v>20000</v>
       </c>
       <c r="S19" s="249">
@@ -13958,7 +14045,7 @@
       <c r="Q20" s="295">
         <v>0</v>
       </c>
-      <c r="R20" s="249">
+      <c r="R20" s="295">
         <v>0</v>
       </c>
       <c r="S20" s="249">
@@ -14016,7 +14103,7 @@
       <c r="G21" s="224"/>
       <c r="H21" s="281"/>
       <c r="I21" s="282"/>
-      <c r="K21" s="386" t="s">
+      <c r="K21" s="403" t="s">
         <v>124</v>
       </c>
       <c r="L21" s="246" t="s">
@@ -14038,7 +14125,7 @@
       <c r="Q21" s="295">
         <v>0</v>
       </c>
-      <c r="R21" s="249">
+      <c r="R21" s="295">
         <v>0</v>
       </c>
       <c r="S21" s="249">
@@ -14094,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="211" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H22" s="259">
         <f>SUM(H23:H24)</f>
@@ -14102,9 +14189,9 @@
       </c>
       <c r="I22" s="213">
         <f>H22/$H$35</f>
-        <v>0.10878661598294059</v>
-      </c>
-      <c r="K22" s="387"/>
+        <v>0.10934318678832668</v>
+      </c>
+      <c r="K22" s="404"/>
       <c r="L22" s="246" t="s">
         <v>137</v>
       </c>
@@ -14124,7 +14211,7 @@
       <c r="Q22" s="295">
         <v>0</v>
       </c>
-      <c r="R22" s="249">
+      <c r="R22" s="295">
         <v>0</v>
       </c>
       <c r="S22" s="249">
@@ -14181,11 +14268,11 @@
       </c>
       <c r="I23" s="262">
         <f>H23/$H$35</f>
-        <v>2.6838301672270179E-2</v>
-      </c>
-      <c r="K23" s="388"/>
+        <v>2.6975610982261696E-2</v>
+      </c>
+      <c r="K23" s="405"/>
       <c r="L23" s="246" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M23" s="86">
         <f t="shared" si="13"/>
@@ -14203,7 +14290,7 @@
       <c r="Q23" s="295">
         <v>0</v>
       </c>
-      <c r="R23" s="249">
+      <c r="R23" s="295">
         <v>0</v>
       </c>
       <c r="S23" s="249">
@@ -14253,11 +14340,11 @@
       </c>
       <c r="B24" s="299">
         <f t="shared" ref="B24:B31" si="17">M15/$M$25</f>
-        <v>7.9116463810492629E-2</v>
+        <v>7.7583999836147832E-2</v>
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="211" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" s="212">
         <f>E25+E26-E27</f>
@@ -14265,7 +14352,7 @@
       </c>
       <c r="F24" s="258">
         <f>E24/E35</f>
-        <v>9.1494210246375607E-2</v>
+        <v>9.1962310166801245E-2</v>
       </c>
       <c r="G24" s="228" t="s">
         <v>136</v>
@@ -14276,7 +14363,7 @@
       </c>
       <c r="I24" s="262">
         <f>H24/$H$35</f>
-        <v>8.1948314310670414E-2</v>
+        <v>8.2367575806064977E-2</v>
       </c>
       <c r="K24" s="245" t="s">
         <v>138</v>
@@ -14301,7 +14388,7 @@
       <c r="Q24" s="295">
         <v>0</v>
       </c>
-      <c r="R24" s="249">
+      <c r="R24" s="295">
         <v>0</v>
       </c>
       <c r="S24" s="249">
@@ -14351,11 +14438,11 @@
       </c>
       <c r="B25" s="299">
         <f t="shared" si="17"/>
-        <v>6.7067778328724126E-2</v>
+        <v>6.7179387397720405E-2</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="231" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E25" s="232">
         <f>N5</f>
@@ -14363,7 +14450,7 @@
       </c>
       <c r="F25" s="260">
         <f>E25/E35</f>
-        <v>9.1494210246375607E-2</v>
+        <v>9.1962310166801245E-2</v>
       </c>
       <c r="G25" s="229"/>
       <c r="H25" s="284"/>
@@ -14374,7 +14461,7 @@
       <c r="L25" s="248"/>
       <c r="M25" s="87">
         <f>SUM(N25:AE25)</f>
-        <v>1956230</v>
+        <v>1952980</v>
       </c>
       <c r="N25" s="250">
         <f>SUM(N15:N24)</f>
@@ -14398,55 +14485,55 @@
       </c>
       <c r="S25" s="250">
         <f t="shared" si="18"/>
-        <v>92870</v>
+        <v>92620</v>
       </c>
       <c r="T25" s="250">
         <f t="shared" si="18"/>
-        <v>93120</v>
+        <v>92870</v>
       </c>
       <c r="U25" s="250">
         <f t="shared" si="18"/>
-        <v>93370</v>
+        <v>93120</v>
       </c>
       <c r="V25" s="250">
         <f t="shared" si="18"/>
-        <v>93620</v>
+        <v>93370</v>
       </c>
       <c r="W25" s="250">
         <f t="shared" si="18"/>
-        <v>93870</v>
+        <v>93620</v>
       </c>
       <c r="X25" s="250">
         <f t="shared" si="18"/>
-        <v>94120</v>
+        <v>93870</v>
       </c>
       <c r="Y25" s="250">
         <f t="shared" si="18"/>
-        <v>94370</v>
+        <v>94120</v>
       </c>
       <c r="Z25" s="250">
         <f t="shared" si="18"/>
-        <v>94620</v>
+        <v>94370</v>
       </c>
       <c r="AA25" s="250">
         <f t="shared" si="18"/>
-        <v>94870</v>
+        <v>94620</v>
       </c>
       <c r="AB25" s="250">
         <f t="shared" si="18"/>
-        <v>95120</v>
+        <v>94870</v>
       </c>
       <c r="AC25" s="250">
         <f t="shared" si="18"/>
-        <v>95370</v>
+        <v>95120</v>
       </c>
       <c r="AD25" s="250">
         <f t="shared" si="18"/>
-        <v>95620</v>
+        <v>95370</v>
       </c>
       <c r="AE25" s="250">
         <f t="shared" si="18"/>
-        <v>95870</v>
+        <v>95620</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
@@ -14456,7 +14543,7 @@
       </c>
       <c r="B26" s="299">
         <f t="shared" si="17"/>
-        <v>4.4984485464388137E-2</v>
+        <v>4.5059345205788075E-2</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="231" t="str">
@@ -14472,15 +14559,15 @@
         <v>0</v>
       </c>
       <c r="G26" s="211" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H26" s="259">
         <f>SUM(H27:H32)</f>
-        <v>1599530</v>
+        <v>1596280</v>
       </c>
       <c r="I26" s="213">
         <f t="shared" ref="I26:I32" si="19">H26/$H$35</f>
-        <v>0.48782578038461727</v>
+        <v>0.48932532157687159</v>
       </c>
       <c r="K26" s="89" t="s">
         <v>140</v>
@@ -14488,7 +14575,7 @@
       <c r="L26" s="89"/>
       <c r="M26" s="84">
         <f t="shared" ref="M26:AE26" si="20">M5+M14-M25</f>
-        <v>965966</v>
+        <v>952526</v>
       </c>
       <c r="N26" s="84">
         <f t="shared" si="20"/>
@@ -14508,59 +14595,59 @@
       </c>
       <c r="R26" s="84">
         <f t="shared" si="20"/>
-        <v>1099581</v>
+        <v>1120308</v>
       </c>
       <c r="S26" s="84">
         <f t="shared" si="20"/>
-        <v>1112326</v>
+        <v>1155866</v>
       </c>
       <c r="T26" s="84">
         <f t="shared" si="20"/>
-        <v>1124921</v>
+        <v>1109171</v>
       </c>
       <c r="U26" s="84">
         <f t="shared" si="20"/>
-        <v>1078766</v>
+        <v>1063226</v>
       </c>
       <c r="V26" s="84">
         <f t="shared" si="20"/>
-        <v>1094861</v>
+        <v>1079531</v>
       </c>
       <c r="W26" s="84">
         <f t="shared" si="20"/>
-        <v>1050206</v>
+        <v>1035086</v>
       </c>
       <c r="X26" s="84">
         <f t="shared" si="20"/>
-        <v>1067801</v>
+        <v>1052891</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" si="20"/>
-        <v>1024646</v>
+        <v>1009946</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" si="20"/>
-        <v>1043741</v>
+        <v>1029251</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" si="20"/>
-        <v>1002086</v>
+        <v>987806</v>
       </c>
       <c r="AB26" s="84">
         <f t="shared" si="20"/>
-        <v>1022681</v>
+        <v>1008611</v>
       </c>
       <c r="AC26" s="84">
         <f t="shared" si="20"/>
-        <v>1044026</v>
+        <v>1030166</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" si="20"/>
-        <v>1004621</v>
+        <v>990971</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" si="20"/>
-        <v>965966</v>
+        <v>952526</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -14570,7 +14657,7 @@
       </c>
       <c r="B27" s="299">
         <f t="shared" si="17"/>
-        <v>0.48386948364967308</v>
+        <v>0.48467470224989501</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="231" t="str">
@@ -14586,15 +14673,15 @@
         <v>0</v>
       </c>
       <c r="G27" s="228" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H27" s="283">
         <f>M15</f>
-        <v>154770</v>
+        <v>151520</v>
       </c>
       <c r="I27" s="262">
         <f t="shared" si="19"/>
-        <v>4.7201863066105174E-2</v>
+        <v>4.6447097454912413E-2</v>
       </c>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
@@ -14679,7 +14766,7 @@
       </c>
       <c r="B28" s="299">
         <f t="shared" si="17"/>
-        <v>0.18402744053613326</v>
+        <v>0.18433368493276941</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="224"/>
@@ -14694,7 +14781,7 @@
       </c>
       <c r="I28" s="262">
         <f t="shared" si="19"/>
-        <v>4.0013467947748266E-2</v>
+        <v>4.0218183646281075E-2</v>
       </c>
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
@@ -14728,15 +14815,15 @@
         <v>0</v>
       </c>
       <c r="D29" s="211" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E29" s="212">
         <f>SUM(E30:E34)</f>
-        <v>2622196</v>
+        <v>2605506</v>
       </c>
       <c r="F29" s="258">
         <f>E29/E35</f>
-        <v>0.7997191737706838</v>
+        <v>0.79869450304487211</v>
       </c>
       <c r="G29" s="228" t="s">
         <v>132</v>
@@ -14747,7 +14834,7 @@
       </c>
       <c r="I29" s="262">
         <f t="shared" si="19"/>
-        <v>0.28868253216936435</v>
+        <v>0.29015948103829126</v>
       </c>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -14769,7 +14856,9 @@
       <c r="R29" s="96">
         <v>18</v>
       </c>
-      <c r="S29" s="96"/>
+      <c r="S29" s="96">
+        <v>18</v>
+      </c>
       <c r="T29" s="96"/>
       <c r="U29" s="96"/>
       <c r="V29" s="96"/>
@@ -14790,7 +14879,7 @@
       </c>
       <c r="B30" s="299">
         <f t="shared" si="17"/>
-        <v>0.13735603686683059</v>
+        <v>0.13758461428176427</v>
       </c>
       <c r="D30" s="231" t="s">
         <v>116</v>
@@ -14801,7 +14890,7 @@
       </c>
       <c r="F30" s="260">
         <f>E30/E35</f>
-        <v>4.3459749867028417E-3</v>
+        <v>4.3682097329230587E-3</v>
       </c>
       <c r="G30" s="228" t="s">
         <v>133</v>
@@ -14812,10 +14901,10 @@
       </c>
       <c r="I30" s="262">
         <f t="shared" si="19"/>
-        <v>0.10979305229565073</v>
+        <v>0.11035477220016149</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="389" t="s">
+      <c r="L30" s="406" t="s">
         <v>142</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -14836,7 +14925,9 @@
       <c r="R30" s="96">
         <v>22400</v>
       </c>
-      <c r="S30" s="96"/>
+      <c r="S30" s="96">
+        <v>23730</v>
+      </c>
       <c r="T30" s="96"/>
       <c r="U30" s="96"/>
       <c r="V30" s="96"/>
@@ -14857,7 +14948,7 @@
       </c>
       <c r="B31" s="299">
         <f t="shared" si="17"/>
-        <v>3.5783113437581472E-3</v>
+        <v>3.5842660959149609E-3</v>
       </c>
       <c r="D31" s="231" t="s">
         <v>126</v>
@@ -14868,7 +14959,7 @@
       </c>
       <c r="F31" s="260">
         <f>E31/E35</f>
-        <v>0.32419448497299092</v>
+        <v>0.3258531190243657</v>
       </c>
       <c r="G31" s="228" t="s">
         <v>137</v>
@@ -14879,10 +14970,10 @@
       </c>
       <c r="I31" s="262">
         <f t="shared" si="19"/>
-        <v>2.1348649057487644E-3</v>
+        <v>2.1457872372253623E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="389"/>
+      <c r="L31" s="406"/>
       <c r="M31" s="98" t="s">
         <v>143</v>
       </c>
@@ -14901,7 +14992,9 @@
       <c r="R31" s="96">
         <v>7400</v>
       </c>
-      <c r="S31" s="96"/>
+      <c r="S31" s="96">
+        <v>7400</v>
+      </c>
       <c r="T31" s="96"/>
       <c r="U31" s="96"/>
       <c r="V31" s="96"/>
@@ -14929,11 +15022,11 @@
       </c>
       <c r="E32" s="232">
         <f>M6</f>
-        <v>801196</v>
+        <v>781026</v>
       </c>
       <c r="F32" s="260">
         <f>E32/E35</f>
-        <v>0.24434931757518386</v>
+        <v>0.23941651753445367</v>
       </c>
       <c r="G32" s="228" t="s">
         <v>138</v>
@@ -14947,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="389"/>
+      <c r="L32" s="406"/>
       <c r="M32" s="98" t="s">
         <v>144</v>
       </c>
@@ -14966,7 +15059,9 @@
       <c r="R32" s="96">
         <v>18430</v>
       </c>
-      <c r="S32" s="96"/>
+      <c r="S32" s="96">
+        <v>19740</v>
+      </c>
       <c r="T32" s="96"/>
       <c r="U32" s="96"/>
       <c r="V32" s="96"/>
@@ -14991,17 +15086,17 @@
       </c>
       <c r="E33" s="232">
         <f>M7</f>
-        <v>721750</v>
+        <v>747230</v>
       </c>
       <c r="F33" s="260">
         <f>E33/E35</f>
-        <v>0.22011982081773865</v>
+        <v>0.22905665675312964</v>
       </c>
       <c r="G33" s="224"/>
       <c r="H33" s="281"/>
       <c r="I33" s="282"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="389"/>
+      <c r="L33" s="406"/>
       <c r="M33" s="98" t="s">
         <v>145</v>
       </c>
@@ -15020,7 +15115,9 @@
       <c r="R33" s="96">
         <v>5190</v>
       </c>
-      <c r="S33" s="96"/>
+      <c r="S33" s="96">
+        <v>5190</v>
+      </c>
       <c r="T33" s="96"/>
       <c r="U33" s="96"/>
       <c r="V33" s="96"/>
@@ -15042,17 +15139,17 @@
       </c>
       <c r="E34" s="286">
         <f>M10</f>
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="260">
         <f>E34/E35</f>
-        <v>6.7095754180675447E-3</v>
+        <v>0</v>
       </c>
       <c r="G34" s="287"/>
       <c r="H34" s="288"/>
       <c r="I34" s="289"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="389"/>
+      <c r="L34" s="406"/>
       <c r="M34" s="98" t="s">
         <v>146</v>
       </c>
@@ -15060,18 +15157,20 @@
         <v>147</v>
       </c>
       <c r="O34" s="99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P34" s="99" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="99" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="R34" s="99" t="s">
-        <v>343</v>
-      </c>
-      <c r="S34" s="99"/>
+        <v>340</v>
+      </c>
+      <c r="S34" s="99" t="s">
+        <v>347</v>
+      </c>
       <c r="T34" s="99"/>
       <c r="U34" s="99"/>
       <c r="V34" s="99"/>
@@ -15086,35 +15185,35 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="391">
+      <c r="A35" s="408">
         <f>M25</f>
-        <v>1956230</v>
-      </c>
-      <c r="B35" s="391"/>
+        <v>1952980</v>
+      </c>
+      <c r="B35" s="408"/>
       <c r="D35" s="290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="291">
         <f>E29+E21+E15+E5+E10+E24</f>
-        <v>3278896</v>
+        <v>3262206</v>
       </c>
       <c r="F35" s="233">
         <f>F29+F21+F15+F5+F10+F24</f>
         <v>1</v>
       </c>
       <c r="G35" s="290" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H35" s="291">
         <f>H26+H18+H10+H5+H22</f>
-        <v>3278896</v>
+        <v>3262206</v>
       </c>
       <c r="I35" s="292">
         <f>H35/$H$35</f>
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="389"/>
+      <c r="L35" s="406"/>
       <c r="M35" s="98" t="s">
         <v>148</v>
       </c>
@@ -15133,7 +15232,9 @@
       <c r="R35" s="100">
         <v>5.5</v>
       </c>
-      <c r="S35" s="100"/>
+      <c r="S35" s="100">
+        <v>5.5</v>
+      </c>
       <c r="T35" s="100"/>
       <c r="U35" s="100"/>
       <c r="V35" s="100"/>
@@ -15157,7 +15258,7 @@
       </c>
       <c r="I36" s="206"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="389"/>
+      <c r="L36" s="406"/>
       <c r="M36" s="98" t="s">
         <v>149</v>
       </c>
@@ -15176,7 +15277,9 @@
       <c r="R36" s="100">
         <v>5.5</v>
       </c>
-      <c r="S36" s="100"/>
+      <c r="S36" s="100">
+        <v>5.75</v>
+      </c>
       <c r="T36" s="100"/>
       <c r="U36" s="100"/>
       <c r="V36" s="100"/>
@@ -15196,7 +15299,7 @@
       <c r="H37" s="206"/>
       <c r="I37" s="206"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="389"/>
+      <c r="L37" s="406"/>
       <c r="M37" s="98" t="s">
         <v>150</v>
       </c>
@@ -15215,7 +15318,9 @@
       <c r="R37" s="100">
         <v>2.75</v>
       </c>
-      <c r="S37" s="100"/>
+      <c r="S37" s="100">
+        <v>3</v>
+      </c>
       <c r="T37" s="100"/>
       <c r="U37" s="100"/>
       <c r="V37" s="100"/>
@@ -15261,9 +15366,9 @@
         <f t="shared" si="23"/>
         <v>3.0270270270270272</v>
       </c>
-      <c r="S38" s="102" t="e">
+      <c r="S38" s="102">
         <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+        <v>3.2067567567567568</v>
       </c>
       <c r="T38" s="102" t="e">
         <f t="shared" si="23"/>
@@ -15325,10 +15430,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="392"/>
-      <c r="R39" s="392"/>
-      <c r="S39" s="392"/>
-      <c r="T39" s="392"/>
+      <c r="Q39" s="409"/>
+      <c r="R39" s="409"/>
+      <c r="S39" s="409"/>
+      <c r="T39" s="409"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="206"/>
@@ -15380,10 +15485,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="385"/>
-      <c r="R42" s="385"/>
-      <c r="S42" s="385"/>
-      <c r="T42" s="385"/>
+      <c r="Q42" s="399"/>
+      <c r="R42" s="399"/>
+      <c r="S42" s="399"/>
+      <c r="T42" s="399"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -15404,10 +15509,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="385"/>
-      <c r="R44" s="385"/>
-      <c r="S44" s="385"/>
-      <c r="T44" s="385"/>
+      <c r="Q44" s="399"/>
+      <c r="R44" s="399"/>
+      <c r="S44" s="399"/>
+      <c r="T44" s="399"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -15416,9 +15521,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="385"/>
-      <c r="R45" s="385"/>
-      <c r="S45" s="385"/>
+      <c r="Q45" s="399"/>
+      <c r="R45" s="399"/>
+      <c r="S45" s="399"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -15675,12 +15780,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
@@ -15689,6 +15788,12 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
@@ -15747,46 +15852,46 @@
   <sheetData>
     <row r="1" spans="1:35" ht="32.25" x14ac:dyDescent="0.25">
       <c r="M1" s="149" t="s">
+        <v>197</v>
+      </c>
+      <c r="N1" s="149" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="149" t="s">
+      <c r="O1" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="O1" s="149" t="s">
+      <c r="P1" s="149" t="s">
         <v>200</v>
       </c>
-      <c r="P1" s="149" t="s">
+      <c r="Q1" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="Q1" s="149" t="s">
+      <c r="R1" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="R1" s="149" t="s">
+      <c r="S1" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="S1" s="149" t="s">
+      <c r="U1" s="149" t="s">
         <v>204</v>
-      </c>
-      <c r="U1" s="149" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" s="150" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="410" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="406" t="s">
+      <c r="E2" s="410"/>
+      <c r="F2" s="411" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407" t="s">
+      <c r="G2" s="411"/>
+      <c r="H2" s="412" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="407"/>
-      <c r="H2" s="408" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" s="408"/>
+      <c r="I2" s="412"/>
       <c r="K2" s="60"/>
       <c r="M2" s="151">
         <v>11</v>
@@ -15813,7 +15918,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="156">
         <f>B4+B5+B6+B7</f>
@@ -15824,28 +15929,28 @@
         <v>12400</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="H3" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="158" t="s">
+      <c r="J3" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="K3" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="M3" s="151">
         <v>10</v>
@@ -15872,7 +15977,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4" s="156">
         <v>8000</v>
@@ -15938,7 +16043,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="155" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" s="156">
         <v>3000</v>
@@ -16004,7 +16109,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="155" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="156">
         <v>1000</v>
@@ -16070,7 +16175,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="155" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7" s="156">
         <v>0</v>
@@ -16255,7 +16360,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="175" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" s="176">
         <v>10000</v>
@@ -16300,7 +16405,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="175" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B12" s="177">
         <f>E7+E6+E5+E4</f>
@@ -16342,7 +16447,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="178" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="179">
         <f>B11+B12</f>
@@ -16475,7 +16580,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="182">
         <v>100</v>
@@ -16724,7 +16829,7 @@
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="183" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="184">
         <f t="shared" ref="B18:AD18" si="3">B16*$N$5</f>
@@ -16863,7 +16968,7 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="183" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="184">
         <f t="shared" ref="B19:AD19" si="4">B16*$O$5</f>
@@ -16989,7 +17094,7 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="183" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="184">
         <f t="shared" ref="B20:AD20" si="5">B16*$P$5</f>
@@ -17115,7 +17220,7 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="183" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B21" s="184">
         <f t="shared" ref="B21:AD21" si="6">B16*$Q$5</f>
@@ -17241,7 +17346,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="183" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="184">
         <f t="shared" ref="B22:AD22" si="7">MIN(B$18,$C$4)</f>
@@ -17367,7 +17472,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="183" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="184">
         <f t="shared" ref="B23:AD23" si="8">MIN(B$19,$C$5)</f>
@@ -17493,7 +17598,7 @@
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="183" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="184">
         <f t="shared" ref="B24:AD24" si="9">MIN(B$20,$C$6)</f>
@@ -17619,7 +17724,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="183" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="184">
         <f t="shared" ref="B25:AD25" si="10">MIN(B$21,$C$7)</f>
@@ -17745,7 +17850,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="185" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="186">
         <f>IF(B22&gt;$B$4,(B22-$B$4)*$H$4,0)</f>
@@ -17876,7 +17981,7 @@
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="185" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B27" s="186">
         <f>IF(B23&gt;$B$5,(B23-$B$5)*$H$5,0)</f>
@@ -18007,7 +18112,7 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="185" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B28" s="186">
         <f>IF(B24&gt;$B$6,(B24-$B$6)*$H$6,0)</f>
@@ -18138,7 +18243,7 @@
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="185" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" s="186">
         <f>IF(B25&gt;$B$7,(B25-$B$7)*$H$7,0)</f>
@@ -18280,7 +18385,7 @@
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="188" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B30" s="189">
         <f>G4+G5+G6+G7</f>
@@ -18419,7 +18524,7 @@
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="190" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B31" s="191">
         <f t="shared" ref="B31:AD31" si="12">B26+B27+B28+B29-B30</f>
@@ -18558,7 +18663,7 @@
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="193" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B32" s="191">
         <f>-B12-B11+B31</f>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B28FE19-333D-411C-85A4-3A0358E67042}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD580FA6-2359-4D30-8804-E3FB1A5D9B39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall_of_Fame" sheetId="6" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="348">
   <si>
     <t>Nfin</t>
   </si>
@@ -743,12 +743,6 @@
     <t>FC-2</t>
   </si>
   <si>
-    <t>B. Tugores</t>
-  </si>
-  <si>
-    <t>FC-3</t>
-  </si>
-  <si>
     <t>V. Garrell</t>
   </si>
   <si>
@@ -1046,9 +1040,6 @@
     <t>LD</t>
   </si>
   <si>
-    <t>Malintencionat - no Infame</t>
-  </si>
-  <si>
     <t>23(42)</t>
   </si>
   <si>
@@ -1202,9 +1193,6 @@
     <t>R. Abrain</t>
   </si>
   <si>
-    <t>POR/MED/DAV</t>
-  </si>
-  <si>
     <t>176 hts</t>
   </si>
   <si>
@@ -1235,9 +1223,6 @@
     <t>FC+6S</t>
   </si>
   <si>
-    <t>Tugores &gt; Aloy</t>
-  </si>
-  <si>
     <t>Hab</t>
   </si>
   <si>
@@ -1275,6 +1260,15 @@
   </si>
   <si>
     <t>PMx</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>POR/DAV</t>
+  </si>
+  <si>
+    <t>Aloy  &gt; Arsequell</t>
   </si>
 </sst>
 </file>
@@ -2053,18 +2047,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor rgb="FF639A3F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF639A3F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor rgb="FF639A3F"/>
       </patternFill>
     </fill>
@@ -2314,7 +2308,7 @@
     <xf numFmtId="165" fontId="39" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2958,7 +2952,7 @@
     <xf numFmtId="0" fontId="55" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3104,10 +3098,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3122,7 +3116,7 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="47" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3192,28 +3186,25 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="62" fillId="49" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="62" fillId="48" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="63" fillId="20" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="63" fillId="49" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="63" fillId="48" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="64" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="61" fillId="47" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="62" fillId="11" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="61" fillId="20" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="48" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="47" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,13 +3237,22 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="49" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="48" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="169" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3277,9 +3277,48 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="41" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3301,45 +3340,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3347,6 +3347,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="61" fillId="49" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3358,63 +3361,6 @@
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3506,6 +3452,63 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4478,49 +4481,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="420" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="420"/>
-      <c r="C1" s="420"/>
-      <c r="E1" s="419" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="419"/>
-      <c r="G1" s="419"/>
-      <c r="H1" s="419"/>
+      <c r="A1" s="422" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="422"/>
+      <c r="C1" s="422"/>
+      <c r="E1" s="421" t="s">
+        <v>278</v>
+      </c>
+      <c r="F1" s="421"/>
+      <c r="G1" s="421"/>
+      <c r="H1" s="421"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="421">
+      <c r="A2" s="423">
         <v>43696</v>
       </c>
-      <c r="B2" s="421"/>
-      <c r="C2" s="421"/>
+      <c r="B2" s="423"/>
+      <c r="C2" s="423"/>
       <c r="E2" s="62" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F2" s="370" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G2" s="322">
         <v>43695</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E3" s="62" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F3" s="370" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G3" s="322">
         <v>43670</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
@@ -4550,49 +4553,49 @@
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="323"/>
-      <c r="B5" s="418" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="418"/>
+      <c r="B5" s="420" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="420"/>
       <c r="E5" s="323"/>
       <c r="F5" s="323"/>
-      <c r="G5" s="418" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="418"/>
-      <c r="I5" s="418"/>
+      <c r="G5" s="420" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="420"/>
+      <c r="I5" s="420"/>
       <c r="J5" s="324"/>
       <c r="K5" s="324"/>
-      <c r="L5" s="418" t="s">
-        <v>284</v>
-      </c>
-      <c r="M5" s="418"/>
+      <c r="L5" s="420" t="s">
+        <v>281</v>
+      </c>
+      <c r="M5" s="420"/>
       <c r="O5" s="233" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P5" s="323"/>
       <c r="Q5" s="323"/>
-      <c r="R5" s="418" t="s">
-        <v>286</v>
-      </c>
-      <c r="S5" s="418"/>
+      <c r="R5" s="420" t="s">
+        <v>283</v>
+      </c>
+      <c r="S5" s="420"/>
       <c r="T5" s="323"/>
       <c r="U5" s="323"/>
-      <c r="V5" s="419" t="s">
-        <v>305</v>
-      </c>
-      <c r="W5" s="419"/>
+      <c r="V5" s="421" t="s">
+        <v>302</v>
+      </c>
+      <c r="W5" s="421"/>
       <c r="X5" s="350" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Y5" s="350" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Z5" s="350" t="s">
         <v>47</v>
       </c>
       <c r="AA5" s="350" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -4603,7 +4606,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="336" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D6" s="337" t="s">
         <v>56</v>
@@ -4615,7 +4618,7 @@
         <v>12</v>
       </c>
       <c r="H6" s="336" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I6" s="337" t="s">
         <v>56</v>
@@ -4627,7 +4630,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="336" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N6" s="336" t="s">
         <v>86</v>
@@ -4643,7 +4646,7 @@
         <v>5.5</v>
       </c>
       <c r="S6" s="333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="T6" s="334" t="s">
         <v>91</v>
@@ -4651,8 +4654,8 @@
       <c r="V6" s="351">
         <v>1</v>
       </c>
-      <c r="W6" s="412" t="s">
-        <v>290</v>
+      <c r="W6" s="411" t="s">
+        <v>287</v>
       </c>
       <c r="X6" s="335">
         <v>4</v>
@@ -4677,7 +4680,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="336" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D7" s="337" t="s">
         <v>56</v>
@@ -4689,7 +4692,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="336" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I7" s="336" t="s">
         <v>91</v>
@@ -4701,7 +4704,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="336" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="N7" s="337" t="s">
         <v>91</v>
@@ -4717,7 +4720,7 @@
         <v>5.5</v>
       </c>
       <c r="S7" s="336" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="T7" s="336" t="s">
         <v>91</v>
@@ -4725,8 +4728,8 @@
       <c r="V7" s="354">
         <v>2</v>
       </c>
-      <c r="W7" s="413" t="s">
-        <v>298</v>
+      <c r="W7" s="412" t="s">
+        <v>295</v>
       </c>
       <c r="X7" s="332">
         <v>1</v>
@@ -4751,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="336" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D8" s="337" t="s">
         <v>56</v>
@@ -4763,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="333" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I8" s="334" t="s">
         <v>71</v>
@@ -4775,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="333" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N8" s="333" t="s">
         <v>154</v>
@@ -4791,7 +4794,7 @@
         <v>5</v>
       </c>
       <c r="S8" s="336" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="T8" s="337" t="s">
         <v>91</v>
@@ -4799,8 +4802,8 @@
       <c r="V8" s="354">
         <v>3</v>
       </c>
-      <c r="W8" s="412" t="s">
-        <v>291</v>
+      <c r="W8" s="411" t="s">
+        <v>288</v>
       </c>
       <c r="X8" s="335">
         <v>2</v>
@@ -4832,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="336" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="I9" s="336" t="s">
         <v>86</v>
@@ -4845,7 +4848,7 @@
         <v>7</v>
       </c>
       <c r="M9" s="349" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N9" s="337" t="s">
         <v>71</v>
@@ -4862,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="S9" s="336" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="T9" s="337" t="s">
         <v>56</v>
@@ -4871,8 +4874,8 @@
       <c r="V9" s="354">
         <v>3</v>
       </c>
-      <c r="W9" s="412" t="s">
-        <v>296</v>
+      <c r="W9" s="411" t="s">
+        <v>293</v>
       </c>
       <c r="X9" s="335">
         <v>0</v>
@@ -4903,7 +4906,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="333" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I10" s="333" t="s">
         <v>154</v>
@@ -4915,7 +4918,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="336" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N10" s="336" t="s">
         <v>91</v>
@@ -4931,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="S10" s="333" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="T10" s="333" t="s">
         <v>86</v>
@@ -4939,8 +4942,8 @@
       <c r="V10" s="354">
         <v>3</v>
       </c>
-      <c r="W10" s="416" t="s">
-        <v>293</v>
+      <c r="W10" s="415" t="s">
+        <v>290</v>
       </c>
       <c r="X10" s="332">
         <v>1</v>
@@ -4971,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="336" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I11" s="337" t="s">
         <v>154</v>
@@ -4983,7 +4986,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N11" s="334" t="s">
         <v>91</v>
@@ -4999,7 +5002,7 @@
         <v>4.5</v>
       </c>
       <c r="S11" s="336" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="T11" s="336" t="s">
         <v>86</v>
@@ -5008,7 +5011,7 @@
         <v>6</v>
       </c>
       <c r="W11" s="336" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="X11" s="332">
         <v>1</v>
@@ -5035,7 +5038,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="333" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I12" s="333" t="s">
         <v>86</v>
@@ -5047,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="336" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N12" s="337" t="s">
         <v>154</v>
@@ -5063,7 +5066,7 @@
         <v>4.5</v>
       </c>
       <c r="S12" s="336" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T12" s="337" t="s">
         <v>71</v>
@@ -5072,7 +5075,7 @@
         <v>6</v>
       </c>
       <c r="W12" s="336" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X12" s="332">
         <v>1</v>
@@ -5092,7 +5095,7 @@
     <row r="13" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="348"/>
       <c r="B13" s="326" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C13" s="326"/>
       <c r="E13" s="323"/>
@@ -5103,7 +5106,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="333" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I13" s="334" t="s">
         <v>154</v>
@@ -5116,7 +5119,7 @@
         <v>4</v>
       </c>
       <c r="M13" s="333" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N13" s="333" t="s">
         <v>86</v>
@@ -5133,7 +5136,7 @@
         <v>4.5</v>
       </c>
       <c r="S13" s="333" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="T13" s="333" t="s">
         <v>154</v>
@@ -5155,7 +5158,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="333" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D14" s="333" t="s">
         <v>154</v>
@@ -5167,7 +5170,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I14" s="334" t="s">
         <v>91</v>
@@ -5179,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="M14" s="333" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N14" s="334" t="s">
         <v>154</v>
@@ -5195,7 +5198,7 @@
         <v>4.5</v>
       </c>
       <c r="S14" s="333" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="T14" s="334" t="s">
         <v>154</v>
@@ -5217,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D15" s="334" t="s">
         <v>91</v>
@@ -5229,7 +5232,7 @@
         <v>9</v>
       </c>
       <c r="H15" s="336" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I15" s="337" t="s">
         <v>71</v>
@@ -5241,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="M15" s="336" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N15" s="337" t="s">
         <v>71</v>
@@ -5257,7 +5260,7 @@
         <v>4.5</v>
       </c>
       <c r="S15" s="336" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="T15" s="337" t="s">
         <v>71</v>
@@ -5279,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="336" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D16" s="337" t="s">
         <v>71</v>
@@ -5291,7 +5294,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="336" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I16" s="337" t="s">
         <v>71</v>
@@ -5303,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="349" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N16" s="337" t="s">
         <v>71</v>
@@ -5319,7 +5322,7 @@
         <v>4.5</v>
       </c>
       <c r="S16" s="336" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="T16" s="337" t="s">
         <v>71</v>
@@ -5347,7 +5350,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="336" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I17" s="337" t="s">
         <v>71</v>
@@ -5359,7 +5362,7 @@
         <v>3</v>
       </c>
       <c r="M17" s="336" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="N17" s="337" t="s">
         <v>56</v>
@@ -5375,7 +5378,7 @@
         <v>4.5</v>
       </c>
       <c r="S17" s="333" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="T17" s="334" t="s">
         <v>71</v>
@@ -5403,7 +5406,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="336" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I18" s="337" t="s">
         <v>56</v>
@@ -5415,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="333" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N18" s="334" t="s">
         <v>71</v>
@@ -5431,7 +5434,7 @@
         <v>4.5</v>
       </c>
       <c r="S18" s="336" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="T18" s="337" t="s">
         <v>86</v>
@@ -5459,7 +5462,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="336" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I19" s="337" t="s">
         <v>91</v>
@@ -5471,7 +5474,7 @@
         <v>2</v>
       </c>
       <c r="M19" s="336" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="N19" s="337" t="s">
         <v>86</v>
@@ -5487,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="S19" s="336" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="T19" s="337" t="s">
         <v>154</v>
@@ -5515,7 +5518,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="336" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="I20" s="337" t="s">
         <v>154</v>
@@ -5527,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="336" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="N20" s="337" t="s">
         <v>71</v>
@@ -5543,7 +5546,7 @@
         <v>4</v>
       </c>
       <c r="S20" s="336" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="T20" s="337" t="s">
         <v>71</v>
@@ -5571,7 +5574,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="336" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I21" s="337" t="s">
         <v>71</v>
@@ -5590,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="S21" s="336" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="T21" s="337" t="s">
         <v>56</v>
@@ -5618,7 +5621,7 @@
         <v>6</v>
       </c>
       <c r="H22" s="336" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I22" s="337" t="s">
         <v>86</v>
@@ -5637,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="S22" s="336" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="T22" s="337" t="s">
         <v>56</v>
@@ -5665,7 +5668,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="336" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I23" s="337" t="s">
         <v>56</v>
@@ -5684,7 +5687,7 @@
         <v>3.5</v>
       </c>
       <c r="S23" s="336" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T23" s="337" t="s">
         <v>154</v>
@@ -5777,10 +5780,10 @@
     </row>
     <row r="28" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="348"/>
-      <c r="B28" s="414" t="s">
-        <v>345</v>
-      </c>
-      <c r="C28" s="414"/>
+      <c r="B28" s="413" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="413"/>
       <c r="K28" s="321">
         <v>22</v>
       </c>
@@ -5801,7 +5804,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="333" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D29" s="334" t="s">
         <v>91</v>
@@ -5826,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="336" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D30" s="334" t="s">
         <v>91</v>
@@ -5851,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="336" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D31" s="334" t="s">
         <v>91</v>
@@ -5994,11 +5997,11 @@
   </sheetPr>
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6052,13 +6055,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43696</v>
-      </c>
-      <c r="E1" s="422">
+        <v>43698</v>
+      </c>
+      <c r="E1" s="424">
         <v>43637</v>
       </c>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
+      <c r="F1" s="424"/>
+      <c r="G1" s="424"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -6279,10 +6282,10 @@
         <v>39</v>
       </c>
       <c r="AF3" s="21" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG3" s="21" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AH3" s="21" t="s">
         <v>25</v>
@@ -6354,7 +6357,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.196428571428573</v>
+        <v>17.178571428571427</v>
       </c>
       <c r="D4" s="199" t="s">
         <v>52</v>
@@ -6364,7 +6367,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>53</v>
@@ -6412,14 +6415,14 @@
         <v>890</v>
       </c>
       <c r="T4" s="40">
-        <f>S4-AZ4</f>
+        <f t="shared" ref="T4:T21" si="7">S4-AZ4</f>
         <v>-50</v>
       </c>
       <c r="U4" s="41">
         <v>370</v>
       </c>
       <c r="V4" s="42">
-        <f t="shared" ref="V4:V22" si="7">S4/U4</f>
+        <f t="shared" ref="V4:V22" si="8">S4/U4</f>
         <v>2.4054054054054053</v>
       </c>
       <c r="W4" s="45">
@@ -6458,31 +6461,31 @@
         <v>10.516414553301837</v>
       </c>
       <c r="AH4" s="43">
-        <f t="shared" ref="AH4:AH21" si="8">(Y4+O4+J4)*(P4/7)^0.5</f>
+        <f t="shared" ref="AH4:AH21" si="9">(Y4+O4+J4)*(P4/7)^0.5</f>
         <v>3.7315981605802442</v>
       </c>
       <c r="AI4" s="43">
-        <f t="shared" ref="AI4:AI21" si="9">(Y4+O4+J4)*(IF(P4=7, (P4/7)^0.5, ((P4+1)/7)^0.5))</f>
+        <f t="shared" ref="AI4:AI21" si="10">(Y4+O4+J4)*(IF(P4=7, (P4/7)^0.5, ((P4+1)/7)^0.5))</f>
         <v>4.0305866782293833</v>
       </c>
       <c r="AJ4" s="44">
-        <f>(AC4+O4+(LOG(I4)*4/3))*(P4/7)^0.5</f>
+        <f t="shared" ref="AJ4:AJ21" si="11">(AC4+O4+(LOG(I4)*4/3))*(P4/7)^0.5</f>
         <v>5.309382318119706</v>
       </c>
       <c r="AK4" s="44">
-        <f>(AC4+O4+(LOG(I4)*4/3))*(IF(P4=7, (P4/7)^0.5, ((P4+1)/7)^0.5))</f>
+        <f t="shared" ref="AK4:AK21" si="12">(AC4+O4+(LOG(I4)*4/3))*(IF(P4=7, (P4/7)^0.5, ((P4+1)/7)^0.5))</f>
         <v>5.7347883454075745</v>
       </c>
       <c r="AL4" s="42">
-        <f t="shared" ref="AL4:AL21" si="10">(((X4+O4+J4)+(AA4+O4+J4)*2)/8)*(P4/7)^0.5</f>
+        <f t="shared" ref="AL4:AL21" si="13">(((X4+O4+J4)+(AA4+O4+J4)*2)/8)*(P4/7)^0.5</f>
         <v>2.0937143850470052</v>
       </c>
       <c r="AM4" s="42">
-        <f t="shared" ref="AM4:AM21" si="11">(1.66*(AB4+J4+O4)+0.55*(AC4+J4+O4)-7.6)*(P4/7)^0.5</f>
+        <f t="shared" ref="AM4:AM21" si="14">(1.66*(AB4+J4+O4)+0.55*(AC4+J4+O4)-7.6)*(P4/7)^0.5</f>
         <v>0.6921399207383212</v>
       </c>
       <c r="AN4" s="42">
-        <f t="shared" ref="AN4:AN21" si="12">((AC4+J4+O4)*0.7+(AB4+J4+O4)*0.3)*(P4/7)^0.5</f>
+        <f t="shared" ref="AN4:AN21" si="15">((AC4+J4+O4)*0.7+(AB4+J4+O4)*0.3)*(P4/7)^0.5</f>
         <v>4.7500002703300508</v>
       </c>
       <c r="AO4" s="30">
@@ -6492,7 +6495,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="31">
-        <f t="shared" ref="AQ4:AQ21" si="13">IF(AO4=4,IF(AP4=0,0.137+0.0697,0.137+0.02),IF(AO4=3,IF(AP4=0,0.0958+0.0697,0.0958+0.02),IF(AO4=2,IF(AP4=0,0.0415+0.0697,0.0415+0.02),IF(AO4=1,IF(AP4=0,0.0294+0.0697,0.0294+0.02),IF(AO4=0,IF(AP4=0,0.0063+0.0697,0.0063+0.02))))))</f>
+        <f t="shared" ref="AQ4:AQ21" si="16">IF(AO4=4,IF(AP4=0,0.137+0.0697,0.137+0.02),IF(AO4=3,IF(AP4=0,0.0958+0.0697,0.0958+0.02),IF(AO4=2,IF(AP4=0,0.0415+0.0697,0.0415+0.02),IF(AO4=1,IF(AP4=0,0.0294+0.0697,0.0294+0.02),IF(AO4=0,IF(AP4=0,0.0063+0.0697,0.0063+0.02))))))</f>
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AR4" s="47">
@@ -6517,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="AY4" s="48">
-        <f t="shared" ref="AY4:AY21" si="14">SUM(AR4:AX4)</f>
+        <f t="shared" ref="AY4:AY21" si="17">SUM(AR4:AX4)</f>
         <v>23.5</v>
       </c>
       <c r="AZ4" s="39">
@@ -6536,7 +6539,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.3839285714285712</v>
+        <v>8.3660714285714288</v>
       </c>
       <c r="D5" s="299" t="s">
         <v>60</v>
@@ -6546,7 +6549,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>58</v>
@@ -6594,7 +6597,7 @@
         <v>8430</v>
       </c>
       <c r="T5" s="40">
-        <f>S5-AZ5</f>
+        <f t="shared" si="7"/>
         <v>1930</v>
       </c>
       <c r="U5" s="39">
@@ -6633,39 +6636,39 @@
         <v>315</v>
       </c>
       <c r="AF5" s="42">
-        <f t="shared" ref="AF5:AF21" si="15">(0.972*(W5+O5+J5)+ 0.399*(X5+O5+J5))*Q5</f>
+        <f t="shared" ref="AF5:AF21" si="18">(0.972*(W5+O5+J5)+ 0.399*(X5+O5+J5))*Q5</f>
         <v>12.064217167926241</v>
       </c>
       <c r="AG5" s="42">
-        <f t="shared" ref="AG5:AG21" si="16">(0.972*(W5+O5+J5)+ 0.399*(X5+O5+J5))*R5</f>
+        <f t="shared" ref="AG5:AG21" si="19">(0.972*(W5+O5+J5)+ 0.399*(X5+O5+J5))*R5</f>
         <v>12.064217167926241</v>
       </c>
       <c r="AH5" s="43">
-        <f t="shared" si="8"/>
-        <v>2.4319600057813586</v>
-      </c>
-      <c r="AI5" s="43">
         <f t="shared" si="9"/>
         <v>2.4319600057813586</v>
       </c>
+      <c r="AI5" s="43">
+        <f t="shared" si="10"/>
+        <v>2.4319600057813586</v>
+      </c>
       <c r="AJ5" s="44">
-        <f>(AC5+O5+(LOG(I5)*4/3))*(P5/7)^0.5</f>
+        <f t="shared" si="11"/>
         <v>4.3027466551039497</v>
       </c>
       <c r="AK5" s="44">
-        <f>(AC5+O5+(LOG(I5)*4/3))*(IF(P5=7, (P5/7)^0.5, ((P5+1)/7)^0.5))</f>
+        <f t="shared" si="12"/>
         <v>4.3027466551039497</v>
       </c>
       <c r="AL5" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1.7869850021680094</v>
       </c>
       <c r="AM5" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>-1.1253683872231974</v>
       </c>
       <c r="AN5" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3.8319600057813581</v>
       </c>
       <c r="AO5" s="37">
@@ -6719,7 +6722,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.276785714285714</v>
+        <v>14.258928571428571</v>
       </c>
       <c r="D6" s="299" t="s">
         <v>57</v>
@@ -6729,7 +6732,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>58</v>
@@ -6777,14 +6780,14 @@
         <v>3230</v>
       </c>
       <c r="T6" s="40">
-        <f>S6-AZ6</f>
+        <f t="shared" si="7"/>
         <v>360</v>
       </c>
       <c r="U6" s="39">
         <v>990</v>
       </c>
       <c r="V6" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2626262626262625</v>
       </c>
       <c r="W6" s="45">
@@ -6815,39 +6818,39 @@
         <v>1066</v>
       </c>
       <c r="AF6" s="42">
+        <f t="shared" si="18"/>
+        <v>8.8496158989751113</v>
+      </c>
+      <c r="AG6" s="42">
+        <f t="shared" si="19"/>
+        <v>9.5518475865506201</v>
+      </c>
+      <c r="AH6" s="43">
+        <f t="shared" si="9"/>
+        <v>1.9777014131897108</v>
+      </c>
+      <c r="AI6" s="43">
+        <f t="shared" si="10"/>
+        <v>2.1361616729595498</v>
+      </c>
+      <c r="AJ6" s="44">
+        <f t="shared" si="11"/>
+        <v>5.4636100429092433</v>
+      </c>
+      <c r="AK6" s="44">
+        <f t="shared" si="12"/>
+        <v>5.9013733275519753</v>
+      </c>
+      <c r="AL6" s="42">
+        <f t="shared" si="13"/>
+        <v>0.97309305488927955</v>
+      </c>
+      <c r="AM6" s="42">
+        <f t="shared" si="14"/>
+        <v>-0.62870841562251678</v>
+      </c>
+      <c r="AN6" s="42">
         <f t="shared" si="15"/>
-        <v>8.8496158989751113</v>
-      </c>
-      <c r="AG6" s="42">
-        <f t="shared" si="16"/>
-        <v>9.5518475865506201</v>
-      </c>
-      <c r="AH6" s="43">
-        <f t="shared" si="8"/>
-        <v>1.9777014131897108</v>
-      </c>
-      <c r="AI6" s="43">
-        <f t="shared" si="9"/>
-        <v>2.1361616729595498</v>
-      </c>
-      <c r="AJ6" s="44">
-        <f>(AC6+O6+(LOG(I6)*4/3))*(P6/7)^0.5</f>
-        <v>5.4636100429092433</v>
-      </c>
-      <c r="AK6" s="44">
-        <f>(AC6+O6+(LOG(I6)*4/3))*(IF(P6=7, (P6/7)^0.5, ((P6+1)/7)^0.5))</f>
-        <v>5.9013733275519753</v>
-      </c>
-      <c r="AL6" s="42">
-        <f t="shared" si="10"/>
-        <v>0.97309305488927955</v>
-      </c>
-      <c r="AM6" s="42">
-        <f t="shared" si="11"/>
-        <v>-0.62870841562251678</v>
-      </c>
-      <c r="AN6" s="42">
-        <f t="shared" si="12"/>
         <v>4.5699976925528549</v>
       </c>
       <c r="AO6" s="37">
@@ -6857,7 +6860,7 @@
         <v>4</v>
       </c>
       <c r="AQ6" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1158</v>
       </c>
       <c r="AR6" s="47">
@@ -6882,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="AY6" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9.5</v>
       </c>
       <c r="AZ6" s="39">
@@ -6901,7 +6904,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4821428571428572</v>
+        <v>3.4642857142857144</v>
       </c>
       <c r="D7" s="198" t="s">
         <v>63</v>
@@ -6911,7 +6914,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="32">
@@ -6957,14 +6960,14 @@
         <v>350</v>
       </c>
       <c r="T7" s="40">
-        <f>S7-AZ7</f>
+        <f t="shared" si="7"/>
         <v>-40</v>
       </c>
       <c r="U7" s="41">
         <v>310</v>
       </c>
       <c r="V7" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.1290322580645162</v>
       </c>
       <c r="W7" s="45">
@@ -6993,39 +6996,39 @@
       </c>
       <c r="AE7" s="46"/>
       <c r="AF7" s="42">
+        <f t="shared" si="18"/>
+        <v>4.1354068338861776</v>
+      </c>
+      <c r="AG7" s="42">
+        <f t="shared" si="19"/>
+        <v>4.7691838166221725</v>
+      </c>
+      <c r="AH7" s="43">
+        <f t="shared" si="9"/>
+        <v>4.2182130729818796</v>
+      </c>
+      <c r="AI7" s="43">
+        <f t="shared" si="10"/>
+        <v>4.8707729063705729</v>
+      </c>
+      <c r="AJ7" s="44">
+        <f t="shared" si="11"/>
+        <v>4.7901304611380722</v>
+      </c>
+      <c r="AK7" s="44">
+        <f t="shared" si="12"/>
+        <v>5.5311662223829838</v>
+      </c>
+      <c r="AL7" s="42">
+        <f t="shared" si="13"/>
+        <v>1.663661611206702</v>
+      </c>
+      <c r="AM7" s="42">
+        <f t="shared" si="14"/>
+        <v>2.5334923260482323</v>
+      </c>
+      <c r="AN7" s="42">
         <f t="shared" si="15"/>
-        <v>4.1354068338861776</v>
-      </c>
-      <c r="AG7" s="42">
-        <f t="shared" si="16"/>
-        <v>4.7691838166221725</v>
-      </c>
-      <c r="AH7" s="43">
-        <f t="shared" si="8"/>
-        <v>4.2182130729818796</v>
-      </c>
-      <c r="AI7" s="43">
-        <f t="shared" si="9"/>
-        <v>4.8707729063705729</v>
-      </c>
-      <c r="AJ7" s="44">
-        <f>(AC7+O7+(LOG(I7)*4/3))*(P7/7)^0.5</f>
-        <v>4.7901304611380722</v>
-      </c>
-      <c r="AK7" s="44">
-        <f>(AC7+O7+(LOG(I7)*4/3))*(IF(P7=7, (P7/7)^0.5, ((P7+1)/7)^0.5))</f>
-        <v>5.5311662223829838</v>
-      </c>
-      <c r="AL7" s="42">
-        <f t="shared" si="10"/>
-        <v>1.663661611206702</v>
-      </c>
-      <c r="AM7" s="42">
-        <f t="shared" si="11"/>
-        <v>2.5334923260482323</v>
-      </c>
-      <c r="AN7" s="42">
-        <f t="shared" si="12"/>
         <v>4.2836784400526771</v>
       </c>
       <c r="AO7" s="30">
@@ -7035,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.63E-2</v>
       </c>
       <c r="AR7" s="47">
@@ -7060,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="AY7" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>28.5</v>
       </c>
       <c r="AZ7" s="39">
@@ -7079,7 +7082,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9375</v>
+        <v>8.9196428571428577</v>
       </c>
       <c r="D8" s="193" t="s">
         <v>65</v>
@@ -7089,7 +7092,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577-112</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="32">
@@ -7135,14 +7138,14 @@
         <v>1300</v>
       </c>
       <c r="T8" s="40">
-        <f>S8-AZ8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U8" s="41">
         <v>390</v>
       </c>
       <c r="V8" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3333333333333335</v>
       </c>
       <c r="W8" s="45">
@@ -7173,39 +7176,39 @@
         <v>575</v>
       </c>
       <c r="AF8" s="42">
+        <f t="shared" si="18"/>
+        <v>4.7554560611999834</v>
+      </c>
+      <c r="AG8" s="42">
+        <f t="shared" si="19"/>
+        <v>5.2049981839866559</v>
+      </c>
+      <c r="AH8" s="43">
+        <f t="shared" si="9"/>
+        <v>3.6831289145481452</v>
+      </c>
+      <c r="AI8" s="43">
+        <f t="shared" si="10"/>
+        <v>4.0346655773950726</v>
+      </c>
+      <c r="AJ8" s="44">
+        <f t="shared" si="11"/>
+        <v>5.2472572917225291</v>
+      </c>
+      <c r="AK8" s="44">
+        <f t="shared" si="12"/>
+        <v>5.7480823674197907</v>
+      </c>
+      <c r="AL8" s="42">
+        <f t="shared" si="13"/>
+        <v>2.015039034001942</v>
+      </c>
+      <c r="AM8" s="42">
+        <f t="shared" si="14"/>
+        <v>1.243256182566707</v>
+      </c>
+      <c r="AN8" s="42">
         <f t="shared" si="15"/>
-        <v>4.7554560611999834</v>
-      </c>
-      <c r="AG8" s="42">
-        <f t="shared" si="16"/>
-        <v>5.2049981839866559</v>
-      </c>
-      <c r="AH8" s="43">
-        <f t="shared" si="8"/>
-        <v>3.6831289145481452</v>
-      </c>
-      <c r="AI8" s="43">
-        <f t="shared" si="9"/>
-        <v>4.0346655773950726</v>
-      </c>
-      <c r="AJ8" s="44">
-        <f>(AC8+O8+(LOG(I8)*4/3))*(P8/7)^0.5</f>
-        <v>5.2472572917225291</v>
-      </c>
-      <c r="AK8" s="44">
-        <f>(AC8+O8+(LOG(I8)*4/3))*(IF(P8=7, (P8/7)^0.5, ((P8+1)/7)^0.5))</f>
-        <v>5.7480823674197907</v>
-      </c>
-      <c r="AL8" s="42">
-        <f t="shared" si="10"/>
-        <v>2.015039034001942</v>
-      </c>
-      <c r="AM8" s="42">
-        <f t="shared" si="11"/>
-        <v>1.243256182566707</v>
-      </c>
-      <c r="AN8" s="42">
-        <f t="shared" si="12"/>
         <v>4.6127985947495134</v>
       </c>
       <c r="AO8" s="30">
@@ -7215,7 +7218,7 @@
         <v>4</v>
       </c>
       <c r="AQ8" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AR8" s="47">
@@ -7240,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="AY8" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23.5</v>
       </c>
       <c r="AZ8" s="39">
@@ -7259,7 +7262,7 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9107142857142856</v>
+        <v>6.8928571428571432</v>
       </c>
       <c r="D9" s="245" t="s">
         <v>67</v>
@@ -7269,7 +7272,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574-112</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="32">
@@ -7315,14 +7318,14 @@
         <v>470</v>
       </c>
       <c r="T9" s="40">
-        <f>S9-AZ9</f>
+        <f t="shared" si="7"/>
         <v>-160</v>
       </c>
       <c r="U9" s="39">
         <v>300</v>
       </c>
       <c r="V9" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.5666666666666667</v>
       </c>
       <c r="W9" s="45">
@@ -7353,39 +7356,39 @@
         <v>241</v>
       </c>
       <c r="AF9" s="42">
+        <f t="shared" si="18"/>
+        <v>4.5556483267474075</v>
+      </c>
+      <c r="AG9" s="42">
+        <f t="shared" si="19"/>
+        <v>4.9863022520743518</v>
+      </c>
+      <c r="AH9" s="43">
+        <f t="shared" si="9"/>
+        <v>6.3188169254033539</v>
+      </c>
+      <c r="AI9" s="43">
+        <f t="shared" si="10"/>
+        <v>6.9219171335777103</v>
+      </c>
+      <c r="AJ9" s="44">
+        <f t="shared" si="11"/>
+        <v>4.5282831692766621</v>
+      </c>
+      <c r="AK9" s="44">
+        <f t="shared" si="12"/>
+        <v>4.9604856771676245</v>
+      </c>
+      <c r="AL9" s="42">
+        <f t="shared" si="13"/>
+        <v>1.524402092297741</v>
+      </c>
+      <c r="AM9" s="42">
+        <f t="shared" si="14"/>
+        <v>0.99991913760596751</v>
+      </c>
+      <c r="AN9" s="42">
         <f t="shared" si="15"/>
-        <v>4.5556483267474075</v>
-      </c>
-      <c r="AG9" s="42">
-        <f t="shared" si="16"/>
-        <v>4.9863022520743518</v>
-      </c>
-      <c r="AH9" s="43">
-        <f t="shared" si="8"/>
-        <v>6.3188169254033539</v>
-      </c>
-      <c r="AI9" s="43">
-        <f t="shared" si="9"/>
-        <v>6.9219171335777103</v>
-      </c>
-      <c r="AJ9" s="44">
-        <f>(AC9+O9+(LOG(I9)*4/3))*(P9/7)^0.5</f>
-        <v>4.5282831692766621</v>
-      </c>
-      <c r="AK9" s="44">
-        <f>(AC9+O9+(LOG(I9)*4/3))*(IF(P9=7, (P9/7)^0.5, ((P9+1)/7)^0.5))</f>
-        <v>4.9604856771676245</v>
-      </c>
-      <c r="AL9" s="42">
-        <f t="shared" si="10"/>
-        <v>1.524402092297741</v>
-      </c>
-      <c r="AM9" s="42">
-        <f t="shared" si="11"/>
-        <v>0.99991913760596751</v>
-      </c>
-      <c r="AN9" s="42">
-        <f t="shared" si="12"/>
         <v>4.1214158631092097</v>
       </c>
       <c r="AO9" s="37">
@@ -7395,7 +7398,7 @@
         <v>4</v>
       </c>
       <c r="AQ9" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.63E-2</v>
       </c>
       <c r="AR9" s="47">
@@ -7420,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="AY9" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="AZ9" s="39">
@@ -7439,7 +7442,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6607142857142856</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="D10" s="245" t="s">
         <v>69</v>
@@ -7449,7 +7452,7 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546-112</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="32">
@@ -7495,14 +7498,14 @@
         <v>220</v>
       </c>
       <c r="T10" s="40">
-        <f>S10-AZ10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U10" s="39">
         <v>280</v>
       </c>
       <c r="V10" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="W10" s="45">
@@ -7531,39 +7534,39 @@
       </c>
       <c r="AE10" s="46"/>
       <c r="AF10" s="42">
+        <f t="shared" si="18"/>
+        <v>4.6800464318973996</v>
+      </c>
+      <c r="AG10" s="42">
+        <f t="shared" si="19"/>
+        <v>5.1224599419077217</v>
+      </c>
+      <c r="AH10" s="43">
+        <f t="shared" si="9"/>
+        <v>5.5643979771299739</v>
+      </c>
+      <c r="AI10" s="43">
+        <f t="shared" si="10"/>
+        <v>6.0954925820204036</v>
+      </c>
+      <c r="AJ10" s="44">
+        <f t="shared" si="11"/>
+        <v>7.1729511465549516</v>
+      </c>
+      <c r="AK10" s="44">
+        <f t="shared" si="12"/>
+        <v>7.8575742937013828</v>
+      </c>
+      <c r="AL10" s="42">
+        <f t="shared" si="13"/>
+        <v>1.7697163959005464</v>
+      </c>
+      <c r="AM10" s="42">
+        <f t="shared" si="14"/>
+        <v>1.1919926223245341</v>
+      </c>
+      <c r="AN10" s="42">
         <f t="shared" si="15"/>
-        <v>4.6800464318973996</v>
-      </c>
-      <c r="AG10" s="42">
-        <f t="shared" si="16"/>
-        <v>5.1224599419077217</v>
-      </c>
-      <c r="AH10" s="43">
-        <f t="shared" si="8"/>
-        <v>5.5643979771299739</v>
-      </c>
-      <c r="AI10" s="43">
-        <f t="shared" si="9"/>
-        <v>6.0954925820204036</v>
-      </c>
-      <c r="AJ10" s="44">
-        <f>(AC10+O10+(LOG(I10)*4/3))*(P10/7)^0.5</f>
-        <v>7.1729511465549516</v>
-      </c>
-      <c r="AK10" s="44">
-        <f>(AC10+O10+(LOG(I10)*4/3))*(IF(P10=7, (P10/7)^0.5, ((P10+1)/7)^0.5))</f>
-        <v>7.8575742937013828</v>
-      </c>
-      <c r="AL10" s="42">
-        <f t="shared" si="10"/>
-        <v>1.7697163959005464</v>
-      </c>
-      <c r="AM10" s="42">
-        <f t="shared" si="11"/>
-        <v>1.1919926223245341</v>
-      </c>
-      <c r="AN10" s="42">
-        <f t="shared" si="12"/>
         <v>5.7334288280756764</v>
       </c>
       <c r="AO10" s="37">
@@ -7573,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AR10" s="47">
@@ -7598,7 +7601,7 @@
         <v>4</v>
       </c>
       <c r="AY10" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21.5</v>
       </c>
       <c r="AZ10" s="39">
@@ -7617,7 +7620,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.348214285714286</v>
+        <v>10.330357142857142</v>
       </c>
       <c r="D11" s="193" t="s">
         <v>72</v>
@@ -7627,7 +7630,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>73</v>
@@ -7675,14 +7678,14 @@
         <v>1030</v>
       </c>
       <c r="T11" s="40">
-        <f>S11-AZ11</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="U11" s="41">
         <v>330</v>
       </c>
       <c r="V11" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1212121212121211</v>
       </c>
       <c r="W11" s="45">
@@ -7713,39 +7716,39 @@
         <v>779</v>
       </c>
       <c r="AF11" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5.7446688900836769</v>
       </c>
       <c r="AG11" s="42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5.7446688900836769</v>
       </c>
       <c r="AH11" s="43">
-        <f t="shared" si="8"/>
-        <v>7.3170451422929803</v>
-      </c>
-      <c r="AI11" s="43">
         <f t="shared" si="9"/>
         <v>7.3170451422929803</v>
       </c>
+      <c r="AI11" s="43">
+        <f t="shared" si="10"/>
+        <v>7.3170451422929803</v>
+      </c>
       <c r="AJ11" s="44">
-        <f>(AC11+O11+(LOG(I11)*4/3))*(P11/7)^0.5</f>
+        <f t="shared" si="11"/>
         <v>7.1551489251123632</v>
       </c>
       <c r="AK11" s="44">
-        <f>(AC11+O11+(LOG(I11)*4/3))*(IF(P11=7, (P11/7)^0.5, ((P11+1)/7)^0.5))</f>
+        <f t="shared" si="12"/>
         <v>7.1551489251123632</v>
       </c>
       <c r="AL11" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.3688919283598677</v>
       </c>
       <c r="AM11" s="42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.5906697644674885</v>
       </c>
       <c r="AN11" s="42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6.41704514229298</v>
       </c>
       <c r="AO11" s="30">
@@ -7755,7 +7758,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.157</v>
       </c>
       <c r="AR11" s="47">
@@ -7780,7 +7783,7 @@
         <v>3</v>
       </c>
       <c r="AY11" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="AZ11" s="41">
@@ -7799,7 +7802,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.6875</v>
+        <v>13.669642857142858</v>
       </c>
       <c r="D12" s="198" t="s">
         <v>75</v>
@@ -7809,7 +7812,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549-112</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="32">
@@ -7855,14 +7858,14 @@
         <v>740</v>
       </c>
       <c r="T12" s="40">
-        <f>S12-AZ12</f>
+        <f t="shared" si="7"/>
         <v>-60</v>
       </c>
       <c r="U12" s="39">
         <v>310</v>
       </c>
       <c r="V12" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3870967741935485</v>
       </c>
       <c r="W12" s="45">
@@ -7893,39 +7896,39 @@
         <v>1229</v>
       </c>
       <c r="AF12" s="42">
+        <f t="shared" si="18"/>
+        <v>3.887999867106692</v>
+      </c>
+      <c r="AG12" s="42">
+        <f t="shared" si="19"/>
+        <v>4.2555397394470118</v>
+      </c>
+      <c r="AH12" s="43">
+        <f t="shared" si="9"/>
+        <v>6.077801672300482</v>
+      </c>
+      <c r="AI12" s="43">
+        <f t="shared" si="10"/>
+        <v>6.6578981519231899</v>
+      </c>
+      <c r="AJ12" s="44">
+        <f t="shared" si="11"/>
+        <v>5.0559694938921851</v>
+      </c>
+      <c r="AK12" s="44">
+        <f t="shared" si="12"/>
+        <v>5.5385370837254557</v>
+      </c>
+      <c r="AL12" s="42">
+        <f t="shared" si="13"/>
+        <v>1.7509542179073578</v>
+      </c>
+      <c r="AM12" s="42">
+        <f t="shared" si="14"/>
+        <v>0.93211026834930477</v>
+      </c>
+      <c r="AN12" s="42">
         <f t="shared" si="15"/>
-        <v>3.887999867106692</v>
-      </c>
-      <c r="AG12" s="42">
-        <f t="shared" si="16"/>
-        <v>4.2555397394470118</v>
-      </c>
-      <c r="AH12" s="43">
-        <f t="shared" si="8"/>
-        <v>6.077801672300482</v>
-      </c>
-      <c r="AI12" s="43">
-        <f t="shared" si="9"/>
-        <v>6.6578981519231899</v>
-      </c>
-      <c r="AJ12" s="44">
-        <f>(AC12+O12+(LOG(I12)*4/3))*(P12/7)^0.5</f>
-        <v>5.0559694938921851</v>
-      </c>
-      <c r="AK12" s="44">
-        <f>(AC12+O12+(LOG(I12)*4/3))*(IF(P12=7, (P12/7)^0.5, ((P12+1)/7)^0.5))</f>
-        <v>5.5385370837254557</v>
-      </c>
-      <c r="AL12" s="42">
-        <f t="shared" si="10"/>
-        <v>1.7509542179073578</v>
-      </c>
-      <c r="AM12" s="42">
-        <f t="shared" si="11"/>
-        <v>0.93211026834930477</v>
-      </c>
-      <c r="AN12" s="42">
-        <f t="shared" si="12"/>
         <v>4.4720085883162994</v>
       </c>
       <c r="AO12" s="37">
@@ -7935,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="AQ12" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AR12" s="47">
@@ -7960,7 +7963,7 @@
         <v>2</v>
       </c>
       <c r="AY12" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20.5</v>
       </c>
       <c r="AZ12" s="39">
@@ -7979,7 +7982,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>15.982142857142858</v>
       </c>
       <c r="D13" s="198" t="s">
         <v>77</v>
@@ -7989,7 +7992,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584-112</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="32">
@@ -8035,14 +8038,14 @@
         <v>1030</v>
       </c>
       <c r="T13" s="40">
-        <f>S13-AZ13</f>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="U13" s="39">
         <v>330</v>
       </c>
       <c r="V13" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1212121212121211</v>
       </c>
       <c r="W13" s="45">
@@ -8073,39 +8076,39 @@
         <v>1602</v>
       </c>
       <c r="AF13" s="42">
+        <f t="shared" si="18"/>
+        <v>3.5916715459664048</v>
+      </c>
+      <c r="AG13" s="42">
+        <f t="shared" si="19"/>
+        <v>3.8766766354226636</v>
+      </c>
+      <c r="AH13" s="43">
+        <f t="shared" si="9"/>
+        <v>6.440526382552517</v>
+      </c>
+      <c r="AI13" s="43">
+        <f t="shared" si="10"/>
+        <v>6.9565635744296088</v>
+      </c>
+      <c r="AJ13" s="44">
+        <f t="shared" si="11"/>
+        <v>6.1155741006761533</v>
+      </c>
+      <c r="AK13" s="44">
+        <f t="shared" si="12"/>
+        <v>6.6055749947301665</v>
+      </c>
+      <c r="AL13" s="42">
+        <f t="shared" si="13"/>
+        <v>2.1837423685140562</v>
+      </c>
+      <c r="AM13" s="42">
+        <f t="shared" si="14"/>
+        <v>2.5867464503023663</v>
+      </c>
+      <c r="AN13" s="42">
         <f t="shared" si="15"/>
-        <v>3.5916715459664048</v>
-      </c>
-      <c r="AG13" s="42">
-        <f t="shared" si="16"/>
-        <v>3.8766766354226636</v>
-      </c>
-      <c r="AH13" s="43">
-        <f t="shared" si="8"/>
-        <v>6.440526382552517</v>
-      </c>
-      <c r="AI13" s="43">
-        <f t="shared" si="9"/>
-        <v>6.9565635744296088</v>
-      </c>
-      <c r="AJ13" s="44">
-        <f>(AC13+O13+(LOG(I13)*4/3))*(P13/7)^0.5</f>
-        <v>6.1155741006761533</v>
-      </c>
-      <c r="AK13" s="44">
-        <f>(AC13+O13+(LOG(I13)*4/3))*(IF(P13=7, (P13/7)^0.5, ((P13+1)/7)^0.5))</f>
-        <v>6.6055749947301665</v>
-      </c>
-      <c r="AL13" s="42">
-        <f t="shared" si="10"/>
-        <v>2.1837423685140562</v>
-      </c>
-      <c r="AM13" s="42">
-        <f t="shared" si="11"/>
-        <v>2.5867464503023663</v>
-      </c>
-      <c r="AN13" s="42">
-        <f t="shared" si="12"/>
         <v>5.6072882927572207</v>
       </c>
       <c r="AO13" s="37">
@@ -8115,7 +8118,7 @@
         <v>4</v>
       </c>
       <c r="AQ13" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.63E-2</v>
       </c>
       <c r="AR13" s="47">
@@ -8140,7 +8143,7 @@
         <v>3</v>
       </c>
       <c r="AY13" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="AZ13" s="39">
@@ -8159,7 +8162,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.446428571428571</v>
+        <v>12.428571428571429</v>
       </c>
       <c r="D14" s="198" t="s">
         <v>79</v>
@@ -8169,7 +8172,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="32">
@@ -8215,14 +8218,14 @@
         <v>1490</v>
       </c>
       <c r="T14" s="40">
-        <f>S14-AZ14</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="U14" s="39">
         <v>430</v>
       </c>
       <c r="V14" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4651162790697674</v>
       </c>
       <c r="W14" s="45">
@@ -8253,39 +8256,39 @@
         <v>1098</v>
       </c>
       <c r="AF14" s="42">
+        <f t="shared" si="18"/>
+        <v>4.2646960234438565</v>
+      </c>
+      <c r="AG14" s="42">
+        <f t="shared" si="19"/>
+        <v>4.6678456853787118</v>
+      </c>
+      <c r="AH14" s="43">
+        <f t="shared" si="9"/>
+        <v>6.951752140523153</v>
+      </c>
+      <c r="AI14" s="43">
+        <f t="shared" si="10"/>
+        <v>7.6152629230987081</v>
+      </c>
+      <c r="AJ14" s="44">
+        <f t="shared" si="11"/>
+        <v>5.0967759896146747</v>
+      </c>
+      <c r="AK14" s="44">
+        <f t="shared" si="12"/>
+        <v>5.583238360125347</v>
+      </c>
+      <c r="AL14" s="42">
+        <f t="shared" si="13"/>
+        <v>1.8673970798087303</v>
+      </c>
+      <c r="AM14" s="42">
+        <f t="shared" si="14"/>
+        <v>0.99574990017138587</v>
+      </c>
+      <c r="AN14" s="42">
         <f t="shared" si="15"/>
-        <v>4.2646960234438565</v>
-      </c>
-      <c r="AG14" s="42">
-        <f t="shared" si="16"/>
-        <v>4.6678456853787118</v>
-      </c>
-      <c r="AH14" s="43">
-        <f t="shared" si="8"/>
-        <v>6.951752140523153</v>
-      </c>
-      <c r="AI14" s="43">
-        <f t="shared" si="9"/>
-        <v>7.6152629230987081</v>
-      </c>
-      <c r="AJ14" s="44">
-        <f>(AC14+O14+(LOG(I14)*4/3))*(P14/7)^0.5</f>
-        <v>5.0967759896146747</v>
-      </c>
-      <c r="AK14" s="44">
-        <f>(AC14+O14+(LOG(I14)*4/3))*(IF(P14=7, (P14/7)^0.5, ((P14+1)/7)^0.5))</f>
-        <v>5.583238360125347</v>
-      </c>
-      <c r="AL14" s="42">
-        <f t="shared" si="10"/>
-        <v>1.8673970798087303</v>
-      </c>
-      <c r="AM14" s="42">
-        <f t="shared" si="11"/>
-        <v>0.99574990017138587</v>
-      </c>
-      <c r="AN14" s="42">
-        <f t="shared" si="12"/>
         <v>4.5008048018104541</v>
       </c>
       <c r="AO14" s="37">
@@ -8295,7 +8298,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1158</v>
       </c>
       <c r="AR14" s="47">
@@ -8320,7 +8323,7 @@
         <v>2</v>
       </c>
       <c r="AY14" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26</v>
       </c>
       <c r="AZ14" s="39">
@@ -8339,7 +8342,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.464285714285714</v>
+        <v>11.446428571428571</v>
       </c>
       <c r="D15" s="198" t="s">
         <v>81</v>
@@ -8349,7 +8352,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="32">
@@ -8395,14 +8398,14 @@
         <v>1160</v>
       </c>
       <c r="T15" s="40">
-        <f>S15-AZ15</f>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="U15" s="39">
         <v>410</v>
       </c>
       <c r="V15" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8292682926829267</v>
       </c>
       <c r="W15" s="45">
@@ -8433,39 +8436,39 @@
         <v>950</v>
       </c>
       <c r="AF15" s="42">
+        <f t="shared" si="18"/>
+        <v>4.0669422591709798</v>
+      </c>
+      <c r="AG15" s="42">
+        <f t="shared" si="19"/>
+        <v>4.3896608673605781</v>
+      </c>
+      <c r="AH15" s="43">
+        <f t="shared" si="9"/>
+        <v>7.7130063752532765</v>
+      </c>
+      <c r="AI15" s="43">
+        <f t="shared" si="10"/>
+        <v>8.3309990538638665</v>
+      </c>
+      <c r="AJ15" s="44">
+        <f t="shared" si="11"/>
+        <v>5.71558121985335</v>
+      </c>
+      <c r="AK15" s="44">
+        <f t="shared" si="12"/>
+        <v>6.1735333044265417</v>
+      </c>
+      <c r="AL15" s="42">
+        <f t="shared" si="13"/>
+        <v>2.0822848034189967</v>
+      </c>
+      <c r="AM15" s="42">
+        <f t="shared" si="14"/>
+        <v>4.3805251244212391</v>
+      </c>
+      <c r="AN15" s="42">
         <f t="shared" si="15"/>
-        <v>4.0669422591709798</v>
-      </c>
-      <c r="AG15" s="42">
-        <f t="shared" si="16"/>
-        <v>4.3896608673605781</v>
-      </c>
-      <c r="AH15" s="43">
-        <f t="shared" si="8"/>
-        <v>7.7130063752532765</v>
-      </c>
-      <c r="AI15" s="43">
-        <f t="shared" si="9"/>
-        <v>8.3309990538638665</v>
-      </c>
-      <c r="AJ15" s="44">
-        <f>(AC15+O15+(LOG(I15)*4/3))*(P15/7)^0.5</f>
-        <v>5.71558121985335</v>
-      </c>
-      <c r="AK15" s="44">
-        <f>(AC15+O15+(LOG(I15)*4/3))*(IF(P15=7, (P15/7)^0.5, ((P15+1)/7)^0.5))</f>
-        <v>6.1735333044265417</v>
-      </c>
-      <c r="AL15" s="42">
-        <f t="shared" si="10"/>
-        <v>2.0822848034189967</v>
-      </c>
-      <c r="AM15" s="42">
-        <f t="shared" si="11"/>
-        <v>4.3805251244212391</v>
-      </c>
-      <c r="AN15" s="42">
-        <f t="shared" si="12"/>
         <v>5.5836201457764094</v>
       </c>
       <c r="AO15" s="37">
@@ -8475,7 +8478,7 @@
         <v>2</v>
       </c>
       <c r="AQ15" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AR15" s="47">
@@ -8500,7 +8503,7 @@
         <v>2</v>
       </c>
       <c r="AY15" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="AZ15" s="39">
@@ -8519,7 +8522,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4285714285714288</v>
+        <v>8.4107142857142865</v>
       </c>
       <c r="D16" s="198" t="s">
         <v>83</v>
@@ -8529,7 +8532,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>84</v>
@@ -8577,14 +8580,14 @@
         <v>1530</v>
       </c>
       <c r="T16" s="40">
-        <f>S16-AZ16</f>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="U16" s="39">
         <v>330</v>
       </c>
       <c r="V16" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.6363636363636367</v>
       </c>
       <c r="W16" s="45">
@@ -8615,39 +8618,39 @@
         <v>552</v>
       </c>
       <c r="AF16" s="42">
+        <f t="shared" si="18"/>
+        <v>4.5431066573732588</v>
+      </c>
+      <c r="AG16" s="42">
+        <f t="shared" si="19"/>
+        <v>4.9725749953241056</v>
+      </c>
+      <c r="AH16" s="43">
+        <f t="shared" si="9"/>
+        <v>6.3096690994557614</v>
+      </c>
+      <c r="AI16" s="43">
+        <f t="shared" si="10"/>
+        <v>6.911896192330456</v>
+      </c>
+      <c r="AJ16" s="44">
+        <f t="shared" si="11"/>
+        <v>3.6718779721756611</v>
+      </c>
+      <c r="AK16" s="44">
+        <f t="shared" si="12"/>
+        <v>4.0223407875338726</v>
+      </c>
+      <c r="AL16" s="42">
+        <f t="shared" si="13"/>
+        <v>1.9435487849316522</v>
+      </c>
+      <c r="AM16" s="42">
+        <f t="shared" si="14"/>
+        <v>1.9178236650104428</v>
+      </c>
+      <c r="AN16" s="42">
         <f t="shared" si="15"/>
-        <v>4.5431066573732588</v>
-      </c>
-      <c r="AG16" s="42">
-        <f t="shared" si="16"/>
-        <v>4.9725749953241056</v>
-      </c>
-      <c r="AH16" s="43">
-        <f t="shared" si="8"/>
-        <v>6.3096690994557614</v>
-      </c>
-      <c r="AI16" s="43">
-        <f t="shared" si="9"/>
-        <v>6.911896192330456</v>
-      </c>
-      <c r="AJ16" s="44">
-        <f>(AC16+O16+(LOG(I16)*4/3))*(P16/7)^0.5</f>
-        <v>3.6718779721756611</v>
-      </c>
-      <c r="AK16" s="44">
-        <f>(AC16+O16+(LOG(I16)*4/3))*(IF(P16=7, (P16/7)^0.5, ((P16+1)/7)^0.5))</f>
-        <v>4.0223407875338726</v>
-      </c>
-      <c r="AL16" s="42">
-        <f t="shared" si="10"/>
-        <v>1.9435487849316522</v>
-      </c>
-      <c r="AM16" s="42">
-        <f t="shared" si="11"/>
-        <v>1.9178236650104428</v>
-      </c>
-      <c r="AN16" s="42">
-        <f t="shared" si="12"/>
         <v>3.774206335270212</v>
       </c>
       <c r="AO16" s="37">
@@ -8657,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="AQ16" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1158</v>
       </c>
       <c r="AR16" s="47">
@@ -8682,7 +8685,7 @@
         <v>0</v>
       </c>
       <c r="AY16" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.5</v>
       </c>
       <c r="AZ16" s="39">
@@ -8701,7 +8704,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.678571428571429</v>
+        <v>14.660714285714286</v>
       </c>
       <c r="D17" s="198" t="s">
         <v>87</v>
@@ -8711,7 +8714,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548-112</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="32">
@@ -8757,14 +8760,14 @@
         <v>1610</v>
       </c>
       <c r="T17" s="40">
-        <f>S17-AZ17</f>
+        <f t="shared" si="7"/>
         <v>-80</v>
       </c>
       <c r="U17" s="39">
         <v>330</v>
       </c>
       <c r="V17" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8787878787878789</v>
       </c>
       <c r="W17" s="45">
@@ -8795,39 +8798,39 @@
         <v>1445</v>
       </c>
       <c r="AF17" s="42">
+        <f t="shared" si="18"/>
+        <v>4.2590904615828462</v>
+      </c>
+      <c r="AG17" s="42">
+        <f t="shared" si="19"/>
+        <v>4.5970563480706952</v>
+      </c>
+      <c r="AH17" s="43">
+        <f t="shared" si="9"/>
+        <v>6.6578981519231899</v>
+      </c>
+      <c r="AI17" s="43">
+        <f t="shared" si="10"/>
+        <v>7.1913519198371834</v>
+      </c>
+      <c r="AJ17" s="44">
+        <f t="shared" si="11"/>
+        <v>5.5385370837254557</v>
+      </c>
+      <c r="AK17" s="44">
+        <f t="shared" si="12"/>
+        <v>5.9823037813567908</v>
+      </c>
+      <c r="AL17" s="42">
+        <f t="shared" si="13"/>
+        <v>2.1495292695564898</v>
+      </c>
+      <c r="AM17" s="42">
+        <f t="shared" si="14"/>
+        <v>1.0210756401142158</v>
+      </c>
+      <c r="AN17" s="42">
         <f t="shared" si="15"/>
-        <v>4.2590904615828462</v>
-      </c>
-      <c r="AG17" s="42">
-        <f t="shared" si="16"/>
-        <v>4.5970563480706952</v>
-      </c>
-      <c r="AH17" s="43">
-        <f t="shared" si="8"/>
-        <v>6.6578981519231899</v>
-      </c>
-      <c r="AI17" s="43">
-        <f t="shared" si="9"/>
-        <v>7.1913519198371834</v>
-      </c>
-      <c r="AJ17" s="44">
-        <f>(AC17+O17+(LOG(I17)*4/3))*(P17/7)^0.5</f>
-        <v>5.5385370837254557</v>
-      </c>
-      <c r="AK17" s="44">
-        <f>(AC17+O17+(LOG(I17)*4/3))*(IF(P17=7, (P17/7)^0.5, ((P17+1)/7)^0.5))</f>
-        <v>5.9823037813567908</v>
-      </c>
-      <c r="AL17" s="42">
-        <f t="shared" si="10"/>
-        <v>2.1495292695564898</v>
-      </c>
-      <c r="AM17" s="42">
-        <f t="shared" si="11"/>
-        <v>1.0210756401142158</v>
-      </c>
-      <c r="AN17" s="42">
-        <f t="shared" si="12"/>
         <v>4.8988399623553427</v>
       </c>
       <c r="AO17" s="37">
@@ -8837,7 +8840,7 @@
         <v>1</v>
       </c>
       <c r="AQ17" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4.9399999999999999E-2</v>
       </c>
       <c r="AR17" s="47">
@@ -8862,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="AY17" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>26.5</v>
       </c>
       <c r="AZ17" s="39">
@@ -8881,7 +8884,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.839285714285714</v>
+        <v>12.821428571428571</v>
       </c>
       <c r="D18" s="198" t="s">
         <v>89</v>
@@ -8891,7 +8894,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566-112</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="32">
@@ -8937,14 +8940,14 @@
         <v>2090</v>
       </c>
       <c r="T18" s="40">
-        <f>S18-AZ18</f>
+        <f t="shared" si="7"/>
         <v>-60</v>
       </c>
       <c r="U18" s="39">
         <v>370</v>
       </c>
       <c r="V18" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6486486486486482</v>
       </c>
       <c r="W18" s="45">
@@ -8975,39 +8978,39 @@
         <v>1204</v>
       </c>
       <c r="AF18" s="42">
+        <f t="shared" si="18"/>
+        <v>3.2112287857946726</v>
+      </c>
+      <c r="AG18" s="42">
+        <f t="shared" si="19"/>
+        <v>3.5866708683134871</v>
+      </c>
+      <c r="AH18" s="43">
+        <f t="shared" si="9"/>
+        <v>5.4619071935573213</v>
+      </c>
+      <c r="AI18" s="43">
+        <f t="shared" si="10"/>
+        <v>6.1065978857946357</v>
+      </c>
+      <c r="AJ18" s="44">
+        <f t="shared" si="11"/>
+        <v>4.5586950315468693</v>
+      </c>
+      <c r="AK18" s="44">
+        <f t="shared" si="12"/>
+        <v>5.0967759896146747</v>
+      </c>
+      <c r="AL18" s="42">
+        <f t="shared" si="13"/>
+        <v>1.8592329610793819</v>
+      </c>
+      <c r="AM18" s="42">
+        <f t="shared" si="14"/>
+        <v>2.1454678365393738</v>
+      </c>
+      <c r="AN18" s="42">
         <f t="shared" si="15"/>
-        <v>3.2112287857946726</v>
-      </c>
-      <c r="AG18" s="42">
-        <f t="shared" si="16"/>
-        <v>3.5866708683134871</v>
-      </c>
-      <c r="AH18" s="43">
-        <f t="shared" si="8"/>
-        <v>5.4619071935573213</v>
-      </c>
-      <c r="AI18" s="43">
-        <f t="shared" si="9"/>
-        <v>6.1065978857946357</v>
-      </c>
-      <c r="AJ18" s="44">
-        <f>(AC18+O18+(LOG(I18)*4/3))*(P18/7)^0.5</f>
-        <v>4.5586950315468693</v>
-      </c>
-      <c r="AK18" s="44">
-        <f>(AC18+O18+(LOG(I18)*4/3))*(IF(P18=7, (P18/7)^0.5, ((P18+1)/7)^0.5))</f>
-        <v>5.0967759896146747</v>
-      </c>
-      <c r="AL18" s="42">
-        <f t="shared" si="10"/>
-        <v>1.8592329610793819</v>
-      </c>
-      <c r="AM18" s="42">
-        <f t="shared" si="11"/>
-        <v>2.1454678365393738</v>
-      </c>
-      <c r="AN18" s="42">
-        <f t="shared" si="12"/>
         <v>4.2524208799277936</v>
       </c>
       <c r="AO18" s="37">
@@ -9017,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.20669999999999999</v>
       </c>
       <c r="AR18" s="47">
@@ -9042,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="AY18" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>29.5</v>
       </c>
       <c r="AZ18" s="39">
@@ -9061,7 +9064,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.428571428571427</v>
+        <v>17.410714285714285</v>
       </c>
       <c r="D19" s="198" t="s">
         <v>92</v>
@@ -9071,7 +9074,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -9117,14 +9120,14 @@
         <v>1550</v>
       </c>
       <c r="T19" s="40">
-        <f>S19-AZ19</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="U19" s="39">
         <v>410</v>
       </c>
       <c r="V19" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.7804878048780486</v>
       </c>
       <c r="W19" s="45">
@@ -9155,39 +9158,39 @@
         <v>1860</v>
       </c>
       <c r="AF19" s="42">
+        <f t="shared" si="18"/>
+        <v>2.9168204343890629</v>
+      </c>
+      <c r="AG19" s="42">
+        <f t="shared" si="19"/>
+        <v>3.1482749697472561</v>
+      </c>
+      <c r="AH19" s="43">
+        <f t="shared" si="9"/>
+        <v>4.6355333952912616</v>
+      </c>
+      <c r="AI19" s="43">
+        <f t="shared" si="10"/>
+        <v>5.0069483222821418</v>
+      </c>
+      <c r="AJ19" s="44">
+        <f t="shared" si="11"/>
+        <v>6.1982150119498423</v>
+      </c>
+      <c r="AK19" s="44">
+        <f t="shared" si="12"/>
+        <v>6.6948373809043176</v>
+      </c>
+      <c r="AL19" s="42">
+        <f t="shared" si="13"/>
+        <v>1.5068699982910851</v>
+      </c>
+      <c r="AM19" s="42">
+        <f t="shared" si="14"/>
+        <v>8.8372822519394081</v>
+      </c>
+      <c r="AN19" s="42">
         <f t="shared" si="15"/>
-        <v>2.9168204343890629</v>
-      </c>
-      <c r="AG19" s="42">
-        <f t="shared" si="16"/>
-        <v>3.1482749697472561</v>
-      </c>
-      <c r="AH19" s="43">
-        <f t="shared" si="8"/>
-        <v>4.6355333952912616</v>
-      </c>
-      <c r="AI19" s="43">
-        <f t="shared" si="9"/>
-        <v>5.0069483222821418</v>
-      </c>
-      <c r="AJ19" s="44">
-        <f>(AC19+O19+(LOG(I19)*4/3))*(P19/7)^0.5</f>
-        <v>6.1982150119498423</v>
-      </c>
-      <c r="AK19" s="44">
-        <f>(AC19+O19+(LOG(I19)*4/3))*(IF(P19=7, (P19/7)^0.5, ((P19+1)/7)^0.5))</f>
-        <v>6.6948373809043176</v>
-      </c>
-      <c r="AL19" s="42">
-        <f t="shared" si="10"/>
-        <v>1.5068699982910851</v>
-      </c>
-      <c r="AM19" s="42">
-        <f t="shared" si="11"/>
-        <v>8.8372822519394081</v>
-      </c>
-      <c r="AN19" s="42">
-        <f t="shared" si="12"/>
         <v>6.7649196247681287</v>
       </c>
       <c r="AO19" s="37">
@@ -9197,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AR19" s="47">
@@ -9222,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="AY19" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25.5</v>
       </c>
       <c r="AZ19" s="39">
@@ -9241,7 +9244,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4732142857142856</v>
+        <v>2.4553571428571428</v>
       </c>
       <c r="D20" s="198" t="s">
         <v>94</v>
@@ -9251,7 +9254,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="32">
@@ -9297,14 +9300,14 @@
         <v>130</v>
       </c>
       <c r="T20" s="40">
-        <f>S20-AZ20</f>
+        <f t="shared" si="7"/>
         <v>-40</v>
       </c>
       <c r="U20" s="39">
         <v>310</v>
       </c>
       <c r="V20" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.41935483870967744</v>
       </c>
       <c r="W20" s="45">
@@ -9333,39 +9336,39 @@
       </c>
       <c r="AE20" s="46"/>
       <c r="AF20" s="42">
+        <f t="shared" si="18"/>
+        <v>2.8169695133279888</v>
+      </c>
+      <c r="AG20" s="42">
+        <f t="shared" si="19"/>
+        <v>3.2486877239734366</v>
+      </c>
+      <c r="AH20" s="43">
+        <f t="shared" si="9"/>
+        <v>3.6375976890772668</v>
+      </c>
+      <c r="AI20" s="43">
+        <f t="shared" si="10"/>
+        <v>4.2003360099846416</v>
+      </c>
+      <c r="AJ20" s="44">
+        <f t="shared" si="11"/>
+        <v>3.5709204743855056</v>
+      </c>
+      <c r="AK20" s="44">
+        <f t="shared" si="12"/>
+        <v>4.1233437942824356</v>
+      </c>
+      <c r="AL20" s="42">
+        <f t="shared" si="13"/>
+        <v>1.2740842536816284</v>
+      </c>
+      <c r="AM20" s="42">
+        <f t="shared" si="14"/>
+        <v>6.3238982756058615</v>
+      </c>
+      <c r="AN20" s="42">
         <f t="shared" si="15"/>
-        <v>2.8169695133279888</v>
-      </c>
-      <c r="AG20" s="42">
-        <f t="shared" si="16"/>
-        <v>3.2486877239734366</v>
-      </c>
-      <c r="AH20" s="43">
-        <f t="shared" si="8"/>
-        <v>3.6375976890772668</v>
-      </c>
-      <c r="AI20" s="43">
-        <f t="shared" si="9"/>
-        <v>4.2003360099846416</v>
-      </c>
-      <c r="AJ20" s="44">
-        <f>(AC20+O20+(LOG(I20)*4/3))*(P20/7)^0.5</f>
-        <v>3.5709204743855056</v>
-      </c>
-      <c r="AK20" s="44">
-        <f>(AC20+O20+(LOG(I20)*4/3))*(IF(P20=7, (P20/7)^0.5, ((P20+1)/7)^0.5))</f>
-        <v>4.1233437942824356</v>
-      </c>
-      <c r="AL20" s="42">
-        <f t="shared" si="10"/>
-        <v>1.2740842536816284</v>
-      </c>
-      <c r="AM20" s="42">
-        <f t="shared" si="11"/>
-        <v>6.3238982756058615</v>
-      </c>
-      <c r="AN20" s="42">
-        <f t="shared" si="12"/>
         <v>4.2267859927144462</v>
       </c>
       <c r="AO20" s="37">
@@ -9375,7 +9378,7 @@
         <v>4</v>
       </c>
       <c r="AQ20" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2.63E-2</v>
       </c>
       <c r="AR20" s="47">
@@ -9400,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="AY20" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="AZ20" s="39">
@@ -9419,7 +9422,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5267857142857135</v>
+        <v>9.5089285714285712</v>
       </c>
       <c r="D21" s="198" t="s">
         <v>96</v>
@@ -9429,7 +9432,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="32">
@@ -9475,14 +9478,14 @@
         <v>1000</v>
       </c>
       <c r="T21" s="40">
-        <f>S21-AZ21</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U21" s="39">
         <v>310</v>
       </c>
       <c r="V21" s="42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.225806451612903</v>
       </c>
       <c r="W21" s="45">
@@ -9513,39 +9516,39 @@
         <v>633</v>
       </c>
       <c r="AF21" s="42">
+        <f t="shared" si="18"/>
+        <v>3.3911648286605955</v>
+      </c>
+      <c r="AG21" s="42">
+        <f t="shared" si="19"/>
+        <v>3.7117379590137132</v>
+      </c>
+      <c r="AH21" s="43">
+        <f t="shared" si="9"/>
+        <v>4.5170322269041776</v>
+      </c>
+      <c r="AI21" s="43">
+        <f t="shared" si="10"/>
+        <v>4.9481608873064236</v>
+      </c>
+      <c r="AJ21" s="44">
+        <f t="shared" si="11"/>
+        <v>3.5423389081149317</v>
+      </c>
+      <c r="AK21" s="44">
+        <f t="shared" si="12"/>
+        <v>3.8804378526055361</v>
+      </c>
+      <c r="AL21" s="42">
+        <f t="shared" si="13"/>
+        <v>2.0108199306122603</v>
+      </c>
+      <c r="AM21" s="42">
+        <f t="shared" si="14"/>
+        <v>5.9005461711194966</v>
+      </c>
+      <c r="AN21" s="42">
         <f t="shared" si="15"/>
-        <v>3.3911648286605955</v>
-      </c>
-      <c r="AG21" s="42">
-        <f t="shared" si="16"/>
-        <v>3.7117379590137132</v>
-      </c>
-      <c r="AH21" s="43">
-        <f t="shared" si="8"/>
-        <v>4.5170322269041776</v>
-      </c>
-      <c r="AI21" s="43">
-        <f t="shared" si="9"/>
-        <v>4.9481608873064236</v>
-      </c>
-      <c r="AJ21" s="44">
-        <f>(AC21+O21+(LOG(I21)*4/3))*(P21/7)^0.5</f>
-        <v>3.5423389081149317</v>
-      </c>
-      <c r="AK21" s="44">
-        <f>(AC21+O21+(LOG(I21)*4/3))*(IF(P21=7, (P21/7)^0.5, ((P21+1)/7)^0.5))</f>
-        <v>3.8804378526055361</v>
-      </c>
-      <c r="AL21" s="42">
-        <f t="shared" si="10"/>
-        <v>2.0108199306122603</v>
-      </c>
-      <c r="AM21" s="42">
-        <f t="shared" si="11"/>
-        <v>5.9005461711194966</v>
-      </c>
-      <c r="AN21" s="42">
-        <f t="shared" si="12"/>
         <v>4.4325168014313254</v>
       </c>
       <c r="AO21" s="37">
@@ -9555,7 +9558,7 @@
         <v>3</v>
       </c>
       <c r="AQ21" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>0.1158</v>
       </c>
       <c r="AR21" s="47">
@@ -9580,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="AY21" s="48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="AZ21" s="39">
@@ -9607,15 +9610,15 @@
         <v>28250</v>
       </c>
       <c r="T22" s="63">
-        <f t="shared" ref="T22:U22" si="17">SUM(T4:T21)</f>
+        <f t="shared" ref="T22:U22" si="20">SUM(T4:T21)</f>
         <v>2240</v>
       </c>
       <c r="U22" s="63">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7400</v>
       </c>
       <c r="V22" s="64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.8175675675675675</v>
       </c>
       <c r="AC22" s="62"/>
@@ -9852,22 +9855,22 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ4:AQ21">
-    <cfRule type="cellIs" dxfId="5" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N21">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="lessThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="between">
       <formula>70</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10012,7 +10015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AC21">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="99" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
     <cfRule type="colorScale" priority="100">
@@ -10219,13 +10222,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AL33"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AK7" sqref="AK7"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10259,20 +10262,21 @@
     <col min="33" max="33" width="4" style="62" customWidth="1"/>
     <col min="34" max="34" width="4.140625" style="62" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.28515625" style="310" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="1022" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="4.28515625" style="62" customWidth="1"/>
+    <col min="37" max="37" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.28515625" style="310" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="1023" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="423" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="425" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="423"/>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
+      <c r="B1" s="425"/>
+      <c r="C1" s="425"/>
+      <c r="D1" s="425"/>
+      <c r="E1" s="425"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -10290,7 +10294,7 @@
       <c r="T1" s="108"/>
       <c r="U1" s="108"/>
       <c r="V1" s="107"/>
-      <c r="W1" s="404"/>
+      <c r="W1" s="403"/>
       <c r="X1" s="107"/>
       <c r="Y1" s="107"/>
       <c r="Z1" s="107"/>
@@ -10303,11 +10307,12 @@
       <c r="AG1" s="107"/>
       <c r="AH1" s="294"/>
       <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="303"/>
-      <c r="AL1" s="109"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="417"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="303"/>
+      <c r="AM1" s="109"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="110" t="s">
         <v>166</v>
       </c>
@@ -10348,10 +10353,11 @@
       <c r="AH2" s="111"/>
       <c r="AI2" s="111"/>
       <c r="AJ2" s="111"/>
-      <c r="AK2" s="303"/>
-      <c r="AL2" s="112"/>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="303"/>
+      <c r="AM2" s="112"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
@@ -10368,7 +10374,7 @@
         <v>152</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G3" s="111" t="s">
         <v>153</v>
@@ -10416,10 +10422,10 @@
         <v>39</v>
       </c>
       <c r="V3" s="111" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W3" s="111" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="X3" s="111" t="s">
         <v>39</v>
@@ -10428,95 +10434,98 @@
         <v>159</v>
       </c>
       <c r="Z3" s="111" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AA3" s="111" t="s">
         <v>56</v>
       </c>
       <c r="AB3" s="111" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AC3" s="111" t="s">
         <v>161</v>
       </c>
       <c r="AD3" s="111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE3" s="111" t="s">
         <v>162</v>
       </c>
       <c r="AF3" s="111" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG3" s="111" t="s">
         <v>163</v>
       </c>
       <c r="AH3" s="111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI3" s="111" t="s">
         <v>164</v>
       </c>
       <c r="AJ3" s="111" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK3" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="AK3" s="311" t="s">
-        <v>279</v>
-      </c>
-      <c r="AL3" s="112" t="s">
+      <c r="AL3" s="311" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM3" s="112" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="363" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B4" s="127">
         <v>16</v>
       </c>
       <c r="C4" s="128">
         <f ca="1">6+$A$30-$A$32</f>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="132"/>
       <c r="E4" s="194">
         <f t="shared" ref="E4:E9" ca="1" si="0">F4-TODAY()</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="197">
         <v>43757</v>
       </c>
       <c r="G4" s="394" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H4" s="317"/>
       <c r="I4" s="315">
         <v>1.99</v>
       </c>
       <c r="J4" s="396">
-        <v>4.5</v>
-      </c>
-      <c r="K4" s="399">
+        <v>5</v>
+      </c>
+      <c r="K4" s="452">
         <v>6.99</v>
       </c>
-      <c r="L4" s="400">
+      <c r="L4" s="399">
         <v>4</v>
       </c>
-      <c r="M4" s="400">
+      <c r="M4" s="399">
         <v>4.99</v>
       </c>
       <c r="N4" s="317"/>
-      <c r="O4" s="403"/>
-      <c r="P4" s="403"/>
-      <c r="Q4" s="403"/>
-      <c r="R4" s="403"/>
-      <c r="S4" s="403"/>
+      <c r="O4" s="402"/>
+      <c r="P4" s="402"/>
+      <c r="Q4" s="402"/>
+      <c r="R4" s="402"/>
+      <c r="S4" s="402"/>
       <c r="T4" s="317"/>
       <c r="U4" s="317"/>
-      <c r="V4" s="408" t="s">
-        <v>333</v>
-      </c>
-      <c r="W4" s="411">
+      <c r="V4" s="407" t="s">
+        <v>329</v>
+      </c>
+      <c r="W4" s="410">
         <f>COUNT(H4,J4,L4,N4,P4,R4,T4)</f>
         <v>2</v>
       </c>
@@ -10534,7 +10543,9 @@
       <c r="AB4" s="319">
         <v>5</v>
       </c>
-      <c r="AC4" s="320"/>
+      <c r="AC4" s="320">
+        <v>4.5</v>
+      </c>
       <c r="AD4" s="320">
         <v>4.5</v>
       </c>
@@ -10550,41 +10561,44 @@
         <v>5</v>
       </c>
       <c r="AJ4" s="320"/>
-      <c r="AK4" s="305"/>
-      <c r="AL4" s="196" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK4" s="320">
+        <v>4.5</v>
+      </c>
+      <c r="AL4" s="305"/>
+      <c r="AM4" s="196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="363" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B5" s="133">
         <v>16</v>
       </c>
       <c r="C5" s="128">
         <f ca="1">84+$A$30-$A$32-112</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="134"/>
       <c r="E5" s="194">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F5" s="197">
         <v>43777</v>
       </c>
       <c r="G5" s="394" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H5" s="317"/>
       <c r="I5" s="315">
         <v>1.99</v>
       </c>
       <c r="J5" s="396">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K5" s="401">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K5" s="400">
         <v>5.99</v>
       </c>
       <c r="L5" s="317"/>
@@ -10592,17 +10606,17 @@
         <v>4.99</v>
       </c>
       <c r="N5" s="317"/>
-      <c r="O5" s="403"/>
-      <c r="P5" s="403"/>
-      <c r="Q5" s="403"/>
-      <c r="R5" s="403"/>
-      <c r="S5" s="403"/>
+      <c r="O5" s="402"/>
+      <c r="P5" s="402"/>
+      <c r="Q5" s="402"/>
+      <c r="R5" s="402"/>
+      <c r="S5" s="402"/>
       <c r="T5" s="317"/>
       <c r="U5" s="317"/>
-      <c r="V5" s="408" t="s">
-        <v>334</v>
-      </c>
-      <c r="W5" s="411">
+      <c r="V5" s="407" t="s">
+        <v>330</v>
+      </c>
+      <c r="W5" s="410">
         <f t="shared" ref="W5:W6" si="1">COUNT(H5,J5,L5,N5,P5,R5,T5)</f>
         <v>1</v>
       </c>
@@ -10632,69 +10646,76 @@
       <c r="AH5" s="320">
         <v>4.5</v>
       </c>
-      <c r="AI5" s="320"/>
+      <c r="AI5" s="320">
+        <v>4</v>
+      </c>
       <c r="AJ5" s="320"/>
-      <c r="AK5" s="304"/>
-      <c r="AL5" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK5" s="320"/>
+      <c r="AL5" s="304"/>
+      <c r="AM5" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="363" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B6" s="133">
         <v>16</v>
       </c>
       <c r="C6" s="128">
         <f ca="1">68+$A$30-$A$32-112</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="194">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="197">
         <v>43793</v>
       </c>
       <c r="G6" s="394" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H6" s="317"/>
       <c r="I6" s="317"/>
       <c r="J6" s="315">
-        <v>4</v>
-      </c>
-      <c r="K6" s="403"/>
+        <v>4.5</v>
+      </c>
+      <c r="K6" s="400">
+        <v>5.99</v>
+      </c>
       <c r="L6" s="317"/>
       <c r="M6" s="315">
         <v>3.99</v>
       </c>
       <c r="N6" s="397">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O6" s="397">
         <v>4.99</v>
       </c>
-      <c r="P6" s="317"/>
-      <c r="Q6" s="403"/>
-      <c r="R6" s="403"/>
-      <c r="S6" s="403"/>
+      <c r="P6" s="315">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="402"/>
+      <c r="R6" s="402"/>
+      <c r="S6" s="402"/>
       <c r="T6" s="317"/>
       <c r="U6" s="317"/>
-      <c r="V6" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W6" s="411">
+      <c r="V6" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W6" s="410">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" s="195">
         <f>COUNT(I6,K6,M6,O6,Q6,S6,U6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="130">
         <v>0</v>
@@ -10712,75 +10733,82 @@
       <c r="AD6" s="320">
         <v>4.5</v>
       </c>
-      <c r="AE6" s="320"/>
+      <c r="AE6" s="320">
+        <v>4.5</v>
+      </c>
       <c r="AF6" s="320"/>
-      <c r="AG6" s="320"/>
+      <c r="AG6" s="320">
+        <v>5</v>
+      </c>
       <c r="AH6" s="320"/>
       <c r="AI6" s="320"/>
       <c r="AJ6" s="320"/>
-      <c r="AK6" s="304" t="s">
-        <v>315</v>
-      </c>
-      <c r="AL6" s="196" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK6" s="320"/>
+      <c r="AL6" s="304" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM6" s="196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="369" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B7" s="133">
         <v>17</v>
       </c>
       <c r="C7" s="128">
         <f ca="1">58+$A$30-$A$32-112</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="134" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="194">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="197">
         <v>43778</v>
       </c>
       <c r="G7" s="394" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
-      <c r="J7" s="415">
+      <c r="J7" s="414">
         <v>4</v>
       </c>
       <c r="K7" s="397">
         <v>4.99</v>
       </c>
       <c r="L7" s="317"/>
-      <c r="M7" s="403"/>
+      <c r="M7" s="315">
+        <v>3.99</v>
+      </c>
       <c r="N7" s="317"/>
       <c r="O7" s="315">
         <v>3.99</v>
       </c>
       <c r="P7" s="317"/>
-      <c r="Q7" s="403"/>
+      <c r="Q7" s="402"/>
       <c r="R7" s="396">
         <v>3</v>
       </c>
-      <c r="S7" s="403"/>
+      <c r="S7" s="402"/>
       <c r="T7" s="317"/>
       <c r="U7" s="317"/>
-      <c r="V7" s="410" t="s">
-        <v>335</v>
-      </c>
-      <c r="W7" s="411">
+      <c r="V7" s="409" t="s">
+        <v>331</v>
+      </c>
+      <c r="W7" s="410">
         <f>COUNT(H7,J7,L7,N7,P7,R7,T7)</f>
         <v>2</v>
       </c>
       <c r="X7" s="195">
         <f>COUNT(I7,K7,M7,O7,Q7,S7,U7)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7" s="130">
         <v>0</v>
@@ -10800,47 +10828,60 @@
         <v>3.5</v>
       </c>
       <c r="AF7" s="320"/>
-      <c r="AG7" s="320"/>
+      <c r="AG7" s="320">
+        <v>4</v>
+      </c>
       <c r="AH7" s="320"/>
-      <c r="AI7" s="320"/>
+      <c r="AI7" s="320">
+        <v>3.5</v>
+      </c>
       <c r="AJ7" s="320"/>
-      <c r="AK7" s="304" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL7" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="402" t="s">
-        <v>339</v>
+      <c r="AK7" s="320"/>
+      <c r="AL7" s="304" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM7" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="401" t="s">
+        <v>334</v>
       </c>
       <c r="B8" s="133">
         <v>16</v>
       </c>
       <c r="C8" s="128">
         <f ca="1">-53+$A$30-$A$32</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" s="134"/>
       <c r="E8" s="194">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="197">
         <v>43802</v>
       </c>
       <c r="G8" s="394" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H8" s="317"/>
       <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
+      <c r="J8" s="315">
+        <v>1</v>
+      </c>
+      <c r="K8" s="315">
+        <v>2.99</v>
+      </c>
+      <c r="L8" s="318">
+        <v>1</v>
+      </c>
+      <c r="M8" s="318">
+        <v>1.99</v>
+      </c>
       <c r="N8" s="317"/>
-      <c r="O8" s="399">
+      <c r="O8" s="452">
         <v>7</v>
       </c>
       <c r="P8" s="317"/>
@@ -10853,16 +10894,16 @@
       </c>
       <c r="T8" s="317"/>
       <c r="U8" s="317"/>
-      <c r="V8" s="408" t="s">
-        <v>347</v>
-      </c>
-      <c r="W8" s="411">
+      <c r="V8" s="407" t="s">
+        <v>342</v>
+      </c>
+      <c r="W8" s="410">
         <f>COUNT(H8,J8,L8,N8,P8,R8,T8)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X8" s="195">
         <f>COUNT(I8,K8,M8,O8,Q8,S8,U8)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="130">
         <v>0</v>
@@ -10873,48 +10914,53 @@
       <c r="AA8" s="319"/>
       <c r="AB8" s="319"/>
       <c r="AC8" s="320"/>
-      <c r="AD8" s="320"/>
+      <c r="AD8" s="320">
+        <v>2.5</v>
+      </c>
       <c r="AE8" s="320"/>
       <c r="AF8" s="320"/>
       <c r="AG8" s="320">
         <v>4</v>
       </c>
       <c r="AH8" s="320"/>
-      <c r="AI8" s="320"/>
+      <c r="AI8" s="320">
+        <v>1.5</v>
+      </c>
       <c r="AJ8" s="320"/>
-      <c r="AK8" s="304"/>
-      <c r="AL8" s="196" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="402" t="s">
-        <v>340</v>
+      <c r="AK8" s="320"/>
+      <c r="AL8" s="304"/>
+      <c r="AM8" s="196" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="401" t="s">
+        <v>335</v>
       </c>
       <c r="B9" s="127">
         <v>16</v>
       </c>
       <c r="C9" s="128">
         <f ca="1">39+$A$30-$A$32</f>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D9" s="134"/>
       <c r="E9" s="194">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="197">
         <v>43800</v>
       </c>
       <c r="G9" s="394" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H9" s="317"/>
       <c r="I9" s="317"/>
       <c r="J9" s="396">
-        <v>4</v>
-      </c>
-      <c r="K9" s="399">
+        <v>4.2</v>
+      </c>
+      <c r="K9" s="452">
         <v>7</v>
       </c>
       <c r="L9" s="317"/>
@@ -10929,10 +10975,10 @@
       <c r="S9" s="317"/>
       <c r="T9" s="317"/>
       <c r="U9" s="317"/>
-      <c r="V9" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W9" s="411">
+      <c r="V9" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W9" s="410">
         <f>COUNT(H9,J9,L9,N9,P9,R9,T9)</f>
         <v>1</v>
       </c>
@@ -10950,27 +10996,32 @@
       <c r="AB9" s="319">
         <v>5</v>
       </c>
-      <c r="AC9" s="320"/>
+      <c r="AC9" s="320">
+        <v>4.5</v>
+      </c>
       <c r="AD9" s="320"/>
       <c r="AE9" s="320"/>
       <c r="AF9" s="320"/>
       <c r="AG9" s="320"/>
       <c r="AH9" s="320"/>
-      <c r="AI9" s="320"/>
+      <c r="AI9" s="320">
+        <v>4.5</v>
+      </c>
       <c r="AJ9" s="320"/>
-      <c r="AK9" s="304"/>
-      <c r="AL9" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="424" t="s">
+      <c r="AK9" s="320"/>
+      <c r="AL9" s="304"/>
+      <c r="AM9" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="426" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="424"/>
-      <c r="C10" s="424"/>
-      <c r="D10" s="424"/>
-      <c r="E10" s="424"/>
+      <c r="B10" s="426"/>
+      <c r="C10" s="426"/>
+      <c r="D10" s="426"/>
+      <c r="E10" s="426"/>
       <c r="F10" s="116"/>
       <c r="G10" s="115"/>
       <c r="H10" s="116"/>
@@ -10988,7 +11039,7 @@
       <c r="T10" s="116"/>
       <c r="U10" s="116"/>
       <c r="V10" s="115"/>
-      <c r="W10" s="405"/>
+      <c r="W10" s="404"/>
       <c r="X10" s="115"/>
       <c r="Y10" s="115"/>
       <c r="Z10" s="115"/>
@@ -11001,11 +11052,12 @@
       <c r="AG10" s="115"/>
       <c r="AH10" s="295"/>
       <c r="AI10" s="115"/>
-      <c r="AJ10" s="115"/>
-      <c r="AK10" s="306"/>
-      <c r="AL10" s="117"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="418"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="306"/>
+      <c r="AM10" s="117"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
         <v>166</v>
       </c>
@@ -11046,10 +11098,11 @@
       <c r="AH11" s="119"/>
       <c r="AI11" s="119"/>
       <c r="AJ11" s="119"/>
-      <c r="AK11" s="306"/>
-      <c r="AL11" s="120"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AK11" s="119"/>
+      <c r="AL11" s="306"/>
+      <c r="AM11" s="120"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="118" t="s">
         <v>3</v>
       </c>
@@ -11137,88 +11190,93 @@
         <v>56</v>
       </c>
       <c r="AB12" s="119" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AC12" s="119" t="s">
         <v>161</v>
       </c>
       <c r="AD12" s="119" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE12" s="119" t="s">
         <v>162</v>
       </c>
       <c r="AF12" s="119" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AG12" s="119" t="s">
         <v>163</v>
       </c>
       <c r="AH12" s="119" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AI12" s="119" t="s">
         <v>164</v>
       </c>
       <c r="AJ12" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK12" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="AK12" s="312" t="str">
-        <f>AK3</f>
+      <c r="AL12" s="312" t="str">
+        <f>AL3</f>
         <v>Comentarios</v>
       </c>
-      <c r="AL12" s="120" t="str">
-        <f>AL3</f>
+      <c r="AM12" s="120" t="str">
+        <f>AM3</f>
         <v>Ca</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13" s="136" t="s">
-        <v>185</v>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="364" t="s">
+        <v>273</v>
       </c>
       <c r="B13" s="127">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="128">
-        <f ca="1">67+$A$30-$A$32-112</f>
-        <v>14</v>
+        <f ca="1">67+$A$30-$A$32+14-112</f>
+        <v>30</v>
       </c>
       <c r="D13" s="129"/>
       <c r="E13" s="194">
-        <f ca="1">F13-TODAY()</f>
-        <v>53</v>
+        <f t="shared" ref="E13" ca="1" si="2">F13-TODAY()</f>
+        <v>82</v>
       </c>
       <c r="F13" s="197">
-        <v>43749</v>
-      </c>
-      <c r="G13" s="394"/>
+        <v>43780</v>
+      </c>
+      <c r="G13" s="394" t="s">
+        <v>317</v>
+      </c>
       <c r="H13" s="317"/>
       <c r="I13" s="317"/>
-      <c r="J13" s="395">
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="397">
         <v>3</v>
       </c>
-      <c r="K13" s="395">
+      <c r="M13" s="397">
         <v>3.99</v>
       </c>
-      <c r="L13" s="317"/>
-      <c r="M13" s="315">
-        <v>2.99</v>
-      </c>
-      <c r="N13" s="317"/>
-      <c r="O13" s="315">
-        <v>2.99</v>
+      <c r="N13" s="398"/>
+      <c r="O13" s="396">
+        <v>3.99</v>
       </c>
       <c r="P13" s="317"/>
-      <c r="Q13" s="403"/>
-      <c r="R13" s="403"/>
-      <c r="S13" s="403"/>
+      <c r="Q13" s="317"/>
+      <c r="R13" s="317"/>
+      <c r="S13" s="396">
+        <v>4.99</v>
+      </c>
       <c r="T13" s="317"/>
       <c r="U13" s="317"/>
-      <c r="V13" s="409" t="s">
+      <c r="V13" s="407" t="s">
         <v>176</v>
       </c>
-      <c r="W13" s="411">
-        <f t="shared" ref="W13:W17" si="2">COUNT(H13,J13,L13,N13,P13,R13,T13)</f>
+      <c r="W13" s="410">
+        <f>COUNT(H13,J13,L13,N13,P13,R13,T13)</f>
         <v>1</v>
       </c>
       <c r="X13" s="195">
@@ -11226,158 +11284,158 @@
         <v>3</v>
       </c>
       <c r="Y13" s="130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="195">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="319">
-        <v>1.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AA13" s="319"/>
       <c r="AB13" s="319">
-        <v>3.5</v>
-      </c>
-      <c r="AC13" s="320"/>
+        <v>3</v>
+      </c>
+      <c r="AC13" s="320">
+        <v>2.5</v>
+      </c>
       <c r="AD13" s="320"/>
       <c r="AE13" s="320"/>
       <c r="AF13" s="320"/>
-      <c r="AG13" s="320">
+      <c r="AG13" s="320"/>
+      <c r="AH13" s="320">
         <v>3.5</v>
       </c>
-      <c r="AH13" s="320">
-        <v>4.5</v>
-      </c>
       <c r="AI13" s="320">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AJ13" s="320">
-        <v>6</v>
-      </c>
-      <c r="AK13" s="304"/>
-      <c r="AL13" s="196" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14" s="136" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="AK13" s="320">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="304"/>
+      <c r="AM13" s="196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="298" t="s">
+        <v>170</v>
       </c>
       <c r="B14" s="127">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="128">
-        <f ca="1">40+$A$30-$A$32</f>
-        <v>99</v>
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>64</v>
       </c>
       <c r="D14" s="129"/>
       <c r="E14" s="194">
         <f ca="1">F14-TODAY()</f>
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F14" s="197">
-        <v>43749</v>
+        <v>43858</v>
       </c>
       <c r="G14" s="394"/>
-      <c r="H14" s="317"/>
-      <c r="I14" s="317"/>
-      <c r="J14" s="315">
+      <c r="H14" s="314"/>
+      <c r="I14" s="314"/>
+      <c r="J14" s="318">
+        <v>1</v>
+      </c>
+      <c r="K14" s="318">
+        <v>1.99</v>
+      </c>
+      <c r="L14" s="314"/>
+      <c r="M14" s="315">
+        <v>2.99</v>
+      </c>
+      <c r="N14" s="314"/>
+      <c r="O14" s="315">
+        <v>3.99</v>
+      </c>
+      <c r="P14" s="314"/>
+      <c r="Q14" s="316">
+        <v>5.99</v>
+      </c>
+      <c r="R14" s="314"/>
+      <c r="S14" s="314"/>
+      <c r="T14" s="314"/>
+      <c r="U14" s="314"/>
+      <c r="V14" s="409" t="s">
+        <v>171</v>
+      </c>
+      <c r="W14" s="410">
+        <f t="shared" ref="W14:W15" si="3">COUNT(H14,J14,L14,N14,P14,R14,T14)</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="195">
+        <f t="shared" ref="X14" si="4">COUNT(I14,K14,M14,O14,Q14,S14,U14)</f>
         <v>4</v>
       </c>
-      <c r="K14" s="317"/>
-      <c r="L14" s="317"/>
-      <c r="M14" s="317"/>
-      <c r="N14" s="317"/>
-      <c r="O14" s="317"/>
-      <c r="P14" s="317"/>
-      <c r="Q14" s="317"/>
-      <c r="R14" s="317"/>
-      <c r="S14" s="317"/>
-      <c r="T14" s="317"/>
-      <c r="U14" s="317"/>
-      <c r="V14" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W14" s="411">
-        <f t="shared" si="2"/>
+      <c r="Y14" s="130">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="195">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="319"/>
+      <c r="AB14" s="319">
         <v>1</v>
       </c>
-      <c r="X14" s="195">
-        <f>COUNT(I14,K14,M14,O14,Q14,S14,U14)</f>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="195">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="319">
+      <c r="AC14" s="320"/>
+      <c r="AD14" s="320"/>
+      <c r="AE14" s="320">
         <v>2</v>
       </c>
-      <c r="AB14" s="319">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="320">
+      <c r="AF14" s="320"/>
+      <c r="AG14" s="320"/>
+      <c r="AH14" s="320">
+        <v>2.5</v>
+      </c>
+      <c r="AI14" s="320">
         <v>3</v>
       </c>
-      <c r="AD14" s="320">
-        <v>4.5</v>
-      </c>
-      <c r="AE14" s="320">
+      <c r="AJ14" s="320"/>
+      <c r="AK14" s="320">
         <v>3.5</v>
       </c>
-      <c r="AF14" s="320"/>
-      <c r="AG14" s="320">
-        <v>2.5</v>
-      </c>
-      <c r="AH14" s="320"/>
-      <c r="AI14" s="320">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="320"/>
-      <c r="AK14" s="304" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL14" s="196" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15" s="364" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="127">
-        <v>16</v>
+      <c r="AL14" s="304"/>
+      <c r="AM14" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="401" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="133">
+        <v>15</v>
       </c>
       <c r="C15" s="128">
-        <f ca="1">67+$A$30-$A$32+14-112</f>
-        <v>28</v>
-      </c>
-      <c r="D15" s="129"/>
+        <f ca="1">2+$A$30-$A$32</f>
+        <v>63</v>
+      </c>
+      <c r="D15" s="134"/>
       <c r="E15" s="194">
-        <f t="shared" ref="E15" ca="1" si="3">F15-TODAY()</f>
-        <v>84</v>
+        <f ca="1">F15-TODAY()</f>
+        <v>161</v>
       </c>
       <c r="F15" s="197">
-        <v>43780</v>
+        <v>43859</v>
       </c>
       <c r="G15" s="394" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H15" s="317"/>
       <c r="I15" s="317"/>
       <c r="J15" s="317"/>
       <c r="K15" s="317"/>
-      <c r="L15" s="397">
-        <v>3</v>
-      </c>
-      <c r="M15" s="397">
-        <v>3.99</v>
-      </c>
-      <c r="N15" s="398"/>
-      <c r="O15" s="396">
-        <v>3.99</v>
-      </c>
+      <c r="L15" s="317"/>
+      <c r="M15" s="317"/>
+      <c r="N15" s="396">
+        <v>2</v>
+      </c>
+      <c r="O15" s="317"/>
       <c r="P15" s="317"/>
       <c r="Q15" s="317"/>
       <c r="R15" s="317"/>
@@ -11386,445 +11444,447 @@
       </c>
       <c r="T15" s="317"/>
       <c r="U15" s="317"/>
-      <c r="V15" s="408" t="s">
-        <v>178</v>
-      </c>
-      <c r="W15" s="411">
-        <f>COUNT(H15,J15,L15,N15,P15,R15,T15)</f>
+      <c r="V15" s="409" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" s="410">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X15" s="195">
         <f>COUNT(I15,K15,M15,O15,Q15,S15,U15)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="195">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="319"/>
-      <c r="AB15" s="319">
-        <v>3</v>
-      </c>
+      <c r="AB15" s="319"/>
       <c r="AC15" s="320"/>
       <c r="AD15" s="320"/>
       <c r="AE15" s="320"/>
       <c r="AF15" s="320"/>
       <c r="AG15" s="320"/>
-      <c r="AH15" s="320">
-        <v>3.5</v>
-      </c>
-      <c r="AI15" s="320">
-        <v>3.5</v>
-      </c>
-      <c r="AJ15" s="320">
+      <c r="AH15" s="320"/>
+      <c r="AI15" s="320"/>
+      <c r="AJ15" s="320"/>
+      <c r="AK15" s="320">
+        <v>7</v>
+      </c>
+      <c r="AL15" s="304"/>
+      <c r="AM15" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="427" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="427"/>
+      <c r="C16" s="427"/>
+      <c r="D16" s="427"/>
+      <c r="E16" s="427"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="123"/>
+      <c r="O16" s="123"/>
+      <c r="P16" s="123"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="123"/>
+      <c r="S16" s="123"/>
+      <c r="T16" s="123"/>
+      <c r="U16" s="123"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="405"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="122"/>
+      <c r="Z16" s="122"/>
+      <c r="AA16" s="122"/>
+      <c r="AB16" s="302"/>
+      <c r="AC16" s="122"/>
+      <c r="AD16" s="296"/>
+      <c r="AE16" s="122"/>
+      <c r="AF16" s="368"/>
+      <c r="AG16" s="122"/>
+      <c r="AH16" s="296"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="419"/>
+      <c r="AK16" s="122"/>
+      <c r="AL16" s="307"/>
+      <c r="AM16" s="124"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="126"/>
+      <c r="W17" s="126"/>
+      <c r="X17" s="126"/>
+      <c r="Y17" s="126"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="126"/>
+      <c r="AC17" s="126"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="126"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="126"/>
+      <c r="AI17" s="126"/>
+      <c r="AJ17" s="126"/>
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="307"/>
+      <c r="AM17" s="124"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="AK15" s="304"/>
-      <c r="AL15" s="196" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="298" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="127">
-        <v>15</v>
-      </c>
-      <c r="C16" s="128">
-        <f ca="1">3+$A$30-$A$32</f>
-        <v>62</v>
-      </c>
-      <c r="D16" s="129"/>
-      <c r="E16" s="194">
-        <f ca="1">F16-TODAY()</f>
-        <v>162</v>
-      </c>
-      <c r="F16" s="197">
-        <v>43858</v>
-      </c>
-      <c r="G16" s="394"/>
-      <c r="H16" s="314"/>
-      <c r="I16" s="314"/>
-      <c r="J16" s="315">
-        <v>1</v>
-      </c>
-      <c r="K16" s="314"/>
-      <c r="L16" s="314"/>
-      <c r="M16" s="314"/>
-      <c r="N16" s="314"/>
-      <c r="O16" s="315">
-        <v>3.99</v>
-      </c>
-      <c r="P16" s="314"/>
-      <c r="Q16" s="316">
-        <v>5.99</v>
-      </c>
-      <c r="R16" s="314"/>
-      <c r="S16" s="314"/>
-      <c r="T16" s="314"/>
-      <c r="U16" s="314"/>
-      <c r="V16" s="410" t="s">
-        <v>171</v>
-      </c>
-      <c r="W16" s="411">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X16" s="195">
-        <f t="shared" ref="X16" si="4">COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
-        <v>2</v>
-      </c>
-      <c r="Y16" s="130">
-        <v>5</v>
-      </c>
-      <c r="Z16" s="195">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="319"/>
-      <c r="AB16" s="319">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="320"/>
-      <c r="AD16" s="320"/>
-      <c r="AE16" s="320"/>
-      <c r="AF16" s="320"/>
-      <c r="AG16" s="320"/>
-      <c r="AH16" s="320">
-        <v>2.5</v>
-      </c>
-      <c r="AI16" s="320">
-        <v>3</v>
-      </c>
-      <c r="AJ16" s="320">
-        <v>3.5</v>
-      </c>
-      <c r="AK16" s="304"/>
-      <c r="AL16" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17" s="402" t="s">
-        <v>342</v>
-      </c>
-      <c r="B17" s="133">
-        <v>15</v>
-      </c>
-      <c r="C17" s="128">
-        <f ca="1">2+$A$30-$A$32</f>
-        <v>61</v>
-      </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="194">
-        <f ca="1">F17-TODAY()</f>
-        <v>163</v>
-      </c>
-      <c r="F17" s="197">
-        <v>43859</v>
-      </c>
-      <c r="G17" s="394" t="s">
-        <v>320</v>
-      </c>
-      <c r="H17" s="317"/>
-      <c r="I17" s="317"/>
-      <c r="J17" s="317"/>
-      <c r="K17" s="317"/>
-      <c r="L17" s="317"/>
-      <c r="M17" s="317"/>
-      <c r="N17" s="396">
-        <v>2</v>
-      </c>
-      <c r="O17" s="317"/>
-      <c r="P17" s="317"/>
-      <c r="Q17" s="317"/>
-      <c r="R17" s="317"/>
-      <c r="S17" s="396">
-        <v>4.99</v>
-      </c>
-      <c r="T17" s="317"/>
-      <c r="U17" s="317"/>
-      <c r="V17" s="410" t="s">
-        <v>171</v>
-      </c>
-      <c r="W17" s="411">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X17" s="195">
-        <f>COUNT(I17,K17,M17,O17,Q17,S17,U17)</f>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="195">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="319"/>
-      <c r="AB17" s="319"/>
-      <c r="AC17" s="320"/>
-      <c r="AD17" s="320"/>
-      <c r="AE17" s="320"/>
-      <c r="AF17" s="320"/>
-      <c r="AG17" s="320"/>
-      <c r="AH17" s="320"/>
-      <c r="AI17" s="320"/>
-      <c r="AJ17" s="320"/>
-      <c r="AK17" s="304"/>
-      <c r="AL17" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18" s="425" t="s">
-        <v>169</v>
-      </c>
-      <c r="B18" s="425"/>
-      <c r="C18" s="425"/>
-      <c r="D18" s="425"/>
-      <c r="E18" s="425"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
-      <c r="M18" s="123"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="123"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="406"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="122"/>
-      <c r="AA18" s="122"/>
-      <c r="AB18" s="302"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="296"/>
-      <c r="AE18" s="122"/>
-      <c r="AF18" s="368"/>
-      <c r="AG18" s="122"/>
-      <c r="AH18" s="296"/>
-      <c r="AI18" s="122"/>
-      <c r="AJ18" s="122"/>
-      <c r="AK18" s="307"/>
-      <c r="AL18" s="124"/>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" s="125" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="125" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="125"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="126"/>
-      <c r="Z19" s="126"/>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="126"/>
-      <c r="AC19" s="126"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="126"/>
-      <c r="AG19" s="126"/>
-      <c r="AH19" s="126"/>
-      <c r="AI19" s="126"/>
-      <c r="AJ19" s="126"/>
-      <c r="AK19" s="307"/>
-      <c r="AL19" s="124"/>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20" s="125" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="125" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="126" t="s">
+      <c r="D18" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="125" t="s">
+      <c r="E18" s="125" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="125" t="str">
+      <c r="F18" s="125" t="str">
         <f>F12</f>
         <v>Fpromo</v>
       </c>
-      <c r="G20" s="126" t="s">
+      <c r="G18" s="126" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="125" t="s">
+      <c r="H18" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="125" t="s">
+      <c r="I18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="125" t="s">
+      <c r="J18" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="125" t="s">
+      <c r="K18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="125" t="s">
+      <c r="L18" s="125" t="s">
         <v>155</v>
       </c>
-      <c r="M20" s="125" t="s">
+      <c r="M18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="N20" s="125" t="s">
+      <c r="N18" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="O20" s="125" t="s">
+      <c r="O18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="125" t="s">
+      <c r="P18" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="Q20" s="125" t="s">
+      <c r="Q18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="R20" s="125" t="s">
+      <c r="R18" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="S20" s="125" t="s">
+      <c r="S18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="T20" s="125" t="s">
+      <c r="T18" s="125" t="s">
         <v>158</v>
       </c>
-      <c r="U20" s="125" t="s">
+      <c r="U18" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="126" t="str">
+      <c r="V18" s="126" t="str">
         <f>V12</f>
         <v>U20</v>
       </c>
-      <c r="W20" s="126" t="str">
+      <c r="W18" s="126" t="str">
         <f>W12</f>
         <v>Hab</v>
       </c>
-      <c r="X20" s="126" t="str">
+      <c r="X18" s="126" t="str">
         <f>X12</f>
         <v>Pot</v>
       </c>
-      <c r="Y20" s="126" t="str">
+      <c r="Y18" s="126" t="str">
         <f>Y12</f>
         <v>Cap</v>
       </c>
-      <c r="Z20" s="126" t="s">
+      <c r="Z18" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="AA20" s="126" t="s">
+      <c r="AA18" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="AB20" s="126" t="s">
-        <v>275</v>
-      </c>
-      <c r="AC20" s="126" t="s">
+      <c r="AB18" s="126" t="s">
+        <v>272</v>
+      </c>
+      <c r="AC18" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="AD20" s="126" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE20" s="126" t="s">
+      <c r="AD18" s="126" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE18" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="AF20" s="126" t="s">
-        <v>321</v>
-      </c>
-      <c r="AG20" s="126" t="s">
+      <c r="AF18" s="126" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG18" s="126" t="s">
         <v>163</v>
       </c>
-      <c r="AH20" s="126" t="s">
-        <v>271</v>
-      </c>
-      <c r="AI20" s="126" t="s">
+      <c r="AH18" s="126" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI18" s="126" t="s">
         <v>164</v>
       </c>
-      <c r="AJ20" s="126" t="s">
+      <c r="AJ18" s="126" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK18" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="AK20" s="313" t="str">
-        <f>AK12</f>
+      <c r="AL18" s="313" t="str">
+        <f>AL12</f>
         <v>Comentarios</v>
       </c>
-      <c r="AL20" s="124" t="str">
-        <f>AL12</f>
+      <c r="AM18" s="124" t="str">
+        <f>AM12</f>
         <v>Ca</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="298"/>
+      <c r="B19" s="133">
+        <v>15</v>
+      </c>
+      <c r="C19" s="128">
+        <f ca="1">11+$A$30-$A$32</f>
+        <v>72</v>
+      </c>
+      <c r="D19" s="129"/>
+      <c r="E19" s="194">
+        <f ca="1">F19-TODAY()</f>
+        <v>-43698</v>
+      </c>
+      <c r="F19" s="197"/>
+      <c r="G19" s="394"/>
+      <c r="H19" s="317"/>
+      <c r="I19" s="317"/>
+      <c r="J19" s="317"/>
+      <c r="K19" s="317"/>
+      <c r="L19" s="317"/>
+      <c r="M19" s="317"/>
+      <c r="N19" s="317"/>
+      <c r="O19" s="317"/>
+      <c r="P19" s="317"/>
+      <c r="Q19" s="317"/>
+      <c r="R19" s="317"/>
+      <c r="S19" s="317"/>
+      <c r="T19" s="317"/>
+      <c r="U19" s="317"/>
+      <c r="V19" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W19" s="410">
+        <f>COUNT(H19,J19,L19,N19,P19,R19,T19)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="195">
+        <f>COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="195">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="319"/>
+      <c r="AB19" s="319"/>
+      <c r="AC19" s="320"/>
+      <c r="AD19" s="320"/>
+      <c r="AE19" s="320"/>
+      <c r="AF19" s="320"/>
+      <c r="AG19" s="320"/>
+      <c r="AH19" s="320"/>
+      <c r="AI19" s="320"/>
+      <c r="AJ19" s="320"/>
+      <c r="AK19" s="320"/>
+      <c r="AL19" s="304"/>
+      <c r="AM19" s="196"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="298" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="133">
+        <v>15</v>
+      </c>
+      <c r="C20" s="128">
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>75</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="194">
+        <f t="shared" ref="E20" ca="1" si="5">F20-TODAY()</f>
+        <v>149</v>
+      </c>
+      <c r="F20" s="197">
+        <v>43847</v>
+      </c>
+      <c r="G20" s="394"/>
+      <c r="H20" s="317"/>
+      <c r="I20" s="315">
+        <v>0.99</v>
+      </c>
+      <c r="J20" s="318">
+        <v>1</v>
+      </c>
+      <c r="K20" s="318">
+        <v>1.99</v>
+      </c>
+      <c r="L20" s="317"/>
+      <c r="M20" s="315">
+        <v>2.99</v>
+      </c>
+      <c r="N20" s="317"/>
+      <c r="O20" s="315">
+        <v>1.99</v>
+      </c>
+      <c r="P20" s="317"/>
+      <c r="Q20" s="317"/>
+      <c r="R20" s="317"/>
+      <c r="S20" s="317"/>
+      <c r="T20" s="317"/>
+      <c r="U20" s="317"/>
+      <c r="V20" s="409" t="s">
+        <v>173</v>
+      </c>
+      <c r="W20" s="410">
+        <f t="shared" ref="W20:W26" si="6">COUNT(H20,J20,L20,N20,P20,R20,T20)</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="195">
+        <f t="shared" ref="X20:X25" si="7">COUNT(I20,K20,M20,O20,Q20,S20,U20)</f>
+        <v>4</v>
+      </c>
+      <c r="Y20" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="195">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="319">
+        <v>0.5</v>
+      </c>
+      <c r="AB20" s="319"/>
+      <c r="AC20" s="320"/>
+      <c r="AD20" s="320">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="320"/>
+      <c r="AF20" s="320">
+        <v>2.5</v>
+      </c>
+      <c r="AG20" s="320">
+        <v>2.5</v>
+      </c>
+      <c r="AH20" s="320"/>
+      <c r="AI20" s="320">
+        <v>2.5</v>
+      </c>
+      <c r="AJ20" s="320"/>
+      <c r="AK20" s="320">
+        <v>2.5</v>
+      </c>
+      <c r="AL20" s="304"/>
+      <c r="AM20" s="196" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="298" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" s="133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="128">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>73</v>
+        <f ca="1">51+$A$30-$A$32-112</f>
+        <v>0</v>
       </c>
       <c r="D21" s="129" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E21" s="194">
-        <f t="shared" ref="E21" ca="1" si="5">F21-TODAY()</f>
-        <v>151</v>
+        <f t="shared" ref="E21:E26" ca="1" si="8">F21-TODAY()</f>
+        <v>112</v>
       </c>
       <c r="F21" s="197">
-        <v>43847</v>
+        <v>43810</v>
       </c>
       <c r="G21" s="394"/>
       <c r="H21" s="317"/>
-      <c r="I21" s="315">
-        <v>0.99</v>
-      </c>
+      <c r="I21" s="317"/>
       <c r="J21" s="318">
+        <v>2</v>
+      </c>
+      <c r="K21" s="318">
+        <v>2.99</v>
+      </c>
+      <c r="L21" s="395">
+        <v>3</v>
+      </c>
+      <c r="M21" s="395">
+        <v>3.99</v>
+      </c>
+      <c r="N21" s="318">
         <v>1</v>
       </c>
-      <c r="K21" s="318">
-        <v>1.99</v>
-      </c>
-      <c r="L21" s="317"/>
-      <c r="M21" s="315">
-        <v>2.99</v>
-      </c>
-      <c r="N21" s="317"/>
-      <c r="O21" s="315">
+      <c r="O21" s="318">
         <v>1.99</v>
       </c>
       <c r="P21" s="317"/>
@@ -11833,104 +11893,101 @@
       <c r="S21" s="317"/>
       <c r="T21" s="317"/>
       <c r="U21" s="317"/>
-      <c r="V21" s="410" t="s">
-        <v>175</v>
-      </c>
-      <c r="W21" s="411">
-        <f t="shared" ref="W21:W26" si="6">COUNT(H21,J21,L21,N21,P21,R21,T21)</f>
+      <c r="V21" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W21" s="410">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X21" s="195">
+        <f>COUNT(I21,K21,M21,O21,Q21,S21,U21)</f>
+        <v>3</v>
+      </c>
+      <c r="Y21" s="130">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="195">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="319">
         <v>1</v>
       </c>
-      <c r="X21" s="195">
-        <f t="shared" ref="X21:X25" si="7">COUNT(I21,K21,M21,O21,Q21,S21,U21)</f>
-        <v>4</v>
-      </c>
-      <c r="Y21" s="130">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="195">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="319">
-        <v>0.5</v>
-      </c>
-      <c r="AB21" s="319"/>
-      <c r="AC21" s="320"/>
-      <c r="AD21" s="320">
+      <c r="AB21" s="319">
+        <v>3.5</v>
+      </c>
+      <c r="AC21" s="320">
         <v>2</v>
       </c>
+      <c r="AD21" s="320"/>
       <c r="AE21" s="320"/>
-      <c r="AF21" s="320">
-        <v>2.5</v>
-      </c>
+      <c r="AF21" s="320"/>
       <c r="AG21" s="320">
         <v>2.5</v>
       </c>
-      <c r="AH21" s="320"/>
+      <c r="AH21" s="320">
+        <v>4</v>
+      </c>
       <c r="AI21" s="320">
         <v>2.5</v>
       </c>
-      <c r="AJ21" s="320">
-        <v>2.5</v>
-      </c>
-      <c r="AK21" s="304"/>
-      <c r="AL21" s="196" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22" s="298" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="133">
-        <v>15</v>
+      <c r="AJ21" s="320"/>
+      <c r="AK21" s="320">
+        <v>3</v>
+      </c>
+      <c r="AL21" s="304"/>
+      <c r="AM21" s="196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="136" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="127">
+        <v>17</v>
       </c>
       <c r="C22" s="128">
-        <f ca="1">51+$A$30-$A$32</f>
-        <v>110</v>
-      </c>
-      <c r="D22" s="129" t="s">
-        <v>277</v>
-      </c>
+        <f ca="1">67+$A$30-$A$32-112</f>
+        <v>16</v>
+      </c>
+      <c r="D22" s="129"/>
       <c r="E22" s="194">
         <f ca="1">F22-TODAY()</f>
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="F22" s="197">
-        <v>43810</v>
+        <v>43749</v>
       </c>
       <c r="G22" s="394"/>
       <c r="H22" s="317"/>
       <c r="I22" s="317"/>
-      <c r="J22" s="318">
-        <v>2</v>
-      </c>
-      <c r="K22" s="318">
+      <c r="J22" s="395">
+        <v>3</v>
+      </c>
+      <c r="K22" s="395">
+        <v>3.99</v>
+      </c>
+      <c r="L22" s="317"/>
+      <c r="M22" s="315">
         <v>2.99</v>
       </c>
-      <c r="L22" s="395">
-        <v>3</v>
-      </c>
-      <c r="M22" s="395">
-        <v>3.99</v>
-      </c>
-      <c r="N22" s="318">
-        <v>1</v>
-      </c>
-      <c r="O22" s="318">
-        <v>1.99</v>
+      <c r="N22" s="317"/>
+      <c r="O22" s="315">
+        <v>2.99</v>
       </c>
       <c r="P22" s="317"/>
-      <c r="Q22" s="317"/>
-      <c r="R22" s="317"/>
-      <c r="S22" s="317"/>
+      <c r="Q22" s="402"/>
+      <c r="R22" s="402"/>
+      <c r="S22" s="402"/>
       <c r="T22" s="317"/>
       <c r="U22" s="317"/>
-      <c r="V22" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W22" s="411">
-        <f t="shared" si="6"/>
-        <v>3</v>
+      <c r="V22" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W22" s="410">
+        <f>COUNT(H22,J22,L22,N22,P22,R22,T22)</f>
+        <v>1</v>
       </c>
       <c r="X22" s="195">
         <f>COUNT(I22,K22,M22,O22,Q22,S22,U22)</f>
@@ -11943,47 +12000,50 @@
         <v>0</v>
       </c>
       <c r="AA22" s="319">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AB22" s="319">
         <v>3.5</v>
       </c>
       <c r="AC22" s="320"/>
       <c r="AD22" s="320"/>
-      <c r="AE22" s="320"/>
+      <c r="AE22" s="320">
+        <v>3.5</v>
+      </c>
       <c r="AF22" s="320"/>
       <c r="AG22" s="320">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AH22" s="320">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AI22" s="320">
-        <v>2.5</v>
-      </c>
-      <c r="AJ22" s="320">
         <v>3</v>
       </c>
-      <c r="AK22" s="304"/>
-      <c r="AL22" s="196" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="320"/>
+      <c r="AK22" s="320">
+        <v>6</v>
+      </c>
+      <c r="AL22" s="304"/>
+      <c r="AM22" s="196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="135" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B23" s="133">
         <v>17</v>
       </c>
       <c r="C23" s="128">
         <f ca="1">71+$A$30-$A$32-112</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="134"/>
       <c r="E23" s="194">
-        <f ca="1">F23-TODAY()</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>51</v>
       </c>
       <c r="F23" s="197">
         <v>43749</v>
@@ -12006,15 +12066,15 @@
         <v>3.99</v>
       </c>
       <c r="P23" s="317"/>
-      <c r="Q23" s="403"/>
-      <c r="R23" s="403"/>
-      <c r="S23" s="403"/>
-      <c r="T23" s="403"/>
+      <c r="Q23" s="402"/>
+      <c r="R23" s="402"/>
+      <c r="S23" s="402"/>
+      <c r="T23" s="402"/>
       <c r="U23" s="317"/>
-      <c r="V23" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W23" s="411">
+      <c r="V23" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W23" s="410">
         <f>COUNT(H23,J23,L23,N23,P23,R23,T23)</f>
         <v>2</v>
       </c>
@@ -12045,29 +12105,30 @@
       <c r="AI23" s="320">
         <v>3.5</v>
       </c>
-      <c r="AJ23" s="320">
+      <c r="AJ23" s="320"/>
+      <c r="AK23" s="320">
         <v>4.5</v>
       </c>
-      <c r="AK23" s="304"/>
-      <c r="AL23" s="196" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL23" s="304"/>
+      <c r="AM23" s="196" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="136" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="127">
         <v>17</v>
       </c>
       <c r="C24" s="128">
         <f ca="1">66+$A$30-$A$32-112</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="129"/>
       <c r="E24" s="194">
-        <f ca="1">F24-TODAY()</f>
-        <v>53</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>51</v>
       </c>
       <c r="F24" s="197">
         <v>43749</v>
@@ -12095,10 +12156,10 @@
       <c r="S24" s="317"/>
       <c r="T24" s="317"/>
       <c r="U24" s="317"/>
-      <c r="V24" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W24" s="411">
+      <c r="V24" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W24" s="410">
         <f>COUNT(H24,J24,L24,N24,P24,R24,T24)</f>
         <v>2</v>
       </c>
@@ -12129,35 +12190,36 @@
       <c r="AI24" s="320">
         <v>2</v>
       </c>
-      <c r="AJ24" s="320">
+      <c r="AJ24" s="320"/>
+      <c r="AK24" s="320">
         <v>3.5</v>
       </c>
-      <c r="AK24" s="304"/>
-      <c r="AL24" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL24" s="304"/>
+      <c r="AM24" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="363" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B25" s="127">
         <v>16</v>
       </c>
       <c r="C25" s="128">
         <f ca="1">22+$A$30-$A$32</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="129"/>
       <c r="E25" s="194">
-        <f ca="1">F25-TODAY()</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
       </c>
       <c r="F25" s="197">
         <v>43750</v>
       </c>
       <c r="G25" s="394" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H25" s="317"/>
       <c r="I25" s="317"/>
@@ -12179,10 +12241,10 @@
       <c r="S25" s="317"/>
       <c r="T25" s="317"/>
       <c r="U25" s="317"/>
-      <c r="V25" s="409" t="s">
-        <v>176</v>
-      </c>
-      <c r="W25" s="411">
+      <c r="V25" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W25" s="410">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -12213,29 +12275,30 @@
         <v>4</v>
       </c>
       <c r="AI25" s="320"/>
-      <c r="AJ25" s="320">
+      <c r="AJ25" s="320"/>
+      <c r="AK25" s="320">
         <v>2</v>
       </c>
-      <c r="AK25" s="304"/>
-      <c r="AL25" s="196" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL25" s="304"/>
+      <c r="AM25" s="196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="297" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B26" s="127">
         <v>16</v>
       </c>
       <c r="C26" s="128">
         <f ca="1">-1+$A$30-$A$32</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="132"/>
       <c r="E26" s="194">
-        <f ca="1">F26-TODAY()</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
       </c>
       <c r="F26" s="197">
         <v>43750</v>
@@ -12243,7 +12306,7 @@
       <c r="G26" s="394"/>
       <c r="H26" s="317"/>
       <c r="I26" s="317"/>
-      <c r="J26" s="415">
+      <c r="J26" s="414">
         <v>4</v>
       </c>
       <c r="K26" s="397">
@@ -12261,10 +12324,10 @@
       <c r="S26" s="317"/>
       <c r="T26" s="317"/>
       <c r="U26" s="317"/>
-      <c r="V26" s="408" t="s">
-        <v>180</v>
-      </c>
-      <c r="W26" s="411">
+      <c r="V26" s="407" t="s">
+        <v>178</v>
+      </c>
+      <c r="W26" s="410">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
@@ -12295,46 +12358,47 @@
       </c>
       <c r="AF26" s="320"/>
       <c r="AG26" s="320"/>
-      <c r="AH26" s="320"/>
+      <c r="AH26" s="320">
+        <v>3</v>
+      </c>
       <c r="AI26" s="320">
         <v>3.5</v>
       </c>
-      <c r="AJ26" s="320">
+      <c r="AJ26" s="320"/>
+      <c r="AK26" s="320">
         <v>3</v>
       </c>
-      <c r="AK26" s="305"/>
-      <c r="AL26" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27" s="298" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="133">
-        <v>15</v>
+      <c r="AL26" s="305"/>
+      <c r="AM26" s="196" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="127">
+        <v>16</v>
       </c>
       <c r="C27" s="128">
-        <f ca="1">11+$A$30-$A$32</f>
-        <v>70</v>
+        <f ca="1">40+$A$30-$A$32</f>
+        <v>101</v>
       </c>
       <c r="D27" s="129"/>
       <c r="E27" s="194">
         <f ca="1">F27-TODAY()</f>
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="F27" s="197">
-        <v>43850</v>
+        <v>43749</v>
       </c>
       <c r="G27" s="394"/>
       <c r="H27" s="317"/>
       <c r="I27" s="317"/>
-      <c r="J27" s="395">
-        <v>3</v>
-      </c>
-      <c r="K27" s="395">
-        <v>3.99</v>
-      </c>
+      <c r="J27" s="315">
+        <v>4</v>
+      </c>
+      <c r="K27" s="317"/>
       <c r="L27" s="317"/>
       <c r="M27" s="317"/>
       <c r="N27" s="317"/>
@@ -12345,19 +12409,19 @@
       <c r="S27" s="317"/>
       <c r="T27" s="317"/>
       <c r="U27" s="317"/>
-      <c r="V27" s="410" t="s">
-        <v>173</v>
-      </c>
-      <c r="W27" s="411">
+      <c r="V27" s="408" t="s">
+        <v>174</v>
+      </c>
+      <c r="W27" s="410">
         <f>COUNT(H27,J27,L27,N27,P27,R27,T27)</f>
         <v>1</v>
       </c>
       <c r="X27" s="195">
         <f>COUNT(I27,K27,M27,O27,Q27,S27,U27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="130">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="195">
         <v>0</v>
@@ -12366,14 +12430,16 @@
         <v>2</v>
       </c>
       <c r="AB27" s="319">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="320">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="320">
+        <v>4.5</v>
+      </c>
+      <c r="AE27" s="320">
         <v>3.5</v>
-      </c>
-      <c r="AC27" s="320"/>
-      <c r="AD27" s="320">
-        <v>3</v>
-      </c>
-      <c r="AE27" s="320">
-        <v>3</v>
       </c>
       <c r="AF27" s="320"/>
       <c r="AG27" s="320">
@@ -12381,17 +12447,18 @@
       </c>
       <c r="AH27" s="320"/>
       <c r="AI27" s="320">
-        <v>3</v>
-      </c>
-      <c r="AJ27" s="320">
         <v>2</v>
       </c>
-      <c r="AK27" s="304"/>
-      <c r="AL27" s="196" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AJ27" s="320"/>
+      <c r="AK27" s="320"/>
+      <c r="AL27" s="304" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM27" s="196" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="133"/>
       <c r="B28" s="133"/>
       <c r="C28" s="137"/>
@@ -12420,12 +12487,12 @@
       <c r="Z28" s="113"/>
       <c r="AA28" s="113"/>
       <c r="AB28" s="113"/>
-      <c r="AK28" s="308"/>
-      <c r="AL28" s="131"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL28" s="308"/>
+      <c r="AM28" s="131"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B29" s="139"/>
       <c r="C29" s="139"/>
@@ -12454,20 +12521,20 @@
       <c r="Z29" s="132"/>
       <c r="AA29" s="132"/>
       <c r="AB29" s="132"/>
-      <c r="AK29" s="309"/>
-      <c r="AL29" s="141"/>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL29" s="309"/>
+      <c r="AM29" s="141"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="142">
         <f ca="1">TODAY()</f>
-        <v>43696</v>
+        <v>43698</v>
       </c>
       <c r="B30" s="143"/>
       <c r="C30" s="139"/>
       <c r="D30" s="139"/>
       <c r="E30" s="140"/>
       <c r="F30" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G30" s="8"/>
       <c r="I30" s="139"/>
@@ -12490,22 +12557,22 @@
       <c r="Z30" s="132"/>
       <c r="AA30" s="132"/>
       <c r="AB30" s="132"/>
-      <c r="AK30" s="309"/>
-      <c r="AL30" s="144"/>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL30" s="309"/>
+      <c r="AM30" s="144"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="145">
         <f ca="1">A32-A30</f>
-        <v>-59</v>
+        <v>-61</v>
       </c>
       <c r="B31" s="143"/>
       <c r="C31" s="139"/>
       <c r="D31" s="133"/>
       <c r="E31" s="133"/>
-      <c r="F31" s="407" t="s">
-        <v>336</v>
-      </c>
-      <c r="G31" s="407"/>
+      <c r="F31" s="406" t="s">
+        <v>347</v>
+      </c>
+      <c r="G31" s="406"/>
       <c r="I31" s="139"/>
       <c r="J31" s="139"/>
       <c r="K31" s="139"/>
@@ -12526,10 +12593,10 @@
       <c r="Z31" s="132"/>
       <c r="AA31" s="132"/>
       <c r="AB31" s="132"/>
-      <c r="AK31" s="309"/>
-      <c r="AL31" s="141"/>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL31" s="309"/>
+      <c r="AM31" s="141"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="146">
         <v>43637</v>
       </c>
@@ -12562,19 +12629,19 @@
       <c r="Z32" s="132"/>
       <c r="AA32" s="132"/>
       <c r="AB32" s="132"/>
-      <c r="AK32" s="309"/>
-      <c r="AL32" s="141"/>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AL32" s="309"/>
+      <c r="AM32" s="141"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="133"/>
       <c r="B33" s="143"/>
       <c r="C33" s="139"/>
       <c r="D33" s="133"/>
       <c r="E33" s="133"/>
-      <c r="F33" s="407" t="s">
-        <v>338</v>
-      </c>
-      <c r="G33" s="407"/>
+      <c r="F33" s="406" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="406"/>
       <c r="I33" s="139"/>
       <c r="J33" s="139"/>
       <c r="K33" s="139"/>
@@ -12595,28 +12662,28 @@
       <c r="Z33" s="132"/>
       <c r="AA33" s="132"/>
       <c r="AB33" s="132"/>
-      <c r="AK33" s="309"/>
-      <c r="AL33" s="141"/>
+      <c r="AL33" s="309"/>
+      <c r="AM33" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E9 E13:E17 E21:E27">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="E4:E9 E13:E15 E19:E27">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
       <formula>15</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA21:AJ27 AA13:AJ17 AA4:AJ9">
+  <conditionalFormatting sqref="AA13:AK15 AA19:AK27 AA4:AK9">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="min"/>
@@ -12628,7 +12695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21:Z27 Y13:Z17 Y4:Z9">
+  <conditionalFormatting sqref="Y13:Z15 Y19:Z27 Y4:Z9">
     <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="min"/>
@@ -12638,7 +12705,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21:X27 W13:X17 W4:X9">
+  <conditionalFormatting sqref="W13:X15 W19:X27 W4:X9">
     <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
@@ -12670,17 +12737,17 @@
   <sheetData>
     <row r="1" spans="1:1" s="362" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="362" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -12735,16 +12802,16 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="378" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B1" s="379" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C1" s="380" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="380" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E1" s="380" t="s">
         <v>4</v>
@@ -12756,7 +12823,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="382" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I1" s="382" t="s">
         <v>4</v>
@@ -12765,13 +12832,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="383" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L1" s="384" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="384" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N1" s="384" t="s">
         <v>4</v>
@@ -12780,13 +12847,13 @@
         <v>5</v>
       </c>
       <c r="P1" s="385" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="Q1" s="384" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="384" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="S1" s="384" t="s">
         <v>4</v>
@@ -12795,13 +12862,13 @@
         <v>5</v>
       </c>
       <c r="U1" s="385" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="V1" s="384" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="384" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="X1" s="384" t="s">
         <v>4</v>
@@ -12810,7 +12877,7 @@
         <v>5</v>
       </c>
       <c r="Z1" s="385" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="371" customFormat="1" x14ac:dyDescent="0.25">
@@ -12834,7 +12901,7 @@
       </c>
       <c r="F2" s="392">
         <f ca="1">Plantilla!F4</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" s="372" t="str">
         <f>Plantilla!D5</f>
@@ -12850,7 +12917,7 @@
       </c>
       <c r="J2" s="372">
         <f ca="1">Plantilla!F5</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K2" s="387">
         <v>360000</v>
@@ -12868,7 +12935,7 @@
       </c>
       <c r="O2" s="390">
         <f ca="1">Plantilla!F6</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P2" s="393">
         <v>1000</v>
@@ -12887,7 +12954,7 @@
       </c>
       <c r="T2" s="390">
         <f ca="1">O2</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U2" s="393"/>
       <c r="V2" s="390" t="str">
@@ -12904,7 +12971,7 @@
       </c>
       <c r="Y2" s="390">
         <f ca="1">T2</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z2" s="393"/>
     </row>
@@ -12929,7 +12996,7 @@
       </c>
       <c r="F3" s="376">
         <f ca="1">F2+7</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="321" t="str">
         <f>G2</f>
@@ -12944,7 +13011,7 @@
       </c>
       <c r="J3" s="321">
         <f ca="1">J2+7</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K3" s="377"/>
       <c r="L3" s="321" t="str">
@@ -12960,7 +13027,7 @@
       </c>
       <c r="O3" s="321">
         <f ca="1">O2+7</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P3" s="377"/>
       <c r="Q3" s="321" t="str">
@@ -12977,7 +13044,7 @@
       </c>
       <c r="T3" s="321">
         <f t="shared" ref="T3:T28" ca="1" si="1">O3</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U3" s="377"/>
       <c r="V3" s="321" t="str">
@@ -12994,7 +13061,7 @@
       </c>
       <c r="Y3" s="321">
         <f t="shared" ref="Y3:Y28" ca="1" si="3">T3</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z3" s="377"/>
     </row>
@@ -13019,7 +13086,7 @@
       </c>
       <c r="F4" s="376">
         <f t="shared" ref="F4:F28" ca="1" si="7">F3+7</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" s="321" t="str">
         <f t="shared" ref="G4:G28" si="8">G3</f>
@@ -13034,7 +13101,7 @@
       </c>
       <c r="J4" s="321">
         <f t="shared" ref="J4:J27" ca="1" si="10">J3+7</f>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="377"/>
       <c r="L4" s="321" t="str">
@@ -13050,7 +13117,7 @@
       </c>
       <c r="O4" s="321">
         <f t="shared" ref="O4:O28" ca="1" si="13">O3+7</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P4" s="377"/>
       <c r="Q4" s="321" t="str">
@@ -13067,7 +13134,7 @@
       </c>
       <c r="T4" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U4" s="377"/>
       <c r="V4" s="321" t="str">
@@ -13084,7 +13151,7 @@
       </c>
       <c r="Y4" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z4" s="377"/>
     </row>
@@ -13109,7 +13176,7 @@
       </c>
       <c r="F5" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G5" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13124,7 +13191,7 @@
       </c>
       <c r="J5" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" s="377"/>
       <c r="L5" s="321" t="str">
@@ -13140,7 +13207,7 @@
       </c>
       <c r="O5" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="377">
         <v>15000</v>
@@ -13159,7 +13226,7 @@
       </c>
       <c r="T5" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U5" s="377"/>
       <c r="V5" s="321" t="str">
@@ -13176,7 +13243,7 @@
       </c>
       <c r="Y5" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z5" s="377"/>
     </row>
@@ -13201,7 +13268,7 @@
       </c>
       <c r="F6" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G6" s="372" t="str">
         <f t="shared" si="8"/>
@@ -13216,7 +13283,7 @@
       </c>
       <c r="J6" s="372">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K6" s="387">
         <v>820000</v>
@@ -13234,7 +13301,7 @@
       </c>
       <c r="O6" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P6" s="377"/>
       <c r="Q6" s="321" t="str">
@@ -13251,7 +13318,7 @@
       </c>
       <c r="T6" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U6" s="377"/>
       <c r="V6" s="321" t="str">
@@ -13268,7 +13335,7 @@
       </c>
       <c r="Y6" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z6" s="377"/>
     </row>
@@ -13293,7 +13360,7 @@
       </c>
       <c r="F7" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13308,7 +13375,7 @@
       </c>
       <c r="J7" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K7" s="377"/>
       <c r="L7" s="321" t="str">
@@ -13324,7 +13391,7 @@
       </c>
       <c r="O7" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P7" s="377">
         <v>318000</v>
@@ -13343,7 +13410,7 @@
       </c>
       <c r="T7" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U7" s="377"/>
       <c r="V7" s="321" t="str">
@@ -13360,7 +13427,7 @@
       </c>
       <c r="Y7" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Z7" s="377"/>
     </row>
@@ -13385,7 +13452,7 @@
       </c>
       <c r="F8" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G8" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13400,7 +13467,7 @@
       </c>
       <c r="J8" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K8" s="377"/>
       <c r="L8" s="321" t="str">
@@ -13416,7 +13483,7 @@
       </c>
       <c r="O8" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P8" s="377"/>
       <c r="Q8" s="321" t="str">
@@ -13433,7 +13500,7 @@
       </c>
       <c r="T8" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U8" s="377"/>
       <c r="V8" s="321" t="str">
@@ -13450,7 +13517,7 @@
       </c>
       <c r="Y8" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z8" s="377"/>
     </row>
@@ -13474,7 +13541,7 @@
       </c>
       <c r="F9" s="376">
         <f ca="1">F8+7-112</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" s="372" t="str">
         <f t="shared" si="8"/>
@@ -13489,7 +13556,7 @@
       </c>
       <c r="J9" s="372">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K9" s="387">
         <v>1400000</v>
@@ -13507,7 +13574,7 @@
       </c>
       <c r="O9" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P9" s="377"/>
       <c r="Q9" s="321" t="str">
@@ -13524,7 +13591,7 @@
       </c>
       <c r="T9" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U9" s="377"/>
       <c r="V9" s="321" t="str">
@@ -13541,7 +13608,7 @@
       </c>
       <c r="Y9" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z9" s="377"/>
     </row>
@@ -13566,7 +13633,7 @@
       </c>
       <c r="F10" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13581,7 +13648,7 @@
       </c>
       <c r="J10" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K10" s="377"/>
       <c r="L10" s="321" t="str">
@@ -13596,7 +13663,7 @@
       </c>
       <c r="O10" s="321">
         <f ca="1">O9+7-112</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P10" s="377">
         <v>875000</v>
@@ -13614,7 +13681,7 @@
       </c>
       <c r="T10" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U10" s="377"/>
       <c r="V10" s="321" t="str">
@@ -13631,7 +13698,7 @@
       </c>
       <c r="Y10" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z10" s="377"/>
     </row>
@@ -13656,7 +13723,7 @@
       </c>
       <c r="F11" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13671,7 +13738,7 @@
       </c>
       <c r="J11" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K11" s="377"/>
       <c r="L11" s="321" t="str">
@@ -13687,7 +13754,7 @@
       </c>
       <c r="O11" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P11" s="377"/>
       <c r="Q11" s="321" t="str">
@@ -13703,7 +13770,7 @@
       </c>
       <c r="T11" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U11" s="377"/>
       <c r="V11" s="321" t="str">
@@ -13720,7 +13787,7 @@
       </c>
       <c r="Y11" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z11" s="377"/>
     </row>
@@ -13745,7 +13812,7 @@
       </c>
       <c r="F12" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13759,7 +13826,7 @@
       </c>
       <c r="J12" s="321">
         <f ca="1">J11+7-112</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="377"/>
       <c r="L12" s="321" t="str">
@@ -13775,7 +13842,7 @@
       </c>
       <c r="O12" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P12" s="377"/>
       <c r="Q12" s="321" t="str">
@@ -13791,7 +13858,7 @@
       </c>
       <c r="T12" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U12" s="377">
         <v>35000</v>
@@ -13810,7 +13877,7 @@
       </c>
       <c r="Y12" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z12" s="377"/>
     </row>
@@ -13835,7 +13902,7 @@
       </c>
       <c r="F13" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G13" s="321" t="str">
         <f t="shared" si="8"/>
@@ -13850,7 +13917,7 @@
       </c>
       <c r="J13" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K13" s="377"/>
       <c r="L13" s="321" t="str">
@@ -13866,7 +13933,7 @@
       </c>
       <c r="O13" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P13" s="377"/>
       <c r="Q13" s="321" t="str">
@@ -13882,7 +13949,7 @@
       </c>
       <c r="T13" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U13" s="377"/>
       <c r="V13" s="321" t="str">
@@ -13899,7 +13966,7 @@
       </c>
       <c r="Y13" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z13" s="377"/>
     </row>
@@ -13924,7 +13991,7 @@
       </c>
       <c r="F14" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" s="372" t="str">
         <f t="shared" si="8"/>
@@ -13939,7 +14006,7 @@
       </c>
       <c r="J14" s="372">
         <f t="shared" ca="1" si="10"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14" s="387">
         <v>1890000</v>
@@ -13957,7 +14024,7 @@
       </c>
       <c r="O14" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P14" s="377">
         <v>1775000</v>
@@ -13975,7 +14042,7 @@
       </c>
       <c r="T14" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U14" s="377">
         <v>380000</v>
@@ -13994,7 +14061,7 @@
       </c>
       <c r="Y14" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="377"/>
     </row>
@@ -14019,7 +14086,7 @@
       </c>
       <c r="F15" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14034,7 +14101,7 @@
       </c>
       <c r="J15" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15" s="377"/>
       <c r="L15" s="321" t="str">
@@ -14050,7 +14117,7 @@
       </c>
       <c r="O15" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P15" s="377"/>
       <c r="Q15" s="321" t="str">
@@ -14066,7 +14133,7 @@
       </c>
       <c r="T15" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="U15" s="377"/>
       <c r="V15" s="321" t="str">
@@ -14082,7 +14149,7 @@
       </c>
       <c r="Y15" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z15" s="377"/>
     </row>
@@ -14107,7 +14174,7 @@
       </c>
       <c r="F16" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G16" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14122,7 +14189,7 @@
       </c>
       <c r="J16" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16" s="377"/>
       <c r="L16" s="321" t="str">
@@ -14138,7 +14205,7 @@
       </c>
       <c r="O16" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P16" s="377"/>
       <c r="Q16" s="321" t="str">
@@ -14154,7 +14221,7 @@
       </c>
       <c r="T16" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U16" s="377"/>
       <c r="V16" s="321" t="str">
@@ -14170,7 +14237,7 @@
       </c>
       <c r="Y16" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Z16" s="377"/>
     </row>
@@ -14195,7 +14262,7 @@
       </c>
       <c r="F17" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14210,7 +14277,7 @@
       </c>
       <c r="J17" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K17" s="377"/>
       <c r="L17" s="321" t="str">
@@ -14226,7 +14293,7 @@
       </c>
       <c r="O17" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="377"/>
       <c r="Q17" s="321" t="str">
@@ -14242,7 +14309,7 @@
       </c>
       <c r="T17" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U17" s="377">
         <v>875000</v>
@@ -14260,7 +14327,7 @@
       </c>
       <c r="Y17" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Z17" s="377">
         <v>35000</v>
@@ -14287,7 +14354,7 @@
       </c>
       <c r="F18" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14302,7 +14369,7 @@
       </c>
       <c r="J18" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K18" s="377"/>
       <c r="L18" s="321" t="str">
@@ -14318,7 +14385,7 @@
       </c>
       <c r="O18" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P18" s="377">
         <v>2200000</v>
@@ -14336,7 +14403,7 @@
       </c>
       <c r="T18" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U18" s="377"/>
       <c r="V18" s="321" t="str">
@@ -14352,7 +14419,7 @@
       </c>
       <c r="Y18" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Z18" s="377"/>
     </row>
@@ -14377,7 +14444,7 @@
       </c>
       <c r="F19" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14392,7 +14459,7 @@
       </c>
       <c r="J19" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K19" s="377">
         <v>2050000</v>
@@ -14410,7 +14477,7 @@
       </c>
       <c r="O19" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P19" s="377"/>
       <c r="Q19" s="321" t="str">
@@ -14426,7 +14493,7 @@
       </c>
       <c r="T19" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U19" s="377"/>
       <c r="V19" s="321" t="str">
@@ -14442,7 +14509,7 @@
       </c>
       <c r="Y19" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Z19" s="377">
         <v>380000</v>
@@ -14469,7 +14536,7 @@
       </c>
       <c r="F20" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14485,7 +14552,7 @@
       </c>
       <c r="J20" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K20" s="377"/>
       <c r="L20" s="321" t="str">
@@ -14501,7 +14568,7 @@
       </c>
       <c r="O20" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="377"/>
       <c r="Q20" s="321" t="str">
@@ -14517,7 +14584,7 @@
       </c>
       <c r="T20" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U20" s="377"/>
       <c r="V20" s="321" t="str">
@@ -14533,7 +14600,7 @@
       </c>
       <c r="Y20" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z20" s="377"/>
     </row>
@@ -14558,7 +14625,7 @@
       </c>
       <c r="F21" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G21" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14574,7 +14641,7 @@
       </c>
       <c r="J21" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" s="377"/>
       <c r="L21" s="321" t="str">
@@ -14590,7 +14657,7 @@
       </c>
       <c r="O21" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P21" s="377"/>
       <c r="Q21" s="321" t="str">
@@ -14606,7 +14673,7 @@
       </c>
       <c r="T21" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U21" s="377">
         <v>1775000</v>
@@ -14624,7 +14691,7 @@
       </c>
       <c r="Y21" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Z21" s="377"/>
     </row>
@@ -14649,7 +14716,7 @@
       </c>
       <c r="F22" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14665,7 +14732,7 @@
       </c>
       <c r="J22" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" s="377"/>
       <c r="L22" s="321" t="str">
@@ -14681,7 +14748,7 @@
       </c>
       <c r="O22" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P22" s="377">
         <v>3200000</v>
@@ -14699,7 +14766,7 @@
       </c>
       <c r="T22" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="U22" s="377"/>
       <c r="V22" s="321" t="str">
@@ -14715,7 +14782,7 @@
       </c>
       <c r="Y22" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z22" s="377">
         <v>875000</v>
@@ -14742,7 +14809,7 @@
       </c>
       <c r="F23" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G23" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14758,7 +14825,7 @@
       </c>
       <c r="J23" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K23" s="377"/>
       <c r="L23" s="321" t="str">
@@ -14775,7 +14842,7 @@
       </c>
       <c r="O23" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P23" s="377"/>
       <c r="Q23" s="321" t="str">
@@ -14791,7 +14858,7 @@
       </c>
       <c r="T23" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U23" s="377"/>
       <c r="V23" s="321" t="str">
@@ -14807,7 +14874,7 @@
       </c>
       <c r="Y23" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Z23" s="377"/>
     </row>
@@ -14832,7 +14899,7 @@
       </c>
       <c r="F24" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G24" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14848,7 +14915,7 @@
       </c>
       <c r="J24" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K24" s="377"/>
       <c r="L24" s="321" t="str">
@@ -14865,7 +14932,7 @@
       </c>
       <c r="O24" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P24" s="377"/>
       <c r="Q24" s="321" t="str">
@@ -14881,7 +14948,7 @@
       </c>
       <c r="T24" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U24" s="377"/>
       <c r="V24" s="321" t="str">
@@ -14897,7 +14964,7 @@
       </c>
       <c r="Y24" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Z24" s="377"/>
     </row>
@@ -14921,7 +14988,7 @@
       </c>
       <c r="F25" s="376">
         <f ca="1">F24+7-112</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G25" s="321" t="str">
         <f t="shared" si="8"/>
@@ -14936,7 +15003,7 @@
       </c>
       <c r="J25" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K25" s="377">
         <v>2300000</v>
@@ -14955,7 +15022,7 @@
       </c>
       <c r="O25" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P25" s="377"/>
       <c r="Q25" s="321" t="str">
@@ -14971,7 +15038,7 @@
       </c>
       <c r="T25" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="U25" s="377">
         <v>2200000</v>
@@ -14989,7 +15056,7 @@
       </c>
       <c r="Y25" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Z25" s="377"/>
     </row>
@@ -15014,7 +15081,7 @@
       </c>
       <c r="F26" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G26" s="321" t="str">
         <f t="shared" si="8"/>
@@ -15027,7 +15094,7 @@
       </c>
       <c r="J26" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K26" s="377"/>
       <c r="L26" s="321" t="str">
@@ -15043,7 +15110,7 @@
       </c>
       <c r="O26" s="321">
         <f ca="1">O25+7-112</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P26" s="377"/>
       <c r="Q26" s="321" t="str">
@@ -15059,7 +15126,7 @@
       </c>
       <c r="T26" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U26" s="377"/>
       <c r="V26" s="321" t="str">
@@ -15075,7 +15142,7 @@
       </c>
       <c r="Y26" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z26" s="377">
         <v>1800000</v>
@@ -15102,7 +15169,7 @@
       </c>
       <c r="F27" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G27" s="321" t="str">
         <f t="shared" si="8"/>
@@ -15115,7 +15182,7 @@
       </c>
       <c r="J27" s="321">
         <f t="shared" ca="1" si="10"/>
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K27" s="377"/>
       <c r="L27" s="321" t="str">
@@ -15132,7 +15199,7 @@
       </c>
       <c r="O27" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P27" s="377"/>
       <c r="Q27" s="321" t="str">
@@ -15148,7 +15215,7 @@
       </c>
       <c r="T27" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U27" s="377"/>
       <c r="V27" s="321" t="str">
@@ -15164,7 +15231,7 @@
       </c>
       <c r="Y27" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z27" s="377"/>
     </row>
@@ -15189,7 +15256,7 @@
       </c>
       <c r="F28" s="376">
         <f t="shared" ca="1" si="7"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="321" t="str">
         <f t="shared" si="8"/>
@@ -15201,7 +15268,7 @@
       </c>
       <c r="J28" s="321">
         <f ca="1">J27+7-112</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K28" s="377"/>
       <c r="L28" s="321" t="str">
@@ -15217,7 +15284,7 @@
       </c>
       <c r="O28" s="321">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P28" s="377">
         <v>3600000</v>
@@ -15235,7 +15302,7 @@
       </c>
       <c r="T28" s="321">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U28" s="377"/>
       <c r="V28" s="321" t="str">
@@ -15251,7 +15318,7 @@
       </c>
       <c r="Y28" s="321">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z28" s="377"/>
     </row>
@@ -15329,14 +15396,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="434" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="435"/>
-      <c r="H1" s="435"/>
-      <c r="I1" s="436"/>
+      <c r="D1" s="428" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
+      <c r="H1" s="429"/>
+      <c r="I1" s="430"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -15416,14 +15483,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="437" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="438"/>
-      <c r="F2" s="438"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="438"/>
-      <c r="I2" s="439"/>
+      <c r="D2" s="431" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
+      <c r="I2" s="433"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -15488,15 +15555,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="440" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="441"/>
+      <c r="D3" s="434" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="435"/>
       <c r="F3" s="201"/>
-      <c r="G3" s="442" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="443"/>
+      <c r="G3" s="436" t="s">
+        <v>236</v>
+      </c>
+      <c r="H3" s="437"/>
       <c r="I3" s="201"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -15584,7 +15651,7 @@
       <c r="H4" s="228"/>
       <c r="I4" s="204"/>
       <c r="K4" s="249" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L4" s="249"/>
       <c r="M4" s="250">
@@ -15668,7 +15735,7 @@
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
       <c r="D5" s="205" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E5" s="206">
         <f>SUM(E6:E8)</f>
@@ -15679,7 +15746,7 @@
         <v>0.14517249712195329</v>
       </c>
       <c r="G5" s="205" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H5" s="253">
         <f>H6+H7</f>
@@ -15790,7 +15857,7 @@
         <v>7.2864769209986274E-2</v>
       </c>
       <c r="G6" s="210" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H6" s="255">
         <v>300000</v>
@@ -15891,7 +15958,7 @@
         <v>7.2307727911967018E-2</v>
       </c>
       <c r="G7" s="210" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H7" s="255">
         <v>0</v>
@@ -15984,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="211" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E8" s="212">
         <v>0</v>
@@ -16151,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="205" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="206">
         <f>E11+E12+E13</f>
@@ -16162,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="205" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H10" s="253">
         <f>SUM(H11:H16)</f>
@@ -16259,7 +16326,7 @@
         <v>6.0905404728929229E-3</v>
       </c>
       <c r="D11" s="216" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" s="217">
         <f>N4</f>
@@ -16270,7 +16337,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="225" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H11" s="259">
         <v>0</v>
@@ -16279,7 +16346,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="444" t="s">
+      <c r="K11" s="439" t="s">
         <v>122</v>
       </c>
       <c r="L11" s="238" t="s">
@@ -16377,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="260" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H12" s="261">
         <v>0</v>
@@ -16386,7 +16453,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="445"/>
+      <c r="K12" s="440"/>
       <c r="L12" s="238" t="s">
         <v>124</v>
       </c>
@@ -16472,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="225" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H13" s="259">
         <v>0</v>
@@ -16482,9 +16549,9 @@
         <v>0</v>
       </c>
       <c r="J13" s="264"/>
-      <c r="K13" s="446"/>
+      <c r="K13" s="441"/>
       <c r="L13" s="238" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M13" s="257">
         <f t="shared" si="6"/>
@@ -16574,7 +16641,7 @@
       <c r="D14" s="213"/>
       <c r="E14" s="266"/>
       <c r="G14" s="225" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="259">
         <v>0</v>
@@ -16665,11 +16732,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="431">
+      <c r="A15" s="446">
         <f>M14</f>
         <v>2876592</v>
       </c>
-      <c r="B15" s="431"/>
+      <c r="B15" s="446"/>
       <c r="D15" s="205" t="s">
         <v>139</v>
       </c>
@@ -16682,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="225" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H15" s="259">
         <v>0</v>
@@ -16733,7 +16800,7 @@
         <v>7700</v>
       </c>
       <c r="X15" s="243">
-        <f t="shared" ref="W15:AE15" si="14">W15+250</f>
+        <f t="shared" ref="X15:AE15" si="14">W15+250</f>
         <v>7950</v>
       </c>
       <c r="Y15" s="243">
@@ -16767,7 +16834,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D16" s="216" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E16" s="217">
         <v>0</v>
@@ -16777,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="268" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H16" s="269">
         <f>E29-H26</f>
@@ -16948,7 +17015,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D18" s="216" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="217">
         <v>0</v>
@@ -16958,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="205" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H18" s="273">
         <f>H19</f>
@@ -17051,7 +17118,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="D19" s="216" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E19" s="217">
         <v>0</v>
@@ -17224,7 +17291,7 @@
       <c r="G21" s="218"/>
       <c r="H21" s="275"/>
       <c r="I21" s="276"/>
-      <c r="K21" s="427" t="s">
+      <c r="K21" s="442" t="s">
         <v>122</v>
       </c>
       <c r="L21" s="240" t="s">
@@ -17302,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="205" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H22" s="253">
         <f>SUM(H23:H24)</f>
@@ -17312,7 +17379,7 @@
         <f>H22/$H$35</f>
         <v>0.14517249712195329</v>
       </c>
-      <c r="K22" s="428"/>
+      <c r="K22" s="443"/>
       <c r="L22" s="240" t="s">
         <v>135</v>
       </c>
@@ -17391,9 +17458,9 @@
         <f>H23/$H$35</f>
         <v>7.2864769209986274E-2</v>
       </c>
-      <c r="K23" s="429"/>
+      <c r="K23" s="444"/>
       <c r="L23" s="240" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M23" s="86">
         <f t="shared" si="15"/>
@@ -17465,7 +17532,7 @@
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="205" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E24" s="206">
         <f>E25+E26-E27</f>
@@ -17563,7 +17630,7 @@
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="225" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E25" s="226">
         <f>N5</f>
@@ -17680,7 +17747,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="205" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H26" s="253">
         <f>SUM(H27:H32)</f>
@@ -17794,7 +17861,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="222" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H27" s="277">
         <f>M15</f>
@@ -17936,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="205" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E29" s="206">
         <f>SUM(E30:E34)</f>
@@ -18029,7 +18096,7 @@
         <v>9.6876747481608225E-2</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="430" t="s">
+      <c r="L30" s="445" t="s">
         <v>140</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -18102,7 +18169,7 @@
         <v>1.8837145343646043E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="430"/>
+      <c r="L31" s="445"/>
       <c r="M31" s="98" t="s">
         <v>141</v>
       </c>
@@ -18173,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="430"/>
+      <c r="L32" s="445"/>
       <c r="M32" s="98" t="s">
         <v>142</v>
       </c>
@@ -18233,7 +18300,7 @@
       <c r="H33" s="275"/>
       <c r="I33" s="276"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="430"/>
+      <c r="L33" s="445"/>
       <c r="M33" s="98" t="s">
         <v>143</v>
       </c>
@@ -18290,7 +18357,7 @@
       <c r="H34" s="282"/>
       <c r="I34" s="283"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="430"/>
+      <c r="L34" s="445"/>
       <c r="M34" s="98" t="s">
         <v>144</v>
       </c>
@@ -18298,27 +18365,27 @@
         <v>145</v>
       </c>
       <c r="O34" s="99" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P34" s="99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q34" s="99" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R34" s="99" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S34" s="99" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T34" s="99" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U34" s="99"/>
       <c r="V34" s="99"/>
       <c r="W34" s="99" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="X34" s="99"/>
       <c r="Y34" s="99"/>
@@ -18330,13 +18397,13 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="432">
+      <c r="A35" s="447">
         <f>M25</f>
         <v>2125250</v>
       </c>
-      <c r="B35" s="432"/>
+      <c r="B35" s="447"/>
       <c r="D35" s="284" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E35" s="285">
         <f>E29+E21+E15+E5+E10+E24</f>
@@ -18347,7 +18414,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="G35" s="284" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H35" s="285">
         <f>H26+H18+H10+H5+H22</f>
@@ -18358,7 +18425,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="430"/>
+      <c r="L35" s="445"/>
       <c r="M35" s="98" t="s">
         <v>146</v>
       </c>
@@ -18407,7 +18474,7 @@
       </c>
       <c r="I36" s="200"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="430"/>
+      <c r="L36" s="445"/>
       <c r="M36" s="98" t="s">
         <v>147</v>
       </c>
@@ -18452,7 +18519,7 @@
       <c r="H37" s="200"/>
       <c r="I37" s="200"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="430"/>
+      <c r="L37" s="445"/>
       <c r="M37" s="98" t="s">
         <v>148</v>
       </c>
@@ -18581,10 +18648,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="433"/>
-      <c r="R39" s="433"/>
-      <c r="S39" s="433"/>
-      <c r="T39" s="433"/>
+      <c r="Q39" s="448"/>
+      <c r="R39" s="448"/>
+      <c r="S39" s="448"/>
+      <c r="T39" s="448"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="200"/>
@@ -18620,7 +18687,7 @@
       <c r="T41" s="74"/>
       <c r="U41" s="74"/>
       <c r="V41" s="74"/>
-      <c r="W41" s="417"/>
+      <c r="W41" s="416"/>
       <c r="X41" s="74"/>
       <c r="Y41" s="74"/>
       <c r="Z41" s="74"/>
@@ -18636,10 +18703,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="426"/>
-      <c r="R42" s="426"/>
-      <c r="S42" s="426"/>
-      <c r="T42" s="426"/>
+      <c r="Q42" s="438"/>
+      <c r="R42" s="438"/>
+      <c r="S42" s="438"/>
+      <c r="T42" s="438"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -18660,10 +18727,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="426"/>
-      <c r="R44" s="426"/>
-      <c r="S44" s="426"/>
-      <c r="T44" s="426"/>
+      <c r="Q44" s="438"/>
+      <c r="R44" s="438"/>
+      <c r="S44" s="438"/>
+      <c r="T44" s="438"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -18672,9 +18739,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="426"/>
-      <c r="R45" s="426"/>
-      <c r="S45" s="426"/>
+      <c r="Q45" s="438"/>
+      <c r="R45" s="438"/>
+      <c r="S45" s="438"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -18931,12 +18998,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
@@ -18945,25 +19006,31 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19003,46 +19070,46 @@
   <sheetData>
     <row r="1" spans="1:35" ht="32.25" x14ac:dyDescent="0.25">
       <c r="M1" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="148" t="s">
+      <c r="P1" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="148" t="s">
+      <c r="Q1" s="148" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="148" t="s">
+      <c r="R1" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" s="148" t="s">
+      <c r="S1" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="R1" s="148" t="s">
+      <c r="U1" s="148" t="s">
         <v>194</v>
-      </c>
-      <c r="S1" s="148" t="s">
-        <v>195</v>
-      </c>
-      <c r="U1" s="148" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" s="149" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="449" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="449"/>
+      <c r="F2" s="450" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="447" t="s">
+      <c r="G2" s="450"/>
+      <c r="H2" s="451" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="447"/>
-      <c r="F2" s="448" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="448"/>
-      <c r="H2" s="449" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="449"/>
+      <c r="I2" s="451"/>
       <c r="K2" s="60"/>
       <c r="M2" s="150">
         <v>11</v>
@@ -19069,7 +19136,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="154" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="155">
         <f>B4+B5+B6+B7</f>
@@ -19080,28 +19147,28 @@
         <v>14287</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="H3" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="F3" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="25" t="s">
+      <c r="J3" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="157" t="s">
+      <c r="K3" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>207</v>
       </c>
       <c r="M3" s="150">
         <v>10</v>
@@ -19128,7 +19195,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="154" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" s="155">
         <v>8000</v>
@@ -19194,7 +19261,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="154" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="155">
         <v>3000</v>
@@ -19260,7 +19327,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="154" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" s="155">
         <v>1200</v>
@@ -19326,7 +19393,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="154" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="155">
         <v>200</v>
@@ -19511,7 +19578,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="174" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" s="175">
         <v>10000</v>
@@ -19556,7 +19623,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" s="176">
         <f>E7+E6+E5+E4</f>
@@ -19598,7 +19665,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="177" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B13" s="178">
         <f>B11+B12</f>
@@ -19731,7 +19798,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="180" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B16" s="181">
         <v>500</v>
@@ -19980,7 +20047,7 @@
     </row>
     <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="182" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B18" s="183">
         <f>B16*$N$7</f>
@@ -20119,7 +20186,7 @@
     </row>
     <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="182" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B19" s="183">
         <f>B16*$O$7</f>
@@ -20245,7 +20312,7 @@
     </row>
     <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="182" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B20" s="183">
         <f>B16*$P$7</f>
@@ -20371,7 +20438,7 @@
     </row>
     <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="182" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="183">
         <f>B16*$Q$7</f>
@@ -20497,7 +20564,7 @@
     </row>
     <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="182" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B22" s="183">
         <f t="shared" ref="B22:AD22" si="7">MIN(B$18,$C$4)</f>
@@ -20623,7 +20690,7 @@
     </row>
     <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="182" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B23" s="183">
         <f t="shared" ref="B23:AD23" si="8">MIN(B$19,$C$5)</f>
@@ -20749,7 +20816,7 @@
     </row>
     <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="182" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B24" s="183">
         <f t="shared" ref="B24:AD24" si="9">MIN(B$20,$C$6)</f>
@@ -20875,7 +20942,7 @@
     </row>
     <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="182" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B25" s="183">
         <f t="shared" ref="B25:AD25" si="10">MIN(B$21,$C$7)</f>
@@ -21001,7 +21068,7 @@
     </row>
     <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="184" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" s="185">
         <f>IF(B22&gt;$B$4,(B22-$B$4)*$H$4,0)</f>
@@ -21132,7 +21199,7 @@
     </row>
     <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="184" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B27" s="185">
         <f>IF(B23&gt;$B$5,(B23-$B$5)*$H$5,0)</f>
@@ -21263,7 +21330,7 @@
     </row>
     <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="184" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B28" s="185">
         <f>IF(B24&gt;$B$6,(B24-$B$6)*$H$6,0)</f>
@@ -21394,7 +21461,7 @@
     </row>
     <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="184" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B29" s="185">
         <f>IF(B25&gt;$B$7,(B25-$B$7)*$H$7,0)</f>
@@ -21536,7 +21603,7 @@
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="187" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B30" s="188">
         <f>G4+G5+G6+G7</f>
@@ -21675,7 +21742,7 @@
     </row>
     <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="189" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B31" s="190">
         <f t="shared" ref="B31:AD31" si="12">B26+B27+B28+B29-B30</f>
@@ -21814,7 +21881,7 @@
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="192" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B32" s="190">
         <f>-B12-B11+B31</f>
@@ -22093,10 +22160,10 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="B32:AD32">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E67B8E-9E69-426A-8CF0-1A9FDCBF80F2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065DDCB1-0911-4B09-A9F5-789EBE9101D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall_of_Fame" sheetId="6" r:id="rId1"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="350">
   <si>
     <t>Nfin</t>
   </si>
@@ -1211,9 +1211,6 @@
     <t>Hab</t>
   </si>
   <si>
-    <t>Arsequell &gt; Aloy &gt; Lluch</t>
-  </si>
-  <si>
     <t>J-L. Maillochon</t>
   </si>
   <si>
@@ -1272,6 +1269,12 @@
   </si>
   <si>
     <t>¿pot?</t>
+  </si>
+  <si>
+    <t>Arsequell &gt; Lluch &gt; Aloy</t>
+  </si>
+  <si>
+    <t>23(27)</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1294,7 @@
     <numFmt numFmtId="173" formatCode="_-* #,##0&quot; €&quot;_-;\-* #,##0&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
     <numFmt numFmtId="174" formatCode="_-* #,##0\ [$€-C0A]_-;\-* #,##0\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="61" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1728,13 +1731,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2479,7 +2475,7 @@
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="489">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3337,9 +3333,6 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="59" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3394,10 +3387,10 @@
     <xf numFmtId="2" fontId="57" fillId="19" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="59" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="59" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="52" fillId="19" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,10 +3408,10 @@
     <xf numFmtId="2" fontId="52" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="11" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="59" fillId="11" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="60" fillId="11" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="59" fillId="11" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="56" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3430,13 +3423,13 @@
     <xf numFmtId="2" fontId="58" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="61" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="60" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
@@ -3488,6 +3481,55 @@
     <xf numFmtId="0" fontId="52" fillId="46" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="52" fillId="19" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="57" fillId="19" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="57" fillId="48" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="11" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="11" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="51" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="52" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3512,6 +3554,33 @@
     <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="26" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="27" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3542,9 +3611,6 @@
     <xf numFmtId="0" fontId="43" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3554,27 +3620,6 @@
     <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="44" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="27" fillId="45" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3584,58 +3629,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="31" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="52" fillId="19" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="57" fillId="19" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="57" fillId="48" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="11" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="11" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="51" borderId="25" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="51" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="52" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="51" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -4765,35 +4758,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="442" t="s">
+      <c r="A1" s="458" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="442"/>
-      <c r="C1" s="442"/>
-      <c r="E1" s="441" t="s">
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="E1" s="457" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="441"/>
-      <c r="G1" s="441"/>
-      <c r="H1" s="441"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="443">
+      <c r="A2" s="459">
         <v>43713</v>
       </c>
-      <c r="B2" s="443"/>
-      <c r="C2" s="443"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
       <c r="E2" s="62" t="s">
         <v>302</v>
       </c>
       <c r="F2" s="348" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2" s="302">
         <v>43695</v>
       </c>
       <c r="H2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -4837,38 +4830,38 @@
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="303"/>
-      <c r="B5" s="440" t="s">
+      <c r="B5" s="456" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="440"/>
+      <c r="C5" s="456"/>
       <c r="E5" s="303"/>
       <c r="F5" s="303"/>
-      <c r="G5" s="440" t="s">
+      <c r="G5" s="456" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="440"/>
-      <c r="I5" s="440"/>
+      <c r="H5" s="456"/>
+      <c r="I5" s="456"/>
       <c r="J5" s="304"/>
       <c r="K5" s="304"/>
-      <c r="L5" s="440" t="s">
+      <c r="L5" s="456" t="s">
         <v>277</v>
       </c>
-      <c r="M5" s="440"/>
+      <c r="M5" s="456"/>
       <c r="O5" s="230" t="s">
         <v>278</v>
       </c>
       <c r="P5" s="303"/>
       <c r="Q5" s="303"/>
-      <c r="R5" s="440" t="s">
+      <c r="R5" s="456" t="s">
         <v>279</v>
       </c>
-      <c r="S5" s="440"/>
+      <c r="S5" s="456"/>
       <c r="T5" s="303"/>
       <c r="U5" s="303"/>
-      <c r="V5" s="441" t="s">
+      <c r="V5" s="457" t="s">
         <v>298</v>
       </c>
-      <c r="W5" s="441"/>
+      <c r="W5" s="457"/>
       <c r="X5" s="330" t="s">
         <v>299</v>
       </c>
@@ -4951,7 +4944,7 @@
         <f>Y6+X6</f>
         <v>4</v>
       </c>
-      <c r="AA6" s="489">
+      <c r="AA6" s="455">
         <f>Z6/G7</f>
         <v>0.2857142857142857</v>
       </c>
@@ -5025,7 +5018,7 @@
         <f>Y7+X7</f>
         <v>3</v>
       </c>
-      <c r="AA7" s="489">
+      <c r="AA7" s="455">
         <f>Z7/G10</f>
         <v>0.23076923076923078</v>
       </c>
@@ -5099,7 +5092,7 @@
         <f>Y8+X8</f>
         <v>2</v>
       </c>
-      <c r="AA8" s="489">
+      <c r="AA8" s="455">
         <f>Z8/G17</f>
         <v>0.22222222222222221</v>
       </c>
@@ -5171,7 +5164,7 @@
         <f>Y9+X9</f>
         <v>2</v>
       </c>
-      <c r="AA9" s="489">
+      <c r="AA9" s="455">
         <f>Z9/G11</f>
         <v>0.15384615384615385</v>
       </c>
@@ -5239,7 +5232,7 @@
         <f>Y10+X10</f>
         <v>1</v>
       </c>
-      <c r="AA10" s="489">
+      <c r="AA10" s="455">
         <f>Z10/G9</f>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5307,7 +5300,7 @@
         <f t="shared" ref="Z11:Z13" si="0">Y11+X11</f>
         <v>1</v>
       </c>
-      <c r="AA11" s="489">
+      <c r="AA11" s="455">
         <f>Z11/G16</f>
         <v>0.1</v>
       </c>
@@ -5371,7 +5364,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="489">
+      <c r="AA12" s="455">
         <f>Z12/G10</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -5428,7 +5421,7 @@
       <c r="V13" s="334">
         <v>6</v>
       </c>
-      <c r="W13" s="488" t="s">
+      <c r="W13" s="454" t="s">
         <v>292</v>
       </c>
       <c r="X13" s="312">
@@ -5441,7 +5434,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA13" s="489">
+      <c r="AA13" s="455">
         <f>Z13/G13</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -6077,7 +6070,7 @@
     <row r="28" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="328"/>
       <c r="B28" s="383" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C28" s="383"/>
       <c r="K28" s="301">
@@ -6313,11 +6306,11 @@
   </sheetPr>
   <dimension ref="A1:BA30"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6371,13 +6364,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43713</v>
-      </c>
-      <c r="E1" s="444">
+        <v>43714</v>
+      </c>
+      <c r="E1" s="460">
         <v>43637</v>
       </c>
-      <c r="F1" s="444"/>
-      <c r="G1" s="444"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -6445,25 +6438,25 @@
       <c r="L2" s="7"/>
       <c r="M2" s="12">
         <f>AVERAGE(M4:M21)</f>
-        <v>5.3388888888888877</v>
+        <v>5.3333333333333321</v>
       </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="12">
         <f>AVERAGE(P4:P21)</f>
-        <v>5</v>
+        <v>5.2222222222222223</v>
       </c>
       <c r="Q2" s="13">
         <f>AVERAGE(Q4:Q21)</f>
-        <v>0.83423602237069294</v>
+        <v>0.85216176571381164</v>
       </c>
       <c r="R2" s="13">
         <f>AVERAGE(R4:R21)</f>
-        <v>0.90953767777346128</v>
+        <v>0.92603483282057986</v>
       </c>
       <c r="S2" s="14">
         <f>AVERAGE(S4:S21)</f>
-        <v>1857.2222222222222</v>
+        <v>1992.2222222222222</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14">
@@ -6480,11 +6473,11 @@
       <c r="AC2" s="15"/>
       <c r="AD2" s="46">
         <f>AVERAGE(AD4:AD21)</f>
-        <v>358.83333333333331</v>
+        <v>360.16666666666669</v>
       </c>
       <c r="AE2" s="46">
         <f>AVERAGE(AE4:AE21)</f>
-        <v>762.5</v>
+        <v>762.72222222222217</v>
       </c>
       <c r="AF2" s="15"/>
       <c r="AG2" s="15"/>
@@ -6604,10 +6597,10 @@
         <v>39</v>
       </c>
       <c r="AF3" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="AG3" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="AG3" s="21" t="s">
-        <v>339</v>
       </c>
       <c r="AH3" s="21" t="s">
         <v>25</v>
@@ -6679,7 +6672,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.044642857142858</v>
+        <v>17.035714285714285</v>
       </c>
       <c r="D4" s="196" t="s">
         <v>52</v>
@@ -6689,7 +6682,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>53</v>
@@ -6734,22 +6727,22 @@
         <v>0.84430867747355465</v>
       </c>
       <c r="S4" s="39">
-        <v>3960</v>
+        <v>4650</v>
       </c>
       <c r="T4" s="40">
         <f t="shared" ref="T4:T21" si="7">S4-AZ4</f>
-        <v>3110</v>
+        <v>690</v>
       </c>
       <c r="U4" s="41">
         <v>370</v>
       </c>
       <c r="V4" s="42">
         <f t="shared" ref="V4:V22" si="8">S4/U4</f>
-        <v>10.702702702702704</v>
+        <v>12.567567567567568</v>
       </c>
       <c r="W4" s="45">
-        <f>6+1/2</f>
-        <v>6.5</v>
+        <f>7+0/3</f>
+        <v>7</v>
       </c>
       <c r="X4" s="34">
         <v>6</v>
@@ -6770,19 +6763,18 @@
         <v>4</v>
       </c>
       <c r="AD4" s="46">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="AE4" s="46">
-        <f>1764</f>
-        <v>1764</v>
+        <v>1768</v>
       </c>
       <c r="AF4" s="42">
         <f>(0.972*(W4+O4+J4)+ 0.399*(X4+O4+J4))*Q4</f>
-        <v>8.7136468434385232</v>
+        <v>9.0810283112034913</v>
       </c>
       <c r="AG4" s="42">
         <f>(0.972*(W4+O4+J4)+ 0.399*(X4+O4+J4))*R4</f>
-        <v>9.7324063076367349</v>
+        <v>10.142740324888882</v>
       </c>
       <c r="AH4" s="43">
         <f t="shared" ref="AH4:AH21" si="9">(Y4+O4+J4)*(P4/7)^0.5</f>
@@ -6823,7 +6815,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="AR4" s="47">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AS4" s="47">
         <v>14</v>
@@ -6845,10 +6837,10 @@
       </c>
       <c r="AY4" s="48">
         <f t="shared" ref="AY4:AY21" si="17">SUM(AR4:AX4)</f>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="AZ4" s="39">
-        <v>850</v>
+        <v>3960</v>
       </c>
       <c r="BA4" s="49" t="s">
         <v>54</v>
@@ -6863,7 +6855,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.2321428571428577</v>
+        <v>8.2232142857142865</v>
       </c>
       <c r="D5" s="295" t="s">
         <v>60</v>
@@ -6873,7 +6865,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>58</v>
@@ -6918,22 +6910,22 @@
         <v>1</v>
       </c>
       <c r="S5" s="39">
-        <v>10560</v>
+        <v>11670</v>
       </c>
       <c r="T5" s="40">
         <f t="shared" si="7"/>
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="U5" s="39">
         <v>890</v>
       </c>
       <c r="V5" s="42">
         <f>S5/U5</f>
-        <v>11.865168539325843</v>
+        <v>13.112359550561798</v>
       </c>
       <c r="W5" s="45">
-        <f>8+1/3</f>
-        <v>8.3333333333333339</v>
+        <f>8+2/3</f>
+        <v>8.6666666666666661</v>
       </c>
       <c r="X5" s="34">
         <v>3</v>
@@ -6961,11 +6953,11 @@
       </c>
       <c r="AF5" s="42">
         <f t="shared" ref="AF5:AF21" si="18">(0.972*(W5+O5+J5)+ 0.399*(X5+O5+J5))*Q5</f>
-        <v>12.64693828190703</v>
+        <v>12.970938281907028</v>
       </c>
       <c r="AG5" s="42">
         <f t="shared" ref="AG5:AG21" si="19">(0.972*(W5+O5+J5)+ 0.399*(X5+O5+J5))*R5</f>
-        <v>12.64693828190703</v>
+        <v>12.970938281907028</v>
       </c>
       <c r="AH5" s="43">
         <f t="shared" si="9"/>
@@ -7006,7 +6998,7 @@
         <v>6.1499999999999999E-2</v>
       </c>
       <c r="AR5" s="47">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AS5" s="47">
         <v>3</v>
@@ -7028,10 +7020,10 @@
       </c>
       <c r="AY5" s="48">
         <f>SUM(AR5:AX5)</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ5" s="39">
-        <v>9470</v>
+        <v>10560</v>
       </c>
       <c r="BA5" s="49" t="s">
         <v>54</v>
@@ -7046,7 +7038,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.125</v>
+        <v>14.116071428571429</v>
       </c>
       <c r="D6" s="295" t="s">
         <v>57</v>
@@ -7056,7 +7048,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>58</v>
@@ -7090,33 +7082,33 @@
         <v>1.5</v>
       </c>
       <c r="P6" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R6" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S6" s="39">
-        <v>3180</v>
+        <v>3620</v>
       </c>
       <c r="T6" s="40">
         <f t="shared" si="7"/>
-        <v>-120</v>
+        <v>440</v>
       </c>
       <c r="U6" s="39">
         <v>990</v>
       </c>
       <c r="V6" s="42">
         <f t="shared" si="8"/>
-        <v>3.2121212121212119</v>
+        <v>3.6565656565656566</v>
       </c>
       <c r="W6" s="45">
-        <f>6+1/3*7/90</f>
-        <v>6.0259259259259261</v>
+        <f>6+1/3*38/90</f>
+        <v>6.1407407407407408</v>
       </c>
       <c r="X6" s="34">
         <v>2</v>
@@ -7144,39 +7136,39 @@
       </c>
       <c r="AF6" s="42">
         <f t="shared" si="18"/>
-        <v>8.09985497576087</v>
+        <v>8.9762680886239945</v>
       </c>
       <c r="AG6" s="42">
         <f t="shared" si="19"/>
-        <v>8.8655493598971642</v>
+        <v>9.6885498373419967</v>
       </c>
       <c r="AH6" s="43">
         <f t="shared" si="9"/>
-        <v>1.8053861266897495</v>
+        <v>1.9777014131897108</v>
       </c>
       <c r="AI6" s="43">
         <f t="shared" si="10"/>
-        <v>1.9777014131897108</v>
+        <v>2.1361616729595498</v>
       </c>
       <c r="AJ6" s="44">
         <f t="shared" si="11"/>
-        <v>4.9875707765219355</v>
+        <v>5.4636100429092433</v>
       </c>
       <c r="AK6" s="44">
         <f t="shared" si="12"/>
-        <v>5.4636100429092433</v>
+        <v>5.9013733275519753</v>
       </c>
       <c r="AL6" s="42">
         <f t="shared" si="13"/>
-        <v>0.88830836119078527</v>
+        <v>0.97309305488927955</v>
       </c>
       <c r="AM6" s="42">
         <f t="shared" si="14"/>
-        <v>-0.57392963554964316</v>
+        <v>-0.62870841562251678</v>
       </c>
       <c r="AN6" s="42">
         <f t="shared" si="15"/>
-        <v>4.1718180399295957</v>
+        <v>4.5699976925528549</v>
       </c>
       <c r="AO6" s="37">
         <v>3</v>
@@ -7214,7 +7206,7 @@
         <v>9.5</v>
       </c>
       <c r="AZ6" s="39">
-        <v>3300</v>
+        <v>3180</v>
       </c>
       <c r="BA6" s="49" t="s">
         <v>54</v>
@@ -7229,7 +7221,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3303571428571428</v>
+        <v>3.3214285714285716</v>
       </c>
       <c r="D7" s="195" t="s">
         <v>63</v>
@@ -7239,7 +7231,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="32">
@@ -7261,11 +7253,11 @@
         <v>65.599999999999994</v>
       </c>
       <c r="M7" s="36">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N7" s="37">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O7" s="38">
         <v>1.5</v>
@@ -7286,7 +7278,7 @@
       </c>
       <c r="T7" s="40">
         <f t="shared" si="7"/>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="U7" s="41">
         <v>310</v>
@@ -7394,7 +7386,7 @@
         <v>28.5</v>
       </c>
       <c r="AZ7" s="39">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="BA7" s="49" t="s">
         <v>54</v>
@@ -7409,7 +7401,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7857142857142865</v>
+        <v>8.7767857142857135</v>
       </c>
       <c r="D8" s="190" t="s">
         <v>65</v>
@@ -7419,7 +7411,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577-112</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="32">
@@ -7441,11 +7433,11 @@
         <v>54.4</v>
       </c>
       <c r="M8" s="36">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N8" s="37">
         <f t="shared" si="4"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O8" s="38">
         <v>1.5</v>
@@ -7462,18 +7454,18 @@
         <v>0.92504826128926143</v>
       </c>
       <c r="S8" s="39">
-        <v>1310</v>
+        <v>1320</v>
       </c>
       <c r="T8" s="40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U8" s="41">
         <v>390</v>
       </c>
       <c r="V8" s="42">
         <f t="shared" si="8"/>
-        <v>3.358974358974359</v>
+        <v>3.3846153846153846</v>
       </c>
       <c r="W8" s="45">
         <v>0</v>
@@ -7589,9 +7581,9 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7589285714285712</v>
-      </c>
-      <c r="D9" s="439" t="s">
+        <v>6.75</v>
+      </c>
+      <c r="D9" s="438" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="50">
@@ -7599,7 +7591,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574-112</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="32">
@@ -7621,11 +7613,11 @@
         <v>162</v>
       </c>
       <c r="M9" s="54">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="N9" s="37">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O9" s="38">
         <v>1.5</v>
@@ -7642,18 +7634,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S9" s="39">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="T9" s="40">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="U9" s="39">
         <v>300</v>
       </c>
       <c r="V9" s="42">
         <f t="shared" si="8"/>
-        <v>1.7666666666666666</v>
+        <v>1.8</v>
       </c>
       <c r="W9" s="45">
         <v>0</v>
@@ -7754,7 +7746,7 @@
         <v>20</v>
       </c>
       <c r="AZ9" s="39">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="BA9" s="49" t="s">
         <v>54</v>
@@ -7769,9 +7761,9 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5089285714285712</v>
-      </c>
-      <c r="D10" s="439" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="D10" s="438" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="50">
@@ -7779,7 +7771,7 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546-112</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="32">
@@ -7811,18 +7803,18 @@
         <v>1.5</v>
       </c>
       <c r="P10" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q10" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R10" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S10" s="39">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="T10" s="40">
         <f t="shared" si="7"/>
@@ -7833,7 +7825,7 @@
       </c>
       <c r="V10" s="42">
         <f t="shared" si="8"/>
-        <v>0.8214285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="W10" s="45">
         <v>0</v>
@@ -7864,39 +7856,39 @@
       </c>
       <c r="AF10" s="42">
         <f t="shared" si="18"/>
-        <v>4.6800464318973996</v>
+        <v>5.1267340018435412</v>
       </c>
       <c r="AG10" s="42">
         <f t="shared" si="19"/>
-        <v>5.1224599419077217</v>
+        <v>5.5335488411499885</v>
       </c>
       <c r="AH10" s="43">
         <f t="shared" si="9"/>
-        <v>5.5643979771299739</v>
+        <v>6.0954925820204036</v>
       </c>
       <c r="AI10" s="43">
         <f t="shared" si="10"/>
-        <v>6.0954925820204036</v>
+        <v>6.5838844755238073</v>
       </c>
       <c r="AJ10" s="44">
         <f t="shared" si="11"/>
-        <v>7.1729511465549516</v>
+        <v>7.8575742937013828</v>
       </c>
       <c r="AK10" s="44">
         <f t="shared" si="12"/>
-        <v>7.8575742937013828</v>
+        <v>8.4871502526589921</v>
       </c>
       <c r="AL10" s="42">
         <f t="shared" si="13"/>
-        <v>1.7697163959005464</v>
+        <v>1.9386271808429447</v>
       </c>
       <c r="AM10" s="42">
         <f t="shared" si="14"/>
-        <v>1.1919926223245341</v>
+        <v>1.3057624952537665</v>
       </c>
       <c r="AN10" s="42">
         <f t="shared" si="15"/>
-        <v>5.7334288280756764</v>
+        <v>6.280656601974913</v>
       </c>
       <c r="AO10" s="37">
         <v>1</v>
@@ -7934,7 +7926,7 @@
         <v>21.5</v>
       </c>
       <c r="AZ10" s="39">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="BA10" s="49" t="s">
         <v>54</v>
@@ -7949,7 +7941,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.196428571428571</v>
+        <v>10.1875</v>
       </c>
       <c r="D11" s="190" t="s">
         <v>72</v>
@@ -7959,7 +7951,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>73</v>
@@ -8004,18 +7996,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S11" s="39">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="T11" s="40">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="U11" s="41">
         <v>330</v>
       </c>
       <c r="V11" s="42">
         <f t="shared" si="8"/>
-        <v>3.0606060606060606</v>
+        <v>3.0909090909090908</v>
       </c>
       <c r="W11" s="45">
         <v>1</v>
@@ -8115,8 +8107,8 @@
         <f t="shared" si="17"/>
         <v>22</v>
       </c>
-      <c r="AZ11" s="389">
-        <v>930</v>
+      <c r="AZ11" s="39">
+        <v>1010</v>
       </c>
       <c r="BA11" s="49" t="s">
         <v>54</v>
@@ -8131,7 +8123,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.535714285714286</v>
+        <v>13.526785714285714</v>
       </c>
       <c r="D12" s="195" t="s">
         <v>75</v>
@@ -8141,7 +8133,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549-112</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="32">
@@ -8184,18 +8176,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S12" s="39">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="T12" s="40">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U12" s="39">
         <v>310</v>
       </c>
       <c r="V12" s="42">
         <f t="shared" si="8"/>
-        <v>2.6451612903225805</v>
+        <v>2.7096774193548385</v>
       </c>
       <c r="W12" s="45">
         <v>0</v>
@@ -8296,7 +8288,7 @@
         <v>20.5</v>
       </c>
       <c r="AZ12" s="39">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="BA12" s="49" t="s">
         <v>54</v>
@@ -8311,7 +8303,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.848214285714286</v>
+        <v>15.839285714285714</v>
       </c>
       <c r="D13" s="195" t="s">
         <v>77</v>
@@ -8321,7 +8313,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584-112</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="32">
@@ -8364,18 +8356,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S13" s="39">
-        <v>1090</v>
+        <v>1050</v>
       </c>
       <c r="T13" s="40">
         <f t="shared" si="7"/>
-        <v>30</v>
+        <v>-40</v>
       </c>
       <c r="U13" s="39">
         <v>330</v>
       </c>
       <c r="V13" s="42">
         <f t="shared" si="8"/>
-        <v>3.3030303030303032</v>
+        <v>3.1818181818181817</v>
       </c>
       <c r="W13" s="45">
         <v>0</v>
@@ -8476,7 +8468,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" s="39">
-        <v>1060</v>
+        <v>1090</v>
       </c>
       <c r="BA13" s="49" t="s">
         <v>54</v>
@@ -8491,7 +8483,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.294642857142858</v>
+        <v>12.285714285714286</v>
       </c>
       <c r="D14" s="195" t="s">
         <v>79</v>
@@ -8501,7 +8493,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="32">
@@ -8544,18 +8536,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S14" s="39">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="T14" s="40">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="U14" s="39">
         <v>430</v>
       </c>
       <c r="V14" s="42">
         <f t="shared" si="8"/>
-        <v>3.6279069767441858</v>
+        <v>3.7209302325581395</v>
       </c>
       <c r="W14" s="45">
         <v>0</v>
@@ -8656,7 +8648,7 @@
         <v>26</v>
       </c>
       <c r="AZ14" s="39">
-        <v>1500</v>
+        <v>1560</v>
       </c>
       <c r="BA14" s="49" t="s">
         <v>54</v>
@@ -8671,7 +8663,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.3125</v>
+        <v>11.303571428571429</v>
       </c>
       <c r="D15" s="195" t="s">
         <v>81</v>
@@ -8681,7 +8673,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="32">
@@ -8713,29 +8705,29 @@
         <v>1.5</v>
       </c>
       <c r="P15" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R15" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S15" s="39">
-        <v>1120</v>
+        <v>1190</v>
       </c>
       <c r="T15" s="40">
         <f t="shared" si="7"/>
-        <v>-110</v>
+        <v>70</v>
       </c>
       <c r="U15" s="39">
         <v>410</v>
       </c>
       <c r="V15" s="42">
         <f t="shared" si="8"/>
-        <v>2.7317073170731709</v>
+        <v>2.9024390243902438</v>
       </c>
       <c r="W15" s="45">
         <v>0</v>
@@ -8766,39 +8758,39 @@
       </c>
       <c r="AF15" s="42">
         <f t="shared" si="18"/>
-        <v>3.712593359031612</v>
+        <v>4.0669422591709798</v>
       </c>
       <c r="AG15" s="42">
         <f t="shared" si="19"/>
-        <v>4.0635517273109372</v>
+        <v>4.3896608673605781</v>
       </c>
       <c r="AH15" s="43">
         <f t="shared" si="9"/>
-        <v>7.040979296512293</v>
+        <v>7.7130063752532765</v>
       </c>
       <c r="AI15" s="43">
         <f t="shared" si="10"/>
-        <v>7.7130063752532765</v>
+        <v>8.3309990538638665</v>
       </c>
       <c r="AJ15" s="44">
         <f t="shared" si="11"/>
-        <v>5.2175879389442903</v>
+        <v>5.71558121985335</v>
       </c>
       <c r="AK15" s="44">
         <f t="shared" si="12"/>
-        <v>5.71558121985335</v>
+        <v>6.1735333044265417</v>
       </c>
       <c r="AL15" s="42">
         <f t="shared" si="13"/>
-        <v>1.9008572633046581</v>
+        <v>2.0822848034189967</v>
       </c>
       <c r="AM15" s="42">
         <f t="shared" si="14"/>
-        <v>3.9988540406060618</v>
+        <v>4.3805251244212391</v>
       </c>
       <c r="AN15" s="42">
         <f t="shared" si="15"/>
-        <v>5.0971245106367054</v>
+        <v>5.5836201457764094</v>
       </c>
       <c r="AO15" s="37">
         <v>2</v>
@@ -8836,7 +8828,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" s="39">
-        <v>1230</v>
+        <v>1120</v>
       </c>
       <c r="BA15" s="49" t="s">
         <v>54</v>
@@ -8851,7 +8843,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2767857142857135</v>
+        <v>8.2678571428571423</v>
       </c>
       <c r="D16" s="195" t="s">
         <v>83</v>
@@ -8861,7 +8853,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>84</v>
@@ -8906,18 +8898,18 @@
         <v>0.99928545900129484</v>
       </c>
       <c r="S16" s="39">
-        <v>1580</v>
+        <v>1630</v>
       </c>
       <c r="T16" s="40">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="U16" s="39">
         <v>330</v>
       </c>
       <c r="V16" s="42">
         <f t="shared" si="8"/>
-        <v>4.7878787878787881</v>
+        <v>4.9393939393939394</v>
       </c>
       <c r="W16" s="45">
         <v>0</v>
@@ -9018,7 +9010,7 @@
         <v>26.5</v>
       </c>
       <c r="AZ16" s="39">
-        <v>1560</v>
+        <v>1580</v>
       </c>
       <c r="BA16" s="49" t="s">
         <v>54</v>
@@ -9033,7 +9025,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.526785714285714</v>
+        <v>14.517857142857142</v>
       </c>
       <c r="D17" s="195" t="s">
         <v>87</v>
@@ -9043,7 +9035,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548-112</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="32">
@@ -9075,29 +9067,29 @@
         <v>1.5</v>
       </c>
       <c r="P17" s="37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="5"/>
-        <v>0.84515425472851657</v>
+        <v>0.92582009977255142</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" si="6"/>
-        <v>0.92504826128926143</v>
+        <v>0.99928545900129484</v>
       </c>
       <c r="S17" s="39">
-        <v>1610</v>
+        <v>1700</v>
       </c>
       <c r="T17" s="40">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="U17" s="39">
         <v>330</v>
       </c>
       <c r="V17" s="42">
         <f t="shared" si="8"/>
-        <v>4.8787878787878789</v>
+        <v>5.1515151515151514</v>
       </c>
       <c r="W17" s="45">
         <v>0</v>
@@ -9128,39 +9120,39 @@
       </c>
       <c r="AF17" s="42">
         <f t="shared" si="18"/>
-        <v>3.887999867106692</v>
+        <v>4.2590904615828462</v>
       </c>
       <c r="AG17" s="42">
         <f t="shared" si="19"/>
-        <v>4.2555397394470118</v>
+        <v>4.5970563480706952</v>
       </c>
       <c r="AH17" s="43">
         <f t="shared" si="9"/>
-        <v>6.077801672300482</v>
+        <v>6.6578981519231899</v>
       </c>
       <c r="AI17" s="43">
         <f t="shared" si="10"/>
-        <v>6.6578981519231899</v>
+        <v>7.1913519198371834</v>
       </c>
       <c r="AJ17" s="44">
         <f t="shared" si="11"/>
-        <v>5.0559694938921851</v>
+        <v>5.5385370837254557</v>
       </c>
       <c r="AK17" s="44">
         <f t="shared" si="12"/>
-        <v>5.5385370837254557</v>
+        <v>5.9823037813567908</v>
       </c>
       <c r="AL17" s="42">
         <f t="shared" si="13"/>
-        <v>1.962242781589487</v>
+        <v>2.1495292695564898</v>
       </c>
       <c r="AM17" s="42">
         <f t="shared" si="14"/>
-        <v>0.93211026834930477</v>
+        <v>1.0210756401142158</v>
       </c>
       <c r="AN17" s="42">
         <f t="shared" si="15"/>
-        <v>4.4720085883162994</v>
+        <v>4.8988399623553427</v>
       </c>
       <c r="AO17" s="37">
         <v>1</v>
@@ -9198,7 +9190,7 @@
         <v>26.5</v>
       </c>
       <c r="AZ17" s="39">
-        <v>1540</v>
+        <v>1610</v>
       </c>
       <c r="BA17" s="49" t="s">
         <v>54</v>
@@ -9213,7 +9205,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.6875</v>
+        <v>12.678571428571429</v>
       </c>
       <c r="D18" s="195" t="s">
         <v>89</v>
@@ -9223,7 +9215,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566-112</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="32">
@@ -9266,18 +9258,18 @@
         <v>0.75498344352707503</v>
       </c>
       <c r="S18" s="39">
-        <v>1950</v>
+        <v>1910</v>
       </c>
       <c r="T18" s="40">
         <f t="shared" si="7"/>
-        <v>-60</v>
+        <v>-40</v>
       </c>
       <c r="U18" s="39">
         <v>370</v>
       </c>
       <c r="V18" s="42">
         <f t="shared" si="8"/>
-        <v>5.2702702702702702</v>
+        <v>5.1621621621621623</v>
       </c>
       <c r="W18" s="45">
         <v>0</v>
@@ -9378,7 +9370,7 @@
         <v>29.5</v>
       </c>
       <c r="AZ18" s="39">
-        <v>2010</v>
+        <v>1950</v>
       </c>
       <c r="BA18" s="49" t="s">
         <v>54</v>
@@ -9393,7 +9385,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.276785714285715</v>
+        <v>17.267857142857142</v>
       </c>
       <c r="D19" s="195" t="s">
         <v>92</v>
@@ -9403,7 +9395,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -9450,7 +9442,7 @@
       </c>
       <c r="T19" s="40">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U19" s="39">
         <v>410</v>
@@ -9558,7 +9550,7 @@
         <v>25.5</v>
       </c>
       <c r="AZ19" s="39">
-        <v>1560</v>
+        <v>1570</v>
       </c>
       <c r="BA19" s="49" t="s">
         <v>54</v>
@@ -9573,7 +9565,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3214285714285716</v>
+        <v>2.3125</v>
       </c>
       <c r="D20" s="195" t="s">
         <v>94</v>
@@ -9583,7 +9575,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="32">
@@ -9605,11 +9597,11 @@
         <v>46.800000000000004</v>
       </c>
       <c r="M20" s="54">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="N20" s="37">
         <f t="shared" si="4"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="38">
         <v>1.5</v>
@@ -9626,7 +9618,7 @@
         <v>0.65356167049702141</v>
       </c>
       <c r="S20" s="39">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="T20" s="40">
         <f t="shared" si="7"/>
@@ -9637,7 +9629,7 @@
       </c>
       <c r="V20" s="42">
         <f t="shared" si="8"/>
-        <v>0.35483870967741937</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="W20" s="45">
         <v>0</v>
@@ -9738,7 +9730,7 @@
         <v>18</v>
       </c>
       <c r="AZ20" s="39">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA20" s="49" t="s">
         <v>54</v>
@@ -9753,7 +9745,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.375</v>
+        <v>9.3660714285714288</v>
       </c>
       <c r="D21" s="195" t="s">
         <v>96</v>
@@ -9763,7 +9755,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="32">
@@ -9806,7 +9798,7 @@
         <v>0.84430867747355465</v>
       </c>
       <c r="S21" s="39">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="T21" s="40">
         <f t="shared" si="7"/>
@@ -9817,7 +9809,7 @@
       </c>
       <c r="V21" s="42">
         <f t="shared" si="8"/>
-        <v>2.935483870967742</v>
+        <v>2.838709677419355</v>
       </c>
       <c r="W21" s="45">
         <v>0</v>
@@ -9918,7 +9910,7 @@
         <v>18</v>
       </c>
       <c r="AZ21" s="39">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="BA21" s="49" t="s">
         <v>54</v>
@@ -9938,11 +9930,11 @@
       <c r="R22" s="62"/>
       <c r="S22" s="63">
         <f>SUM(S4:S21)</f>
-        <v>33430</v>
+        <v>35860</v>
       </c>
       <c r="T22" s="63">
         <f t="shared" ref="T22:U22" si="20">SUM(T4:T21)</f>
-        <v>4200</v>
+        <v>2430</v>
       </c>
       <c r="U22" s="63">
         <f t="shared" si="20"/>
@@ -9950,7 +9942,7 @@
       </c>
       <c r="V22" s="64">
         <f t="shared" si="8"/>
-        <v>4.5175675675675677</v>
+        <v>4.845945945945946</v>
       </c>
       <c r="AC22" s="62"/>
       <c r="AD22" s="63"/>
@@ -10186,27 +10178,27 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ4:AQ21">
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="35" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="36" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N21">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="between">
       <formula>70</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U4:U21">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10220,7 +10212,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V21">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10234,7 +10226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S21">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10248,7 +10240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C21">
-    <cfRule type="colorScale" priority="91">
+    <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10260,7 +10252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH4:AI21">
-    <cfRule type="colorScale" priority="93">
+    <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10272,7 +10264,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL4:AL21">
-    <cfRule type="colorScale" priority="95">
+    <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10284,7 +10276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM4:AM21">
-    <cfRule type="colorScale" priority="97">
+    <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10296,7 +10288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AN21">
-    <cfRule type="colorScale" priority="99">
+    <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10308,7 +10300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AG21">
-    <cfRule type="colorScale" priority="101">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10320,7 +10312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AK21">
-    <cfRule type="colorScale" priority="103">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10332,10 +10324,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AC21">
-    <cfRule type="cellIs" dxfId="10" priority="105" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="106" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="106">
+    <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10345,7 +10337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I21">
-    <cfRule type="colorScale" priority="109">
+    <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10357,7 +10349,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR4:AX21">
-    <cfRule type="colorScale" priority="111">
+    <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10367,7 +10359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:T21">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10381,7 +10373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY4:AY21">
-    <cfRule type="colorScale" priority="115">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10393,7 +10385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R21">
-    <cfRule type="colorScale" priority="119">
+    <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10405,7 +10397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:L21">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -10417,7 +10409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD4:AD21 AD2">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10431,7 +10423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE4:AE21 AE2">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10453,7 +10445,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{99B1BAC6-7E54-4757-BD62-0854FCEAECD5}</x14:id>
+          <x14:id>{1616B97F-97CF-43BC-80F7-4A639465ECF8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10536,7 +10528,7 @@
           <xm:sqref>AE4:AE21 AE2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{99B1BAC6-7E54-4757-BD62-0854FCEAECD5}">
+          <x14:cfRule type="dataBar" id="{1616B97F-97CF-43BC-80F7-4A639465ECF8}">
             <x14:dataBar>
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -10559,11 +10551,11 @@
   </sheetPr>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10606,13 +10598,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="445" t="s">
+      <c r="A1" s="461" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="445"/>
-      <c r="C1" s="445"/>
-      <c r="D1" s="445"/>
-      <c r="E1" s="445"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -10641,11 +10633,11 @@
       <c r="AE1" s="107"/>
       <c r="AF1" s="344"/>
       <c r="AG1" s="107"/>
-      <c r="AH1" s="390"/>
+      <c r="AH1" s="389"/>
       <c r="AI1" s="290"/>
       <c r="AJ1" s="107"/>
       <c r="AK1" s="386"/>
-      <c r="AL1" s="390"/>
+      <c r="AL1" s="389"/>
       <c r="AM1" s="107"/>
       <c r="AN1" s="109"/>
     </row>
@@ -10717,46 +10709,46 @@
       <c r="G3" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="424" t="s">
+      <c r="H3" s="423" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="425" t="s">
+      <c r="I3" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="426" t="s">
+      <c r="J3" s="425" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="427" t="s">
+      <c r="K3" s="426" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="428" t="s">
+      <c r="L3" s="427" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="425" t="s">
+      <c r="M3" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="426" t="s">
+      <c r="N3" s="425" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="427" t="s">
+      <c r="O3" s="426" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="428" t="s">
+      <c r="P3" s="427" t="s">
         <v>156</v>
       </c>
-      <c r="Q3" s="425" t="s">
+      <c r="Q3" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="426" t="s">
+      <c r="R3" s="425" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="427" t="s">
+      <c r="S3" s="426" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="428" t="s">
+      <c r="T3" s="427" t="s">
         <v>158</v>
       </c>
-      <c r="U3" s="425" t="s">
+      <c r="U3" s="424" t="s">
         <v>39</v>
       </c>
       <c r="V3" s="111" t="s">
@@ -10796,7 +10788,7 @@
         <v>163</v>
       </c>
       <c r="AH3" s="111" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AI3" s="111" t="s">
         <v>266</v>
@@ -10805,10 +10797,10 @@
         <v>164</v>
       </c>
       <c r="AK3" s="111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AL3" s="111" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM3" s="111" t="s">
         <v>91</v>
@@ -10826,12 +10818,12 @@
       </c>
       <c r="C4" s="126">
         <f ca="1">6+$A$30-$A$32</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D4" s="130"/>
       <c r="E4" s="191">
         <f t="shared" ref="E4:E8" ca="1" si="0">F4-TODAY()</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="194">
         <v>43757</v>
@@ -10839,30 +10831,30 @@
       <c r="G4" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="473"/>
-      <c r="I4" s="474">
+      <c r="H4" s="439"/>
+      <c r="I4" s="440">
         <v>1.99</v>
       </c>
-      <c r="J4" s="475">
-        <v>5.2</v>
-      </c>
-      <c r="K4" s="476">
+      <c r="J4" s="441">
+        <v>5.4</v>
+      </c>
+      <c r="K4" s="442">
         <v>6.99</v>
       </c>
-      <c r="L4" s="477">
+      <c r="L4" s="443">
         <v>4</v>
       </c>
-      <c r="M4" s="478">
+      <c r="M4" s="444">
         <v>4.99</v>
       </c>
-      <c r="N4" s="479"/>
-      <c r="O4" s="480"/>
-      <c r="P4" s="481"/>
-      <c r="Q4" s="480"/>
-      <c r="R4" s="481"/>
-      <c r="S4" s="480"/>
-      <c r="T4" s="479"/>
-      <c r="U4" s="482"/>
+      <c r="N4" s="445"/>
+      <c r="O4" s="446"/>
+      <c r="P4" s="447"/>
+      <c r="Q4" s="446"/>
+      <c r="R4" s="447"/>
+      <c r="S4" s="446"/>
+      <c r="T4" s="445"/>
+      <c r="U4" s="448"/>
       <c r="V4" s="377" t="s">
         <v>324</v>
       </c>
@@ -10920,12 +10912,12 @@
       </c>
       <c r="C5" s="126">
         <f ca="1">84+$A$30-$A$32-112</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="132"/>
       <c r="E5" s="191">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="194">
         <v>43777</v>
@@ -10933,32 +10925,32 @@
       <c r="G5" s="372" t="s">
         <v>323</v>
       </c>
-      <c r="H5" s="399"/>
-      <c r="I5" s="400">
+      <c r="H5" s="398"/>
+      <c r="I5" s="399">
         <v>1.99</v>
       </c>
-      <c r="J5" s="401">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="K5" s="407">
-        <v>5.99</v>
-      </c>
-      <c r="L5" s="403"/>
-      <c r="M5" s="400">
+      <c r="J5" s="407">
+        <v>5</v>
+      </c>
+      <c r="K5" s="408">
+        <v>5.2</v>
+      </c>
+      <c r="L5" s="402"/>
+      <c r="M5" s="399">
         <v>4.99</v>
       </c>
-      <c r="N5" s="408">
+      <c r="N5" s="407">
         <v>3</v>
       </c>
-      <c r="O5" s="409">
+      <c r="O5" s="408">
         <v>3.99</v>
       </c>
-      <c r="P5" s="405"/>
-      <c r="Q5" s="404"/>
-      <c r="R5" s="405"/>
-      <c r="S5" s="404"/>
-      <c r="T5" s="403"/>
-      <c r="U5" s="406"/>
+      <c r="P5" s="404"/>
+      <c r="Q5" s="403"/>
+      <c r="R5" s="404"/>
+      <c r="S5" s="403"/>
+      <c r="T5" s="402"/>
+      <c r="U5" s="405"/>
       <c r="V5" s="377" t="s">
         <v>325</v>
       </c>
@@ -10974,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="299"/>
       <c r="AB5" s="299">
@@ -11012,14 +11004,14 @@
       </c>
       <c r="C6" s="126">
         <f ca="1">68+$A$30-$A$32-112</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="127" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="191">
         <f ca="1">F6-TODAY()</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="194">
         <v>43793</v>
@@ -11027,34 +11019,34 @@
       <c r="G6" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H6" s="399"/>
-      <c r="I6" s="406"/>
-      <c r="J6" s="410">
-        <v>4.7</v>
-      </c>
-      <c r="K6" s="407">
+      <c r="H6" s="398"/>
+      <c r="I6" s="405"/>
+      <c r="J6" s="409">
+        <v>5</v>
+      </c>
+      <c r="K6" s="406">
         <v>5.99</v>
       </c>
-      <c r="L6" s="403"/>
-      <c r="M6" s="400">
+      <c r="L6" s="402"/>
+      <c r="M6" s="399">
         <v>3.99</v>
       </c>
-      <c r="N6" s="411">
+      <c r="N6" s="410">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O6" s="412">
+      <c r="O6" s="411">
         <v>4.99</v>
       </c>
-      <c r="P6" s="413">
+      <c r="P6" s="412">
         <v>3</v>
       </c>
-      <c r="Q6" s="414">
+      <c r="Q6" s="413">
         <v>3.99</v>
       </c>
-      <c r="R6" s="405"/>
-      <c r="S6" s="404"/>
-      <c r="T6" s="403"/>
-      <c r="U6" s="406"/>
+      <c r="R6" s="404"/>
+      <c r="S6" s="403"/>
+      <c r="T6" s="402"/>
+      <c r="U6" s="405"/>
       <c r="V6" s="378" t="s">
         <v>174</v>
       </c>
@@ -11101,19 +11093,19 @@
     </row>
     <row r="7" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="373" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="131">
         <v>16</v>
       </c>
       <c r="C7" s="126">
         <f ca="1">-53+$A$30-$A$32</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="191">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="194">
         <v>43802</v>
@@ -11121,36 +11113,36 @@
       <c r="G7" s="372" t="s">
         <v>323</v>
       </c>
-      <c r="H7" s="399"/>
-      <c r="I7" s="406"/>
-      <c r="J7" s="410">
+      <c r="H7" s="398"/>
+      <c r="I7" s="405"/>
+      <c r="J7" s="409">
         <v>1</v>
       </c>
-      <c r="K7" s="400">
+      <c r="K7" s="399">
         <v>2.99</v>
       </c>
-      <c r="L7" s="415">
+      <c r="L7" s="414">
         <v>1</v>
       </c>
-      <c r="M7" s="416">
+      <c r="M7" s="415">
         <v>1.99</v>
       </c>
-      <c r="N7" s="403"/>
-      <c r="O7" s="402">
+      <c r="N7" s="402"/>
+      <c r="O7" s="401">
         <v>7</v>
       </c>
-      <c r="P7" s="403"/>
-      <c r="Q7" s="406"/>
-      <c r="R7" s="401">
+      <c r="P7" s="402"/>
+      <c r="Q7" s="405"/>
+      <c r="R7" s="400">
         <v>3</v>
       </c>
-      <c r="S7" s="407">
+      <c r="S7" s="406">
         <v>4.99</v>
       </c>
-      <c r="T7" s="403"/>
-      <c r="U7" s="406"/>
+      <c r="T7" s="402"/>
+      <c r="U7" s="405"/>
       <c r="V7" s="377" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W7" s="380">
         <f>COUNT(H7,J7,L7,N7,P7,R7,T7)</f>
@@ -11193,48 +11185,50 @@
     </row>
     <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="373" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" s="125">
         <v>17</v>
       </c>
       <c r="C8" s="126">
         <f ca="1">39+$A$30-$A$32-112</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="132"/>
       <c r="E8" s="191">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="194">
         <v>43800</v>
       </c>
       <c r="G8" s="372" t="s">
-        <v>331</v>
-      </c>
-      <c r="H8" s="399"/>
-      <c r="I8" s="400">
+        <v>330</v>
+      </c>
+      <c r="H8" s="398"/>
+      <c r="I8" s="399">
         <v>1.99</v>
       </c>
-      <c r="J8" s="401">
-        <v>5</v>
-      </c>
-      <c r="K8" s="402">
+      <c r="J8" s="400">
+        <v>5.2</v>
+      </c>
+      <c r="K8" s="401">
         <v>7</v>
       </c>
-      <c r="L8" s="403"/>
-      <c r="M8" s="406"/>
-      <c r="N8" s="403"/>
-      <c r="O8" s="406"/>
-      <c r="P8" s="403"/>
-      <c r="Q8" s="400">
+      <c r="L8" s="402"/>
+      <c r="M8" s="405"/>
+      <c r="N8" s="402"/>
+      <c r="O8" s="413">
+        <v>3.99</v>
+      </c>
+      <c r="P8" s="402"/>
+      <c r="Q8" s="399">
         <v>4.99</v>
       </c>
-      <c r="R8" s="403"/>
-      <c r="S8" s="406"/>
-      <c r="T8" s="403"/>
-      <c r="U8" s="406"/>
+      <c r="R8" s="402"/>
+      <c r="S8" s="405"/>
+      <c r="T8" s="402"/>
+      <c r="U8" s="405"/>
       <c r="V8" s="378" t="s">
         <v>174</v>
       </c>
@@ -11244,7 +11238,7 @@
       </c>
       <c r="X8" s="192">
         <f>COUNT(I8,K8,M8,O8,Q8,S8,U8)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y8" s="128">
         <v>0</v>
@@ -11280,32 +11274,32 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="446" t="s">
+      <c r="A9" s="462" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="446"/>
-      <c r="C9" s="446"/>
-      <c r="D9" s="446"/>
-      <c r="E9" s="446"/>
+      <c r="B9" s="462"/>
+      <c r="C9" s="462"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="394"/>
-      <c r="H9" s="446"/>
-      <c r="I9" s="446"/>
-      <c r="J9" s="446"/>
-      <c r="K9" s="446"/>
-      <c r="L9" s="446"/>
-      <c r="M9" s="446"/>
-      <c r="N9" s="446"/>
-      <c r="O9" s="446"/>
-      <c r="P9" s="446"/>
-      <c r="Q9" s="446"/>
-      <c r="R9" s="446"/>
-      <c r="S9" s="446"/>
-      <c r="T9" s="446"/>
-      <c r="U9" s="446"/>
-      <c r="V9" s="394"/>
-      <c r="W9" s="394"/>
-      <c r="X9" s="394"/>
+      <c r="G9" s="393"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="462"/>
+      <c r="L9" s="462"/>
+      <c r="M9" s="462"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="462"/>
+      <c r="P9" s="462"/>
+      <c r="Q9" s="462"/>
+      <c r="R9" s="462"/>
+      <c r="S9" s="462"/>
+      <c r="T9" s="462"/>
+      <c r="U9" s="462"/>
+      <c r="V9" s="393"/>
+      <c r="W9" s="393"/>
+      <c r="X9" s="393"/>
       <c r="Y9" s="114"/>
       <c r="Z9" s="114"/>
       <c r="AA9" s="114"/>
@@ -11315,11 +11309,11 @@
       <c r="AE9" s="114"/>
       <c r="AF9" s="345"/>
       <c r="AG9" s="114"/>
-      <c r="AH9" s="391"/>
+      <c r="AH9" s="390"/>
       <c r="AI9" s="291"/>
       <c r="AJ9" s="114"/>
       <c r="AK9" s="387"/>
-      <c r="AL9" s="391"/>
+      <c r="AL9" s="390"/>
       <c r="AM9" s="114"/>
       <c r="AN9" s="116"/>
     </row>
@@ -11333,22 +11327,22 @@
       <c r="E10" s="117"/>
       <c r="F10" s="117"/>
       <c r="G10" s="118"/>
-      <c r="H10" s="472" t="s">
+      <c r="H10" s="464" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="472"/>
-      <c r="J10" s="472"/>
-      <c r="K10" s="472"/>
-      <c r="L10" s="472"/>
-      <c r="M10" s="472"/>
-      <c r="N10" s="472"/>
-      <c r="O10" s="472"/>
-      <c r="P10" s="472"/>
-      <c r="Q10" s="472"/>
-      <c r="R10" s="472"/>
-      <c r="S10" s="472"/>
-      <c r="T10" s="472"/>
-      <c r="U10" s="472"/>
+      <c r="I10" s="464"/>
+      <c r="J10" s="464"/>
+      <c r="K10" s="464"/>
+      <c r="L10" s="464"/>
+      <c r="M10" s="464"/>
+      <c r="N10" s="464"/>
+      <c r="O10" s="464"/>
+      <c r="P10" s="464"/>
+      <c r="Q10" s="464"/>
+      <c r="R10" s="464"/>
+      <c r="S10" s="464"/>
+      <c r="T10" s="464"/>
+      <c r="U10" s="464"/>
       <c r="V10" s="118"/>
       <c r="W10" s="118"/>
       <c r="X10" s="118"/>
@@ -11392,46 +11386,46 @@
       <c r="G11" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="483" t="s">
+      <c r="H11" s="449" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="484" t="s">
+      <c r="I11" s="450" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="485" t="s">
+      <c r="J11" s="451" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="486" t="s">
+      <c r="K11" s="452" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="487" t="s">
+      <c r="L11" s="453" t="s">
         <v>155</v>
       </c>
-      <c r="M11" s="484" t="s">
+      <c r="M11" s="450" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="485" t="s">
+      <c r="N11" s="451" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="486" t="s">
+      <c r="O11" s="452" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="487" t="s">
+      <c r="P11" s="453" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="484" t="s">
+      <c r="Q11" s="450" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="485" t="s">
+      <c r="R11" s="451" t="s">
         <v>157</v>
       </c>
-      <c r="S11" s="486" t="s">
+      <c r="S11" s="452" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="487" t="s">
+      <c r="T11" s="453" t="s">
         <v>158</v>
       </c>
-      <c r="U11" s="484" t="s">
+      <c r="U11" s="450" t="s">
         <v>39</v>
       </c>
       <c r="V11" s="118" t="str">
@@ -11512,43 +11506,47 @@
       </c>
       <c r="C12" s="126">
         <f ca="1">40+$A$30-$A$32-112</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="127"/>
       <c r="E12" s="191">
         <f ca="1">F12-TODAY()</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="194">
         <v>43749</v>
       </c>
       <c r="G12" s="372"/>
-      <c r="H12" s="399"/>
-      <c r="I12" s="406"/>
-      <c r="J12" s="410">
+      <c r="H12" s="398"/>
+      <c r="I12" s="405"/>
+      <c r="J12" s="409">
         <v>4</v>
       </c>
-      <c r="K12" s="406"/>
-      <c r="L12" s="403"/>
-      <c r="M12" s="406"/>
-      <c r="N12" s="403"/>
-      <c r="O12" s="406"/>
-      <c r="P12" s="403"/>
-      <c r="Q12" s="406"/>
-      <c r="R12" s="403"/>
-      <c r="S12" s="406"/>
-      <c r="T12" s="403"/>
-      <c r="U12" s="406"/>
+      <c r="K12" s="405"/>
+      <c r="L12" s="402"/>
+      <c r="M12" s="405"/>
+      <c r="N12" s="414">
+        <v>1</v>
+      </c>
+      <c r="O12" s="415">
+        <v>1.99</v>
+      </c>
+      <c r="P12" s="402"/>
+      <c r="Q12" s="405"/>
+      <c r="R12" s="402"/>
+      <c r="S12" s="405"/>
+      <c r="T12" s="402"/>
+      <c r="U12" s="405"/>
       <c r="V12" s="378" t="s">
         <v>174</v>
       </c>
       <c r="W12" s="380">
         <f t="shared" ref="W12:X15" si="3">COUNT(H12,J12,L12,N12,P12,R12,T12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X12" s="192">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="128">
         <v>0</v>
@@ -11560,7 +11558,7 @@
         <v>2</v>
       </c>
       <c r="AB12" s="299">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AC12" s="300">
         <v>3</v>
@@ -11596,39 +11594,39 @@
       </c>
       <c r="C13" s="126">
         <f ca="1">67+$A$30-$A$32-112</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="191">
         <f ca="1">F13-TODAY()</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="194">
         <v>43749</v>
       </c>
       <c r="G13" s="372"/>
-      <c r="H13" s="399"/>
-      <c r="I13" s="406"/>
-      <c r="J13" s="417">
+      <c r="H13" s="398"/>
+      <c r="I13" s="405"/>
+      <c r="J13" s="416">
         <v>3</v>
       </c>
-      <c r="K13" s="418">
+      <c r="K13" s="417">
         <v>3.99</v>
       </c>
-      <c r="L13" s="403"/>
-      <c r="M13" s="400">
+      <c r="L13" s="402"/>
+      <c r="M13" s="399">
         <v>2.99</v>
       </c>
-      <c r="N13" s="403"/>
-      <c r="O13" s="400">
+      <c r="N13" s="402"/>
+      <c r="O13" s="399">
         <v>2.99</v>
       </c>
-      <c r="P13" s="403"/>
-      <c r="Q13" s="404"/>
-      <c r="R13" s="405"/>
-      <c r="S13" s="404"/>
-      <c r="T13" s="403"/>
-      <c r="U13" s="406"/>
+      <c r="P13" s="402"/>
+      <c r="Q13" s="403"/>
+      <c r="R13" s="404"/>
+      <c r="S13" s="403"/>
+      <c r="T13" s="402"/>
+      <c r="U13" s="405"/>
       <c r="V13" s="378" t="s">
         <v>174</v>
       </c>
@@ -11671,7 +11669,9 @@
       <c r="AK13" s="300">
         <v>6</v>
       </c>
-      <c r="AL13" s="300"/>
+      <c r="AL13" s="300">
+        <v>4</v>
+      </c>
       <c r="AM13" s="300">
         <v>6</v>
       </c>
@@ -11688,14 +11688,14 @@
       </c>
       <c r="C14" s="126">
         <f ca="1">58+$A$30-$A$32-112</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="132" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="191">
         <f ca="1">F14-TODAY()</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="194">
         <v>43778</v>
@@ -11703,30 +11703,32 @@
       <c r="G14" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H14" s="399"/>
-      <c r="I14" s="406"/>
-      <c r="J14" s="408">
+      <c r="H14" s="398"/>
+      <c r="I14" s="405"/>
+      <c r="J14" s="416">
         <v>4</v>
       </c>
-      <c r="K14" s="418">
+      <c r="K14" s="417">
         <v>4.99</v>
       </c>
-      <c r="L14" s="403"/>
-      <c r="M14" s="400">
+      <c r="L14" s="402"/>
+      <c r="M14" s="399">
         <v>3.99</v>
       </c>
-      <c r="N14" s="403"/>
-      <c r="O14" s="400">
+      <c r="N14" s="402"/>
+      <c r="O14" s="399">
         <v>3.99</v>
       </c>
-      <c r="P14" s="403"/>
-      <c r="Q14" s="404"/>
-      <c r="R14" s="401">
+      <c r="P14" s="402"/>
+      <c r="Q14" s="399">
+        <v>3.99</v>
+      </c>
+      <c r="R14" s="400">
         <v>3</v>
       </c>
-      <c r="S14" s="404"/>
-      <c r="T14" s="403"/>
-      <c r="U14" s="406"/>
+      <c r="S14" s="403"/>
+      <c r="T14" s="402"/>
+      <c r="U14" s="405"/>
       <c r="V14" s="379" t="s">
         <v>326</v>
       </c>
@@ -11736,7 +11738,7 @@
       </c>
       <c r="X14" s="192">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y14" s="128">
         <v>0</v>
@@ -11766,7 +11768,9 @@
       </c>
       <c r="AK14" s="300"/>
       <c r="AL14" s="300"/>
-      <c r="AM14" s="300"/>
+      <c r="AM14" s="300">
+        <v>5</v>
+      </c>
       <c r="AN14" s="193" t="s">
         <v>228</v>
       </c>
@@ -11780,12 +11784,12 @@
       </c>
       <c r="C15" s="126">
         <f ca="1">67+$A$30-$A$32+14-112</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="127"/>
       <c r="E15" s="191">
         <f t="shared" ref="E15" ca="1" si="4">F15-TODAY()</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="194">
         <v>43780</v>
@@ -11793,28 +11797,28 @@
       <c r="G15" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H15" s="399"/>
-      <c r="I15" s="406"/>
-      <c r="J15" s="403"/>
-      <c r="K15" s="406"/>
-      <c r="L15" s="411">
+      <c r="H15" s="398"/>
+      <c r="I15" s="405"/>
+      <c r="J15" s="402"/>
+      <c r="K15" s="405"/>
+      <c r="L15" s="410">
         <v>3</v>
       </c>
-      <c r="M15" s="412">
+      <c r="M15" s="411">
         <v>3.99</v>
       </c>
-      <c r="N15" s="419"/>
-      <c r="O15" s="407">
+      <c r="N15" s="418"/>
+      <c r="O15" s="406">
         <v>3.99</v>
       </c>
-      <c r="P15" s="403"/>
-      <c r="Q15" s="406"/>
-      <c r="R15" s="403"/>
-      <c r="S15" s="407">
+      <c r="P15" s="402"/>
+      <c r="Q15" s="405"/>
+      <c r="R15" s="402"/>
+      <c r="S15" s="406">
         <v>4.99</v>
       </c>
-      <c r="T15" s="403"/>
-      <c r="U15" s="406"/>
+      <c r="T15" s="402"/>
+      <c r="U15" s="405"/>
       <c r="V15" s="377" t="s">
         <v>176</v>
       </c>
@@ -11870,43 +11874,43 @@
       </c>
       <c r="C16" s="126">
         <f ca="1">3+$A$30-$A$32</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="191">
         <f ca="1">F16-TODAY()</f>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="194">
         <v>43858</v>
       </c>
       <c r="G16" s="372"/>
-      <c r="H16" s="420"/>
-      <c r="I16" s="421"/>
-      <c r="J16" s="415">
+      <c r="H16" s="419"/>
+      <c r="I16" s="420"/>
+      <c r="J16" s="414">
         <v>1</v>
       </c>
-      <c r="K16" s="416">
+      <c r="K16" s="415">
         <v>1.99</v>
       </c>
-      <c r="L16" s="422"/>
-      <c r="M16" s="400">
+      <c r="L16" s="421"/>
+      <c r="M16" s="399">
         <v>2.99</v>
       </c>
-      <c r="N16" s="417">
+      <c r="N16" s="416">
         <v>3</v>
       </c>
-      <c r="O16" s="418">
+      <c r="O16" s="417">
         <v>3.99</v>
       </c>
-      <c r="P16" s="422"/>
-      <c r="Q16" s="407">
+      <c r="P16" s="421"/>
+      <c r="Q16" s="406">
         <v>5.99</v>
       </c>
-      <c r="R16" s="422"/>
-      <c r="S16" s="421"/>
-      <c r="T16" s="422"/>
-      <c r="U16" s="421"/>
+      <c r="R16" s="421"/>
+      <c r="S16" s="420"/>
+      <c r="T16" s="421"/>
+      <c r="U16" s="420"/>
       <c r="V16" s="379" t="s">
         <v>171</v>
       </c>
@@ -11919,7 +11923,7 @@
         <v>4</v>
       </c>
       <c r="Y16" s="128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z16" s="192">
         <v>2</v>
@@ -11957,21 +11961,21 @@
     </row>
     <row r="17" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="373" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B17" s="131">
         <v>15</v>
       </c>
       <c r="C17" s="126">
         <f ca="1">2+$A$30-$A$32</f>
-        <v>78</v>
-      </c>
-      <c r="D17" s="393" t="s">
-        <v>348</v>
+        <v>79</v>
+      </c>
+      <c r="D17" s="392" t="s">
+        <v>347</v>
       </c>
       <c r="E17" s="191">
         <f ca="1">F17-TODAY()</f>
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="194">
         <v>43859</v>
@@ -11979,26 +11983,26 @@
       <c r="G17" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H17" s="399"/>
-      <c r="I17" s="406"/>
-      <c r="J17" s="403"/>
-      <c r="K17" s="406"/>
-      <c r="L17" s="403"/>
-      <c r="M17" s="406"/>
-      <c r="N17" s="401">
+      <c r="H17" s="398"/>
+      <c r="I17" s="405"/>
+      <c r="J17" s="402"/>
+      <c r="K17" s="405"/>
+      <c r="L17" s="402"/>
+      <c r="M17" s="405"/>
+      <c r="N17" s="400">
         <v>2</v>
       </c>
-      <c r="O17" s="400">
+      <c r="O17" s="399">
         <v>3.99</v>
       </c>
-      <c r="P17" s="403"/>
-      <c r="Q17" s="406"/>
-      <c r="R17" s="403"/>
-      <c r="S17" s="407">
+      <c r="P17" s="402"/>
+      <c r="Q17" s="405"/>
+      <c r="R17" s="402"/>
+      <c r="S17" s="406">
         <v>4.99</v>
       </c>
-      <c r="T17" s="403"/>
-      <c r="U17" s="406"/>
+      <c r="T17" s="402"/>
+      <c r="U17" s="405"/>
       <c r="V17" s="379" t="s">
         <v>171</v>
       </c>
@@ -12030,7 +12034,9 @@
         <v>3.5</v>
       </c>
       <c r="AJ17" s="300"/>
-      <c r="AK17" s="300"/>
+      <c r="AK17" s="300">
+        <v>4.5</v>
+      </c>
       <c r="AL17" s="300"/>
       <c r="AM17" s="300">
         <v>7</v>
@@ -12041,19 +12047,19 @@
     </row>
     <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="342" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" s="125">
         <v>15</v>
       </c>
       <c r="C18" s="126">
         <f ca="1">-3+$A$30-$A$32</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="127"/>
       <c r="E18" s="191">
         <f ca="1">F18-TODAY()</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" s="194">
         <v>43864</v>
@@ -12061,28 +12067,28 @@
       <c r="G18" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H18" s="399"/>
-      <c r="I18" s="406"/>
-      <c r="J18" s="403"/>
-      <c r="K18" s="406"/>
-      <c r="L18" s="403"/>
-      <c r="M18" s="406"/>
-      <c r="N18" s="401">
-        <v>2</v>
-      </c>
-      <c r="O18" s="400">
+      <c r="H18" s="398"/>
+      <c r="I18" s="405"/>
+      <c r="J18" s="402"/>
+      <c r="K18" s="405"/>
+      <c r="L18" s="402"/>
+      <c r="M18" s="405"/>
+      <c r="N18" s="400">
+        <v>3</v>
+      </c>
+      <c r="O18" s="399">
         <v>3.99</v>
       </c>
-      <c r="P18" s="403"/>
-      <c r="Q18" s="402">
+      <c r="P18" s="402"/>
+      <c r="Q18" s="401">
         <v>6.99</v>
       </c>
-      <c r="R18" s="403"/>
-      <c r="S18" s="406"/>
-      <c r="T18" s="403"/>
-      <c r="U18" s="406"/>
+      <c r="R18" s="402"/>
+      <c r="S18" s="405"/>
+      <c r="T18" s="402"/>
+      <c r="U18" s="405"/>
       <c r="V18" s="377" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W18" s="380">
         <f>COUNT(H18,J18,L18,N18,P18,R18,T18)</f>
@@ -12118,29 +12124,29 @@
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="447" t="s">
+      <c r="A19" s="463" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="447"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="447"/>
-      <c r="E19" s="447"/>
+      <c r="B19" s="463"/>
+      <c r="C19" s="463"/>
+      <c r="D19" s="463"/>
+      <c r="E19" s="463"/>
       <c r="F19" s="121"/>
       <c r="G19" s="120"/>
-      <c r="H19" s="395"/>
-      <c r="I19" s="396"/>
+      <c r="H19" s="394"/>
+      <c r="I19" s="395"/>
       <c r="J19" s="121"/>
-      <c r="K19" s="396"/>
+      <c r="K19" s="395"/>
       <c r="L19" s="121"/>
-      <c r="M19" s="396"/>
+      <c r="M19" s="395"/>
       <c r="N19" s="121"/>
-      <c r="O19" s="396"/>
+      <c r="O19" s="395"/>
       <c r="P19" s="121"/>
-      <c r="Q19" s="396"/>
+      <c r="Q19" s="395"/>
       <c r="R19" s="121"/>
-      <c r="S19" s="396"/>
+      <c r="S19" s="395"/>
       <c r="T19" s="121"/>
-      <c r="U19" s="396"/>
+      <c r="U19" s="395"/>
       <c r="V19" s="120"/>
       <c r="W19" s="375"/>
       <c r="X19" s="120"/>
@@ -12153,11 +12159,11 @@
       <c r="AE19" s="120"/>
       <c r="AF19" s="346"/>
       <c r="AG19" s="120"/>
-      <c r="AH19" s="392"/>
+      <c r="AH19" s="391"/>
       <c r="AI19" s="292"/>
       <c r="AJ19" s="120"/>
       <c r="AK19" s="388"/>
-      <c r="AL19" s="392"/>
+      <c r="AL19" s="391"/>
       <c r="AM19" s="120"/>
       <c r="AN19" s="122"/>
     </row>
@@ -12171,22 +12177,22 @@
       <c r="E20" s="123"/>
       <c r="F20" s="123"/>
       <c r="G20" s="124"/>
-      <c r="H20" s="397" t="s">
+      <c r="H20" s="396" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="398"/>
+      <c r="I20" s="397"/>
       <c r="J20" s="123"/>
-      <c r="K20" s="398"/>
+      <c r="K20" s="397"/>
       <c r="L20" s="123"/>
-      <c r="M20" s="398"/>
+      <c r="M20" s="397"/>
       <c r="N20" s="123"/>
-      <c r="O20" s="398"/>
+      <c r="O20" s="397"/>
       <c r="P20" s="123"/>
-      <c r="Q20" s="398"/>
+      <c r="Q20" s="397"/>
       <c r="R20" s="123"/>
-      <c r="S20" s="398"/>
+      <c r="S20" s="397"/>
       <c r="T20" s="123"/>
-      <c r="U20" s="398"/>
+      <c r="U20" s="397"/>
       <c r="V20" s="124"/>
       <c r="W20" s="124"/>
       <c r="X20" s="124"/>
@@ -12230,46 +12236,46 @@
       <c r="G21" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="429" t="s">
+      <c r="H21" s="428" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="430" t="s">
+      <c r="I21" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="431" t="s">
+      <c r="J21" s="430" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="430" t="s">
+      <c r="K21" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="431" t="s">
+      <c r="L21" s="430" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="430" t="s">
+      <c r="M21" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="431" t="s">
+      <c r="N21" s="430" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="430" t="s">
+      <c r="O21" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="431" t="s">
+      <c r="P21" s="430" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="430" t="s">
+      <c r="Q21" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="431" t="s">
+      <c r="R21" s="430" t="s">
         <v>157</v>
       </c>
-      <c r="S21" s="430" t="s">
+      <c r="S21" s="429" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="431" t="s">
+      <c r="T21" s="430" t="s">
         <v>158</v>
       </c>
-      <c r="U21" s="430" t="s">
+      <c r="U21" s="429" t="s">
         <v>39</v>
       </c>
       <c r="V21" s="124" t="str">
@@ -12350,43 +12356,43 @@
       </c>
       <c r="C22" s="126">
         <f ca="1">14+$A$30-$A$32</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="127" t="s">
         <v>271</v>
       </c>
       <c r="E22" s="191">
         <f t="shared" ref="E22" ca="1" si="8">F22-TODAY()</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="194">
         <v>43847</v>
       </c>
       <c r="G22" s="372"/>
-      <c r="H22" s="399"/>
-      <c r="I22" s="400">
+      <c r="H22" s="398"/>
+      <c r="I22" s="399">
         <v>0.99</v>
       </c>
-      <c r="J22" s="415">
+      <c r="J22" s="414">
         <v>1</v>
       </c>
-      <c r="K22" s="416">
+      <c r="K22" s="415">
         <v>1.99</v>
       </c>
-      <c r="L22" s="403"/>
-      <c r="M22" s="400">
+      <c r="L22" s="402"/>
+      <c r="M22" s="399">
         <v>2.99</v>
       </c>
-      <c r="N22" s="403"/>
-      <c r="O22" s="400">
+      <c r="N22" s="402"/>
+      <c r="O22" s="399">
         <v>1.99</v>
       </c>
-      <c r="P22" s="403"/>
-      <c r="Q22" s="406"/>
-      <c r="R22" s="403"/>
-      <c r="S22" s="406"/>
-      <c r="T22" s="403"/>
-      <c r="U22" s="406"/>
+      <c r="P22" s="402"/>
+      <c r="Q22" s="405"/>
+      <c r="R22" s="402"/>
+      <c r="S22" s="405"/>
+      <c r="T22" s="402"/>
+      <c r="U22" s="405"/>
       <c r="V22" s="379" t="s">
         <v>173</v>
       </c>
@@ -12398,10 +12404,10 @@
         <f t="shared" ref="X22" si="10">COUNT(I22,K22,M22,O22,Q22,S22,U22)</f>
         <v>4</v>
       </c>
-      <c r="Y22" s="432">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="433">
+      <c r="Y22" s="431">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="432">
         <v>0</v>
       </c>
       <c r="AA22" s="299">
@@ -12431,7 +12437,7 @@
       <c r="AM22" s="300">
         <v>2.5</v>
       </c>
-      <c r="AN22" s="434" t="s">
+      <c r="AN22" s="433" t="s">
         <v>304</v>
       </c>
     </row>
@@ -12444,45 +12450,45 @@
       </c>
       <c r="C23" s="126">
         <f ca="1">51+$A$30-$A$32-112</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>271</v>
       </c>
       <c r="E23" s="191">
         <f t="shared" ref="E23:E26" ca="1" si="11">F23-TODAY()</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="194">
         <v>43810</v>
       </c>
       <c r="G23" s="372"/>
-      <c r="H23" s="399"/>
-      <c r="I23" s="406"/>
-      <c r="J23" s="415">
+      <c r="H23" s="398"/>
+      <c r="I23" s="405"/>
+      <c r="J23" s="414">
         <v>2</v>
       </c>
-      <c r="K23" s="416">
+      <c r="K23" s="415">
         <v>2.99</v>
       </c>
-      <c r="L23" s="417">
+      <c r="L23" s="416">
         <v>3</v>
       </c>
-      <c r="M23" s="418">
+      <c r="M23" s="417">
         <v>3.99</v>
       </c>
-      <c r="N23" s="415">
+      <c r="N23" s="414">
         <v>1</v>
       </c>
-      <c r="O23" s="416">
+      <c r="O23" s="415">
         <v>1.99</v>
       </c>
-      <c r="P23" s="403"/>
-      <c r="Q23" s="406"/>
-      <c r="R23" s="403"/>
-      <c r="S23" s="406"/>
-      <c r="T23" s="403"/>
-      <c r="U23" s="406"/>
+      <c r="P23" s="402"/>
+      <c r="Q23" s="405"/>
+      <c r="R23" s="402"/>
+      <c r="S23" s="405"/>
+      <c r="T23" s="402"/>
+      <c r="U23" s="405"/>
       <c r="V23" s="378" t="s">
         <v>174</v>
       </c>
@@ -12494,7 +12500,7 @@
         <f>COUNT(I23,K23,M23,O23,Q23,S23,U23)</f>
         <v>3</v>
       </c>
-      <c r="Y23" s="435">
+      <c r="Y23" s="434">
         <v>0</v>
       </c>
       <c r="Z23" s="192">
@@ -12540,39 +12546,39 @@
       </c>
       <c r="C24" s="126">
         <f ca="1">71+$A$30-$A$32-112</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="132"/>
       <c r="E24" s="191">
         <f t="shared" ca="1" si="11"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="194">
         <v>43749</v>
       </c>
       <c r="G24" s="372"/>
-      <c r="H24" s="399"/>
-      <c r="I24" s="406"/>
-      <c r="J24" s="410">
+      <c r="H24" s="398"/>
+      <c r="I24" s="405"/>
+      <c r="J24" s="409">
         <v>3</v>
       </c>
-      <c r="K24" s="406"/>
-      <c r="L24" s="415">
+      <c r="K24" s="405"/>
+      <c r="L24" s="414">
         <v>2</v>
       </c>
-      <c r="M24" s="416">
+      <c r="M24" s="415">
         <v>2.99</v>
       </c>
-      <c r="N24" s="403"/>
-      <c r="O24" s="400">
+      <c r="N24" s="402"/>
+      <c r="O24" s="399">
         <v>3.99</v>
       </c>
-      <c r="P24" s="403"/>
-      <c r="Q24" s="404"/>
-      <c r="R24" s="405"/>
-      <c r="S24" s="404"/>
-      <c r="T24" s="405"/>
-      <c r="U24" s="406"/>
+      <c r="P24" s="402"/>
+      <c r="Q24" s="403"/>
+      <c r="R24" s="404"/>
+      <c r="S24" s="403"/>
+      <c r="T24" s="404"/>
+      <c r="U24" s="405"/>
       <c r="V24" s="378" t="s">
         <v>174</v>
       </c>
@@ -12584,7 +12590,7 @@
         <f>COUNT(I24,K24,M24,O24,Q24,S24,U24)</f>
         <v>2</v>
       </c>
-      <c r="Y24" s="435">
+      <c r="Y24" s="434">
         <v>0</v>
       </c>
       <c r="Z24" s="192">
@@ -12619,19 +12625,19 @@
     </row>
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="373" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B25" s="131">
         <v>16</v>
       </c>
       <c r="C25" s="126">
         <f ca="1">-30+$A$30-$A$32</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="127"/>
       <c r="E25" s="191">
         <f ca="1">F25-TODAY()</f>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="194">
         <v>43813</v>
@@ -12639,24 +12645,24 @@
       <c r="G25" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H25" s="399"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="403"/>
-      <c r="K25" s="406"/>
-      <c r="L25" s="403"/>
-      <c r="M25" s="406"/>
-      <c r="N25" s="403"/>
-      <c r="O25" s="406"/>
-      <c r="P25" s="403"/>
-      <c r="Q25" s="406"/>
-      <c r="R25" s="410">
+      <c r="H25" s="398"/>
+      <c r="I25" s="405"/>
+      <c r="J25" s="402"/>
+      <c r="K25" s="405"/>
+      <c r="L25" s="402"/>
+      <c r="M25" s="405"/>
+      <c r="N25" s="402"/>
+      <c r="O25" s="405"/>
+      <c r="P25" s="402"/>
+      <c r="Q25" s="405"/>
+      <c r="R25" s="409">
         <v>2</v>
       </c>
-      <c r="S25" s="400">
+      <c r="S25" s="399">
         <v>3.99</v>
       </c>
-      <c r="T25" s="403"/>
-      <c r="U25" s="406"/>
+      <c r="T25" s="402"/>
+      <c r="U25" s="405"/>
       <c r="V25" s="377" t="s">
         <v>176</v>
       </c>
@@ -12668,7 +12674,7 @@
         <f>COUNT(I25,K25,M25,O25,Q25,S25,U25)</f>
         <v>1</v>
       </c>
-      <c r="Y25" s="435">
+      <c r="Y25" s="434">
         <v>0</v>
       </c>
       <c r="Z25" s="192">
@@ -12680,7 +12686,9 @@
       <c r="AD25" s="300"/>
       <c r="AE25" s="300"/>
       <c r="AF25" s="300"/>
-      <c r="AG25" s="300"/>
+      <c r="AG25" s="300">
+        <v>3.5</v>
+      </c>
       <c r="AH25" s="300"/>
       <c r="AI25" s="300"/>
       <c r="AJ25" s="300">
@@ -12702,37 +12710,37 @@
       </c>
       <c r="C26" s="126">
         <f ca="1">-1+$A$30-$A$32</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="130"/>
       <c r="E26" s="191">
         <f t="shared" ca="1" si="11"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="194">
         <v>43750</v>
       </c>
       <c r="G26" s="372"/>
-      <c r="H26" s="399"/>
-      <c r="I26" s="406"/>
-      <c r="J26" s="413">
+      <c r="H26" s="398"/>
+      <c r="I26" s="405"/>
+      <c r="J26" s="412">
         <v>4</v>
       </c>
-      <c r="K26" s="412">
+      <c r="K26" s="411">
         <v>4.99</v>
       </c>
-      <c r="L26" s="403"/>
-      <c r="M26" s="406"/>
-      <c r="N26" s="410">
-        <v>0</v>
-      </c>
-      <c r="O26" s="406"/>
-      <c r="P26" s="403"/>
-      <c r="Q26" s="406"/>
-      <c r="R26" s="403"/>
-      <c r="S26" s="406"/>
-      <c r="T26" s="403"/>
-      <c r="U26" s="406"/>
+      <c r="L26" s="402"/>
+      <c r="M26" s="405"/>
+      <c r="N26" s="409">
+        <v>0</v>
+      </c>
+      <c r="O26" s="405"/>
+      <c r="P26" s="402"/>
+      <c r="Q26" s="405"/>
+      <c r="R26" s="402"/>
+      <c r="S26" s="405"/>
+      <c r="T26" s="402"/>
+      <c r="U26" s="405"/>
       <c r="V26" s="377" t="s">
         <v>178</v>
       </c>
@@ -12744,7 +12752,7 @@
         <f>COUNT(I26,K26,M26,O26,Q26,S26,U26)</f>
         <v>1</v>
       </c>
-      <c r="Y26" s="435">
+      <c r="Y26" s="434">
         <v>0</v>
       </c>
       <c r="Z26" s="192">
@@ -12790,7 +12798,7 @@
       </c>
       <c r="C27" s="126">
         <f ca="1">22+$A$30-$A$32</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="191">
@@ -12799,23 +12807,23 @@
       </c>
       <c r="F27" s="194">
         <f ca="1">TODAY()</f>
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="G27" s="372"/>
-      <c r="H27" s="399"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="403"/>
-      <c r="K27" s="406"/>
-      <c r="L27" s="403"/>
-      <c r="M27" s="406"/>
-      <c r="N27" s="403"/>
-      <c r="O27" s="406"/>
-      <c r="P27" s="403"/>
-      <c r="Q27" s="406"/>
-      <c r="R27" s="403"/>
-      <c r="S27" s="406"/>
-      <c r="T27" s="403"/>
-      <c r="U27" s="406"/>
+      <c r="H27" s="398"/>
+      <c r="I27" s="405"/>
+      <c r="J27" s="402"/>
+      <c r="K27" s="405"/>
+      <c r="L27" s="402"/>
+      <c r="M27" s="405"/>
+      <c r="N27" s="402"/>
+      <c r="O27" s="405"/>
+      <c r="P27" s="402"/>
+      <c r="Q27" s="405"/>
+      <c r="R27" s="402"/>
+      <c r="S27" s="405"/>
+      <c r="T27" s="402"/>
+      <c r="U27" s="405"/>
       <c r="V27" s="378" t="s">
         <v>174</v>
       </c>
@@ -12827,10 +12835,10 @@
         <f>COUNT(I27,K27,M27,O27,Q27,S27,U27)</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="436">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="437">
+      <c r="Y27" s="435">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="436">
         <v>0</v>
       </c>
       <c r="AA27" s="299"/>
@@ -12846,7 +12854,7 @@
       <c r="AK27" s="300"/>
       <c r="AL27" s="300"/>
       <c r="AM27" s="300"/>
-      <c r="AN27" s="438"/>
+      <c r="AN27" s="437"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="131"/>
@@ -12880,7 +12888,7 @@
       <c r="AN28" s="129"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="423" t="s">
+      <c r="A29" s="422" t="s">
         <v>182</v>
       </c>
       <c r="B29" s="136"/>
@@ -12915,7 +12923,7 @@
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="139">
         <f ca="1">TODAY()</f>
-        <v>43713</v>
+        <v>43714</v>
       </c>
       <c r="B30" s="140"/>
       <c r="C30" s="136"/>
@@ -12950,14 +12958,14 @@
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="142">
         <f ca="1">A32-A30</f>
-        <v>-76</v>
+        <v>-77</v>
       </c>
       <c r="B31" s="140"/>
       <c r="C31" s="136"/>
       <c r="D31" s="131"/>
       <c r="E31" s="131"/>
       <c r="F31" s="376" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G31" s="376"/>
       <c r="I31" s="136"/>
@@ -13024,7 +13032,7 @@
       <c r="D33" s="131"/>
       <c r="E33" s="131"/>
       <c r="F33" s="376" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G33" s="376"/>
       <c r="I33" s="136"/>
@@ -13069,7 +13077,7 @@
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:U27 H4:K8 L5:M6 L8:M8 N4:U4 P5:U5 N6:U8 M12:U12 H12:K12 H13:I18 J15:K15 J17:K18 L13:M18 N13:U15 N17:U18 P16:U16 H22:I26 J24:K26 L22:U22 P23:U26 N24:O26 L25:M26">
+  <conditionalFormatting sqref="H27:U27 H4:K4 L5:M6 L8:M8 N4:U4 P5:U5 M12 H12:K12 H13:I18 J15:K15 J17:K18 L13:M18 N17:U18 P16:U16 H22:I26 J24:K26 L22:U22 P23:U26 N24:O26 L25:M26 P12:U12 H6:K8 H5:I5 N6:U8 N13:U15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13289,7 +13297,7 @@
       </c>
       <c r="D2" s="369">
         <f>Plantilla!W4</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="368">
         <f>Plantilla!E4</f>
@@ -13297,7 +13305,7 @@
       </c>
       <c r="F2" s="370">
         <f ca="1">Plantilla!F4</f>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="350" t="str">
         <f>Plantilla!D5</f>
@@ -13305,7 +13313,7 @@
       </c>
       <c r="H2" s="364">
         <f>Plantilla!W5</f>
-        <v>8.3333333333333339</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="I2" s="350">
         <f>Plantilla!E5</f>
@@ -13313,7 +13321,7 @@
       </c>
       <c r="J2" s="350">
         <f ca="1">Plantilla!F5</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K2" s="365">
         <v>360000</v>
@@ -13331,7 +13339,7 @@
       </c>
       <c r="O2" s="368">
         <f ca="1">Plantilla!F6</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P2" s="371">
         <v>1000</v>
@@ -13350,7 +13358,7 @@
       </c>
       <c r="T2" s="368">
         <f ca="1">O2</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U2" s="371"/>
       <c r="V2" s="368" t="str">
@@ -13367,7 +13375,7 @@
       </c>
       <c r="Y2" s="368">
         <f ca="1">T2</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z2" s="371"/>
     </row>
@@ -13392,7 +13400,7 @@
       </c>
       <c r="F3" s="354">
         <f ca="1">F2+7</f>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G3" s="301" t="str">
         <f>G2</f>
@@ -13407,7 +13415,7 @@
       </c>
       <c r="J3" s="301">
         <f ca="1">J2+7</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" s="355"/>
       <c r="L3" s="301" t="str">
@@ -13423,7 +13431,7 @@
       </c>
       <c r="O3" s="301">
         <f ca="1">O2+7</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P3" s="355"/>
       <c r="Q3" s="301" t="str">
@@ -13440,7 +13448,7 @@
       </c>
       <c r="T3" s="301">
         <f t="shared" ref="T3:T28" ca="1" si="1">O3</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U3" s="355"/>
       <c r="V3" s="301" t="str">
@@ -13457,7 +13465,7 @@
       </c>
       <c r="Y3" s="301">
         <f t="shared" ref="Y3:Y28" ca="1" si="3">T3</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z3" s="355"/>
     </row>
@@ -13482,7 +13490,7 @@
       </c>
       <c r="F4" s="354">
         <f t="shared" ref="F4:F28" ca="1" si="7">F3+7</f>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G4" s="301" t="str">
         <f t="shared" ref="G4:G28" si="8">G3</f>
@@ -13497,7 +13505,7 @@
       </c>
       <c r="J4" s="301">
         <f t="shared" ref="J4:J27" ca="1" si="10">J3+7</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K4" s="355"/>
       <c r="L4" s="301" t="str">
@@ -13513,7 +13521,7 @@
       </c>
       <c r="O4" s="301">
         <f t="shared" ref="O4:O28" ca="1" si="13">O3+7</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P4" s="355"/>
       <c r="Q4" s="301" t="str">
@@ -13530,7 +13538,7 @@
       </c>
       <c r="T4" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U4" s="355"/>
       <c r="V4" s="301" t="str">
@@ -13547,7 +13555,7 @@
       </c>
       <c r="Y4" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z4" s="355"/>
     </row>
@@ -13572,7 +13580,7 @@
       </c>
       <c r="F5" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="301" t="str">
         <f t="shared" si="8"/>
@@ -13587,7 +13595,7 @@
       </c>
       <c r="J5" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="355"/>
       <c r="L5" s="301" t="str">
@@ -13603,7 +13611,7 @@
       </c>
       <c r="O5" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P5" s="355">
         <v>15000</v>
@@ -13622,7 +13630,7 @@
       </c>
       <c r="T5" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U5" s="355"/>
       <c r="V5" s="301" t="str">
@@ -13639,7 +13647,7 @@
       </c>
       <c r="Y5" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z5" s="355"/>
     </row>
@@ -13664,7 +13672,7 @@
       </c>
       <c r="F6" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G6" s="350" t="str">
         <f t="shared" si="8"/>
@@ -13679,7 +13687,7 @@
       </c>
       <c r="J6" s="350">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K6" s="365">
         <v>820000</v>
@@ -13697,7 +13705,7 @@
       </c>
       <c r="O6" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P6" s="355"/>
       <c r="Q6" s="301" t="str">
@@ -13714,7 +13722,7 @@
       </c>
       <c r="T6" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U6" s="355"/>
       <c r="V6" s="301" t="str">
@@ -13731,7 +13739,7 @@
       </c>
       <c r="Y6" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z6" s="355"/>
     </row>
@@ -13756,7 +13764,7 @@
       </c>
       <c r="F7" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G7" s="301" t="str">
         <f t="shared" si="8"/>
@@ -13771,7 +13779,7 @@
       </c>
       <c r="J7" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K7" s="355"/>
       <c r="L7" s="301" t="str">
@@ -13787,7 +13795,7 @@
       </c>
       <c r="O7" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P7" s="355">
         <v>318000</v>
@@ -13806,7 +13814,7 @@
       </c>
       <c r="T7" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U7" s="355"/>
       <c r="V7" s="301" t="str">
@@ -13823,7 +13831,7 @@
       </c>
       <c r="Y7" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z7" s="355"/>
     </row>
@@ -13848,7 +13856,7 @@
       </c>
       <c r="F8" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" s="301" t="str">
         <f t="shared" si="8"/>
@@ -13863,7 +13871,7 @@
       </c>
       <c r="J8" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K8" s="355"/>
       <c r="L8" s="301" t="str">
@@ -13879,7 +13887,7 @@
       </c>
       <c r="O8" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P8" s="355"/>
       <c r="Q8" s="301" t="str">
@@ -13896,7 +13904,7 @@
       </c>
       <c r="T8" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U8" s="355"/>
       <c r="V8" s="301" t="str">
@@ -13913,7 +13921,7 @@
       </c>
       <c r="Y8" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z8" s="355"/>
     </row>
@@ -13937,7 +13945,7 @@
       </c>
       <c r="F9" s="354">
         <f ca="1">F8+7-112</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="350" t="str">
         <f t="shared" si="8"/>
@@ -13952,7 +13960,7 @@
       </c>
       <c r="J9" s="350">
         <f t="shared" ca="1" si="10"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K9" s="365">
         <v>1400000</v>
@@ -13970,7 +13978,7 @@
       </c>
       <c r="O9" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P9" s="355"/>
       <c r="Q9" s="301" t="str">
@@ -13987,7 +13995,7 @@
       </c>
       <c r="T9" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U9" s="355"/>
       <c r="V9" s="301" t="str">
@@ -14004,7 +14012,7 @@
       </c>
       <c r="Y9" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z9" s="355"/>
     </row>
@@ -14029,7 +14037,7 @@
       </c>
       <c r="F10" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14044,7 +14052,7 @@
       </c>
       <c r="J10" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K10" s="355"/>
       <c r="L10" s="301" t="str">
@@ -14059,7 +14067,7 @@
       </c>
       <c r="O10" s="301">
         <f ca="1">O9+7-112</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="355">
         <v>875000</v>
@@ -14077,7 +14085,7 @@
       </c>
       <c r="T10" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" s="355"/>
       <c r="V10" s="301" t="str">
@@ -14094,7 +14102,7 @@
       </c>
       <c r="Y10" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z10" s="355"/>
     </row>
@@ -14119,7 +14127,7 @@
       </c>
       <c r="F11" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14134,7 +14142,7 @@
       </c>
       <c r="J11" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11" s="355"/>
       <c r="L11" s="301" t="str">
@@ -14150,7 +14158,7 @@
       </c>
       <c r="O11" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P11" s="355"/>
       <c r="Q11" s="301" t="str">
@@ -14166,7 +14174,7 @@
       </c>
       <c r="T11" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U11" s="355"/>
       <c r="V11" s="301" t="str">
@@ -14183,7 +14191,7 @@
       </c>
       <c r="Y11" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z11" s="355"/>
     </row>
@@ -14208,7 +14216,7 @@
       </c>
       <c r="F12" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14222,7 +14230,7 @@
       </c>
       <c r="J12" s="301">
         <f ca="1">J11+7-112</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K12" s="355"/>
       <c r="L12" s="301" t="str">
@@ -14238,7 +14246,7 @@
       </c>
       <c r="O12" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P12" s="355"/>
       <c r="Q12" s="301" t="str">
@@ -14254,7 +14262,7 @@
       </c>
       <c r="T12" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U12" s="355">
         <v>35000</v>
@@ -14273,7 +14281,7 @@
       </c>
       <c r="Y12" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z12" s="355"/>
     </row>
@@ -14298,7 +14306,7 @@
       </c>
       <c r="F13" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G13" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14313,7 +14321,7 @@
       </c>
       <c r="J13" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="355"/>
       <c r="L13" s="301" t="str">
@@ -14329,7 +14337,7 @@
       </c>
       <c r="O13" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="355"/>
       <c r="Q13" s="301" t="str">
@@ -14345,7 +14353,7 @@
       </c>
       <c r="T13" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U13" s="355"/>
       <c r="V13" s="301" t="str">
@@ -14362,7 +14370,7 @@
       </c>
       <c r="Y13" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z13" s="355"/>
     </row>
@@ -14387,7 +14395,7 @@
       </c>
       <c r="F14" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="350" t="str">
         <f t="shared" si="8"/>
@@ -14402,7 +14410,7 @@
       </c>
       <c r="J14" s="350">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14" s="365">
         <v>1890000</v>
@@ -14420,7 +14428,7 @@
       </c>
       <c r="O14" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="355">
         <v>1775000</v>
@@ -14438,7 +14446,7 @@
       </c>
       <c r="T14" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U14" s="355">
         <v>380000</v>
@@ -14457,7 +14465,7 @@
       </c>
       <c r="Y14" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="355"/>
     </row>
@@ -14482,7 +14490,7 @@
       </c>
       <c r="F15" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G15" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14497,7 +14505,7 @@
       </c>
       <c r="J15" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K15" s="355"/>
       <c r="L15" s="301" t="str">
@@ -14513,7 +14521,7 @@
       </c>
       <c r="O15" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="355"/>
       <c r="Q15" s="301" t="str">
@@ -14529,7 +14537,7 @@
       </c>
       <c r="T15" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" s="355"/>
       <c r="V15" s="301" t="str">
@@ -14545,7 +14553,7 @@
       </c>
       <c r="Y15" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" s="355"/>
     </row>
@@ -14570,7 +14578,7 @@
       </c>
       <c r="F16" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14585,7 +14593,7 @@
       </c>
       <c r="J16" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K16" s="355"/>
       <c r="L16" s="301" t="str">
@@ -14601,7 +14609,7 @@
       </c>
       <c r="O16" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P16" s="355"/>
       <c r="Q16" s="301" t="str">
@@ -14617,7 +14625,7 @@
       </c>
       <c r="T16" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U16" s="355"/>
       <c r="V16" s="301" t="str">
@@ -14633,7 +14641,7 @@
       </c>
       <c r="Y16" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z16" s="355"/>
     </row>
@@ -14658,7 +14666,7 @@
       </c>
       <c r="F17" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14673,7 +14681,7 @@
       </c>
       <c r="J17" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="355"/>
       <c r="L17" s="301" t="str">
@@ -14689,7 +14697,7 @@
       </c>
       <c r="O17" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P17" s="355"/>
       <c r="Q17" s="301" t="str">
@@ -14705,7 +14713,7 @@
       </c>
       <c r="T17" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U17" s="355">
         <v>875000</v>
@@ -14723,7 +14731,7 @@
       </c>
       <c r="Y17" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z17" s="355">
         <v>35000</v>
@@ -14750,7 +14758,7 @@
       </c>
       <c r="F18" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14765,7 +14773,7 @@
       </c>
       <c r="J18" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" s="355"/>
       <c r="L18" s="301" t="str">
@@ -14781,7 +14789,7 @@
       </c>
       <c r="O18" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="355">
         <v>2200000</v>
@@ -14799,7 +14807,7 @@
       </c>
       <c r="T18" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U18" s="355"/>
       <c r="V18" s="301" t="str">
@@ -14815,7 +14823,7 @@
       </c>
       <c r="Y18" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Z18" s="355"/>
     </row>
@@ -14840,7 +14848,7 @@
       </c>
       <c r="F19" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14855,7 +14863,7 @@
       </c>
       <c r="J19" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" s="355">
         <v>2050000</v>
@@ -14873,7 +14881,7 @@
       </c>
       <c r="O19" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P19" s="355"/>
       <c r="Q19" s="301" t="str">
@@ -14889,7 +14897,7 @@
       </c>
       <c r="T19" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="U19" s="355"/>
       <c r="V19" s="301" t="str">
@@ -14905,7 +14913,7 @@
       </c>
       <c r="Y19" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z19" s="355">
         <v>380000</v>
@@ -14932,7 +14940,7 @@
       </c>
       <c r="F20" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14948,7 +14956,7 @@
       </c>
       <c r="J20" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K20" s="355"/>
       <c r="L20" s="301" t="str">
@@ -14964,7 +14972,7 @@
       </c>
       <c r="O20" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="355"/>
       <c r="Q20" s="301" t="str">
@@ -14980,7 +14988,7 @@
       </c>
       <c r="T20" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U20" s="355"/>
       <c r="V20" s="301" t="str">
@@ -14996,7 +15004,7 @@
       </c>
       <c r="Y20" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z20" s="355"/>
     </row>
@@ -15021,7 +15029,7 @@
       </c>
       <c r="F21" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G21" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15037,7 +15045,7 @@
       </c>
       <c r="J21" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K21" s="355"/>
       <c r="L21" s="301" t="str">
@@ -15053,7 +15061,7 @@
       </c>
       <c r="O21" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P21" s="355"/>
       <c r="Q21" s="301" t="str">
@@ -15069,7 +15077,7 @@
       </c>
       <c r="T21" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U21" s="355">
         <v>1775000</v>
@@ -15087,7 +15095,7 @@
       </c>
       <c r="Y21" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z21" s="355"/>
     </row>
@@ -15112,7 +15120,7 @@
       </c>
       <c r="F22" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G22" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15128,7 +15136,7 @@
       </c>
       <c r="J22" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="355"/>
       <c r="L22" s="301" t="str">
@@ -15144,7 +15152,7 @@
       </c>
       <c r="O22" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" s="355">
         <v>3200000</v>
@@ -15162,7 +15170,7 @@
       </c>
       <c r="T22" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="U22" s="355"/>
       <c r="V22" s="301" t="str">
@@ -15178,7 +15186,7 @@
       </c>
       <c r="Y22" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Z22" s="355">
         <v>875000</v>
@@ -15205,7 +15213,7 @@
       </c>
       <c r="F23" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G23" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15221,7 +15229,7 @@
       </c>
       <c r="J23" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K23" s="355"/>
       <c r="L23" s="301" t="str">
@@ -15238,7 +15246,7 @@
       </c>
       <c r="O23" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P23" s="355"/>
       <c r="Q23" s="301" t="str">
@@ -15254,7 +15262,7 @@
       </c>
       <c r="T23" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U23" s="355"/>
       <c r="V23" s="301" t="str">
@@ -15270,7 +15278,7 @@
       </c>
       <c r="Y23" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Z23" s="355"/>
     </row>
@@ -15295,7 +15303,7 @@
       </c>
       <c r="F24" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G24" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15311,7 +15319,7 @@
       </c>
       <c r="J24" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K24" s="355"/>
       <c r="L24" s="301" t="str">
@@ -15328,7 +15336,7 @@
       </c>
       <c r="O24" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P24" s="355"/>
       <c r="Q24" s="301" t="str">
@@ -15344,7 +15352,7 @@
       </c>
       <c r="T24" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U24" s="355"/>
       <c r="V24" s="301" t="str">
@@ -15360,7 +15368,7 @@
       </c>
       <c r="Y24" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Z24" s="355"/>
     </row>
@@ -15384,7 +15392,7 @@
       </c>
       <c r="F25" s="354">
         <f ca="1">F24+7-112</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G25" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15399,7 +15407,7 @@
       </c>
       <c r="J25" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="355">
         <v>2300000</v>
@@ -15418,7 +15426,7 @@
       </c>
       <c r="O25" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P25" s="355"/>
       <c r="Q25" s="301" t="str">
@@ -15434,7 +15442,7 @@
       </c>
       <c r="T25" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U25" s="355">
         <v>2200000</v>
@@ -15452,7 +15460,7 @@
       </c>
       <c r="Y25" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z25" s="355"/>
     </row>
@@ -15477,7 +15485,7 @@
       </c>
       <c r="F26" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15490,7 +15498,7 @@
       </c>
       <c r="J26" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K26" s="355"/>
       <c r="L26" s="301" t="str">
@@ -15506,7 +15514,7 @@
       </c>
       <c r="O26" s="301">
         <f ca="1">O25+7-112</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P26" s="355"/>
       <c r="Q26" s="301" t="str">
@@ -15522,7 +15530,7 @@
       </c>
       <c r="T26" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U26" s="355"/>
       <c r="V26" s="301" t="str">
@@ -15538,7 +15546,7 @@
       </c>
       <c r="Y26" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z26" s="355">
         <v>1800000</v>
@@ -15565,7 +15573,7 @@
       </c>
       <c r="F27" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15578,7 +15586,7 @@
       </c>
       <c r="J27" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K27" s="355"/>
       <c r="L27" s="301" t="str">
@@ -15595,7 +15603,7 @@
       </c>
       <c r="O27" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P27" s="355"/>
       <c r="Q27" s="301" t="str">
@@ -15611,7 +15619,7 @@
       </c>
       <c r="T27" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U27" s="355"/>
       <c r="V27" s="301" t="str">
@@ -15627,7 +15635,7 @@
       </c>
       <c r="Y27" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z27" s="355"/>
     </row>
@@ -15652,7 +15660,7 @@
       </c>
       <c r="F28" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15664,7 +15672,7 @@
       </c>
       <c r="J28" s="301">
         <f ca="1">J27+7-112</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K28" s="355"/>
       <c r="L28" s="301" t="str">
@@ -15680,7 +15688,7 @@
       </c>
       <c r="O28" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P28" s="355">
         <v>3600000</v>
@@ -15698,7 +15706,7 @@
       </c>
       <c r="T28" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U28" s="355"/>
       <c r="V28" s="301" t="str">
@@ -15714,7 +15722,7 @@
       </c>
       <c r="Y28" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z28" s="355"/>
     </row>
@@ -15763,10 +15771,10 @@
   <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="13" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="13" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15792,14 +15800,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="448" t="s">
+      <c r="D1" s="473" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="449"/>
-      <c r="F1" s="449"/>
-      <c r="G1" s="449"/>
-      <c r="H1" s="449"/>
-      <c r="I1" s="450"/>
+      <c r="E1" s="474"/>
+      <c r="F1" s="474"/>
+      <c r="G1" s="474"/>
+      <c r="H1" s="474"/>
+      <c r="I1" s="475"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -15842,11 +15850,11 @@
         <f t="shared" si="0"/>
         <v>43693</v>
       </c>
-      <c r="X1" s="242">
+      <c r="X1" s="77">
         <f t="shared" si="0"/>
         <v>43700</v>
       </c>
-      <c r="Y1" s="77">
+      <c r="Y1" s="242">
         <f t="shared" si="0"/>
         <v>43707</v>
       </c>
@@ -15879,14 +15887,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="451" t="s">
+      <c r="D2" s="476" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="452"/>
-      <c r="F2" s="452"/>
-      <c r="G2" s="452"/>
-      <c r="H2" s="452"/>
-      <c r="I2" s="453"/>
+      <c r="E2" s="477"/>
+      <c r="F2" s="477"/>
+      <c r="G2" s="477"/>
+      <c r="H2" s="477"/>
+      <c r="I2" s="478"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -15922,10 +15930,10 @@
       <c r="W2" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="243" t="s">
+      <c r="X2" s="79" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="79" t="s">
+      <c r="Y2" s="243" t="s">
         <v>109</v>
       </c>
       <c r="Z2" s="79" t="s">
@@ -15951,15 +15959,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="454" t="s">
+      <c r="D3" s="479" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="455"/>
+      <c r="E3" s="480"/>
       <c r="F3" s="198"/>
-      <c r="G3" s="456" t="s">
+      <c r="G3" s="481" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="457"/>
+      <c r="H3" s="482"/>
       <c r="I3" s="198"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -16003,37 +16011,37 @@
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
-      <c r="X3" s="244">
+      <c r="X3" s="81">
         <f t="shared" si="1"/>
         <v>523</v>
       </c>
-      <c r="Y3" s="81">
+      <c r="Y3" s="244">
         <f t="shared" si="1"/>
-        <v>546</v>
+        <v>568</v>
       </c>
       <c r="Z3" s="81">
         <f t="shared" si="1"/>
-        <v>569</v>
+        <v>612</v>
       </c>
       <c r="AA3" s="81">
         <f t="shared" si="1"/>
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="AB3" s="81">
         <f t="shared" si="1"/>
-        <v>615</v>
+        <v>700</v>
       </c>
       <c r="AC3" s="81">
         <f t="shared" si="1"/>
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="AD3" s="81">
         <f t="shared" si="1"/>
-        <v>661</v>
+        <v>788</v>
       </c>
       <c r="AE3" s="81">
         <f t="shared" si="1"/>
-        <v>684</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
@@ -16093,7 +16101,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X4" s="247">
+      <c r="X4" s="246">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -16139,7 +16147,7 @@
       </c>
       <c r="F5" s="248">
         <f>E5/E35</f>
-        <v>0.14704086627831545</v>
+        <v>0.14069909037348233</v>
       </c>
       <c r="G5" s="202" t="s">
         <v>235</v>
@@ -16150,7 +16158,7 @@
       </c>
       <c r="I5" s="204">
         <f>H5/$H$35</f>
-        <v>8.1769625527822937E-2</v>
+        <v>7.8242955330314376E-2</v>
       </c>
       <c r="K5" s="82" t="s">
         <v>115</v>
@@ -16199,37 +16207,37 @@
         <f t="shared" si="3"/>
         <v>1180102</v>
       </c>
-      <c r="X5" s="84">
+      <c r="X5" s="83">
         <f t="shared" si="3"/>
         <v>1079364</v>
       </c>
       <c r="Y5" s="84">
         <f t="shared" si="3"/>
-        <v>1041459</v>
+        <v>1048744</v>
       </c>
       <c r="Z5" s="84">
         <f t="shared" si="3"/>
-        <v>1007804</v>
+        <v>1159393</v>
       </c>
       <c r="AA5" s="84">
         <f t="shared" si="3"/>
-        <v>1036399</v>
+        <v>1188455</v>
       </c>
       <c r="AB5" s="84">
         <f t="shared" si="3"/>
-        <v>1004244</v>
+        <v>1156767</v>
       </c>
       <c r="AC5" s="84">
         <f t="shared" si="3"/>
-        <v>1034339</v>
+        <v>1187329</v>
       </c>
       <c r="AD5" s="84">
         <f t="shared" si="3"/>
-        <v>1065184</v>
+        <v>1218641</v>
       </c>
       <c r="AE5" s="84">
         <f t="shared" si="3"/>
-        <v>1035279</v>
+        <v>1189203</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -16239,7 +16247,7 @@
       </c>
       <c r="B6" s="288">
         <f t="shared" ref="B6:B13" si="5">M6/$M$14</f>
-        <v>0.32512174071013589</v>
+        <v>0.357410874596501</v>
       </c>
       <c r="D6" s="205" t="s">
         <v>129</v>
@@ -16250,7 +16258,7 @@
       </c>
       <c r="F6" s="250">
         <f>E6/E35</f>
-        <v>7.3802538347228719E-2</v>
+        <v>7.0619483382630743E-2</v>
       </c>
       <c r="G6" s="207" t="s">
         <v>236</v>
@@ -16260,7 +16268,7 @@
       </c>
       <c r="I6" s="252">
         <f>H6/$H$35</f>
-        <v>8.1769625527822937E-2</v>
+        <v>7.8242955330314376E-2</v>
       </c>
       <c r="K6" s="235" t="s">
         <v>116</v>
@@ -16270,7 +16278,7 @@
       </c>
       <c r="M6" s="253">
         <f>SUM(N6:AE6)</f>
-        <v>919891</v>
+        <v>1070353</v>
       </c>
       <c r="N6" s="283">
         <v>0</v>
@@ -16309,11 +16317,11 @@
         <f>115800+5852</f>
         <v>121652</v>
       </c>
-      <c r="X6" s="232">
-        <v>0</v>
+      <c r="X6" s="283">
+        <v>6625</v>
       </c>
       <c r="Y6" s="232">
-        <v>3500</v>
+        <v>147337</v>
       </c>
       <c r="Z6" s="232">
         <v>65000</v>
@@ -16341,7 +16349,7 @@
       </c>
       <c r="B7" s="288">
         <f t="shared" si="5"/>
-        <v>0.29274072639389492</v>
+        <v>0.27985992778674351</v>
       </c>
       <c r="D7" s="205" t="s">
         <v>134</v>
@@ -16352,7 +16360,7 @@
       </c>
       <c r="F7" s="250">
         <f>E7/E35</f>
-        <v>7.3238327931086741E-2</v>
+        <v>7.007960699085157E-2</v>
       </c>
       <c r="G7" s="207" t="s">
         <v>237</v>
@@ -16372,7 +16380,7 @@
       </c>
       <c r="M7" s="253">
         <f t="shared" ref="M7:M13" si="6">SUM(N7:AE7)</f>
-        <v>828273</v>
+        <v>838108</v>
       </c>
       <c r="N7" s="283">
         <v>0</v>
@@ -16405,36 +16413,35 @@
       <c r="W7" s="283">
         <v>51620</v>
       </c>
-      <c r="X7" s="234">
+      <c r="X7" s="283">
         <v>54025</v>
       </c>
       <c r="Y7" s="234">
-        <f t="shared" ref="Y7:AE7" si="7">X7+1000</f>
-        <v>55025</v>
+        <v>56430</v>
       </c>
       <c r="Z7" s="234">
-        <f t="shared" si="7"/>
-        <v>56025</v>
+        <f t="shared" ref="Y7:AE7" si="7">Y7+1000</f>
+        <v>57430</v>
       </c>
       <c r="AA7" s="234">
         <f t="shared" si="7"/>
-        <v>57025</v>
+        <v>58430</v>
       </c>
       <c r="AB7" s="234">
         <f t="shared" si="7"/>
-        <v>58025</v>
+        <v>59430</v>
       </c>
       <c r="AC7" s="234">
         <f t="shared" si="7"/>
-        <v>59025</v>
+        <v>60430</v>
       </c>
       <c r="AD7" s="234">
         <f t="shared" si="7"/>
-        <v>60025</v>
+        <v>61430</v>
       </c>
       <c r="AE7" s="234">
         <f t="shared" si="7"/>
-        <v>61025</v>
+        <v>62430</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -16499,7 +16506,7 @@
       <c r="W8" s="283">
         <v>0</v>
       </c>
-      <c r="X8" s="232">
+      <c r="X8" s="283">
         <v>0</v>
       </c>
       <c r="Y8" s="232">
@@ -16579,7 +16586,7 @@
       <c r="W9" s="283">
         <v>0</v>
       </c>
-      <c r="X9" s="232">
+      <c r="X9" s="283">
         <v>0</v>
       </c>
       <c r="Y9" s="232">
@@ -16629,11 +16636,11 @@
       </c>
       <c r="H10" s="249">
         <f>SUM(H11:H16)</f>
-        <v>1245594</v>
+        <v>1399985</v>
       </c>
       <c r="I10" s="204">
         <f t="shared" ref="I10:I16" si="8">H10/$H$35</f>
-        <v>0.33950584979901027</v>
+        <v>0.36512987939370056</v>
       </c>
       <c r="K10" s="235" t="s">
         <v>121</v>
@@ -16679,7 +16686,7 @@
       <c r="W10" s="283">
         <v>0</v>
       </c>
-      <c r="X10" s="234">
+      <c r="X10" s="283">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -16719,7 +16726,7 @@
       </c>
       <c r="B11" s="288">
         <f t="shared" si="5"/>
-        <v>6.4360526392057043E-3</v>
+        <v>7.7736271684262512E-3</v>
       </c>
       <c r="D11" s="213" t="s">
         <v>260</v>
@@ -16742,7 +16749,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="459" t="s">
+      <c r="K11" s="483" t="s">
         <v>122</v>
       </c>
       <c r="L11" s="235" t="s">
@@ -16750,7 +16757,7 @@
       </c>
       <c r="M11" s="253">
         <f t="shared" si="6"/>
-        <v>18210</v>
+        <v>23280</v>
       </c>
       <c r="N11" s="283">
         <v>0</v>
@@ -16786,36 +16793,35 @@
       <c r="W11" s="283">
         <v>1380</v>
       </c>
-      <c r="X11" s="234">
-        <v>690</v>
+      <c r="X11" s="283">
+        <v>1350</v>
       </c>
       <c r="Y11" s="234">
-        <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
       <c r="Z11" s="234">
         <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
       <c r="AA11" s="234">
         <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
       <c r="AB11" s="234">
         <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
       <c r="AC11" s="234">
         <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
       <c r="AD11" s="234">
         <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
       <c r="AE11" s="234">
         <f t="shared" si="9"/>
-        <v>690</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -16825,7 +16831,7 @@
       </c>
       <c r="B12" s="288">
         <f t="shared" si="5"/>
-        <v>0.37570148025676353</v>
+        <v>0.35495557044832926</v>
       </c>
       <c r="D12" s="213" t="str">
         <f>L13</f>
@@ -16849,7 +16855,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="460"/>
+      <c r="K12" s="484"/>
       <c r="L12" s="235" t="s">
         <v>124</v>
       </c>
@@ -16887,7 +16893,7 @@
       <c r="W12" s="283">
         <v>0</v>
       </c>
-      <c r="X12" s="234">
+      <c r="X12" s="283">
         <v>0</v>
       </c>
       <c r="Y12" s="234">
@@ -16945,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="260"/>
-      <c r="K13" s="461"/>
+      <c r="K13" s="485"/>
       <c r="L13" s="235" t="s">
         <v>261</v>
       </c>
@@ -16991,7 +16997,7 @@
         <f t="shared" ref="W13" si="12">V13</f>
         <v>0</v>
       </c>
-      <c r="X13" s="234">
+      <c r="X13" s="283">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -17052,7 +17058,7 @@
       <c r="L14" s="287"/>
       <c r="M14" s="263">
         <f>SUM(N14:AE14)</f>
-        <v>2829374</v>
+        <v>2994741</v>
       </c>
       <c r="N14" s="284">
         <f>SUM(N6:N13)</f>
@@ -17096,43 +17102,43 @@
       </c>
       <c r="X14" s="284">
         <f t="shared" si="13"/>
-        <v>54715</v>
+        <v>62000</v>
       </c>
       <c r="Y14" s="284">
         <f t="shared" si="13"/>
-        <v>59215</v>
+        <v>205087</v>
       </c>
       <c r="Z14" s="284">
         <f t="shared" si="13"/>
-        <v>121715</v>
+        <v>123750</v>
       </c>
       <c r="AA14" s="284">
         <f t="shared" si="13"/>
-        <v>61215</v>
+        <v>63250</v>
       </c>
       <c r="AB14" s="284">
         <f t="shared" si="13"/>
-        <v>123715</v>
+        <v>125750</v>
       </c>
       <c r="AC14" s="284">
         <f t="shared" si="13"/>
-        <v>124715</v>
+        <v>126750</v>
       </c>
       <c r="AD14" s="284">
         <f t="shared" si="13"/>
-        <v>64215</v>
+        <v>66250</v>
       </c>
       <c r="AE14" s="284">
         <f t="shared" si="13"/>
-        <v>65215</v>
+        <v>67250</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="466">
+      <c r="A15" s="470">
         <f>M14</f>
-        <v>2829374</v>
-      </c>
-      <c r="B15" s="466"/>
+        <v>2994741</v>
+      </c>
+      <c r="B15" s="470"/>
       <c r="D15" s="202" t="s">
         <v>139</v>
       </c>
@@ -17163,7 +17169,7 @@
       </c>
       <c r="M15" s="86">
         <f>SUM(N15:AE15)</f>
-        <v>139020</v>
+        <v>137270</v>
       </c>
       <c r="N15" s="285">
         <v>0</v>
@@ -17195,36 +17201,35 @@
       <c r="W15" s="285">
         <v>7700</v>
       </c>
-      <c r="X15" s="240">
+      <c r="X15" s="285">
         <v>7700</v>
       </c>
       <c r="Y15" s="240">
-        <f t="shared" ref="Y15:AE15" si="14">X15+250</f>
+        <v>7700</v>
+      </c>
+      <c r="Z15" s="240">
+        <f t="shared" ref="Y15:AE15" si="14">Y15+250</f>
         <v>7950</v>
       </c>
-      <c r="Z15" s="240">
+      <c r="AA15" s="240">
         <f t="shared" si="14"/>
         <v>8200</v>
       </c>
-      <c r="AA15" s="240">
+      <c r="AB15" s="240">
         <f t="shared" si="14"/>
         <v>8450</v>
       </c>
-      <c r="AB15" s="240">
+      <c r="AC15" s="240">
         <f t="shared" si="14"/>
         <v>8700</v>
       </c>
-      <c r="AC15" s="240">
+      <c r="AD15" s="240">
         <f t="shared" si="14"/>
         <v>8950</v>
       </c>
-      <c r="AD15" s="240">
+      <c r="AE15" s="240">
         <f t="shared" si="14"/>
         <v>9200</v>
-      </c>
-      <c r="AE15" s="240">
-        <f t="shared" si="14"/>
-        <v>9450</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -17243,11 +17248,11 @@
       </c>
       <c r="H16" s="265">
         <f>E29-H26</f>
-        <v>1245594</v>
+        <v>1399985</v>
       </c>
       <c r="I16" s="252">
         <f t="shared" si="8"/>
-        <v>0.33950584979901027</v>
+        <v>0.36512987939370056</v>
       </c>
       <c r="K16" s="236" t="s">
         <v>127</v>
@@ -17258,7 +17263,7 @@
       </c>
       <c r="M16" s="86">
         <f t="shared" ref="M16:M24" si="15">SUM(N16:AE16)</f>
-        <v>131200</v>
+        <v>143926</v>
       </c>
       <c r="N16" s="285">
         <v>0</v>
@@ -17296,37 +17301,36 @@
         <f t="shared" si="16"/>
         <v>7800</v>
       </c>
-      <c r="X16" s="240">
+      <c r="X16" s="285">
         <f t="shared" si="16"/>
         <v>7800</v>
       </c>
       <c r="Y16" s="240">
-        <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
       <c r="Z16" s="240">
         <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
       <c r="AA16" s="240">
         <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
       <c r="AB16" s="240">
         <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
       <c r="AC16" s="240">
         <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
       <c r="AD16" s="240">
         <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
       <c r="AE16" s="240">
         <f t="shared" si="16"/>
-        <v>7800</v>
+        <v>9618</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17383,7 +17387,7 @@
       <c r="W17" s="285">
         <v>182770</v>
       </c>
-      <c r="X17" s="240">
+      <c r="X17" s="285">
         <v>0</v>
       </c>
       <c r="Y17" s="240">
@@ -17478,7 +17482,7 @@
         <f t="shared" si="17"/>
         <v>57120</v>
       </c>
-      <c r="X18" s="240">
+      <c r="X18" s="285">
         <f t="shared" si="17"/>
         <v>57120</v>
       </c>
@@ -17574,7 +17578,7 @@
       <c r="W19" s="285">
         <v>20000</v>
       </c>
-      <c r="X19" s="240">
+      <c r="X19" s="285">
         <v>20000</v>
       </c>
       <c r="Y19" s="240">
@@ -17646,7 +17650,7 @@
       <c r="W20" s="285">
         <v>0</v>
       </c>
-      <c r="X20" s="240">
+      <c r="X20" s="285">
         <v>0</v>
       </c>
       <c r="Y20" s="240">
@@ -17686,7 +17690,7 @@
       <c r="G21" s="215"/>
       <c r="H21" s="271"/>
       <c r="I21" s="272"/>
-      <c r="K21" s="462" t="s">
+      <c r="K21" s="466" t="s">
         <v>122</v>
       </c>
       <c r="L21" s="237" t="s">
@@ -17726,7 +17730,7 @@
       <c r="W21" s="285">
         <v>0</v>
       </c>
-      <c r="X21" s="240">
+      <c r="X21" s="285">
         <v>0</v>
       </c>
       <c r="Y21" s="240">
@@ -17772,9 +17776,9 @@
       </c>
       <c r="I22" s="204">
         <f>H22/$H$35</f>
-        <v>0.14704086627831545</v>
-      </c>
-      <c r="K22" s="463"/>
+        <v>0.14069909037348233</v>
+      </c>
+      <c r="K22" s="467"/>
       <c r="L22" s="237" t="s">
         <v>135</v>
       </c>
@@ -17812,7 +17816,7 @@
       <c r="W22" s="285">
         <v>0</v>
       </c>
-      <c r="X22" s="240">
+      <c r="X22" s="285">
         <v>0</v>
       </c>
       <c r="Y22" s="240">
@@ -17851,9 +17855,9 @@
       </c>
       <c r="I23" s="252">
         <f>H23/$H$35</f>
-        <v>7.3802538347228719E-2</v>
-      </c>
-      <c r="K23" s="464"/>
+        <v>7.0619483382630743E-2</v>
+      </c>
+      <c r="K23" s="468"/>
       <c r="L23" s="237" t="s">
         <v>262</v>
       </c>
@@ -17891,7 +17895,7 @@
       <c r="W23" s="285">
         <v>0</v>
       </c>
-      <c r="X23" s="240">
+      <c r="X23" s="285">
         <v>0</v>
       </c>
       <c r="Y23" s="240">
@@ -17923,7 +17927,7 @@
       </c>
       <c r="B24" s="289">
         <f t="shared" ref="B24:B31" si="19">M15/$M$25</f>
-        <v>6.5475097138820201E-2</v>
+        <v>6.4318399269805537E-2</v>
       </c>
       <c r="C24" s="85"/>
       <c r="D24" s="202" t="s">
@@ -17935,7 +17939,7 @@
       </c>
       <c r="F24" s="248">
         <f>E24/E35</f>
-        <v>8.1769625527822937E-2</v>
+        <v>7.8242955330314376E-2</v>
       </c>
       <c r="G24" s="219" t="s">
         <v>134</v>
@@ -17946,7 +17950,7 @@
       </c>
       <c r="I24" s="252">
         <f>H24/$H$35</f>
-        <v>7.3238327931086741E-2</v>
+        <v>7.007960699085157E-2</v>
       </c>
       <c r="K24" s="236" t="s">
         <v>136</v>
@@ -17989,7 +17993,7 @@
       <c r="W24" s="285">
         <v>0</v>
       </c>
-      <c r="X24" s="240">
+      <c r="X24" s="285">
         <v>0</v>
       </c>
       <c r="Y24" s="240">
@@ -18021,7 +18025,7 @@
       </c>
       <c r="B25" s="289">
         <f t="shared" si="19"/>
-        <v>6.179206405274932E-2</v>
+        <v>6.7437094290857674E-2</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="222" t="s">
@@ -18033,7 +18037,7 @@
       </c>
       <c r="F25" s="250">
         <f>E25/E35</f>
-        <v>8.1769625527822937E-2</v>
+        <v>7.8242955330314376E-2</v>
       </c>
       <c r="G25" s="220"/>
       <c r="H25" s="274"/>
@@ -18044,7 +18048,7 @@
       <c r="L25" s="239"/>
       <c r="M25" s="87">
         <f>SUM(N25:AE25)</f>
-        <v>2123250</v>
+        <v>2134226</v>
       </c>
       <c r="N25" s="241">
         <f>SUM(N15:N24)</f>
@@ -18092,31 +18096,31 @@
       </c>
       <c r="Y25" s="241">
         <f t="shared" si="20"/>
-        <v>92870</v>
+        <v>94438</v>
       </c>
       <c r="Z25" s="241">
         <f t="shared" si="20"/>
-        <v>93120</v>
+        <v>94688</v>
       </c>
       <c r="AA25" s="241">
         <f t="shared" si="20"/>
-        <v>93370</v>
+        <v>94938</v>
       </c>
       <c r="AB25" s="241">
         <f t="shared" si="20"/>
-        <v>93620</v>
+        <v>95188</v>
       </c>
       <c r="AC25" s="241">
         <f t="shared" si="20"/>
-        <v>93870</v>
+        <v>95438</v>
       </c>
       <c r="AD25" s="241">
         <f t="shared" si="20"/>
-        <v>94120</v>
+        <v>95688</v>
       </c>
       <c r="AE25" s="241">
         <f t="shared" si="20"/>
-        <v>94370</v>
+        <v>95938</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
@@ -18126,7 +18130,7 @@
       </c>
       <c r="B26" s="289">
         <f t="shared" si="19"/>
-        <v>0.12752619804544921</v>
+        <v>0.12687035018784326</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="222" t="str">
@@ -18146,11 +18150,11 @@
       </c>
       <c r="H26" s="249">
         <f>SUM(H27:H32)</f>
-        <v>1583780</v>
+        <v>1594756</v>
       </c>
       <c r="I26" s="204">
         <f t="shared" ref="I26:I32" si="21">H26/$H$35</f>
-        <v>0.43168365839485134</v>
+        <v>0.41592807490250278</v>
       </c>
       <c r="K26" s="89" t="s">
         <v>138</v>
@@ -18158,7 +18162,7 @@
       <c r="L26" s="89"/>
       <c r="M26" s="84">
         <f t="shared" ref="M26:AE26" si="22">M5+M14-M25</f>
-        <v>1006124</v>
+        <v>1160515</v>
       </c>
       <c r="N26" s="84">
         <f t="shared" si="22"/>
@@ -18202,35 +18206,35 @@
       </c>
       <c r="X26" s="84">
         <f t="shared" si="22"/>
-        <v>1041459</v>
+        <v>1048744</v>
       </c>
       <c r="Y26" s="84">
         <f t="shared" si="22"/>
-        <v>1007804</v>
+        <v>1159393</v>
       </c>
       <c r="Z26" s="84">
         <f t="shared" si="22"/>
-        <v>1036399</v>
+        <v>1188455</v>
       </c>
       <c r="AA26" s="84">
         <f t="shared" si="22"/>
-        <v>1004244</v>
+        <v>1156767</v>
       </c>
       <c r="AB26" s="84">
         <f t="shared" si="22"/>
-        <v>1034339</v>
+        <v>1187329</v>
       </c>
       <c r="AC26" s="84">
         <f t="shared" si="22"/>
-        <v>1065184</v>
+        <v>1218641</v>
       </c>
       <c r="AD26" s="84">
         <f t="shared" si="22"/>
-        <v>1035279</v>
+        <v>1189203</v>
       </c>
       <c r="AE26" s="84">
         <f t="shared" si="22"/>
-        <v>1006124</v>
+        <v>1160515</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -18240,7 +18244,7 @@
       </c>
       <c r="B27" s="289">
         <f t="shared" si="19"/>
-        <v>0.44580713528788413</v>
+        <v>0.44351441693616328</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="222" t="str">
@@ -18260,11 +18264,11 @@
       </c>
       <c r="H27" s="273">
         <f>M15</f>
-        <v>139020</v>
+        <v>137270</v>
       </c>
       <c r="I27" s="252">
         <f t="shared" si="21"/>
-        <v>3.7892044469593149E-2</v>
+        <v>3.5801368260640849E-2</v>
       </c>
       <c r="K27" s="90"/>
       <c r="L27" s="90"/>
@@ -18349,7 +18353,7 @@
       </c>
       <c r="B28" s="289">
         <f t="shared" si="19"/>
-        <v>0.16955139526669022</v>
+        <v>0.16867941820594445</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="215"/>
@@ -18360,11 +18364,11 @@
       </c>
       <c r="H28" s="273">
         <f>M16</f>
-        <v>131200</v>
+        <v>143926</v>
       </c>
       <c r="I28" s="252">
         <f t="shared" si="21"/>
-        <v>3.5760582897501232E-2</v>
+        <v>3.7537318629569424E-2</v>
       </c>
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
@@ -18402,11 +18406,11 @@
       </c>
       <c r="E29" s="203">
         <f>SUM(E30:E34)</f>
-        <v>2829374</v>
+        <v>2994741</v>
       </c>
       <c r="F29" s="248">
         <f>E29/E35</f>
-        <v>0.77118950819386156</v>
+        <v>0.78105795429620328</v>
       </c>
       <c r="G29" s="219" t="s">
         <v>130</v>
@@ -18417,7 +18421,7 @@
       </c>
       <c r="I29" s="252">
         <f t="shared" si="21"/>
-        <v>0.25799952246538693</v>
+        <v>0.24687217265820791</v>
       </c>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -18453,7 +18457,9 @@
       <c r="X29" s="96">
         <v>18</v>
       </c>
-      <c r="Y29" s="96"/>
+      <c r="Y29" s="96">
+        <v>18</v>
+      </c>
       <c r="Z29" s="96"/>
       <c r="AA29" s="96"/>
       <c r="AB29" s="96"/>
@@ -18468,18 +18474,18 @@
       </c>
       <c r="B30" s="289">
         <f t="shared" si="19"/>
-        <v>0.12655127752266573</v>
+        <v>0.1259004435331591</v>
       </c>
       <c r="D30" s="222" t="s">
         <v>114</v>
       </c>
       <c r="E30" s="223">
         <f>M11</f>
-        <v>18210</v>
+        <v>23280</v>
       </c>
       <c r="F30" s="250">
         <f>E30/E35</f>
-        <v>4.9634162695388522E-3</v>
+        <v>6.0716533336323949E-3</v>
       </c>
       <c r="G30" s="219" t="s">
         <v>131</v>
@@ -18490,10 +18496,10 @@
       </c>
       <c r="I30" s="252">
         <f t="shared" si="21"/>
-        <v>9.8123550633387513E-2</v>
+        <v>9.3891546396377243E-2</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="465" t="s">
+      <c r="L30" s="469" t="s">
         <v>140</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -18528,7 +18534,9 @@
       <c r="X30" s="96">
         <v>29320</v>
       </c>
-      <c r="Y30" s="96"/>
+      <c r="Y30" s="96">
+        <v>35860</v>
+      </c>
       <c r="Z30" s="96"/>
       <c r="AA30" s="96"/>
       <c r="AB30" s="96"/>
@@ -18543,7 +18551,7 @@
       </c>
       <c r="B31" s="289">
         <f t="shared" si="19"/>
-        <v>3.2968326857411986E-3</v>
+        <v>3.2798775762266975E-3</v>
       </c>
       <c r="D31" s="222" t="s">
         <v>124</v>
@@ -18554,7 +18562,7 @@
       </c>
       <c r="F31" s="250">
         <f>E31/E35</f>
-        <v>0.28973703978691928</v>
+        <v>0.27724087172041395</v>
       </c>
       <c r="G31" s="219" t="s">
         <v>135</v>
@@ -18565,10 +18573,10 @@
       </c>
       <c r="I31" s="252">
         <f t="shared" si="21"/>
-        <v>1.9079579289825351E-3</v>
+        <v>1.8256689577073354E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="465"/>
+      <c r="L31" s="469"/>
       <c r="M31" s="98" t="s">
         <v>141</v>
       </c>
@@ -18601,7 +18609,9 @@
       <c r="X31" s="96">
         <v>7400</v>
       </c>
-      <c r="Y31" s="96"/>
+      <c r="Y31" s="96">
+        <v>7400</v>
+      </c>
       <c r="Z31" s="96"/>
       <c r="AA31" s="96"/>
       <c r="AB31" s="96"/>
@@ -18623,11 +18633,11 @@
       </c>
       <c r="E32" s="223">
         <f>M6</f>
-        <v>919891</v>
+        <v>1070353</v>
       </c>
       <c r="F32" s="250">
         <f>E32/E35</f>
-        <v>0.25073047532138187</v>
+        <v>0.27915860655555991</v>
       </c>
       <c r="G32" s="219" t="s">
         <v>136</v>
@@ -18641,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="465"/>
+      <c r="L32" s="469"/>
       <c r="M32" s="98" t="s">
         <v>142</v>
       </c>
@@ -18674,7 +18684,9 @@
       <c r="X32" s="96">
         <v>25570</v>
       </c>
-      <c r="Y32" s="96"/>
+      <c r="Y32" s="96">
+        <v>31910</v>
+      </c>
       <c r="Z32" s="96"/>
       <c r="AA32" s="96"/>
       <c r="AB32" s="96"/>
@@ -18693,17 +18705,17 @@
       </c>
       <c r="E33" s="223">
         <f>M7</f>
-        <v>828273</v>
+        <v>838108</v>
       </c>
       <c r="F33" s="250">
         <f>E33/E35</f>
-        <v>0.2257585768160216</v>
+        <v>0.21858682268659707</v>
       </c>
       <c r="G33" s="215"/>
       <c r="H33" s="271"/>
       <c r="I33" s="272"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="465"/>
+      <c r="L33" s="469"/>
       <c r="M33" s="98" t="s">
         <v>143</v>
       </c>
@@ -18736,7 +18748,9 @@
       <c r="X33" s="96">
         <v>5210</v>
       </c>
-      <c r="Y33" s="96"/>
+      <c r="Y33" s="96">
+        <v>5250</v>
+      </c>
       <c r="Z33" s="96"/>
       <c r="AA33" s="96"/>
       <c r="AB33" s="96"/>
@@ -18762,7 +18776,7 @@
       <c r="H34" s="278"/>
       <c r="I34" s="279"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="465"/>
+      <c r="L34" s="469"/>
       <c r="M34" s="98" t="s">
         <v>144</v>
       </c>
@@ -18790,12 +18804,14 @@
       <c r="U34" s="99"/>
       <c r="V34" s="99"/>
       <c r="W34" s="99" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="X34" s="99" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y34" s="99"/>
+        <v>344</v>
+      </c>
+      <c r="Y34" s="99" t="s">
+        <v>349</v>
+      </c>
       <c r="Z34" s="99"/>
       <c r="AA34" s="99"/>
       <c r="AB34" s="99"/>
@@ -18804,17 +18820,17 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="467">
+      <c r="A35" s="471">
         <f>M25</f>
-        <v>2123250</v>
-      </c>
-      <c r="B35" s="467"/>
+        <v>2134226</v>
+      </c>
+      <c r="B35" s="471"/>
       <c r="D35" s="280" t="s">
         <v>209</v>
       </c>
       <c r="E35" s="281">
         <f>E29+E21+E15+E5+E10+E24</f>
-        <v>3668844</v>
+        <v>3834211</v>
       </c>
       <c r="F35" s="224">
         <f>F29+F21+F15+F5+F10+F24</f>
@@ -18825,14 +18841,14 @@
       </c>
       <c r="H35" s="281">
         <f>H26+H18+H10+H5+H22</f>
-        <v>3668844</v>
+        <v>3834211</v>
       </c>
       <c r="I35" s="282">
         <f>H35/$H$35</f>
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="465"/>
+      <c r="L35" s="469"/>
       <c r="M35" s="98" t="s">
         <v>146</v>
       </c>
@@ -18865,7 +18881,9 @@
       <c r="X35" s="100">
         <v>5.5</v>
       </c>
-      <c r="Y35" s="100"/>
+      <c r="Y35" s="100">
+        <v>5.5</v>
+      </c>
       <c r="Z35" s="100"/>
       <c r="AA35" s="100"/>
       <c r="AB35" s="100"/>
@@ -18883,7 +18901,7 @@
       </c>
       <c r="I36" s="197"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="465"/>
+      <c r="L36" s="469"/>
       <c r="M36" s="98" t="s">
         <v>147</v>
       </c>
@@ -18916,7 +18934,9 @@
       <c r="X36" s="100">
         <v>6</v>
       </c>
-      <c r="Y36" s="100"/>
+      <c r="Y36" s="100">
+        <v>6</v>
+      </c>
       <c r="Z36" s="100"/>
       <c r="AA36" s="100"/>
       <c r="AB36" s="100"/>
@@ -18930,7 +18950,7 @@
       <c r="H37" s="197"/>
       <c r="I37" s="197"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="465"/>
+      <c r="L37" s="469"/>
       <c r="M37" s="98" t="s">
         <v>148</v>
       </c>
@@ -18963,7 +18983,9 @@
       <c r="X37" s="100">
         <v>2.75</v>
       </c>
-      <c r="Y37" s="100"/>
+      <c r="Y37" s="100">
+        <v>2.75</v>
+      </c>
       <c r="Z37" s="100"/>
       <c r="AA37" s="100"/>
       <c r="AB37" s="100"/>
@@ -19021,9 +19043,9 @@
         <f t="shared" si="25"/>
         <v>3.9621621621621621</v>
       </c>
-      <c r="Y38" s="102" t="e">
+      <c r="Y38" s="102">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>4.845945945945946</v>
       </c>
       <c r="Z38" s="102" t="e">
         <f t="shared" si="25"/>
@@ -19061,10 +19083,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="468"/>
-      <c r="R39" s="468"/>
-      <c r="S39" s="468"/>
-      <c r="T39" s="468"/>
+      <c r="Q39" s="472"/>
+      <c r="R39" s="472"/>
+      <c r="S39" s="472"/>
+      <c r="T39" s="472"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="197"/>
@@ -19116,10 +19138,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="458"/>
-      <c r="R42" s="458"/>
-      <c r="S42" s="458"/>
-      <c r="T42" s="458"/>
+      <c r="Q42" s="465"/>
+      <c r="R42" s="465"/>
+      <c r="S42" s="465"/>
+      <c r="T42" s="465"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -19140,10 +19162,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="458"/>
-      <c r="R44" s="458"/>
-      <c r="S44" s="458"/>
-      <c r="T44" s="458"/>
+      <c r="Q44" s="465"/>
+      <c r="R44" s="465"/>
+      <c r="S44" s="465"/>
+      <c r="T44" s="465"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -19152,9 +19174,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="458"/>
-      <c r="R45" s="458"/>
-      <c r="S45" s="458"/>
+      <c r="Q45" s="465"/>
+      <c r="R45" s="465"/>
+      <c r="S45" s="465"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -19411,6 +19433,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
@@ -19419,12 +19447,6 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
@@ -19460,7 +19482,7 @@
   <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19511,18 +19533,18 @@
       <c r="C2" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="469" t="s">
+      <c r="D2" s="486" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="469"/>
-      <c r="F2" s="470" t="s">
+      <c r="E2" s="486"/>
+      <c r="F2" s="487" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="470"/>
-      <c r="H2" s="471" t="s">
+      <c r="G2" s="487"/>
+      <c r="H2" s="488" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="471"/>
+      <c r="I2" s="488"/>
       <c r="K2" s="60"/>
       <c r="M2" s="147">
         <v>11</v>
@@ -19553,11 +19575,11 @@
       </c>
       <c r="B3" s="152">
         <f>B4+B5+B6+B7</f>
-        <v>12400</v>
+        <v>14287</v>
       </c>
       <c r="C3" s="153">
         <f>C4+C5+C6+C7</f>
-        <v>14287</v>
+        <v>15763.329599999999</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>197</v>
@@ -19611,39 +19633,39 @@
         <v>203</v>
       </c>
       <c r="B4" s="152">
-        <v>8000</v>
+        <v>8389</v>
       </c>
       <c r="C4" s="157">
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="D4" s="158">
         <v>45</v>
       </c>
       <c r="E4" s="159">
         <f>D4*(C4-B4)</f>
-        <v>17505</v>
+        <v>39002.399999999972</v>
       </c>
       <c r="F4" s="160">
         <v>0.5</v>
       </c>
       <c r="G4" s="159">
         <f>(C4-B4)*F4</f>
-        <v>194.5</v>
+        <v>433.35999999999967</v>
       </c>
       <c r="H4" s="160">
         <v>7</v>
       </c>
       <c r="I4" s="161">
         <f>(C4-B4)*H4</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="J4" s="159">
         <f>H4*C4</f>
-        <v>58723</v>
+        <v>64790.039999999994</v>
       </c>
       <c r="K4" s="25">
         <f>B4*F4</f>
-        <v>4000</v>
+        <v>4194.5</v>
       </c>
       <c r="L4" s="68">
         <f>5000*N13*F4</f>
@@ -19677,39 +19699,39 @@
         <v>204</v>
       </c>
       <c r="B5" s="152">
-        <v>3000</v>
+        <v>3107</v>
       </c>
       <c r="C5" s="162">
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="D5" s="163">
         <v>75</v>
       </c>
       <c r="E5" s="159">
         <f>D5*(C5-B5)</f>
-        <v>8025</v>
+        <v>24055.499999999985</v>
       </c>
       <c r="F5" s="164">
         <v>0.7</v>
       </c>
       <c r="G5" s="159">
         <f>(C5-B5)*F5</f>
-        <v>74.899999999999991</v>
+        <v>224.51799999999983</v>
       </c>
       <c r="H5" s="164">
         <v>10</v>
       </c>
       <c r="I5" s="161">
         <f>(C5-B5)*H5</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="J5" s="159">
         <f>H5*C5</f>
-        <v>31070</v>
+        <v>34277.399999999994</v>
       </c>
       <c r="K5" s="25">
         <f>B5*F5</f>
-        <v>2100</v>
+        <v>2174.8999999999996</v>
       </c>
       <c r="L5" s="68">
         <f>5000*O13*F5</f>
@@ -19743,39 +19765,39 @@
         <v>205</v>
       </c>
       <c r="B6" s="152">
-        <v>1200</v>
+        <v>2486</v>
       </c>
       <c r="C6" s="162">
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="D6" s="158">
         <v>90</v>
       </c>
       <c r="E6" s="159">
         <f>D6*(C6-B6)</f>
-        <v>115740</v>
+        <v>23116.464</v>
       </c>
       <c r="F6" s="160">
         <v>1</v>
       </c>
       <c r="G6" s="159">
         <f>(C6-B6)*F6</f>
-        <v>1286</v>
+        <v>256.84960000000001</v>
       </c>
       <c r="H6" s="160">
         <v>19</v>
       </c>
       <c r="I6" s="161">
         <f>(C6-B6)*H6</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="J6" s="159">
         <f>H6*C6</f>
-        <v>47234</v>
+        <v>52114.142399999997</v>
       </c>
       <c r="K6" s="25">
         <f>B6*F6</f>
-        <v>1200</v>
+        <v>2486</v>
       </c>
       <c r="L6" s="68">
         <f>5000*P13*F6</f>
@@ -19809,39 +19831,39 @@
         <v>206</v>
       </c>
       <c r="B7" s="152">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="C7" s="165">
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="D7" s="163">
         <v>300</v>
       </c>
       <c r="E7" s="159">
         <f>D7*(C7-B7)</f>
-        <v>31500</v>
+        <v>9605.9999999999945</v>
       </c>
       <c r="F7" s="164">
         <v>2.5</v>
       </c>
       <c r="G7" s="159">
         <f>(C7-B7)*F7</f>
-        <v>262.5</v>
+        <v>80.049999999999955</v>
       </c>
       <c r="H7" s="164">
         <v>35</v>
       </c>
       <c r="I7" s="161">
         <f>(C7-B7)*H7</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="J7" s="159">
         <f>H7*C7</f>
-        <v>10675</v>
+        <v>11795.699999999999</v>
       </c>
       <c r="K7" s="25">
         <f>B7*F7</f>
-        <v>500</v>
+        <v>762.5</v>
       </c>
       <c r="L7" s="68">
         <f>5000*Q13*F7</f>
@@ -19873,15 +19895,15 @@
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C8" s="166">
         <f>C4/$C$3</f>
-        <v>0.58717715405613491</v>
+        <v>0.58716782779191523</v>
       </c>
       <c r="J8" s="159">
         <f>J7+J6+J5+J4</f>
-        <v>147702</v>
+        <v>162977.28239999997</v>
       </c>
       <c r="K8" s="25">
         <f>K7+K6+K5+K4</f>
-        <v>7800</v>
+        <v>9617.9</v>
       </c>
       <c r="L8" s="25">
         <f>L7+L6+L5+L4</f>
@@ -19913,11 +19935,11 @@
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C9" s="167">
         <f>C5/$C$3</f>
-        <v>0.21747042766151045</v>
+        <v>0.21745025238830254</v>
       </c>
       <c r="E9" s="168">
         <f>C4-B4</f>
-        <v>389</v>
+        <v>866.71999999999935</v>
       </c>
       <c r="H9">
         <f>H10+H11+H12+H13</f>
@@ -19949,15 +19971,15 @@
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="169">
         <f>B11/B13</f>
-        <v>5.4713574437818026E-2</v>
+        <v>9.4535503772704033E-2</v>
       </c>
       <c r="C10" s="167">
         <f>C6/$C$3</f>
-        <v>0.17400433960943515</v>
+        <v>0.17400191898544076</v>
       </c>
       <c r="E10" s="168">
         <f>C5-B5</f>
-        <v>107</v>
+        <v>320.73999999999978</v>
       </c>
       <c r="H10">
         <v>40146</v>
@@ -19998,11 +20020,11 @@
       </c>
       <c r="C11" s="167">
         <f>C7/$C$3</f>
-        <v>2.1348078672919438E-2</v>
+        <v>2.1380000834341495E-2</v>
       </c>
       <c r="E11" s="168">
         <f>C6-B6</f>
-        <v>1286</v>
+        <v>256.84960000000001</v>
       </c>
       <c r="H11">
         <v>15594</v>
@@ -20040,11 +20062,11 @@
       </c>
       <c r="B12" s="173">
         <f>E7+E6+E5+E4</f>
-        <v>172770</v>
+        <v>95780.363999999943</v>
       </c>
       <c r="E12" s="168">
         <f>C7-B7</f>
-        <v>105</v>
+        <v>32.019999999999982</v>
       </c>
       <c r="H12">
         <v>13868</v>
@@ -20082,7 +20104,7 @@
       </c>
       <c r="B13" s="175">
         <f>B11+B12</f>
-        <v>182770</v>
+        <v>105780.36399999994</v>
       </c>
       <c r="H13">
         <v>1696</v>
@@ -20214,119 +20236,119 @@
         <v>210</v>
       </c>
       <c r="B16" s="178">
-        <v>500</v>
+        <v>612</v>
       </c>
       <c r="C16" s="178">
         <f>B16+35</f>
-        <v>535</v>
+        <v>647</v>
       </c>
       <c r="D16" s="178">
         <f t="shared" ref="D16:AD16" si="1">C16+35</f>
-        <v>570</v>
+        <v>682</v>
       </c>
       <c r="E16" s="178">
         <f t="shared" si="1"/>
-        <v>605</v>
+        <v>717</v>
       </c>
       <c r="F16" s="178">
         <f t="shared" si="1"/>
-        <v>640</v>
+        <v>752</v>
       </c>
       <c r="G16" s="178">
         <f t="shared" si="1"/>
-        <v>675</v>
+        <v>787</v>
       </c>
       <c r="H16" s="178">
         <f t="shared" si="1"/>
-        <v>710</v>
+        <v>822</v>
       </c>
       <c r="I16" s="178">
         <f t="shared" si="1"/>
-        <v>745</v>
+        <v>857</v>
       </c>
       <c r="J16" s="178">
         <f t="shared" si="1"/>
-        <v>780</v>
+        <v>892</v>
       </c>
       <c r="K16" s="178">
         <f t="shared" si="1"/>
-        <v>815</v>
+        <v>927</v>
       </c>
       <c r="L16" s="178">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>962</v>
       </c>
       <c r="M16" s="178">
         <f t="shared" si="1"/>
-        <v>885</v>
+        <v>997</v>
       </c>
       <c r="N16" s="178">
         <f t="shared" si="1"/>
-        <v>920</v>
+        <v>1032</v>
       </c>
       <c r="O16" s="178">
         <f t="shared" si="1"/>
-        <v>955</v>
+        <v>1067</v>
       </c>
       <c r="P16" s="178">
         <f t="shared" si="1"/>
-        <v>990</v>
+        <v>1102</v>
       </c>
       <c r="Q16" s="178">
         <f t="shared" si="1"/>
-        <v>1025</v>
+        <v>1137</v>
       </c>
       <c r="R16" s="178">
         <f t="shared" si="1"/>
-        <v>1060</v>
+        <v>1172</v>
       </c>
       <c r="S16" s="178">
         <f t="shared" si="1"/>
-        <v>1095</v>
+        <v>1207</v>
       </c>
       <c r="T16" s="178">
         <f t="shared" si="1"/>
-        <v>1130</v>
+        <v>1242</v>
       </c>
       <c r="U16" s="178">
         <f t="shared" si="1"/>
-        <v>1165</v>
+        <v>1277</v>
       </c>
       <c r="V16" s="178">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>1312</v>
       </c>
       <c r="W16" s="178">
         <f t="shared" si="1"/>
-        <v>1235</v>
+        <v>1347</v>
       </c>
       <c r="X16" s="178">
         <f t="shared" si="1"/>
-        <v>1270</v>
+        <v>1382</v>
       </c>
       <c r="Y16" s="178">
         <f t="shared" si="1"/>
-        <v>1305</v>
+        <v>1417</v>
       </c>
       <c r="Z16" s="178">
         <f t="shared" si="1"/>
-        <v>1340</v>
+        <v>1452</v>
       </c>
       <c r="AA16" s="178">
         <f t="shared" si="1"/>
-        <v>1375</v>
+        <v>1487</v>
       </c>
       <c r="AB16" s="178">
         <f t="shared" si="1"/>
-        <v>1410</v>
+        <v>1522</v>
       </c>
       <c r="AC16" s="178">
         <f t="shared" si="1"/>
-        <v>1445</v>
+        <v>1557</v>
       </c>
       <c r="AD16" s="178">
         <f t="shared" si="1"/>
-        <v>1480</v>
+        <v>1592</v>
       </c>
       <c r="AE16" s="178"/>
       <c r="AF16" s="177"/>
@@ -20338,119 +20360,119 @@
       <c r="A17" s="177"/>
       <c r="B17" s="178">
         <f t="shared" ref="B17:AD17" si="2">B18+B19+B20+B21</f>
-        <v>9588.4</v>
+        <v>11736.2016</v>
       </c>
       <c r="C17" s="178">
         <f t="shared" si="2"/>
-        <v>10259.588</v>
+        <v>12407.389599999999</v>
       </c>
       <c r="D17" s="178">
         <f t="shared" si="2"/>
-        <v>10930.776000000002</v>
+        <v>13078.577600000001</v>
       </c>
       <c r="E17" s="178">
         <f t="shared" si="2"/>
-        <v>11601.963999999998</v>
+        <v>13749.765599999999</v>
       </c>
       <c r="F17" s="178">
         <f t="shared" si="2"/>
-        <v>12273.152</v>
+        <v>14420.953600000001</v>
       </c>
       <c r="G17" s="178">
         <f t="shared" si="2"/>
-        <v>12944.34</v>
+        <v>15092.141600000001</v>
       </c>
       <c r="H17" s="178">
         <f t="shared" si="2"/>
-        <v>13615.528</v>
+        <v>15763.329599999999</v>
       </c>
       <c r="I17" s="178">
         <f t="shared" si="2"/>
-        <v>14286.716</v>
+        <v>16434.517599999999</v>
       </c>
       <c r="J17" s="178">
         <f t="shared" si="2"/>
-        <v>14957.903999999999</v>
+        <v>17105.705600000001</v>
       </c>
       <c r="K17" s="178">
         <f t="shared" si="2"/>
-        <v>15629.091999999999</v>
+        <v>17776.893599999999</v>
       </c>
       <c r="L17" s="178">
         <f t="shared" si="2"/>
-        <v>16300.279999999999</v>
+        <v>18448.081599999998</v>
       </c>
       <c r="M17" s="178">
         <f t="shared" si="2"/>
-        <v>16971.467999999997</v>
+        <v>19119.2696</v>
       </c>
       <c r="N17" s="178">
         <f t="shared" si="2"/>
-        <v>17642.655999999999</v>
+        <v>19790.457599999998</v>
       </c>
       <c r="O17" s="178">
         <f t="shared" si="2"/>
-        <v>18313.843999999997</v>
+        <v>20461.645600000003</v>
       </c>
       <c r="P17" s="178">
         <f t="shared" si="2"/>
-        <v>18985.032000000003</v>
+        <v>21132.833599999998</v>
       </c>
       <c r="Q17" s="178">
         <f t="shared" si="2"/>
-        <v>19656.22</v>
+        <v>21804.021599999996</v>
       </c>
       <c r="R17" s="178">
         <f t="shared" si="2"/>
-        <v>20327.407999999996</v>
+        <v>22475.209599999998</v>
       </c>
       <c r="S17" s="178">
         <f t="shared" si="2"/>
-        <v>20998.595999999998</v>
+        <v>23146.397599999997</v>
       </c>
       <c r="T17" s="178">
         <f t="shared" si="2"/>
-        <v>21669.784</v>
+        <v>23817.585600000002</v>
       </c>
       <c r="U17" s="178">
         <f t="shared" si="2"/>
-        <v>22340.972000000002</v>
+        <v>24488.7736</v>
       </c>
       <c r="V17" s="178">
         <f t="shared" si="2"/>
-        <v>23012.16</v>
+        <v>25159.961599999999</v>
       </c>
       <c r="W17" s="178">
         <f t="shared" si="2"/>
-        <v>23683.347999999998</v>
+        <v>25831.149600000001</v>
       </c>
       <c r="X17" s="178">
         <f t="shared" si="2"/>
-        <v>24354.536</v>
+        <v>26502.337599999995</v>
       </c>
       <c r="Y17" s="178">
         <f t="shared" si="2"/>
-        <v>25025.723999999998</v>
+        <v>27173.525600000001</v>
       </c>
       <c r="Z17" s="178">
         <f t="shared" si="2"/>
-        <v>25696.912000000004</v>
+        <v>27844.713599999999</v>
       </c>
       <c r="AA17" s="178">
         <f t="shared" si="2"/>
-        <v>26368.1</v>
+        <v>28515.901599999997</v>
       </c>
       <c r="AB17" s="178">
         <f t="shared" si="2"/>
-        <v>27039.287999999997</v>
+        <v>29187.089599999999</v>
       </c>
       <c r="AC17" s="178">
         <f t="shared" si="2"/>
-        <v>27710.475999999999</v>
+        <v>29858.277599999998</v>
       </c>
       <c r="AD17" s="178">
         <f t="shared" si="2"/>
-        <v>28381.663999999997</v>
+        <v>30529.4656</v>
       </c>
       <c r="AE17" s="178"/>
       <c r="AF17" s="178"/>
@@ -20464,119 +20486,119 @@
       </c>
       <c r="B18" s="180">
         <f>B16*$N$7</f>
-        <v>5630</v>
+        <v>6891.12</v>
       </c>
       <c r="C18" s="180">
         <f t="shared" ref="C18:AD18" si="3">C16*$N$7</f>
-        <v>6024.0999999999995</v>
+        <v>7285.22</v>
       </c>
       <c r="D18" s="180">
         <f t="shared" si="3"/>
-        <v>6418.2</v>
+        <v>7679.32</v>
       </c>
       <c r="E18" s="180">
         <f t="shared" si="3"/>
-        <v>6812.3</v>
+        <v>8073.42</v>
       </c>
       <c r="F18" s="180">
         <f t="shared" si="3"/>
-        <v>7206.4</v>
+        <v>8467.52</v>
       </c>
       <c r="G18" s="180">
         <f t="shared" si="3"/>
-        <v>7600.5</v>
+        <v>8861.619999999999</v>
       </c>
       <c r="H18" s="180">
         <f t="shared" si="3"/>
-        <v>7994.5999999999995</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="I18" s="180">
         <f t="shared" si="3"/>
-        <v>8388.7000000000007</v>
+        <v>9649.82</v>
       </c>
       <c r="J18" s="180">
         <f t="shared" si="3"/>
-        <v>8782.7999999999993</v>
+        <v>10043.92</v>
       </c>
       <c r="K18" s="180">
         <f t="shared" si="3"/>
-        <v>9176.9</v>
+        <v>10438.02</v>
       </c>
       <c r="L18" s="180">
         <f t="shared" si="3"/>
-        <v>9571</v>
+        <v>10832.119999999999</v>
       </c>
       <c r="M18" s="180">
         <f t="shared" si="3"/>
-        <v>9965.1</v>
+        <v>11226.22</v>
       </c>
       <c r="N18" s="180">
         <f t="shared" si="3"/>
-        <v>10359.199999999999</v>
+        <v>11620.32</v>
       </c>
       <c r="O18" s="180">
         <f t="shared" si="3"/>
-        <v>10753.3</v>
+        <v>12014.42</v>
       </c>
       <c r="P18" s="180">
         <f t="shared" si="3"/>
-        <v>11147.4</v>
+        <v>12408.52</v>
       </c>
       <c r="Q18" s="180">
         <f t="shared" si="3"/>
-        <v>11541.5</v>
+        <v>12802.619999999999</v>
       </c>
       <c r="R18" s="180">
         <f t="shared" si="3"/>
-        <v>11935.6</v>
+        <v>13196.72</v>
       </c>
       <c r="S18" s="180">
         <f t="shared" si="3"/>
-        <v>12329.699999999999</v>
+        <v>13590.82</v>
       </c>
       <c r="T18" s="180">
         <f t="shared" si="3"/>
-        <v>12723.8</v>
+        <v>13984.92</v>
       </c>
       <c r="U18" s="180">
         <f t="shared" si="3"/>
-        <v>13117.9</v>
+        <v>14379.02</v>
       </c>
       <c r="V18" s="180">
         <f t="shared" si="3"/>
-        <v>13512</v>
+        <v>14773.119999999999</v>
       </c>
       <c r="W18" s="180">
         <f t="shared" si="3"/>
-        <v>13906.1</v>
+        <v>15167.22</v>
       </c>
       <c r="X18" s="180">
         <f t="shared" si="3"/>
-        <v>14300.199999999999</v>
+        <v>15561.32</v>
       </c>
       <c r="Y18" s="180">
         <f t="shared" si="3"/>
-        <v>14694.3</v>
+        <v>15955.42</v>
       </c>
       <c r="Z18" s="180">
         <f t="shared" si="3"/>
-        <v>15088.4</v>
+        <v>16349.52</v>
       </c>
       <c r="AA18" s="180">
         <f t="shared" si="3"/>
-        <v>15482.5</v>
+        <v>16743.62</v>
       </c>
       <c r="AB18" s="180">
         <f t="shared" si="3"/>
-        <v>15876.6</v>
+        <v>17137.72</v>
       </c>
       <c r="AC18" s="180">
         <f t="shared" si="3"/>
-        <v>16270.699999999999</v>
+        <v>17531.82</v>
       </c>
       <c r="AD18" s="180">
         <f t="shared" si="3"/>
-        <v>16664.8</v>
+        <v>17925.919999999998</v>
       </c>
       <c r="AE18" s="180"/>
       <c r="AF18" s="180"/>
@@ -20603,119 +20625,119 @@
       </c>
       <c r="B19" s="180">
         <f>B16*$O$7</f>
-        <v>2085</v>
+        <v>2552.04</v>
       </c>
       <c r="C19" s="180">
         <f t="shared" ref="C19:AD19" si="4">C16*$O$7</f>
-        <v>2230.9499999999998</v>
+        <v>2697.99</v>
       </c>
       <c r="D19" s="180">
         <f t="shared" si="4"/>
-        <v>2376.9</v>
+        <v>2843.94</v>
       </c>
       <c r="E19" s="180">
         <f t="shared" si="4"/>
-        <v>2522.85</v>
+        <v>2989.89</v>
       </c>
       <c r="F19" s="180">
         <f t="shared" si="4"/>
-        <v>2668.8</v>
+        <v>3135.84</v>
       </c>
       <c r="G19" s="180">
         <f t="shared" si="4"/>
-        <v>2814.75</v>
+        <v>3281.79</v>
       </c>
       <c r="H19" s="180">
         <f t="shared" si="4"/>
-        <v>2960.7</v>
+        <v>3427.74</v>
       </c>
       <c r="I19" s="180">
         <f t="shared" si="4"/>
-        <v>3106.65</v>
+        <v>3573.69</v>
       </c>
       <c r="J19" s="180">
         <f t="shared" si="4"/>
-        <v>3252.6</v>
+        <v>3719.64</v>
       </c>
       <c r="K19" s="180">
         <f t="shared" si="4"/>
-        <v>3398.5499999999997</v>
+        <v>3865.59</v>
       </c>
       <c r="L19" s="180">
         <f t="shared" si="4"/>
-        <v>3544.5</v>
+        <v>4011.54</v>
       </c>
       <c r="M19" s="180">
         <f t="shared" si="4"/>
-        <v>3690.45</v>
+        <v>4157.49</v>
       </c>
       <c r="N19" s="180">
         <f t="shared" si="4"/>
-        <v>3836.4</v>
+        <v>4303.4399999999996</v>
       </c>
       <c r="O19" s="180">
         <f t="shared" si="4"/>
-        <v>3982.35</v>
+        <v>4449.3900000000003</v>
       </c>
       <c r="P19" s="180">
         <f t="shared" si="4"/>
-        <v>4128.3</v>
+        <v>4595.34</v>
       </c>
       <c r="Q19" s="180">
         <f t="shared" si="4"/>
-        <v>4274.25</v>
+        <v>4741.29</v>
       </c>
       <c r="R19" s="180">
         <f t="shared" si="4"/>
-        <v>4420.2</v>
+        <v>4887.24</v>
       </c>
       <c r="S19" s="180">
         <f t="shared" si="4"/>
-        <v>4566.1499999999996</v>
+        <v>5033.1899999999996</v>
       </c>
       <c r="T19" s="180">
         <f t="shared" si="4"/>
-        <v>4712.1000000000004</v>
+        <v>5179.1400000000003</v>
       </c>
       <c r="U19" s="180">
         <f t="shared" si="4"/>
-        <v>4858.05</v>
+        <v>5325.09</v>
       </c>
       <c r="V19" s="180">
         <f t="shared" si="4"/>
-        <v>5004</v>
+        <v>5471.04</v>
       </c>
       <c r="W19" s="180">
         <f t="shared" si="4"/>
-        <v>5149.95</v>
+        <v>5616.99</v>
       </c>
       <c r="X19" s="180">
         <f t="shared" si="4"/>
-        <v>5295.9</v>
+        <v>5762.94</v>
       </c>
       <c r="Y19" s="180">
         <f t="shared" si="4"/>
-        <v>5441.8499999999995</v>
+        <v>5908.89</v>
       </c>
       <c r="Z19" s="180">
         <f t="shared" si="4"/>
-        <v>5587.8</v>
+        <v>6054.84</v>
       </c>
       <c r="AA19" s="180">
         <f t="shared" si="4"/>
-        <v>5733.75</v>
+        <v>6200.79</v>
       </c>
       <c r="AB19" s="180">
         <f t="shared" si="4"/>
-        <v>5879.7</v>
+        <v>6346.74</v>
       </c>
       <c r="AC19" s="180">
         <f t="shared" si="4"/>
-        <v>6025.65</v>
+        <v>6492.69</v>
       </c>
       <c r="AD19" s="180">
         <f t="shared" si="4"/>
-        <v>6171.5999999999995</v>
+        <v>6638.64</v>
       </c>
       <c r="AE19" s="180"/>
       <c r="AF19" s="180"/>
@@ -20729,119 +20751,119 @@
       </c>
       <c r="B20" s="180">
         <f>B16*$P$7</f>
-        <v>1668.3999999999999</v>
+        <v>2042.1215999999999</v>
       </c>
       <c r="C20" s="180">
         <f t="shared" ref="C20:AD20" si="5">C16*$P$7</f>
-        <v>1785.1879999999999</v>
+        <v>2158.9096</v>
       </c>
       <c r="D20" s="180">
         <f t="shared" si="5"/>
-        <v>1901.9759999999999</v>
+        <v>2275.6976</v>
       </c>
       <c r="E20" s="180">
         <f t="shared" si="5"/>
-        <v>2018.7639999999999</v>
+        <v>2392.4856</v>
       </c>
       <c r="F20" s="180">
         <f t="shared" si="5"/>
-        <v>2135.5519999999997</v>
+        <v>2509.2736</v>
       </c>
       <c r="G20" s="180">
         <f t="shared" si="5"/>
-        <v>2252.3399999999997</v>
+        <v>2626.0616</v>
       </c>
       <c r="H20" s="180">
         <f t="shared" si="5"/>
-        <v>2369.1279999999997</v>
+        <v>2742.8496</v>
       </c>
       <c r="I20" s="180">
         <f t="shared" si="5"/>
-        <v>2485.9159999999997</v>
+        <v>2859.6376</v>
       </c>
       <c r="J20" s="180">
         <f t="shared" si="5"/>
-        <v>2602.7039999999997</v>
+        <v>2976.4255999999996</v>
       </c>
       <c r="K20" s="180">
         <f t="shared" si="5"/>
-        <v>2719.4919999999997</v>
+        <v>3093.2135999999996</v>
       </c>
       <c r="L20" s="180">
         <f t="shared" si="5"/>
-        <v>2836.2799999999997</v>
+        <v>3210.0015999999996</v>
       </c>
       <c r="M20" s="180">
         <f t="shared" si="5"/>
-        <v>2953.0679999999998</v>
+        <v>3326.7895999999996</v>
       </c>
       <c r="N20" s="180">
         <f t="shared" si="5"/>
-        <v>3069.8559999999998</v>
+        <v>3443.5775999999996</v>
       </c>
       <c r="O20" s="180">
         <f t="shared" si="5"/>
-        <v>3186.6439999999998</v>
+        <v>3560.3655999999996</v>
       </c>
       <c r="P20" s="180">
         <f t="shared" si="5"/>
-        <v>3303.4319999999998</v>
+        <v>3677.1535999999996</v>
       </c>
       <c r="Q20" s="180">
         <f t="shared" si="5"/>
-        <v>3420.22</v>
+        <v>3793.9415999999997</v>
       </c>
       <c r="R20" s="180">
         <f t="shared" si="5"/>
-        <v>3537.0079999999998</v>
+        <v>3910.7295999999997</v>
       </c>
       <c r="S20" s="180">
         <f t="shared" si="5"/>
-        <v>3653.7959999999998</v>
+        <v>4027.5175999999997</v>
       </c>
       <c r="T20" s="180">
         <f t="shared" si="5"/>
-        <v>3770.5839999999998</v>
+        <v>4144.3055999999997</v>
       </c>
       <c r="U20" s="180">
         <f t="shared" si="5"/>
-        <v>3887.3719999999998</v>
+        <v>4261.0936000000002</v>
       </c>
       <c r="V20" s="180">
         <f t="shared" si="5"/>
-        <v>4004.16</v>
+        <v>4377.8815999999997</v>
       </c>
       <c r="W20" s="180">
         <f t="shared" si="5"/>
-        <v>4120.9479999999994</v>
+        <v>4494.6695999999993</v>
       </c>
       <c r="X20" s="180">
         <f t="shared" si="5"/>
-        <v>4237.7359999999999</v>
+        <v>4611.4575999999997</v>
       </c>
       <c r="Y20" s="180">
         <f t="shared" si="5"/>
-        <v>4354.5239999999994</v>
+        <v>4728.2455999999993</v>
       </c>
       <c r="Z20" s="180">
         <f t="shared" si="5"/>
-        <v>4471.3119999999999</v>
+        <v>4845.0335999999998</v>
       </c>
       <c r="AA20" s="180">
         <f t="shared" si="5"/>
-        <v>4588.0999999999995</v>
+        <v>4961.8215999999993</v>
       </c>
       <c r="AB20" s="180">
         <f t="shared" si="5"/>
-        <v>4704.8879999999999</v>
+        <v>5078.6095999999998</v>
       </c>
       <c r="AC20" s="180">
         <f t="shared" si="5"/>
-        <v>4821.6759999999995</v>
+        <v>5195.3975999999993</v>
       </c>
       <c r="AD20" s="180">
         <f t="shared" si="5"/>
-        <v>4938.4639999999999</v>
+        <v>5312.1855999999998</v>
       </c>
       <c r="AE20" s="180"/>
       <c r="AF20" s="180"/>
@@ -20855,119 +20877,119 @@
       </c>
       <c r="B21" s="180">
         <f>B16*$Q$7</f>
-        <v>205</v>
+        <v>250.92</v>
       </c>
       <c r="C21" s="180">
         <f t="shared" ref="C21:AD21" si="6">C16*$Q$7</f>
-        <v>219.35</v>
+        <v>265.27</v>
       </c>
       <c r="D21" s="180">
         <f t="shared" si="6"/>
-        <v>233.7</v>
+        <v>279.62</v>
       </c>
       <c r="E21" s="180">
         <f t="shared" si="6"/>
-        <v>248.04999999999998</v>
+        <v>293.96999999999997</v>
       </c>
       <c r="F21" s="180">
         <f t="shared" si="6"/>
-        <v>262.39999999999998</v>
+        <v>308.32</v>
       </c>
       <c r="G21" s="180">
         <f t="shared" si="6"/>
-        <v>276.75</v>
+        <v>322.66999999999996</v>
       </c>
       <c r="H21" s="180">
         <f t="shared" si="6"/>
-        <v>291.09999999999997</v>
+        <v>337.02</v>
       </c>
       <c r="I21" s="180">
         <f t="shared" si="6"/>
-        <v>305.45</v>
+        <v>351.37</v>
       </c>
       <c r="J21" s="180">
         <f t="shared" si="6"/>
-        <v>319.79999999999995</v>
+        <v>365.71999999999997</v>
       </c>
       <c r="K21" s="180">
         <f t="shared" si="6"/>
-        <v>334.15</v>
+        <v>380.07</v>
       </c>
       <c r="L21" s="180">
         <f t="shared" si="6"/>
-        <v>348.5</v>
+        <v>394.41999999999996</v>
       </c>
       <c r="M21" s="180">
         <f t="shared" si="6"/>
-        <v>362.84999999999997</v>
+        <v>408.77</v>
       </c>
       <c r="N21" s="180">
         <f t="shared" si="6"/>
-        <v>377.2</v>
+        <v>423.11999999999995</v>
       </c>
       <c r="O21" s="180">
         <f t="shared" si="6"/>
-        <v>391.54999999999995</v>
+        <v>437.46999999999997</v>
       </c>
       <c r="P21" s="180">
         <f t="shared" si="6"/>
-        <v>405.9</v>
+        <v>451.82</v>
       </c>
       <c r="Q21" s="180">
         <f t="shared" si="6"/>
-        <v>420.25</v>
+        <v>466.16999999999996</v>
       </c>
       <c r="R21" s="180">
         <f t="shared" si="6"/>
-        <v>434.59999999999997</v>
+        <v>480.52</v>
       </c>
       <c r="S21" s="180">
         <f t="shared" si="6"/>
-        <v>448.95</v>
+        <v>494.86999999999995</v>
       </c>
       <c r="T21" s="180">
         <f t="shared" si="6"/>
-        <v>463.29999999999995</v>
+        <v>509.21999999999997</v>
       </c>
       <c r="U21" s="180">
         <f t="shared" si="6"/>
-        <v>477.65</v>
+        <v>523.56999999999994</v>
       </c>
       <c r="V21" s="180">
         <f t="shared" si="6"/>
-        <v>491.99999999999994</v>
+        <v>537.91999999999996</v>
       </c>
       <c r="W21" s="180">
         <f t="shared" si="6"/>
-        <v>506.34999999999997</v>
+        <v>552.27</v>
       </c>
       <c r="X21" s="180">
         <f t="shared" si="6"/>
-        <v>520.69999999999993</v>
+        <v>566.62</v>
       </c>
       <c r="Y21" s="180">
         <f t="shared" si="6"/>
-        <v>535.04999999999995</v>
+        <v>580.96999999999991</v>
       </c>
       <c r="Z21" s="180">
         <f t="shared" si="6"/>
-        <v>549.4</v>
+        <v>595.31999999999994</v>
       </c>
       <c r="AA21" s="180">
         <f t="shared" si="6"/>
-        <v>563.75</v>
+        <v>609.66999999999996</v>
       </c>
       <c r="AB21" s="180">
         <f t="shared" si="6"/>
-        <v>578.09999999999991</v>
+        <v>624.02</v>
       </c>
       <c r="AC21" s="180">
         <f t="shared" si="6"/>
-        <v>592.44999999999993</v>
+        <v>638.37</v>
       </c>
       <c r="AD21" s="180">
         <f t="shared" si="6"/>
-        <v>606.79999999999995</v>
+        <v>652.71999999999991</v>
       </c>
       <c r="AE21" s="180"/>
       <c r="AF21" s="180"/>
@@ -20981,119 +21003,119 @@
       </c>
       <c r="B22" s="180">
         <f t="shared" ref="B22:AD22" si="7">MIN(B$18,$C$4)</f>
-        <v>5630</v>
+        <v>6891.12</v>
       </c>
       <c r="C22" s="180">
         <f t="shared" si="7"/>
-        <v>6024.0999999999995</v>
+        <v>7285.22</v>
       </c>
       <c r="D22" s="180">
         <f t="shared" si="7"/>
-        <v>6418.2</v>
+        <v>7679.32</v>
       </c>
       <c r="E22" s="180">
         <f t="shared" si="7"/>
-        <v>6812.3</v>
+        <v>8073.42</v>
       </c>
       <c r="F22" s="180">
         <f t="shared" si="7"/>
-        <v>7206.4</v>
+        <v>8467.52</v>
       </c>
       <c r="G22" s="180">
         <f t="shared" si="7"/>
-        <v>7600.5</v>
+        <v>8861.619999999999</v>
       </c>
       <c r="H22" s="180">
         <f t="shared" si="7"/>
-        <v>7994.5999999999995</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="I22" s="180">
         <f t="shared" si="7"/>
-        <v>8388.7000000000007</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="J22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="K22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="L22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="M22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="N22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="O22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="P22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="Q22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="R22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="S22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="T22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="U22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="V22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="W22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="X22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="Y22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="Z22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="AA22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="AB22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="AC22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="AD22" s="180">
         <f t="shared" si="7"/>
-        <v>8389</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="AE22" s="180"/>
       <c r="AF22" s="180"/>
@@ -21107,119 +21129,119 @@
       </c>
       <c r="B23" s="180">
         <f t="shared" ref="B23:AD23" si="8">MIN(B$19,$C$5)</f>
-        <v>2085</v>
+        <v>2552.04</v>
       </c>
       <c r="C23" s="180">
         <f t="shared" si="8"/>
-        <v>2230.9499999999998</v>
+        <v>2697.99</v>
       </c>
       <c r="D23" s="180">
         <f t="shared" si="8"/>
-        <v>2376.9</v>
+        <v>2843.94</v>
       </c>
       <c r="E23" s="180">
         <f t="shared" si="8"/>
-        <v>2522.85</v>
+        <v>2989.89</v>
       </c>
       <c r="F23" s="180">
         <f t="shared" si="8"/>
-        <v>2668.8</v>
+        <v>3135.84</v>
       </c>
       <c r="G23" s="180">
         <f t="shared" si="8"/>
-        <v>2814.75</v>
+        <v>3281.79</v>
       </c>
       <c r="H23" s="180">
         <f t="shared" si="8"/>
-        <v>2960.7</v>
+        <v>3427.74</v>
       </c>
       <c r="I23" s="180">
         <f t="shared" si="8"/>
-        <v>3106.65</v>
+        <v>3427.74</v>
       </c>
       <c r="J23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="K23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="L23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="M23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="N23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="O23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="P23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="Q23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="R23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="S23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="T23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="U23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="V23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="W23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="X23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="Y23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="Z23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="AA23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="AB23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="AC23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="AD23" s="180">
         <f t="shared" si="8"/>
-        <v>3107</v>
+        <v>3427.74</v>
       </c>
       <c r="AE23" s="180"/>
       <c r="AF23" s="180"/>
@@ -21233,119 +21255,119 @@
       </c>
       <c r="B24" s="180">
         <f t="shared" ref="B24:AD24" si="9">MIN(B$20,$C$6)</f>
-        <v>1668.3999999999999</v>
+        <v>2042.1215999999999</v>
       </c>
       <c r="C24" s="180">
         <f t="shared" si="9"/>
-        <v>1785.1879999999999</v>
+        <v>2158.9096</v>
       </c>
       <c r="D24" s="180">
         <f t="shared" si="9"/>
-        <v>1901.9759999999999</v>
+        <v>2275.6976</v>
       </c>
       <c r="E24" s="180">
         <f t="shared" si="9"/>
-        <v>2018.7639999999999</v>
+        <v>2392.4856</v>
       </c>
       <c r="F24" s="180">
         <f t="shared" si="9"/>
-        <v>2135.5519999999997</v>
+        <v>2509.2736</v>
       </c>
       <c r="G24" s="180">
         <f t="shared" si="9"/>
-        <v>2252.3399999999997</v>
+        <v>2626.0616</v>
       </c>
       <c r="H24" s="180">
         <f t="shared" si="9"/>
-        <v>2369.1279999999997</v>
+        <v>2742.8496</v>
       </c>
       <c r="I24" s="180">
         <f t="shared" si="9"/>
-        <v>2485.9159999999997</v>
+        <v>2742.8496</v>
       </c>
       <c r="J24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="K24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="L24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="M24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="N24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="O24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="P24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="Q24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="R24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="S24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="T24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="U24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="V24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="W24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="X24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="Y24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="Z24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="AA24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="AB24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="AC24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="AD24" s="180">
         <f t="shared" si="9"/>
-        <v>2486</v>
+        <v>2742.8496</v>
       </c>
       <c r="AE24" s="180"/>
       <c r="AF24" s="180"/>
@@ -21359,119 +21381,119 @@
       </c>
       <c r="B25" s="180">
         <f t="shared" ref="B25:AD25" si="10">MIN(B$21,$C$7)</f>
-        <v>205</v>
+        <v>250.92</v>
       </c>
       <c r="C25" s="180">
         <f t="shared" si="10"/>
-        <v>219.35</v>
+        <v>265.27</v>
       </c>
       <c r="D25" s="180">
         <f t="shared" si="10"/>
-        <v>233.7</v>
+        <v>279.62</v>
       </c>
       <c r="E25" s="180">
         <f t="shared" si="10"/>
-        <v>248.04999999999998</v>
+        <v>293.96999999999997</v>
       </c>
       <c r="F25" s="180">
         <f t="shared" si="10"/>
-        <v>262.39999999999998</v>
+        <v>308.32</v>
       </c>
       <c r="G25" s="180">
         <f t="shared" si="10"/>
-        <v>276.75</v>
+        <v>322.66999999999996</v>
       </c>
       <c r="H25" s="180">
         <f t="shared" si="10"/>
-        <v>291.09999999999997</v>
+        <v>337.02</v>
       </c>
       <c r="I25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="J25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="K25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="L25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="M25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="N25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="O25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="P25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="Q25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="R25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="S25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="T25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="U25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="V25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="W25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="X25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="Y25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="Z25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="AA25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="AB25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="AC25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="AD25" s="180">
         <f t="shared" si="10"/>
-        <v>305</v>
+        <v>337.02</v>
       </c>
       <c r="AE25" s="180"/>
       <c r="AF25" s="180"/>
@@ -21499,91 +21521,91 @@
       </c>
       <c r="F26" s="182">
         <f>IF(F22&gt;$B$4,(F22-$B$4)*$H$4,0)</f>
-        <v>0</v>
+        <v>549.64000000000306</v>
       </c>
       <c r="G26" s="182">
         <v>0</v>
       </c>
       <c r="H26" s="182">
         <f>IF(H22&gt;$B$4,(H22-$B$4)*$H$4,0)</f>
-        <v>0</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="I26" s="182">
         <v>0</v>
       </c>
       <c r="J26" s="182">
         <f>IF(J22&gt;$B$4,(J22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="K26" s="182">
         <v>0</v>
       </c>
       <c r="L26" s="182">
         <f>IF(L22&gt;$B$4,(L22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="M26" s="182">
         <v>0</v>
       </c>
       <c r="N26" s="182">
         <f>IF(N22&gt;$B$4,(N22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="O26" s="182">
         <v>0</v>
       </c>
       <c r="P26" s="182">
         <f>IF(P22&gt;$B$4,(P22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="Q26" s="182">
         <v>0</v>
       </c>
       <c r="R26" s="182">
         <f>IF(R22&gt;$B$4,(R22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="S26" s="182">
         <v>0</v>
       </c>
       <c r="T26" s="182">
         <f>IF(T22&gt;$B$4,(T22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="U26" s="182">
         <v>0</v>
       </c>
       <c r="V26" s="182">
         <f>IF(V22&gt;$B$4,(V22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="W26" s="182">
         <v>0</v>
       </c>
       <c r="X26" s="182">
         <f>IF(X22&gt;$B$4,(X22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="Y26" s="182">
         <v>0</v>
       </c>
       <c r="Z26" s="182">
         <f>IF(Z22&gt;$B$4,(Z22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="AA26" s="182">
         <v>0</v>
       </c>
       <c r="AB26" s="182">
         <f>IF(AB22&gt;$B$4,(AB22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="AC26" s="182">
         <v>0</v>
       </c>
       <c r="AD26" s="182">
         <f>IF(AD22&gt;$B$4,(AD22-$B$4)*$H$4,0)</f>
-        <v>2723</v>
+        <v>6067.0399999999954</v>
       </c>
       <c r="AE26" s="182">
         <v>0</v>
@@ -21630,91 +21652,91 @@
       </c>
       <c r="F27" s="182">
         <f>IF(F23&gt;$B$5,(F23-$B$5)*$H$5,0)</f>
-        <v>0</v>
+        <v>288.40000000000146</v>
       </c>
       <c r="G27" s="182">
         <v>0</v>
       </c>
       <c r="H27" s="182">
         <f>IF(H23&gt;$B$5,(H23-$B$5)*$H$5,0)</f>
-        <v>0</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="I27" s="182">
         <v>0</v>
       </c>
       <c r="J27" s="182">
         <f>IF(J23&gt;$B$5,(J23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="K27" s="182">
         <v>0</v>
       </c>
       <c r="L27" s="182">
         <f>IF(L23&gt;$B$5,(L23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="M27" s="182">
         <v>0</v>
       </c>
       <c r="N27" s="182">
         <f>IF(N23&gt;$B$5,(N23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="O27" s="182">
         <v>0</v>
       </c>
       <c r="P27" s="182">
         <f>IF(P23&gt;$B$5,(P23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="Q27" s="182">
         <v>0</v>
       </c>
       <c r="R27" s="182">
         <f>IF(R23&gt;$B$5,(R23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="S27" s="182">
         <v>0</v>
       </c>
       <c r="T27" s="182">
         <f>IF(T23&gt;$B$5,(T23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="U27" s="182">
         <v>0</v>
       </c>
       <c r="V27" s="182">
         <f>IF(V23&gt;$B$5,(V23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="W27" s="182">
         <v>0</v>
       </c>
       <c r="X27" s="182">
         <f>IF(X23&gt;$B$5,(X23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="Y27" s="182">
         <v>0</v>
       </c>
       <c r="Z27" s="182">
         <f>IF(Z23&gt;$B$5,(Z23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="AA27" s="182">
         <v>0</v>
       </c>
       <c r="AB27" s="182">
         <f>IF(AB23&gt;$B$5,(AB23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="AC27" s="182">
         <v>0</v>
       </c>
       <c r="AD27" s="182">
         <f>IF(AD23&gt;$B$5,(AD23-$B$5)*$H$5,0)</f>
-        <v>1070</v>
+        <v>3207.3999999999978</v>
       </c>
       <c r="AE27" s="182">
         <v>0</v>
@@ -21747,105 +21769,105 @@
       </c>
       <c r="B28" s="182">
         <f>IF(B24&gt;$B$6,(B24-$B$6)*$H$6,0)</f>
-        <v>8899.5999999999967</v>
+        <v>0</v>
       </c>
       <c r="C28" s="182">
         <v>0</v>
       </c>
       <c r="D28" s="182">
         <f>IF(D24&gt;$B$6,(D24-$B$6)*$H$6,0)</f>
-        <v>13337.543999999998</v>
+        <v>0</v>
       </c>
       <c r="E28" s="182">
         <v>0</v>
       </c>
       <c r="F28" s="182">
         <f>IF(F24&gt;$B$6,(F24-$B$6)*$H$6,0)</f>
-        <v>17775.487999999994</v>
+        <v>442.19839999999976</v>
       </c>
       <c r="G28" s="182">
         <v>0</v>
       </c>
       <c r="H28" s="182">
         <f>IF(H24&gt;$B$6,(H24-$B$6)*$H$6,0)</f>
-        <v>22213.431999999993</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="I28" s="182">
         <v>0</v>
       </c>
       <c r="J28" s="182">
         <f>IF(J24&gt;$B$6,(J24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="K28" s="182">
         <v>0</v>
       </c>
       <c r="L28" s="182">
         <f>IF(L24&gt;$B$6,(L24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="M28" s="182">
         <v>0</v>
       </c>
       <c r="N28" s="182">
         <f>IF(N24&gt;$B$6,(N24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="O28" s="182">
         <v>0</v>
       </c>
       <c r="P28" s="182">
         <f>IF(P24&gt;$B$6,(P24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="Q28" s="182">
         <v>0</v>
       </c>
       <c r="R28" s="182">
         <f>IF(R24&gt;$B$6,(R24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="S28" s="182">
         <v>0</v>
       </c>
       <c r="T28" s="182">
         <f>IF(T24&gt;$B$6,(T24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="U28" s="182">
         <v>0</v>
       </c>
       <c r="V28" s="182">
         <f>IF(V24&gt;$B$6,(V24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="W28" s="182">
         <v>0</v>
       </c>
       <c r="X28" s="182">
         <f>IF(X24&gt;$B$6,(X24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="Y28" s="182">
         <v>0</v>
       </c>
       <c r="Z28" s="182">
         <f>IF(Z24&gt;$B$6,(Z24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="AA28" s="182">
         <v>0</v>
       </c>
       <c r="AB28" s="182">
         <f>IF(AB24&gt;$B$6,(AB24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="AC28" s="182">
         <v>0</v>
       </c>
       <c r="AD28" s="182">
         <f>IF(AD24&gt;$B$6,(AD24-$B$6)*$H$6,0)</f>
-        <v>24434</v>
+        <v>4880.1424000000006</v>
       </c>
       <c r="AE28" s="182">
         <v>0</v>
@@ -21878,105 +21900,105 @@
       </c>
       <c r="B29" s="182">
         <f>IF(B25&gt;$B$7,(B25-$B$7)*$H$7,0)</f>
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="C29" s="182">
         <v>0</v>
       </c>
       <c r="D29" s="182">
         <f>IF(D25&gt;$B$7,(D25-$B$7)*$H$7,0)</f>
-        <v>1179.4999999999995</v>
+        <v>0</v>
       </c>
       <c r="E29" s="182">
         <v>0</v>
       </c>
       <c r="F29" s="182">
         <f>IF(F25&gt;$B$7,(F25-$B$7)*$H$7,0)</f>
-        <v>2183.9999999999991</v>
+        <v>116.19999999999976</v>
       </c>
       <c r="G29" s="182">
         <v>0</v>
       </c>
       <c r="H29" s="182">
         <f>IF(H25&gt;$B$7,(H25-$B$7)*$H$7,0)</f>
-        <v>3188.4999999999986</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="I29" s="182">
         <v>0</v>
       </c>
       <c r="J29" s="182">
         <f>IF(J25&gt;$B$7,(J25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="K29" s="182">
         <v>0</v>
       </c>
       <c r="L29" s="182">
         <f>IF(L25&gt;$B$7,(L25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="M29" s="182">
         <v>0</v>
       </c>
       <c r="N29" s="182">
         <f>IF(N25&gt;$B$7,(N25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="O29" s="182">
         <v>0</v>
       </c>
       <c r="P29" s="182">
         <f>IF(P25&gt;$B$7,(P25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="Q29" s="182">
         <v>0</v>
       </c>
       <c r="R29" s="182">
         <f>IF(R25&gt;$B$7,(R25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="S29" s="182">
         <v>0</v>
       </c>
       <c r="T29" s="182">
         <f>IF(T25&gt;$B$7,(T25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="U29" s="182">
         <v>0</v>
       </c>
       <c r="V29" s="182">
         <f>IF(V25&gt;$B$7,(V25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="W29" s="182">
         <v>0</v>
       </c>
       <c r="X29" s="182">
         <f>IF(X25&gt;$B$7,(X25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="Y29" s="182">
         <v>0</v>
       </c>
       <c r="Z29" s="182">
         <f>IF(Z25&gt;$B$7,(Z25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="AA29" s="182">
         <v>0</v>
       </c>
       <c r="AB29" s="182">
         <f>IF(AB25&gt;$B$7,(AB25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="AC29" s="182">
         <v>0</v>
       </c>
       <c r="AD29" s="182">
         <f>IF(AD25&gt;$B$7,(AD25-$B$7)*$H$7,0)</f>
-        <v>3675</v>
+        <v>1120.6999999999994</v>
       </c>
       <c r="AE29" s="182">
         <v>0</v>
@@ -22020,119 +22042,119 @@
       </c>
       <c r="B30" s="185">
         <f>G4+G5+G6+G7</f>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="C30" s="185">
         <f t="shared" ref="C30:AD30" si="11">B30</f>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="D30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="E30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="F30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="G30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="H30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="I30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="J30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="K30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="L30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="M30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="N30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="O30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="P30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="Q30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="R30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="S30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="T30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="U30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="V30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="W30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="X30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="Y30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="Z30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="AA30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="AB30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="AC30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="AD30" s="185">
         <f t="shared" si="11"/>
-        <v>1817.9</v>
+        <v>994.77759999999944</v>
       </c>
       <c r="AE30" s="185"/>
       <c r="AF30" s="185"/>
@@ -22159,119 +22181,119 @@
       </c>
       <c r="B31" s="187">
         <f t="shared" ref="B31:AD31" si="12">B26+B27+B28+B29-B30</f>
-        <v>7256.6999999999971</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="C31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="D31" s="187">
         <f t="shared" si="12"/>
-        <v>12699.143999999998</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="E31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="F31" s="187">
         <f t="shared" si="12"/>
-        <v>18141.587999999992</v>
+        <v>401.66080000000466</v>
       </c>
       <c r="G31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="H31" s="187">
         <f t="shared" si="12"/>
-        <v>23584.031999999992</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="I31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="J31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="K31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="L31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="M31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="N31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="O31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="P31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="Q31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="R31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="S31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="T31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="U31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="V31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="W31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="X31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="Y31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="Z31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="AA31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="AB31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="AC31" s="187">
         <f t="shared" si="12"/>
-        <v>-1817.9</v>
+        <v>-994.77759999999944</v>
       </c>
       <c r="AD31" s="187">
         <f t="shared" si="12"/>
-        <v>30084.1</v>
+        <v>14280.504799999993</v>
       </c>
       <c r="AE31" s="187"/>
       <c r="AF31" s="187"/>
@@ -22298,119 +22320,119 @@
       </c>
       <c r="B32" s="187">
         <f>-B12-B11+B31</f>
-        <v>-175513.3</v>
+        <v>-106775.14159999994</v>
       </c>
       <c r="C32" s="187">
         <f t="shared" ref="C32:AD32" si="13">B32+C31</f>
-        <v>-177331.19999999998</v>
+        <v>-107769.91919999995</v>
       </c>
       <c r="D32" s="187">
         <f t="shared" si="13"/>
-        <v>-164632.05599999998</v>
+        <v>-108764.69679999995</v>
       </c>
       <c r="E32" s="187">
         <f t="shared" si="13"/>
-        <v>-166449.95599999998</v>
+        <v>-109759.47439999995</v>
       </c>
       <c r="F32" s="187">
         <f t="shared" si="13"/>
-        <v>-148308.36799999999</v>
+        <v>-109357.81359999995</v>
       </c>
       <c r="G32" s="187">
         <f t="shared" si="13"/>
-        <v>-150126.26799999998</v>
+        <v>-110352.59119999995</v>
       </c>
       <c r="H32" s="187">
         <f t="shared" si="13"/>
-        <v>-126542.23599999999</v>
+        <v>-96072.086399999956</v>
       </c>
       <c r="I32" s="187">
         <f t="shared" si="13"/>
-        <v>-128360.13599999998</v>
+        <v>-97066.863999999958</v>
       </c>
       <c r="J32" s="187">
         <f t="shared" si="13"/>
-        <v>-98276.035999999993</v>
+        <v>-82786.359199999963</v>
       </c>
       <c r="K32" s="187">
         <f t="shared" si="13"/>
-        <v>-100093.93599999999</v>
+        <v>-83781.136799999964</v>
       </c>
       <c r="L32" s="187">
         <f t="shared" si="13"/>
-        <v>-70009.835999999981</v>
+        <v>-69500.631999999969</v>
       </c>
       <c r="M32" s="187">
         <f t="shared" si="13"/>
-        <v>-71827.735999999975</v>
+        <v>-70495.40959999997</v>
       </c>
       <c r="N32" s="187">
         <f t="shared" si="13"/>
-        <v>-41743.635999999977</v>
+        <v>-56214.904799999975</v>
       </c>
       <c r="O32" s="187">
         <f t="shared" si="13"/>
-        <v>-43561.535999999978</v>
+        <v>-57209.682399999976</v>
       </c>
       <c r="P32" s="187">
         <f t="shared" si="13"/>
-        <v>-13477.43599999998</v>
+        <v>-42929.177599999981</v>
       </c>
       <c r="Q32" s="187">
         <f t="shared" si="13"/>
-        <v>-15295.335999999979</v>
+        <v>-43923.955199999982</v>
       </c>
       <c r="R32" s="187">
         <f t="shared" si="13"/>
-        <v>14788.764000000019</v>
+        <v>-29643.450399999987</v>
       </c>
       <c r="S32" s="187">
         <f t="shared" si="13"/>
-        <v>12970.86400000002</v>
+        <v>-30638.227999999988</v>
       </c>
       <c r="T32" s="187">
         <f t="shared" si="13"/>
-        <v>43054.964000000022</v>
+        <v>-16357.723199999995</v>
       </c>
       <c r="U32" s="187">
         <f t="shared" si="13"/>
-        <v>41237.06400000002</v>
+        <v>-17352.500799999994</v>
       </c>
       <c r="V32" s="187">
         <f t="shared" si="13"/>
-        <v>71321.164000000019</v>
+        <v>-3071.996000000001</v>
       </c>
       <c r="W32" s="187">
         <f t="shared" si="13"/>
-        <v>69503.264000000025</v>
+        <v>-4066.7736000000004</v>
       </c>
       <c r="X32" s="187">
         <f t="shared" si="13"/>
-        <v>99587.364000000031</v>
+        <v>10213.731199999993</v>
       </c>
       <c r="Y32" s="187">
         <f t="shared" si="13"/>
-        <v>97769.464000000036</v>
+        <v>9218.9535999999935</v>
       </c>
       <c r="Z32" s="187">
         <f t="shared" si="13"/>
-        <v>127853.56400000004</v>
+        <v>23499.458399999989</v>
       </c>
       <c r="AA32" s="187">
         <f t="shared" si="13"/>
-        <v>126035.66400000005</v>
+        <v>22504.680799999987</v>
       </c>
       <c r="AB32" s="187">
         <f t="shared" si="13"/>
-        <v>156119.76400000005</v>
+        <v>36785.185599999983</v>
       </c>
       <c r="AC32" s="187">
         <f t="shared" si="13"/>
-        <v>154301.86400000006</v>
+        <v>35790.407999999981</v>
       </c>
       <c r="AD32" s="187">
         <f t="shared" si="13"/>
-        <v>184385.96400000007</v>
+        <v>50070.912799999976</v>
       </c>
       <c r="AE32" s="187"/>
       <c r="AF32" s="187"/>
@@ -22434,119 +22456,119 @@
     <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="170">
         <f t="shared" ref="B33:AD33" si="14">B32/$B$13</f>
-        <v>-0.96029600043770857</v>
+        <v>-1.0094041801557803</v>
       </c>
       <c r="C33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.97024238113475947</v>
+        <v>-1.0188083603115603</v>
       </c>
       <c r="D33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.90076082508070243</v>
+        <v>-1.0282125404673406</v>
       </c>
       <c r="E33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.91070720577775333</v>
+        <v>-1.0376167206231206</v>
       </c>
       <c r="F33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.81144809323193079</v>
+        <v>-1.033819600015746</v>
       </c>
       <c r="G33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.82139447392898168</v>
+        <v>-1.0432237801715261</v>
       </c>
       <c r="H33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.69235780489139354</v>
+        <v>-0.90822230863187436</v>
       </c>
       <c r="I33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.70230418558844443</v>
+        <v>-0.91762648878765452</v>
       </c>
       <c r="J33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.53770332111396835</v>
+        <v>-0.78262501724800271</v>
       </c>
       <c r="K33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.54764970181101924</v>
+        <v>-0.79202919740378286</v>
       </c>
       <c r="L33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.3830488373365431</v>
+        <v>-0.65702772586413116</v>
       </c>
       <c r="M33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.392995218033594</v>
+        <v>-0.66643190601991131</v>
       </c>
       <c r="N33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.22839435355911789</v>
+        <v>-0.53143043448025951</v>
       </c>
       <c r="O33" s="170">
         <f t="shared" si="14"/>
-        <v>-0.23834073425616883</v>
+        <v>-0.54083461463603966</v>
       </c>
       <c r="P33" s="170">
         <f t="shared" si="14"/>
-        <v>-7.3739869781692724E-2</v>
+        <v>-0.40583314309638796</v>
       </c>
       <c r="Q33" s="170">
         <f t="shared" si="14"/>
-        <v>-8.368625047874366E-2</v>
+        <v>-0.41523732325216811</v>
       </c>
       <c r="R33" s="170">
         <f t="shared" si="14"/>
-        <v>8.0914613995732451E-2</v>
+        <v>-0.28023585171251636</v>
       </c>
       <c r="S33" s="170">
         <f t="shared" si="14"/>
-        <v>7.0968233298681516E-2</v>
+        <v>-0.28964003186829651</v>
       </c>
       <c r="T33" s="170">
         <f t="shared" si="14"/>
-        <v>0.23556909777315763</v>
+        <v>-0.15463856032864479</v>
       </c>
       <c r="U33" s="170">
         <f t="shared" si="14"/>
-        <v>0.2256227170761067</v>
+        <v>-0.16404274048442491</v>
       </c>
       <c r="V33" s="170">
         <f t="shared" si="14"/>
-        <v>0.39022358155058279</v>
+        <v>-2.9041268944773178E-2</v>
       </c>
       <c r="W33" s="170">
         <f t="shared" si="14"/>
-        <v>0.38027720085353189</v>
+        <v>-3.8445449100553315E-2</v>
       </c>
       <c r="X33" s="170">
         <f t="shared" si="14"/>
-        <v>0.54487806532800809</v>
+        <v>9.6556022439098416E-2</v>
       </c>
       <c r="Y33" s="170">
         <f t="shared" si="14"/>
-        <v>0.53493168463095719</v>
+        <v>8.7151842283318279E-2</v>
       </c>
       <c r="Z33" s="170">
         <f t="shared" si="14"/>
-        <v>0.69953254910543328</v>
+        <v>0.22215331382297002</v>
       </c>
       <c r="AA33" s="170">
         <f t="shared" si="14"/>
-        <v>0.68958616840838238</v>
+        <v>0.21274913366718987</v>
       </c>
       <c r="AB33" s="170">
         <f t="shared" si="14"/>
-        <v>0.85418703288285858</v>
+        <v>0.34775060520684165</v>
       </c>
       <c r="AC33" s="170">
         <f t="shared" si="14"/>
-        <v>0.84424065218580757</v>
+        <v>0.33834642505106144</v>
       </c>
       <c r="AD33" s="170">
         <f t="shared" si="14"/>
-        <v>1.0088415166602838</v>
+        <v>0.47334789659071325</v>
       </c>
       <c r="AE33" s="170"/>
       <c r="AF33" s="170"/>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065DDCB1-0911-4B09-A9F5-789EBE9101D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E815961-A917-4EE7-B17B-558D98121066}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="351">
   <si>
     <t>Nfin</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>23(27)</t>
+  </si>
+  <si>
+    <t>R. Camarero</t>
   </si>
 </sst>
 </file>
@@ -1715,13 +1718,6 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1733,13 +1729,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2475,7 +2480,7 @@
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="489">
+  <cellXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3366,10 +3371,10 @@
     <xf numFmtId="2" fontId="52" fillId="19" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="19" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="19" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="48" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="48" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="51" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3384,22 +3389,16 @@
     <xf numFmtId="2" fontId="51" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="19" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="19" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="52" fillId="19" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="52" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3408,28 +3407,16 @@
     <xf numFmtId="2" fontId="52" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="11" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="59" fillId="11" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="58" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="58" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
@@ -3469,15 +3456,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="46" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3487,16 +3465,10 @@
     <xf numFmtId="2" fontId="52" fillId="19" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="19" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="19" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="57" fillId="48" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="11" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="11" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="56" fillId="48" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="51" fillId="0" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3530,6 +3502,45 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="59" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="11" borderId="33" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="11" borderId="32" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="11" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="59" fillId="11" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="47" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="60" fillId="47" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3557,9 +3568,48 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3580,45 +3630,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3637,7 +3648,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="19">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -3709,6 +3720,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4723,7 +4764,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:M5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,24 +4799,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="460" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="E1" s="457" t="s">
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="E1" s="459" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="459">
+      <c r="A2" s="461">
         <v>43713</v>
       </c>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
+      <c r="B2" s="461"/>
+      <c r="C2" s="461"/>
       <c r="E2" s="62" t="s">
         <v>302</v>
       </c>
@@ -4830,38 +4871,38 @@
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="303"/>
-      <c r="B5" s="456" t="s">
+      <c r="B5" s="458" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="456"/>
+      <c r="C5" s="458"/>
       <c r="E5" s="303"/>
       <c r="F5" s="303"/>
-      <c r="G5" s="456" t="s">
+      <c r="G5" s="458" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="456"/>
-      <c r="I5" s="456"/>
+      <c r="H5" s="458"/>
+      <c r="I5" s="458"/>
       <c r="J5" s="304"/>
       <c r="K5" s="304"/>
-      <c r="L5" s="456" t="s">
+      <c r="L5" s="458" t="s">
         <v>277</v>
       </c>
-      <c r="M5" s="456"/>
+      <c r="M5" s="458"/>
       <c r="O5" s="230" t="s">
         <v>278</v>
       </c>
       <c r="P5" s="303"/>
       <c r="Q5" s="303"/>
-      <c r="R5" s="456" t="s">
+      <c r="R5" s="458" t="s">
         <v>279</v>
       </c>
-      <c r="S5" s="456"/>
+      <c r="S5" s="458"/>
       <c r="T5" s="303"/>
       <c r="U5" s="303"/>
-      <c r="V5" s="457" t="s">
+      <c r="V5" s="459" t="s">
         <v>298</v>
       </c>
-      <c r="W5" s="457"/>
+      <c r="W5" s="459"/>
       <c r="X5" s="330" t="s">
         <v>299</v>
       </c>
@@ -4944,7 +4985,7 @@
         <f>Y6+X6</f>
         <v>4</v>
       </c>
-      <c r="AA6" s="455">
+      <c r="AA6" s="444">
         <f>Z6/G7</f>
         <v>0.2857142857142857</v>
       </c>
@@ -5018,7 +5059,7 @@
         <f>Y7+X7</f>
         <v>3</v>
       </c>
-      <c r="AA7" s="455">
+      <c r="AA7" s="444">
         <f>Z7/G10</f>
         <v>0.23076923076923078</v>
       </c>
@@ -5092,7 +5133,7 @@
         <f>Y8+X8</f>
         <v>2</v>
       </c>
-      <c r="AA8" s="455">
+      <c r="AA8" s="444">
         <f>Z8/G17</f>
         <v>0.22222222222222221</v>
       </c>
@@ -5164,7 +5205,7 @@
         <f>Y9+X9</f>
         <v>2</v>
       </c>
-      <c r="AA9" s="455">
+      <c r="AA9" s="444">
         <f>Z9/G11</f>
         <v>0.15384615384615385</v>
       </c>
@@ -5232,7 +5273,7 @@
         <f>Y10+X10</f>
         <v>1</v>
       </c>
-      <c r="AA10" s="455">
+      <c r="AA10" s="444">
         <f>Z10/G9</f>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5300,7 +5341,7 @@
         <f t="shared" ref="Z11:Z13" si="0">Y11+X11</f>
         <v>1</v>
       </c>
-      <c r="AA11" s="455">
+      <c r="AA11" s="444">
         <f>Z11/G16</f>
         <v>0.1</v>
       </c>
@@ -5364,7 +5405,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="455">
+      <c r="AA12" s="444">
         <f>Z12/G10</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -5421,7 +5462,7 @@
       <c r="V13" s="334">
         <v>6</v>
       </c>
-      <c r="W13" s="454" t="s">
+      <c r="W13" s="443" t="s">
         <v>292</v>
       </c>
       <c r="X13" s="312">
@@ -5434,7 +5475,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA13" s="455">
+      <c r="AA13" s="444">
         <f>Z13/G13</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -6310,7 +6351,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6364,13 +6405,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43714</v>
-      </c>
-      <c r="E1" s="460">
+        <v>43718</v>
+      </c>
+      <c r="E1" s="462">
         <v>43637</v>
       </c>
-      <c r="F1" s="460"/>
-      <c r="G1" s="460"/>
+      <c r="F1" s="462"/>
+      <c r="G1" s="462"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -6461,7 +6502,7 @@
       <c r="T2" s="14"/>
       <c r="U2" s="14">
         <f>AVERAGE(U4:U21)</f>
-        <v>411.11111111111109</v>
+        <v>485.55555555555554</v>
       </c>
       <c r="V2" s="15"/>
       <c r="W2" s="15"/>
@@ -6672,17 +6713,17 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C21" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>17.035714285714285</v>
+        <v>17</v>
       </c>
       <c r="D4" s="196" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="28">
-        <f ca="1">$D$1-43606</f>
-        <v>108</v>
+        <f ca="1">$D$1-43606-112</f>
+        <v>0</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>53</v>
@@ -6734,11 +6775,11 @@
         <v>690</v>
       </c>
       <c r="U4" s="41">
-        <v>370</v>
+        <v>1710</v>
       </c>
       <c r="V4" s="42">
         <f t="shared" ref="V4:V22" si="8">S4/U4</f>
-        <v>12.567567567567568</v>
+        <v>2.7192982456140351</v>
       </c>
       <c r="W4" s="45">
         <f>7+0/3</f>
@@ -6855,7 +6896,7 @@
       </c>
       <c r="C5" s="26">
         <f ca="1">((36*112)-(E5*112)-(F5))/112</f>
-        <v>8.2232142857142865</v>
+        <v>8.1875</v>
       </c>
       <c r="D5" s="295" t="s">
         <v>60</v>
@@ -6865,7 +6906,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43627</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>58</v>
@@ -7038,7 +7079,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.116071428571429</v>
+        <v>14.080357142857142</v>
       </c>
       <c r="D6" s="295" t="s">
         <v>57</v>
@@ -7048,7 +7089,7 @@
       </c>
       <c r="F6" s="51">
         <f ca="1">$D$1-43615</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>58</v>
@@ -7221,7 +7262,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3214285714285716</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="D7" s="195" t="s">
         <v>63</v>
@@ -7231,7 +7272,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="32">
@@ -7401,7 +7442,7 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7767857142857135</v>
+        <v>8.7410714285714288</v>
       </c>
       <c r="D8" s="190" t="s">
         <v>65</v>
@@ -7411,7 +7452,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43577-112</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8" s="56"/>
       <c r="H8" s="32">
@@ -7581,9 +7622,9 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>6.75</v>
-      </c>
-      <c r="D9" s="438" t="s">
+        <v>6.7142857142857144</v>
+      </c>
+      <c r="D9" s="429" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="50">
@@ -7591,7 +7632,7 @@
       </c>
       <c r="F9" s="28">
         <f ca="1">$D$1-43574-112</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="32">
@@ -7761,9 +7802,9 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="D10" s="438" t="s">
+        <v>4.4642857142857144</v>
+      </c>
+      <c r="D10" s="429" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="50">
@@ -7771,7 +7812,7 @@
       </c>
       <c r="F10" s="51">
         <f ca="1">$D$1-43546-112</f>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="32">
@@ -7941,7 +7982,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.1875</v>
+        <v>10.151785714285714</v>
       </c>
       <c r="D11" s="190" t="s">
         <v>72</v>
@@ -7951,7 +7992,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G11" s="56" t="s">
         <v>73</v>
@@ -8123,7 +8164,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.526785714285714</v>
+        <v>13.491071428571429</v>
       </c>
       <c r="D12" s="195" t="s">
         <v>75</v>
@@ -8133,7 +8174,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43549-112</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="32">
@@ -8303,7 +8344,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.839285714285714</v>
+        <v>15.803571428571429</v>
       </c>
       <c r="D13" s="195" t="s">
         <v>77</v>
@@ -8313,7 +8354,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43584-112</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="32">
@@ -8483,7 +8524,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.285714285714286</v>
+        <v>12.25</v>
       </c>
       <c r="D14" s="195" t="s">
         <v>79</v>
@@ -8493,7 +8534,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="32">
@@ -8663,7 +8704,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.303571428571429</v>
+        <v>11.267857142857142</v>
       </c>
       <c r="D15" s="195" t="s">
         <v>81</v>
@@ -8673,7 +8714,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="32">
@@ -8843,7 +8884,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2678571428571423</v>
+        <v>8.2321428571428577</v>
       </c>
       <c r="D16" s="195" t="s">
         <v>83</v>
@@ -8853,7 +8894,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>84</v>
@@ -9025,7 +9066,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.517857142857142</v>
+        <v>14.482142857142858</v>
       </c>
       <c r="D17" s="195" t="s">
         <v>87</v>
@@ -9035,7 +9076,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43548-112</f>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="32">
@@ -9205,7 +9246,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.678571428571429</v>
+        <v>12.642857142857142</v>
       </c>
       <c r="D18" s="195" t="s">
         <v>89</v>
@@ -9215,7 +9256,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43566-112</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="32">
@@ -9385,7 +9426,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.267857142857142</v>
+        <v>17.232142857142858</v>
       </c>
       <c r="D19" s="195" t="s">
         <v>92</v>
@@ -9395,7 +9436,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -9565,7 +9606,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3125</v>
+        <v>2.2767857142857144</v>
       </c>
       <c r="D20" s="195" t="s">
         <v>94</v>
@@ -9575,7 +9616,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="32">
@@ -9745,7 +9786,7 @@
       </c>
       <c r="C21" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3660714285714288</v>
+        <v>9.3303571428571423</v>
       </c>
       <c r="D21" s="195" t="s">
         <v>96</v>
@@ -9755,7 +9796,7 @@
       </c>
       <c r="F21" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="32">
@@ -9938,11 +9979,11 @@
       </c>
       <c r="U22" s="63">
         <f t="shared" si="20"/>
-        <v>7400</v>
+        <v>8740</v>
       </c>
       <c r="V22" s="64">
         <f t="shared" si="8"/>
-        <v>4.845945945945946</v>
+        <v>4.1029748283752863</v>
       </c>
       <c r="AC22" s="62"/>
       <c r="AD22" s="63"/>
@@ -10178,22 +10219,22 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="AQ4:AQ21">
-    <cfRule type="cellIs" dxfId="15" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="35" operator="lessThan">
       <formula>0.07</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="greaterThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N21">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
       <formula>70</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="between">
       <formula>70</formula>
       <formula>80</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10324,7 +10365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:AC21">
-    <cfRule type="cellIs" dxfId="10" priority="106" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="106" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
     <cfRule type="colorScale" priority="107">
@@ -10555,7 +10596,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10574,8 +10615,7 @@
     <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.140625" customWidth="1"/>
     <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.28515625" customWidth="1"/>
-    <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5" customWidth="1"/>
     <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
@@ -10598,13 +10638,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="461" t="s">
+      <c r="A1" s="463" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="461"/>
-      <c r="C1" s="461"/>
-      <c r="D1" s="461"/>
-      <c r="E1" s="461"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -10709,46 +10749,46 @@
       <c r="G3" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="423" t="s">
+      <c r="H3" s="417" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="424" t="s">
+      <c r="I3" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="425" t="s">
+      <c r="J3" s="419" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="426" t="s">
+      <c r="K3" s="420" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="427" t="s">
+      <c r="L3" s="421" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="424" t="s">
+      <c r="M3" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="425" t="s">
+      <c r="N3" s="419" t="s">
         <v>62</v>
       </c>
-      <c r="O3" s="426" t="s">
+      <c r="O3" s="420" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="427" t="s">
+      <c r="P3" s="421" t="s">
         <v>156</v>
       </c>
-      <c r="Q3" s="424" t="s">
+      <c r="Q3" s="418" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="425" t="s">
+      <c r="R3" s="419" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="426" t="s">
+      <c r="S3" s="420" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="427" t="s">
+      <c r="T3" s="421" t="s">
         <v>158</v>
       </c>
-      <c r="U3" s="424" t="s">
+      <c r="U3" s="418" t="s">
         <v>39</v>
       </c>
       <c r="V3" s="111" t="s">
@@ -10818,12 +10858,12 @@
       </c>
       <c r="C4" s="126">
         <f ca="1">6+$A$30-$A$32</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D4" s="130"/>
       <c r="E4" s="191">
         <f t="shared" ref="E4:E8" ca="1" si="0">F4-TODAY()</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F4" s="194">
         <v>43757</v>
@@ -10831,30 +10871,30 @@
       <c r="G4" s="372" t="s">
         <v>312</v>
       </c>
-      <c r="H4" s="439"/>
-      <c r="I4" s="440">
+      <c r="H4" s="430"/>
+      <c r="I4" s="431">
         <v>1.99</v>
       </c>
-      <c r="J4" s="441">
+      <c r="J4" s="432">
         <v>5.4</v>
       </c>
-      <c r="K4" s="442">
+      <c r="K4" s="433">
         <v>6.99</v>
       </c>
-      <c r="L4" s="443">
+      <c r="L4" s="447">
         <v>4</v>
       </c>
-      <c r="M4" s="444">
+      <c r="M4" s="448">
         <v>4.99</v>
       </c>
-      <c r="N4" s="445"/>
-      <c r="O4" s="446"/>
-      <c r="P4" s="447"/>
-      <c r="Q4" s="446"/>
-      <c r="R4" s="447"/>
-      <c r="S4" s="446"/>
-      <c r="T4" s="445"/>
-      <c r="U4" s="448"/>
+      <c r="N4" s="434"/>
+      <c r="O4" s="435"/>
+      <c r="P4" s="436"/>
+      <c r="Q4" s="435"/>
+      <c r="R4" s="436"/>
+      <c r="S4" s="435"/>
+      <c r="T4" s="434"/>
+      <c r="U4" s="437"/>
       <c r="V4" s="377" t="s">
         <v>324</v>
       </c>
@@ -10912,12 +10952,12 @@
       </c>
       <c r="C5" s="126">
         <f ca="1">84+$A$30-$A$32-112</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="132"/>
       <c r="E5" s="191">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" s="194">
         <v>43777</v>
@@ -10929,20 +10969,20 @@
       <c r="I5" s="399">
         <v>1.99</v>
       </c>
-      <c r="J5" s="407">
+      <c r="J5" s="445">
         <v>5</v>
       </c>
-      <c r="K5" s="408">
+      <c r="K5" s="446">
         <v>5.2</v>
       </c>
       <c r="L5" s="402"/>
       <c r="M5" s="399">
         <v>4.99</v>
       </c>
-      <c r="N5" s="407">
+      <c r="N5" s="445">
         <v>3</v>
       </c>
-      <c r="O5" s="408">
+      <c r="O5" s="446">
         <v>3.99</v>
       </c>
       <c r="P5" s="404"/>
@@ -11004,14 +11044,14 @@
       </c>
       <c r="C6" s="126">
         <f ca="1">68+$A$30-$A$32-112</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="127" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="191">
         <f ca="1">F6-TODAY()</f>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" s="194">
         <v>43793</v>
@@ -11021,7 +11061,7 @@
       </c>
       <c r="H6" s="398"/>
       <c r="I6" s="405"/>
-      <c r="J6" s="409">
+      <c r="J6" s="407">
         <v>5</v>
       </c>
       <c r="K6" s="406">
@@ -11031,16 +11071,16 @@
       <c r="M6" s="399">
         <v>3.99</v>
       </c>
-      <c r="N6" s="410">
+      <c r="N6" s="408">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O6" s="411">
+      <c r="O6" s="409">
         <v>4.99</v>
       </c>
-      <c r="P6" s="412">
+      <c r="P6" s="410">
         <v>3</v>
       </c>
-      <c r="Q6" s="413">
+      <c r="Q6" s="411">
         <v>3.99</v>
       </c>
       <c r="R6" s="404"/>
@@ -11100,12 +11140,12 @@
       </c>
       <c r="C7" s="126">
         <f ca="1">-53+$A$30-$A$32</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="191">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F7" s="194">
         <v>43802</v>
@@ -11115,16 +11155,16 @@
       </c>
       <c r="H7" s="398"/>
       <c r="I7" s="405"/>
-      <c r="J7" s="409">
+      <c r="J7" s="407">
         <v>1</v>
       </c>
       <c r="K7" s="399">
         <v>2.99</v>
       </c>
-      <c r="L7" s="414">
+      <c r="L7" s="449">
         <v>1</v>
       </c>
-      <c r="M7" s="415">
+      <c r="M7" s="450">
         <v>1.99</v>
       </c>
       <c r="N7" s="402"/>
@@ -11192,12 +11232,12 @@
       </c>
       <c r="C8" s="126">
         <f ca="1">39+$A$30-$A$32-112</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8" s="132"/>
       <c r="E8" s="191">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="194">
         <v>43800</v>
@@ -11218,7 +11258,7 @@
       <c r="L8" s="402"/>
       <c r="M8" s="405"/>
       <c r="N8" s="402"/>
-      <c r="O8" s="413">
+      <c r="O8" s="411">
         <v>3.99</v>
       </c>
       <c r="P8" s="402"/>
@@ -11274,29 +11314,29 @@
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="462" t="s">
+      <c r="A9" s="464" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="462"/>
-      <c r="C9" s="462"/>
-      <c r="D9" s="462"/>
-      <c r="E9" s="462"/>
+      <c r="B9" s="464"/>
+      <c r="C9" s="464"/>
+      <c r="D9" s="464"/>
+      <c r="E9" s="464"/>
       <c r="F9" s="115"/>
       <c r="G9" s="393"/>
-      <c r="H9" s="462"/>
-      <c r="I9" s="462"/>
-      <c r="J9" s="462"/>
-      <c r="K9" s="462"/>
-      <c r="L9" s="462"/>
-      <c r="M9" s="462"/>
-      <c r="N9" s="462"/>
-      <c r="O9" s="462"/>
-      <c r="P9" s="462"/>
-      <c r="Q9" s="462"/>
-      <c r="R9" s="462"/>
-      <c r="S9" s="462"/>
-      <c r="T9" s="462"/>
-      <c r="U9" s="462"/>
+      <c r="H9" s="464"/>
+      <c r="I9" s="464"/>
+      <c r="J9" s="464"/>
+      <c r="K9" s="464"/>
+      <c r="L9" s="464"/>
+      <c r="M9" s="464"/>
+      <c r="N9" s="464"/>
+      <c r="O9" s="464"/>
+      <c r="P9" s="464"/>
+      <c r="Q9" s="464"/>
+      <c r="R9" s="464"/>
+      <c r="S9" s="464"/>
+      <c r="T9" s="464"/>
+      <c r="U9" s="464"/>
       <c r="V9" s="393"/>
       <c r="W9" s="393"/>
       <c r="X9" s="393"/>
@@ -11327,22 +11367,22 @@
       <c r="E10" s="117"/>
       <c r="F10" s="117"/>
       <c r="G10" s="118"/>
-      <c r="H10" s="464" t="s">
+      <c r="H10" s="466" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="464"/>
-      <c r="J10" s="464"/>
-      <c r="K10" s="464"/>
-      <c r="L10" s="464"/>
-      <c r="M10" s="464"/>
-      <c r="N10" s="464"/>
-      <c r="O10" s="464"/>
-      <c r="P10" s="464"/>
-      <c r="Q10" s="464"/>
-      <c r="R10" s="464"/>
-      <c r="S10" s="464"/>
-      <c r="T10" s="464"/>
-      <c r="U10" s="464"/>
+      <c r="I10" s="466"/>
+      <c r="J10" s="466"/>
+      <c r="K10" s="466"/>
+      <c r="L10" s="466"/>
+      <c r="M10" s="466"/>
+      <c r="N10" s="466"/>
+      <c r="O10" s="466"/>
+      <c r="P10" s="466"/>
+      <c r="Q10" s="466"/>
+      <c r="R10" s="466"/>
+      <c r="S10" s="466"/>
+      <c r="T10" s="466"/>
+      <c r="U10" s="466"/>
       <c r="V10" s="118"/>
       <c r="W10" s="118"/>
       <c r="X10" s="118"/>
@@ -11386,46 +11426,46 @@
       <c r="G11" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="449" t="s">
+      <c r="H11" s="438" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="450" t="s">
+      <c r="I11" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="451" t="s">
+      <c r="J11" s="440" t="s">
         <v>154</v>
       </c>
-      <c r="K11" s="452" t="s">
+      <c r="K11" s="441" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="453" t="s">
+      <c r="L11" s="442" t="s">
         <v>155</v>
       </c>
-      <c r="M11" s="450" t="s">
+      <c r="M11" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="451" t="s">
+      <c r="N11" s="440" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="452" t="s">
+      <c r="O11" s="441" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="453" t="s">
+      <c r="P11" s="442" t="s">
         <v>156</v>
       </c>
-      <c r="Q11" s="450" t="s">
+      <c r="Q11" s="439" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="451" t="s">
+      <c r="R11" s="440" t="s">
         <v>157</v>
       </c>
-      <c r="S11" s="452" t="s">
+      <c r="S11" s="441" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="453" t="s">
+      <c r="T11" s="442" t="s">
         <v>158</v>
       </c>
-      <c r="U11" s="450" t="s">
+      <c r="U11" s="439" t="s">
         <v>39</v>
       </c>
       <c r="V11" s="118" t="str">
@@ -11506,12 +11546,12 @@
       </c>
       <c r="C12" s="126">
         <f ca="1">40+$A$30-$A$32-112</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="127"/>
       <c r="E12" s="191">
         <f ca="1">F12-TODAY()</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" s="194">
         <v>43749</v>
@@ -11519,16 +11559,16 @@
       <c r="G12" s="372"/>
       <c r="H12" s="398"/>
       <c r="I12" s="405"/>
-      <c r="J12" s="409">
+      <c r="J12" s="407">
         <v>4</v>
       </c>
       <c r="K12" s="405"/>
       <c r="L12" s="402"/>
       <c r="M12" s="405"/>
-      <c r="N12" s="414">
+      <c r="N12" s="449">
         <v>1</v>
       </c>
-      <c r="O12" s="415">
+      <c r="O12" s="450">
         <v>1.99</v>
       </c>
       <c r="P12" s="402"/>
@@ -11594,12 +11634,12 @@
       </c>
       <c r="C13" s="126">
         <f ca="1">67+$A$30-$A$32-112</f>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" s="127"/>
       <c r="E13" s="191">
         <f ca="1">F13-TODAY()</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="194">
         <v>43749</v>
@@ -11607,10 +11647,10 @@
       <c r="G13" s="372"/>
       <c r="H13" s="398"/>
       <c r="I13" s="405"/>
-      <c r="J13" s="416">
+      <c r="J13" s="451">
         <v>3</v>
       </c>
-      <c r="K13" s="417">
+      <c r="K13" s="452">
         <v>3.99</v>
       </c>
       <c r="L13" s="402"/>
@@ -11688,14 +11728,14 @@
       </c>
       <c r="C14" s="126">
         <f ca="1">58+$A$30-$A$32-112</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" s="132" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="191">
         <f ca="1">F14-TODAY()</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" s="194">
         <v>43778</v>
@@ -11705,10 +11745,10 @@
       </c>
       <c r="H14" s="398"/>
       <c r="I14" s="405"/>
-      <c r="J14" s="416">
+      <c r="J14" s="451">
         <v>4</v>
       </c>
-      <c r="K14" s="417">
+      <c r="K14" s="452">
         <v>4.99</v>
       </c>
       <c r="L14" s="402"/>
@@ -11784,12 +11824,12 @@
       </c>
       <c r="C15" s="126">
         <f ca="1">67+$A$30-$A$32+14-112</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D15" s="127"/>
       <c r="E15" s="191">
         <f t="shared" ref="E15" ca="1" si="4">F15-TODAY()</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="194">
         <v>43780</v>
@@ -11801,13 +11841,13 @@
       <c r="I15" s="405"/>
       <c r="J15" s="402"/>
       <c r="K15" s="405"/>
-      <c r="L15" s="410">
+      <c r="L15" s="408">
         <v>3</v>
       </c>
-      <c r="M15" s="411">
+      <c r="M15" s="409">
         <v>3.99</v>
       </c>
-      <c r="N15" s="418"/>
+      <c r="N15" s="412"/>
       <c r="O15" s="406">
         <v>3.99</v>
       </c>
@@ -11865,204 +11905,190 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="294" t="s">
-        <v>170</v>
+    <row r="16" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="341" t="s">
+        <v>350</v>
       </c>
       <c r="B16" s="125">
         <v>15</v>
       </c>
       <c r="C16" s="126">
-        <f ca="1">3+$A$30-$A$32</f>
-        <v>80</v>
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>95</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="191">
         <f ca="1">F16-TODAY()</f>
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F16" s="194">
-        <v>43858</v>
+        <v>43847</v>
       </c>
       <c r="G16" s="372"/>
-      <c r="H16" s="419"/>
-      <c r="I16" s="420"/>
-      <c r="J16" s="414">
+      <c r="H16" s="398"/>
+      <c r="I16" s="405"/>
+      <c r="J16" s="402"/>
+      <c r="K16" s="405"/>
+      <c r="L16" s="408">
+        <v>3</v>
+      </c>
+      <c r="M16" s="409">
+        <v>4.99</v>
+      </c>
+      <c r="N16" s="402"/>
+      <c r="O16" s="405"/>
+      <c r="P16" s="402"/>
+      <c r="Q16" s="405"/>
+      <c r="R16" s="402"/>
+      <c r="S16" s="405"/>
+      <c r="T16" s="402"/>
+      <c r="U16" s="405"/>
+      <c r="V16" s="378" t="s">
+        <v>174</v>
+      </c>
+      <c r="W16" s="380">
+        <f>COUNT(H16,J16,L16,N16,P16,R16,T16)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="415">
-        <v>1.99</v>
-      </c>
-      <c r="L16" s="421"/>
-      <c r="M16" s="399">
-        <v>2.99</v>
-      </c>
-      <c r="N16" s="416">
-        <v>3</v>
-      </c>
-      <c r="O16" s="417">
-        <v>3.99</v>
-      </c>
-      <c r="P16" s="421"/>
-      <c r="Q16" s="406">
-        <v>5.99</v>
-      </c>
-      <c r="R16" s="421"/>
-      <c r="S16" s="420"/>
-      <c r="T16" s="421"/>
-      <c r="U16" s="420"/>
-      <c r="V16" s="379" t="s">
-        <v>171</v>
-      </c>
-      <c r="W16" s="380">
-        <f t="shared" ref="W16:W17" si="5">COUNT(H16,J16,L16,N16,P16,R16,T16)</f>
-        <v>2</v>
-      </c>
-      <c r="X16" s="192">
-        <f t="shared" ref="X16" si="6">COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
-        <v>4</v>
-      </c>
-      <c r="Y16" s="128">
-        <v>10</v>
+      <c r="X16" s="128">
+        <f>COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="428">
+        <v>0</v>
       </c>
       <c r="Z16" s="192">
-        <v>2</v>
-      </c>
-      <c r="AA16" s="299">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="299">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="453"/>
+      <c r="AB16" s="299"/>
       <c r="AC16" s="300"/>
       <c r="AD16" s="300"/>
-      <c r="AE16" s="300">
-        <v>2</v>
-      </c>
+      <c r="AE16" s="300"/>
       <c r="AF16" s="300"/>
       <c r="AG16" s="300"/>
       <c r="AH16" s="300"/>
-      <c r="AI16" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AJ16" s="300">
-        <v>3</v>
-      </c>
+      <c r="AI16" s="300"/>
+      <c r="AJ16" s="300"/>
       <c r="AK16" s="300"/>
-      <c r="AL16" s="300">
-        <v>3</v>
-      </c>
-      <c r="AM16" s="300">
-        <v>3.5</v>
-      </c>
-      <c r="AN16" s="193" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="373" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" s="131">
+      <c r="AL16" s="300"/>
+      <c r="AM16" s="454"/>
+      <c r="AN16" s="455"/>
+    </row>
+    <row r="17" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="294" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="125">
         <v>15</v>
       </c>
       <c r="C17" s="126">
-        <f ca="1">2+$A$30-$A$32</f>
-        <v>79</v>
-      </c>
-      <c r="D17" s="392" t="s">
-        <v>347</v>
-      </c>
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>84</v>
+      </c>
+      <c r="D17" s="127"/>
       <c r="E17" s="191">
         <f ca="1">F17-TODAY()</f>
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F17" s="194">
-        <v>43859</v>
-      </c>
-      <c r="G17" s="372" t="s">
-        <v>312</v>
-      </c>
-      <c r="H17" s="398"/>
-      <c r="I17" s="405"/>
-      <c r="J17" s="402"/>
-      <c r="K17" s="405"/>
-      <c r="L17" s="402"/>
-      <c r="M17" s="405"/>
-      <c r="N17" s="400">
-        <v>2</v>
-      </c>
-      <c r="O17" s="399">
+        <v>43858</v>
+      </c>
+      <c r="G17" s="372"/>
+      <c r="H17" s="413"/>
+      <c r="I17" s="414"/>
+      <c r="J17" s="449">
+        <v>1</v>
+      </c>
+      <c r="K17" s="450">
+        <v>1.99</v>
+      </c>
+      <c r="L17" s="415"/>
+      <c r="M17" s="399">
+        <v>2.99</v>
+      </c>
+      <c r="N17" s="451">
+        <v>3</v>
+      </c>
+      <c r="O17" s="452">
         <v>3.99</v>
       </c>
-      <c r="P17" s="402"/>
-      <c r="Q17" s="405"/>
-      <c r="R17" s="402"/>
-      <c r="S17" s="406">
-        <v>4.99</v>
-      </c>
-      <c r="T17" s="402"/>
-      <c r="U17" s="405"/>
+      <c r="P17" s="415"/>
+      <c r="Q17" s="406">
+        <v>5.99</v>
+      </c>
+      <c r="R17" s="415"/>
+      <c r="S17" s="414"/>
+      <c r="T17" s="415"/>
+      <c r="U17" s="414"/>
       <c r="V17" s="379" t="s">
         <v>171</v>
       </c>
       <c r="W17" s="380">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="W17:W18" si="5">COUNT(H17,J17,L17,N17,P17,R17,T17)</f>
+        <v>2</v>
+      </c>
+      <c r="X17" s="192">
+        <f t="shared" ref="X17" si="6">COUNT(I17,K17,M17,O17,Q17,S17,U17)</f>
+        <v>4</v>
+      </c>
+      <c r="Y17" s="128">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="192">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="299">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="299">
         <v>1</v>
       </c>
-      <c r="X17" s="192">
-        <f>COUNT(I17,K17,M17,O17,Q17,S17,U17)</f>
-        <v>2</v>
-      </c>
-      <c r="Y17" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="299"/>
-      <c r="AB17" s="299"/>
       <c r="AC17" s="300"/>
       <c r="AD17" s="300"/>
-      <c r="AE17" s="300"/>
+      <c r="AE17" s="300">
+        <v>2</v>
+      </c>
       <c r="AF17" s="300"/>
-      <c r="AG17" s="300">
-        <v>3</v>
-      </c>
+      <c r="AG17" s="300"/>
       <c r="AH17" s="300"/>
       <c r="AI17" s="300">
+        <v>2.5</v>
+      </c>
+      <c r="AJ17" s="300">
+        <v>3</v>
+      </c>
+      <c r="AK17" s="300"/>
+      <c r="AL17" s="300">
+        <v>3</v>
+      </c>
+      <c r="AM17" s="300">
         <v>3.5</v>
-      </c>
-      <c r="AJ17" s="300"/>
-      <c r="AK17" s="300">
-        <v>4.5</v>
-      </c>
-      <c r="AL17" s="300"/>
-      <c r="AM17" s="300">
-        <v>7</v>
       </c>
       <c r="AN17" s="193" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="342" t="s">
-        <v>345</v>
-      </c>
-      <c r="B18" s="125">
+      <c r="A18" s="373" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="131">
         <v>15</v>
       </c>
       <c r="C18" s="126">
-        <f ca="1">-3+$A$30-$A$32</f>
-        <v>74</v>
-      </c>
-      <c r="D18" s="127"/>
+        <f ca="1">2+$A$30-$A$32</f>
+        <v>83</v>
+      </c>
+      <c r="D18" s="392" t="s">
+        <v>347</v>
+      </c>
       <c r="E18" s="191">
         <f ca="1">F18-TODAY()</f>
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F18" s="194">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="G18" s="372" t="s">
         <v>312</v>
@@ -12074,24 +12100,24 @@
       <c r="L18" s="402"/>
       <c r="M18" s="405"/>
       <c r="N18" s="400">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" s="399">
         <v>3.99</v>
       </c>
       <c r="P18" s="402"/>
-      <c r="Q18" s="401">
-        <v>6.99</v>
-      </c>
+      <c r="Q18" s="405"/>
       <c r="R18" s="402"/>
-      <c r="S18" s="405"/>
+      <c r="S18" s="406">
+        <v>4.99</v>
+      </c>
       <c r="T18" s="402"/>
       <c r="U18" s="405"/>
-      <c r="V18" s="377" t="s">
-        <v>346</v>
+      <c r="V18" s="379" t="s">
+        <v>171</v>
       </c>
       <c r="W18" s="380">
-        <f>COUNT(H18,J18,L18,N18,P18,R18,T18)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X18" s="192">
@@ -12111,376 +12137,364 @@
       <c r="AE18" s="300"/>
       <c r="AF18" s="300"/>
       <c r="AG18" s="300">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH18" s="300"/>
-      <c r="AI18" s="300"/>
+      <c r="AI18" s="300">
+        <v>3.5</v>
+      </c>
       <c r="AJ18" s="300"/>
-      <c r="AK18" s="300"/>
+      <c r="AK18" s="300">
+        <v>4.5</v>
+      </c>
       <c r="AL18" s="300"/>
-      <c r="AM18" s="300"/>
+      <c r="AM18" s="300">
+        <v>7</v>
+      </c>
       <c r="AN18" s="193" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="463" t="s">
+    <row r="19" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="342" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="125">
+        <v>15</v>
+      </c>
+      <c r="C19" s="126">
+        <f ca="1">-3+$A$30-$A$32</f>
+        <v>78</v>
+      </c>
+      <c r="D19" s="127"/>
+      <c r="E19" s="191">
+        <f ca="1">F19-TODAY()</f>
+        <v>146</v>
+      </c>
+      <c r="F19" s="194">
+        <v>43864</v>
+      </c>
+      <c r="G19" s="372" t="s">
+        <v>312</v>
+      </c>
+      <c r="H19" s="398"/>
+      <c r="I19" s="405"/>
+      <c r="J19" s="402"/>
+      <c r="K19" s="405"/>
+      <c r="L19" s="402"/>
+      <c r="M19" s="405"/>
+      <c r="N19" s="400">
+        <v>3</v>
+      </c>
+      <c r="O19" s="399">
+        <v>3.99</v>
+      </c>
+      <c r="P19" s="402"/>
+      <c r="Q19" s="401">
+        <v>6.99</v>
+      </c>
+      <c r="R19" s="402"/>
+      <c r="S19" s="405"/>
+      <c r="T19" s="402"/>
+      <c r="U19" s="405"/>
+      <c r="V19" s="377" t="s">
+        <v>346</v>
+      </c>
+      <c r="W19" s="380">
+        <f>COUNT(H19,J19,L19,N19,P19,R19,T19)</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="192">
+        <f>COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
+        <v>2</v>
+      </c>
+      <c r="Y19" s="128">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="192">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="299"/>
+      <c r="AB19" s="299"/>
+      <c r="AC19" s="300"/>
+      <c r="AD19" s="300"/>
+      <c r="AE19" s="300"/>
+      <c r="AF19" s="300"/>
+      <c r="AG19" s="300">
+        <v>4</v>
+      </c>
+      <c r="AH19" s="300"/>
+      <c r="AI19" s="300"/>
+      <c r="AJ19" s="300"/>
+      <c r="AK19" s="300"/>
+      <c r="AL19" s="300"/>
+      <c r="AM19" s="300"/>
+      <c r="AN19" s="193" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="465" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="463"/>
-      <c r="C19" s="463"/>
-      <c r="D19" s="463"/>
-      <c r="E19" s="463"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="394"/>
-      <c r="I19" s="395"/>
-      <c r="J19" s="121"/>
-      <c r="K19" s="395"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="395"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="395"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="395"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="395"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="395"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="375"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="298"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="292"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="346"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="391"/>
-      <c r="AI19" s="292"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="388"/>
-      <c r="AL19" s="391"/>
-      <c r="AM19" s="120"/>
-      <c r="AN19" s="122"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="123" t="s">
+      <c r="B20" s="465"/>
+      <c r="C20" s="465"/>
+      <c r="D20" s="465"/>
+      <c r="E20" s="465"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="394"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="395"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="395"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="395"/>
+      <c r="P20" s="121"/>
+      <c r="Q20" s="395"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="395"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="395"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="375"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="298"/>
+      <c r="AC20" s="120"/>
+      <c r="AD20" s="292"/>
+      <c r="AE20" s="120"/>
+      <c r="AF20" s="346"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="391"/>
+      <c r="AI20" s="292"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="388"/>
+      <c r="AL20" s="391"/>
+      <c r="AM20" s="120"/>
+      <c r="AN20" s="122"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="396" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="396" t="s">
         <v>167</v>
       </c>
-      <c r="I20" s="397"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="397"/>
-      <c r="L20" s="123"/>
-      <c r="M20" s="397"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="397"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="397"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="397"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="397"/>
-      <c r="V20" s="124"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="124"/>
-      <c r="Y20" s="124"/>
-      <c r="Z20" s="124"/>
-      <c r="AA20" s="124"/>
-      <c r="AB20" s="124"/>
-      <c r="AC20" s="124"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="124"/>
-      <c r="AG20" s="124"/>
-      <c r="AH20" s="124"/>
-      <c r="AI20" s="124"/>
-      <c r="AJ20" s="124"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="124"/>
-      <c r="AN20" s="122"/>
-    </row>
-    <row r="21" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="123" t="s">
+      <c r="I21" s="397"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="397"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="397"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="397"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="397"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="397"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="397"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="124"/>
+      <c r="X21" s="124"/>
+      <c r="Y21" s="124"/>
+      <c r="Z21" s="124"/>
+      <c r="AA21" s="124"/>
+      <c r="AB21" s="124"/>
+      <c r="AC21" s="124"/>
+      <c r="AD21" s="124"/>
+      <c r="AE21" s="124"/>
+      <c r="AF21" s="124"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="124"/>
+      <c r="AI21" s="124"/>
+      <c r="AJ21" s="124"/>
+      <c r="AK21" s="124"/>
+      <c r="AL21" s="124"/>
+      <c r="AM21" s="124"/>
+      <c r="AN21" s="122"/>
+    </row>
+    <row r="22" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="123" t="s">
+      <c r="B22" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="123" t="s">
+      <c r="C22" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="124" t="s">
+      <c r="D22" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="123" t="s">
+      <c r="E22" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="123" t="str">
+      <c r="F22" s="123" t="str">
         <f>F11</f>
         <v>Fpromo</v>
       </c>
-      <c r="G21" s="124" t="s">
+      <c r="G22" s="124" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="428" t="s">
+      <c r="H22" s="422" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="429" t="s">
+      <c r="I22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="430" t="s">
+      <c r="J22" s="424" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="429" t="s">
+      <c r="K22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="430" t="s">
+      <c r="L22" s="424" t="s">
         <v>155</v>
       </c>
-      <c r="M21" s="429" t="s">
+      <c r="M22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="430" t="s">
+      <c r="N22" s="424" t="s">
         <v>62</v>
       </c>
-      <c r="O21" s="429" t="s">
+      <c r="O22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="430" t="s">
+      <c r="P22" s="424" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="429" t="s">
+      <c r="Q22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="430" t="s">
+      <c r="R22" s="424" t="s">
         <v>157</v>
       </c>
-      <c r="S21" s="429" t="s">
+      <c r="S22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="T21" s="430" t="s">
+      <c r="T22" s="424" t="s">
         <v>158</v>
       </c>
-      <c r="U21" s="429" t="s">
+      <c r="U22" s="423" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="124" t="str">
+      <c r="V22" s="124" t="str">
         <f>V11</f>
         <v>U20</v>
       </c>
-      <c r="W21" s="124" t="str">
+      <c r="W22" s="124" t="str">
         <f>W11</f>
         <v>Hab</v>
       </c>
-      <c r="X21" s="124" t="str">
+      <c r="X22" s="124" t="str">
         <f>X11</f>
         <v>Pot</v>
       </c>
-      <c r="Y21" s="124" t="str">
+      <c r="Y22" s="124" t="str">
         <f>Y11</f>
         <v>Cap</v>
       </c>
-      <c r="Z21" s="124" t="s">
+      <c r="Z22" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="AA21" s="124" t="s">
+      <c r="AA22" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="AB21" s="124" t="s">
+      <c r="AB22" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="AC21" s="124" t="s">
+      <c r="AC22" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="AD21" s="124" t="s">
+      <c r="AD22" s="124" t="s">
         <v>267</v>
       </c>
-      <c r="AE21" s="124" t="s">
+      <c r="AE22" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="AF21" s="124" t="s">
+      <c r="AF22" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="AG21" s="124" t="s">
+      <c r="AG22" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="AH21" s="124" t="str">
+      <c r="AH22" s="124" t="str">
         <f>AH11</f>
         <v>EM</v>
       </c>
-      <c r="AI21" s="124" t="str">
-        <f t="shared" ref="AI21:AM21" si="7">AI11</f>
+      <c r="AI22" s="124" t="str">
+        <f t="shared" ref="AI22:AM22" si="7">AI11</f>
         <v>MD</v>
       </c>
-      <c r="AJ21" s="124" t="str">
+      <c r="AJ22" s="124" t="str">
         <f t="shared" si="7"/>
         <v>MO</v>
       </c>
-      <c r="AK21" s="124" t="str">
+      <c r="AK22" s="124" t="str">
         <f t="shared" si="7"/>
         <v>DD</v>
       </c>
-      <c r="AL21" s="124" t="str">
+      <c r="AL22" s="124" t="str">
         <f t="shared" si="7"/>
         <v>DL</v>
       </c>
-      <c r="AM21" s="124" t="str">
+      <c r="AM22" s="124" t="str">
         <f t="shared" si="7"/>
         <v>DAV</v>
       </c>
-      <c r="AN21" s="122" t="str">
+      <c r="AN22" s="122" t="str">
         <f>AN11</f>
         <v>Ca</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="294" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="131">
-        <v>15</v>
-      </c>
-      <c r="C22" s="126">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>91</v>
-      </c>
-      <c r="D22" s="127" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="191">
-        <f t="shared" ref="E22" ca="1" si="8">F22-TODAY()</f>
-        <v>133</v>
-      </c>
-      <c r="F22" s="194">
-        <v>43847</v>
-      </c>
-      <c r="G22" s="372"/>
-      <c r="H22" s="398"/>
-      <c r="I22" s="399">
-        <v>0.99</v>
-      </c>
-      <c r="J22" s="414">
-        <v>1</v>
-      </c>
-      <c r="K22" s="415">
-        <v>1.99</v>
-      </c>
-      <c r="L22" s="402"/>
-      <c r="M22" s="399">
-        <v>2.99</v>
-      </c>
-      <c r="N22" s="402"/>
-      <c r="O22" s="399">
-        <v>1.99</v>
-      </c>
-      <c r="P22" s="402"/>
-      <c r="Q22" s="405"/>
-      <c r="R22" s="402"/>
-      <c r="S22" s="405"/>
-      <c r="T22" s="402"/>
-      <c r="U22" s="405"/>
-      <c r="V22" s="379" t="s">
-        <v>173</v>
-      </c>
-      <c r="W22" s="380">
-        <f t="shared" ref="W22:W26" si="9">COUNT(H22,J22,L22,N22,P22,R22,T22)</f>
-        <v>1</v>
-      </c>
-      <c r="X22" s="192">
-        <f t="shared" ref="X22" si="10">COUNT(I22,K22,M22,O22,Q22,S22,U22)</f>
-        <v>4</v>
-      </c>
-      <c r="Y22" s="431">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="432">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="299">
-        <v>0.5</v>
-      </c>
-      <c r="AB22" s="299"/>
-      <c r="AC22" s="300"/>
-      <c r="AD22" s="300">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="300"/>
-      <c r="AF22" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AG22" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AH22" s="300"/>
-      <c r="AI22" s="300"/>
-      <c r="AJ22" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AK22" s="300">
-        <v>3</v>
-      </c>
-      <c r="AL22" s="300"/>
-      <c r="AM22" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AN22" s="433" t="s">
-        <v>304</v>
-      </c>
-    </row>
     <row r="23" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="294" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B23" s="131">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="126">
-        <f ca="1">51+$A$30-$A$32-112</f>
-        <v>16</v>
+        <f ca="1">14+$A$30-$A$32</f>
+        <v>95</v>
       </c>
       <c r="D23" s="127" t="s">
         <v>271</v>
       </c>
       <c r="E23" s="191">
-        <f t="shared" ref="E23:E26" ca="1" si="11">F23-TODAY()</f>
-        <v>96</v>
+        <f t="shared" ref="E23" ca="1" si="8">F23-TODAY()</f>
+        <v>129</v>
       </c>
       <c r="F23" s="194">
-        <v>43810</v>
+        <v>43847</v>
       </c>
       <c r="G23" s="372"/>
       <c r="H23" s="398"/>
-      <c r="I23" s="405"/>
-      <c r="J23" s="414">
-        <v>2</v>
-      </c>
-      <c r="K23" s="415">
+      <c r="I23" s="399">
+        <v>0.99</v>
+      </c>
+      <c r="J23" s="449">
+        <v>1</v>
+      </c>
+      <c r="K23" s="450">
+        <v>1.99</v>
+      </c>
+      <c r="L23" s="402"/>
+      <c r="M23" s="399">
         <v>2.99</v>
       </c>
-      <c r="L23" s="416">
-        <v>3</v>
-      </c>
-      <c r="M23" s="417">
-        <v>3.99</v>
-      </c>
-      <c r="N23" s="414">
-        <v>1</v>
-      </c>
-      <c r="O23" s="415">
+      <c r="N23" s="402"/>
+      <c r="O23" s="399">
         <v>1.99</v>
       </c>
       <c r="P23" s="402"/>
@@ -12489,334 +12503,347 @@
       <c r="S23" s="405"/>
       <c r="T23" s="402"/>
       <c r="U23" s="405"/>
-      <c r="V23" s="378" t="s">
-        <v>174</v>
+      <c r="V23" s="379" t="s">
+        <v>173</v>
       </c>
       <c r="W23" s="380">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" ref="W23:W27" si="9">COUNT(H23,J23,L23,N23,P23,R23,T23)</f>
+        <v>1</v>
       </c>
       <c r="X23" s="192">
-        <f>COUNT(I23,K23,M23,O23,Q23,S23,U23)</f>
-        <v>3</v>
-      </c>
-      <c r="Y23" s="434">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="192">
+        <f t="shared" ref="X23" si="10">COUNT(I23,K23,M23,O23,Q23,S23,U23)</f>
+        <v>4</v>
+      </c>
+      <c r="Y23" s="425">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="426">
         <v>0</v>
       </c>
       <c r="AA23" s="299">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AC23" s="300">
+        <v>0.5</v>
+      </c>
+      <c r="AB23" s="299"/>
+      <c r="AC23" s="300"/>
+      <c r="AD23" s="300">
         <v>2</v>
       </c>
-      <c r="AD23" s="300"/>
       <c r="AE23" s="300"/>
-      <c r="AF23" s="300"/>
+      <c r="AF23" s="300">
+        <v>2.5</v>
+      </c>
       <c r="AG23" s="300">
         <v>2.5</v>
       </c>
       <c r="AH23" s="300"/>
-      <c r="AI23" s="300">
-        <v>4</v>
-      </c>
+      <c r="AI23" s="300"/>
       <c r="AJ23" s="300">
         <v>2.5</v>
       </c>
-      <c r="AK23" s="300"/>
+      <c r="AK23" s="300">
+        <v>3</v>
+      </c>
       <c r="AL23" s="300"/>
       <c r="AM23" s="300">
-        <v>3</v>
-      </c>
-      <c r="AN23" s="193" t="s">
-        <v>226</v>
+        <v>2.5</v>
+      </c>
+      <c r="AN23" s="427" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="133" t="s">
-        <v>181</v>
+      <c r="A24" s="294" t="s">
+        <v>175</v>
       </c>
       <c r="B24" s="131">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="126">
-        <f ca="1">71+$A$30-$A$32-112</f>
-        <v>36</v>
-      </c>
-      <c r="D24" s="132"/>
+        <f ca="1">51+$A$30-$A$32-112</f>
+        <v>20</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>271</v>
+      </c>
       <c r="E24" s="191">
-        <f t="shared" ca="1" si="11"/>
-        <v>35</v>
+        <f t="shared" ref="E24:E27" ca="1" si="11">F24-TODAY()</f>
+        <v>92</v>
       </c>
       <c r="F24" s="194">
-        <v>43749</v>
+        <v>43810</v>
       </c>
       <c r="G24" s="372"/>
       <c r="H24" s="398"/>
       <c r="I24" s="405"/>
-      <c r="J24" s="409">
+      <c r="J24" s="449">
+        <v>2</v>
+      </c>
+      <c r="K24" s="450">
+        <v>2.99</v>
+      </c>
+      <c r="L24" s="451">
         <v>3</v>
       </c>
-      <c r="K24" s="405"/>
-      <c r="L24" s="414">
-        <v>2</v>
-      </c>
-      <c r="M24" s="415">
-        <v>2.99</v>
-      </c>
-      <c r="N24" s="402"/>
-      <c r="O24" s="399">
+      <c r="M24" s="452">
         <v>3.99</v>
       </c>
+      <c r="N24" s="449">
+        <v>1</v>
+      </c>
+      <c r="O24" s="450">
+        <v>1.99</v>
+      </c>
       <c r="P24" s="402"/>
-      <c r="Q24" s="403"/>
-      <c r="R24" s="404"/>
-      <c r="S24" s="403"/>
-      <c r="T24" s="404"/>
+      <c r="Q24" s="405"/>
+      <c r="R24" s="402"/>
+      <c r="S24" s="405"/>
+      <c r="T24" s="402"/>
       <c r="U24" s="405"/>
       <c r="V24" s="378" t="s">
         <v>174</v>
       </c>
       <c r="W24" s="380">
-        <f>COUNT(H24,J24,L24,N24,P24,R24,T24)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>3</v>
       </c>
       <c r="X24" s="192">
         <f>COUNT(I24,K24,M24,O24,Q24,S24,U24)</f>
+        <v>3</v>
+      </c>
+      <c r="Y24" s="428">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="192">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="299">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AC24" s="300">
         <v>2</v>
       </c>
-      <c r="Y24" s="434">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="299">
-        <v>1.5</v>
-      </c>
-      <c r="AB24" s="299"/>
-      <c r="AC24" s="300"/>
       <c r="AD24" s="300"/>
       <c r="AE24" s="300"/>
-      <c r="AF24" s="300">
+      <c r="AF24" s="300"/>
+      <c r="AG24" s="300">
+        <v>2.5</v>
+      </c>
+      <c r="AH24" s="300"/>
+      <c r="AI24" s="300">
         <v>4</v>
       </c>
-      <c r="AG24" s="300">
-        <v>4</v>
-      </c>
-      <c r="AH24" s="300"/>
-      <c r="AI24" s="300"/>
       <c r="AJ24" s="300">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="AK24" s="300"/>
       <c r="AL24" s="300"/>
       <c r="AM24" s="300">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="AN24" s="193" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="373" t="s">
-        <v>341</v>
+      <c r="A25" s="133" t="s">
+        <v>181</v>
       </c>
       <c r="B25" s="131">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C25" s="126">
-        <f ca="1">-30+$A$30-$A$32</f>
-        <v>47</v>
-      </c>
-      <c r="D25" s="127"/>
+        <f ca="1">71+$A$30-$A$32-112</f>
+        <v>40</v>
+      </c>
+      <c r="D25" s="132"/>
       <c r="E25" s="191">
-        <f ca="1">F25-TODAY()</f>
-        <v>99</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>31</v>
       </c>
       <c r="F25" s="194">
-        <v>43813</v>
-      </c>
-      <c r="G25" s="372" t="s">
-        <v>312</v>
-      </c>
+        <v>43749</v>
+      </c>
+      <c r="G25" s="372"/>
       <c r="H25" s="398"/>
       <c r="I25" s="405"/>
-      <c r="J25" s="402"/>
+      <c r="J25" s="407">
+        <v>3</v>
+      </c>
       <c r="K25" s="405"/>
-      <c r="L25" s="402"/>
-      <c r="M25" s="405"/>
+      <c r="L25" s="449">
+        <v>2</v>
+      </c>
+      <c r="M25" s="450">
+        <v>2.99</v>
+      </c>
       <c r="N25" s="402"/>
-      <c r="O25" s="405"/>
+      <c r="O25" s="399">
+        <v>3.99</v>
+      </c>
       <c r="P25" s="402"/>
-      <c r="Q25" s="405"/>
-      <c r="R25" s="409">
-        <v>2</v>
-      </c>
-      <c r="S25" s="399">
-        <v>3.99</v>
-      </c>
-      <c r="T25" s="402"/>
+      <c r="Q25" s="403"/>
+      <c r="R25" s="404"/>
+      <c r="S25" s="403"/>
+      <c r="T25" s="404"/>
       <c r="U25" s="405"/>
-      <c r="V25" s="377" t="s">
-        <v>176</v>
+      <c r="V25" s="378" t="s">
+        <v>174</v>
       </c>
       <c r="W25" s="380">
         <f>COUNT(H25,J25,L25,N25,P25,R25,T25)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" s="192">
         <f>COUNT(I25,K25,M25,O25,Q25,S25,U25)</f>
-        <v>1</v>
-      </c>
-      <c r="Y25" s="434">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="428">
         <v>0</v>
       </c>
       <c r="Z25" s="192">
         <v>0</v>
       </c>
-      <c r="AA25" s="299"/>
+      <c r="AA25" s="299">
+        <v>1.5</v>
+      </c>
       <c r="AB25" s="299"/>
       <c r="AC25" s="300"/>
       <c r="AD25" s="300"/>
       <c r="AE25" s="300"/>
-      <c r="AF25" s="300"/>
+      <c r="AF25" s="300">
+        <v>4</v>
+      </c>
       <c r="AG25" s="300">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AH25" s="300"/>
       <c r="AI25" s="300"/>
       <c r="AJ25" s="300">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AK25" s="300"/>
       <c r="AL25" s="300"/>
-      <c r="AM25" s="300"/>
+      <c r="AM25" s="300">
+        <v>4.5</v>
+      </c>
       <c r="AN25" s="193" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="293" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="125">
+      <c r="A26" s="373" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="131">
         <v>16</v>
       </c>
       <c r="C26" s="126">
-        <f ca="1">-1+$A$30-$A$32</f>
-        <v>76</v>
-      </c>
-      <c r="D26" s="130"/>
+        <f ca="1">-30+$A$30-$A$32</f>
+        <v>51</v>
+      </c>
+      <c r="D26" s="127"/>
       <c r="E26" s="191">
-        <f t="shared" ca="1" si="11"/>
-        <v>36</v>
+        <f ca="1">F26-TODAY()</f>
+        <v>95</v>
       </c>
       <c r="F26" s="194">
-        <v>43750</v>
-      </c>
-      <c r="G26" s="372"/>
+        <v>43813</v>
+      </c>
+      <c r="G26" s="372" t="s">
+        <v>312</v>
+      </c>
       <c r="H26" s="398"/>
       <c r="I26" s="405"/>
-      <c r="J26" s="412">
-        <v>4</v>
-      </c>
-      <c r="K26" s="411">
-        <v>4.99</v>
-      </c>
+      <c r="J26" s="402"/>
+      <c r="K26" s="405"/>
       <c r="L26" s="402"/>
       <c r="M26" s="405"/>
-      <c r="N26" s="409">
-        <v>0</v>
-      </c>
+      <c r="N26" s="402"/>
       <c r="O26" s="405"/>
       <c r="P26" s="402"/>
       <c r="Q26" s="405"/>
-      <c r="R26" s="402"/>
-      <c r="S26" s="405"/>
+      <c r="R26" s="407">
+        <v>2</v>
+      </c>
+      <c r="S26" s="399">
+        <v>3.99</v>
+      </c>
       <c r="T26" s="402"/>
       <c r="U26" s="405"/>
       <c r="V26" s="377" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W26" s="380">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>COUNT(H26,J26,L26,N26,P26,R26,T26)</f>
+        <v>1</v>
       </c>
       <c r="X26" s="192">
         <f>COUNT(I26,K26,M26,O26,Q26,S26,U26)</f>
         <v>1</v>
       </c>
-      <c r="Y26" s="434">
+      <c r="Y26" s="428">
         <v>0</v>
       </c>
       <c r="Z26" s="192">
         <v>0</v>
       </c>
-      <c r="AA26" s="299">
-        <v>0.5</v>
-      </c>
-      <c r="AB26" s="299">
+      <c r="AA26" s="299"/>
+      <c r="AB26" s="299"/>
+      <c r="AC26" s="300"/>
+      <c r="AD26" s="300"/>
+      <c r="AE26" s="300"/>
+      <c r="AF26" s="300"/>
+      <c r="AG26" s="300">
         <v>3.5</v>
       </c>
-      <c r="AC26" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AD26" s="300">
+      <c r="AH26" s="300"/>
+      <c r="AI26" s="300"/>
+      <c r="AJ26" s="300">
         <v>3</v>
-      </c>
-      <c r="AE26" s="300">
-        <v>2.5</v>
-      </c>
-      <c r="AF26" s="300"/>
-      <c r="AG26" s="300"/>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="300">
-        <v>3</v>
-      </c>
-      <c r="AJ26" s="300">
-        <v>3.5</v>
       </c>
       <c r="AK26" s="300"/>
       <c r="AL26" s="300"/>
-      <c r="AM26" s="300">
-        <v>3</v>
-      </c>
+      <c r="AM26" s="300"/>
       <c r="AN26" s="193" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="341"/>
+      <c r="A27" s="293" t="s">
+        <v>177</v>
+      </c>
       <c r="B27" s="125">
         <v>16</v>
       </c>
       <c r="C27" s="126">
-        <f ca="1">22+$A$30-$A$32</f>
-        <v>99</v>
-      </c>
-      <c r="D27" s="127"/>
+        <f ca="1">-1+$A$30-$A$32</f>
+        <v>80</v>
+      </c>
+      <c r="D27" s="130"/>
       <c r="E27" s="191">
-        <f ca="1">F27-TODAY()</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
       </c>
       <c r="F27" s="194">
-        <f ca="1">TODAY()</f>
-        <v>43714</v>
+        <v>43750</v>
       </c>
       <c r="G27" s="372"/>
       <c r="H27" s="398"/>
       <c r="I27" s="405"/>
-      <c r="J27" s="402"/>
-      <c r="K27" s="405"/>
+      <c r="J27" s="410">
+        <v>4</v>
+      </c>
+      <c r="K27" s="411">
+        <v>4.99</v>
+      </c>
       <c r="L27" s="402"/>
       <c r="M27" s="405"/>
-      <c r="N27" s="402"/>
+      <c r="N27" s="407">
+        <v>0</v>
+      </c>
       <c r="O27" s="405"/>
       <c r="P27" s="402"/>
       <c r="Q27" s="405"/>
@@ -12824,37 +12851,55 @@
       <c r="S27" s="405"/>
       <c r="T27" s="402"/>
       <c r="U27" s="405"/>
-      <c r="V27" s="378" t="s">
-        <v>174</v>
+      <c r="V27" s="377" t="s">
+        <v>178</v>
       </c>
       <c r="W27" s="380">
-        <f>COUNT(H27,J27,L27,N27,P27,R27,T27)</f>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
       </c>
       <c r="X27" s="192">
         <f>COUNT(I27,K27,M27,O27,Q27,S27,U27)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="435">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="436">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="299"/>
-      <c r="AB27" s="299"/>
-      <c r="AC27" s="300"/>
-      <c r="AD27" s="300"/>
-      <c r="AE27" s="300"/>
-      <c r="AF27" s="300"/>
-      <c r="AG27" s="300"/>
-      <c r="AH27" s="300"/>
-      <c r="AI27" s="300"/>
-      <c r="AJ27" s="300"/>
-      <c r="AK27" s="300"/>
-      <c r="AL27" s="300"/>
-      <c r="AM27" s="300"/>
-      <c r="AN27" s="437"/>
+        <v>1</v>
+      </c>
+      <c r="Y27" s="428">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="192">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="456">
+        <v>0.5</v>
+      </c>
+      <c r="AB27" s="456">
+        <v>3.5</v>
+      </c>
+      <c r="AC27" s="457">
+        <v>2.5</v>
+      </c>
+      <c r="AD27" s="457">
+        <v>3</v>
+      </c>
+      <c r="AE27" s="457">
+        <v>2.5</v>
+      </c>
+      <c r="AF27" s="457"/>
+      <c r="AG27" s="457"/>
+      <c r="AH27" s="457"/>
+      <c r="AI27" s="457">
+        <v>3</v>
+      </c>
+      <c r="AJ27" s="457">
+        <v>3.5</v>
+      </c>
+      <c r="AK27" s="457"/>
+      <c r="AL27" s="457"/>
+      <c r="AM27" s="457">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="193" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A28" s="131"/>
@@ -12888,7 +12933,7 @@
       <c r="AN28" s="129"/>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="422" t="s">
+      <c r="A29" s="416" t="s">
         <v>182</v>
       </c>
       <c r="B29" s="136"/>
@@ -12923,7 +12968,7 @@
     <row r="30" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A30" s="139">
         <f ca="1">TODAY()</f>
-        <v>43714</v>
+        <v>43718</v>
       </c>
       <c r="B30" s="140"/>
       <c r="C30" s="136"/>
@@ -12958,7 +13003,7 @@
     <row r="31" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A31" s="142">
         <f ca="1">A32-A30</f>
-        <v>-77</v>
+        <v>-81</v>
       </c>
       <c r="B31" s="140"/>
       <c r="C31" s="136"/>
@@ -13061,34 +13106,36 @@
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
     <mergeCell ref="H10:U10"/>
     <mergeCell ref="H9:U9"/>
   </mergeCells>
-  <conditionalFormatting sqref="E4:E8 E12:E18 E22:E27">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="E4:E8 E12:E15 E23:E27 E17:E19">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="between">
       <formula>15</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:U27 H4:K4 L5:M6 L8:M8 N4:U4 P5:U5 M12 H12:K12 H13:I18 J15:K15 J17:K18 L13:M18 N17:U18 P16:U16 H22:I26 J24:K26 L22:U22 P23:U26 N24:O26 L25:M26 P12:U12 H6:K8 H5:I5 N6:U8 N13:U15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+      <formula>15</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
+      <formula>15</formula>
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AM27 AA4:AM8 AA12:AM18">
-    <cfRule type="colorScale" priority="384">
+  <conditionalFormatting sqref="AA16:AM16">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13099,24 +13146,46 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y22:Z27 Y4:Z8 Y12:Z18">
-    <cfRule type="colorScale" priority="388">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W22:X27 W4:X8 W12:X18">
-    <cfRule type="colorScale" priority="392">
+  <conditionalFormatting sqref="AA23:AM27 AA4:AM8 AA12:AM15 AA17:AM19">
+    <cfRule type="colorScale" priority="399">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:U27">
+    <cfRule type="colorScale" priority="403">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:X8 W12:X19 W23:X27">
+    <cfRule type="colorScale" priority="404">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Z8 Y12:Z19 Y23:Z27">
+    <cfRule type="colorScale" priority="407">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -13301,11 +13370,11 @@
       </c>
       <c r="E2" s="368">
         <f>Plantilla!E4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="370">
         <f ca="1">Plantilla!F4</f>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G2" s="350" t="str">
         <f>Plantilla!D5</f>
@@ -13321,7 +13390,7 @@
       </c>
       <c r="J2" s="350">
         <f ca="1">Plantilla!F5</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K2" s="365">
         <v>360000</v>
@@ -13339,7 +13408,7 @@
       </c>
       <c r="O2" s="368">
         <f ca="1">Plantilla!F6</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P2" s="371">
         <v>1000</v>
@@ -13358,7 +13427,7 @@
       </c>
       <c r="T2" s="368">
         <f ca="1">O2</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U2" s="371"/>
       <c r="V2" s="368" t="str">
@@ -13375,7 +13444,7 @@
       </c>
       <c r="Y2" s="368">
         <f ca="1">T2</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Z2" s="371"/>
     </row>
@@ -13396,11 +13465,11 @@
       </c>
       <c r="E3" s="301">
         <f>E2</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="354">
         <f ca="1">F2+7</f>
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="G3" s="301" t="str">
         <f>G2</f>
@@ -13415,7 +13484,7 @@
       </c>
       <c r="J3" s="301">
         <f ca="1">J2+7</f>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K3" s="355"/>
       <c r="L3" s="301" t="str">
@@ -13431,7 +13500,7 @@
       </c>
       <c r="O3" s="301">
         <f ca="1">O2+7</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P3" s="355"/>
       <c r="Q3" s="301" t="str">
@@ -13448,7 +13517,7 @@
       </c>
       <c r="T3" s="301">
         <f t="shared" ref="T3:T28" ca="1" si="1">O3</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U3" s="355"/>
       <c r="V3" s="301" t="str">
@@ -13465,7 +13534,7 @@
       </c>
       <c r="Y3" s="301">
         <f t="shared" ref="Y3:Y28" ca="1" si="3">T3</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Z3" s="355"/>
     </row>
@@ -13486,11 +13555,11 @@
       </c>
       <c r="E4" s="301">
         <f t="shared" ref="E4:E8" si="6">E3</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="354">
         <f t="shared" ref="F4:F28" ca="1" si="7">F3+7</f>
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G4" s="301" t="str">
         <f t="shared" ref="G4:G28" si="8">G3</f>
@@ -13505,7 +13574,7 @@
       </c>
       <c r="J4" s="301">
         <f t="shared" ref="J4:J27" ca="1" si="10">J3+7</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K4" s="355"/>
       <c r="L4" s="301" t="str">
@@ -13521,7 +13590,7 @@
       </c>
       <c r="O4" s="301">
         <f t="shared" ref="O4:O28" ca="1" si="13">O3+7</f>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P4" s="355"/>
       <c r="Q4" s="301" t="str">
@@ -13538,7 +13607,7 @@
       </c>
       <c r="T4" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U4" s="355"/>
       <c r="V4" s="301" t="str">
@@ -13555,7 +13624,7 @@
       </c>
       <c r="Y4" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z4" s="355"/>
     </row>
@@ -13576,11 +13645,11 @@
       </c>
       <c r="E5" s="301">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="G5" s="301" t="str">
         <f t="shared" si="8"/>
@@ -13595,7 +13664,7 @@
       </c>
       <c r="J5" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K5" s="355"/>
       <c r="L5" s="301" t="str">
@@ -13611,7 +13680,7 @@
       </c>
       <c r="O5" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P5" s="355">
         <v>15000</v>
@@ -13630,7 +13699,7 @@
       </c>
       <c r="T5" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U5" s="355"/>
       <c r="V5" s="301" t="str">
@@ -13647,7 +13716,7 @@
       </c>
       <c r="Y5" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z5" s="355"/>
     </row>
@@ -13668,11 +13737,11 @@
       </c>
       <c r="E6" s="301">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="G6" s="350" t="str">
         <f t="shared" si="8"/>
@@ -13687,7 +13756,7 @@
       </c>
       <c r="J6" s="350">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K6" s="365">
         <v>820000</v>
@@ -13705,7 +13774,7 @@
       </c>
       <c r="O6" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P6" s="355"/>
       <c r="Q6" s="301" t="str">
@@ -13722,7 +13791,7 @@
       </c>
       <c r="T6" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U6" s="355"/>
       <c r="V6" s="301" t="str">
@@ -13739,7 +13808,7 @@
       </c>
       <c r="Y6" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Z6" s="355"/>
     </row>
@@ -13760,11 +13829,11 @@
       </c>
       <c r="E7" s="301">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="G7" s="301" t="str">
         <f t="shared" si="8"/>
@@ -13779,7 +13848,7 @@
       </c>
       <c r="J7" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K7" s="355"/>
       <c r="L7" s="301" t="str">
@@ -13795,7 +13864,7 @@
       </c>
       <c r="O7" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P7" s="355">
         <v>318000</v>
@@ -13814,7 +13883,7 @@
       </c>
       <c r="T7" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="U7" s="355"/>
       <c r="V7" s="301" t="str">
@@ -13831,7 +13900,7 @@
       </c>
       <c r="Y7" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Z7" s="355"/>
     </row>
@@ -13852,11 +13921,11 @@
       </c>
       <c r="E8" s="301">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="G8" s="301" t="str">
         <f t="shared" si="8"/>
@@ -13871,7 +13940,7 @@
       </c>
       <c r="J8" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K8" s="355"/>
       <c r="L8" s="301" t="str">
@@ -13887,7 +13956,7 @@
       </c>
       <c r="O8" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P8" s="355"/>
       <c r="Q8" s="301" t="str">
@@ -13904,7 +13973,7 @@
       </c>
       <c r="T8" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="U8" s="355"/>
       <c r="V8" s="301" t="str">
@@ -13921,7 +13990,7 @@
       </c>
       <c r="Y8" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z8" s="355"/>
     </row>
@@ -13945,7 +14014,7 @@
       </c>
       <c r="F9" s="354">
         <f ca="1">F8+7-112</f>
-        <v>45</v>
+        <v>-63</v>
       </c>
       <c r="G9" s="350" t="str">
         <f t="shared" si="8"/>
@@ -13960,7 +14029,7 @@
       </c>
       <c r="J9" s="350">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K9" s="365">
         <v>1400000</v>
@@ -13978,7 +14047,7 @@
       </c>
       <c r="O9" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P9" s="355"/>
       <c r="Q9" s="301" t="str">
@@ -13995,7 +14064,7 @@
       </c>
       <c r="T9" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="U9" s="355"/>
       <c r="V9" s="301" t="str">
@@ -14012,7 +14081,7 @@
       </c>
       <c r="Y9" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Z9" s="355"/>
     </row>
@@ -14037,7 +14106,7 @@
       </c>
       <c r="F10" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>-56</v>
       </c>
       <c r="G10" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14052,7 +14121,7 @@
       </c>
       <c r="J10" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K10" s="355"/>
       <c r="L10" s="301" t="str">
@@ -14067,7 +14136,7 @@
       </c>
       <c r="O10" s="301">
         <f ca="1">O9+7-112</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P10" s="355">
         <v>875000</v>
@@ -14085,7 +14154,7 @@
       </c>
       <c r="T10" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U10" s="355"/>
       <c r="V10" s="301" t="str">
@@ -14102,7 +14171,7 @@
       </c>
       <c r="Y10" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="355"/>
     </row>
@@ -14127,7 +14196,7 @@
       </c>
       <c r="F11" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>-49</v>
       </c>
       <c r="G11" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14142,7 +14211,7 @@
       </c>
       <c r="J11" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K11" s="355"/>
       <c r="L11" s="301" t="str">
@@ -14158,7 +14227,7 @@
       </c>
       <c r="O11" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P11" s="355"/>
       <c r="Q11" s="301" t="str">
@@ -14174,7 +14243,7 @@
       </c>
       <c r="T11" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U11" s="355"/>
       <c r="V11" s="301" t="str">
@@ -14191,7 +14260,7 @@
       </c>
       <c r="Y11" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z11" s="355"/>
     </row>
@@ -14216,7 +14285,7 @@
       </c>
       <c r="F12" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>-42</v>
       </c>
       <c r="G12" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14230,7 +14299,7 @@
       </c>
       <c r="J12" s="301">
         <f ca="1">J11+7-112</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K12" s="355"/>
       <c r="L12" s="301" t="str">
@@ -14246,7 +14315,7 @@
       </c>
       <c r="O12" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P12" s="355"/>
       <c r="Q12" s="301" t="str">
@@ -14262,7 +14331,7 @@
       </c>
       <c r="T12" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U12" s="355">
         <v>35000</v>
@@ -14281,7 +14350,7 @@
       </c>
       <c r="Y12" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Z12" s="355"/>
     </row>
@@ -14306,7 +14375,7 @@
       </c>
       <c r="F13" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>-35</v>
       </c>
       <c r="G13" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14321,7 +14390,7 @@
       </c>
       <c r="J13" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K13" s="355"/>
       <c r="L13" s="301" t="str">
@@ -14337,7 +14406,7 @@
       </c>
       <c r="O13" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P13" s="355"/>
       <c r="Q13" s="301" t="str">
@@ -14353,7 +14422,7 @@
       </c>
       <c r="T13" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="U13" s="355"/>
       <c r="V13" s="301" t="str">
@@ -14370,7 +14439,7 @@
       </c>
       <c r="Y13" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Z13" s="355"/>
     </row>
@@ -14395,7 +14464,7 @@
       </c>
       <c r="F14" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>-28</v>
       </c>
       <c r="G14" s="350" t="str">
         <f t="shared" si="8"/>
@@ -14410,7 +14479,7 @@
       </c>
       <c r="J14" s="350">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K14" s="365">
         <v>1890000</v>
@@ -14428,7 +14497,7 @@
       </c>
       <c r="O14" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P14" s="355">
         <v>1775000</v>
@@ -14446,7 +14515,7 @@
       </c>
       <c r="T14" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="U14" s="355">
         <v>380000</v>
@@ -14465,7 +14534,7 @@
       </c>
       <c r="Y14" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="Z14" s="355"/>
     </row>
@@ -14490,7 +14559,7 @@
       </c>
       <c r="F15" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>-21</v>
       </c>
       <c r="G15" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14505,7 +14574,7 @@
       </c>
       <c r="J15" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K15" s="355"/>
       <c r="L15" s="301" t="str">
@@ -14521,7 +14590,7 @@
       </c>
       <c r="O15" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P15" s="355"/>
       <c r="Q15" s="301" t="str">
@@ -14537,7 +14606,7 @@
       </c>
       <c r="T15" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U15" s="355"/>
       <c r="V15" s="301" t="str">
@@ -14553,7 +14622,7 @@
       </c>
       <c r="Y15" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Z15" s="355"/>
     </row>
@@ -14578,7 +14647,7 @@
       </c>
       <c r="F16" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>-14</v>
       </c>
       <c r="G16" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14593,7 +14662,7 @@
       </c>
       <c r="J16" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K16" s="355"/>
       <c r="L16" s="301" t="str">
@@ -14609,7 +14678,7 @@
       </c>
       <c r="O16" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P16" s="355"/>
       <c r="Q16" s="301" t="str">
@@ -14625,7 +14694,7 @@
       </c>
       <c r="T16" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U16" s="355"/>
       <c r="V16" s="301" t="str">
@@ -14641,7 +14710,7 @@
       </c>
       <c r="Y16" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Z16" s="355"/>
     </row>
@@ -14666,7 +14735,7 @@
       </c>
       <c r="F17" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>101</v>
+        <v>-7</v>
       </c>
       <c r="G17" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14681,7 +14750,7 @@
       </c>
       <c r="J17" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="355"/>
       <c r="L17" s="301" t="str">
@@ -14697,7 +14766,7 @@
       </c>
       <c r="O17" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P17" s="355"/>
       <c r="Q17" s="301" t="str">
@@ -14713,7 +14782,7 @@
       </c>
       <c r="T17" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="U17" s="355">
         <v>875000</v>
@@ -14731,7 +14800,7 @@
       </c>
       <c r="Y17" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Z17" s="355">
         <v>35000</v>
@@ -14758,7 +14827,7 @@
       </c>
       <c r="F18" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G18" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14773,7 +14842,7 @@
       </c>
       <c r="J18" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K18" s="355"/>
       <c r="L18" s="301" t="str">
@@ -14789,7 +14858,7 @@
       </c>
       <c r="O18" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P18" s="355">
         <v>2200000</v>
@@ -14807,7 +14876,7 @@
       </c>
       <c r="T18" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="U18" s="355"/>
       <c r="V18" s="301" t="str">
@@ -14823,7 +14892,7 @@
       </c>
       <c r="Y18" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Z18" s="355"/>
     </row>
@@ -14848,7 +14917,7 @@
       </c>
       <c r="F19" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="G19" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14863,7 +14932,7 @@
       </c>
       <c r="J19" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K19" s="355">
         <v>2050000</v>
@@ -14881,7 +14950,7 @@
       </c>
       <c r="O19" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P19" s="355"/>
       <c r="Q19" s="301" t="str">
@@ -14897,7 +14966,7 @@
       </c>
       <c r="T19" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="U19" s="355"/>
       <c r="V19" s="301" t="str">
@@ -14913,7 +14982,7 @@
       </c>
       <c r="Y19" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Z19" s="355">
         <v>380000</v>
@@ -14940,7 +15009,7 @@
       </c>
       <c r="F20" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G20" s="301" t="str">
         <f t="shared" si="8"/>
@@ -14956,7 +15025,7 @@
       </c>
       <c r="J20" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K20" s="355"/>
       <c r="L20" s="301" t="str">
@@ -14972,7 +15041,7 @@
       </c>
       <c r="O20" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P20" s="355"/>
       <c r="Q20" s="301" t="str">
@@ -14988,7 +15057,7 @@
       </c>
       <c r="T20" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="U20" s="355"/>
       <c r="V20" s="301" t="str">
@@ -15004,7 +15073,7 @@
       </c>
       <c r="Y20" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Z20" s="355"/>
     </row>
@@ -15029,7 +15098,7 @@
       </c>
       <c r="F21" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="G21" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15045,7 +15114,7 @@
       </c>
       <c r="J21" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K21" s="355"/>
       <c r="L21" s="301" t="str">
@@ -15061,7 +15130,7 @@
       </c>
       <c r="O21" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P21" s="355"/>
       <c r="Q21" s="301" t="str">
@@ -15077,7 +15146,7 @@
       </c>
       <c r="T21" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="U21" s="355">
         <v>1775000</v>
@@ -15095,7 +15164,7 @@
       </c>
       <c r="Y21" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z21" s="355"/>
     </row>
@@ -15120,7 +15189,7 @@
       </c>
       <c r="F22" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="G22" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15136,7 +15205,7 @@
       </c>
       <c r="J22" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K22" s="355"/>
       <c r="L22" s="301" t="str">
@@ -15152,7 +15221,7 @@
       </c>
       <c r="O22" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P22" s="355">
         <v>3200000</v>
@@ -15170,7 +15239,7 @@
       </c>
       <c r="T22" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U22" s="355"/>
       <c r="V22" s="301" t="str">
@@ -15186,7 +15255,7 @@
       </c>
       <c r="Y22" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Z22" s="355">
         <v>875000</v>
@@ -15213,7 +15282,7 @@
       </c>
       <c r="F23" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="G23" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15229,7 +15298,7 @@
       </c>
       <c r="J23" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K23" s="355"/>
       <c r="L23" s="301" t="str">
@@ -15246,7 +15315,7 @@
       </c>
       <c r="O23" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P23" s="355"/>
       <c r="Q23" s="301" t="str">
@@ -15262,7 +15331,7 @@
       </c>
       <c r="T23" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="U23" s="355"/>
       <c r="V23" s="301" t="str">
@@ -15278,7 +15347,7 @@
       </c>
       <c r="Y23" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Z23" s="355"/>
     </row>
@@ -15303,7 +15372,7 @@
       </c>
       <c r="F24" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="G24" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15319,7 +15388,7 @@
       </c>
       <c r="J24" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K24" s="355"/>
       <c r="L24" s="301" t="str">
@@ -15336,7 +15405,7 @@
       </c>
       <c r="O24" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P24" s="355"/>
       <c r="Q24" s="301" t="str">
@@ -15352,7 +15421,7 @@
       </c>
       <c r="T24" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="U24" s="355"/>
       <c r="V24" s="301" t="str">
@@ -15368,7 +15437,7 @@
       </c>
       <c r="Y24" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z24" s="355"/>
     </row>
@@ -15392,7 +15461,7 @@
       </c>
       <c r="F25" s="354">
         <f ca="1">F24+7-112</f>
-        <v>45</v>
+        <v>-63</v>
       </c>
       <c r="G25" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15407,7 +15476,7 @@
       </c>
       <c r="J25" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K25" s="355">
         <v>2300000</v>
@@ -15426,7 +15495,7 @@
       </c>
       <c r="O25" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="355"/>
       <c r="Q25" s="301" t="str">
@@ -15442,7 +15511,7 @@
       </c>
       <c r="T25" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="U25" s="355">
         <v>2200000</v>
@@ -15460,7 +15529,7 @@
       </c>
       <c r="Y25" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Z25" s="355"/>
     </row>
@@ -15485,7 +15554,7 @@
       </c>
       <c r="F26" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>-56</v>
       </c>
       <c r="G26" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15498,7 +15567,7 @@
       </c>
       <c r="J26" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K26" s="355"/>
       <c r="L26" s="301" t="str">
@@ -15514,7 +15583,7 @@
       </c>
       <c r="O26" s="301">
         <f ca="1">O25+7-112</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P26" s="355"/>
       <c r="Q26" s="301" t="str">
@@ -15530,7 +15599,7 @@
       </c>
       <c r="T26" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="U26" s="355"/>
       <c r="V26" s="301" t="str">
@@ -15546,7 +15615,7 @@
       </c>
       <c r="Y26" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z26" s="355">
         <v>1800000</v>
@@ -15573,7 +15642,7 @@
       </c>
       <c r="F27" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>-49</v>
       </c>
       <c r="G27" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15586,7 +15655,7 @@
       </c>
       <c r="J27" s="301">
         <f t="shared" ca="1" si="10"/>
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K27" s="355"/>
       <c r="L27" s="301" t="str">
@@ -15603,7 +15672,7 @@
       </c>
       <c r="O27" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P27" s="355"/>
       <c r="Q27" s="301" t="str">
@@ -15619,7 +15688,7 @@
       </c>
       <c r="T27" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U27" s="355"/>
       <c r="V27" s="301" t="str">
@@ -15635,7 +15704,7 @@
       </c>
       <c r="Y27" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="Z27" s="355"/>
     </row>
@@ -15660,7 +15729,7 @@
       </c>
       <c r="F28" s="354">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>-42</v>
       </c>
       <c r="G28" s="301" t="str">
         <f t="shared" si="8"/>
@@ -15672,7 +15741,7 @@
       </c>
       <c r="J28" s="301">
         <f ca="1">J27+7-112</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K28" s="355"/>
       <c r="L28" s="301" t="str">
@@ -15688,7 +15757,7 @@
       </c>
       <c r="O28" s="301">
         <f t="shared" ca="1" si="13"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P28" s="355">
         <v>3600000</v>
@@ -15706,7 +15775,7 @@
       </c>
       <c r="T28" s="301">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U28" s="355"/>
       <c r="V28" s="301" t="str">
@@ -15722,7 +15791,7 @@
       </c>
       <c r="Y28" s="301">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Z28" s="355"/>
     </row>
@@ -15800,14 +15869,14 @@
       <c r="A1" s="75"/>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
-      <c r="D1" s="473" t="s">
+      <c r="D1" s="467" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="474"/>
-      <c r="F1" s="474"/>
-      <c r="G1" s="474"/>
-      <c r="H1" s="474"/>
-      <c r="I1" s="475"/>
+      <c r="E1" s="468"/>
+      <c r="F1" s="468"/>
+      <c r="G1" s="468"/>
+      <c r="H1" s="468"/>
+      <c r="I1" s="469"/>
       <c r="K1" s="75"/>
       <c r="L1" s="76"/>
       <c r="M1" s="76"/>
@@ -15887,14 +15956,14 @@
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
-      <c r="D2" s="476" t="s">
+      <c r="D2" s="470" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="477"/>
-      <c r="F2" s="477"/>
-      <c r="G2" s="477"/>
-      <c r="H2" s="477"/>
-      <c r="I2" s="478"/>
+      <c r="E2" s="471"/>
+      <c r="F2" s="471"/>
+      <c r="G2" s="471"/>
+      <c r="H2" s="471"/>
+      <c r="I2" s="472"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="78" t="s">
@@ -15959,15 +16028,15 @@
       <c r="A3" s="61"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
-      <c r="D3" s="479" t="s">
+      <c r="D3" s="473" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="480"/>
+      <c r="E3" s="474"/>
       <c r="F3" s="198"/>
-      <c r="G3" s="481" t="s">
+      <c r="G3" s="475" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="482"/>
+      <c r="H3" s="476"/>
       <c r="I3" s="198"/>
       <c r="K3" s="73"/>
       <c r="L3" s="80"/>
@@ -16420,7 +16489,7 @@
         <v>56430</v>
       </c>
       <c r="Z7" s="234">
-        <f t="shared" ref="Y7:AE7" si="7">Y7+1000</f>
+        <f t="shared" ref="Z7:AE7" si="7">Y7+1000</f>
         <v>57430</v>
       </c>
       <c r="AA7" s="234">
@@ -16749,7 +16818,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K11" s="483" t="s">
+      <c r="K11" s="478" t="s">
         <v>122</v>
       </c>
       <c r="L11" s="235" t="s">
@@ -16855,7 +16924,7 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="K12" s="484"/>
+      <c r="K12" s="479"/>
       <c r="L12" s="235" t="s">
         <v>124</v>
       </c>
@@ -16951,7 +17020,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="260"/>
-      <c r="K13" s="485"/>
+      <c r="K13" s="480"/>
       <c r="L13" s="235" t="s">
         <v>261</v>
       </c>
@@ -17134,11 +17203,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="470">
+      <c r="A15" s="485">
         <f>M14</f>
         <v>2994741</v>
       </c>
-      <c r="B15" s="470"/>
+      <c r="B15" s="485"/>
       <c r="D15" s="202" t="s">
         <v>139</v>
       </c>
@@ -17208,7 +17277,7 @@
         <v>7700</v>
       </c>
       <c r="Z15" s="240">
-        <f t="shared" ref="Y15:AE15" si="14">Y15+250</f>
+        <f t="shared" ref="Z15:AE15" si="14">Y15+250</f>
         <v>7950</v>
       </c>
       <c r="AA15" s="240">
@@ -17690,7 +17759,7 @@
       <c r="G21" s="215"/>
       <c r="H21" s="271"/>
       <c r="I21" s="272"/>
-      <c r="K21" s="466" t="s">
+      <c r="K21" s="481" t="s">
         <v>122</v>
       </c>
       <c r="L21" s="237" t="s">
@@ -17778,7 +17847,7 @@
         <f>H22/$H$35</f>
         <v>0.14069909037348233</v>
       </c>
-      <c r="K22" s="467"/>
+      <c r="K22" s="482"/>
       <c r="L22" s="237" t="s">
         <v>135</v>
       </c>
@@ -17857,7 +17926,7 @@
         <f>H23/$H$35</f>
         <v>7.0619483382630743E-2</v>
       </c>
-      <c r="K23" s="468"/>
+      <c r="K23" s="483"/>
       <c r="L23" s="237" t="s">
         <v>262</v>
       </c>
@@ -18499,7 +18568,7 @@
         <v>9.3891546396377243E-2</v>
       </c>
       <c r="K30" s="73"/>
-      <c r="L30" s="469" t="s">
+      <c r="L30" s="484" t="s">
         <v>140</v>
       </c>
       <c r="M30" s="98" t="s">
@@ -18576,7 +18645,7 @@
         <v>1.8256689577073354E-3</v>
       </c>
       <c r="K31" s="73"/>
-      <c r="L31" s="469"/>
+      <c r="L31" s="484"/>
       <c r="M31" s="98" t="s">
         <v>141</v>
       </c>
@@ -18651,7 +18720,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="73"/>
-      <c r="L32" s="469"/>
+      <c r="L32" s="484"/>
       <c r="M32" s="98" t="s">
         <v>142</v>
       </c>
@@ -18715,7 +18784,7 @@
       <c r="H33" s="271"/>
       <c r="I33" s="272"/>
       <c r="K33" s="73"/>
-      <c r="L33" s="469"/>
+      <c r="L33" s="484"/>
       <c r="M33" s="98" t="s">
         <v>143</v>
       </c>
@@ -18776,7 +18845,7 @@
       <c r="H34" s="278"/>
       <c r="I34" s="279"/>
       <c r="K34" s="73"/>
-      <c r="L34" s="469"/>
+      <c r="L34" s="484"/>
       <c r="M34" s="98" t="s">
         <v>144</v>
       </c>
@@ -18820,11 +18889,11 @@
       <c r="AE34" s="99"/>
     </row>
     <row r="35" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="471">
+      <c r="A35" s="486">
         <f>M25</f>
         <v>2134226</v>
       </c>
-      <c r="B35" s="471"/>
+      <c r="B35" s="486"/>
       <c r="D35" s="280" t="s">
         <v>209</v>
       </c>
@@ -18848,7 +18917,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="73"/>
-      <c r="L35" s="469"/>
+      <c r="L35" s="484"/>
       <c r="M35" s="98" t="s">
         <v>146</v>
       </c>
@@ -18901,7 +18970,7 @@
       </c>
       <c r="I36" s="197"/>
       <c r="K36" s="61"/>
-      <c r="L36" s="469"/>
+      <c r="L36" s="484"/>
       <c r="M36" s="98" t="s">
         <v>147</v>
       </c>
@@ -18950,7 +19019,7 @@
       <c r="H37" s="197"/>
       <c r="I37" s="197"/>
       <c r="K37" s="61"/>
-      <c r="L37" s="469"/>
+      <c r="L37" s="484"/>
       <c r="M37" s="98" t="s">
         <v>148</v>
       </c>
@@ -19083,10 +19152,10 @@
       <c r="N39" s="61"/>
       <c r="O39" s="62"/>
       <c r="P39" s="74"/>
-      <c r="Q39" s="472"/>
-      <c r="R39" s="472"/>
-      <c r="S39" s="472"/>
-      <c r="T39" s="472"/>
+      <c r="Q39" s="487"/>
+      <c r="R39" s="487"/>
+      <c r="S39" s="487"/>
+      <c r="T39" s="487"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E40" s="197"/>
@@ -19138,10 +19207,10 @@
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="P42" s="74"/>
-      <c r="Q42" s="465"/>
-      <c r="R42" s="465"/>
-      <c r="S42" s="465"/>
-      <c r="T42" s="465"/>
+      <c r="Q42" s="477"/>
+      <c r="R42" s="477"/>
+      <c r="S42" s="477"/>
+      <c r="T42" s="477"/>
       <c r="W42" s="104"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
@@ -19162,10 +19231,10 @@
       <c r="M44" s="61"/>
       <c r="N44" s="61"/>
       <c r="P44" s="74"/>
-      <c r="Q44" s="465"/>
-      <c r="R44" s="465"/>
-      <c r="S44" s="465"/>
-      <c r="T44" s="465"/>
+      <c r="Q44" s="477"/>
+      <c r="R44" s="477"/>
+      <c r="S44" s="477"/>
+      <c r="T44" s="477"/>
       <c r="Z44" s="104"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
@@ -19174,9 +19243,9 @@
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="P45" s="74"/>
-      <c r="Q45" s="465"/>
-      <c r="R45" s="465"/>
-      <c r="S45" s="465"/>
+      <c r="Q45" s="477"/>
+      <c r="R45" s="477"/>
+      <c r="S45" s="477"/>
       <c r="T45" s="106"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
@@ -19433,12 +19502,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="K11:K13"/>
     <mergeCell ref="Q45:S45"/>
     <mergeCell ref="K21:K23"/>
     <mergeCell ref="L30:L37"/>
@@ -19447,6 +19510,12 @@
     <mergeCell ref="Q39:R39"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="K11:K13"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:H16">
     <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
@@ -19533,18 +19602,18 @@
       <c r="C2" s="146" t="s">
         <v>192</v>
       </c>
-      <c r="D2" s="486" t="s">
+      <c r="D2" s="488" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="486"/>
-      <c r="F2" s="487" t="s">
+      <c r="E2" s="488"/>
+      <c r="F2" s="489" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="487"/>
-      <c r="H2" s="488" t="s">
+      <c r="G2" s="489"/>
+      <c r="H2" s="490" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="488"/>
+      <c r="I2" s="490"/>
       <c r="K2" s="60"/>
       <c r="M2" s="147">
         <v>11</v>

--- a/projects/current/hattrick/1-Luke.xlsx
+++ b/projects/current/hattrick/1-Luke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Personal\HoldingIdeas\projects\current\hattrick\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC45DDDE-2C93-4A63-B240-FBF455C0DEB8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DF6D1B-9233-4FB7-A062-3A2563981AD9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hall_of_Fame" sheetId="6" r:id="rId1"/>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="365">
   <si>
     <t>Nfin</t>
   </si>
@@ -1291,16 +1291,13 @@
     <t>532 CA</t>
   </si>
   <si>
-    <t>451 TL</t>
-  </si>
-  <si>
-    <t>253 AoA</t>
-  </si>
-  <si>
     <t>INN</t>
   </si>
   <si>
     <t>DC/INN</t>
+  </si>
+  <si>
+    <t>Tot</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1793,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="58">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2137,6 +2134,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
   </fills>
@@ -2551,7 +2554,7 @@
     <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="501">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3345,9 +3348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3589,6 +3589,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="62" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="57" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="63" fillId="56" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="58" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3616,9 +3661,48 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="40" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3640,45 +3724,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3688,23 +3733,14 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="54" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="55" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="51" fillId="28" borderId="28" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="63" fillId="57" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="63" fillId="56" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="51" fillId="28" borderId="29" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="51" fillId="28" borderId="30" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4913,24 +4949,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="453" t="s">
+      <c r="A1" s="467" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="453"/>
-      <c r="C1" s="453"/>
-      <c r="E1" s="452" t="s">
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="E1" s="466" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="452"/>
-      <c r="G1" s="452"/>
-      <c r="H1" s="452"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="454">
+      <c r="A2" s="468">
         <v>43732</v>
       </c>
-      <c r="B2" s="454"/>
-      <c r="C2" s="454"/>
+      <c r="B2" s="468"/>
+      <c r="C2" s="468"/>
       <c r="E2" s="62" t="s">
         <v>299</v>
       </c>
@@ -4985,38 +5021,38 @@
     </row>
     <row r="5" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="302"/>
-      <c r="B5" s="451" t="s">
+      <c r="B5" s="465" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="451"/>
+      <c r="C5" s="465"/>
       <c r="E5" s="302"/>
       <c r="F5" s="302"/>
-      <c r="G5" s="451" t="s">
+      <c r="G5" s="465" t="s">
         <v>273</v>
       </c>
-      <c r="H5" s="451"/>
-      <c r="I5" s="451"/>
+      <c r="H5" s="465"/>
+      <c r="I5" s="465"/>
       <c r="J5" s="303"/>
       <c r="K5" s="303"/>
-      <c r="L5" s="451" t="s">
+      <c r="L5" s="465" t="s">
         <v>274</v>
       </c>
-      <c r="M5" s="451"/>
+      <c r="M5" s="465"/>
       <c r="O5" s="230" t="s">
         <v>275</v>
       </c>
       <c r="P5" s="302"/>
       <c r="Q5" s="302"/>
-      <c r="R5" s="451" t="s">
+      <c r="R5" s="465" t="s">
         <v>276</v>
       </c>
-      <c r="S5" s="451"/>
+      <c r="S5" s="465"/>
       <c r="T5" s="302"/>
       <c r="U5" s="302"/>
-      <c r="V5" s="452" t="s">
+      <c r="V5" s="466" t="s">
         <v>295</v>
       </c>
-      <c r="W5" s="452"/>
+      <c r="W5" s="466"/>
       <c r="X5" s="329" t="s">
         <v>296</v>
       </c>
@@ -5086,7 +5122,7 @@
       <c r="V6" s="330">
         <v>1</v>
       </c>
-      <c r="W6" s="365" t="s">
+      <c r="W6" s="364" t="s">
         <v>280</v>
       </c>
       <c r="X6" s="314">
@@ -5099,22 +5135,22 @@
         <f>Y6+X6</f>
         <v>4</v>
       </c>
-      <c r="AA6" s="425">
+      <c r="AA6" s="424">
         <f>Z6/G7</f>
         <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="449">
+      <c r="A7" s="448">
         <v>2</v>
       </c>
-      <c r="B7" s="448">
+      <c r="B7" s="447">
         <v>5</v>
       </c>
-      <c r="C7" s="449" t="s">
+      <c r="C7" s="448" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="450" t="s">
+      <c r="D7" s="449" t="s">
         <v>56</v>
       </c>
       <c r="F7" s="317">
@@ -5160,7 +5196,7 @@
       <c r="V7" s="333">
         <v>2</v>
       </c>
-      <c r="W7" s="365" t="s">
+      <c r="W7" s="364" t="s">
         <v>281</v>
       </c>
       <c r="X7" s="314">
@@ -5173,7 +5209,7 @@
         <f>Y7+X7</f>
         <v>3</v>
       </c>
-      <c r="AA7" s="425">
+      <c r="AA7" s="424">
         <f>Z7/G11</f>
         <v>0.21428571428571427</v>
       </c>
@@ -5219,22 +5255,22 @@
         <f>L8/G11</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="Q8" s="444">
+      <c r="Q8" s="443">
         <v>1</v>
       </c>
-      <c r="R8" s="445">
+      <c r="R8" s="444">
         <v>5.5</v>
       </c>
-      <c r="S8" s="444" t="s">
+      <c r="S8" s="443" t="s">
         <v>290</v>
       </c>
-      <c r="T8" s="446" t="s">
+      <c r="T8" s="445" t="s">
         <v>56</v>
       </c>
       <c r="V8" s="333">
         <v>3</v>
       </c>
-      <c r="W8" s="366" t="s">
+      <c r="W8" s="365" t="s">
         <v>288</v>
       </c>
       <c r="X8" s="311">
@@ -5247,7 +5283,7 @@
         <f>Y8+X8</f>
         <v>2</v>
       </c>
-      <c r="AA8" s="425">
+      <c r="AA8" s="424">
         <f>Z8/G16</f>
         <v>0.18181818181818182</v>
       </c>
@@ -5306,7 +5342,7 @@
       <c r="V9" s="333">
         <v>3</v>
       </c>
-      <c r="W9" s="368" t="s">
+      <c r="W9" s="367" t="s">
         <v>283</v>
       </c>
       <c r="X9" s="311">
@@ -5319,7 +5355,7 @@
         <f>Y9+X9</f>
         <v>2</v>
       </c>
-      <c r="AA9" s="425">
+      <c r="AA9" s="424">
         <f>Z9/G10</f>
         <v>0.125</v>
       </c>
@@ -5374,7 +5410,7 @@
       <c r="V10" s="333">
         <v>3</v>
       </c>
-      <c r="W10" s="365" t="s">
+      <c r="W10" s="364" t="s">
         <v>286</v>
       </c>
       <c r="X10" s="314">
@@ -5387,7 +5423,7 @@
         <f>Y10+X10</f>
         <v>1</v>
       </c>
-      <c r="AA10" s="425">
+      <c r="AA10" s="424">
         <f>Z10/G9</f>
         <v>5.8823529411764705E-2</v>
       </c>
@@ -5455,7 +5491,7 @@
         <f t="shared" ref="Z11:Z13" si="0">Y11+X11</f>
         <v>1</v>
       </c>
-      <c r="AA11" s="425">
+      <c r="AA11" s="424">
         <f>Z11/G15</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -5519,7 +5555,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA12" s="425">
+      <c r="AA12" s="424">
         <f>Z12/G11</f>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5576,7 +5612,7 @@
       <c r="V13" s="333">
         <v>6</v>
       </c>
-      <c r="W13" s="424" t="s">
+      <c r="W13" s="423" t="s">
         <v>289</v>
       </c>
       <c r="X13" s="311">
@@ -5589,7 +5625,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA13" s="425">
+      <c r="AA13" s="424">
         <f>Z13/G13</f>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -5899,16 +5935,16 @@
       <c r="B19" s="321"/>
       <c r="C19" s="322"/>
       <c r="D19" s="323"/>
-      <c r="F19" s="447">
+      <c r="F19" s="446">
         <v>14</v>
       </c>
-      <c r="G19" s="448">
+      <c r="G19" s="447">
         <v>9</v>
       </c>
-      <c r="H19" s="449" t="s">
+      <c r="H19" s="448" t="s">
         <v>290</v>
       </c>
-      <c r="I19" s="450" t="s">
+      <c r="I19" s="449" t="s">
         <v>56</v>
       </c>
       <c r="K19" s="300">
@@ -6224,10 +6260,10 @@
     </row>
     <row r="28" spans="1:27" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="327"/>
-      <c r="B28" s="367" t="s">
+      <c r="B28" s="366" t="s">
         <v>328</v>
       </c>
-      <c r="C28" s="367"/>
+      <c r="C28" s="366"/>
       <c r="K28" s="300">
         <v>22</v>
       </c>
@@ -6519,13 +6555,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3">
         <f ca="1">TODAY()</f>
-        <v>43732</v>
-      </c>
-      <c r="E1" s="455">
+        <v>43735</v>
+      </c>
+      <c r="E1" s="469">
         <v>43637</v>
       </c>
-      <c r="F1" s="455"/>
-      <c r="G1" s="455"/>
+      <c r="F1" s="469"/>
+      <c r="G1" s="469"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -6827,7 +6863,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C20" ca="1" si="0">((36*112)-(E4*112)-(F4))/112</f>
-        <v>16.875</v>
+        <v>16.848214285714285</v>
       </c>
       <c r="D4" s="196" t="s">
         <v>52</v>
@@ -6837,7 +6873,7 @@
       </c>
       <c r="F4" s="28">
         <f ca="1">$D$1-43606-112</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>53</v>
@@ -7010,7 +7046,7 @@
       </c>
       <c r="C5" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.955357142857142</v>
+        <v>13.928571428571429</v>
       </c>
       <c r="D5" s="294" t="s">
         <v>57</v>
@@ -7020,7 +7056,7 @@
       </c>
       <c r="F5" s="51">
         <f ca="1">$D$1-43615-112</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>58</v>
@@ -7193,7 +7229,7 @@
       </c>
       <c r="C6" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1607142857142856</v>
+        <v>3.1339285714285716</v>
       </c>
       <c r="D6" s="195" t="s">
         <v>61</v>
@@ -7203,7 +7239,7 @@
       </c>
       <c r="F6" s="28">
         <f ca="1">$D$1-43526-112</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G6" s="56"/>
       <c r="H6" s="32">
@@ -7373,7 +7409,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6160714285714288</v>
+        <v>8.5892857142857135</v>
       </c>
       <c r="D7" s="190" t="s">
         <v>63</v>
@@ -7383,7 +7419,7 @@
       </c>
       <c r="F7" s="28">
         <f ca="1">$D$1-43577-112</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G7" s="56"/>
       <c r="H7" s="32">
@@ -7553,9 +7589,9 @@
       </c>
       <c r="C8" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5892857142857144</v>
-      </c>
-      <c r="D8" s="410" t="s">
+        <v>6.5625</v>
+      </c>
+      <c r="D8" s="409" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="50">
@@ -7563,7 +7599,7 @@
       </c>
       <c r="F8" s="28">
         <f ca="1">$D$1-43574-112</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="32">
@@ -7733,9 +7769,9 @@
       </c>
       <c r="C9" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3392857142857144</v>
-      </c>
-      <c r="D9" s="410" t="s">
+        <v>4.3125</v>
+      </c>
+      <c r="D9" s="409" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="50">
@@ -7743,7 +7779,7 @@
       </c>
       <c r="F9" s="51">
         <f ca="1">$D$1-43546-112</f>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="32">
@@ -7913,7 +7949,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.026785714285714</v>
+        <v>10</v>
       </c>
       <c r="D10" s="190" t="s">
         <v>70</v>
@@ -7923,7 +7959,7 @@
       </c>
       <c r="F10" s="28">
         <f ca="1">$D$1-43623</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>71</v>
@@ -8095,7 +8131,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>13.366071428571429</v>
+        <v>13.339285714285714</v>
       </c>
       <c r="D11" s="195" t="s">
         <v>73</v>
@@ -8105,7 +8141,7 @@
       </c>
       <c r="F11" s="28">
         <f ca="1">$D$1-43549-112</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="32">
@@ -8275,7 +8311,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>15.678571428571429</v>
+        <v>15.651785714285714</v>
       </c>
       <c r="D12" s="195" t="s">
         <v>75</v>
@@ -8285,7 +8321,7 @@
       </c>
       <c r="F12" s="28">
         <f ca="1">$D$1-43584-112</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="32">
@@ -8455,7 +8491,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.125</v>
+        <v>12.098214285714286</v>
       </c>
       <c r="D13" s="195" t="s">
         <v>77</v>
@@ -8465,7 +8501,7 @@
       </c>
       <c r="F13" s="28">
         <f ca="1">$D$1-43634</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="32">
@@ -8635,7 +8671,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>11.142857142857142</v>
+        <v>11.116071428571429</v>
       </c>
       <c r="D14" s="195" t="s">
         <v>79</v>
@@ -8645,7 +8681,7 @@
       </c>
       <c r="F14" s="28">
         <f ca="1">$D$1-43636</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="32">
@@ -8815,7 +8851,7 @@
       </c>
       <c r="C15" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1071428571428577</v>
+        <v>8.0803571428571423</v>
       </c>
       <c r="D15" s="195" t="s">
         <v>81</v>
@@ -8825,7 +8861,7 @@
       </c>
       <c r="F15" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>82</v>
@@ -8997,7 +9033,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>14.357142857142858</v>
+        <v>14.330357142857142</v>
       </c>
       <c r="D16" s="195" t="s">
         <v>85</v>
@@ -9007,7 +9043,7 @@
       </c>
       <c r="F16" s="28">
         <f ca="1">$D$1-43548-112</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="32">
@@ -9177,7 +9213,7 @@
       </c>
       <c r="C17" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>12.517857142857142</v>
+        <v>12.491071428571429</v>
       </c>
       <c r="D17" s="195" t="s">
         <v>87</v>
@@ -9187,7 +9223,7 @@
       </c>
       <c r="F17" s="28">
         <f ca="1">$D$1-43566-112</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="32">
@@ -9357,7 +9393,7 @@
       </c>
       <c r="C18" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>17.107142857142858</v>
+        <v>17.080357142857142</v>
       </c>
       <c r="D18" s="195" t="s">
         <v>90</v>
@@ -9367,7 +9403,7 @@
       </c>
       <c r="F18" s="28">
         <f ca="1">$D$1-43632</f>
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="32">
@@ -9537,7 +9573,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1517857142857144</v>
+        <v>2.125</v>
       </c>
       <c r="D19" s="195" t="s">
         <v>92</v>
@@ -9547,7 +9583,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">$D$1-43637</f>
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="32">
@@ -9717,7 +9753,7 @@
       </c>
       <c r="C20" s="26">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2053571428571423</v>
+        <v>9.1785714285714288</v>
       </c>
       <c r="D20" s="195" t="s">
         <v>94</v>
@@ -9727,7 +9763,7 @@
       </c>
       <c r="F20" s="28">
         <f ca="1">$D$1-43531-112</f>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="32">
@@ -10521,13 +10557,13 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AV33"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10547,35 +10583,42 @@
     <col min="18" max="18" width="5.140625" customWidth="1"/>
     <col min="19" max="19" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="5" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" style="62" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4" style="62" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4" style="62" customWidth="1"/>
-    <col min="32" max="32" width="4" style="62" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4" style="62" customWidth="1"/>
-    <col min="34" max="34" width="3.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="4.28515625" style="62" customWidth="1"/>
-    <col min="39" max="39" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="1024" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" style="62" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" style="62" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="62" customWidth="1"/>
+    <col min="31" max="31" width="4" style="62" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" style="62" customWidth="1"/>
+    <col min="33" max="33" width="3.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="4.28515625" style="62" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5" style="62" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="4.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="4.5703125" style="62" customWidth="1"/>
+    <col min="48" max="48" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="1032" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="456" t="s">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" s="470" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
+      <c r="B1" s="470"/>
+      <c r="C1" s="470"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="470"/>
       <c r="F1" s="108"/>
       <c r="G1" s="107"/>
       <c r="H1" s="108"/>
@@ -10592,27 +10635,35 @@
       <c r="S1" s="108"/>
       <c r="T1" s="108"/>
       <c r="U1" s="108"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="437"/>
+      <c r="V1" s="436"/>
+      <c r="W1" s="107"/>
       <c r="X1" s="107"/>
       <c r="Y1" s="107"/>
       <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="295"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="290"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="343"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="373"/>
-      <c r="AI1" s="290"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="370"/>
-      <c r="AL1" s="373"/>
+      <c r="AA1" s="295"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="290"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="343"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="372"/>
+      <c r="AH1" s="290"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="369"/>
+      <c r="AK1" s="372"/>
+      <c r="AL1" s="107"/>
       <c r="AM1" s="107"/>
-      <c r="AN1" s="109"/>
-    </row>
-    <row r="2" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN1" s="456"/>
+      <c r="AO1" s="456"/>
+      <c r="AP1" s="456"/>
+      <c r="AQ1" s="456"/>
+      <c r="AR1" s="456"/>
+      <c r="AS1" s="456"/>
+      <c r="AT1" s="456"/>
+      <c r="AU1" s="456"/>
+      <c r="AV1" s="109"/>
+    </row>
+    <row r="2" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="110" t="s">
         <v>164</v>
       </c>
@@ -10656,9 +10707,17 @@
       <c r="AK2" s="111"/>
       <c r="AL2" s="111"/>
       <c r="AM2" s="111"/>
-      <c r="AN2" s="112"/>
-    </row>
-    <row r="3" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="111"/>
+      <c r="AO2" s="111"/>
+      <c r="AP2" s="111"/>
+      <c r="AQ2" s="111"/>
+      <c r="AR2" s="111"/>
+      <c r="AS2" s="111"/>
+      <c r="AT2" s="111"/>
+      <c r="AU2" s="111"/>
+      <c r="AV2" s="112"/>
+    </row>
+    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="110" t="s">
         <v>3</v>
       </c>
@@ -10680,643 +10739,790 @@
       <c r="G3" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="401" t="s">
+      <c r="H3" s="400" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="402" t="s">
+      <c r="I3" s="401" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="403" t="s">
+      <c r="J3" s="402" t="s">
         <v>152</v>
       </c>
-      <c r="K3" s="404" t="s">
+      <c r="K3" s="403" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="405" t="s">
+      <c r="L3" s="404" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="402" t="s">
+      <c r="M3" s="401" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="403" t="s">
+      <c r="N3" s="402" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="404" t="s">
+      <c r="O3" s="403" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="405" t="s">
+      <c r="P3" s="404" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="402" t="s">
+      <c r="Q3" s="401" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="403" t="s">
+      <c r="R3" s="402" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="404" t="s">
+      <c r="S3" s="403" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="405" t="s">
+      <c r="T3" s="404" t="s">
         <v>156</v>
       </c>
-      <c r="U3" s="402" t="s">
+      <c r="U3" s="401" t="s">
         <v>39</v>
       </c>
       <c r="V3" s="111" t="s">
+        <v>323</v>
+      </c>
+      <c r="W3" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y3" s="111" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z3" s="111" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="111" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB3" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC3" s="111" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD3" s="111" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE3" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF3" s="111" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG3" s="111" t="s">
+        <v>334</v>
+      </c>
+      <c r="AH3" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI3" s="111" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ3" s="111" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK3" s="111" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL3" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM3" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="W3" s="111" t="s">
-        <v>323</v>
-      </c>
-      <c r="X3" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z3" s="111" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA3" s="111" t="s">
+      <c r="AN3" s="462" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="111" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC3" s="111" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD3" s="111" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE3" s="111" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF3" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG3" s="111" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH3" s="111" t="s">
-        <v>334</v>
-      </c>
-      <c r="AI3" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="AJ3" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK3" s="111" t="s">
-        <v>333</v>
-      </c>
-      <c r="AL3" s="111" t="s">
-        <v>335</v>
-      </c>
-      <c r="AM3" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN3" s="112" t="s">
+      <c r="AO3" s="462" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP3" s="462" t="s">
+        <v>153</v>
+      </c>
+      <c r="AQ3" s="462" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR3" s="462" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS3" s="462" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT3" s="462" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU3" s="462" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV3" s="112" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="340" t="s">
-        <v>262</v>
+    <row r="4" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="358" t="s">
+        <v>325</v>
       </c>
       <c r="B4" s="125">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="126">
-        <f ca="1">6+$A$30-$A$32</f>
-        <v>101</v>
-      </c>
-      <c r="D4" s="130"/>
+        <f ca="1">39+$A$30-$A$32-112</f>
+        <v>25</v>
+      </c>
+      <c r="D4" s="132"/>
       <c r="E4" s="191">
-        <f t="shared" ref="E4:E8" ca="1" si="0">F4-TODAY()</f>
-        <v>25</v>
+        <f ca="1">F4-TODAY()</f>
+        <v>65</v>
       </c>
       <c r="F4" s="194">
-        <v>43757</v>
+        <v>43800</v>
       </c>
       <c r="G4" s="357" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="411"/>
-      <c r="I4" s="412">
+        <v>326</v>
+      </c>
+      <c r="H4" s="381"/>
+      <c r="I4" s="382">
         <v>1.99</v>
       </c>
-      <c r="J4" s="413">
-        <v>5.6</v>
-      </c>
-      <c r="K4" s="414">
-        <v>6.99</v>
-      </c>
-      <c r="L4" s="428">
-        <v>4</v>
-      </c>
-      <c r="M4" s="429">
+      <c r="J4" s="383">
+        <v>5.4</v>
+      </c>
+      <c r="K4" s="384">
+        <v>7</v>
+      </c>
+      <c r="L4" s="385"/>
+      <c r="M4" s="389">
+        <v>5.99</v>
+      </c>
+      <c r="N4" s="385"/>
+      <c r="O4" s="394">
+        <v>3.99</v>
+      </c>
+      <c r="P4" s="385"/>
+      <c r="Q4" s="382">
         <v>4.99</v>
       </c>
-      <c r="N4" s="438">
-        <v>2</v>
-      </c>
-      <c r="O4" s="439">
-        <v>2.99</v>
-      </c>
-      <c r="P4" s="417"/>
-      <c r="Q4" s="416"/>
-      <c r="R4" s="417"/>
-      <c r="S4" s="416"/>
-      <c r="T4" s="415"/>
-      <c r="U4" s="418"/>
-      <c r="V4" s="361" t="s">
-        <v>320</v>
-      </c>
-      <c r="W4" s="364">
-        <f>COUNT(H4,J4,L4,N4,P4,R4,T4)</f>
-        <v>3</v>
-      </c>
-      <c r="X4" s="192">
-        <f>COUNT(I4,K4,M4,O4,Q4,S4,U4)</f>
-        <v>4</v>
-      </c>
-      <c r="Y4" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298">
+      <c r="R4" s="385"/>
+      <c r="S4" s="388"/>
+      <c r="T4" s="385"/>
+      <c r="U4" s="388"/>
+      <c r="V4" s="363">
+        <f t="shared" ref="V4:W8" si="0">COUNT(H4,J4,L4,N4,P4,R4,T4)</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="192">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="X4" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="298"/>
+      <c r="AA4" s="298">
+        <v>5.5</v>
+      </c>
+      <c r="AB4" s="299">
+        <v>4.5</v>
+      </c>
       <c r="AC4" s="299">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" s="299">
         <v>5</v>
       </c>
-      <c r="AE4" s="299">
+      <c r="AE4" s="299"/>
+      <c r="AF4" s="299">
         <v>5</v>
       </c>
-      <c r="AF4" s="299"/>
       <c r="AG4" s="299"/>
       <c r="AH4" s="299"/>
       <c r="AI4" s="299">
-        <v>5.5</v>
-      </c>
-      <c r="AJ4" s="299">
         <v>5</v>
       </c>
-      <c r="AK4" s="299">
-        <v>6</v>
-      </c>
-      <c r="AL4" s="299">
+      <c r="AJ4" s="299"/>
+      <c r="AK4" s="299"/>
+      <c r="AL4" s="299"/>
+      <c r="AM4" s="362" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN4" s="298">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="298">
+        <v>18</v>
+      </c>
+      <c r="AP4" s="299">
+        <v>9</v>
+      </c>
+      <c r="AQ4" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="299">
         <v>4</v>
       </c>
-      <c r="AM4" s="299">
-        <v>4.5</v>
-      </c>
-      <c r="AN4" s="193" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AS4" s="299"/>
+      <c r="AT4" s="299"/>
+      <c r="AU4" s="299">
+        <f>SUM(AN4:AT4)</f>
+        <v>33</v>
+      </c>
+      <c r="AV4" s="193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="340" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B5" s="131">
         <v>16</v>
       </c>
       <c r="C5" s="126">
-        <f ca="1">84+$A$30-$A$32-112</f>
-        <v>67</v>
-      </c>
-      <c r="D5" s="132"/>
+        <f ca="1">68+$A$30-$A$32-112</f>
+        <v>54</v>
+      </c>
+      <c r="D5" s="127" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="191">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <f ca="1">F5-TODAY()</f>
+        <v>58</v>
       </c>
       <c r="F5" s="194">
-        <v>43777</v>
+        <v>43793</v>
       </c>
       <c r="G5" s="357" t="s">
-        <v>319</v>
-      </c>
-      <c r="H5" s="382"/>
-      <c r="I5" s="383">
-        <v>1.99</v>
-      </c>
-      <c r="J5" s="426">
+        <v>309</v>
+      </c>
+      <c r="H5" s="381"/>
+      <c r="I5" s="388"/>
+      <c r="J5" s="425">
+        <v>5.2</v>
+      </c>
+      <c r="K5" s="426">
+        <v>5.6</v>
+      </c>
+      <c r="L5" s="391">
+        <v>2</v>
+      </c>
+      <c r="M5" s="382">
+        <v>3.99</v>
+      </c>
+      <c r="N5" s="437">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O5" s="439">
+        <v>4.99</v>
+      </c>
+      <c r="P5" s="393">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="394">
+        <v>3.99</v>
+      </c>
+      <c r="R5" s="387"/>
+      <c r="S5" s="384">
+        <v>6.99</v>
+      </c>
+      <c r="T5" s="385"/>
+      <c r="U5" s="388"/>
+      <c r="V5" s="363">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W5" s="192">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K5" s="427">
-        <v>5.2</v>
-      </c>
-      <c r="L5" s="386"/>
-      <c r="M5" s="383">
-        <v>4.99</v>
-      </c>
-      <c r="N5" s="426">
-        <v>3</v>
-      </c>
-      <c r="O5" s="427">
-        <v>3.99</v>
-      </c>
-      <c r="P5" s="388"/>
-      <c r="Q5" s="383">
-        <v>2.99</v>
-      </c>
-      <c r="R5" s="388"/>
-      <c r="S5" s="387"/>
-      <c r="T5" s="386"/>
-      <c r="U5" s="389"/>
-      <c r="V5" s="361" t="s">
-        <v>321</v>
-      </c>
-      <c r="W5" s="364">
-        <f t="shared" ref="W5" si="1">COUNT(H5,J5,L5,N5,P5,R5,T5)</f>
-        <v>2</v>
-      </c>
-      <c r="X5" s="192">
-        <f>COUNT(I5,K5,M5,O5,Q5,S5,U5)</f>
+      <c r="X5" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="299"/>
+      <c r="AA5" s="299">
+        <v>4.5</v>
+      </c>
+      <c r="AB5" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AC5" s="299">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" s="299">
+        <v>4.5</v>
+      </c>
+      <c r="AE5" s="299"/>
+      <c r="AF5" s="299">
         <v>5</v>
       </c>
-      <c r="Y5" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="192">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="298"/>
-      <c r="AB5" s="298">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AD5" s="299"/>
-      <c r="AE5" s="299">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="299"/>
       <c r="AG5" s="299"/>
       <c r="AH5" s="299"/>
       <c r="AI5" s="299">
-        <v>4.5</v>
-      </c>
-      <c r="AJ5" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AJ5" s="299"/>
+      <c r="AK5" s="299"/>
+      <c r="AL5" s="299">
+        <v>6.5</v>
+      </c>
+      <c r="AM5" s="362" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN5" s="299"/>
+      <c r="AO5" s="299">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="299">
+        <v>3</v>
+      </c>
+      <c r="AQ5" s="299">
         <v>4</v>
       </c>
-      <c r="AK5" s="299"/>
-      <c r="AL5" s="299"/>
-      <c r="AM5" s="299">
-        <v>3</v>
-      </c>
-      <c r="AN5" s="193" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AR5" s="299">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="299">
+        <v>12</v>
+      </c>
+      <c r="AT5" s="299"/>
+      <c r="AU5" s="299">
+        <f>SUM(AN5:AT5)</f>
+        <v>31</v>
+      </c>
+      <c r="AV5" s="193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="340" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="131">
+        <v>262</v>
+      </c>
+      <c r="B6" s="125">
         <v>16</v>
       </c>
       <c r="C6" s="126">
-        <f ca="1">68+$A$30-$A$32-112</f>
-        <v>51</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>82</v>
-      </c>
+        <f ca="1">6+$A$30-$A$32</f>
+        <v>104</v>
+      </c>
+      <c r="D6" s="130"/>
       <c r="E6" s="191">
-        <f ca="1">F6-TODAY()</f>
-        <v>61</v>
+        <f t="shared" ref="E6:E8" ca="1" si="1">F6-TODAY()</f>
+        <v>22</v>
       </c>
       <c r="F6" s="194">
-        <v>43793</v>
+        <v>43757</v>
       </c>
       <c r="G6" s="357" t="s">
         <v>309</v>
       </c>
-      <c r="H6" s="382"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="426">
-        <v>5.2</v>
-      </c>
-      <c r="K6" s="427">
+      <c r="H6" s="410"/>
+      <c r="I6" s="411">
+        <v>1.99</v>
+      </c>
+      <c r="J6" s="412">
         <v>5.6</v>
       </c>
-      <c r="L6" s="392">
+      <c r="K6" s="413">
+        <v>6.99</v>
+      </c>
+      <c r="L6" s="427">
+        <v>4</v>
+      </c>
+      <c r="M6" s="428">
+        <v>4.99</v>
+      </c>
+      <c r="N6" s="437">
         <v>2</v>
       </c>
-      <c r="M6" s="383">
-        <v>3.99</v>
-      </c>
-      <c r="N6" s="438">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O6" s="440">
-        <v>4.99</v>
-      </c>
-      <c r="P6" s="394">
+      <c r="O6" s="438">
+        <v>2.99</v>
+      </c>
+      <c r="P6" s="416"/>
+      <c r="Q6" s="415">
+        <v>5.99</v>
+      </c>
+      <c r="R6" s="416">
         <v>3</v>
       </c>
-      <c r="Q6" s="395">
-        <v>3.99</v>
-      </c>
-      <c r="R6" s="388"/>
-      <c r="S6" s="385">
-        <v>6.99</v>
-      </c>
-      <c r="T6" s="386"/>
-      <c r="U6" s="389"/>
-      <c r="V6" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W6" s="364">
-        <f>COUNT(H6,J6,L6,N6,P6,R6,T6)</f>
+      <c r="S6" s="415"/>
+      <c r="T6" s="414"/>
+      <c r="U6" s="417"/>
+      <c r="V6" s="363">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="X6" s="192">
-        <f>COUNT(I6,K6,M6,O6,Q6,S6,U6)</f>
+      <c r="W6" s="192">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y6" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="299"/>
+      <c r="X6" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="298"/>
+      <c r="AA6" s="298">
+        <v>5</v>
+      </c>
       <c r="AB6" s="299">
         <v>4.5</v>
       </c>
       <c r="AC6" s="299">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="AD6" s="299">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="299"/>
+      <c r="AF6" s="299"/>
+      <c r="AG6" s="299"/>
+      <c r="AH6" s="299">
         <v>5.5</v>
       </c>
-      <c r="AE6" s="299">
+      <c r="AI6" s="299">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="299">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="299">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="299">
         <v>4.5</v>
       </c>
-      <c r="AF6" s="299"/>
-      <c r="AG6" s="299">
-        <v>5</v>
-      </c>
-      <c r="AH6" s="299"/>
-      <c r="AI6" s="299"/>
-      <c r="AJ6" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AK6" s="299"/>
-      <c r="AL6" s="299"/>
-      <c r="AM6" s="299"/>
-      <c r="AN6" s="193" t="s">
+      <c r="AM6" s="361" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN6" s="298">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="298">
+        <v>14</v>
+      </c>
+      <c r="AP6" s="299">
+        <v>6</v>
+      </c>
+      <c r="AQ6" s="299">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="299">
+        <v>7</v>
+      </c>
+      <c r="AS6" s="299">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="299"/>
+      <c r="AU6" s="299">
+        <f>SUM(AN6:AT6)</f>
+        <v>29</v>
+      </c>
+      <c r="AV6" s="193" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="358" t="s">
-        <v>324</v>
+    <row r="7" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="340" t="s">
+        <v>305</v>
       </c>
       <c r="B7" s="131">
         <v>16</v>
       </c>
       <c r="C7" s="126">
-        <f ca="1">-53+$A$30-$A$32</f>
-        <v>42</v>
+        <f ca="1">84+$A$30-$A$32-112</f>
+        <v>70</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="191">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="F7" s="194">
-        <v>43802</v>
+        <v>43777</v>
       </c>
       <c r="G7" s="357" t="s">
         <v>319</v>
       </c>
-      <c r="H7" s="382"/>
-      <c r="I7" s="389"/>
-      <c r="J7" s="391">
-        <v>1</v>
-      </c>
-      <c r="K7" s="383">
+      <c r="H7" s="381"/>
+      <c r="I7" s="382">
+        <v>1.99</v>
+      </c>
+      <c r="J7" s="425">
+        <v>5</v>
+      </c>
+      <c r="K7" s="426">
+        <v>5.2</v>
+      </c>
+      <c r="L7" s="385"/>
+      <c r="M7" s="382">
+        <v>4.99</v>
+      </c>
+      <c r="N7" s="425">
+        <v>3</v>
+      </c>
+      <c r="O7" s="426">
+        <v>3.99</v>
+      </c>
+      <c r="P7" s="387"/>
+      <c r="Q7" s="382">
         <v>2.99</v>
       </c>
-      <c r="L7" s="430">
-        <v>1</v>
-      </c>
-      <c r="M7" s="431">
-        <v>1.99</v>
-      </c>
-      <c r="N7" s="386"/>
-      <c r="O7" s="385">
-        <v>7</v>
-      </c>
-      <c r="P7" s="430">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="431">
-        <v>1.99</v>
-      </c>
-      <c r="R7" s="384">
+      <c r="R7" s="387"/>
+      <c r="S7" s="386"/>
+      <c r="T7" s="385"/>
+      <c r="U7" s="388"/>
+      <c r="V7" s="363">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W7" s="192">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="X7" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="192">
         <v>3</v>
       </c>
-      <c r="S7" s="390">
-        <v>4.99</v>
-      </c>
-      <c r="T7" s="386"/>
-      <c r="U7" s="389"/>
-      <c r="V7" s="361" t="s">
-        <v>330</v>
-      </c>
-      <c r="W7" s="364">
-        <f>COUNT(H7,J7,L7,N7,P7,R7,T7)</f>
-        <v>4</v>
-      </c>
-      <c r="X7" s="192">
-        <f>COUNT(I7,K7,M7,O7,Q7,S7,U7)</f>
+      <c r="Z7" s="298"/>
+      <c r="AA7" s="298">
         <v>5</v>
       </c>
-      <c r="Y7" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="298"/>
-      <c r="AB7" s="298"/>
+      <c r="AB7" s="299">
+        <v>3.5</v>
+      </c>
       <c r="AC7" s="299"/>
       <c r="AD7" s="299">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE7" s="299"/>
       <c r="AF7" s="299"/>
-      <c r="AG7" s="299">
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299">
+        <v>4.5</v>
+      </c>
+      <c r="AI7" s="299">
         <v>4</v>
       </c>
-      <c r="AH7" s="299">
-        <v>2.5</v>
-      </c>
-      <c r="AI7" s="299"/>
-      <c r="AJ7" s="299">
-        <v>1.5</v>
-      </c>
-      <c r="AK7" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AL7" s="299"/>
-      <c r="AM7" s="299">
-        <v>5</v>
-      </c>
-      <c r="AN7" s="193" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ7" s="299"/>
+      <c r="AK7" s="299"/>
+      <c r="AL7" s="299">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="361" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN7" s="298">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="298">
+        <v>10</v>
+      </c>
+      <c r="AP7" s="299">
+        <v>6</v>
+      </c>
+      <c r="AQ7" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="299">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="299"/>
+      <c r="AT7" s="299"/>
+      <c r="AU7" s="299">
+        <f t="shared" ref="AU7:AU8" si="2">SUM(AN7:AT7)</f>
+        <v>18</v>
+      </c>
+      <c r="AV7" s="193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="358" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="125">
-        <v>17</v>
+        <v>324</v>
+      </c>
+      <c r="B8" s="131">
+        <v>16</v>
       </c>
       <c r="C8" s="126">
-        <f ca="1">39+$A$30-$A$32-112</f>
-        <v>22</v>
+        <f ca="1">-53+$A$30-$A$32</f>
+        <v>45</v>
       </c>
       <c r="D8" s="132"/>
       <c r="E8" s="191">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
       </c>
       <c r="F8" s="194">
-        <v>43800</v>
+        <v>43802</v>
       </c>
       <c r="G8" s="357" t="s">
-        <v>326</v>
-      </c>
-      <c r="H8" s="382"/>
-      <c r="I8" s="383">
+        <v>319</v>
+      </c>
+      <c r="H8" s="381"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="390">
+        <v>1</v>
+      </c>
+      <c r="K8" s="382">
+        <v>2.99</v>
+      </c>
+      <c r="L8" s="429">
+        <v>1</v>
+      </c>
+      <c r="M8" s="430">
         <v>1.99</v>
       </c>
-      <c r="J8" s="384">
-        <v>5.4</v>
-      </c>
-      <c r="K8" s="385">
+      <c r="N8" s="385"/>
+      <c r="O8" s="384">
         <v>7</v>
       </c>
-      <c r="L8" s="386"/>
-      <c r="M8" s="390">
-        <v>5.99</v>
-      </c>
-      <c r="N8" s="386"/>
-      <c r="O8" s="395">
-        <v>3.99</v>
-      </c>
-      <c r="P8" s="386"/>
-      <c r="Q8" s="383">
+      <c r="P8" s="429">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="430">
+        <v>1.99</v>
+      </c>
+      <c r="R8" s="383">
+        <v>3</v>
+      </c>
+      <c r="S8" s="389">
         <v>4.99</v>
       </c>
-      <c r="R8" s="386"/>
-      <c r="S8" s="389"/>
-      <c r="T8" s="386"/>
-      <c r="U8" s="389"/>
-      <c r="V8" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W8" s="364">
-        <f>COUNT(H8,J8,L8,N8,P8,R8,T8)</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="192">
-        <f>COUNT(I8,K8,M8,O8,Q8,S8,U8)</f>
+      <c r="T8" s="385"/>
+      <c r="U8" s="388"/>
+      <c r="V8" s="363">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W8" s="192">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Y8" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="192">
-        <v>0</v>
-      </c>
+      <c r="X8" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="298"/>
       <c r="AA8" s="298"/>
-      <c r="AB8" s="298">
-        <v>5.5</v>
-      </c>
+      <c r="AB8" s="299"/>
       <c r="AC8" s="299">
-        <v>4.5</v>
-      </c>
-      <c r="AD8" s="299">
-        <v>5.5</v>
-      </c>
-      <c r="AE8" s="299">
+        <v>2.5</v>
+      </c>
+      <c r="AD8" s="299"/>
+      <c r="AE8" s="299"/>
+      <c r="AF8" s="299">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="299">
+        <v>2.5</v>
+      </c>
+      <c r="AH8" s="299"/>
+      <c r="AI8" s="299">
+        <v>1.5</v>
+      </c>
+      <c r="AJ8" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AK8" s="299"/>
+      <c r="AL8" s="299">
         <v>5</v>
       </c>
-      <c r="AF8" s="299"/>
-      <c r="AG8" s="299"/>
-      <c r="AH8" s="299"/>
-      <c r="AI8" s="299"/>
-      <c r="AJ8" s="299">
+      <c r="AM8" s="361" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN8" s="298"/>
+      <c r="AO8" s="298">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="299">
+        <v>-2</v>
+      </c>
+      <c r="AQ8" s="299">
+        <v>11</v>
+      </c>
+      <c r="AR8" s="299">
+        <v>-1</v>
+      </c>
+      <c r="AS8" s="299">
         <v>5</v>
       </c>
-      <c r="AK8" s="299"/>
-      <c r="AL8" s="299"/>
-      <c r="AM8" s="299"/>
-      <c r="AN8" s="193" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="457" t="s">
+      <c r="AT8" s="299"/>
+      <c r="AU8" s="299">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AV8" s="193" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" s="471" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="457"/>
-      <c r="C9" s="457"/>
-      <c r="D9" s="457"/>
-      <c r="E9" s="457"/>
+      <c r="B9" s="471"/>
+      <c r="C9" s="471"/>
+      <c r="D9" s="471"/>
+      <c r="E9" s="471"/>
       <c r="F9" s="115"/>
-      <c r="G9" s="377"/>
-      <c r="H9" s="457"/>
-      <c r="I9" s="457"/>
-      <c r="J9" s="457"/>
-      <c r="K9" s="457"/>
-      <c r="L9" s="457"/>
-      <c r="M9" s="457"/>
-      <c r="N9" s="457"/>
-      <c r="O9" s="457"/>
-      <c r="P9" s="457"/>
-      <c r="Q9" s="457"/>
-      <c r="R9" s="457"/>
-      <c r="S9" s="457"/>
-      <c r="T9" s="457"/>
-      <c r="U9" s="457"/>
-      <c r="V9" s="377"/>
-      <c r="W9" s="377"/>
-      <c r="X9" s="377"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="471"/>
+      <c r="I9" s="471"/>
+      <c r="J9" s="471"/>
+      <c r="K9" s="471"/>
+      <c r="L9" s="471"/>
+      <c r="M9" s="471"/>
+      <c r="N9" s="471"/>
+      <c r="O9" s="471"/>
+      <c r="P9" s="471"/>
+      <c r="Q9" s="471"/>
+      <c r="R9" s="471"/>
+      <c r="S9" s="471"/>
+      <c r="T9" s="471"/>
+      <c r="U9" s="471"/>
+      <c r="V9" s="376"/>
+      <c r="W9" s="376"/>
+      <c r="X9" s="114"/>
       <c r="Y9" s="114"/>
       <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="296"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="291"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="344"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="374"/>
-      <c r="AI9" s="291"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="371"/>
-      <c r="AL9" s="374"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="116"/>
-    </row>
-    <row r="10" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="114"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="114"/>
+      <c r="AE9" s="344"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="373"/>
+      <c r="AH9" s="291"/>
+      <c r="AI9" s="114"/>
+      <c r="AJ9" s="370"/>
+      <c r="AK9" s="373"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="376"/>
+      <c r="AN9" s="457"/>
+      <c r="AO9" s="457"/>
+      <c r="AP9" s="457"/>
+      <c r="AQ9" s="457"/>
+      <c r="AR9" s="457"/>
+      <c r="AS9" s="457"/>
+      <c r="AT9" s="457"/>
+      <c r="AU9" s="457"/>
+      <c r="AV9" s="116"/>
+    </row>
+    <row r="10" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="117" t="s">
         <v>164</v>
       </c>
@@ -11326,22 +11532,22 @@
       <c r="E10" s="117"/>
       <c r="F10" s="117"/>
       <c r="G10" s="118"/>
-      <c r="H10" s="459" t="s">
+      <c r="H10" s="473" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="459"/>
-      <c r="J10" s="459"/>
-      <c r="K10" s="459"/>
-      <c r="L10" s="459"/>
-      <c r="M10" s="459"/>
-      <c r="N10" s="459"/>
-      <c r="O10" s="459"/>
-      <c r="P10" s="459"/>
-      <c r="Q10" s="459"/>
-      <c r="R10" s="459"/>
-      <c r="S10" s="459"/>
-      <c r="T10" s="459"/>
-      <c r="U10" s="459"/>
+      <c r="I10" s="473"/>
+      <c r="J10" s="473"/>
+      <c r="K10" s="473"/>
+      <c r="L10" s="473"/>
+      <c r="M10" s="473"/>
+      <c r="N10" s="473"/>
+      <c r="O10" s="473"/>
+      <c r="P10" s="473"/>
+      <c r="Q10" s="473"/>
+      <c r="R10" s="473"/>
+      <c r="S10" s="473"/>
+      <c r="T10" s="473"/>
+      <c r="U10" s="473"/>
       <c r="V10" s="118"/>
       <c r="W10" s="118"/>
       <c r="X10" s="118"/>
@@ -11360,9 +11566,17 @@
       <c r="AK10" s="118"/>
       <c r="AL10" s="118"/>
       <c r="AM10" s="118"/>
-      <c r="AN10" s="119"/>
-    </row>
-    <row r="11" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN10" s="118"/>
+      <c r="AO10" s="118"/>
+      <c r="AP10" s="118"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="118"/>
+      <c r="AS10" s="118"/>
+      <c r="AT10" s="118"/>
+      <c r="AU10" s="118"/>
+      <c r="AV10" s="119"/>
+    </row>
+    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="117" t="s">
         <v>3</v>
       </c>
@@ -11385,824 +11599,996 @@
       <c r="G11" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="H11" s="419" t="s">
+      <c r="H11" s="418" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="420" t="s">
+      <c r="I11" s="419" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="421" t="s">
+      <c r="J11" s="420" t="s">
         <v>152</v>
       </c>
-      <c r="K11" s="422" t="s">
+      <c r="K11" s="421" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="423" t="s">
+      <c r="L11" s="422" t="s">
         <v>153</v>
       </c>
-      <c r="M11" s="420" t="s">
+      <c r="M11" s="419" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="421" t="s">
+      <c r="N11" s="420" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="422" t="s">
+      <c r="O11" s="421" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="423" t="s">
+      <c r="P11" s="422" t="s">
         <v>154</v>
       </c>
-      <c r="Q11" s="420" t="s">
+      <c r="Q11" s="419" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="421" t="s">
+      <c r="R11" s="420" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="422" t="s">
+      <c r="S11" s="421" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="423" t="s">
+      <c r="T11" s="422" t="s">
         <v>156</v>
       </c>
-      <c r="U11" s="420" t="s">
+      <c r="U11" s="419" t="s">
         <v>39</v>
       </c>
       <c r="V11" s="118" t="str">
         <f>V3</f>
-        <v>U20</v>
+        <v>Hab</v>
       </c>
       <c r="W11" s="118" t="str">
         <f>W3</f>
-        <v>Hab</v>
+        <v>Pot</v>
       </c>
       <c r="X11" s="118" t="str">
         <f>X3</f>
-        <v>Pot</v>
-      </c>
-      <c r="Y11" s="118" t="str">
-        <f>Y3</f>
         <v>Cap</v>
       </c>
+      <c r="Y11" s="118" t="s">
+        <v>156</v>
+      </c>
       <c r="Z11" s="118" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="AA11" s="118" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="AB11" s="118" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="AC11" s="118" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="AD11" s="118" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="AE11" s="118" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="AF11" s="118" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG11" s="118" t="s">
         <v>161</v>
       </c>
+      <c r="AG11" s="118" t="str">
+        <f t="shared" ref="AG11:AV11" si="3">AG3</f>
+        <v>EM</v>
+      </c>
       <c r="AH11" s="118" t="str">
-        <f t="shared" ref="AH11:AN11" si="2">AH3</f>
-        <v>EM</v>
+        <f t="shared" si="3"/>
+        <v>MD</v>
       </c>
       <c r="AI11" s="118" t="str">
-        <f t="shared" si="2"/>
-        <v>MD</v>
+        <f t="shared" si="3"/>
+        <v>MO</v>
       </c>
       <c r="AJ11" s="118" t="str">
-        <f t="shared" si="2"/>
-        <v>MO</v>
+        <f t="shared" si="3"/>
+        <v>DD</v>
       </c>
       <c r="AK11" s="118" t="str">
-        <f t="shared" si="2"/>
-        <v>DD</v>
+        <f t="shared" si="3"/>
+        <v>DL</v>
       </c>
       <c r="AL11" s="118" t="str">
-        <f t="shared" si="2"/>
-        <v>DL</v>
+        <f t="shared" si="3"/>
+        <v>DAV</v>
       </c>
       <c r="AM11" s="118" t="str">
-        <f t="shared" si="2"/>
-        <v>DAV</v>
-      </c>
-      <c r="AN11" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>U20</v>
+      </c>
+      <c r="AN11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>POR</v>
+      </c>
+      <c r="AO11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>DEF</v>
+      </c>
+      <c r="AP11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>JUG</v>
+      </c>
+      <c r="AQ11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>LAT</v>
+      </c>
+      <c r="AR11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>PAS</v>
+      </c>
+      <c r="AS11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>ANO</v>
+      </c>
+      <c r="AT11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>BP</v>
+      </c>
+      <c r="AU11" s="463" t="str">
+        <f t="shared" si="3"/>
+        <v>Tot</v>
+      </c>
+      <c r="AV11" s="119" t="str">
+        <f t="shared" si="3"/>
         <v>Ca</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="134" t="s">
-        <v>176</v>
+    <row r="12" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="341" t="s">
+        <v>337</v>
       </c>
       <c r="B12" s="125">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" s="126">
-        <f ca="1">40+$A$30-$A$32-112</f>
-        <v>23</v>
+        <f ca="1">-3+$A$30-$A$32</f>
+        <v>95</v>
       </c>
       <c r="D12" s="127"/>
       <c r="E12" s="191">
         <f ca="1">F12-TODAY()</f>
+        <v>129</v>
+      </c>
+      <c r="F12" s="194">
+        <v>43864</v>
+      </c>
+      <c r="G12" s="357" t="s">
+        <v>309</v>
+      </c>
+      <c r="H12" s="381"/>
+      <c r="I12" s="382">
+        <v>1.99</v>
+      </c>
+      <c r="J12" s="390">
+        <v>3</v>
+      </c>
+      <c r="K12" s="392">
+        <v>4.99</v>
+      </c>
+      <c r="L12" s="385"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="440">
+        <v>3</v>
+      </c>
+      <c r="O12" s="441">
+        <v>3.99</v>
+      </c>
+      <c r="P12" s="385"/>
+      <c r="Q12" s="384">
+        <v>6.99</v>
+      </c>
+      <c r="R12" s="385"/>
+      <c r="S12" s="388"/>
+      <c r="T12" s="385"/>
+      <c r="U12" s="388"/>
+      <c r="V12" s="363">
+        <f t="shared" ref="V12:V21" si="4">COUNT(H12,J12,L12,N12,P12,R12,T12)</f>
+        <v>2</v>
+      </c>
+      <c r="W12" s="192">
+        <f t="shared" ref="W12:W21" si="5">COUNT(I12,K12,M12,O12,Q12,S12,U12)</f>
+        <v>4</v>
+      </c>
+      <c r="X12" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="298"/>
+      <c r="AA12" s="298">
+        <v>3.5</v>
+      </c>
+      <c r="AB12" s="299"/>
+      <c r="AC12" s="299"/>
+      <c r="AD12" s="299"/>
+      <c r="AE12" s="299"/>
+      <c r="AF12" s="299">
+        <v>4</v>
+      </c>
+      <c r="AG12" s="299"/>
+      <c r="AH12" s="299"/>
+      <c r="AI12" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AJ12" s="299"/>
+      <c r="AK12" s="299"/>
+      <c r="AL12" s="434">
+        <v>5</v>
+      </c>
+      <c r="AM12" s="461" t="s">
+        <v>338</v>
+      </c>
+      <c r="AN12" s="433">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="298">
+        <v>6</v>
+      </c>
+      <c r="AP12" s="299"/>
+      <c r="AQ12" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="299">
+        <v>10</v>
+      </c>
+      <c r="AS12" s="299"/>
+      <c r="AT12" s="299"/>
+      <c r="AU12" s="299">
+        <f>SUM(AN12:AT12)</f>
+        <v>18</v>
+      </c>
+      <c r="AV12" s="435" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="346" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" s="131">
         <v>17</v>
       </c>
-      <c r="F12" s="194">
-        <v>43749</v>
-      </c>
-      <c r="G12" s="357"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="389"/>
-      <c r="J12" s="391">
-        <v>5</v>
-      </c>
-      <c r="K12" s="389"/>
-      <c r="L12" s="386"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="430">
-        <v>1</v>
-      </c>
-      <c r="O12" s="431">
-        <v>1.99</v>
-      </c>
-      <c r="P12" s="386"/>
-      <c r="Q12" s="389"/>
-      <c r="R12" s="386"/>
-      <c r="S12" s="389"/>
-      <c r="T12" s="386"/>
-      <c r="U12" s="389"/>
-      <c r="V12" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W12" s="364">
-        <f t="shared" ref="W12:X15" si="3">COUNT(H12,J12,L12,N12,P12,R12,T12)</f>
-        <v>2</v>
-      </c>
-      <c r="X12" s="192">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Y12" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="298">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="298">
-        <v>4.5</v>
-      </c>
-      <c r="AC12" s="299">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="299">
-        <v>4.5</v>
-      </c>
-      <c r="AE12" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AF12" s="299"/>
-      <c r="AG12" s="299">
-        <v>2.5</v>
-      </c>
-      <c r="AH12" s="299"/>
-      <c r="AI12" s="299"/>
-      <c r="AJ12" s="299">
-        <v>2</v>
-      </c>
-      <c r="AK12" s="299"/>
-      <c r="AL12" s="299"/>
-      <c r="AM12" s="435"/>
-      <c r="AN12" s="436" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="125">
-        <v>17</v>
-      </c>
       <c r="C13" s="126">
-        <f ca="1">67+$A$30-$A$32-112</f>
-        <v>50</v>
-      </c>
-      <c r="D13" s="127"/>
+        <f ca="1">58+$A$30-$A$32-112</f>
+        <v>44</v>
+      </c>
+      <c r="D13" s="132" t="s">
+        <v>53</v>
+      </c>
       <c r="E13" s="191">
         <f ca="1">F13-TODAY()</f>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F13" s="194">
-        <v>43749</v>
-      </c>
-      <c r="G13" s="357"/>
-      <c r="H13" s="382"/>
-      <c r="I13" s="389"/>
-      <c r="J13" s="432">
+        <v>43778</v>
+      </c>
+      <c r="G13" s="357" t="s">
+        <v>309</v>
+      </c>
+      <c r="H13" s="381"/>
+      <c r="I13" s="388"/>
+      <c r="J13" s="431">
+        <v>4</v>
+      </c>
+      <c r="K13" s="432">
+        <v>4.99</v>
+      </c>
+      <c r="L13" s="385"/>
+      <c r="M13" s="382">
+        <v>3.99</v>
+      </c>
+      <c r="N13" s="385"/>
+      <c r="O13" s="382">
+        <v>3.99</v>
+      </c>
+      <c r="P13" s="431">
         <v>3</v>
       </c>
-      <c r="K13" s="433">
+      <c r="Q13" s="432">
         <v>3.99</v>
       </c>
-      <c r="L13" s="438">
-        <v>2</v>
-      </c>
-      <c r="M13" s="439">
-        <v>2.99</v>
-      </c>
-      <c r="N13" s="386"/>
-      <c r="O13" s="383">
-        <v>2.99</v>
-      </c>
-      <c r="P13" s="386"/>
-      <c r="Q13" s="387"/>
-      <c r="R13" s="388"/>
-      <c r="S13" s="387"/>
-      <c r="T13" s="386"/>
-      <c r="U13" s="389"/>
-      <c r="V13" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W13" s="364">
-        <f>COUNT(H13,J13,L13,N13,P13,R13,T13)</f>
-        <v>2</v>
-      </c>
-      <c r="X13" s="192">
-        <f>COUNT(I13,K13,M13,O13,Q13,S13,U13)</f>
+      <c r="R13" s="383">
         <v>3</v>
       </c>
-      <c r="Y13" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="192">
-        <v>0</v>
-      </c>
+      <c r="S13" s="386"/>
+      <c r="T13" s="385"/>
+      <c r="U13" s="388"/>
+      <c r="V13" s="363">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="W13" s="192">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X13" s="128">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="298"/>
       <c r="AA13" s="298">
-        <v>1.5</v>
-      </c>
-      <c r="AB13" s="298">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="299">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="299"/>
+      <c r="AD13" s="299">
         <v>3.5</v>
       </c>
-      <c r="AC13" s="299"/>
-      <c r="AD13" s="299"/>
-      <c r="AE13" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AF13" s="299"/>
+      <c r="AE13" s="299"/>
+      <c r="AF13" s="299">
+        <v>4</v>
+      </c>
       <c r="AG13" s="299">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AH13" s="299"/>
       <c r="AI13" s="299">
-        <v>4.5</v>
-      </c>
-      <c r="AJ13" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AJ13" s="299"/>
+      <c r="AK13" s="299"/>
+      <c r="AL13" s="434">
+        <v>5</v>
+      </c>
+      <c r="AM13" s="460" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN13" s="433"/>
+      <c r="AO13" s="298">
+        <v>6</v>
+      </c>
+      <c r="AP13" s="299">
         <v>3</v>
       </c>
-      <c r="AK13" s="299">
-        <v>6</v>
-      </c>
-      <c r="AL13" s="299">
-        <v>4</v>
-      </c>
-      <c r="AM13" s="435">
-        <v>6</v>
-      </c>
-      <c r="AN13" s="436" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="346" t="s">
-        <v>308</v>
-      </c>
-      <c r="B14" s="131">
-        <v>17</v>
+      <c r="AQ13" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="299">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="299">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="299"/>
+      <c r="AU13" s="299">
+        <f>SUM(AN13:AT13)</f>
+        <v>15</v>
+      </c>
+      <c r="AV13" s="435" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="341" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="125">
+        <v>16</v>
       </c>
       <c r="C14" s="126">
-        <f ca="1">58+$A$30-$A$32-112</f>
-        <v>41</v>
-      </c>
-      <c r="D14" s="132" t="s">
-        <v>53</v>
-      </c>
+        <f ca="1">67+$A$30-$A$32+14-112</f>
+        <v>67</v>
+      </c>
+      <c r="D14" s="127"/>
       <c r="E14" s="191">
-        <f ca="1">F14-TODAY()</f>
-        <v>46</v>
+        <f t="shared" ref="E14" ca="1" si="6">F14-TODAY()</f>
+        <v>45</v>
       </c>
       <c r="F14" s="194">
-        <v>43778</v>
+        <v>43780</v>
       </c>
       <c r="G14" s="357" t="s">
         <v>309</v>
       </c>
-      <c r="H14" s="382"/>
-      <c r="I14" s="389"/>
-      <c r="J14" s="432">
+      <c r="H14" s="381"/>
+      <c r="I14" s="388"/>
+      <c r="J14" s="385"/>
+      <c r="K14" s="388"/>
+      <c r="L14" s="437">
+        <v>3</v>
+      </c>
+      <c r="M14" s="439">
+        <v>3.99</v>
+      </c>
+      <c r="N14" s="395"/>
+      <c r="O14" s="389">
+        <v>3.99</v>
+      </c>
+      <c r="P14" s="385"/>
+      <c r="Q14" s="388"/>
+      <c r="R14" s="385"/>
+      <c r="S14" s="389">
+        <v>4.99</v>
+      </c>
+      <c r="T14" s="385"/>
+      <c r="U14" s="388"/>
+      <c r="V14" s="363">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="192">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="X14" s="128">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="192">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="298"/>
+      <c r="AA14" s="298">
+        <v>3</v>
+      </c>
+      <c r="AB14" s="299">
+        <v>2.5</v>
+      </c>
+      <c r="AC14" s="299"/>
+      <c r="AD14" s="299"/>
+      <c r="AE14" s="299"/>
+      <c r="AF14" s="299"/>
+      <c r="AG14" s="299"/>
+      <c r="AH14" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AI14" s="299">
         <v>4</v>
       </c>
-      <c r="K14" s="433">
-        <v>4.99</v>
-      </c>
-      <c r="L14" s="386"/>
-      <c r="M14" s="383">
-        <v>3.99</v>
-      </c>
-      <c r="N14" s="386"/>
-      <c r="O14" s="383">
-        <v>3.99</v>
-      </c>
-      <c r="P14" s="386"/>
-      <c r="Q14" s="383">
-        <v>3.99</v>
-      </c>
-      <c r="R14" s="384">
+      <c r="AJ14" s="299">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="299"/>
+      <c r="AL14" s="434">
+        <v>5</v>
+      </c>
+      <c r="AM14" s="461" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN14" s="433"/>
+      <c r="AO14" s="298"/>
+      <c r="AP14" s="299">
         <v>3</v>
       </c>
-      <c r="S14" s="387"/>
-      <c r="T14" s="386"/>
-      <c r="U14" s="389"/>
-      <c r="V14" s="363" t="s">
-        <v>322</v>
-      </c>
-      <c r="W14" s="364">
-        <f t="shared" si="3"/>
+      <c r="AQ14" s="299">
         <v>2</v>
       </c>
-      <c r="X14" s="192">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y14" s="128">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="298"/>
-      <c r="AB14" s="298">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="299">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="299"/>
-      <c r="AE14" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AF14" s="299"/>
-      <c r="AG14" s="299">
-        <v>4</v>
-      </c>
-      <c r="AH14" s="299">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="299"/>
-      <c r="AJ14" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AK14" s="299"/>
-      <c r="AL14" s="299"/>
-      <c r="AM14" s="435">
+      <c r="AR14" s="299"/>
+      <c r="AS14" s="299">
         <v>5</v>
       </c>
-      <c r="AN14" s="436" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="341" t="s">
-        <v>267</v>
+      <c r="AT14" s="299"/>
+      <c r="AU14" s="299">
+        <f>SUM(AN14:AT14)</f>
+        <v>10</v>
+      </c>
+      <c r="AV14" s="435" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="134" t="s">
+        <v>176</v>
       </c>
       <c r="B15" s="125">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="126">
-        <f ca="1">67+$A$30-$A$32+14-112</f>
-        <v>64</v>
+        <f ca="1">40+$A$30-$A$32-112</f>
+        <v>26</v>
       </c>
       <c r="D15" s="127"/>
       <c r="E15" s="191">
-        <f t="shared" ref="E15" ca="1" si="4">F15-TODAY()</f>
-        <v>48</v>
+        <f ca="1">F15-TODAY()</f>
+        <v>14</v>
       </c>
       <c r="F15" s="194">
-        <v>43780</v>
-      </c>
-      <c r="G15" s="357" t="s">
-        <v>309</v>
-      </c>
-      <c r="H15" s="382"/>
-      <c r="I15" s="389"/>
-      <c r="J15" s="386"/>
-      <c r="K15" s="389"/>
-      <c r="L15" s="438">
+        <v>43749</v>
+      </c>
+      <c r="G15" s="357"/>
+      <c r="H15" s="381"/>
+      <c r="I15" s="388"/>
+      <c r="J15" s="390">
+        <v>5</v>
+      </c>
+      <c r="K15" s="388"/>
+      <c r="L15" s="385"/>
+      <c r="M15" s="388"/>
+      <c r="N15" s="429">
+        <v>1</v>
+      </c>
+      <c r="O15" s="430">
+        <v>1.99</v>
+      </c>
+      <c r="P15" s="385"/>
+      <c r="Q15" s="388"/>
+      <c r="R15" s="385"/>
+      <c r="S15" s="388"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="388"/>
+      <c r="V15" s="363">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W15" s="192">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="298">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="298">
+        <v>4.5</v>
+      </c>
+      <c r="AB15" s="299">
         <v>3</v>
       </c>
-      <c r="M15" s="440">
-        <v>3.99</v>
-      </c>
-      <c r="N15" s="396"/>
-      <c r="O15" s="390">
-        <v>3.99</v>
-      </c>
-      <c r="P15" s="386"/>
-      <c r="Q15" s="389"/>
-      <c r="R15" s="386"/>
-      <c r="S15" s="390">
-        <v>4.99</v>
-      </c>
-      <c r="T15" s="386"/>
-      <c r="U15" s="389"/>
-      <c r="V15" s="361" t="s">
-        <v>174</v>
-      </c>
-      <c r="W15" s="364">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="X15" s="192">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y15" s="128">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="192">
-        <v>11</v>
-      </c>
-      <c r="AA15" s="298"/>
-      <c r="AB15" s="298">
-        <v>3</v>
-      </c>
       <c r="AC15" s="299">
+        <v>4.5</v>
+      </c>
+      <c r="AD15" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AE15" s="299"/>
+      <c r="AF15" s="299">
         <v>2.5</v>
       </c>
-      <c r="AD15" s="299"/>
-      <c r="AE15" s="299"/>
-      <c r="AF15" s="299"/>
       <c r="AG15" s="299"/>
       <c r="AH15" s="299"/>
       <c r="AI15" s="299">
-        <v>3.5</v>
-      </c>
-      <c r="AJ15" s="299">
-        <v>4</v>
-      </c>
-      <c r="AK15" s="299">
-        <v>5</v>
-      </c>
-      <c r="AL15" s="299"/>
-      <c r="AM15" s="435">
-        <v>5</v>
-      </c>
-      <c r="AN15" s="436" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="299"/>
+      <c r="AK15" s="299"/>
+      <c r="AL15" s="434"/>
+      <c r="AM15" s="459" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN15" s="433"/>
+      <c r="AO15" s="298">
+        <v>10</v>
+      </c>
+      <c r="AP15" s="299"/>
+      <c r="AQ15" s="299">
+        <v>-1</v>
+      </c>
+      <c r="AR15" s="299"/>
+      <c r="AS15" s="299"/>
+      <c r="AT15" s="299"/>
+      <c r="AU15" s="299">
+        <f t="shared" ref="AU15:AU20" si="7">SUM(AN15:AT15)</f>
+        <v>9</v>
+      </c>
+      <c r="AV15" s="435" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="358" t="s">
         <v>345</v>
       </c>
       <c r="B16" s="131">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="126">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>109</v>
+        <f ca="1">14+$A$30-$A$32-112</f>
+        <v>0</v>
       </c>
       <c r="D16" s="127"/>
       <c r="E16" s="191">
-        <f t="shared" ref="E16:E21" ca="1" si="5">F16-TODAY()</f>
-        <v>115</v>
+        <f t="shared" ref="E16:E20" ca="1" si="8">F16-TODAY()</f>
+        <v>112</v>
       </c>
       <c r="F16" s="194">
         <v>43847</v>
       </c>
       <c r="G16" s="357"/>
-      <c r="H16" s="382"/>
-      <c r="I16" s="389"/>
-      <c r="J16" s="386"/>
-      <c r="K16" s="389"/>
-      <c r="L16" s="386"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="384">
+      <c r="H16" s="381"/>
+      <c r="I16" s="382">
+        <v>1.99</v>
+      </c>
+      <c r="J16" s="385"/>
+      <c r="K16" s="388"/>
+      <c r="L16" s="385"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="383">
         <v>2</v>
       </c>
-      <c r="O16" s="389"/>
-      <c r="P16" s="386"/>
-      <c r="Q16" s="389"/>
-      <c r="R16" s="386"/>
-      <c r="S16" s="390">
+      <c r="O16" s="388"/>
+      <c r="P16" s="385"/>
+      <c r="Q16" s="388"/>
+      <c r="R16" s="385"/>
+      <c r="S16" s="389">
         <v>5.99</v>
       </c>
-      <c r="T16" s="386"/>
-      <c r="U16" s="389"/>
-      <c r="V16" s="363" t="s">
-        <v>171</v>
-      </c>
-      <c r="W16" s="364">
-        <f>COUNT(H16,J16,L16,N16,P16,R16,T16)</f>
+      <c r="T16" s="385"/>
+      <c r="U16" s="388"/>
+      <c r="V16" s="363">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X16" s="128">
-        <f>COUNT(I16,K16,M16,O16,Q16,S16,U16)</f>
-        <v>1</v>
-      </c>
-      <c r="Y16" s="409">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="434"/>
-      <c r="AB16" s="298"/>
+      <c r="W16" s="128">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X16" s="408">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="433"/>
+      <c r="AA16" s="298"/>
+      <c r="AB16" s="299">
+        <v>2.5</v>
+      </c>
       <c r="AC16" s="299"/>
-      <c r="AD16" s="299"/>
-      <c r="AE16" s="299">
+      <c r="AD16" s="299">
         <v>3</v>
       </c>
+      <c r="AE16" s="299"/>
       <c r="AF16" s="299"/>
       <c r="AG16" s="299"/>
       <c r="AH16" s="299"/>
       <c r="AI16" s="299"/>
       <c r="AJ16" s="299"/>
       <c r="AK16" s="299"/>
-      <c r="AL16" s="299"/>
-      <c r="AM16" s="435"/>
-      <c r="AN16" s="436" t="s">
+      <c r="AL16" s="434"/>
+      <c r="AM16" s="460" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN16" s="433"/>
+      <c r="AO16" s="298"/>
+      <c r="AP16" s="299"/>
+      <c r="AQ16" s="299">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="299"/>
+      <c r="AS16" s="299">
+        <v>8</v>
+      </c>
+      <c r="AT16" s="299"/>
+      <c r="AU16" s="299">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AV16" s="435" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="340" t="s">
-        <v>341</v>
+    <row r="17" spans="1:48" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="293" t="s">
+        <v>168</v>
       </c>
       <c r="B17" s="125">
         <v>15</v>
       </c>
       <c r="C17" s="126">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>109</v>
+        <f ca="1">3+$A$30-$A$32</f>
+        <v>101</v>
       </c>
       <c r="D17" s="127"/>
       <c r="E17" s="191">
-        <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>123</v>
       </c>
       <c r="F17" s="194">
-        <v>43847</v>
+        <v>43858</v>
       </c>
       <c r="G17" s="357"/>
-      <c r="H17" s="382"/>
-      <c r="I17" s="389"/>
-      <c r="J17" s="386"/>
-      <c r="K17" s="389"/>
-      <c r="L17" s="392">
+      <c r="H17" s="396"/>
+      <c r="I17" s="397"/>
+      <c r="J17" s="429">
+        <v>1</v>
+      </c>
+      <c r="K17" s="430">
+        <v>1.99</v>
+      </c>
+      <c r="L17" s="398"/>
+      <c r="M17" s="382">
+        <v>2.99</v>
+      </c>
+      <c r="N17" s="431">
         <v>3</v>
       </c>
-      <c r="M17" s="393">
-        <v>4.99</v>
-      </c>
-      <c r="N17" s="386"/>
-      <c r="O17" s="389"/>
-      <c r="P17" s="394">
+      <c r="O17" s="432">
+        <v>3.99</v>
+      </c>
+      <c r="P17" s="398"/>
+      <c r="Q17" s="389">
+        <v>5.99</v>
+      </c>
+      <c r="R17" s="398"/>
+      <c r="S17" s="397"/>
+      <c r="T17" s="398"/>
+      <c r="U17" s="397"/>
+      <c r="V17" s="363">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="Q17" s="389"/>
-      <c r="R17" s="386"/>
-      <c r="S17" s="389"/>
-      <c r="T17" s="386"/>
-      <c r="U17" s="389"/>
-      <c r="V17" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W17" s="364">
-        <f>COUNT(H17,J17,L17,N17,P17,R17,T17)</f>
+      <c r="W17" s="192">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X17" s="128">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="192">
         <v>2</v>
       </c>
-      <c r="X17" s="128">
-        <f>COUNT(I17,K17,M17,O17,Q17,S17,U17)</f>
+      <c r="Z17" s="298">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="298">
         <v>1</v>
       </c>
-      <c r="Y17" s="409">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="192">
+      <c r="AB17" s="299"/>
+      <c r="AC17" s="299"/>
+      <c r="AD17" s="299">
         <v>2</v>
       </c>
-      <c r="AA17" s="434"/>
-      <c r="AB17" s="298"/>
-      <c r="AC17" s="299"/>
-      <c r="AD17" s="299"/>
       <c r="AE17" s="299"/>
       <c r="AF17" s="299"/>
-      <c r="AG17" s="299">
-        <v>4</v>
-      </c>
+      <c r="AG17" s="299"/>
       <c r="AH17" s="299">
+        <v>2.5</v>
+      </c>
+      <c r="AI17" s="299">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="299"/>
+      <c r="AK17" s="299">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="434">
         <v>3.5</v>
       </c>
-      <c r="AI17" s="299"/>
-      <c r="AJ17" s="299"/>
-      <c r="AK17" s="299"/>
-      <c r="AL17" s="299"/>
-      <c r="AM17" s="435">
+      <c r="AM17" s="460" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN17" s="433"/>
+      <c r="AO17" s="298">
+        <v>-2</v>
+      </c>
+      <c r="AP17" s="299">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="299">
+        <v>7</v>
+      </c>
+      <c r="AS17" s="299"/>
+      <c r="AT17" s="299"/>
+      <c r="AU17" s="299">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AV17" s="435" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="358" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="131">
+        <v>15</v>
+      </c>
+      <c r="C18" s="126">
+        <f ca="1">2+$A$30-$A$32</f>
+        <v>100</v>
+      </c>
+      <c r="D18" s="375" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="191">
+        <f t="shared" ca="1" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="F18" s="194">
+        <v>43859</v>
+      </c>
+      <c r="G18" s="357" t="s">
+        <v>309</v>
+      </c>
+      <c r="H18" s="381"/>
+      <c r="I18" s="388"/>
+      <c r="J18" s="385"/>
+      <c r="K18" s="388"/>
+      <c r="L18" s="385"/>
+      <c r="M18" s="388"/>
+      <c r="N18" s="383">
+        <v>2</v>
+      </c>
+      <c r="O18" s="382">
+        <v>3.99</v>
+      </c>
+      <c r="P18" s="385"/>
+      <c r="Q18" s="388"/>
+      <c r="R18" s="385"/>
+      <c r="S18" s="389">
+        <v>4.99</v>
+      </c>
+      <c r="T18" s="385"/>
+      <c r="U18" s="388"/>
+      <c r="V18" s="363">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W18" s="192">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="X18" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="298"/>
+      <c r="AA18" s="298"/>
+      <c r="AB18" s="299"/>
+      <c r="AC18" s="299"/>
+      <c r="AD18" s="299">
+        <v>2.5</v>
+      </c>
+      <c r="AE18" s="299"/>
+      <c r="AF18" s="299">
+        <v>3</v>
+      </c>
+      <c r="AG18" s="299"/>
+      <c r="AH18" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AI18" s="299"/>
+      <c r="AJ18" s="299">
         <v>4.5</v>
       </c>
-      <c r="AN17" s="436" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="293" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="125">
-        <v>15</v>
-      </c>
-      <c r="C18" s="126">
-        <f ca="1">3+$A$30-$A$32</f>
-        <v>98</v>
-      </c>
-      <c r="D18" s="127"/>
-      <c r="E18" s="191">
-        <f t="shared" ca="1" si="5"/>
-        <v>126</v>
-      </c>
-      <c r="F18" s="194">
-        <v>43858</v>
-      </c>
-      <c r="G18" s="357"/>
-      <c r="H18" s="397"/>
-      <c r="I18" s="398"/>
-      <c r="J18" s="430">
+      <c r="AK18" s="299"/>
+      <c r="AL18" s="434">
+        <v>7</v>
+      </c>
+      <c r="AM18" s="460" t="s">
+        <v>169</v>
+      </c>
+      <c r="AN18" s="433"/>
+      <c r="AO18" s="298"/>
+      <c r="AP18" s="299"/>
+      <c r="AQ18" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="299"/>
+      <c r="AS18" s="299">
+        <v>5</v>
+      </c>
+      <c r="AT18" s="299"/>
+      <c r="AU18" s="299">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AV18" s="435" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="340" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="125">
+        <v>16</v>
+      </c>
+      <c r="C19" s="126">
+        <f ca="1">14+$A$30-$A$32-112</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="127"/>
+      <c r="E19" s="191">
+        <f ca="1">F19-TODAY()</f>
+        <v>112</v>
+      </c>
+      <c r="F19" s="194">
+        <v>43847</v>
+      </c>
+      <c r="G19" s="357"/>
+      <c r="H19" s="381"/>
+      <c r="I19" s="388"/>
+      <c r="J19" s="385"/>
+      <c r="K19" s="388"/>
+      <c r="L19" s="391">
+        <v>3</v>
+      </c>
+      <c r="M19" s="392">
+        <v>4.99</v>
+      </c>
+      <c r="N19" s="385"/>
+      <c r="O19" s="388"/>
+      <c r="P19" s="393">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="388"/>
+      <c r="R19" s="385"/>
+      <c r="S19" s="388"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="388"/>
+      <c r="V19" s="363">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W19" s="128">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="K18" s="431">
-        <v>1.99</v>
-      </c>
-      <c r="L18" s="399"/>
-      <c r="M18" s="383">
-        <v>2.99</v>
-      </c>
-      <c r="N18" s="432">
+      <c r="X19" s="408">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="192">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="433"/>
+      <c r="AA19" s="298"/>
+      <c r="AB19" s="299"/>
+      <c r="AC19" s="299">
         <v>3</v>
       </c>
-      <c r="O18" s="433">
-        <v>3.99</v>
-      </c>
-      <c r="P18" s="399"/>
-      <c r="Q18" s="390">
-        <v>5.99</v>
-      </c>
-      <c r="R18" s="399"/>
-      <c r="S18" s="398"/>
-      <c r="T18" s="399"/>
-      <c r="U18" s="398"/>
-      <c r="V18" s="363" t="s">
-        <v>169</v>
-      </c>
-      <c r="W18" s="364">
-        <f t="shared" ref="W18:W19" si="6">COUNT(H18,J18,L18,N18,P18,R18,T18)</f>
-        <v>2</v>
-      </c>
-      <c r="X18" s="192">
-        <f t="shared" ref="X18" si="7">COUNT(I18,K18,M18,O18,Q18,S18,U18)</f>
-        <v>4</v>
-      </c>
-      <c r="Y18" s="128">
-        <v>12</v>
-      </c>
-      <c r="Z18" s="192">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="298">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="298">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="299"/>
-      <c r="AD18" s="299"/>
-      <c r="AE18" s="299">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="299"/>
-      <c r="AG18" s="299"/>
-      <c r="AH18" s="299"/>
-      <c r="AI18" s="299">
-        <v>2.5</v>
-      </c>
-      <c r="AJ18" s="299">
-        <v>3</v>
-      </c>
-      <c r="AK18" s="299"/>
-      <c r="AL18" s="299">
-        <v>3</v>
-      </c>
-      <c r="AM18" s="435">
-        <v>3.5</v>
-      </c>
-      <c r="AN18" s="436" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="358" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="131">
-        <v>15</v>
-      </c>
-      <c r="C19" s="126">
-        <f ca="1">2+$A$30-$A$32</f>
-        <v>97</v>
-      </c>
-      <c r="D19" s="376" t="s">
-        <v>339</v>
-      </c>
-      <c r="E19" s="191">
-        <f t="shared" ca="1" si="5"/>
-        <v>127</v>
-      </c>
-      <c r="F19" s="194">
-        <v>43859</v>
-      </c>
-      <c r="G19" s="357" t="s">
-        <v>309</v>
-      </c>
-      <c r="H19" s="382"/>
-      <c r="I19" s="389"/>
-      <c r="J19" s="386"/>
-      <c r="K19" s="389"/>
-      <c r="L19" s="386"/>
-      <c r="M19" s="389"/>
-      <c r="N19" s="384">
-        <v>2</v>
-      </c>
-      <c r="O19" s="383">
-        <v>3.99</v>
-      </c>
-      <c r="P19" s="386"/>
-      <c r="Q19" s="389"/>
-      <c r="R19" s="386"/>
-      <c r="S19" s="390">
-        <v>4.99</v>
-      </c>
-      <c r="T19" s="386"/>
-      <c r="U19" s="389"/>
-      <c r="V19" s="363" t="s">
-        <v>169</v>
-      </c>
-      <c r="W19" s="364">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="X19" s="192">
-        <f>COUNT(I19,K19,M19,O19,Q19,S19,U19)</f>
-        <v>2</v>
-      </c>
-      <c r="Y19" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="298"/>
-      <c r="AB19" s="298"/>
-      <c r="AC19" s="299"/>
       <c r="AD19" s="299"/>
       <c r="AE19" s="299"/>
-      <c r="AF19" s="299"/>
+      <c r="AF19" s="299">
+        <v>4</v>
+      </c>
       <c r="AG19" s="299">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AH19" s="299"/>
-      <c r="AI19" s="299">
-        <v>3.5</v>
-      </c>
+      <c r="AI19" s="299"/>
       <c r="AJ19" s="299"/>
-      <c r="AK19" s="299">
+      <c r="AK19" s="299"/>
+      <c r="AL19" s="434">
         <v>4.5</v>
       </c>
-      <c r="AL19" s="299"/>
-      <c r="AM19" s="435">
-        <v>7</v>
-      </c>
-      <c r="AN19" s="436" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM19" s="459" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN19" s="433"/>
+      <c r="AO19" s="298"/>
+      <c r="AP19" s="299">
+        <v>6</v>
+      </c>
+      <c r="AQ19" s="299"/>
+      <c r="AR19" s="299">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="299"/>
+      <c r="AT19" s="299"/>
+      <c r="AU19" s="299">
+        <f>SUM(AN19:AT19)</f>
+        <v>6</v>
+      </c>
+      <c r="AV19" s="435" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="346" t="s">
         <v>347</v>
       </c>
@@ -12211,202 +12597,252 @@
       </c>
       <c r="C20" s="126">
         <f ca="1">-1+$A$30-$A$32</f>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D20" s="130"/>
       <c r="E20" s="191">
-        <f t="shared" ca="1" si="5"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>127</v>
       </c>
       <c r="F20" s="194">
         <v>43862</v>
       </c>
       <c r="G20" s="357"/>
-      <c r="H20" s="382"/>
-      <c r="I20" s="389"/>
-      <c r="J20" s="382"/>
-      <c r="K20" s="389"/>
-      <c r="L20" s="386"/>
-      <c r="M20" s="389"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="389"/>
-      <c r="P20" s="386"/>
-      <c r="Q20" s="383">
+      <c r="H20" s="381"/>
+      <c r="I20" s="388"/>
+      <c r="J20" s="381"/>
+      <c r="K20" s="388"/>
+      <c r="L20" s="385"/>
+      <c r="M20" s="388"/>
+      <c r="N20" s="498"/>
+      <c r="O20" s="499"/>
+      <c r="P20" s="385"/>
+      <c r="Q20" s="382">
         <v>3.99</v>
       </c>
-      <c r="R20" s="384">
+      <c r="R20" s="383">
         <v>3</v>
       </c>
-      <c r="S20" s="389"/>
-      <c r="T20" s="386"/>
-      <c r="U20" s="389"/>
-      <c r="V20" s="361" t="s">
-        <v>175</v>
-      </c>
-      <c r="W20" s="364">
-        <f>COUNT(H20,J20,L20,N20,P20,R20,T20)</f>
+      <c r="S20" s="388"/>
+      <c r="T20" s="385"/>
+      <c r="U20" s="388"/>
+      <c r="V20" s="363">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="X20" s="128">
-        <f>COUNT(I20,K20,M20,O20,Q20,S20,U20)</f>
+      <c r="W20" s="128">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="Y20" s="409">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="434"/>
-      <c r="AB20" s="298"/>
+      <c r="X20" s="408">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="433"/>
+      <c r="AA20" s="298"/>
+      <c r="AB20" s="299"/>
       <c r="AC20" s="299"/>
       <c r="AD20" s="299"/>
       <c r="AE20" s="299"/>
-      <c r="AF20" s="299"/>
+      <c r="AF20" s="299">
+        <v>5</v>
+      </c>
       <c r="AG20" s="299"/>
       <c r="AH20" s="299"/>
       <c r="AI20" s="299"/>
       <c r="AJ20" s="299"/>
       <c r="AK20" s="299"/>
-      <c r="AL20" s="299"/>
-      <c r="AM20" s="435"/>
-      <c r="AN20" s="436" t="s">
+      <c r="AL20" s="434"/>
+      <c r="AM20" s="461" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN20" s="433"/>
+      <c r="AO20" s="298"/>
+      <c r="AP20" s="299"/>
+      <c r="AQ20" s="299"/>
+      <c r="AR20" s="299">
+        <v>2</v>
+      </c>
+      <c r="AS20" s="299">
+        <v>2</v>
+      </c>
+      <c r="AT20" s="299"/>
+      <c r="AU20" s="299">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AV20" s="435" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="341" t="s">
-        <v>337</v>
+    <row r="21" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="134" t="s">
+        <v>177</v>
       </c>
       <c r="B21" s="125">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="126">
-        <f ca="1">-3+$A$30-$A$32</f>
-        <v>92</v>
+        <f ca="1">67+$A$30-$A$32-112</f>
+        <v>53</v>
       </c>
       <c r="D21" s="127"/>
       <c r="E21" s="191">
-        <f t="shared" ca="1" si="5"/>
-        <v>132</v>
+        <f ca="1">F21-TODAY()</f>
+        <v>14</v>
       </c>
       <c r="F21" s="194">
-        <v>43864</v>
-      </c>
-      <c r="G21" s="357" t="s">
-        <v>309</v>
-      </c>
-      <c r="H21" s="382"/>
-      <c r="I21" s="383">
-        <v>1.99</v>
-      </c>
-      <c r="J21" s="391">
+        <v>43749</v>
+      </c>
+      <c r="G21" s="357"/>
+      <c r="H21" s="381"/>
+      <c r="I21" s="388"/>
+      <c r="J21" s="431">
         <v>3</v>
       </c>
-      <c r="K21" s="393">
-        <v>4.99</v>
-      </c>
-      <c r="L21" s="386"/>
-      <c r="M21" s="389"/>
-      <c r="N21" s="441">
+      <c r="K21" s="432">
+        <v>3.99</v>
+      </c>
+      <c r="L21" s="437">
+        <v>2</v>
+      </c>
+      <c r="M21" s="438">
+        <v>2.99</v>
+      </c>
+      <c r="N21" s="385"/>
+      <c r="O21" s="382">
+        <v>2.99</v>
+      </c>
+      <c r="P21" s="385"/>
+      <c r="Q21" s="386"/>
+      <c r="R21" s="500"/>
+      <c r="S21" s="499"/>
+      <c r="T21" s="385"/>
+      <c r="U21" s="388"/>
+      <c r="V21" s="363">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W21" s="192">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="O21" s="442">
-        <v>3.99</v>
-      </c>
-      <c r="P21" s="386"/>
-      <c r="Q21" s="385">
-        <v>6.99</v>
-      </c>
-      <c r="R21" s="386"/>
-      <c r="S21" s="389"/>
-      <c r="T21" s="386"/>
-      <c r="U21" s="389"/>
-      <c r="V21" s="361" t="s">
-        <v>338</v>
-      </c>
-      <c r="W21" s="364">
-        <f>COUNT(H21,J21,L21,N21,P21,R21,T21)</f>
-        <v>2</v>
-      </c>
-      <c r="X21" s="192">
-        <f>COUNT(I21,K21,M21,O21,Q21,S21,U21)</f>
+      <c r="X21" s="128">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="298">
+        <v>1.5</v>
+      </c>
+      <c r="AA21" s="298">
+        <v>3.5</v>
+      </c>
+      <c r="AB21" s="299"/>
+      <c r="AC21" s="299"/>
+      <c r="AD21" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AE21" s="299"/>
+      <c r="AF21" s="299">
+        <v>3.5</v>
+      </c>
+      <c r="AG21" s="299"/>
+      <c r="AH21" s="299">
+        <v>4.5</v>
+      </c>
+      <c r="AI21" s="299">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="299">
+        <v>6</v>
+      </c>
+      <c r="AK21" s="299">
         <v>4</v>
       </c>
-      <c r="Y21" s="128">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="298"/>
-      <c r="AB21" s="298">
-        <v>3.5</v>
-      </c>
-      <c r="AC21" s="299"/>
-      <c r="AD21" s="299"/>
-      <c r="AE21" s="299"/>
-      <c r="AF21" s="299"/>
-      <c r="AG21" s="299">
-        <v>4</v>
-      </c>
-      <c r="AH21" s="299"/>
-      <c r="AI21" s="299"/>
-      <c r="AJ21" s="299"/>
-      <c r="AK21" s="299"/>
-      <c r="AL21" s="299"/>
-      <c r="AM21" s="435">
-        <v>5</v>
-      </c>
-      <c r="AN21" s="436" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="458" t="s">
+      <c r="AL21" s="434">
+        <v>6</v>
+      </c>
+      <c r="AM21" s="459" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN21" s="433"/>
+      <c r="AO21" s="298">
+        <v>3</v>
+      </c>
+      <c r="AP21" s="299">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="299">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="299"/>
+      <c r="AS21" s="299"/>
+      <c r="AT21" s="299"/>
+      <c r="AU21" s="299">
+        <f>SUM(AN21:AT21)</f>
+        <v>3</v>
+      </c>
+      <c r="AV21" s="435" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" s="472" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="458"/>
-      <c r="C22" s="458"/>
-      <c r="D22" s="458"/>
-      <c r="E22" s="458"/>
+      <c r="B22" s="472"/>
+      <c r="C22" s="472"/>
+      <c r="D22" s="472"/>
+      <c r="E22" s="472"/>
       <c r="F22" s="121"/>
       <c r="G22" s="120"/>
-      <c r="H22" s="378"/>
-      <c r="I22" s="379"/>
+      <c r="H22" s="377"/>
+      <c r="I22" s="378"/>
       <c r="J22" s="121"/>
-      <c r="K22" s="379"/>
+      <c r="K22" s="378"/>
       <c r="L22" s="121"/>
-      <c r="M22" s="379"/>
+      <c r="M22" s="378"/>
       <c r="N22" s="121"/>
-      <c r="O22" s="379"/>
+      <c r="O22" s="378"/>
       <c r="P22" s="121"/>
-      <c r="Q22" s="379"/>
+      <c r="Q22" s="378"/>
       <c r="R22" s="121"/>
-      <c r="S22" s="379"/>
+      <c r="S22" s="378"/>
       <c r="T22" s="121"/>
-      <c r="U22" s="379"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="359"/>
+      <c r="U22" s="378"/>
+      <c r="V22" s="359"/>
+      <c r="W22" s="120"/>
       <c r="X22" s="120"/>
       <c r="Y22" s="120"/>
       <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="297"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="292"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="345"/>
-      <c r="AG22" s="120"/>
-      <c r="AH22" s="375"/>
-      <c r="AI22" s="292"/>
-      <c r="AJ22" s="120"/>
-      <c r="AK22" s="372"/>
-      <c r="AL22" s="375"/>
+      <c r="AA22" s="297"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="292"/>
+      <c r="AD22" s="120"/>
+      <c r="AE22" s="345"/>
+      <c r="AF22" s="120"/>
+      <c r="AG22" s="374"/>
+      <c r="AH22" s="292"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="371"/>
+      <c r="AK22" s="374"/>
+      <c r="AL22" s="120"/>
       <c r="AM22" s="120"/>
-      <c r="AN22" s="122"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN22" s="458"/>
+      <c r="AO22" s="458"/>
+      <c r="AP22" s="458"/>
+      <c r="AQ22" s="458"/>
+      <c r="AR22" s="458"/>
+      <c r="AS22" s="458"/>
+      <c r="AT22" s="458"/>
+      <c r="AU22" s="458"/>
+      <c r="AV22" s="122"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="123" t="s">
         <v>164</v>
       </c>
@@ -12416,22 +12852,22 @@
       <c r="E23" s="123"/>
       <c r="F23" s="123"/>
       <c r="G23" s="124"/>
-      <c r="H23" s="380" t="s">
+      <c r="H23" s="379" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="381"/>
+      <c r="I23" s="380"/>
       <c r="J23" s="123"/>
-      <c r="K23" s="381"/>
+      <c r="K23" s="380"/>
       <c r="L23" s="123"/>
-      <c r="M23" s="381"/>
+      <c r="M23" s="380"/>
       <c r="N23" s="123"/>
-      <c r="O23" s="381"/>
+      <c r="O23" s="380"/>
       <c r="P23" s="123"/>
-      <c r="Q23" s="381"/>
+      <c r="Q23" s="380"/>
       <c r="R23" s="123"/>
-      <c r="S23" s="381"/>
+      <c r="S23" s="380"/>
       <c r="T23" s="123"/>
-      <c r="U23" s="381"/>
+      <c r="U23" s="380"/>
       <c r="V23" s="124"/>
       <c r="W23" s="124"/>
       <c r="X23" s="124"/>
@@ -12450,9 +12886,17 @@
       <c r="AK23" s="124"/>
       <c r="AL23" s="124"/>
       <c r="AM23" s="124"/>
-      <c r="AN23" s="122"/>
-    </row>
-    <row r="24" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN23" s="124"/>
+      <c r="AO23" s="124"/>
+      <c r="AP23" s="124"/>
+      <c r="AQ23" s="124"/>
+      <c r="AR23" s="124"/>
+      <c r="AS23" s="124"/>
+      <c r="AT23" s="124"/>
+      <c r="AU23" s="124"/>
+      <c r="AV23" s="122"/>
+    </row>
+    <row r="24" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="123" t="s">
         <v>3</v>
       </c>
@@ -12475,216 +12919,267 @@
       <c r="G24" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="H24" s="406" t="s">
+      <c r="H24" s="405" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="407" t="s">
+      <c r="I24" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="J24" s="408" t="s">
+      <c r="J24" s="407" t="s">
         <v>152</v>
       </c>
-      <c r="K24" s="407" t="s">
+      <c r="K24" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="L24" s="408" t="s">
+      <c r="L24" s="407" t="s">
         <v>153</v>
       </c>
-      <c r="M24" s="407" t="s">
+      <c r="M24" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="N24" s="408" t="s">
+      <c r="N24" s="407" t="s">
         <v>60</v>
       </c>
-      <c r="O24" s="407" t="s">
+      <c r="O24" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="P24" s="408" t="s">
+      <c r="P24" s="407" t="s">
         <v>154</v>
       </c>
-      <c r="Q24" s="407" t="s">
+      <c r="Q24" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="R24" s="408" t="s">
+      <c r="R24" s="407" t="s">
         <v>155</v>
       </c>
-      <c r="S24" s="407" t="s">
+      <c r="S24" s="406" t="s">
         <v>39</v>
       </c>
-      <c r="T24" s="408" t="s">
+      <c r="T24" s="407" t="s">
         <v>156</v>
       </c>
-      <c r="U24" s="407" t="s">
+      <c r="U24" s="406" t="s">
         <v>39</v>
       </c>
       <c r="V24" s="124" t="str">
         <f>V11</f>
-        <v>U20</v>
+        <v>Hab</v>
       </c>
       <c r="W24" s="124" t="str">
         <f>W11</f>
-        <v>Hab</v>
+        <v>Pot</v>
       </c>
       <c r="X24" s="124" t="str">
         <f>X11</f>
-        <v>Pot</v>
-      </c>
-      <c r="Y24" s="124" t="str">
-        <f>Y11</f>
         <v>Cap</v>
       </c>
+      <c r="Y24" s="124" t="s">
+        <v>156</v>
+      </c>
       <c r="Z24" s="124" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="AA24" s="124" t="s">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="AB24" s="124" t="s">
-        <v>266</v>
+        <v>159</v>
       </c>
       <c r="AC24" s="124" t="s">
-        <v>159</v>
+        <v>264</v>
       </c>
       <c r="AD24" s="124" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="AE24" s="124" t="s">
-        <v>160</v>
+        <v>310</v>
       </c>
       <c r="AF24" s="124" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG24" s="124" t="s">
         <v>161</v>
       </c>
+      <c r="AG24" s="124" t="str">
+        <f t="shared" ref="AG24:AL24" si="9">AG11</f>
+        <v>EM</v>
+      </c>
       <c r="AH24" s="124" t="str">
-        <f>AH11</f>
-        <v>EM</v>
+        <f t="shared" si="9"/>
+        <v>MD</v>
       </c>
       <c r="AI24" s="124" t="str">
-        <f t="shared" ref="AI24:AM24" si="8">AI11</f>
-        <v>MD</v>
+        <f t="shared" si="9"/>
+        <v>MO</v>
       </c>
       <c r="AJ24" s="124" t="str">
-        <f t="shared" si="8"/>
-        <v>MO</v>
+        <f t="shared" si="9"/>
+        <v>DD</v>
       </c>
       <c r="AK24" s="124" t="str">
-        <f t="shared" si="8"/>
-        <v>DD</v>
+        <f t="shared" si="9"/>
+        <v>DL</v>
       </c>
       <c r="AL24" s="124" t="str">
-        <f t="shared" si="8"/>
-        <v>DL</v>
+        <f t="shared" si="9"/>
+        <v>DAV</v>
       </c>
       <c r="AM24" s="124" t="str">
-        <f t="shared" si="8"/>
-        <v>DAV</v>
-      </c>
-      <c r="AN24" s="122" t="str">
+        <f>AM11</f>
+        <v>U20</v>
+      </c>
+      <c r="AN24" s="464" t="str">
         <f>AN11</f>
+        <v>POR</v>
+      </c>
+      <c r="AO24" s="464" t="str">
+        <f t="shared" ref="AO24:AT24" si="10">AO11</f>
+        <v>DEF</v>
+      </c>
+      <c r="AP24" s="464" t="str">
+        <f t="shared" si="10"/>
+        <v>JUG</v>
+      </c>
+      <c r="AQ24" s="464" t="str">
+        <f t="shared" si="10"/>
+        <v>LAT</v>
+      </c>
+      <c r="AR24" s="464" t="str">
+        <f t="shared" si="10"/>
+        <v>PAS</v>
+      </c>
+      <c r="AS24" s="464" t="str">
+        <f t="shared" si="10"/>
+        <v>ANO</v>
+      </c>
+      <c r="AT24" s="464" t="str">
+        <f t="shared" si="10"/>
+        <v>BP</v>
+      </c>
+      <c r="AU24" s="464" t="str">
+        <f>AU3</f>
+        <v>Tot</v>
+      </c>
+      <c r="AV24" s="122" t="str">
+        <f>AV11</f>
         <v>Ca</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="293" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="131">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="126">
-        <f ca="1">14+$A$30-$A$32</f>
-        <v>109</v>
+        <f ca="1">14+$A$30-$A$32-112</f>
+        <v>0</v>
       </c>
       <c r="D25" s="127" t="s">
         <v>268</v>
       </c>
       <c r="E25" s="191">
-        <f t="shared" ref="E25" ca="1" si="9">F25-TODAY()</f>
-        <v>115</v>
+        <f t="shared" ref="E25" ca="1" si="11">F25-TODAY()</f>
+        <v>112</v>
       </c>
       <c r="F25" s="194">
         <v>43847</v>
       </c>
       <c r="G25" s="357"/>
-      <c r="H25" s="382"/>
-      <c r="I25" s="383">
+      <c r="H25" s="381"/>
+      <c r="I25" s="382">
         <v>0.99</v>
       </c>
-      <c r="J25" s="430">
+      <c r="J25" s="429">
         <v>1</v>
       </c>
-      <c r="K25" s="431">
+      <c r="K25" s="430">
         <v>1.99</v>
       </c>
-      <c r="L25" s="386"/>
-      <c r="M25" s="383">
+      <c r="L25" s="385"/>
+      <c r="M25" s="382">
         <v>2.99</v>
       </c>
-      <c r="N25" s="386"/>
-      <c r="O25" s="383">
+      <c r="N25" s="385"/>
+      <c r="O25" s="382">
         <v>1.99</v>
       </c>
-      <c r="P25" s="386"/>
-      <c r="Q25" s="389"/>
-      <c r="R25" s="386"/>
-      <c r="S25" s="389"/>
-      <c r="T25" s="386"/>
-      <c r="U25" s="389"/>
-      <c r="V25" s="363" t="s">
-        <v>171</v>
-      </c>
-      <c r="W25" s="364">
-        <f t="shared" ref="W25:W26" si="10">COUNT(H25,J25,L25,N25,P25,R25,T25)</f>
+      <c r="P25" s="385"/>
+      <c r="Q25" s="388"/>
+      <c r="R25" s="385"/>
+      <c r="S25" s="388"/>
+      <c r="T25" s="385"/>
+      <c r="U25" s="388"/>
+      <c r="V25" s="363">
+        <f t="shared" ref="V25:W27" si="12">COUNT(H25,J25,L25,N25,P25,R25,T25)</f>
         <v>1</v>
       </c>
-      <c r="X25" s="128">
-        <f t="shared" ref="X25" si="11">COUNT(I25,K25,M25,O25,Q25,S25,U25)</f>
+      <c r="W25" s="128">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="Y25" s="409">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="434">
+      <c r="X25" s="408">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="433">
         <v>0.5</v>
       </c>
-      <c r="AB25" s="298"/>
+      <c r="AA25" s="298"/>
+      <c r="AB25" s="299">
+        <v>1.5</v>
+      </c>
       <c r="AC25" s="299">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD25" s="299">
         <v>2</v>
       </c>
       <c r="AE25" s="299">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AF25" s="299">
         <v>2.5</v>
       </c>
-      <c r="AG25" s="299">
+      <c r="AG25" s="299"/>
+      <c r="AH25" s="299"/>
+      <c r="AI25" s="299">
         <v>2.5</v>
       </c>
-      <c r="AH25" s="299"/>
-      <c r="AI25" s="299"/>
       <c r="AJ25" s="299">
+        <v>3</v>
+      </c>
+      <c r="AK25" s="299"/>
+      <c r="AL25" s="434">
         <v>2.5</v>
       </c>
-      <c r="AK25" s="299">
-        <v>3</v>
-      </c>
-      <c r="AL25" s="299"/>
-      <c r="AM25" s="435">
-        <v>2.5</v>
-      </c>
-      <c r="AN25" s="436" t="s">
+      <c r="AM25" s="460" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN25" s="433">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="298">
+        <v>-2</v>
+      </c>
+      <c r="AP25" s="299">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="299">
+        <v>-1</v>
+      </c>
+      <c r="AR25" s="299"/>
+      <c r="AS25" s="299"/>
+      <c r="AT25" s="299"/>
+      <c r="AU25" s="299">
+        <f t="shared" ref="AU25:AU27" si="13">SUM(AN25:AT25)</f>
+        <v>-3</v>
+      </c>
+      <c r="AV25" s="435" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="293" t="s">
         <v>173</v>
       </c>
@@ -12693,94 +13188,111 @@
       </c>
       <c r="C26" s="126">
         <f ca="1">51+$A$30-$A$32-112</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D26" s="127" t="s">
         <v>268</v>
       </c>
       <c r="E26" s="191">
-        <f t="shared" ref="E26:E27" ca="1" si="12">F26-TODAY()</f>
-        <v>78</v>
+        <f t="shared" ref="E26:E27" ca="1" si="14">F26-TODAY()</f>
+        <v>75</v>
       </c>
       <c r="F26" s="194">
         <v>43810</v>
       </c>
       <c r="G26" s="357"/>
-      <c r="H26" s="382"/>
-      <c r="I26" s="389"/>
-      <c r="J26" s="430">
+      <c r="H26" s="381"/>
+      <c r="I26" s="388"/>
+      <c r="J26" s="429">
         <v>2</v>
       </c>
-      <c r="K26" s="431">
+      <c r="K26" s="430">
         <v>2.99</v>
       </c>
-      <c r="L26" s="432">
+      <c r="L26" s="431">
         <v>3</v>
       </c>
-      <c r="M26" s="433">
+      <c r="M26" s="432">
         <v>3.99</v>
       </c>
-      <c r="N26" s="430">
+      <c r="N26" s="429">
         <v>1</v>
       </c>
-      <c r="O26" s="431">
+      <c r="O26" s="430">
         <v>1.99</v>
       </c>
-      <c r="P26" s="386"/>
-      <c r="Q26" s="389"/>
-      <c r="R26" s="386"/>
-      <c r="S26" s="389"/>
-      <c r="T26" s="386"/>
-      <c r="U26" s="389"/>
-      <c r="V26" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W26" s="364">
-        <f t="shared" si="10"/>
+      <c r="P26" s="385"/>
+      <c r="Q26" s="388"/>
+      <c r="R26" s="385"/>
+      <c r="S26" s="388"/>
+      <c r="T26" s="385"/>
+      <c r="U26" s="388"/>
+      <c r="V26" s="363">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="X26" s="128">
-        <f>COUNT(I26,K26,M26,O26,Q26,S26,U26)</f>
+      <c r="W26" s="128">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="Y26" s="409">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="434">
+      <c r="X26" s="408">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="433">
         <v>1</v>
       </c>
-      <c r="AB26" s="298">
+      <c r="AA26" s="298">
         <v>3.5</v>
       </c>
-      <c r="AC26" s="299">
+      <c r="AB26" s="299">
         <v>2</v>
       </c>
+      <c r="AC26" s="299"/>
       <c r="AD26" s="299"/>
       <c r="AE26" s="299"/>
-      <c r="AF26" s="299"/>
-      <c r="AG26" s="299">
+      <c r="AF26" s="299">
         <v>2.5</v>
       </c>
-      <c r="AH26" s="299"/>
+      <c r="AG26" s="299"/>
+      <c r="AH26" s="299">
+        <v>4</v>
+      </c>
       <c r="AI26" s="299">
-        <v>4</v>
-      </c>
-      <c r="AJ26" s="299">
         <v>2.5</v>
       </c>
+      <c r="AJ26" s="299"/>
       <c r="AK26" s="299"/>
-      <c r="AL26" s="299"/>
-      <c r="AM26" s="435">
+      <c r="AL26" s="434">
         <v>3</v>
       </c>
-      <c r="AN26" s="436" t="s">
+      <c r="AM26" s="459" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN26" s="433"/>
+      <c r="AO26" s="298">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="299">
+        <v>3</v>
+      </c>
+      <c r="AQ26" s="299">
+        <v>-1</v>
+      </c>
+      <c r="AR26" s="299"/>
+      <c r="AS26" s="299"/>
+      <c r="AT26" s="299"/>
+      <c r="AU26" s="299">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="AV26" s="435" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="133" t="s">
         <v>178</v>
       </c>
@@ -12789,84 +13301,101 @@
       </c>
       <c r="C27" s="126">
         <f ca="1">71+$A$30-$A$32-112</f>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D27" s="132"/>
       <c r="E27" s="191">
-        <f t="shared" ca="1" si="12"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>14</v>
       </c>
       <c r="F27" s="194">
         <v>43749</v>
       </c>
       <c r="G27" s="357"/>
-      <c r="H27" s="382"/>
-      <c r="I27" s="389"/>
-      <c r="J27" s="391">
+      <c r="H27" s="381"/>
+      <c r="I27" s="388"/>
+      <c r="J27" s="390">
         <v>3</v>
       </c>
-      <c r="K27" s="389"/>
-      <c r="L27" s="430">
+      <c r="K27" s="388"/>
+      <c r="L27" s="429">
         <v>2</v>
       </c>
-      <c r="M27" s="431">
+      <c r="M27" s="430">
         <v>2.99</v>
       </c>
-      <c r="N27" s="386"/>
-      <c r="O27" s="383">
+      <c r="N27" s="385"/>
+      <c r="O27" s="382">
         <v>3.99</v>
       </c>
-      <c r="P27" s="386"/>
-      <c r="Q27" s="387"/>
-      <c r="R27" s="388"/>
-      <c r="S27" s="387"/>
-      <c r="T27" s="388"/>
-      <c r="U27" s="389"/>
-      <c r="V27" s="362" t="s">
-        <v>172</v>
-      </c>
-      <c r="W27" s="364">
-        <f>COUNT(H27,J27,L27,N27,P27,R27,T27)</f>
+      <c r="P27" s="385"/>
+      <c r="Q27" s="386"/>
+      <c r="R27" s="387"/>
+      <c r="S27" s="386"/>
+      <c r="T27" s="387"/>
+      <c r="U27" s="388"/>
+      <c r="V27" s="363">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="X27" s="128">
-        <f>COUNT(I27,K27,M27,O27,Q27,S27,U27)</f>
+      <c r="W27" s="128">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="Y27" s="409">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="192">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="434">
+      <c r="X27" s="408">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="192">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="433">
         <v>1.5</v>
       </c>
-      <c r="AB27" s="298"/>
+      <c r="AA27" s="298"/>
+      <c r="AB27" s="299"/>
       <c r="AC27" s="299"/>
       <c r="AD27" s="299"/>
-      <c r="AE27" s="299"/>
+      <c r="AE27" s="299">
+        <v>4</v>
+      </c>
       <c r="AF27" s="299">
         <v>4</v>
       </c>
-      <c r="AG27" s="299">
-        <v>4</v>
-      </c>
+      <c r="AG27" s="299"/>
       <c r="AH27" s="299"/>
-      <c r="AI27" s="299"/>
-      <c r="AJ27" s="299">
+      <c r="AI27" s="299">
         <v>3.5</v>
       </c>
+      <c r="AJ27" s="299"/>
       <c r="AK27" s="299"/>
-      <c r="AL27" s="299"/>
-      <c r="AM27" s="435">
+      <c r="AL27" s="434">
         <v>4.5</v>
       </c>
-      <c r="AN27" s="436" t="s">
+      <c r="AM27" s="459" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN27" s="433"/>
+      <c r="AO27" s="298">
+        <v>3</v>
+      </c>
+      <c r="AP27" s="299">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="299">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="299"/>
+      <c r="AS27" s="299"/>
+      <c r="AT27" s="299"/>
+      <c r="AU27" s="299">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AV27" s="435" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="131"/>
       <c r="B28" s="131"/>
       <c r="C28" s="135"/>
@@ -12894,11 +13423,13 @@
       <c r="Y28" s="113"/>
       <c r="Z28" s="113"/>
       <c r="AA28" s="113"/>
-      <c r="AB28" s="113"/>
-      <c r="AN28" s="129"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="400" t="s">
+      <c r="AM28" s="113"/>
+      <c r="AN28" s="113"/>
+      <c r="AO28" s="113"/>
+      <c r="AV28" s="129"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A29" s="399" t="s">
         <v>179</v>
       </c>
       <c r="B29" s="136"/>
@@ -12927,13 +13458,15 @@
       <c r="Y29" s="130"/>
       <c r="Z29" s="130"/>
       <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AN29" s="138"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM29" s="130"/>
+      <c r="AN29" s="130"/>
+      <c r="AO29" s="130"/>
+      <c r="AV29" s="138"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="139">
         <f ca="1">TODAY()</f>
-        <v>43732</v>
+        <v>43735</v>
       </c>
       <c r="B30" s="140"/>
       <c r="C30" s="136"/>
@@ -12962,13 +13495,15 @@
       <c r="Y30" s="130"/>
       <c r="Z30" s="130"/>
       <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AN30" s="141"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM30" s="130"/>
+      <c r="AN30" s="130"/>
+      <c r="AO30" s="130"/>
+      <c r="AV30" s="141"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="142">
         <f ca="1">A32-A30</f>
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="B31" s="140"/>
       <c r="C31" s="136"/>
@@ -12997,10 +13532,12 @@
       <c r="Y31" s="130"/>
       <c r="Z31" s="130"/>
       <c r="AA31" s="130"/>
-      <c r="AB31" s="130"/>
-      <c r="AN31" s="138"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM31" s="130"/>
+      <c r="AN31" s="130"/>
+      <c r="AO31" s="130"/>
+      <c r="AV31" s="138"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="143">
         <v>43637</v>
       </c>
@@ -13032,10 +13569,12 @@
       <c r="Y32" s="130"/>
       <c r="Z32" s="130"/>
       <c r="AA32" s="130"/>
-      <c r="AB32" s="130"/>
-      <c r="AN32" s="138"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AM32" s="130"/>
+      <c r="AN32" s="130"/>
+      <c r="AO32" s="130"/>
+      <c r="AV32" s="138"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="131"/>
       <c r="B33" s="140"/>
       <c r="C33" s="136"/>
@@ -13046,7 +13585,7 @@
       </c>
       <c r="G33" s="360"/>
       <c r="I33" s="1